--- a/docs/Listing_Tool_Status_Report_v1.0.xlsx
+++ b/docs/Listing_Tool_Status_Report_v1.0.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cloud\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="245" yWindow="82" windowWidth="19318" windowHeight="10542" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="84" windowWidth="16608" windowHeight="9432" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="WBS" sheetId="5" r:id="rId2"/>
     <sheet name="March 2010" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="126">
   <si>
     <t>Project Name:</t>
   </si>
@@ -649,11 +644,19 @@
     <t>Low</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>3.4 User interface to list transaction history, with search function</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5 User interface to apply withdraw</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -1162,7 +1165,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1231,146 +1234,152 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1386,7 +1395,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1428,7 +1437,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1460,10 +1469,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1495,7 +1503,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1671,22 +1678,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.375" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13.6" thickBot="1"/>
+    <row r="1" spans="2:10" ht="13.8" thickBot="1"/>
     <row r="2" spans="2:10">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -1698,7 +1705,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="2:10" ht="31.95">
+    <row r="3" spans="2:10" ht="31.8">
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
         <v>0</v>
@@ -1724,7 +1731,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="2:10" ht="13.6">
+    <row r="5" spans="2:10">
       <c r="B5" s="8"/>
       <c r="C5" s="14" t="s">
         <v>1</v>
@@ -1739,7 +1746,7 @@
       <c r="I5" s="12"/>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="2:10" ht="13.6">
+    <row r="6" spans="2:10">
       <c r="B6" s="8"/>
       <c r="C6" s="14" t="s">
         <v>3</v>
@@ -1765,7 +1772,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="2:10" ht="13.6">
+    <row r="8" spans="2:10">
       <c r="B8" s="8"/>
       <c r="C8" s="14" t="s">
         <v>5</v>
@@ -1897,7 +1904,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="2:10" ht="13.6">
+    <row r="18" spans="2:10">
       <c r="B18" s="8"/>
       <c r="C18" s="14" t="s">
         <v>4</v>
@@ -1912,7 +1919,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="2:10" ht="13.6">
+    <row r="19" spans="2:10">
       <c r="B19" s="8"/>
       <c r="C19" s="14" t="s">
         <v>7</v>
@@ -1938,7 +1945,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="2:10" ht="13.6" thickBot="1">
+    <row r="21" spans="2:10" ht="13.8" thickBot="1">
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -1957,28 +1964,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+    <sheetView showGridLines="0" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="39" style="58" customWidth="1"/>
-    <col min="2" max="2" width="41.875" style="59" customWidth="1"/>
-    <col min="3" max="3" width="54.125" style="58" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="58" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="81" customWidth="1"/>
-    <col min="7" max="8" width="11.75" style="58" customWidth="1"/>
-    <col min="9" max="9" width="34.625" style="58" customWidth="1"/>
-    <col min="10" max="16384" width="9.125" style="36"/>
+    <col min="1" max="1" width="39" style="55" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" style="56" customWidth="1"/>
+    <col min="3" max="3" width="54.109375" style="55" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="55" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="71" customWidth="1"/>
+    <col min="7" max="8" width="11.77734375" style="55" customWidth="1"/>
+    <col min="9" max="9" width="34.6640625" style="55" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.6">
+    <row r="1" spans="1:9">
       <c r="A1" s="33" t="s">
         <v>29</v>
       </c>
@@ -2007,7 +2014,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.3" thickBot="1">
+    <row r="2" spans="1:9" ht="13.8" thickBot="1">
       <c r="A2" s="37"/>
       <c r="B2" s="38"/>
       <c r="C2" s="37"/>
@@ -2019,1027 +2026,1051 @@
       <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44">
-        <v>42083</v>
-      </c>
-      <c r="H3" s="44">
-        <v>42083</v>
-      </c>
-      <c r="I3" s="45"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43">
+        <v>42083</v>
+      </c>
+      <c r="H3" s="43">
+        <v>42083</v>
+      </c>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50">
-        <v>42083</v>
-      </c>
-      <c r="H4" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I4" s="51"/>
-    </row>
-    <row r="5" spans="1:9" ht="13.6" customHeight="1" thickBot="1">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48">
+        <v>42083</v>
+      </c>
+      <c r="H4" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I4" s="49"/>
+    </row>
+    <row r="5" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A5" s="75"/>
+      <c r="B5" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56">
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53">
         <v>42084</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="57"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.3" thickBot="1">
-      <c r="D6" s="60" t="s">
+      <c r="H5" s="51"/>
+      <c r="I5" s="54"/>
+    </row>
+    <row r="6" spans="1:9" ht="13.8" thickBot="1">
+      <c r="D6" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61">
+      <c r="E6" s="57"/>
+      <c r="F6" s="58">
         <f>SUM(F3:F5)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.3" thickTop="1">
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.3" thickBot="1">
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-    </row>
-    <row r="9" spans="1:9" ht="26.5" customHeight="1">
-      <c r="A9" s="40" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+    </row>
+    <row r="7" spans="1:9" ht="13.8" thickTop="1">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+    </row>
+    <row r="8" spans="1:9" ht="13.8" thickBot="1">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+    </row>
+    <row r="9" spans="1:9" ht="26.55" customHeight="1">
+      <c r="A9" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44">
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43">
         <v>42081</v>
       </c>
-      <c r="H9" s="44">
-        <v>42083</v>
-      </c>
-      <c r="I9" s="45"/>
+      <c r="H9" s="43">
+        <v>42083</v>
+      </c>
+      <c r="I9" s="44"/>
     </row>
     <row r="10" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69">
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64">
         <v>42081</v>
       </c>
-      <c r="H10" s="69">
-        <v>42083</v>
-      </c>
-      <c r="I10" s="70"/>
+      <c r="H10" s="64">
+        <v>42083</v>
+      </c>
+      <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="48" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50">
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48">
         <v>42081</v>
       </c>
-      <c r="H11" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I11" s="51"/>
+      <c r="H11" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A12" s="46"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="71" t="s">
+      <c r="A12" s="74"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="50">
+      <c r="E12" s="66"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="48">
         <v>42081</v>
       </c>
-      <c r="H12" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I12" s="73"/>
+      <c r="H12" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I12" s="68"/>
     </row>
     <row r="13" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A13" s="46"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="71" t="s">
+      <c r="A13" s="74"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="50">
+      <c r="E13" s="66"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="48">
         <v>42081</v>
       </c>
-      <c r="H13" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I13" s="73"/>
+      <c r="H13" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I13" s="68"/>
     </row>
     <row r="14" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A14" s="46"/>
-      <c r="B14" s="75" t="s">
+      <c r="A14" s="74"/>
+      <c r="B14" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="71"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="50">
+      <c r="E14" s="66"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="48">
         <v>42082</v>
       </c>
-      <c r="H14" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I14" s="73"/>
+      <c r="H14" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A15" s="46"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="71" t="s">
+      <c r="A15" s="74"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="50">
+      <c r="E15" s="66"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="48">
         <v>42082</v>
       </c>
-      <c r="H15" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I15" s="73"/>
+      <c r="H15" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I15" s="68"/>
     </row>
     <row r="16" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A16" s="46"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="71" t="s">
+      <c r="A16" s="74"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="50">
+      <c r="E16" s="66"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="48">
         <v>42082</v>
       </c>
-      <c r="H16" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I16" s="73"/>
+      <c r="H16" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I16" s="68"/>
     </row>
     <row r="17" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A17" s="46"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="71" t="s">
+      <c r="A17" s="74"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="50">
+      <c r="E17" s="66"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="48">
         <v>42082</v>
       </c>
-      <c r="H17" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I17" s="73"/>
+      <c r="H17" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I17" s="68"/>
     </row>
     <row r="18" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A18" s="46"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="71" t="s">
+      <c r="A18" s="74"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="50">
+      <c r="E18" s="66"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="48">
         <v>42082</v>
       </c>
-      <c r="H18" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I18" s="73"/>
+      <c r="H18" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I18" s="68"/>
     </row>
     <row r="19" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A19" s="46"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="71" t="s">
+      <c r="A19" s="74"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="50">
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="48">
         <v>42082</v>
       </c>
-      <c r="H19" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I19" s="73"/>
+      <c r="H19" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I19" s="68"/>
     </row>
     <row r="20" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A20" s="46"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="71" t="s">
+      <c r="A20" s="74"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="50">
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="48">
         <v>42082</v>
       </c>
-      <c r="H20" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I20" s="73"/>
-    </row>
-    <row r="21" spans="1:9" ht="13.6" customHeight="1" thickBot="1">
-      <c r="A21" s="52"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="78" t="s">
+      <c r="H20" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I20" s="68"/>
+    </row>
+    <row r="21" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A21" s="75"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="56">
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53">
         <v>42082</v>
       </c>
-      <c r="H21" s="56">
-        <v>42083</v>
-      </c>
-      <c r="I21" s="57"/>
-    </row>
-    <row r="22" spans="1:9" ht="14.3" thickBot="1">
-      <c r="D22" s="60" t="s">
+      <c r="H21" s="53">
+        <v>42083</v>
+      </c>
+      <c r="I21" s="54"/>
+    </row>
+    <row r="22" spans="1:9" ht="13.8" thickBot="1">
+      <c r="D22" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61">
+      <c r="E22" s="57"/>
+      <c r="F22" s="58">
         <f>SUM(F9:F21)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.3" thickTop="1">
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.3" thickBot="1">
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+    </row>
+    <row r="23" spans="1:9" ht="13.8" thickTop="1">
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+    </row>
+    <row r="24" spans="1:9" ht="13.8" thickBot="1">
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
     </row>
     <row r="25" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42" t="s">
+      <c r="C25" s="41"/>
+      <c r="D25" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="44">
+      <c r="E25" s="41"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43">
         <v>42080</v>
       </c>
-      <c r="H25" s="44">
-        <v>42083</v>
-      </c>
-      <c r="I25" s="45"/>
+      <c r="H25" s="43">
+        <v>42083</v>
+      </c>
+      <c r="I25" s="44"/>
     </row>
     <row r="26" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A26" s="46"/>
-      <c r="B26" s="47" t="s">
+      <c r="A26" s="74"/>
+      <c r="B26" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48" t="s">
+      <c r="C26" s="46"/>
+      <c r="D26" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="79">
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="70">
         <v>42080</v>
       </c>
-      <c r="H26" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I26" s="51"/>
+      <c r="H26" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I26" s="49"/>
     </row>
     <row r="27" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A27" s="46"/>
-      <c r="B27" s="75" t="s">
+      <c r="A27" s="74"/>
+      <c r="B27" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="71" t="s">
+      <c r="D27" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="71"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="79">
+      <c r="E27" s="66"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="70">
         <v>42080</v>
       </c>
-      <c r="H27" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I27" s="73"/>
+      <c r="H27" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I27" s="68"/>
     </row>
     <row r="28" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A28" s="46"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="71" t="s">
+      <c r="A28" s="74"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="71" t="s">
+      <c r="D28" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="71"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="79">
+      <c r="E28" s="66"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="70">
         <v>42080</v>
       </c>
-      <c r="H28" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I28" s="73"/>
+      <c r="H28" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I28" s="68"/>
     </row>
     <row r="29" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A29" s="46"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="71" t="s">
+      <c r="A29" s="74"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="71"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="79">
+      <c r="E29" s="66"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="70">
         <v>42080</v>
       </c>
-      <c r="H29" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I29" s="73"/>
-    </row>
-    <row r="30" spans="1:9" ht="13.6" customHeight="1" thickBot="1">
-      <c r="A30" s="52"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="54" t="s">
+      <c r="H29" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I29" s="68"/>
+    </row>
+    <row r="30" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A30" s="75"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="54"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="56">
+      <c r="E30" s="51"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="53">
         <v>42080</v>
       </c>
-      <c r="H30" s="56">
-        <v>42083</v>
-      </c>
-      <c r="I30" s="57"/>
-    </row>
-    <row r="31" spans="1:9" ht="14.3" thickBot="1">
-      <c r="D31" s="60" t="s">
+      <c r="H30" s="53">
+        <v>42083</v>
+      </c>
+      <c r="I30" s="54"/>
+    </row>
+    <row r="31" spans="1:9" ht="13.8" thickBot="1">
+      <c r="D31" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61">
+      <c r="E31" s="57"/>
+      <c r="F31" s="58">
         <f>SUM(F25:F30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-    </row>
-    <row r="32" spans="1:9" ht="14.3" thickTop="1">
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-    </row>
-    <row r="33" spans="1:9" ht="14.3" thickBot="1">
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+    </row>
+    <row r="32" spans="1:9" ht="13.8" thickTop="1">
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+    </row>
+    <row r="33" spans="1:9" ht="13.8" thickBot="1">
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42" t="s">
+      <c r="C34" s="41"/>
+      <c r="D34" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="44">
+      <c r="E34" s="41"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43">
         <v>42079</v>
       </c>
-      <c r="H34" s="44">
-        <v>42083</v>
-      </c>
-      <c r="I34" s="45"/>
+      <c r="H34" s="43">
+        <v>42083</v>
+      </c>
+      <c r="I34" s="44"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="46"/>
-      <c r="B35" s="75" t="s">
+      <c r="A35" s="74"/>
+      <c r="B35" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="48" t="s">
+      <c r="D35" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="79">
+      <c r="E35" s="46"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="70">
         <v>42079</v>
       </c>
-      <c r="H35" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I35" s="51"/>
+      <c r="H35" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I35" s="49"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="46"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="71" t="s">
+      <c r="A36" s="74"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="71"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="79">
+      <c r="E36" s="66"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="70">
         <v>42079</v>
       </c>
-      <c r="H36" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I36" s="73"/>
+      <c r="H36" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I36" s="68"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="46"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="71" t="s">
+      <c r="A37" s="74"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="48" t="s">
+      <c r="D37" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="71"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="79">
+      <c r="E37" s="66"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="70">
         <v>42079</v>
       </c>
-      <c r="H37" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I37" s="73"/>
+      <c r="H37" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I37" s="68"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="46"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="71" t="s">
+      <c r="A38" s="74"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="71"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="79">
+      <c r="E38" s="66"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="70">
         <v>42079</v>
       </c>
-      <c r="H38" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I38" s="73"/>
+      <c r="H38" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I38" s="68"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="46"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="71" t="s">
+      <c r="A39" s="74"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="71"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="79">
+      <c r="E39" s="66"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="70">
         <v>42079</v>
       </c>
-      <c r="H39" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I39" s="73"/>
+      <c r="H39" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I39" s="68"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="46"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="71" t="s">
+      <c r="A40" s="74"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="E40" s="71"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="79">
+      <c r="E40" s="66"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="70">
         <v>42079</v>
       </c>
-      <c r="H40" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I40" s="73"/>
+      <c r="H40" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I40" s="68"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="46"/>
-      <c r="B41" s="75" t="s">
+      <c r="A41" s="74"/>
+      <c r="B41" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="71" t="s">
+      <c r="C41" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="D41" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="71"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="79">
+      <c r="E41" s="66"/>
+      <c r="F41" s="67">
+        <f>'March 2010'!T26</f>
+        <v>5</v>
+      </c>
+      <c r="G41" s="70">
         <v>42079</v>
       </c>
-      <c r="H41" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I41" s="73"/>
+      <c r="H41" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I41" s="68"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="46"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="71" t="s">
+      <c r="A42" s="74"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="71"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="79">
+      <c r="E42" s="66"/>
+      <c r="F42" s="67">
+        <f>'March 2010'!T27</f>
+        <v>7</v>
+      </c>
+      <c r="G42" s="70">
         <v>42079</v>
       </c>
-      <c r="H42" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I42" s="73"/>
+      <c r="H42" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I42" s="68"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="46"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="71" t="s">
+      <c r="A43" s="74"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="71"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="79">
+      <c r="E43" s="66"/>
+      <c r="F43" s="67">
+        <f>'March 2010'!T28</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="70">
         <v>42079</v>
       </c>
-      <c r="H43" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I43" s="73"/>
+      <c r="H43" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I43" s="68"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="46"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="71" t="s">
+      <c r="A44" s="74"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="48" t="s">
+      <c r="D44" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="71"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="79">
+      <c r="E44" s="66"/>
+      <c r="F44" s="67">
+        <f>'March 2010'!T29</f>
+        <v>8</v>
+      </c>
+      <c r="G44" s="70">
         <v>42079</v>
       </c>
-      <c r="H44" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I44" s="73"/>
+      <c r="H44" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I44" s="68"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="46"/>
-      <c r="B45" s="76"/>
-      <c r="C45" s="71" t="s">
+      <c r="A45" s="74"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="71" t="s">
+      <c r="D45" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="71"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="79">
+      <c r="E45" s="66"/>
+      <c r="F45" s="67">
+        <f>'March 2010'!T30</f>
+        <v>8</v>
+      </c>
+      <c r="G45" s="70">
         <v>42079</v>
       </c>
-      <c r="H45" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I45" s="73"/>
-    </row>
-    <row r="46" spans="1:9" ht="13.6" thickBot="1">
-      <c r="A46" s="52"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="54" t="s">
+      <c r="H45" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I45" s="68"/>
+    </row>
+    <row r="46" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A46" s="75"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="54" t="s">
+      <c r="D46" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="56">
+      <c r="E46" s="51"/>
+      <c r="F46" s="67">
+        <f>'March 2010'!T31</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="53">
         <v>42079</v>
       </c>
-      <c r="H46" s="56">
-        <v>42083</v>
-      </c>
-      <c r="I46" s="57"/>
-    </row>
-    <row r="47" spans="1:9" ht="14.3" thickBot="1">
-      <c r="D47" s="60" t="s">
+      <c r="H46" s="53">
+        <v>42083</v>
+      </c>
+      <c r="I46" s="54"/>
+    </row>
+    <row r="47" spans="1:9" ht="13.8" thickBot="1">
+      <c r="D47" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="60"/>
-      <c r="F47" s="61">
+      <c r="E47" s="57"/>
+      <c r="F47" s="58">
         <f>SUM(F34:F46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="13.6" thickTop="1"/>
-    <row r="49" spans="1:9" ht="13.6" thickBot="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="13.8" thickTop="1"/>
+    <row r="49" spans="1:9" ht="13.8" thickBot="1"/>
     <row r="50" spans="1:9">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="82" t="s">
+      <c r="B50" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="42" t="s">
+      <c r="C50" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="42" t="s">
+      <c r="D50" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="E50" s="42"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="44">
+      <c r="E50" s="41"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="43">
         <v>42079</v>
       </c>
-      <c r="H50" s="44">
-        <v>42083</v>
-      </c>
-      <c r="I50" s="45"/>
+      <c r="H50" s="43">
+        <v>42083</v>
+      </c>
+      <c r="I50" s="44"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="46"/>
-      <c r="B51" s="83"/>
-      <c r="C51" s="67" t="s">
+      <c r="A51" s="74"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="67" t="s">
+      <c r="D51" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="E51" s="67"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="79">
+      <c r="E51" s="62"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="70">
         <v>42079</v>
       </c>
-      <c r="H51" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I51" s="70"/>
+      <c r="H51" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I51" s="65"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="46"/>
-      <c r="B52" s="75" t="s">
+      <c r="A52" s="74"/>
+      <c r="B52" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="48" t="s">
+      <c r="C52" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D52" s="48" t="s">
+      <c r="D52" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="79">
+      <c r="E52" s="46"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="70">
         <v>42079</v>
       </c>
-      <c r="H52" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I52" s="51"/>
+      <c r="H52" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I52" s="49"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="46"/>
-      <c r="B53" s="76"/>
-      <c r="C53" s="71" t="s">
+      <c r="A53" s="74"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="48" t="s">
+      <c r="D53" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="E53" s="71"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="79">
+      <c r="E53" s="66"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="70">
         <v>42079</v>
       </c>
-      <c r="H53" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I53" s="73"/>
+      <c r="H53" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I53" s="68"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="46"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="71" t="s">
+      <c r="A54" s="74"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="48" t="s">
+      <c r="D54" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="E54" s="71"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="79">
+      <c r="E54" s="66"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="70">
         <v>42079</v>
       </c>
-      <c r="H54" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I54" s="73"/>
+      <c r="H54" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I54" s="68"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="46"/>
-      <c r="B55" s="80"/>
-      <c r="C55" s="71" t="s">
+      <c r="A55" s="74"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="48" t="s">
+      <c r="D55" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="E55" s="71"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="79">
+      <c r="E55" s="66"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="70">
         <v>42079</v>
       </c>
-      <c r="H55" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I55" s="73"/>
+      <c r="H55" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I55" s="68"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="46"/>
-      <c r="B56" s="47" t="s">
+      <c r="A56" s="74"/>
+      <c r="B56" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="71"/>
-      <c r="D56" s="48" t="s">
+      <c r="C56" s="66"/>
+      <c r="D56" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="E56" s="71"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="79">
+      <c r="E56" s="66"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="70">
         <v>42079</v>
       </c>
-      <c r="H56" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I56" s="73"/>
+      <c r="H56" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I56" s="68"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="46"/>
-      <c r="B57" s="75" t="s">
+      <c r="A57" s="74"/>
+      <c r="B57" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="71" t="s">
+      <c r="C57" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="48" t="s">
+      <c r="D57" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="E57" s="71"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="79">
+      <c r="E57" s="66"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="70">
         <v>42079</v>
       </c>
-      <c r="H57" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I57" s="73"/>
+      <c r="H57" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I57" s="68"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="46"/>
-      <c r="B58" s="76"/>
-      <c r="C58" s="71" t="s">
+      <c r="A58" s="74"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="D58" s="71" t="s">
+      <c r="D58" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="E58" s="71"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="79">
+      <c r="E58" s="66"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="70">
         <v>42079</v>
       </c>
-      <c r="H58" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I58" s="73"/>
+      <c r="H58" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I58" s="68"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="46"/>
-      <c r="B59" s="76"/>
-      <c r="C59" s="71" t="s">
+      <c r="A59" s="74"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="D59" s="71" t="s">
+      <c r="D59" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="E59" s="71"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="79">
+      <c r="E59" s="66"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="70">
         <v>42079</v>
       </c>
-      <c r="H59" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I59" s="73"/>
+      <c r="H59" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I59" s="68"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="46"/>
-      <c r="B60" s="80"/>
-      <c r="C60" s="71" t="s">
+      <c r="A60" s="74"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="D60" s="71" t="s">
+      <c r="D60" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="E60" s="71"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="79">
+      <c r="E60" s="66"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="70">
         <v>42079</v>
       </c>
-      <c r="H60" s="50">
-        <v>42083</v>
-      </c>
-      <c r="I60" s="73"/>
-    </row>
-    <row r="61" spans="1:9" ht="13.6" thickBot="1">
-      <c r="A61" s="52"/>
-      <c r="B61" s="84" t="s">
+      <c r="H60" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I60" s="68"/>
+    </row>
+    <row r="61" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A61" s="75"/>
+      <c r="B61" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54" t="s">
+      <c r="C61" s="51"/>
+      <c r="D61" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="E61" s="54" t="s">
+      <c r="E61" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="F61" s="55"/>
-      <c r="G61" s="56">
+      <c r="F61" s="52"/>
+      <c r="G61" s="53">
         <v>42082</v>
       </c>
-      <c r="H61" s="56">
+      <c r="H61" s="53">
         <v>42088</v>
       </c>
-      <c r="I61" s="57"/>
-    </row>
-    <row r="62" spans="1:9" ht="14.3" thickBot="1">
-      <c r="D62" s="60" t="s">
+      <c r="I61" s="54"/>
+    </row>
+    <row r="62" spans="1:9" ht="13.8" thickBot="1">
+      <c r="D62" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="60"/>
-      <c r="F62" s="61">
+      <c r="E62" s="57"/>
+      <c r="F62" s="58">
         <f>SUM(F50:F61)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="13.6" thickTop="1"/>
+    <row r="63" spans="1:9" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B27:B30"/>
     <mergeCell ref="A34:A46"/>
     <mergeCell ref="B35:B40"/>
     <mergeCell ref="B41:B46"/>
@@ -3047,12 +3078,6 @@
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="B52:B55"/>
     <mergeCell ref="B57:B60"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="B27:B30"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3061,29 +3086,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10:H11"/>
+      <selection pane="bottomRight" activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="4.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="25" customWidth="1"/>
-    <col min="5" max="18" width="4.25" style="25" customWidth="1"/>
-    <col min="19" max="19" width="2.875" style="25" customWidth="1"/>
-    <col min="20" max="20" width="7.125" style="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.125" style="25"/>
+    <col min="1" max="1" width="8.109375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="4.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="25" customWidth="1"/>
+    <col min="5" max="18" width="4.21875" style="25" customWidth="1"/>
+    <col min="19" max="19" width="2.88671875" style="25" customWidth="1"/>
+    <col min="20" max="20" width="7.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.65">
+    <row r="1" spans="1:20" ht="15.6">
       <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
@@ -3091,7 +3116,7 @@
     <row r="2" spans="1:20" ht="7.5" customHeight="1">
       <c r="A2" s="26"/>
     </row>
-    <row r="3" spans="1:20" ht="13.6">
+    <row r="3" spans="1:20">
       <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
@@ -3100,21 +3125,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="13.6">
+    <row r="4" spans="1:20">
       <c r="A4" s="26"/>
       <c r="B4" s="23"/>
       <c r="C4" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="13.6">
+    <row r="5" spans="1:20">
       <c r="A5" s="26"/>
       <c r="B5" s="29"/>
       <c r="C5" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="13.6">
+    <row r="6" spans="1:20">
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
@@ -3165,12 +3190,12 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="7.5" customHeight="1"/>
-    <row r="8" spans="1:20" ht="13.6">
+    <row r="8" spans="1:20">
       <c r="A8" s="26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="13.6">
+    <row r="9" spans="1:20">
       <c r="B9" s="21" t="s">
         <v>10</v>
       </c>
@@ -3303,12 +3328,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="13.6">
+    <row r="16" spans="1:20">
       <c r="A16" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="13.6">
+    <row r="17" spans="1:20">
       <c r="B17" s="21" t="s">
         <v>10</v>
       </c>
@@ -3441,12 +3466,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="13.6">
+    <row r="24" spans="1:20">
       <c r="A24" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="13.6">
+    <row r="25" spans="1:20">
       <c r="B25" s="21" t="s">
         <v>10</v>
       </c>
@@ -3458,9 +3483,13 @@
       <c r="B26" s="22">
         <v>1</v>
       </c>
-      <c r="C26" s="27"/>
+      <c r="C26" s="86" t="s">
+        <v>91</v>
+      </c>
       <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="E26" s="20">
+        <v>5</v>
+      </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
@@ -3476,20 +3505,26 @@
       <c r="R26" s="27"/>
       <c r="T26" s="4">
         <f>SUM(E26:R26)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="B27" s="22">
         <v>2</v>
       </c>
-      <c r="C27" s="27"/>
+      <c r="C27" s="86" t="s">
+        <v>93</v>
+      </c>
       <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
+      <c r="E27" s="20">
+        <v>3</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="I27" s="23">
+        <v>4</v>
+      </c>
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
       <c r="L27" s="27"/>
@@ -3501,14 +3536,16 @@
       <c r="R27" s="27"/>
       <c r="T27" s="4">
         <f t="shared" ref="T27:T30" si="2">SUM(E27:R27)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="B28" s="22">
         <v>3</v>
       </c>
-      <c r="C28" s="27"/>
+      <c r="C28" s="66" t="s">
+        <v>94</v>
+      </c>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
@@ -3533,10 +3570,13 @@
       <c r="B29" s="22">
         <v>4</v>
       </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="27" t="s">
+        <v>124</v>
+      </c>
       <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
+      <c r="F29" s="20">
+        <v>8</v>
+      </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
@@ -3550,19 +3590,23 @@
       <c r="Q29" s="27"/>
       <c r="R29" s="27"/>
       <c r="T29" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(F29:R29)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="B30" s="22">
         <v>5</v>
       </c>
-      <c r="C30" s="27"/>
+      <c r="C30" s="27" t="s">
+        <v>125</v>
+      </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
+      <c r="G30" s="20">
+        <v>8</v>
+      </c>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
       <c r="J30" s="27"/>
@@ -3576,15 +3620,15 @@
       <c r="R30" s="27"/>
       <c r="T30" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="13.6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="13.6">
+    <row r="33" spans="1:20">
       <c r="B33" s="21" t="s">
         <v>10</v>
       </c>
@@ -3717,12 +3761,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="13.6">
+    <row r="40" spans="1:20">
       <c r="A40" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="13.6">
+    <row r="41" spans="1:20">
       <c r="B41" s="21" t="s">
         <v>10</v>
       </c>
@@ -3875,21 +3919,21 @@
       <c r="R47" s="31"/>
       <c r="T47" s="31"/>
     </row>
-    <row r="48" spans="1:20" ht="16.3" thickBot="1">
+    <row r="48" spans="1:20" ht="16.2" thickBot="1">
       <c r="C48" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="24">
         <f t="shared" ref="E48:F48" si="5">SUM(E8:E46)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F48" s="24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G48" s="24">
         <f t="shared" ref="G48:P48" si="6">SUM(G8:G46)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H48" s="24">
         <f t="shared" si="6"/>
@@ -3897,7 +3941,7 @@
       </c>
       <c r="I48" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J48" s="24">
         <f t="shared" si="6"/>
@@ -3937,10 +3981,10 @@
       </c>
       <c r="T48" s="28">
         <f>SUM(G48:R48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" ht="13.6" thickTop="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="13.8" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Listing_Tool_Status_Report_v1.0.xlsx
+++ b/docs/Listing_Tool_Status_Report_v1.0.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="84" windowWidth="16608" windowHeight="9432" activeTab="2"/>
+    <workbookView xWindow="5352" yWindow="-360" windowWidth="16608" windowHeight="9432" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="WBS" sheetId="5" r:id="rId2"/>
     <sheet name="March 2010" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="128">
   <si>
     <t>Project Name:</t>
   </si>
@@ -652,15 +652,23 @@
     <t>3.5 User interface to apply withdraw</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>尚未开发</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究中</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -754,6 +762,13 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1165,7 +1180,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1333,6 +1348,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1369,10 +1393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1395,7 +1416,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1469,6 +1490,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1503,6 +1525,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1678,7 +1701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1964,12 +1987,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -2026,7 +2049,7 @@
       <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="76" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -2047,7 +2070,7 @@
       <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A4" s="74"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="45" t="s">
         <v>41</v>
       </c>
@@ -2066,7 +2089,7 @@
       <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A5" s="75"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="50" t="s">
         <v>42</v>
       </c>
@@ -2109,10 +2132,10 @@
       <c r="H8" s="59"/>
     </row>
     <row r="9" spans="1:9" ht="26.55" customHeight="1">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="85" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="61" t="s">
@@ -2132,8 +2155,8 @@
       <c r="I9" s="44"/>
     </row>
     <row r="10" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A10" s="74"/>
-      <c r="B10" s="83"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="62" t="s">
         <v>47</v>
       </c>
@@ -2151,8 +2174,8 @@
       <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A11" s="74"/>
-      <c r="B11" s="83"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="46" t="s">
         <v>49</v>
       </c>
@@ -2170,8 +2193,8 @@
       <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A12" s="74"/>
-      <c r="B12" s="83"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="66" t="s">
         <v>50</v>
       </c>
@@ -2189,8 +2212,8 @@
       <c r="I12" s="68"/>
     </row>
     <row r="13" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A13" s="74"/>
-      <c r="B13" s="84"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="66" t="s">
         <v>52</v>
       </c>
@@ -2208,8 +2231,8 @@
       <c r="I13" s="68"/>
     </row>
     <row r="14" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A14" s="74"/>
-      <c r="B14" s="76" t="s">
+      <c r="A14" s="77"/>
+      <c r="B14" s="79" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="66" t="s">
@@ -2229,8 +2252,8 @@
       <c r="I14" s="68"/>
     </row>
     <row r="15" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A15" s="74"/>
-      <c r="B15" s="77"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="66" t="s">
         <v>55</v>
       </c>
@@ -2248,8 +2271,8 @@
       <c r="I15" s="68"/>
     </row>
     <row r="16" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A16" s="74"/>
-      <c r="B16" s="77"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="66" t="s">
         <v>57</v>
       </c>
@@ -2267,8 +2290,8 @@
       <c r="I16" s="68"/>
     </row>
     <row r="17" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A17" s="74"/>
-      <c r="B17" s="77"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="66" t="s">
         <v>59</v>
       </c>
@@ -2286,8 +2309,8 @@
       <c r="I17" s="68"/>
     </row>
     <row r="18" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A18" s="74"/>
-      <c r="B18" s="77"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="66" t="s">
         <v>60</v>
       </c>
@@ -2305,8 +2328,8 @@
       <c r="I18" s="68"/>
     </row>
     <row r="19" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A19" s="74"/>
-      <c r="B19" s="77"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="66" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2347,8 @@
       <c r="I19" s="68"/>
     </row>
     <row r="20" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A20" s="74"/>
-      <c r="B20" s="77"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="66" t="s">
         <v>62</v>
       </c>
@@ -2343,8 +2366,8 @@
       <c r="I20" s="68"/>
     </row>
     <row r="21" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="79"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="69" t="s">
         <v>63</v>
       </c>
@@ -2388,7 +2411,7 @@
       <c r="H24" s="59"/>
     </row>
     <row r="25" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="76" t="s">
         <v>64</v>
       </c>
       <c r="B25" s="40" t="s">
@@ -2409,7 +2432,7 @@
       <c r="I25" s="44"/>
     </row>
     <row r="26" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A26" s="74"/>
+      <c r="A26" s="77"/>
       <c r="B26" s="45" t="s">
         <v>67</v>
       </c>
@@ -2428,8 +2451,8 @@
       <c r="I26" s="49"/>
     </row>
     <row r="27" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A27" s="74"/>
-      <c r="B27" s="76" t="s">
+      <c r="A27" s="77"/>
+      <c r="B27" s="79" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="66" t="s">
@@ -2449,8 +2472,8 @@
       <c r="I27" s="68"/>
     </row>
     <row r="28" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A28" s="74"/>
-      <c r="B28" s="77"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="80"/>
       <c r="C28" s="66" t="s">
         <v>71</v>
       </c>
@@ -2468,8 +2491,8 @@
       <c r="I28" s="68"/>
     </row>
     <row r="29" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A29" s="74"/>
-      <c r="B29" s="77"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="66" t="s">
         <v>73</v>
       </c>
@@ -2487,8 +2510,8 @@
       <c r="I29" s="68"/>
     </row>
     <row r="30" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A30" s="75"/>
-      <c r="B30" s="79"/>
+      <c r="A30" s="78"/>
+      <c r="B30" s="82"/>
       <c r="C30" s="51" t="s">
         <v>75</v>
       </c>
@@ -2532,7 +2555,7 @@
       <c r="H33" s="59"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="76" t="s">
         <v>77</v>
       </c>
       <c r="B34" s="40" t="s">
@@ -2553,11 +2576,11 @@
       <c r="I34" s="44"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="74"/>
-      <c r="B35" s="76" t="s">
+      <c r="A35" s="77"/>
+      <c r="B35" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="85" t="s">
+      <c r="C35" s="73" t="s">
         <v>81</v>
       </c>
       <c r="D35" s="46" t="s">
@@ -2574,8 +2597,8 @@
       <c r="I35" s="49"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="74"/>
-      <c r="B36" s="77"/>
+      <c r="A36" s="77"/>
+      <c r="B36" s="80"/>
       <c r="C36" s="66" t="s">
         <v>82</v>
       </c>
@@ -2593,8 +2616,8 @@
       <c r="I36" s="68"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="74"/>
-      <c r="B37" s="77"/>
+      <c r="A37" s="77"/>
+      <c r="B37" s="80"/>
       <c r="C37" s="66" t="s">
         <v>83</v>
       </c>
@@ -2612,8 +2635,8 @@
       <c r="I37" s="68"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="74"/>
-      <c r="B38" s="77"/>
+      <c r="A38" s="77"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="66" t="s">
         <v>84</v>
       </c>
@@ -2631,8 +2654,8 @@
       <c r="I38" s="68"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="74"/>
-      <c r="B39" s="77"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="80"/>
       <c r="C39" s="66" t="s">
         <v>86</v>
       </c>
@@ -2650,8 +2673,8 @@
       <c r="I39" s="68"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="74"/>
-      <c r="B40" s="78"/>
+      <c r="A40" s="77"/>
+      <c r="B40" s="81"/>
       <c r="C40" s="66" t="s">
         <v>88</v>
       </c>
@@ -2669,8 +2692,8 @@
       <c r="I40" s="68"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="74"/>
-      <c r="B41" s="76" t="s">
+      <c r="A41" s="77"/>
+      <c r="B41" s="79" t="s">
         <v>90</v>
       </c>
       <c r="C41" s="66" t="s">
@@ -2693,9 +2716,9 @@
       <c r="I41" s="68"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="74"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="86" t="s">
+      <c r="A42" s="77"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="74" t="s">
         <v>93</v>
       </c>
       <c r="D42" s="46" t="s">
@@ -2715,8 +2738,8 @@
       <c r="I42" s="68"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="74"/>
-      <c r="B43" s="77"/>
+      <c r="A43" s="77"/>
+      <c r="B43" s="80"/>
       <c r="C43" s="66" t="s">
         <v>94</v>
       </c>
@@ -2737,9 +2760,9 @@
       <c r="I43" s="68"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="74"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="86" t="s">
+      <c r="A44" s="77"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="74" t="s">
         <v>96</v>
       </c>
       <c r="D44" s="46" t="s">
@@ -2759,9 +2782,9 @@
       <c r="I44" s="68"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="74"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="86" t="s">
+      <c r="A45" s="77"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="74" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="66" t="s">
@@ -2781,8 +2804,8 @@
       <c r="I45" s="68"/>
     </row>
     <row r="46" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A46" s="75"/>
-      <c r="B46" s="79"/>
+      <c r="A46" s="78"/>
+      <c r="B46" s="82"/>
       <c r="C46" s="51" t="s">
         <v>99</v>
       </c>
@@ -2815,10 +2838,10 @@
     <row r="48" spans="1:9" ht="13.8" thickTop="1"/>
     <row r="49" spans="1:9" ht="13.8" thickBot="1"/>
     <row r="50" spans="1:9">
-      <c r="A50" s="73" t="s">
+      <c r="A50" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="80" t="s">
+      <c r="B50" s="83" t="s">
         <v>101</v>
       </c>
       <c r="C50" s="41" t="s">
@@ -2828,7 +2851,9 @@
         <v>103</v>
       </c>
       <c r="E50" s="41"/>
-      <c r="F50" s="42"/>
+      <c r="F50" s="42">
+        <v>15</v>
+      </c>
       <c r="G50" s="43">
         <v>42079</v>
       </c>
@@ -2838,8 +2863,8 @@
       <c r="I50" s="44"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="74"/>
-      <c r="B51" s="81"/>
+      <c r="A51" s="77"/>
+      <c r="B51" s="84"/>
       <c r="C51" s="62" t="s">
         <v>104</v>
       </c>
@@ -2847,7 +2872,9 @@
         <v>105</v>
       </c>
       <c r="E51" s="62"/>
-      <c r="F51" s="63"/>
+      <c r="F51" s="63">
+        <v>5</v>
+      </c>
       <c r="G51" s="70">
         <v>42079</v>
       </c>
@@ -2857,8 +2884,8 @@
       <c r="I51" s="65"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="74"/>
-      <c r="B52" s="76" t="s">
+      <c r="A52" s="77"/>
+      <c r="B52" s="79" t="s">
         <v>106</v>
       </c>
       <c r="C52" s="46" t="s">
@@ -2868,7 +2895,9 @@
         <v>105</v>
       </c>
       <c r="E52" s="46"/>
-      <c r="F52" s="47"/>
+      <c r="F52" s="47">
+        <v>2</v>
+      </c>
       <c r="G52" s="70">
         <v>42079</v>
       </c>
@@ -2878,8 +2907,8 @@
       <c r="I52" s="49"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="74"/>
-      <c r="B53" s="77"/>
+      <c r="A53" s="77"/>
+      <c r="B53" s="80"/>
       <c r="C53" s="66" t="s">
         <v>108</v>
       </c>
@@ -2887,7 +2916,9 @@
         <v>109</v>
       </c>
       <c r="E53" s="66"/>
-      <c r="F53" s="67"/>
+      <c r="F53" s="67">
+        <v>2</v>
+      </c>
       <c r="G53" s="70">
         <v>42079</v>
       </c>
@@ -2897,8 +2928,8 @@
       <c r="I53" s="68"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="74"/>
-      <c r="B54" s="77"/>
+      <c r="A54" s="77"/>
+      <c r="B54" s="80"/>
       <c r="C54" s="66" t="s">
         <v>110</v>
       </c>
@@ -2906,7 +2937,9 @@
         <v>111</v>
       </c>
       <c r="E54" s="66"/>
-      <c r="F54" s="67"/>
+      <c r="F54" s="67">
+        <v>2</v>
+      </c>
       <c r="G54" s="70">
         <v>42079</v>
       </c>
@@ -2916,8 +2949,8 @@
       <c r="I54" s="68"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="74"/>
-      <c r="B55" s="78"/>
+      <c r="A55" s="77"/>
+      <c r="B55" s="81"/>
       <c r="C55" s="66" t="s">
         <v>112</v>
       </c>
@@ -2925,7 +2958,9 @@
         <v>105</v>
       </c>
       <c r="E55" s="66"/>
-      <c r="F55" s="67"/>
+      <c r="F55" s="67">
+        <v>2</v>
+      </c>
       <c r="G55" s="70">
         <v>42079</v>
       </c>
@@ -2935,7 +2970,7 @@
       <c r="I55" s="68"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="74"/>
+      <c r="A56" s="77"/>
       <c r="B56" s="45" t="s">
         <v>113</v>
       </c>
@@ -2944,7 +2979,9 @@
         <v>114</v>
       </c>
       <c r="E56" s="66"/>
-      <c r="F56" s="67"/>
+      <c r="F56" s="67">
+        <v>2</v>
+      </c>
       <c r="G56" s="70">
         <v>42079</v>
       </c>
@@ -2954,8 +2991,8 @@
       <c r="I56" s="68"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="74"/>
-      <c r="B57" s="76" t="s">
+      <c r="A57" s="77"/>
+      <c r="B57" s="79" t="s">
         <v>115</v>
       </c>
       <c r="C57" s="66" t="s">
@@ -2965,7 +3002,9 @@
         <v>117</v>
       </c>
       <c r="E57" s="66"/>
-      <c r="F57" s="67"/>
+      <c r="F57" s="67">
+        <v>3</v>
+      </c>
       <c r="G57" s="70">
         <v>42079</v>
       </c>
@@ -2975,8 +3014,8 @@
       <c r="I57" s="68"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="74"/>
-      <c r="B58" s="77"/>
+      <c r="A58" s="77"/>
+      <c r="B58" s="80"/>
       <c r="C58" s="66" t="s">
         <v>118</v>
       </c>
@@ -2984,7 +3023,9 @@
         <v>105</v>
       </c>
       <c r="E58" s="66"/>
-      <c r="F58" s="67"/>
+      <c r="F58" s="67">
+        <v>5</v>
+      </c>
       <c r="G58" s="70">
         <v>42079</v>
       </c>
@@ -2994,8 +3035,8 @@
       <c r="I58" s="68"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="74"/>
-      <c r="B59" s="77"/>
+      <c r="A59" s="77"/>
+      <c r="B59" s="80"/>
       <c r="C59" s="66" t="s">
         <v>119</v>
       </c>
@@ -3003,7 +3044,9 @@
         <v>105</v>
       </c>
       <c r="E59" s="66"/>
-      <c r="F59" s="67"/>
+      <c r="F59" s="67">
+        <v>3</v>
+      </c>
       <c r="G59" s="70">
         <v>42079</v>
       </c>
@@ -3013,8 +3056,8 @@
       <c r="I59" s="68"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="74"/>
-      <c r="B60" s="78"/>
+      <c r="A60" s="77"/>
+      <c r="B60" s="81"/>
       <c r="C60" s="66" t="s">
         <v>120</v>
       </c>
@@ -3029,10 +3072,12 @@
       <c r="H60" s="48">
         <v>42083</v>
       </c>
-      <c r="I60" s="68"/>
+      <c r="I60" s="75" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="61" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A61" s="75"/>
+      <c r="A61" s="78"/>
       <c r="B61" s="72" t="s">
         <v>121</v>
       </c>
@@ -3050,7 +3095,9 @@
       <c r="H61" s="53">
         <v>42088</v>
       </c>
-      <c r="I61" s="54"/>
+      <c r="I61" s="88" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="62" spans="1:9" ht="13.8" thickBot="1">
       <c r="D62" s="57" t="s">
@@ -3059,7 +3106,7 @@
       <c r="E62" s="57"/>
       <c r="F62" s="58">
         <f>SUM(F50:F61)</f>
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="13.8" thickTop="1"/>
@@ -3086,14 +3133,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X23" sqref="X23"/>
+      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -3483,7 +3530,7 @@
       <c r="B26" s="22">
         <v>1</v>
       </c>
-      <c r="C26" s="86" t="s">
+      <c r="C26" s="74" t="s">
         <v>91</v>
       </c>
       <c r="D26" s="27"/>
@@ -3512,7 +3559,7 @@
       <c r="B27" s="22">
         <v>2</v>
       </c>
-      <c r="C27" s="86" t="s">
+      <c r="C27" s="74" t="s">
         <v>93</v>
       </c>
       <c r="D27" s="27"/>
@@ -3642,8 +3689,12 @@
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
+      <c r="E34" s="20">
+        <v>8</v>
+      </c>
+      <c r="F34" s="20">
+        <v>8</v>
+      </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
@@ -3658,7 +3709,7 @@
       <c r="R34" s="27"/>
       <c r="T34" s="4">
         <f>SUM(E34:R34)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -3694,7 +3745,9 @@
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
+      <c r="G36" s="20">
+        <v>8</v>
+      </c>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
@@ -3708,7 +3761,7 @@
       <c r="R36" s="27"/>
       <c r="T36" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -3805,8 +3858,12 @@
       </c>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
+      <c r="E43" s="20">
+        <v>8</v>
+      </c>
+      <c r="F43" s="20">
+        <v>8</v>
+      </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
@@ -3821,7 +3878,7 @@
       <c r="R43" s="27"/>
       <c r="T43" s="4">
         <f t="shared" ref="T43:T46" si="4">SUM(E43:R43)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3857,7 +3914,9 @@
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
+      <c r="G45" s="20">
+        <v>8</v>
+      </c>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
       <c r="J45" s="27"/>
@@ -3871,7 +3930,7 @@
       <c r="R45" s="27"/>
       <c r="T45" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3925,15 +3984,15 @@
       </c>
       <c r="E48" s="24">
         <f t="shared" ref="E48:F48" si="5">SUM(E8:E46)</f>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F48" s="24">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G48" s="24">
         <f t="shared" ref="G48:P48" si="6">SUM(G8:G46)</f>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H48" s="24">
         <f t="shared" si="6"/>
@@ -3981,7 +4040,7 @@
       </c>
       <c r="T48" s="28">
         <f>SUM(G48:R48)</f>
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="13.8" thickTop="1"/>

--- a/docs/Listing_Tool_Status_Report_v1.0.xlsx
+++ b/docs/Listing_Tool_Status_Report_v1.0.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5352" yWindow="-360" windowWidth="16608" windowHeight="9432" activeTab="2"/>
+    <workbookView xWindow="5355" yWindow="-360" windowWidth="16605" windowHeight="9435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="WBS" sheetId="5" r:id="rId2"/>
     <sheet name="March 2010" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="147">
   <si>
     <t>Project Name:</t>
   </si>
@@ -451,14 +451,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>3.4 Create demo remarketing display Ad</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tik, James</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>PayPal API Implementation</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -659,14 +651,77 @@
   <si>
     <t>研究中</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1  Identify your business type</t>
+  </si>
+  <si>
+    <t>Tik</t>
+  </si>
+  <si>
+    <t>4.2 Create Merchant account and Link adwords accounts</t>
+  </si>
+  <si>
+    <t>此处无官方例子，需要从学习所有API，测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3 Create a new campaign </t>
+  </si>
+  <si>
+    <t>4.4 Create a feed</t>
+  </si>
+  <si>
+    <t>4.5 Tag your website</t>
+  </si>
+  <si>
+    <t>4.6 Create dynamic ads</t>
+  </si>
+  <si>
+    <t>4.7 Final checklist</t>
+  </si>
+  <si>
+    <t>4.Create demo remarketing display Ad</t>
+  </si>
+  <si>
+    <t>Create sub MCC acount</t>
+  </si>
+  <si>
+    <t>Create sub client account</t>
+  </si>
+  <si>
+    <t>Create demo Ads 3.1</t>
+  </si>
+  <si>
+    <t>Create demo Ads 3.2</t>
+  </si>
+  <si>
+    <t>Create demo Ads 3.3</t>
+  </si>
+  <si>
+    <t>Create demo Ads 3.4</t>
+  </si>
+  <si>
+    <t>Create demo remarketing display Ad 4.1</t>
+  </si>
+  <si>
+    <t>Create demo remarketing display Ad 4.3</t>
+  </si>
+  <si>
+    <t>5.P2P business meeting</t>
+  </si>
+  <si>
+    <t>P2P Business 5</t>
+  </si>
+  <si>
+    <t>临时性了解P2P业务流程</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -733,7 +788,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1180,7 +1235,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1229,7 +1284,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1357,6 +1412,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1366,41 +1424,77 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1416,7 +1510,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1490,7 +1584,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1525,7 +1618,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1701,22 +1793,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13.8" thickBot="1"/>
+    <row r="1" spans="2:10" ht="13.5" thickBot="1"/>
     <row r="2" spans="2:10">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -1728,7 +1820,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="2:10" ht="31.8">
+    <row r="3" spans="2:10" ht="33">
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
         <v>0</v>
@@ -1968,7 +2060,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="2:10" ht="13.8" thickBot="1">
+    <row r="21" spans="2:10" ht="13.5" thickBot="1">
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -1987,25 +2079,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="39" style="55" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" style="56" customWidth="1"/>
-    <col min="3" max="3" width="54.109375" style="55" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="55" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="71" customWidth="1"/>
-    <col min="7" max="8" width="11.77734375" style="55" customWidth="1"/>
-    <col min="9" max="9" width="34.6640625" style="55" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="36"/>
+    <col min="2" max="2" width="41.85546875" style="56" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" style="55" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="55" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="71" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" style="55" customWidth="1"/>
+    <col min="9" max="9" width="38.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2037,7 +2129,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.8" thickBot="1">
+    <row r="2" spans="1:9" ht="13.5" thickBot="1">
       <c r="A2" s="37"/>
       <c r="B2" s="38"/>
       <c r="C2" s="37"/>
@@ -2048,8 +2140,8 @@
       <c r="H2" s="37"/>
       <c r="I2" s="37"/>
     </row>
-    <row r="3" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A3" s="76" t="s">
+    <row r="3" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -2069,8 +2161,8 @@
       </c>
       <c r="I3" s="44"/>
     </row>
-    <row r="4" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A4" s="77"/>
+    <row r="4" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A4" s="78"/>
       <c r="B4" s="45" t="s">
         <v>41</v>
       </c>
@@ -2088,8 +2180,8 @@
       </c>
       <c r="I4" s="49"/>
     </row>
-    <row r="5" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A5" s="78"/>
+    <row r="5" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A5" s="79"/>
       <c r="B5" s="50" t="s">
         <v>42</v>
       </c>
@@ -2105,7 +2197,7 @@
       <c r="H5" s="51"/>
       <c r="I5" s="54"/>
     </row>
-    <row r="6" spans="1:9" ht="13.8" thickBot="1">
+    <row r="6" spans="1:9" ht="13.5" thickBot="1">
       <c r="D6" s="57" t="s">
         <v>43</v>
       </c>
@@ -2117,25 +2209,25 @@
       <c r="G6" s="59"/>
       <c r="H6" s="59"/>
     </row>
-    <row r="7" spans="1:9" ht="13.8" thickTop="1">
+    <row r="7" spans="1:9" ht="13.5" thickTop="1">
       <c r="D7" s="57"/>
       <c r="E7" s="57"/>
       <c r="F7" s="60"/>
       <c r="G7" s="59"/>
       <c r="H7" s="59"/>
     </row>
-    <row r="8" spans="1:9" ht="13.8" thickBot="1">
+    <row r="8" spans="1:9" ht="13.5" thickBot="1">
       <c r="D8" s="57"/>
       <c r="E8" s="57"/>
       <c r="F8" s="60"/>
       <c r="G8" s="59"/>
       <c r="H8" s="59"/>
     </row>
-    <row r="9" spans="1:9" ht="26.55" customHeight="1">
-      <c r="A9" s="76" t="s">
+    <row r="9" spans="1:9" ht="26.65" customHeight="1">
+      <c r="A9" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="80" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="61" t="s">
@@ -2154,9 +2246,9 @@
       </c>
       <c r="I9" s="44"/>
     </row>
-    <row r="10" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="86"/>
+    <row r="10" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A10" s="78"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="62" t="s">
         <v>47</v>
       </c>
@@ -2173,9 +2265,9 @@
       </c>
       <c r="I10" s="65"/>
     </row>
-    <row r="11" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="86"/>
+    <row r="11" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A11" s="78"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="46" t="s">
         <v>49</v>
       </c>
@@ -2192,9 +2284,9 @@
       </c>
       <c r="I11" s="49"/>
     </row>
-    <row r="12" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="86"/>
+    <row r="12" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A12" s="78"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="66" t="s">
         <v>50</v>
       </c>
@@ -2211,9 +2303,9 @@
       </c>
       <c r="I12" s="68"/>
     </row>
-    <row r="13" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="87"/>
+    <row r="13" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A13" s="78"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="66" t="s">
         <v>52</v>
       </c>
@@ -2230,9 +2322,9 @@
       </c>
       <c r="I13" s="68"/>
     </row>
-    <row r="14" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A14" s="77"/>
-      <c r="B14" s="79" t="s">
+    <row r="14" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A14" s="78"/>
+      <c r="B14" s="83" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="66" t="s">
@@ -2251,9 +2343,9 @@
       </c>
       <c r="I14" s="68"/>
     </row>
-    <row r="15" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A15" s="77"/>
-      <c r="B15" s="80"/>
+    <row r="15" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A15" s="78"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="66" t="s">
         <v>55</v>
       </c>
@@ -2270,9 +2362,9 @@
       </c>
       <c r="I15" s="68"/>
     </row>
-    <row r="16" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A16" s="77"/>
-      <c r="B16" s="80"/>
+    <row r="16" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A16" s="78"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="66" t="s">
         <v>57</v>
       </c>
@@ -2289,9 +2381,9 @@
       </c>
       <c r="I16" s="68"/>
     </row>
-    <row r="17" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A17" s="77"/>
-      <c r="B17" s="80"/>
+    <row r="17" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A17" s="78"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="66" t="s">
         <v>59</v>
       </c>
@@ -2308,9 +2400,9 @@
       </c>
       <c r="I17" s="68"/>
     </row>
-    <row r="18" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A18" s="77"/>
-      <c r="B18" s="80"/>
+    <row r="18" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A18" s="78"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="66" t="s">
         <v>60</v>
       </c>
@@ -2327,9 +2419,9 @@
       </c>
       <c r="I18" s="68"/>
     </row>
-    <row r="19" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A19" s="77"/>
-      <c r="B19" s="80"/>
+    <row r="19" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A19" s="78"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="66" t="s">
         <v>61</v>
       </c>
@@ -2346,9 +2438,9 @@
       </c>
       <c r="I19" s="68"/>
     </row>
-    <row r="20" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A20" s="77"/>
-      <c r="B20" s="80"/>
+    <row r="20" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A20" s="78"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="66" t="s">
         <v>62</v>
       </c>
@@ -2365,9 +2457,9 @@
       </c>
       <c r="I20" s="68"/>
     </row>
-    <row r="21" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A21" s="78"/>
-      <c r="B21" s="82"/>
+    <row r="21" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A21" s="79"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="69" t="s">
         <v>63</v>
       </c>
@@ -2384,7 +2476,7 @@
       </c>
       <c r="I21" s="54"/>
     </row>
-    <row r="22" spans="1:9" ht="13.8" thickBot="1">
+    <row r="22" spans="1:9" ht="13.5" thickBot="1">
       <c r="D22" s="57" t="s">
         <v>43</v>
       </c>
@@ -2396,22 +2488,22 @@
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
     </row>
-    <row r="23" spans="1:9" ht="13.8" thickTop="1">
+    <row r="23" spans="1:9" ht="13.5" thickTop="1">
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
       <c r="F23" s="60"/>
       <c r="G23" s="59"/>
       <c r="H23" s="59"/>
     </row>
-    <row r="24" spans="1:9" ht="13.8" thickBot="1">
+    <row r="24" spans="1:9" ht="13.5" thickBot="1">
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
       <c r="F24" s="60"/>
       <c r="G24" s="59"/>
       <c r="H24" s="59"/>
     </row>
-    <row r="25" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A25" s="76" t="s">
+    <row r="25" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A25" s="77" t="s">
         <v>64</v>
       </c>
       <c r="B25" s="40" t="s">
@@ -2422,7 +2514,9 @@
         <v>66</v>
       </c>
       <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
+      <c r="F25" s="42">
+        <v>4</v>
+      </c>
       <c r="G25" s="43">
         <v>42080</v>
       </c>
@@ -2431,8 +2525,8 @@
       </c>
       <c r="I25" s="44"/>
     </row>
-    <row r="26" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A26" s="77"/>
+    <row r="26" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A26" s="78"/>
       <c r="B26" s="45" t="s">
         <v>67</v>
       </c>
@@ -2441,7 +2535,9 @@
         <v>68</v>
       </c>
       <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
+      <c r="F26" s="47">
+        <v>4</v>
+      </c>
       <c r="G26" s="70">
         <v>42080</v>
       </c>
@@ -2450,9 +2546,9 @@
       </c>
       <c r="I26" s="49"/>
     </row>
-    <row r="27" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A27" s="77"/>
-      <c r="B27" s="79" t="s">
+    <row r="27" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A27" s="78"/>
+      <c r="B27" s="91" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="66" t="s">
@@ -2462,7 +2558,9 @@
         <v>68</v>
       </c>
       <c r="E27" s="66"/>
-      <c r="F27" s="67"/>
+      <c r="F27" s="67">
+        <v>2</v>
+      </c>
       <c r="G27" s="70">
         <v>42080</v>
       </c>
@@ -2471,9 +2569,9 @@
       </c>
       <c r="I27" s="68"/>
     </row>
-    <row r="28" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A28" s="77"/>
-      <c r="B28" s="80"/>
+    <row r="28" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A28" s="78"/>
+      <c r="B28" s="92"/>
       <c r="C28" s="66" t="s">
         <v>71</v>
       </c>
@@ -2481,7 +2579,9 @@
         <v>72</v>
       </c>
       <c r="E28" s="66"/>
-      <c r="F28" s="67"/>
+      <c r="F28" s="67">
+        <v>3</v>
+      </c>
       <c r="G28" s="70">
         <v>42080</v>
       </c>
@@ -2490,9 +2590,9 @@
       </c>
       <c r="I28" s="68"/>
     </row>
-    <row r="29" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A29" s="77"/>
-      <c r="B29" s="80"/>
+    <row r="29" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A29" s="78"/>
+      <c r="B29" s="95"/>
       <c r="C29" s="66" t="s">
         <v>73</v>
       </c>
@@ -2500,7 +2600,9 @@
         <v>74</v>
       </c>
       <c r="E29" s="66"/>
-      <c r="F29" s="67"/>
+      <c r="F29" s="67">
+        <v>2</v>
+      </c>
       <c r="G29" s="70">
         <v>42080</v>
       </c>
@@ -2509,270 +2611,268 @@
       </c>
       <c r="I29" s="68"/>
     </row>
-    <row r="30" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+    <row r="30" spans="1:9" ht="12.95" customHeight="1">
       <c r="A30" s="78"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="51" t="s">
+      <c r="B30" s="94" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="66"/>
+      <c r="F30" s="67">
+        <v>1</v>
+      </c>
+      <c r="G30" s="70">
+        <v>42080</v>
+      </c>
+      <c r="H30" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I30" s="68"/>
+    </row>
+    <row r="31" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A31" s="78"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="66"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="70">
+        <v>42080</v>
+      </c>
+      <c r="H31" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I31" s="89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A32" s="78"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="66"/>
+      <c r="F32" s="67">
+        <v>17</v>
+      </c>
+      <c r="G32" s="70">
+        <v>42080</v>
+      </c>
+      <c r="H32" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I32" s="89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A33" s="78"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="66"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="70">
+        <v>42080</v>
+      </c>
+      <c r="H33" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I33" s="89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A34" s="78"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="66"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="70">
+        <v>42080</v>
+      </c>
+      <c r="H34" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I34" s="89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A35" s="78"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="66"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="70">
+        <v>42080</v>
+      </c>
+      <c r="H35" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I35" s="89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A36" s="78"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="90" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="51"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="53">
+        <v>42080</v>
+      </c>
+      <c r="H36" s="53">
+        <v>42083</v>
+      </c>
+      <c r="I36" s="54"/>
+    </row>
+    <row r="37" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A37" s="79"/>
+      <c r="B37" s="90" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="51"/>
+      <c r="F37" s="52">
+        <v>5</v>
+      </c>
+      <c r="G37" s="53">
+        <v>42086</v>
+      </c>
+      <c r="H37" s="53">
+        <v>42086</v>
+      </c>
+      <c r="I37" s="101" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A38" s="96"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="97"/>
+    </row>
+    <row r="39" spans="1:9" ht="13.5" thickBot="1">
+      <c r="D39" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="57"/>
+      <c r="F39" s="58">
+        <f>SUM(F25:F36)</f>
+        <v>33</v>
+      </c>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+    </row>
+    <row r="40" spans="1:9" ht="13.5" thickTop="1">
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+    </row>
+    <row r="41" spans="1:9" ht="13.5" thickBot="1">
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="B42" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="53">
-        <v>42080</v>
-      </c>
-      <c r="H30" s="53">
-        <v>42083</v>
-      </c>
-      <c r="I30" s="54"/>
-    </row>
-    <row r="31" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D31" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58">
-        <f>SUM(F25:F30)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-    </row>
-    <row r="32" spans="1:9" ht="13.8" thickTop="1">
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-    </row>
-    <row r="33" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="76" t="s">
+      <c r="C42" s="41"/>
+      <c r="D42" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="E42" s="41"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="43">
+        <v>42079</v>
+      </c>
+      <c r="H42" s="43">
+        <v>42083</v>
+      </c>
+      <c r="I42" s="44"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="78"/>
+      <c r="B43" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41" t="s">
+      <c r="C43" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="43">
-        <v>42079</v>
-      </c>
-      <c r="H34" s="43">
-        <v>42083</v>
-      </c>
-      <c r="I34" s="44"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="77"/>
-      <c r="B35" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="46"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="70">
-        <v>42079</v>
-      </c>
-      <c r="H35" s="48">
-        <v>42083</v>
-      </c>
-      <c r="I35" s="49"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="77"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="70">
-        <v>42079</v>
-      </c>
-      <c r="H36" s="48">
-        <v>42083</v>
-      </c>
-      <c r="I36" s="68"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="77"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="70">
-        <v>42079</v>
-      </c>
-      <c r="H37" s="48">
-        <v>42083</v>
-      </c>
-      <c r="I37" s="68"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="77"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="70">
-        <v>42079</v>
-      </c>
-      <c r="H38" s="48">
-        <v>42083</v>
-      </c>
-      <c r="I38" s="68"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="77"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="70">
-        <v>42079</v>
-      </c>
-      <c r="H39" s="48">
-        <v>42083</v>
-      </c>
-      <c r="I39" s="68"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="77"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="70">
-        <v>42079</v>
-      </c>
-      <c r="H40" s="48">
-        <v>42083</v>
-      </c>
-      <c r="I40" s="68"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="77"/>
-      <c r="B41" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="67">
-        <f>'March 2010'!T26</f>
-        <v>5</v>
-      </c>
-      <c r="G41" s="70">
-        <v>42079</v>
-      </c>
-      <c r="H41" s="48">
-        <v>42083</v>
-      </c>
-      <c r="I41" s="68"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="77"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" s="66"/>
-      <c r="F42" s="67">
-        <f>'March 2010'!T27</f>
-        <v>7</v>
-      </c>
-      <c r="G42" s="70">
-        <v>42079</v>
-      </c>
-      <c r="H42" s="48">
-        <v>42083</v>
-      </c>
-      <c r="I42" s="68"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="77"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="66" t="s">
-        <v>94</v>
-      </c>
       <c r="D43" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="66"/>
-      <c r="F43" s="67">
-        <f>'March 2010'!T28</f>
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E43" s="46"/>
+      <c r="F43" s="47"/>
       <c r="G43" s="70">
         <v>42079</v>
       </c>
       <c r="H43" s="48">
         <v>42083</v>
       </c>
-      <c r="I43" s="68"/>
+      <c r="I43" s="49"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="77"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="74" t="s">
-        <v>96</v>
+      <c r="A44" s="78"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="66" t="s">
+        <v>80</v>
       </c>
       <c r="D44" s="46" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E44" s="66"/>
-      <c r="F44" s="67">
-        <f>'March 2010'!T29</f>
-        <v>8</v>
-      </c>
+      <c r="F44" s="67"/>
       <c r="G44" s="70">
         <v>42079</v>
       </c>
@@ -2782,19 +2882,16 @@
       <c r="I44" s="68"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="77"/>
-      <c r="B45" s="80"/>
-      <c r="C45" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="66" t="s">
-        <v>98</v>
+      <c r="A45" s="78"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="46" t="s">
+        <v>77</v>
       </c>
       <c r="E45" s="66"/>
-      <c r="F45" s="67">
-        <f>'March 2010'!T30</f>
-        <v>8</v>
-      </c>
+      <c r="F45" s="67"/>
       <c r="G45" s="70">
         <v>42079</v>
       </c>
@@ -2803,77 +2900,122 @@
       </c>
       <c r="I45" s="68"/>
     </row>
-    <row r="46" spans="1:9" ht="13.8" thickBot="1">
+    <row r="46" spans="1:9">
       <c r="A46" s="78"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D46" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="51"/>
-      <c r="F46" s="67">
+      <c r="B46" s="84"/>
+      <c r="C46" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="66"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="70">
+        <v>42079</v>
+      </c>
+      <c r="H46" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I46" s="68"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="78"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="66"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="70">
+        <v>42079</v>
+      </c>
+      <c r="H47" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I47" s="68"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="78"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="66"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="70">
+        <v>42079</v>
+      </c>
+      <c r="H48" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I48" s="68"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="78"/>
+      <c r="B49" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="66"/>
+      <c r="F49" s="67">
+        <f>'March 2010'!T30</f>
+        <v>5</v>
+      </c>
+      <c r="G49" s="70">
+        <v>42079</v>
+      </c>
+      <c r="H49" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I49" s="68"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="78"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="66"/>
+      <c r="F50" s="67">
         <f>'March 2010'!T31</f>
+        <v>7</v>
+      </c>
+      <c r="G50" s="70">
+        <v>42079</v>
+      </c>
+      <c r="H50" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I50" s="68"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="78"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="66"/>
+      <c r="F51" s="67">
+        <f>'March 2010'!T32</f>
         <v>0</v>
-      </c>
-      <c r="G46" s="53">
-        <v>42079</v>
-      </c>
-      <c r="H46" s="53">
-        <v>42083</v>
-      </c>
-      <c r="I46" s="54"/>
-    </row>
-    <row r="47" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D47" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" s="57"/>
-      <c r="F47" s="58">
-        <f>SUM(F34:F46)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="13.8" thickTop="1"/>
-    <row r="49" spans="1:9" ht="13.8" thickBot="1"/>
-    <row r="50" spans="1:9">
-      <c r="A50" s="76" t="s">
-        <v>100</v>
-      </c>
-      <c r="B50" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50" s="41"/>
-      <c r="F50" s="42">
-        <v>15</v>
-      </c>
-      <c r="G50" s="43">
-        <v>42079</v>
-      </c>
-      <c r="H50" s="43">
-        <v>42083</v>
-      </c>
-      <c r="I50" s="44"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="77"/>
-      <c r="B51" s="84"/>
-      <c r="C51" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51" s="62"/>
-      <c r="F51" s="63">
-        <v>5</v>
       </c>
       <c r="G51" s="70">
         <v>42079</v>
@@ -2881,22 +3023,21 @@
       <c r="H51" s="48">
         <v>42083</v>
       </c>
-      <c r="I51" s="65"/>
+      <c r="I51" s="68"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="77"/>
-      <c r="B52" s="79" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="46" t="s">
-        <v>107</v>
+      <c r="A52" s="78"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="74" t="s">
+        <v>94</v>
       </c>
       <c r="D52" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52" s="46"/>
-      <c r="F52" s="47">
-        <v>2</v>
+        <v>83</v>
+      </c>
+      <c r="E52" s="66"/>
+      <c r="F52" s="67">
+        <f>'March 2010'!T33</f>
+        <v>8</v>
       </c>
       <c r="G52" s="70">
         <v>42079</v>
@@ -2904,20 +3045,21 @@
       <c r="H52" s="48">
         <v>42083</v>
       </c>
-      <c r="I52" s="49"/>
+      <c r="I52" s="68"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="77"/>
-      <c r="B53" s="80"/>
-      <c r="C53" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="46" t="s">
-        <v>109</v>
+      <c r="A53" s="78"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="66" t="s">
+        <v>96</v>
       </c>
       <c r="E53" s="66"/>
       <c r="F53" s="67">
-        <v>2</v>
+        <f>'March 2010'!T34</f>
+        <v>8</v>
       </c>
       <c r="G53" s="70">
         <v>42079</v>
@@ -2927,125 +3069,77 @@
       </c>
       <c r="I53" s="68"/>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="77"/>
-      <c r="B54" s="80"/>
-      <c r="C54" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="E54" s="66"/>
+    <row r="54" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A54" s="79"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="51"/>
       <c r="F54" s="67">
-        <v>2</v>
-      </c>
-      <c r="G54" s="70">
+        <f>'March 2010'!T35</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="53">
         <v>42079</v>
       </c>
-      <c r="H54" s="48">
-        <v>42083</v>
-      </c>
-      <c r="I54" s="68"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="77"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="E55" s="66"/>
-      <c r="F55" s="67">
-        <v>2</v>
-      </c>
-      <c r="G55" s="70">
+      <c r="H54" s="53">
+        <v>42083</v>
+      </c>
+      <c r="I54" s="54"/>
+    </row>
+    <row r="55" spans="1:9" ht="13.5" thickBot="1">
+      <c r="D55" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" s="57"/>
+      <c r="F55" s="58">
+        <f>SUM(F42:F54)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="13.5" thickTop="1"/>
+    <row r="57" spans="1:9" ht="13.5" thickBot="1"/>
+    <row r="58" spans="1:9">
+      <c r="A58" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" s="41"/>
+      <c r="F58" s="42">
+        <v>15</v>
+      </c>
+      <c r="G58" s="43">
         <v>42079</v>
       </c>
-      <c r="H55" s="48">
-        <v>42083</v>
-      </c>
-      <c r="I55" s="68"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="77"/>
-      <c r="B56" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="66"/>
-      <c r="D56" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56" s="66"/>
-      <c r="F56" s="67">
-        <v>2</v>
-      </c>
-      <c r="G56" s="70">
-        <v>42079</v>
-      </c>
-      <c r="H56" s="48">
-        <v>42083</v>
-      </c>
-      <c r="I56" s="68"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="77"/>
-      <c r="B57" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="E57" s="66"/>
-      <c r="F57" s="67">
-        <v>3</v>
-      </c>
-      <c r="G57" s="70">
-        <v>42079</v>
-      </c>
-      <c r="H57" s="48">
-        <v>42083</v>
-      </c>
-      <c r="I57" s="68"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="77"/>
-      <c r="B58" s="80"/>
-      <c r="C58" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="E58" s="66"/>
-      <c r="F58" s="67">
+      <c r="H58" s="43">
+        <v>42083</v>
+      </c>
+      <c r="I58" s="44"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="78"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="E59" s="62"/>
+      <c r="F59" s="63">
         <v>5</v>
-      </c>
-      <c r="G58" s="70">
-        <v>42079</v>
-      </c>
-      <c r="H58" s="48">
-        <v>42083</v>
-      </c>
-      <c r="I58" s="68"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="77"/>
-      <c r="B59" s="80"/>
-      <c r="C59" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="D59" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="E59" s="66"/>
-      <c r="F59" s="67">
-        <v>3</v>
       </c>
       <c r="G59" s="70">
         <v>42079</v>
@@ -3053,78 +3147,251 @@
       <c r="H59" s="48">
         <v>42083</v>
       </c>
-      <c r="I59" s="68"/>
+      <c r="I59" s="65"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="77"/>
-      <c r="B60" s="81"/>
-      <c r="C60" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="D60" s="66" t="s">
+      <c r="A60" s="78"/>
+      <c r="B60" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="E60" s="66"/>
-      <c r="F60" s="67"/>
+      <c r="D60" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" s="46"/>
+      <c r="F60" s="47">
+        <v>2</v>
+      </c>
       <c r="G60" s="70">
         <v>42079</v>
       </c>
       <c r="H60" s="48">
         <v>42083</v>
       </c>
-      <c r="I60" s="75" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="13.8" thickBot="1">
+      <c r="I60" s="49"/>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="78"/>
-      <c r="B61" s="72" t="s">
+      <c r="B61" s="84"/>
+      <c r="C61" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" s="66"/>
+      <c r="F61" s="67">
+        <v>2</v>
+      </c>
+      <c r="G61" s="70">
+        <v>42079</v>
+      </c>
+      <c r="H61" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I61" s="68"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="78"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" s="66"/>
+      <c r="F62" s="67">
+        <v>2</v>
+      </c>
+      <c r="G62" s="70">
+        <v>42079</v>
+      </c>
+      <c r="H62" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I62" s="68"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="78"/>
+      <c r="B63" s="86"/>
+      <c r="C63" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63" s="66"/>
+      <c r="F63" s="67">
+        <v>2</v>
+      </c>
+      <c r="G63" s="70">
+        <v>42079</v>
+      </c>
+      <c r="H63" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I63" s="68"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="78"/>
+      <c r="B64" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="66"/>
+      <c r="D64" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="E64" s="66"/>
+      <c r="F64" s="67">
+        <v>2</v>
+      </c>
+      <c r="G64" s="70">
+        <v>42079</v>
+      </c>
+      <c r="H64" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I64" s="68"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="78"/>
+      <c r="B65" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="D65" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" s="66"/>
+      <c r="F65" s="67">
+        <v>3</v>
+      </c>
+      <c r="G65" s="70">
+        <v>42079</v>
+      </c>
+      <c r="H65" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I65" s="68"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="78"/>
+      <c r="B66" s="84"/>
+      <c r="C66" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" s="66"/>
+      <c r="F66" s="67">
+        <v>5</v>
+      </c>
+      <c r="G66" s="70">
+        <v>42079</v>
+      </c>
+      <c r="H66" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I66" s="68"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="78"/>
+      <c r="B67" s="84"/>
+      <c r="C67" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" s="66"/>
+      <c r="F67" s="67">
+        <v>3</v>
+      </c>
+      <c r="G67" s="70">
+        <v>42079</v>
+      </c>
+      <c r="H67" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I67" s="68"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="78"/>
+      <c r="B68" s="86"/>
+      <c r="C68" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="E68" s="66"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="70">
+        <v>42079</v>
+      </c>
+      <c r="H68" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I68" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A69" s="79"/>
+      <c r="B69" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="E69" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="E61" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="F61" s="52"/>
-      <c r="G61" s="53">
+      <c r="F69" s="52"/>
+      <c r="G69" s="53">
         <v>42082</v>
       </c>
-      <c r="H61" s="53">
+      <c r="H69" s="53">
         <v>42088</v>
       </c>
-      <c r="I61" s="88" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D62" s="57" t="s">
+      <c r="I69" s="76" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="13.5" thickBot="1">
+      <c r="D70" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="57"/>
-      <c r="F62" s="58">
-        <f>SUM(F50:F61)</f>
+      <c r="E70" s="57"/>
+      <c r="F70" s="58">
+        <f>SUM(F58:F69)</f>
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="13.8" thickTop="1"/>
+    <row r="71" spans="1:9" ht="13.5" thickTop="1"/>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A42:A54"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="A58:A69"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B65:B68"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A9:A21"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B21"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A34:A46"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="A50:A61"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="A25:A37"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3133,29 +3400,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
+      <selection pane="bottomRight" activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="25" customWidth="1"/>
-    <col min="2" max="2" width="4.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.88671875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" style="25" customWidth="1"/>
-    <col min="5" max="18" width="4.21875" style="25" customWidth="1"/>
-    <col min="19" max="19" width="2.88671875" style="25" customWidth="1"/>
-    <col min="20" max="20" width="7.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="25"/>
+    <col min="1" max="1" width="8.140625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="25" customWidth="1"/>
+    <col min="5" max="18" width="4.28515625" style="25" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" style="25" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.6">
+    <row r="1" spans="1:20" ht="15.75">
       <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
@@ -3392,9 +3659,13 @@
       <c r="B18" s="22">
         <v>1</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="27" t="s">
+        <v>136</v>
+      </c>
       <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="E18" s="20">
+        <v>4</v>
+      </c>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
@@ -3410,16 +3681,20 @@
       <c r="R18" s="27"/>
       <c r="T18" s="4">
         <f>SUM(E18:R18)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="B19" s="22">
         <v>2</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="27" t="s">
+        <v>137</v>
+      </c>
       <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+      <c r="E19" s="20">
+        <v>4</v>
+      </c>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -3434,18 +3709,22 @@
       <c r="Q19" s="27"/>
       <c r="R19" s="27"/>
       <c r="T19" s="4">
-        <f t="shared" ref="T19:T22" si="1">SUM(E19:R19)</f>
-        <v>0</v>
+        <f t="shared" ref="T19:T25" si="1">SUM(E19:R19)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="B20" s="22">
         <v>3</v>
       </c>
-      <c r="C20" s="27"/>
+      <c r="C20" s="27" t="s">
+        <v>138</v>
+      </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
+      <c r="F20" s="20">
+        <v>2</v>
+      </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
@@ -3460,17 +3739,21 @@
       <c r="R20" s="27"/>
       <c r="T20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="B21" s="22">
         <v>4</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="27" t="s">
+        <v>139</v>
+      </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
+      <c r="F21" s="20">
+        <v>3</v>
+      </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
@@ -3485,17 +3768,21 @@
       <c r="R21" s="27"/>
       <c r="T21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="B22" s="22">
         <v>5</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="27" t="s">
+        <v>140</v>
+      </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
+      <c r="F22" s="20">
+        <v>2</v>
+      </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
@@ -3510,38 +3797,118 @@
       <c r="R22" s="27"/>
       <c r="T22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="B23" s="22">
+        <v>6</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="20">
+        <v>1</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="T23" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="26" t="s">
-        <v>27</v>
+      <c r="B24" s="22">
+        <v>7</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="20">
+        <v>2</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="T24" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:20">
-      <c r="B25" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>11</v>
+      <c r="B25" s="22">
+        <v>8</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="20">
+        <v>6</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="23">
+        <v>4</v>
+      </c>
+      <c r="J25" s="23">
+        <v>7</v>
+      </c>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="T25" s="4">
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="B26" s="22">
-        <v>1</v>
-      </c>
-      <c r="C26" s="74" t="s">
-        <v>91</v>
+        <v>9</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>145</v>
       </c>
       <c r="D26" s="27"/>
-      <c r="E26" s="20">
-        <v>5</v>
-      </c>
+      <c r="E26" s="27"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
+      <c r="I26" s="29">
+        <v>4</v>
+      </c>
+      <c r="J26" s="29">
+        <v>1</v>
+      </c>
       <c r="K26" s="27"/>
       <c r="L26" s="27"/>
       <c r="M26" s="27"/>
@@ -3550,110 +3917,34 @@
       <c r="P26" s="27"/>
       <c r="Q26" s="27"/>
       <c r="R26" s="27"/>
-      <c r="T26" s="4">
-        <f>SUM(E26:R26)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="B27" s="22">
-        <v>2</v>
-      </c>
-      <c r="C27" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="20">
-        <v>3</v>
-      </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="23">
-        <v>4</v>
-      </c>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="T27" s="4">
-        <f t="shared" ref="T27:T30" si="2">SUM(E27:R27)</f>
-        <v>7</v>
-      </c>
+      <c r="T26" s="31"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="B28" s="22">
-        <v>3</v>
-      </c>
-      <c r="C28" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="T28" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="A28" s="26" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:20">
-      <c r="B29" s="22">
-        <v>4</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="F29" s="20">
-        <v>8</v>
-      </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="T29" s="4">
-        <f>SUM(F29:R29)</f>
-        <v>8</v>
+      <c r="B29" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="B30" s="22">
+        <v>1</v>
+      </c>
+      <c r="C30" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="20">
         <v>5</v>
       </c>
-      <c r="C30" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
       <c r="F30" s="27"/>
-      <c r="G30" s="20">
-        <v>8</v>
-      </c>
+      <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
       <c r="J30" s="27"/>
@@ -3666,36 +3957,109 @@
       <c r="Q30" s="27"/>
       <c r="R30" s="27"/>
       <c r="T30" s="4">
+        <f>SUM(E30:R30)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="B31" s="22">
+        <v>2</v>
+      </c>
+      <c r="C31" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="20">
+        <v>3</v>
+      </c>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="23">
+        <v>4</v>
+      </c>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="T31" s="4">
+        <f t="shared" ref="T31:T34" si="2">SUM(E31:R31)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="B32" s="22">
+        <v>3</v>
+      </c>
+      <c r="C32" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="T32" s="4">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="B33" s="22">
+        <v>4</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="F33" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="B33" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>11</v>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="T33" s="4">
+        <f>SUM(F33:R33)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="B34" s="22">
-        <v>1</v>
-      </c>
-      <c r="C34" s="27"/>
+        <v>5</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>123</v>
+      </c>
       <c r="D34" s="27"/>
-      <c r="E34" s="20">
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="20">
         <v>8</v>
       </c>
-      <c r="F34" s="20">
-        <v>8</v>
-      </c>
-      <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
       <c r="J34" s="27"/>
@@ -3708,95 +4072,35 @@
       <c r="Q34" s="27"/>
       <c r="R34" s="27"/>
       <c r="T34" s="4">
-        <f>SUM(E34:R34)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="B35" s="22">
-        <v>2</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="T35" s="4">
-        <f t="shared" ref="T35:T38" si="3">SUM(E35:R35)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:20">
-      <c r="B36" s="22">
-        <v>3</v>
-      </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="20">
-        <v>8</v>
-      </c>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="T36" s="4">
-        <f t="shared" si="3"/>
-        <v>8</v>
+      <c r="A36" s="26" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:20">
-      <c r="B37" s="22">
-        <v>4</v>
-      </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="T37" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="B37" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:20">
       <c r="B38" s="22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
+      <c r="E38" s="20">
+        <v>8</v>
+      </c>
+      <c r="F38" s="20">
+        <v>8</v>
+      </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
@@ -3810,26 +4114,90 @@
       <c r="Q38" s="27"/>
       <c r="R38" s="27"/>
       <c r="T38" s="4">
+        <f>SUM(E38:R38)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="B39" s="22">
+        <v>2</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="T39" s="4">
+        <f t="shared" ref="T39:T42" si="3">SUM(E39:R39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="B40" s="22">
+        <v>3</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="20">
+        <v>8</v>
+      </c>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="T40" s="4">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="B41" s="22">
+        <v>4</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="T41" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="B41" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="42" spans="1:20">
       <c r="B42" s="22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
@@ -3848,94 +4216,26 @@
       <c r="Q42" s="27"/>
       <c r="R42" s="27"/>
       <c r="T42" s="4">
-        <f>SUM(E42:R42)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
-      <c r="B43" s="22">
-        <v>2</v>
-      </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="20">
-        <v>8</v>
-      </c>
-      <c r="F43" s="20">
-        <v>8</v>
-      </c>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="T43" s="4">
-        <f t="shared" ref="T43:T46" si="4">SUM(E43:R43)</f>
-        <v>16</v>
-      </c>
-    </row>
     <row r="44" spans="1:20">
-      <c r="B44" s="22">
-        <v>3</v>
-      </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
-      <c r="T44" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="A44" s="26" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:20">
-      <c r="B45" s="22">
-        <v>4</v>
-      </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="20">
-        <v>8</v>
-      </c>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="T45" s="4">
-        <f t="shared" si="4"/>
-        <v>8</v>
+      <c r="B45" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:20">
       <c r="B46" s="22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
@@ -3954,96 +4254,202 @@
       <c r="Q46" s="27"/>
       <c r="R46" s="27"/>
       <c r="T46" s="4">
+        <f>SUM(E46:R46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="B47" s="22">
+        <v>2</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="20">
+        <v>8</v>
+      </c>
+      <c r="F47" s="20">
+        <v>8</v>
+      </c>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="T47" s="4">
+        <f t="shared" ref="T47:T50" si="4">SUM(E47:R47)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="B48" s="22">
+        <v>3</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="T48" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
-      <c r="B47" s="30"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="31"/>
-      <c r="T47" s="31"/>
-    </row>
-    <row r="48" spans="1:20" ht="16.2" thickBot="1">
-      <c r="C48" s="1" t="s">
+    <row r="49" spans="2:20">
+      <c r="B49" s="22">
+        <v>4</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="20">
+        <v>8</v>
+      </c>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="T49" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20">
+      <c r="B50" s="22">
+        <v>5</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
+      <c r="T50" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20">
+      <c r="B51" s="30"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31"/>
+      <c r="T51" s="31"/>
+    </row>
+    <row r="52" spans="2:20" ht="16.5" thickBot="1">
+      <c r="C52" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="24">
-        <f t="shared" ref="E48:F48" si="5">SUM(E8:E46)</f>
-        <v>24</v>
-      </c>
-      <c r="F48" s="24">
+      <c r="E52" s="24">
+        <f t="shared" ref="E52:F52" si="5">SUM(E8:E50)</f>
+        <v>32</v>
+      </c>
+      <c r="F52" s="24">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="G48" s="24">
-        <f t="shared" ref="G48:P48" si="6">SUM(G8:G46)</f>
-        <v>24</v>
-      </c>
-      <c r="H48" s="24">
+        <v>32</v>
+      </c>
+      <c r="G52" s="24">
+        <f t="shared" ref="G52:P52" si="6">SUM(G8:G50)</f>
+        <v>32</v>
+      </c>
+      <c r="H52" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I48" s="24">
+      <c r="I52" s="24">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="J48" s="24">
+        <v>12</v>
+      </c>
+      <c r="J52" s="24">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="K52" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K48" s="24">
+      <c r="L52" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L48" s="24">
+      <c r="M52" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M48" s="24">
+      <c r="N52" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N48" s="24">
+      <c r="O52" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O48" s="24">
+      <c r="P52" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P48" s="24">
-        <f t="shared" si="6"/>
+      <c r="Q52" s="24">
+        <f t="shared" ref="Q52:R52" si="7">SUM(Q8:Q50)</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="24">
-        <f t="shared" ref="Q48:R48" si="7">SUM(Q8:Q46)</f>
-        <v>0</v>
-      </c>
-      <c r="R48" s="24">
+      <c r="R52" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T48" s="28">
-        <f>SUM(G48:R48)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" ht="13.8" thickTop="1"/>
+      <c r="T52" s="28">
+        <f>SUM(G52:R52)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" ht="13.5" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Listing_Tool_Status_Report_v1.0.xlsx
+++ b/docs/Listing_Tool_Status_Report_v1.0.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="-360" windowWidth="16605" windowHeight="9435" activeTab="2"/>
+    <workbookView xWindow="5352" yWindow="-360" windowWidth="16608" windowHeight="9432" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="WBS" sheetId="5" r:id="rId2"/>
     <sheet name="March 2010" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="151">
   <si>
     <t>Project Name:</t>
   </si>
@@ -546,23 +546,158 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>1.1 SSO research</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wolf, Devin</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 Log in &amp; out based on cookies</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wolf, Devin</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 Synch CSS style from PHP site</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 Setup website structure</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wolf, Devin</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3 Setup website page layout</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wolf, Devin</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4 Localization &amp; international</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wolf, Devin</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 Company object update &amp; view</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wolf, Devin</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2 User object CRUD</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3 Department object CRUD</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4 Notification object CRUD</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wolf</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4 User interface to list transaction history, with search function</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5 User interface to apply withdraw</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究中</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1  Identify your business type</t>
+  </si>
+  <si>
+    <t>Tik</t>
+  </si>
+  <si>
+    <t>4.2 Create Merchant account and Link adwords accounts</t>
+  </si>
+  <si>
+    <t>此处无官方例子，需要从学习所有API，测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3 Create a new campaign </t>
+  </si>
+  <si>
+    <t>4.4 Create a feed</t>
+  </si>
+  <si>
+    <t>4.5 Tag your website</t>
+  </si>
+  <si>
+    <t>4.6 Create dynamic ads</t>
+  </si>
+  <si>
+    <t>4.7 Final checklist</t>
+  </si>
+  <si>
+    <t>4.Create demo remarketing display Ad</t>
+  </si>
+  <si>
+    <t>Create sub MCC acount</t>
+  </si>
+  <si>
+    <t>Create sub client account</t>
+  </si>
+  <si>
+    <t>Create demo Ads 3.1</t>
+  </si>
+  <si>
+    <t>Create demo Ads 3.2</t>
+  </si>
+  <si>
+    <t>Create demo Ads 3.3</t>
+  </si>
+  <si>
+    <t>Create demo Ads 3.4</t>
+  </si>
+  <si>
+    <t>Create demo remarketing display Ad 4.1</t>
+  </si>
+  <si>
+    <t>Create demo remarketing display Ad 4.3</t>
+  </si>
+  <si>
+    <t>5.P2P business meeting</t>
+  </si>
+  <si>
+    <t>P2P Business 5</t>
+  </si>
+  <si>
+    <t>临时性了解P2P业务流程</t>
+  </si>
+  <si>
     <t>1. SSO Login</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>1.1 SSO research</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wolf, Devin</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2 Log in &amp; out based on cookies</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wolf, Devin</t>
+    <t>SSO Login</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -570,27 +705,7 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>2.1 Synch CSS style from PHP site</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2 Setup website structure</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wolf, Devin</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3 Setup website page layout</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wolf, Devin</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.4 Localization &amp; international</t>
+    <t>2. Website layout &amp; structure copy</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -598,7 +713,7 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>Wolf, Devin</t>
+    <t>3. Log in &amp; out function</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -606,122 +721,24 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>4.1 Company object update &amp; view</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wolf, Devin</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2 User object CRUD</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.3 Department object CRUD</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.4 Notification object CRUD</t>
+    <t>4. Basic object CRUD &amp; interface</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>5. Wish.com API Research</t>
-  </si>
-  <si>
-    <t>Wolf</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Low</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.4 User interface to list transaction history, with search function</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.5 User interface to apply withdraw</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>尚未开发</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究中</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1  Identify your business type</t>
-  </si>
-  <si>
-    <t>Tik</t>
-  </si>
-  <si>
-    <t>4.2 Create Merchant account and Link adwords accounts</t>
-  </si>
-  <si>
-    <t>此处无官方例子，需要从学习所有API，测试</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3 Create a new campaign </t>
-  </si>
-  <si>
-    <t>4.4 Create a feed</t>
-  </si>
-  <si>
-    <t>4.5 Tag your website</t>
-  </si>
-  <si>
-    <t>4.6 Create dynamic ads</t>
-  </si>
-  <si>
-    <t>4.7 Final checklist</t>
-  </si>
-  <si>
-    <t>4.Create demo remarketing display Ad</t>
-  </si>
-  <si>
-    <t>Create sub MCC acount</t>
-  </si>
-  <si>
-    <t>Create sub client account</t>
-  </si>
-  <si>
-    <t>Create demo Ads 3.1</t>
-  </si>
-  <si>
-    <t>Create demo Ads 3.2</t>
-  </si>
-  <si>
-    <t>Create demo Ads 3.3</t>
-  </si>
-  <si>
-    <t>Create demo Ads 3.4</t>
-  </si>
-  <si>
-    <t>Create demo remarketing display Ad 4.1</t>
-  </si>
-  <si>
-    <t>Create demo remarketing display Ad 4.3</t>
-  </si>
-  <si>
-    <t>5.P2P business meeting</t>
-  </si>
-  <si>
-    <t>P2P Business 5</t>
-  </si>
-  <si>
-    <t>临时性了解P2P业务流程</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. Wish.com API Research</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -788,7 +805,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1284,7 +1301,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1415,6 +1432,30 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1424,6 +1465,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1434,67 +1493,25 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1510,7 +1527,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1584,6 +1601,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1618,6 +1636,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1793,22 +1812,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13.5" thickBot="1"/>
+    <row r="1" spans="2:10" ht="13.8" thickBot="1"/>
     <row r="2" spans="2:10">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -1820,7 +1839,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="2:10" ht="33">
+    <row r="3" spans="2:10" ht="31.8">
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
         <v>0</v>
@@ -2060,7 +2079,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="2:10" ht="13.5" thickBot="1">
+    <row r="21" spans="2:10" ht="13.8" thickBot="1">
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -2079,25 +2098,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="39" style="55" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" style="56" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" style="55" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="55" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="71" customWidth="1"/>
-    <col min="7" max="8" width="11.7109375" style="55" customWidth="1"/>
-    <col min="9" max="9" width="38.42578125" style="55" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="36"/>
+    <col min="2" max="2" width="41.88671875" style="56" customWidth="1"/>
+    <col min="3" max="3" width="54.109375" style="55" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="55" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="71" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" style="55" customWidth="1"/>
+    <col min="9" max="9" width="38.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2129,7 +2148,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.5" thickBot="1">
+    <row r="2" spans="1:9" ht="13.8" thickBot="1">
       <c r="A2" s="37"/>
       <c r="B2" s="38"/>
       <c r="C2" s="37"/>
@@ -2140,8 +2159,8 @@
       <c r="H2" s="37"/>
       <c r="I2" s="37"/>
     </row>
-    <row r="3" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A3" s="77" t="s">
+    <row r="3" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A3" s="85" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -2161,8 +2180,8 @@
       </c>
       <c r="I3" s="44"/>
     </row>
-    <row r="4" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A4" s="78"/>
+    <row r="4" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A4" s="86"/>
       <c r="B4" s="45" t="s">
         <v>41</v>
       </c>
@@ -2180,8 +2199,8 @@
       </c>
       <c r="I4" s="49"/>
     </row>
-    <row r="5" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A5" s="79"/>
+    <row r="5" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A5" s="87"/>
       <c r="B5" s="50" t="s">
         <v>42</v>
       </c>
@@ -2197,7 +2216,7 @@
       <c r="H5" s="51"/>
       <c r="I5" s="54"/>
     </row>
-    <row r="6" spans="1:9" ht="13.5" thickBot="1">
+    <row r="6" spans="1:9" ht="13.8" thickBot="1">
       <c r="D6" s="57" t="s">
         <v>43</v>
       </c>
@@ -2209,25 +2228,25 @@
       <c r="G6" s="59"/>
       <c r="H6" s="59"/>
     </row>
-    <row r="7" spans="1:9" ht="13.5" thickTop="1">
+    <row r="7" spans="1:9" ht="13.8" thickTop="1">
       <c r="D7" s="57"/>
       <c r="E7" s="57"/>
       <c r="F7" s="60"/>
       <c r="G7" s="59"/>
       <c r="H7" s="59"/>
     </row>
-    <row r="8" spans="1:9" ht="13.5" thickBot="1">
+    <row r="8" spans="1:9" ht="13.8" thickBot="1">
       <c r="D8" s="57"/>
       <c r="E8" s="57"/>
       <c r="F8" s="60"/>
       <c r="G8" s="59"/>
       <c r="H8" s="59"/>
     </row>
-    <row r="9" spans="1:9" ht="26.65" customHeight="1">
-      <c r="A9" s="77" t="s">
+    <row r="9" spans="1:9" ht="26.7" customHeight="1">
+      <c r="A9" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="94" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="61" t="s">
@@ -2246,9 +2265,9 @@
       </c>
       <c r="I9" s="44"/>
     </row>
-    <row r="10" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A10" s="78"/>
-      <c r="B10" s="81"/>
+    <row r="10" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A10" s="86"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="62" t="s">
         <v>47</v>
       </c>
@@ -2265,9 +2284,9 @@
       </c>
       <c r="I10" s="65"/>
     </row>
-    <row r="11" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A11" s="78"/>
-      <c r="B11" s="81"/>
+    <row r="11" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A11" s="86"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="46" t="s">
         <v>49</v>
       </c>
@@ -2284,9 +2303,9 @@
       </c>
       <c r="I11" s="49"/>
     </row>
-    <row r="12" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A12" s="78"/>
-      <c r="B12" s="81"/>
+    <row r="12" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A12" s="86"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="66" t="s">
         <v>50</v>
       </c>
@@ -2303,9 +2322,9 @@
       </c>
       <c r="I12" s="68"/>
     </row>
-    <row r="13" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A13" s="78"/>
-      <c r="B13" s="82"/>
+    <row r="13" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A13" s="86"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="66" t="s">
         <v>52</v>
       </c>
@@ -2322,9 +2341,9 @@
       </c>
       <c r="I13" s="68"/>
     </row>
-    <row r="14" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A14" s="78"/>
-      <c r="B14" s="83" t="s">
+    <row r="14" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A14" s="86"/>
+      <c r="B14" s="88" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="66" t="s">
@@ -2343,9 +2362,9 @@
       </c>
       <c r="I14" s="68"/>
     </row>
-    <row r="15" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A15" s="78"/>
-      <c r="B15" s="84"/>
+    <row r="15" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A15" s="86"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="66" t="s">
         <v>55</v>
       </c>
@@ -2362,9 +2381,9 @@
       </c>
       <c r="I15" s="68"/>
     </row>
-    <row r="16" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A16" s="78"/>
-      <c r="B16" s="84"/>
+    <row r="16" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A16" s="86"/>
+      <c r="B16" s="89"/>
       <c r="C16" s="66" t="s">
         <v>57</v>
       </c>
@@ -2381,9 +2400,9 @@
       </c>
       <c r="I16" s="68"/>
     </row>
-    <row r="17" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A17" s="78"/>
-      <c r="B17" s="84"/>
+    <row r="17" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A17" s="86"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="66" t="s">
         <v>59</v>
       </c>
@@ -2400,9 +2419,9 @@
       </c>
       <c r="I17" s="68"/>
     </row>
-    <row r="18" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A18" s="78"/>
-      <c r="B18" s="84"/>
+    <row r="18" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A18" s="86"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="66" t="s">
         <v>60</v>
       </c>
@@ -2419,9 +2438,9 @@
       </c>
       <c r="I18" s="68"/>
     </row>
-    <row r="19" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A19" s="78"/>
-      <c r="B19" s="84"/>
+    <row r="19" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A19" s="86"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="66" t="s">
         <v>61</v>
       </c>
@@ -2438,9 +2457,9 @@
       </c>
       <c r="I19" s="68"/>
     </row>
-    <row r="20" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A20" s="78"/>
-      <c r="B20" s="84"/>
+    <row r="20" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A20" s="86"/>
+      <c r="B20" s="89"/>
       <c r="C20" s="66" t="s">
         <v>62</v>
       </c>
@@ -2457,9 +2476,9 @@
       </c>
       <c r="I20" s="68"/>
     </row>
-    <row r="21" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A21" s="79"/>
-      <c r="B21" s="85"/>
+    <row r="21" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A21" s="87"/>
+      <c r="B21" s="91"/>
       <c r="C21" s="69" t="s">
         <v>63</v>
       </c>
@@ -2476,7 +2495,7 @@
       </c>
       <c r="I21" s="54"/>
     </row>
-    <row r="22" spans="1:9" ht="13.5" thickBot="1">
+    <row r="22" spans="1:9" ht="13.8" thickBot="1">
       <c r="D22" s="57" t="s">
         <v>43</v>
       </c>
@@ -2488,22 +2507,22 @@
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
     </row>
-    <row r="23" spans="1:9" ht="13.5" thickTop="1">
+    <row r="23" spans="1:9" ht="13.8" thickTop="1">
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
       <c r="F23" s="60"/>
       <c r="G23" s="59"/>
       <c r="H23" s="59"/>
     </row>
-    <row r="24" spans="1:9" ht="13.5" thickBot="1">
+    <row r="24" spans="1:9" ht="13.8" thickBot="1">
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
       <c r="F24" s="60"/>
       <c r="G24" s="59"/>
       <c r="H24" s="59"/>
     </row>
-    <row r="25" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A25" s="77" t="s">
+    <row r="25" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A25" s="85" t="s">
         <v>64</v>
       </c>
       <c r="B25" s="40" t="s">
@@ -2525,8 +2544,8 @@
       </c>
       <c r="I25" s="44"/>
     </row>
-    <row r="26" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A26" s="78"/>
+    <row r="26" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A26" s="86"/>
       <c r="B26" s="45" t="s">
         <v>67</v>
       </c>
@@ -2546,9 +2565,9 @@
       </c>
       <c r="I26" s="49"/>
     </row>
-    <row r="27" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A27" s="78"/>
-      <c r="B27" s="91" t="s">
+    <row r="27" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A27" s="86"/>
+      <c r="B27" s="97" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="66" t="s">
@@ -2569,9 +2588,9 @@
       </c>
       <c r="I27" s="68"/>
     </row>
-    <row r="28" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A28" s="78"/>
-      <c r="B28" s="92"/>
+    <row r="28" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A28" s="86"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="66" t="s">
         <v>71</v>
       </c>
@@ -2590,9 +2609,9 @@
       </c>
       <c r="I28" s="68"/>
     </row>
-    <row r="29" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A29" s="78"/>
-      <c r="B29" s="95"/>
+    <row r="29" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A29" s="86"/>
+      <c r="B29" s="99"/>
       <c r="C29" s="66" t="s">
         <v>73</v>
       </c>
@@ -2611,16 +2630,16 @@
       </c>
       <c r="I29" s="68"/>
     </row>
-    <row r="30" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A30" s="78"/>
-      <c r="B30" s="94" t="s">
-        <v>135</v>
+    <row r="30" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A30" s="86"/>
+      <c r="B30" s="100" t="s">
+        <v>129</v>
       </c>
       <c r="C30" s="74" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D30" s="74" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E30" s="66"/>
       <c r="F30" s="67">
@@ -2634,14 +2653,14 @@
       </c>
       <c r="I30" s="68"/>
     </row>
-    <row r="31" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A31" s="78"/>
-      <c r="B31" s="92"/>
+    <row r="31" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A31" s="86"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="74" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D31" s="74" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E31" s="66"/>
       <c r="F31" s="67"/>
@@ -2651,18 +2670,18 @@
       <c r="H31" s="48">
         <v>42083</v>
       </c>
-      <c r="I31" s="89" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A32" s="78"/>
-      <c r="B32" s="92"/>
+      <c r="I31" s="77" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A32" s="86"/>
+      <c r="B32" s="98"/>
       <c r="C32" s="74" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D32" s="74" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E32" s="66"/>
       <c r="F32" s="67">
@@ -2674,18 +2693,18 @@
       <c r="H32" s="48">
         <v>42083</v>
       </c>
-      <c r="I32" s="89" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A33" s="78"/>
-      <c r="B33" s="92"/>
+      <c r="I32" s="77" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A33" s="86"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="74" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D33" s="74" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E33" s="66"/>
       <c r="F33" s="67"/>
@@ -2695,18 +2714,18 @@
       <c r="H33" s="48">
         <v>42083</v>
       </c>
-      <c r="I33" s="89" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A34" s="78"/>
-      <c r="B34" s="92"/>
+      <c r="I33" s="77" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A34" s="86"/>
+      <c r="B34" s="98"/>
       <c r="C34" s="74" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D34" s="74" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E34" s="66"/>
       <c r="F34" s="67"/>
@@ -2716,18 +2735,18 @@
       <c r="H34" s="48">
         <v>42083</v>
       </c>
-      <c r="I34" s="89" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A35" s="78"/>
-      <c r="B35" s="92"/>
+      <c r="I34" s="77" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A35" s="86"/>
+      <c r="B35" s="98"/>
       <c r="C35" s="74" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D35" s="74" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E35" s="66"/>
       <c r="F35" s="67"/>
@@ -2737,18 +2756,18 @@
       <c r="H35" s="48">
         <v>42083</v>
       </c>
-      <c r="I35" s="89" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A36" s="78"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="90" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" s="90" t="s">
-        <v>127</v>
+      <c r="I35" s="77" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A36" s="86"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="78" t="s">
+        <v>121</v>
       </c>
       <c r="E36" s="51"/>
       <c r="F36" s="52"/>
@@ -2760,14 +2779,14 @@
       </c>
       <c r="I36" s="54"/>
     </row>
-    <row r="37" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A37" s="79"/>
-      <c r="B37" s="90" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90" t="s">
-        <v>127</v>
+    <row r="37" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A37" s="87"/>
+      <c r="B37" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78" t="s">
+        <v>121</v>
       </c>
       <c r="E37" s="51"/>
       <c r="F37" s="52">
@@ -2779,22 +2798,22 @@
       <c r="H37" s="53">
         <v>42086</v>
       </c>
-      <c r="I37" s="101" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A38" s="96"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="100"/>
-      <c r="I38" s="97"/>
-    </row>
-    <row r="39" spans="1:9" ht="13.5" thickBot="1">
+      <c r="I37" s="84" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A38" s="79"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="80"/>
+    </row>
+    <row r="39" spans="1:9" ht="13.8" thickBot="1">
       <c r="D39" s="57" t="s">
         <v>43</v>
       </c>
@@ -2806,14 +2825,14 @@
       <c r="G39" s="59"/>
       <c r="H39" s="59"/>
     </row>
-    <row r="40" spans="1:9" ht="13.5" thickTop="1">
+    <row r="40" spans="1:9" ht="13.8" thickTop="1">
       <c r="D40" s="57"/>
       <c r="E40" s="57"/>
       <c r="F40" s="60"/>
       <c r="G40" s="59"/>
       <c r="H40" s="59"/>
     </row>
-    <row r="41" spans="1:9" ht="13.5" thickBot="1">
+    <row r="41" spans="1:9" ht="13.8" thickBot="1">
       <c r="D41" s="57"/>
       <c r="E41" s="57"/>
       <c r="F41" s="60"/>
@@ -2821,7 +2840,7 @@
       <c r="H41" s="59"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="77" t="s">
+      <c r="A42" s="85" t="s">
         <v>75</v>
       </c>
       <c r="B42" s="40" t="s">
@@ -2842,8 +2861,8 @@
       <c r="I42" s="44"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="78"/>
-      <c r="B43" s="83" t="s">
+      <c r="A43" s="86"/>
+      <c r="B43" s="88" t="s">
         <v>78</v>
       </c>
       <c r="C43" s="73" t="s">
@@ -2863,8 +2882,8 @@
       <c r="I43" s="49"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="78"/>
-      <c r="B44" s="84"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="89"/>
       <c r="C44" s="66" t="s">
         <v>80</v>
       </c>
@@ -2882,8 +2901,8 @@
       <c r="I44" s="68"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="78"/>
-      <c r="B45" s="84"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="89"/>
       <c r="C45" s="66" t="s">
         <v>81</v>
       </c>
@@ -2901,8 +2920,8 @@
       <c r="I45" s="68"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="78"/>
-      <c r="B46" s="84"/>
+      <c r="A46" s="86"/>
+      <c r="B46" s="89"/>
       <c r="C46" s="66" t="s">
         <v>82</v>
       </c>
@@ -2920,8 +2939,8 @@
       <c r="I46" s="68"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="78"/>
-      <c r="B47" s="84"/>
+      <c r="A47" s="86"/>
+      <c r="B47" s="89"/>
       <c r="C47" s="66" t="s">
         <v>84</v>
       </c>
@@ -2939,8 +2958,8 @@
       <c r="I47" s="68"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="78"/>
-      <c r="B48" s="86"/>
+      <c r="A48" s="86"/>
+      <c r="B48" s="90"/>
       <c r="C48" s="66" t="s">
         <v>86</v>
       </c>
@@ -2958,8 +2977,8 @@
       <c r="I48" s="68"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="78"/>
-      <c r="B49" s="83" t="s">
+      <c r="A49" s="86"/>
+      <c r="B49" s="88" t="s">
         <v>88</v>
       </c>
       <c r="C49" s="66" t="s">
@@ -2982,8 +3001,8 @@
       <c r="I49" s="68"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="78"/>
-      <c r="B50" s="84"/>
+      <c r="A50" s="86"/>
+      <c r="B50" s="89"/>
       <c r="C50" s="74" t="s">
         <v>91</v>
       </c>
@@ -3004,8 +3023,8 @@
       <c r="I50" s="68"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="78"/>
-      <c r="B51" s="84"/>
+      <c r="A51" s="86"/>
+      <c r="B51" s="89"/>
       <c r="C51" s="66" t="s">
         <v>92</v>
       </c>
@@ -3026,8 +3045,8 @@
       <c r="I51" s="68"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="78"/>
-      <c r="B52" s="84"/>
+      <c r="A52" s="86"/>
+      <c r="B52" s="89"/>
       <c r="C52" s="74" t="s">
         <v>94</v>
       </c>
@@ -3048,8 +3067,8 @@
       <c r="I52" s="68"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="78"/>
-      <c r="B53" s="84"/>
+      <c r="A53" s="86"/>
+      <c r="B53" s="89"/>
       <c r="C53" s="74" t="s">
         <v>95</v>
       </c>
@@ -3069,9 +3088,9 @@
       </c>
       <c r="I53" s="68"/>
     </row>
-    <row r="54" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A54" s="79"/>
-      <c r="B54" s="85"/>
+    <row r="54" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A54" s="87"/>
+      <c r="B54" s="91"/>
       <c r="C54" s="51" t="s">
         <v>97</v>
       </c>
@@ -3091,7 +3110,7 @@
       </c>
       <c r="I54" s="54"/>
     </row>
-    <row r="55" spans="1:9" ht="13.5" thickBot="1">
+    <row r="55" spans="1:9" ht="13.8" thickBot="1">
       <c r="D55" s="57" t="s">
         <v>43</v>
       </c>
@@ -3101,20 +3120,20 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="13.5" thickTop="1"/>
-    <row r="57" spans="1:9" ht="13.5" thickBot="1"/>
+    <row r="56" spans="1:9" ht="13.8" thickTop="1"/>
+    <row r="57" spans="1:9" ht="13.8" thickBot="1"/>
     <row r="58" spans="1:9">
-      <c r="A58" s="77" t="s">
+      <c r="A58" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="87" t="s">
+      <c r="B58" s="92" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="41" t="s">
+      <c r="D58" s="41" t="s">
         <v>100</v>
-      </c>
-      <c r="D58" s="41" t="s">
-        <v>101</v>
       </c>
       <c r="E58" s="41"/>
       <c r="F58" s="42">
@@ -3129,13 +3148,13 @@
       <c r="I58" s="44"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="78"/>
-      <c r="B59" s="88"/>
+      <c r="A59" s="86"/>
+      <c r="B59" s="93"/>
       <c r="C59" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59" s="62" t="s">
         <v>102</v>
-      </c>
-      <c r="D59" s="62" t="s">
-        <v>103</v>
       </c>
       <c r="E59" s="62"/>
       <c r="F59" s="63">
@@ -3150,15 +3169,15 @@
       <c r="I59" s="65"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="78"/>
-      <c r="B60" s="83" t="s">
-        <v>104</v>
+      <c r="A60" s="86"/>
+      <c r="B60" s="88" t="s">
+        <v>143</v>
       </c>
       <c r="C60" s="46" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D60" s="46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E60" s="46"/>
       <c r="F60" s="47">
@@ -3173,13 +3192,13 @@
       <c r="I60" s="49"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="78"/>
-      <c r="B61" s="84"/>
+      <c r="A61" s="86"/>
+      <c r="B61" s="89"/>
       <c r="C61" s="66" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D61" s="46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E61" s="66"/>
       <c r="F61" s="67">
@@ -3194,13 +3213,13 @@
       <c r="I61" s="68"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="78"/>
-      <c r="B62" s="84"/>
+      <c r="A62" s="86"/>
+      <c r="B62" s="89"/>
       <c r="C62" s="66" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D62" s="46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E62" s="66"/>
       <c r="F62" s="67">
@@ -3215,13 +3234,13 @@
       <c r="I62" s="68"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="78"/>
-      <c r="B63" s="86"/>
+      <c r="A63" s="86"/>
+      <c r="B63" s="90"/>
       <c r="C63" s="66" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D63" s="46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E63" s="66"/>
       <c r="F63" s="67">
@@ -3236,13 +3255,13 @@
       <c r="I63" s="68"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="78"/>
+      <c r="A64" s="86"/>
       <c r="B64" s="45" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C64" s="66"/>
       <c r="D64" s="46" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E64" s="66"/>
       <c r="F64" s="67">
@@ -3257,15 +3276,15 @@
       <c r="I64" s="68"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="78"/>
-      <c r="B65" s="83" t="s">
-        <v>113</v>
+      <c r="A65" s="86"/>
+      <c r="B65" s="88" t="s">
+        <v>147</v>
       </c>
       <c r="C65" s="66" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D65" s="46" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E65" s="66"/>
       <c r="F65" s="67">
@@ -3280,13 +3299,13 @@
       <c r="I65" s="68"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="78"/>
-      <c r="B66" s="84"/>
+      <c r="A66" s="86"/>
+      <c r="B66" s="89"/>
       <c r="C66" s="66" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D66" s="66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E66" s="66"/>
       <c r="F66" s="67">
@@ -3301,13 +3320,13 @@
       <c r="I66" s="68"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="78"/>
-      <c r="B67" s="84"/>
+      <c r="A67" s="86"/>
+      <c r="B67" s="89"/>
       <c r="C67" s="66" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D67" s="66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E67" s="66"/>
       <c r="F67" s="67">
@@ -3322,37 +3341,37 @@
       <c r="I67" s="68"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="78"/>
-      <c r="B68" s="86"/>
+      <c r="A68" s="86"/>
+      <c r="B68" s="90"/>
       <c r="C68" s="66" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D68" s="66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E68" s="66"/>
-      <c r="F68" s="67"/>
+      <c r="F68" s="67">
+        <v>3</v>
+      </c>
       <c r="G68" s="70">
         <v>42079</v>
       </c>
       <c r="H68" s="48">
         <v>42083</v>
       </c>
-      <c r="I68" s="75" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A69" s="79"/>
+      <c r="I68" s="75"/>
+    </row>
+    <row r="69" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A69" s="87"/>
       <c r="B69" s="72" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="C69" s="51"/>
       <c r="D69" s="51" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E69" s="51" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F69" s="52"/>
       <c r="G69" s="53">
@@ -3362,22 +3381,29 @@
         <v>42088</v>
       </c>
       <c r="I69" s="76" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="13.5" thickBot="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="13.8" thickBot="1">
       <c r="D70" s="57" t="s">
         <v>43</v>
       </c>
       <c r="E70" s="57"/>
       <c r="F70" s="58">
         <f>SUM(F58:F69)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="13.5" thickTop="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="A25:A37"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="A42:A54"/>
     <mergeCell ref="B43:B48"/>
     <mergeCell ref="B49:B54"/>
@@ -3385,13 +3411,6 @@
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="B60:B63"/>
     <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="A25:A37"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3400,29 +3419,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V24" sqref="V24"/>
+      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="25" customWidth="1"/>
-    <col min="5" max="18" width="4.28515625" style="25" customWidth="1"/>
-    <col min="19" max="19" width="2.85546875" style="25" customWidth="1"/>
-    <col min="20" max="20" width="7.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="8.109375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="25" customWidth="1"/>
+    <col min="5" max="18" width="4.33203125" style="25" customWidth="1"/>
+    <col min="19" max="19" width="2.88671875" style="25" customWidth="1"/>
+    <col min="20" max="20" width="7.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75">
+    <row r="1" spans="1:20" ht="15.6">
       <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
@@ -3660,7 +3679,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="20">
@@ -3689,7 +3708,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="20">
@@ -3718,7 +3737,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
@@ -3747,7 +3766,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -3776,7 +3795,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
@@ -3805,7 +3824,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
@@ -3834,7 +3853,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
@@ -3863,7 +3882,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
@@ -3896,7 +3915,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
@@ -4024,7 +4043,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D33" s="27"/>
       <c r="F33" s="20">
@@ -4052,7 +4071,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
@@ -4093,7 +4112,9 @@
       <c r="B38" s="22">
         <v>1</v>
       </c>
-      <c r="C38" s="27"/>
+      <c r="C38" s="27" t="s">
+        <v>142</v>
+      </c>
       <c r="D38" s="27"/>
       <c r="E38" s="20">
         <v>8</v>
@@ -4147,7 +4168,9 @@
       <c r="B40" s="22">
         <v>3</v>
       </c>
-      <c r="C40" s="27"/>
+      <c r="C40" s="27" t="s">
+        <v>146</v>
+      </c>
       <c r="D40" s="27"/>
       <c r="E40" s="27"/>
       <c r="F40" s="27"/>
@@ -4199,14 +4222,18 @@
       <c r="B42" s="22">
         <v>5</v>
       </c>
-      <c r="C42" s="27"/>
+      <c r="C42" s="27" t="s">
+        <v>150</v>
+      </c>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
+      <c r="J42" s="20">
+        <v>8</v>
+      </c>
       <c r="K42" s="27"/>
       <c r="L42" s="27"/>
       <c r="M42" s="27"/>
@@ -4217,7 +4244,7 @@
       <c r="R42" s="27"/>
       <c r="T42" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -4262,7 +4289,9 @@
       <c r="B47" s="22">
         <v>2</v>
       </c>
-      <c r="C47" s="27"/>
+      <c r="C47" s="27" t="s">
+        <v>144</v>
+      </c>
       <c r="D47" s="27"/>
       <c r="E47" s="20">
         <v>8</v>
@@ -4316,7 +4345,9 @@
       <c r="B49" s="22">
         <v>4</v>
       </c>
-      <c r="C49" s="27"/>
+      <c r="C49" s="27" t="s">
+        <v>148</v>
+      </c>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
       <c r="F49" s="27"/>
@@ -4325,7 +4356,9 @@
       </c>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
+      <c r="J49" s="20">
+        <v>8</v>
+      </c>
       <c r="K49" s="27"/>
       <c r="L49" s="27"/>
       <c r="M49" s="27"/>
@@ -4336,7 +4369,7 @@
       <c r="R49" s="27"/>
       <c r="T49" s="4">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="2:20">
@@ -4384,7 +4417,7 @@
       <c r="R51" s="31"/>
       <c r="T51" s="31"/>
     </row>
-    <row r="52" spans="2:20" ht="16.5" thickBot="1">
+    <row r="52" spans="2:20" ht="16.2" thickBot="1">
       <c r="C52" s="1" t="s">
         <v>15</v>
       </c>
@@ -4410,7 +4443,7 @@
       </c>
       <c r="J52" s="24">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="K52" s="24">
         <f t="shared" si="6"/>
@@ -4446,10 +4479,10 @@
       </c>
       <c r="T52" s="28">
         <f>SUM(G52:R52)</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="2:20" ht="13.5" thickTop="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" ht="13.8" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Listing_Tool_Status_Report_v1.0.xlsx
+++ b/docs/Listing_Tool_Status_Report_v1.0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="159">
   <si>
     <t>Project Name:</t>
   </si>
@@ -111,11 +111,11 @@
       </rPr>
       <t>(March 20 ~ March 31)</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>March</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -148,7 +148,7 @@
       </rPr>
       <t>Tik Sun</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -181,31 +181,31 @@
       </rPr>
       <t>Wolf Yan</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Listing Tool</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Record time spent on all activities for Listing Tool</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Tik Sun</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Wolf Yan</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>James Chen</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Devin Yang</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -238,7 +238,7 @@
       </rPr>
       <t>James Chen</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -271,7 +271,7 @@
       </rPr>
       <t>Devin Yang</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Module</t>
@@ -287,347 +287,347 @@
   </si>
   <si>
     <t>Propority</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Effort (hours)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Start Date</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>End Date</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Comments</t>
   </si>
   <si>
     <t>Google AdWords API Access Application</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>1. Prepare project design doc</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Cloud</t>
   </si>
   <si>
     <t>2. Prepare for additional submit form</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>3. Contact with consult for further feedback</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>SubTotal</t>
   </si>
   <si>
     <t>eBay Item Target &amp; Tracking</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>1. Setup Interface for eBay Shopping Interface</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>1.1 Update eBay service interface to be compatible with eBay shopping API</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>1.2 Create eBay shopping API</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Cloud</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1.3 Create function for GetMultipleItems </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>1.4 Create EAV model for eBay GetMultipleItems result</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Cloud</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>1.5 Unit Test</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2. Target &amp; Tracking</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2.1 User Interface to create Target &amp; Tracking</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2.2 User Interface to List Target &amp; Tracking</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Cloud</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2.3 user Interface to update Target &amp; Tracking</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Cloud</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2.4 Miscellaneous user interface develop</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2.5 Schedule job to tracking items</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2.6 Schedule job to revise items if eligible</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2.7 Give feedback notification if any action executed</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2.8 Unit Test</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Google AdWords API Demostration</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>1. Create sub MCC acount</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Tik</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2. Create sub client account</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Tik</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>3. Create demo Ads</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>3.1 Create demo Ad campaign</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>3.2 Create demo Ad group</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Tik</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>3.3 Create demo Ad criteria</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Tik</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>PayPal API Implementation</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>1. PayPal API Interface</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>James</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2. Implement PayPal API Function</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2.1 PayPal API to initial payment</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2.2 PayPal API to confirm payment</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2.3 PayPal API to retrieve detail information of a transaction</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2.4 PayPal API to get account status, including balance</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>James</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2.5 PayPal API to make transfer</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>James</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2.6 Unit Test</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>James</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>3. Transaction User Interface</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>3.1 User interface to initial payment</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>James</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>3.2 User interface to show transaction result</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>3.3 User Interface to show transaction detail</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>James</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>3.4 User interface to list transaction history, with search function</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>3.5 User interface to apply withdraw</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>James</t>
   </si>
   <si>
     <t>3.6 Unit Test</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Webiste Basic Function Reconstruct</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>1.1 SSO research</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Wolf, Devin</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>1.2 Log in &amp; out based on cookies</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Wolf, Devin</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2.1 Synch CSS style from PHP site</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2.2 Setup website structure</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Wolf, Devin</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2.3 Setup website page layout</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Wolf, Devin</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2.4 Localization &amp; international</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Wolf, Devin</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>4.1 Company object update &amp; view</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Wolf, Devin</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>4.2 User object CRUD</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>4.3 Department object CRUD</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>4.4 Notification object CRUD</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Wolf</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Low</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>3.4 User interface to list transaction history, with search function</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>3.5 User interface to apply withdraw</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>研究中</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>4.1  Identify your business type</t>
@@ -694,43 +694,285 @@
   </si>
   <si>
     <t>1. SSO Login</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>SSO Login</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2. Website layout &amp; structure copy</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2. Website layout &amp; structure copy</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>3. Log in &amp; out function</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>3. Log in &amp; out function</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>4. Basic object CRUD &amp; interface</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>4. Basic object CRUD &amp; interface</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>5. Wish.com API Research</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>5. Wish.com API Research</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wolf, Devin</t>
+  </si>
+  <si>
+    <t>6. SSO Front And Backend</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、集成第三方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>jar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件出现部署错误，关系依赖不能正确引用和依赖冲突，导致项目不能正常运作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>集中处理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>jar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件的依赖关系</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、前端项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后端项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部署、集成本地登录登出功能</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、开发期间出现理解误区，后端登录需要通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">admin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、后台页面模板建设</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、配置Notification</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、页面国际化</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -740,12 +982,20 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -887,7 +1137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1242,38 +1492,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1284,7 +1598,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1293,32 +1607,32 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1372,16 +1686,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1426,10 +1740,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1438,7 +1752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1456,14 +1770,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1471,46 +1806,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 3 2" xfId="3"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1518,9 +1906,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2091,7 +2476,7 @@
       <c r="J21" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2099,11 +2484,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -2160,7 +2545,7 @@
       <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="89" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -2181,7 +2566,7 @@
       <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A4" s="86"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="45" t="s">
         <v>41</v>
       </c>
@@ -2200,7 +2585,7 @@
       <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A5" s="87"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="50" t="s">
         <v>42</v>
       </c>
@@ -2243,10 +2628,10 @@
       <c r="H8" s="59"/>
     </row>
     <row r="9" spans="1:9" ht="26.7" customHeight="1">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="92" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="61" t="s">
@@ -2266,8 +2651,8 @@
       <c r="I9" s="44"/>
     </row>
     <row r="10" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A10" s="86"/>
-      <c r="B10" s="95"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="62" t="s">
         <v>47</v>
       </c>
@@ -2285,8 +2670,8 @@
       <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A11" s="86"/>
-      <c r="B11" s="95"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="46" t="s">
         <v>49</v>
       </c>
@@ -2304,8 +2689,8 @@
       <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A12" s="86"/>
-      <c r="B12" s="95"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="93"/>
       <c r="C12" s="66" t="s">
         <v>50</v>
       </c>
@@ -2323,8 +2708,8 @@
       <c r="I12" s="68"/>
     </row>
     <row r="13" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A13" s="86"/>
-      <c r="B13" s="96"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="66" t="s">
         <v>52</v>
       </c>
@@ -2342,8 +2727,8 @@
       <c r="I13" s="68"/>
     </row>
     <row r="14" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A14" s="86"/>
-      <c r="B14" s="88" t="s">
+      <c r="A14" s="90"/>
+      <c r="B14" s="95" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="66" t="s">
@@ -2363,8 +2748,8 @@
       <c r="I14" s="68"/>
     </row>
     <row r="15" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A15" s="86"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="66" t="s">
         <v>55</v>
       </c>
@@ -2382,8 +2767,8 @@
       <c r="I15" s="68"/>
     </row>
     <row r="16" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A16" s="86"/>
-      <c r="B16" s="89"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="66" t="s">
         <v>57</v>
       </c>
@@ -2401,8 +2786,8 @@
       <c r="I16" s="68"/>
     </row>
     <row r="17" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A17" s="86"/>
-      <c r="B17" s="89"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="66" t="s">
         <v>59</v>
       </c>
@@ -2420,8 +2805,8 @@
       <c r="I17" s="68"/>
     </row>
     <row r="18" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A18" s="86"/>
-      <c r="B18" s="89"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="66" t="s">
         <v>60</v>
       </c>
@@ -2439,8 +2824,8 @@
       <c r="I18" s="68"/>
     </row>
     <row r="19" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A19" s="86"/>
-      <c r="B19" s="89"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="66" t="s">
         <v>61</v>
       </c>
@@ -2458,8 +2843,8 @@
       <c r="I19" s="68"/>
     </row>
     <row r="20" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A20" s="86"/>
-      <c r="B20" s="89"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="66" t="s">
         <v>62</v>
       </c>
@@ -2477,8 +2862,8 @@
       <c r="I20" s="68"/>
     </row>
     <row r="21" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A21" s="87"/>
-      <c r="B21" s="91"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="97"/>
       <c r="C21" s="69" t="s">
         <v>63</v>
       </c>
@@ -2522,7 +2907,7 @@
       <c r="H24" s="59"/>
     </row>
     <row r="25" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="89" t="s">
         <v>64</v>
       </c>
       <c r="B25" s="40" t="s">
@@ -2545,7 +2930,7 @@
       <c r="I25" s="44"/>
     </row>
     <row r="26" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A26" s="86"/>
+      <c r="A26" s="90"/>
       <c r="B26" s="45" t="s">
         <v>67</v>
       </c>
@@ -2566,8 +2951,8 @@
       <c r="I26" s="49"/>
     </row>
     <row r="27" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A27" s="86"/>
-      <c r="B27" s="97" t="s">
+      <c r="A27" s="90"/>
+      <c r="B27" s="98" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="66" t="s">
@@ -2589,8 +2974,8 @@
       <c r="I27" s="68"/>
     </row>
     <row r="28" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A28" s="86"/>
-      <c r="B28" s="98"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="66" t="s">
         <v>71</v>
       </c>
@@ -2610,7 +2995,7 @@
       <c r="I28" s="68"/>
     </row>
     <row r="29" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A29" s="86"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="99"/>
       <c r="C29" s="66" t="s">
         <v>73</v>
@@ -2631,8 +3016,8 @@
       <c r="I29" s="68"/>
     </row>
     <row r="30" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A30" s="86"/>
-      <c r="B30" s="100" t="s">
+      <c r="A30" s="90"/>
+      <c r="B30" s="86" t="s">
         <v>129</v>
       </c>
       <c r="C30" s="74" t="s">
@@ -2654,8 +3039,8 @@
       <c r="I30" s="68"/>
     </row>
     <row r="31" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A31" s="86"/>
-      <c r="B31" s="98"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="87"/>
       <c r="C31" s="74" t="s">
         <v>122</v>
       </c>
@@ -2675,8 +3060,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A32" s="86"/>
-      <c r="B32" s="98"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="87"/>
       <c r="C32" s="74" t="s">
         <v>124</v>
       </c>
@@ -2698,8 +3083,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A33" s="86"/>
-      <c r="B33" s="98"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="87"/>
       <c r="C33" s="74" t="s">
         <v>125</v>
       </c>
@@ -2719,8 +3104,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A34" s="86"/>
-      <c r="B34" s="98"/>
+      <c r="A34" s="90"/>
+      <c r="B34" s="87"/>
       <c r="C34" s="74" t="s">
         <v>126</v>
       </c>
@@ -2740,8 +3125,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A35" s="86"/>
-      <c r="B35" s="98"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="87"/>
       <c r="C35" s="74" t="s">
         <v>127</v>
       </c>
@@ -2761,8 +3146,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A36" s="86"/>
-      <c r="B36" s="101"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="88"/>
       <c r="C36" s="78" t="s">
         <v>128</v>
       </c>
@@ -2780,7 +3165,7 @@
       <c r="I36" s="54"/>
     </row>
     <row r="37" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A37" s="87"/>
+      <c r="A37" s="91"/>
       <c r="B37" s="78" t="s">
         <v>138</v>
       </c>
@@ -2840,7 +3225,7 @@
       <c r="H41" s="59"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="85" t="s">
+      <c r="A42" s="89" t="s">
         <v>75</v>
       </c>
       <c r="B42" s="40" t="s">
@@ -2861,8 +3246,8 @@
       <c r="I42" s="44"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="86"/>
-      <c r="B43" s="88" t="s">
+      <c r="A43" s="90"/>
+      <c r="B43" s="95" t="s">
         <v>78</v>
       </c>
       <c r="C43" s="73" t="s">
@@ -2882,8 +3267,8 @@
       <c r="I43" s="49"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="86"/>
-      <c r="B44" s="89"/>
+      <c r="A44" s="90"/>
+      <c r="B44" s="96"/>
       <c r="C44" s="66" t="s">
         <v>80</v>
       </c>
@@ -2901,8 +3286,8 @@
       <c r="I44" s="68"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="86"/>
-      <c r="B45" s="89"/>
+      <c r="A45" s="90"/>
+      <c r="B45" s="96"/>
       <c r="C45" s="66" t="s">
         <v>81</v>
       </c>
@@ -2920,8 +3305,8 @@
       <c r="I45" s="68"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="86"/>
-      <c r="B46" s="89"/>
+      <c r="A46" s="90"/>
+      <c r="B46" s="96"/>
       <c r="C46" s="66" t="s">
         <v>82</v>
       </c>
@@ -2939,8 +3324,8 @@
       <c r="I46" s="68"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="86"/>
-      <c r="B47" s="89"/>
+      <c r="A47" s="90"/>
+      <c r="B47" s="96"/>
       <c r="C47" s="66" t="s">
         <v>84</v>
       </c>
@@ -2958,8 +3343,8 @@
       <c r="I47" s="68"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="86"/>
-      <c r="B48" s="90"/>
+      <c r="A48" s="90"/>
+      <c r="B48" s="100"/>
       <c r="C48" s="66" t="s">
         <v>86</v>
       </c>
@@ -2977,8 +3362,8 @@
       <c r="I48" s="68"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="86"/>
-      <c r="B49" s="88" t="s">
+      <c r="A49" s="90"/>
+      <c r="B49" s="95" t="s">
         <v>88</v>
       </c>
       <c r="C49" s="66" t="s">
@@ -3001,8 +3386,8 @@
       <c r="I49" s="68"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="86"/>
-      <c r="B50" s="89"/>
+      <c r="A50" s="90"/>
+      <c r="B50" s="96"/>
       <c r="C50" s="74" t="s">
         <v>91</v>
       </c>
@@ -3023,8 +3408,8 @@
       <c r="I50" s="68"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="86"/>
-      <c r="B51" s="89"/>
+      <c r="A51" s="90"/>
+      <c r="B51" s="96"/>
       <c r="C51" s="66" t="s">
         <v>92</v>
       </c>
@@ -3045,8 +3430,8 @@
       <c r="I51" s="68"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="86"/>
-      <c r="B52" s="89"/>
+      <c r="A52" s="90"/>
+      <c r="B52" s="96"/>
       <c r="C52" s="74" t="s">
         <v>94</v>
       </c>
@@ -3067,8 +3452,8 @@
       <c r="I52" s="68"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="86"/>
-      <c r="B53" s="89"/>
+      <c r="A53" s="90"/>
+      <c r="B53" s="96"/>
       <c r="C53" s="74" t="s">
         <v>95</v>
       </c>
@@ -3089,8 +3474,8 @@
       <c r="I53" s="68"/>
     </row>
     <row r="54" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A54" s="87"/>
-      <c r="B54" s="91"/>
+      <c r="A54" s="91"/>
+      <c r="B54" s="97"/>
       <c r="C54" s="51" t="s">
         <v>97</v>
       </c>
@@ -3123,10 +3508,10 @@
     <row r="56" spans="1:9" ht="13.8" thickTop="1"/>
     <row r="57" spans="1:9" ht="13.8" thickBot="1"/>
     <row r="58" spans="1:9">
-      <c r="A58" s="85" t="s">
+      <c r="A58" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="92" t="s">
+      <c r="B58" s="101" t="s">
         <v>141</v>
       </c>
       <c r="C58" s="41" t="s">
@@ -3148,8 +3533,8 @@
       <c r="I58" s="44"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="86"/>
-      <c r="B59" s="93"/>
+      <c r="A59" s="90"/>
+      <c r="B59" s="102"/>
       <c r="C59" s="62" t="s">
         <v>101</v>
       </c>
@@ -3169,8 +3554,8 @@
       <c r="I59" s="65"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="86"/>
-      <c r="B60" s="88" t="s">
+      <c r="A60" s="90"/>
+      <c r="B60" s="95" t="s">
         <v>143</v>
       </c>
       <c r="C60" s="46" t="s">
@@ -3192,8 +3577,8 @@
       <c r="I60" s="49"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="86"/>
-      <c r="B61" s="89"/>
+      <c r="A61" s="90"/>
+      <c r="B61" s="96"/>
       <c r="C61" s="66" t="s">
         <v>104</v>
       </c>
@@ -3213,8 +3598,8 @@
       <c r="I61" s="68"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="86"/>
-      <c r="B62" s="89"/>
+      <c r="A62" s="90"/>
+      <c r="B62" s="96"/>
       <c r="C62" s="66" t="s">
         <v>106</v>
       </c>
@@ -3234,8 +3619,8 @@
       <c r="I62" s="68"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="86"/>
-      <c r="B63" s="90"/>
+      <c r="A63" s="90"/>
+      <c r="B63" s="100"/>
       <c r="C63" s="66" t="s">
         <v>108</v>
       </c>
@@ -3255,7 +3640,7 @@
       <c r="I63" s="68"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="86"/>
+      <c r="A64" s="90"/>
       <c r="B64" s="45" t="s">
         <v>145</v>
       </c>
@@ -3276,8 +3661,8 @@
       <c r="I64" s="68"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="86"/>
-      <c r="B65" s="88" t="s">
+      <c r="A65" s="90"/>
+      <c r="B65" s="95" t="s">
         <v>147</v>
       </c>
       <c r="C65" s="66" t="s">
@@ -3299,8 +3684,8 @@
       <c r="I65" s="68"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="86"/>
-      <c r="B66" s="89"/>
+      <c r="A66" s="90"/>
+      <c r="B66" s="96"/>
       <c r="C66" s="66" t="s">
         <v>112</v>
       </c>
@@ -3320,8 +3705,8 @@
       <c r="I66" s="68"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="86"/>
-      <c r="B67" s="89"/>
+      <c r="A67" s="90"/>
+      <c r="B67" s="96"/>
       <c r="C67" s="66" t="s">
         <v>113</v>
       </c>
@@ -3341,8 +3726,8 @@
       <c r="I67" s="68"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="86"/>
-      <c r="B68" s="90"/>
+      <c r="A68" s="90"/>
+      <c r="B68" s="100"/>
       <c r="C68" s="66" t="s">
         <v>114</v>
       </c>
@@ -3362,11 +3747,11 @@
       <c r="I68" s="75"/>
     </row>
     <row r="69" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A69" s="87"/>
+      <c r="A69" s="90"/>
       <c r="B69" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="C69" s="51"/>
+        <v>150</v>
+      </c>
+      <c r="C69" s="85"/>
       <c r="D69" s="51" t="s">
         <v>115</v>
       </c>
@@ -3384,19 +3769,127 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D70" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="E70" s="57"/>
-      <c r="F70" s="58">
-        <f>SUM(F58:F69)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="13.8" thickTop="1"/>
+    <row r="70" spans="1:9" ht="39" thickBot="1">
+      <c r="A70" s="91"/>
+      <c r="B70" s="104" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="D70" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" s="51"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="53">
+        <v>42086</v>
+      </c>
+      <c r="H70" s="112">
+        <v>42086</v>
+      </c>
+      <c r="I70" s="76"/>
+    </row>
+    <row r="71" spans="1:9" ht="13.8" thickBot="1">
+      <c r="B71" s="105"/>
+      <c r="C71" s="103" t="s">
+        <v>154</v>
+      </c>
+      <c r="D71" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="E71" s="51"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="53">
+        <v>42086</v>
+      </c>
+      <c r="H71" s="112">
+        <v>42086</v>
+      </c>
+      <c r="I71" s="76"/>
+    </row>
+    <row r="72" spans="1:9" ht="13.8" thickBot="1">
+      <c r="B72" s="105"/>
+      <c r="C72" s="103" t="s">
+        <v>155</v>
+      </c>
+      <c r="D72" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" s="110"/>
+      <c r="F72" s="111"/>
+      <c r="G72" s="112">
+        <v>42086</v>
+      </c>
+      <c r="H72" s="112">
+        <v>42086</v>
+      </c>
+      <c r="I72" s="114"/>
+    </row>
+    <row r="73" spans="1:9" ht="13.8" thickBot="1">
+      <c r="B73" s="105"/>
+      <c r="C73" s="103" t="s">
+        <v>156</v>
+      </c>
+      <c r="D73" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" s="110"/>
+      <c r="F73" s="111"/>
+      <c r="G73" s="112">
+        <v>42086</v>
+      </c>
+      <c r="H73" s="112">
+        <v>42086</v>
+      </c>
+      <c r="I73" s="114"/>
+    </row>
+    <row r="74" spans="1:9" ht="13.8" thickBot="1">
+      <c r="B74" s="105"/>
+      <c r="C74" s="103" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74" s="118" t="s">
+        <v>151</v>
+      </c>
+      <c r="E74" s="115"/>
+      <c r="F74" s="116"/>
+      <c r="G74" s="117">
+        <v>42086</v>
+      </c>
+      <c r="H74" s="117">
+        <v>42086</v>
+      </c>
+      <c r="I74" s="119"/>
+    </row>
+    <row r="75" spans="1:9" ht="13.8" thickBot="1">
+      <c r="B75" s="106"/>
+      <c r="C75" s="103" t="s">
+        <v>158</v>
+      </c>
+      <c r="D75" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="E75" s="120"/>
+      <c r="F75" s="121"/>
+      <c r="G75" s="122">
+        <v>42086</v>
+      </c>
+      <c r="H75" s="122">
+        <v>42086</v>
+      </c>
+      <c r="I75" s="123"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A42:A54"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="A58:A70"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B70:B75"/>
     <mergeCell ref="B30:B36"/>
     <mergeCell ref="A25:A37"/>
     <mergeCell ref="A3:A5"/>
@@ -3404,15 +3897,8 @@
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A42:A54"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="A58:A69"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B65:B68"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3420,13 +3906,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
+      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -4160,7 +4646,7 @@
       <c r="Q39" s="27"/>
       <c r="R39" s="27"/>
       <c r="T39" s="4">
-        <f t="shared" ref="T39:T42" si="3">SUM(E39:R39)</f>
+        <f t="shared" ref="T39:T45" si="3">SUM(E39:R39)</f>
         <v>0</v>
       </c>
     </row>
@@ -4218,147 +4704,147 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
-      <c r="B42" s="22">
+    <row r="42" spans="1:20" s="124" customFormat="1">
+      <c r="B42" s="127">
         <v>5</v>
       </c>
-      <c r="C42" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="20">
+      <c r="C42" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="128"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="126">
         <v>8</v>
       </c>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="T42" s="4">
+      <c r="J42" s="128"/>
+      <c r="K42" s="128"/>
+      <c r="L42" s="128"/>
+      <c r="M42" s="128"/>
+      <c r="N42" s="128"/>
+      <c r="O42" s="128"/>
+      <c r="P42" s="128"/>
+      <c r="Q42" s="128"/>
+      <c r="R42" s="128"/>
+      <c r="T42" s="125">
+        <f t="shared" ref="T42:T43" si="4">SUM(E42:R42)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" s="124" customFormat="1">
+      <c r="B43" s="127">
+        <v>6</v>
+      </c>
+      <c r="C43" s="109">
+        <v>6.1</v>
+      </c>
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
+      <c r="J43" s="126">
+        <v>2</v>
+      </c>
+      <c r="K43" s="128"/>
+      <c r="L43" s="128"/>
+      <c r="M43" s="128"/>
+      <c r="N43" s="128"/>
+      <c r="O43" s="128"/>
+      <c r="P43" s="128"/>
+      <c r="Q43" s="128"/>
+      <c r="R43" s="128"/>
+      <c r="T43" s="125">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" s="124" customFormat="1">
+      <c r="B44" s="127">
+        <v>7</v>
+      </c>
+      <c r="C44" s="109">
+        <v>6.1</v>
+      </c>
+      <c r="D44" s="128"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="128"/>
+      <c r="G44" s="128"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="128"/>
+      <c r="J44" s="126">
+        <v>2</v>
+      </c>
+      <c r="K44" s="128"/>
+      <c r="L44" s="128"/>
+      <c r="M44" s="128"/>
+      <c r="N44" s="128"/>
+      <c r="O44" s="128"/>
+      <c r="P44" s="128"/>
+      <c r="Q44" s="128"/>
+      <c r="R44" s="128"/>
+      <c r="T44" s="125">
+        <f t="shared" ref="T44" si="5">SUM(E44:R44)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="B45" s="22">
+        <v>8</v>
+      </c>
+      <c r="C45" s="109">
+        <v>6.3</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="20">
+        <v>4</v>
+      </c>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="T45" s="4">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
-      <c r="B45" s="21" t="s">
+    <row r="48" spans="1:20">
+      <c r="B48" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="B46" s="22">
-        <v>1</v>
-      </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="27"/>
-      <c r="T46" s="4">
-        <f>SUM(E46:R46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="B47" s="22">
-        <v>2</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="20">
-        <v>8</v>
-      </c>
-      <c r="F47" s="20">
-        <v>8</v>
-      </c>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="T47" s="4">
-        <f t="shared" ref="T47:T50" si="4">SUM(E47:R47)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="B48" s="22">
-        <v>3</v>
-      </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="27"/>
-      <c r="T48" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:20">
       <c r="B49" s="22">
-        <v>4</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>148</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C49" s="27"/>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
       <c r="F49" s="27"/>
-      <c r="G49" s="20">
-        <v>8</v>
-      </c>
+      <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="20">
-        <v>8</v>
-      </c>
+      <c r="J49" s="27"/>
       <c r="K49" s="27"/>
       <c r="L49" s="27"/>
       <c r="M49" s="27"/>
@@ -4368,18 +4854,24 @@
       <c r="Q49" s="27"/>
       <c r="R49" s="27"/>
       <c r="T49" s="4">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <f>SUM(E49:R49)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:20">
       <c r="B50" s="22">
-        <v>5</v>
-      </c>
-      <c r="C50" s="27"/>
+        <v>2</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>144</v>
+      </c>
       <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
+      <c r="E50" s="20">
+        <v>8</v>
+      </c>
+      <c r="F50" s="20">
+        <v>8</v>
+      </c>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
@@ -4393,98 +4885,255 @@
       <c r="Q50" s="27"/>
       <c r="R50" s="27"/>
       <c r="T50" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="T50:T56" si="6">SUM(E50:R50)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="2:20">
-      <c r="B51" s="30"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="31"/>
-      <c r="T51" s="31"/>
-    </row>
-    <row r="52" spans="2:20" ht="16.2" thickBot="1">
-      <c r="C52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="24">
-        <f t="shared" ref="E52:F52" si="5">SUM(E8:E50)</f>
-        <v>32</v>
-      </c>
-      <c r="F52" s="24">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="G52" s="24">
-        <f t="shared" ref="G52:P52" si="6">SUM(G8:G50)</f>
-        <v>32</v>
-      </c>
-      <c r="H52" s="24">
+      <c r="B51" s="22">
+        <v>3</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="T51" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I52" s="24">
+    </row>
+    <row r="52" spans="2:20">
+      <c r="B52" s="22">
+        <v>4</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="20">
+        <v>8</v>
+      </c>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="128"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
+      <c r="T52" s="4">
         <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="J52" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" s="124" customFormat="1">
+      <c r="B53" s="127">
+        <v>5</v>
+      </c>
+      <c r="C53" s="128"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
+      <c r="G53" s="128"/>
+      <c r="H53" s="128"/>
+      <c r="I53" s="128"/>
+      <c r="J53" s="128"/>
+      <c r="K53" s="128"/>
+      <c r="L53" s="128"/>
+      <c r="M53" s="128"/>
+      <c r="N53" s="128"/>
+      <c r="O53" s="128"/>
+      <c r="P53" s="128"/>
+      <c r="Q53" s="128"/>
+      <c r="R53" s="128"/>
+      <c r="T53" s="125"/>
+    </row>
+    <row r="54" spans="2:20" s="124" customFormat="1">
+      <c r="B54" s="127">
+        <v>6</v>
+      </c>
+      <c r="C54" s="109">
+        <v>6.4</v>
+      </c>
+      <c r="D54" s="128"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
+      <c r="G54" s="128"/>
+      <c r="H54" s="128"/>
+      <c r="I54" s="128"/>
+      <c r="J54" s="126">
+        <v>2</v>
+      </c>
+      <c r="K54" s="128"/>
+      <c r="L54" s="128"/>
+      <c r="M54" s="128"/>
+      <c r="N54" s="128"/>
+      <c r="O54" s="128"/>
+      <c r="P54" s="128"/>
+      <c r="Q54" s="128"/>
+      <c r="R54" s="128"/>
+      <c r="T54" s="125"/>
+    </row>
+    <row r="55" spans="2:20" s="124" customFormat="1">
+      <c r="B55" s="127">
+        <v>7</v>
+      </c>
+      <c r="C55" s="109">
+        <v>6.5</v>
+      </c>
+      <c r="D55" s="128"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
+      <c r="G55" s="128"/>
+      <c r="H55" s="128"/>
+      <c r="I55" s="128"/>
+      <c r="J55" s="126">
+        <v>3</v>
+      </c>
+      <c r="K55" s="128"/>
+      <c r="L55" s="128"/>
+      <c r="M55" s="128"/>
+      <c r="N55" s="128"/>
+      <c r="O55" s="128"/>
+      <c r="P55" s="128"/>
+      <c r="Q55" s="128"/>
+      <c r="R55" s="128"/>
+      <c r="T55" s="125"/>
+    </row>
+    <row r="56" spans="2:20">
+      <c r="B56" s="22">
+        <v>8</v>
+      </c>
+      <c r="C56" s="109">
+        <v>6.6</v>
+      </c>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="126">
+        <v>3</v>
+      </c>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="27"/>
+      <c r="T56" s="4">
         <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20">
+      <c r="B57" s="30"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="T57" s="31"/>
+    </row>
+    <row r="58" spans="2:20" ht="16.2" thickBot="1">
+      <c r="C58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="24">
+        <f t="shared" ref="E58:F58" si="7">SUM(E8:E56)</f>
+        <v>32</v>
+      </c>
+      <c r="F58" s="24">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="G58" s="24">
+        <f t="shared" ref="G58:P58" si="8">SUM(G8:G56)</f>
+        <v>32</v>
+      </c>
+      <c r="H58" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="24">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="J58" s="24">
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="K52" s="24">
-        <f t="shared" si="6"/>
+      <c r="K58" s="24">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L52" s="24">
-        <f t="shared" si="6"/>
+      <c r="L58" s="24">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M52" s="24">
-        <f t="shared" si="6"/>
+      <c r="M58" s="24">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N52" s="24">
-        <f t="shared" si="6"/>
+      <c r="N58" s="24">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O52" s="24">
-        <f t="shared" si="6"/>
+      <c r="O58" s="24">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P52" s="24">
-        <f t="shared" si="6"/>
+      <c r="P58" s="24">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q52" s="24">
-        <f t="shared" ref="Q52:R52" si="7">SUM(Q8:Q50)</f>
+      <c r="Q58" s="24">
+        <f t="shared" ref="Q58:R58" si="9">SUM(Q8:Q56)</f>
         <v>0</v>
       </c>
-      <c r="R52" s="24">
-        <f t="shared" si="7"/>
+      <c r="R58" s="24">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T52" s="28">
-        <f>SUM(G52:R52)</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="2:20" ht="13.8" thickTop="1"/>
+      <c r="T58" s="28">
+        <f>SUM(G58:R58)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" ht="13.8" thickTop="1"/>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/docs/Listing_Tool_Status_Report_v1.0.xlsx
+++ b/docs/Listing_Tool_Status_Report_v1.0.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Code\ListingTool\trunk\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5352" yWindow="-360" windowWidth="16608" windowHeight="9432" activeTab="2"/>
+    <workbookView xWindow="5352" yWindow="-367" windowWidth="16614" windowHeight="9428" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="WBS" sheetId="5" r:id="rId2"/>
     <sheet name="March 2010" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="156">
   <si>
     <t>Project Name:</t>
   </si>
@@ -610,10 +615,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>Wolf</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>Low</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -684,15 +685,6 @@
     <t>Create demo remarketing display Ad 4.3</t>
   </si>
   <si>
-    <t>5.P2P business meeting</t>
-  </si>
-  <si>
-    <t>P2P Business 5</t>
-  </si>
-  <si>
-    <t>临时性了解P2P业务流程</t>
-  </si>
-  <si>
     <t>1. SSO Login</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -727,13 +719,6 @@
   <si>
     <t>5. Wish.com API Research</t>
     <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. Wish.com API Research</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wolf, Devin</t>
   </si>
   <si>
     <t>6. SSO Front And Backend</t>
@@ -868,6 +853,38 @@
   </si>
   <si>
     <r>
+      <t>6.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、后台页面模板建设</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、页面国际化</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>6.3</t>
     </r>
     <r>
@@ -912,22 +929,6 @@
   </si>
   <si>
     <r>
-      <t>6.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、后台页面模板建设</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
@@ -959,19 +960,15 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>6.6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、页面国际化</t>
-    </r>
+    <t>Wolf, Devin</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wolf</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wolf, Devin</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1137,7 +1134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1492,67 +1489,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color theme="3"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="3"/>
-      </right>
-      <top style="thin">
-        <color theme="3"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1566,7 +1502,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1731,9 +1667,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1743,136 +1676,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1894,12 +1707,63 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="1"/>
     <cellStyle name="Normal 3 2" xfId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1907,12 +1771,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1954,7 +1821,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1989,7 +1856,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2204,15 +2071,15 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.9"/>
   <cols>
-    <col min="1" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.375" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13.8" thickBot="1"/>
+    <row r="1" spans="2:10" ht="13.6" thickBot="1"/>
     <row r="2" spans="2:10">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -2224,7 +2091,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="2:10" ht="31.8">
+    <row r="3" spans="2:10" ht="31.95">
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
         <v>0</v>
@@ -2250,7 +2117,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" ht="13.6">
       <c r="B5" s="8"/>
       <c r="C5" s="14" t="s">
         <v>1</v>
@@ -2265,7 +2132,7 @@
       <c r="I5" s="12"/>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" ht="13.6">
       <c r="B6" s="8"/>
       <c r="C6" s="14" t="s">
         <v>3</v>
@@ -2291,7 +2158,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" ht="13.6">
       <c r="B8" s="8"/>
       <c r="C8" s="14" t="s">
         <v>5</v>
@@ -2423,7 +2290,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" ht="13.6">
       <c r="B18" s="8"/>
       <c r="C18" s="14" t="s">
         <v>4</v>
@@ -2438,7 +2305,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" ht="13.6">
       <c r="B19" s="8"/>
       <c r="C19" s="14" t="s">
         <v>7</v>
@@ -2464,7 +2331,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="2:10" ht="13.8" thickBot="1">
+    <row r="21" spans="2:10" ht="13.6" thickBot="1">
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -2486,25 +2353,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.9"/>
   <cols>
     <col min="1" max="1" width="39" style="55" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" style="56" customWidth="1"/>
-    <col min="3" max="3" width="54.109375" style="55" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="55" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="71" customWidth="1"/>
-    <col min="7" max="8" width="11.6640625" style="55" customWidth="1"/>
-    <col min="9" max="9" width="38.44140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="36"/>
+    <col min="2" max="2" width="41.875" style="56" customWidth="1"/>
+    <col min="3" max="3" width="54.125" style="55" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="55" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="71" customWidth="1"/>
+    <col min="7" max="8" width="11.625" style="55" customWidth="1"/>
+    <col min="9" max="9" width="38.5" style="55" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.125" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="13.6">
       <c r="A1" s="33" t="s">
         <v>29</v>
       </c>
@@ -2533,7 +2400,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.8" thickBot="1">
+    <row r="2" spans="1:9" ht="14.3" thickBot="1">
       <c r="A2" s="37"/>
       <c r="B2" s="38"/>
       <c r="C2" s="37"/>
@@ -2545,7 +2412,7 @@
       <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="88" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -2566,7 +2433,7 @@
       <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A4" s="90"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="45" t="s">
         <v>41</v>
       </c>
@@ -2584,8 +2451,8 @@
       </c>
       <c r="I4" s="49"/>
     </row>
-    <row r="5" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A5" s="91"/>
+    <row r="5" spans="1:9" ht="13.6" customHeight="1" thickBot="1">
+      <c r="A5" s="90"/>
       <c r="B5" s="50" t="s">
         <v>42</v>
       </c>
@@ -2601,7 +2468,7 @@
       <c r="H5" s="51"/>
       <c r="I5" s="54"/>
     </row>
-    <row r="6" spans="1:9" ht="13.8" thickBot="1">
+    <row r="6" spans="1:9" ht="14.3" thickBot="1">
       <c r="D6" s="57" t="s">
         <v>43</v>
       </c>
@@ -2613,14 +2480,14 @@
       <c r="G6" s="59"/>
       <c r="H6" s="59"/>
     </row>
-    <row r="7" spans="1:9" ht="13.8" thickTop="1">
+    <row r="7" spans="1:9" ht="14.3" thickTop="1">
       <c r="D7" s="57"/>
       <c r="E7" s="57"/>
       <c r="F7" s="60"/>
       <c r="G7" s="59"/>
       <c r="H7" s="59"/>
     </row>
-    <row r="8" spans="1:9" ht="13.8" thickBot="1">
+    <row r="8" spans="1:9" ht="14.3" thickBot="1">
       <c r="D8" s="57"/>
       <c r="E8" s="57"/>
       <c r="F8" s="60"/>
@@ -2628,10 +2495,10 @@
       <c r="H8" s="59"/>
     </row>
     <row r="9" spans="1:9" ht="26.7" customHeight="1">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="100" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="61" t="s">
@@ -2651,8 +2518,8 @@
       <c r="I9" s="44"/>
     </row>
     <row r="10" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A10" s="90"/>
-      <c r="B10" s="93"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="62" t="s">
         <v>47</v>
       </c>
@@ -2670,8 +2537,8 @@
       <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A11" s="90"/>
-      <c r="B11" s="93"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="46" t="s">
         <v>49</v>
       </c>
@@ -2689,8 +2556,8 @@
       <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A12" s="90"/>
-      <c r="B12" s="93"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="66" t="s">
         <v>50</v>
       </c>
@@ -2708,8 +2575,8 @@
       <c r="I12" s="68"/>
     </row>
     <row r="13" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A13" s="90"/>
-      <c r="B13" s="94"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="66" t="s">
         <v>52</v>
       </c>
@@ -2727,8 +2594,8 @@
       <c r="I13" s="68"/>
     </row>
     <row r="14" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A14" s="90"/>
-      <c r="B14" s="95" t="s">
+      <c r="A14" s="89"/>
+      <c r="B14" s="91" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="66" t="s">
@@ -2748,8 +2615,8 @@
       <c r="I14" s="68"/>
     </row>
     <row r="15" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A15" s="90"/>
-      <c r="B15" s="96"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="66" t="s">
         <v>55</v>
       </c>
@@ -2767,8 +2634,8 @@
       <c r="I15" s="68"/>
     </row>
     <row r="16" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A16" s="90"/>
-      <c r="B16" s="96"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="66" t="s">
         <v>57</v>
       </c>
@@ -2786,8 +2653,8 @@
       <c r="I16" s="68"/>
     </row>
     <row r="17" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A17" s="90"/>
-      <c r="B17" s="96"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="66" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2672,8 @@
       <c r="I17" s="68"/>
     </row>
     <row r="18" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A18" s="90"/>
-      <c r="B18" s="96"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="66" t="s">
         <v>60</v>
       </c>
@@ -2824,8 +2691,8 @@
       <c r="I18" s="68"/>
     </row>
     <row r="19" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A19" s="90"/>
-      <c r="B19" s="96"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="66" t="s">
         <v>61</v>
       </c>
@@ -2843,8 +2710,8 @@
       <c r="I19" s="68"/>
     </row>
     <row r="20" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A20" s="90"/>
-      <c r="B20" s="96"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="66" t="s">
         <v>62</v>
       </c>
@@ -2861,9 +2728,9 @@
       </c>
       <c r="I20" s="68"/>
     </row>
-    <row r="21" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A21" s="91"/>
-      <c r="B21" s="97"/>
+    <row r="21" spans="1:9" ht="13.6" customHeight="1" thickBot="1">
+      <c r="A21" s="90"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="69" t="s">
         <v>63</v>
       </c>
@@ -2880,7 +2747,7 @@
       </c>
       <c r="I21" s="54"/>
     </row>
-    <row r="22" spans="1:9" ht="13.8" thickBot="1">
+    <row r="22" spans="1:9" ht="14.3" thickBot="1">
       <c r="D22" s="57" t="s">
         <v>43</v>
       </c>
@@ -2892,14 +2759,14 @@
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
     </row>
-    <row r="23" spans="1:9" ht="13.8" thickTop="1">
+    <row r="23" spans="1:9" ht="14.3" thickTop="1">
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
       <c r="F23" s="60"/>
       <c r="G23" s="59"/>
       <c r="H23" s="59"/>
     </row>
-    <row r="24" spans="1:9" ht="13.8" thickBot="1">
+    <row r="24" spans="1:9" ht="14.3" thickBot="1">
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
       <c r="F24" s="60"/>
@@ -2907,7 +2774,7 @@
       <c r="H24" s="59"/>
     </row>
     <row r="25" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="88" t="s">
         <v>64</v>
       </c>
       <c r="B25" s="40" t="s">
@@ -2930,7 +2797,7 @@
       <c r="I25" s="44"/>
     </row>
     <row r="26" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A26" s="90"/>
+      <c r="A26" s="89"/>
       <c r="B26" s="45" t="s">
         <v>67</v>
       </c>
@@ -2951,8 +2818,8 @@
       <c r="I26" s="49"/>
     </row>
     <row r="27" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A27" s="90"/>
-      <c r="B27" s="98" t="s">
+      <c r="A27" s="89"/>
+      <c r="B27" s="103" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="66" t="s">
@@ -2974,8 +2841,8 @@
       <c r="I27" s="68"/>
     </row>
     <row r="28" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A28" s="90"/>
-      <c r="B28" s="87"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="66" t="s">
         <v>71</v>
       </c>
@@ -2995,8 +2862,8 @@
       <c r="I28" s="68"/>
     </row>
     <row r="29" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A29" s="90"/>
-      <c r="B29" s="99"/>
+      <c r="A29" s="89"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="66" t="s">
         <v>73</v>
       </c>
@@ -3016,15 +2883,15 @@
       <c r="I29" s="68"/>
     </row>
     <row r="30" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A30" s="90"/>
-      <c r="B30" s="86" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="74" t="s">
+      <c r="A30" s="89"/>
+      <c r="B30" s="97" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="73" t="s">
         <v>120</v>
-      </c>
-      <c r="D30" s="74" t="s">
-        <v>121</v>
       </c>
       <c r="E30" s="66"/>
       <c r="F30" s="67">
@@ -3039,13 +2906,13 @@
       <c r="I30" s="68"/>
     </row>
     <row r="31" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A31" s="90"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="74" t="s">
+      <c r="A31" s="89"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="73" t="s">
         <v>121</v>
+      </c>
+      <c r="D31" s="73" t="s">
+        <v>120</v>
       </c>
       <c r="E31" s="66"/>
       <c r="F31" s="67"/>
@@ -3055,18 +2922,18 @@
       <c r="H31" s="48">
         <v>42083</v>
       </c>
-      <c r="I31" s="77" t="s">
+      <c r="I31" s="75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A32" s="89"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="73" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A32" s="90"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="74" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="74" t="s">
-        <v>121</v>
+      <c r="D32" s="73" t="s">
+        <v>120</v>
       </c>
       <c r="E32" s="66"/>
       <c r="F32" s="67">
@@ -3078,18 +2945,18 @@
       <c r="H32" s="48">
         <v>42083</v>
       </c>
-      <c r="I32" s="77" t="s">
-        <v>123</v>
+      <c r="I32" s="75" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A33" s="90"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" s="74" t="s">
-        <v>121</v>
+      <c r="A33" s="89"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="73" t="s">
+        <v>120</v>
       </c>
       <c r="E33" s="66"/>
       <c r="F33" s="67"/>
@@ -3099,18 +2966,18 @@
       <c r="H33" s="48">
         <v>42083</v>
       </c>
-      <c r="I33" s="77" t="s">
-        <v>123</v>
+      <c r="I33" s="75" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A34" s="90"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="74" t="s">
-        <v>121</v>
+      <c r="A34" s="89"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="73" t="s">
+        <v>120</v>
       </c>
       <c r="E34" s="66"/>
       <c r="F34" s="67"/>
@@ -3120,18 +2987,18 @@
       <c r="H34" s="48">
         <v>42083</v>
       </c>
-      <c r="I34" s="77" t="s">
-        <v>123</v>
+      <c r="I34" s="75" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A35" s="90"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" s="74" t="s">
-        <v>121</v>
+      <c r="A35" s="89"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="73" t="s">
+        <v>120</v>
       </c>
       <c r="E35" s="66"/>
       <c r="F35" s="67"/>
@@ -3141,18 +3008,18 @@
       <c r="H35" s="48">
         <v>42083</v>
       </c>
-      <c r="I35" s="77" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A36" s="90"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36" s="78" t="s">
-        <v>121</v>
+      <c r="I35" s="75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="13.6" customHeight="1" thickBot="1">
+      <c r="A36" s="89"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="76" t="s">
+        <v>120</v>
       </c>
       <c r="E36" s="51"/>
       <c r="F36" s="52"/>
@@ -3164,116 +3031,120 @@
       </c>
       <c r="I36" s="54"/>
     </row>
-    <row r="37" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A37" s="91"/>
-      <c r="B37" s="78" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="E37" s="51"/>
-      <c r="F37" s="52">
-        <v>5</v>
-      </c>
-      <c r="G37" s="53">
-        <v>42086</v>
-      </c>
-      <c r="H37" s="53">
-        <v>42086</v>
-      </c>
-      <c r="I37" s="84" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A38" s="79"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="80"/>
-    </row>
-    <row r="39" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D39" s="57" t="s">
+    <row r="37" spans="1:9" ht="14.3" thickBot="1">
+      <c r="D37" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="57"/>
-      <c r="F39" s="58">
+      <c r="E37" s="57"/>
+      <c r="F37" s="58">
         <f>SUM(F25:F36)</f>
         <v>33</v>
       </c>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.3" thickTop="1">
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+    </row>
+    <row r="39" spans="1:9" ht="14.3" thickBot="1">
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="60"/>
       <c r="G39" s="59"/>
       <c r="H39" s="59"/>
     </row>
-    <row r="40" spans="1:9" ht="13.8" thickTop="1">
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-    </row>
-    <row r="41" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
+    <row r="40" spans="1:9">
+      <c r="A40" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="41"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="43">
+        <v>42079</v>
+      </c>
+      <c r="H40" s="43">
+        <v>42083</v>
+      </c>
+      <c r="I40" s="44"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="89"/>
+      <c r="B41" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="46"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="70">
+        <v>42079</v>
+      </c>
+      <c r="H41" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I41" s="49"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41" t="s">
+      <c r="A42" s="89"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="41"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="43">
+      <c r="E42" s="66"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="70">
         <v>42079</v>
       </c>
-      <c r="H42" s="43">
-        <v>42083</v>
-      </c>
-      <c r="I42" s="44"/>
+      <c r="H42" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I42" s="68"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="90"/>
-      <c r="B43" s="95" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="73" t="s">
-        <v>79</v>
+      <c r="A43" s="89"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="66" t="s">
+        <v>81</v>
       </c>
       <c r="D43" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="46"/>
-      <c r="F43" s="47"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="67"/>
       <c r="G43" s="70">
         <v>42079</v>
       </c>
       <c r="H43" s="48">
         <v>42083</v>
       </c>
-      <c r="I43" s="49"/>
+      <c r="I43" s="68"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="90"/>
-      <c r="B44" s="96"/>
+      <c r="A44" s="89"/>
+      <c r="B44" s="92"/>
       <c r="C44" s="66" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D44" s="46" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E44" s="66"/>
       <c r="F44" s="67"/>
@@ -3286,13 +3157,13 @@
       <c r="I44" s="68"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="90"/>
-      <c r="B45" s="96"/>
+      <c r="A45" s="89"/>
+      <c r="B45" s="92"/>
       <c r="C45" s="66" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E45" s="66"/>
       <c r="F45" s="67"/>
@@ -3305,13 +3176,13 @@
       <c r="I45" s="68"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="90"/>
-      <c r="B46" s="96"/>
+      <c r="A46" s="89"/>
+      <c r="B46" s="93"/>
       <c r="C46" s="66" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D46" s="46" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E46" s="66"/>
       <c r="F46" s="67"/>
@@ -3324,16 +3195,21 @@
       <c r="I46" s="68"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="90"/>
-      <c r="B47" s="96"/>
+      <c r="A47" s="89"/>
+      <c r="B47" s="91" t="s">
+        <v>88</v>
+      </c>
       <c r="C47" s="66" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D47" s="46" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E47" s="66"/>
-      <c r="F47" s="67"/>
+      <c r="F47" s="67">
+        <f>'March 2010'!T29</f>
+        <v>5</v>
+      </c>
       <c r="G47" s="70">
         <v>42079</v>
       </c>
@@ -3343,16 +3219,19 @@
       <c r="I47" s="68"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="90"/>
-      <c r="B48" s="100"/>
-      <c r="C48" s="66" t="s">
-        <v>86</v>
+      <c r="A48" s="89"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="73" t="s">
+        <v>91</v>
       </c>
       <c r="D48" s="46" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E48" s="66"/>
-      <c r="F48" s="67"/>
+      <c r="F48" s="67">
+        <f>'March 2010'!T30</f>
+        <v>7</v>
+      </c>
       <c r="G48" s="70">
         <v>42079</v>
       </c>
@@ -3362,20 +3241,18 @@
       <c r="I48" s="68"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="90"/>
-      <c r="B49" s="95" t="s">
-        <v>88</v>
-      </c>
+      <c r="A49" s="89"/>
+      <c r="B49" s="92"/>
       <c r="C49" s="66" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D49" s="46" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E49" s="66"/>
       <c r="F49" s="67">
-        <f>'March 2010'!T30</f>
-        <v>5</v>
+        <f>'March 2010'!T31</f>
+        <v>0</v>
       </c>
       <c r="G49" s="70">
         <v>42079</v>
@@ -3386,18 +3263,18 @@
       <c r="I49" s="68"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="90"/>
-      <c r="B50" s="96"/>
-      <c r="C50" s="74" t="s">
-        <v>91</v>
+      <c r="A50" s="89"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="73" t="s">
+        <v>94</v>
       </c>
       <c r="D50" s="46" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E50" s="66"/>
       <c r="F50" s="67">
-        <f>'March 2010'!T31</f>
-        <v>7</v>
+        <f>'March 2010'!T32</f>
+        <v>8</v>
       </c>
       <c r="G50" s="70">
         <v>42079</v>
@@ -3408,18 +3285,18 @@
       <c r="I50" s="68"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="90"/>
-      <c r="B51" s="96"/>
-      <c r="C51" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" s="46" t="s">
-        <v>93</v>
+      <c r="A51" s="89"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="66" t="s">
+        <v>96</v>
       </c>
       <c r="E51" s="66"/>
       <c r="F51" s="67">
-        <f>'March 2010'!T32</f>
-        <v>0</v>
+        <f>'March 2010'!T33</f>
+        <v>8</v>
       </c>
       <c r="G51" s="70">
         <v>42079</v>
@@ -3429,121 +3306,121 @@
       </c>
       <c r="I51" s="68"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" ht="13.6" thickBot="1">
       <c r="A52" s="90"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="E52" s="66"/>
+      <c r="B52" s="94"/>
+      <c r="C52" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="51"/>
       <c r="F52" s="67">
-        <f>'March 2010'!T33</f>
-        <v>8</v>
-      </c>
-      <c r="G52" s="70">
+        <f>'March 2010'!T34</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="53">
         <v>42079</v>
       </c>
-      <c r="H52" s="48">
-        <v>42083</v>
-      </c>
-      <c r="I52" s="68"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="90"/>
-      <c r="B53" s="96"/>
-      <c r="C53" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="D53" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="E53" s="66"/>
-      <c r="F53" s="67">
-        <f>'March 2010'!T34</f>
-        <v>8</v>
-      </c>
-      <c r="G53" s="70">
+      <c r="H52" s="53">
+        <v>42083</v>
+      </c>
+      <c r="I52" s="54"/>
+    </row>
+    <row r="53" spans="1:9" ht="14.3" thickBot="1">
+      <c r="D53" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="57"/>
+      <c r="F53" s="58">
+        <f>SUM(F40:F52)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="13.6" thickTop="1"/>
+    <row r="55" spans="1:9" ht="13.6" thickBot="1"/>
+    <row r="56" spans="1:9">
+      <c r="A56" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="41"/>
+      <c r="F56" s="42">
+        <v>15</v>
+      </c>
+      <c r="G56" s="43">
         <v>42079</v>
       </c>
-      <c r="H53" s="48">
-        <v>42083</v>
-      </c>
-      <c r="I53" s="68"/>
-    </row>
-    <row r="54" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A54" s="91"/>
-      <c r="B54" s="97"/>
-      <c r="C54" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="D54" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54" s="51"/>
-      <c r="F54" s="67">
-        <f>'March 2010'!T35</f>
-        <v>0</v>
-      </c>
-      <c r="G54" s="53">
+      <c r="H56" s="43">
+        <v>42083</v>
+      </c>
+      <c r="I56" s="44"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="89"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" s="62"/>
+      <c r="F57" s="63">
+        <v>5</v>
+      </c>
+      <c r="G57" s="70">
         <v>42079</v>
       </c>
-      <c r="H54" s="53">
-        <v>42083</v>
-      </c>
-      <c r="I54" s="54"/>
-    </row>
-    <row r="55" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D55" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" s="57"/>
-      <c r="F55" s="58">
-        <f>SUM(F42:F54)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="13.8" thickTop="1"/>
-    <row r="57" spans="1:9" ht="13.8" thickBot="1"/>
+      <c r="H57" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I57" s="65"/>
+    </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" s="101" t="s">
-        <v>141</v>
-      </c>
-      <c r="C58" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="D58" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="E58" s="41"/>
-      <c r="F58" s="42">
-        <v>15</v>
-      </c>
-      <c r="G58" s="43">
+      <c r="A58" s="89"/>
+      <c r="B58" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" s="46"/>
+      <c r="F58" s="47">
+        <v>2</v>
+      </c>
+      <c r="G58" s="70">
         <v>42079</v>
       </c>
-      <c r="H58" s="43">
-        <v>42083</v>
-      </c>
-      <c r="I58" s="44"/>
+      <c r="H58" s="48">
+        <v>42083</v>
+      </c>
+      <c r="I58" s="49"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="90"/>
-      <c r="B59" s="102"/>
-      <c r="C59" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="D59" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="E59" s="62"/>
-      <c r="F59" s="63">
-        <v>5</v>
+      <c r="A59" s="89"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" s="66"/>
+      <c r="F59" s="67">
+        <v>2</v>
       </c>
       <c r="G59" s="70">
         <v>42079</v>
@@ -3551,21 +3428,19 @@
       <c r="H59" s="48">
         <v>42083</v>
       </c>
-      <c r="I59" s="65"/>
+      <c r="I59" s="68"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="90"/>
-      <c r="B60" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="C60" s="46" t="s">
-        <v>103</v>
+      <c r="A60" s="89"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="66" t="s">
+        <v>106</v>
       </c>
       <c r="D60" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="E60" s="46"/>
-      <c r="F60" s="47">
+        <v>107</v>
+      </c>
+      <c r="E60" s="66"/>
+      <c r="F60" s="67">
         <v>2</v>
       </c>
       <c r="G60" s="70">
@@ -3574,16 +3449,16 @@
       <c r="H60" s="48">
         <v>42083</v>
       </c>
-      <c r="I60" s="49"/>
+      <c r="I60" s="68"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="90"/>
-      <c r="B61" s="96"/>
+      <c r="A61" s="89"/>
+      <c r="B61" s="93"/>
       <c r="C61" s="66" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D61" s="46" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E61" s="66"/>
       <c r="F61" s="67">
@@ -3598,13 +3473,13 @@
       <c r="I61" s="68"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="90"/>
-      <c r="B62" s="96"/>
-      <c r="C62" s="66" t="s">
-        <v>106</v>
-      </c>
+      <c r="A62" s="89"/>
+      <c r="B62" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="66"/>
       <c r="D62" s="46" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E62" s="66"/>
       <c r="F62" s="67">
@@ -3619,17 +3494,19 @@
       <c r="I62" s="68"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="90"/>
-      <c r="B63" s="100"/>
+      <c r="A63" s="89"/>
+      <c r="B63" s="91" t="s">
+        <v>143</v>
+      </c>
       <c r="C63" s="66" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D63" s="46" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E63" s="66"/>
       <c r="F63" s="67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G63" s="70">
         <v>42079</v>
@@ -3640,17 +3517,17 @@
       <c r="I63" s="68"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="90"/>
-      <c r="B64" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="C64" s="66"/>
-      <c r="D64" s="46" t="s">
-        <v>109</v>
+      <c r="A64" s="89"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" s="66" t="s">
+        <v>102</v>
       </c>
       <c r="E64" s="66"/>
       <c r="F64" s="67">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G64" s="70">
         <v>42079</v>
@@ -3661,15 +3538,13 @@
       <c r="I64" s="68"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="90"/>
-      <c r="B65" s="95" t="s">
-        <v>147</v>
-      </c>
+      <c r="A65" s="89"/>
+      <c r="B65" s="92"/>
       <c r="C65" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="D65" s="46" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="D65" s="66" t="s">
+        <v>102</v>
       </c>
       <c r="E65" s="66"/>
       <c r="F65" s="67">
@@ -3684,17 +3559,17 @@
       <c r="I65" s="68"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="90"/>
-      <c r="B66" s="96"/>
+      <c r="A66" s="89"/>
+      <c r="B66" s="93"/>
       <c r="C66" s="66" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D66" s="66" t="s">
         <v>102</v>
       </c>
       <c r="E66" s="66"/>
       <c r="F66" s="67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G66" s="70">
         <v>42079</v>
@@ -3702,201 +3577,170 @@
       <c r="H66" s="48">
         <v>42083</v>
       </c>
-      <c r="I66" s="68"/>
+      <c r="I66" s="74"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="90"/>
-      <c r="B67" s="96"/>
-      <c r="C67" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="D67" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="E67" s="66"/>
-      <c r="F67" s="67">
-        <v>3</v>
-      </c>
+      <c r="A67" s="89"/>
+      <c r="B67" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="45"/>
+      <c r="D67" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="E67" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="F67" s="67"/>
       <c r="G67" s="70">
-        <v>42079</v>
+        <v>42082</v>
       </c>
       <c r="H67" s="48">
-        <v>42083</v>
-      </c>
-      <c r="I67" s="68"/>
-    </row>
-    <row r="68" spans="1:9">
+        <v>42088</v>
+      </c>
+      <c r="I67" s="74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="13.6" thickBot="1">
       <c r="A68" s="90"/>
-      <c r="B68" s="100"/>
-      <c r="C68" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="D68" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="E68" s="66"/>
-      <c r="F68" s="67">
-        <v>3</v>
-      </c>
+      <c r="B68" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="E68" s="78"/>
+      <c r="F68" s="67"/>
       <c r="G68" s="70">
-        <v>42079</v>
+        <v>42086</v>
       </c>
       <c r="H68" s="48">
-        <v>42083</v>
-      </c>
-      <c r="I68" s="75"/>
-    </row>
-    <row r="69" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A69" s="90"/>
-      <c r="B69" s="72" t="s">
+        <v>42086</v>
+      </c>
+      <c r="I68" s="74"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="B69" s="92"/>
+      <c r="C69" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" s="78"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="70">
+        <v>42086</v>
+      </c>
+      <c r="H69" s="48">
+        <v>42086</v>
+      </c>
+      <c r="I69" s="74"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="B70" s="92"/>
+      <c r="C70" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" s="78"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="70">
+        <v>42086</v>
+      </c>
+      <c r="H70" s="48">
+        <v>42086</v>
+      </c>
+      <c r="I70" s="74"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="B71" s="92"/>
+      <c r="C71" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="E71" s="78"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="70">
+        <v>42086</v>
+      </c>
+      <c r="H71" s="48">
+        <v>42086</v>
+      </c>
+      <c r="I71" s="74"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="B72" s="92"/>
+      <c r="C72" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="E72" s="78"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="70">
+        <v>42086</v>
+      </c>
+      <c r="H72" s="48">
+        <v>42086</v>
+      </c>
+      <c r="I72" s="74"/>
+    </row>
+    <row r="73" spans="1:9" ht="13.6" thickBot="1">
+      <c r="B73" s="94"/>
+      <c r="C73" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="C69" s="85"/>
-      <c r="D69" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="E69" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="F69" s="52"/>
-      <c r="G69" s="53">
-        <v>42082</v>
-      </c>
-      <c r="H69" s="53">
-        <v>42088</v>
-      </c>
-      <c r="I69" s="76" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="39" thickBot="1">
-      <c r="A70" s="91"/>
-      <c r="B70" s="104" t="s">
-        <v>152</v>
-      </c>
-      <c r="C70" s="107" t="s">
+      <c r="D73" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="D70" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="E70" s="51"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="53">
+      <c r="E73" s="79"/>
+      <c r="F73" s="80"/>
+      <c r="G73" s="81">
         <v>42086</v>
       </c>
-      <c r="H70" s="112">
+      <c r="H73" s="81">
         <v>42086</v>
       </c>
-      <c r="I70" s="76"/>
-    </row>
-    <row r="71" spans="1:9" ht="13.8" thickBot="1">
-      <c r="B71" s="105"/>
-      <c r="C71" s="103" t="s">
-        <v>154</v>
-      </c>
-      <c r="D71" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="E71" s="51"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="53">
-        <v>42086</v>
-      </c>
-      <c r="H71" s="112">
-        <v>42086</v>
-      </c>
-      <c r="I71" s="76"/>
-    </row>
-    <row r="72" spans="1:9" ht="13.8" thickBot="1">
-      <c r="B72" s="105"/>
-      <c r="C72" s="103" t="s">
-        <v>155</v>
-      </c>
-      <c r="D72" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="E72" s="110"/>
-      <c r="F72" s="111"/>
-      <c r="G72" s="112">
-        <v>42086</v>
-      </c>
-      <c r="H72" s="112">
-        <v>42086</v>
-      </c>
-      <c r="I72" s="114"/>
-    </row>
-    <row r="73" spans="1:9" ht="13.8" thickBot="1">
-      <c r="B73" s="105"/>
-      <c r="C73" s="103" t="s">
-        <v>156</v>
-      </c>
-      <c r="D73" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="E73" s="110"/>
-      <c r="F73" s="111"/>
-      <c r="G73" s="112">
-        <v>42086</v>
-      </c>
-      <c r="H73" s="112">
-        <v>42086</v>
-      </c>
-      <c r="I73" s="114"/>
-    </row>
-    <row r="74" spans="1:9" ht="13.8" thickBot="1">
-      <c r="B74" s="105"/>
-      <c r="C74" s="103" t="s">
-        <v>157</v>
-      </c>
-      <c r="D74" s="118" t="s">
-        <v>151</v>
-      </c>
-      <c r="E74" s="115"/>
-      <c r="F74" s="116"/>
-      <c r="G74" s="117">
-        <v>42086</v>
-      </c>
-      <c r="H74" s="117">
-        <v>42086</v>
-      </c>
-      <c r="I74" s="119"/>
-    </row>
-    <row r="75" spans="1:9" ht="13.8" thickBot="1">
-      <c r="B75" s="106"/>
-      <c r="C75" s="103" t="s">
-        <v>158</v>
-      </c>
-      <c r="D75" s="108" t="s">
-        <v>151</v>
-      </c>
-      <c r="E75" s="120"/>
-      <c r="F75" s="121"/>
-      <c r="G75" s="122">
-        <v>42086</v>
-      </c>
-      <c r="H75" s="122">
-        <v>42086</v>
-      </c>
-      <c r="I75" s="123"/>
-    </row>
+      <c r="I73" s="82"/>
+    </row>
+    <row r="74" spans="1:9" ht="14.3" thickBot="1">
+      <c r="D74" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" s="57"/>
+      <c r="F74" s="58">
+        <f>SUM(F56:F73)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="13.6" thickTop="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A42:A54"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="A58:A70"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B70:B75"/>
     <mergeCell ref="B30:B36"/>
-    <mergeCell ref="A25:A37"/>
+    <mergeCell ref="A25:A36"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A9:A21"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A40:A52"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="A56:A68"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B68:B73"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3906,28 +3750,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T59"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.9"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="25" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.88671875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" style="25" customWidth="1"/>
-    <col min="5" max="18" width="4.33203125" style="25" customWidth="1"/>
-    <col min="19" max="19" width="2.88671875" style="25" customWidth="1"/>
-    <col min="20" max="20" width="7.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="25"/>
+    <col min="1" max="1" width="8.125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="6.125" style="25" customWidth="1"/>
+    <col min="5" max="18" width="4.375" style="25" customWidth="1"/>
+    <col min="19" max="19" width="2.875" style="25" customWidth="1"/>
+    <col min="20" max="20" width="7.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.6">
+    <row r="1" spans="1:20" ht="15.65">
       <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
@@ -3935,7 +3779,7 @@
     <row r="2" spans="1:20" ht="7.5" customHeight="1">
       <c r="A2" s="26"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" ht="13.6">
       <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
@@ -3944,21 +3788,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" ht="13.6">
       <c r="A4" s="26"/>
       <c r="B4" s="23"/>
       <c r="C4" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" ht="13.6">
       <c r="A5" s="26"/>
       <c r="B5" s="29"/>
       <c r="C5" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" ht="13.6">
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
@@ -4009,12 +3853,12 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="7.5" customHeight="1"/>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" ht="13.6">
       <c r="A8" s="26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" ht="13.6">
       <c r="B9" s="21" t="s">
         <v>10</v>
       </c>
@@ -4147,12 +3991,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" ht="13.6">
       <c r="A16" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" ht="13.6">
       <c r="B17" s="21" t="s">
         <v>10</v>
       </c>
@@ -4165,7 +4009,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="20">
@@ -4194,7 +4038,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="20">
@@ -4223,7 +4067,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
@@ -4252,7 +4096,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -4281,7 +4125,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
@@ -4310,7 +4154,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
@@ -4339,7 +4183,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
@@ -4368,7 +4212,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
@@ -4396,62 +4240,65 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
-      <c r="B26" s="22">
-        <v>9</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="29">
-        <v>4</v>
-      </c>
-      <c r="J26" s="29">
+    <row r="27" spans="1:20" ht="13.6">
+      <c r="A27" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="13.6">
+      <c r="B28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="B29" s="22">
         <v>1</v>
       </c>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="T26" s="31"/>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="B29" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>11</v>
+      <c r="C29" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="20">
+        <v>5</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="T29" s="4">
+        <f>SUM(E29:R29)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="B30" s="22">
-        <v>1</v>
-      </c>
-      <c r="C30" s="74" t="s">
-        <v>89</v>
+        <v>2</v>
+      </c>
+      <c r="C30" s="73" t="s">
+        <v>91</v>
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
+      <c r="I30" s="23">
+        <v>4</v>
+      </c>
       <c r="J30" s="27"/>
       <c r="K30" s="27"/>
       <c r="L30" s="27"/>
@@ -4462,27 +4309,23 @@
       <c r="Q30" s="27"/>
       <c r="R30" s="27"/>
       <c r="T30" s="4">
-        <f>SUM(E30:R30)</f>
-        <v>5</v>
+        <f t="shared" ref="T30:T33" si="2">SUM(E30:R30)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="B31" s="22">
-        <v>2</v>
-      </c>
-      <c r="C31" s="74" t="s">
-        <v>91</v>
+        <v>3</v>
+      </c>
+      <c r="C31" s="66" t="s">
+        <v>92</v>
       </c>
       <c r="D31" s="27"/>
-      <c r="E31" s="20">
-        <v>3</v>
-      </c>
+      <c r="E31" s="27"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
-      <c r="I31" s="23">
-        <v>4</v>
-      </c>
+      <c r="I31" s="27"/>
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
       <c r="L31" s="27"/>
@@ -4493,20 +4336,21 @@
       <c r="Q31" s="27"/>
       <c r="R31" s="27"/>
       <c r="T31" s="4">
-        <f t="shared" ref="T31:T34" si="2">SUM(E31:R31)</f>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="B32" s="22">
-        <v>3</v>
-      </c>
-      <c r="C32" s="66" t="s">
-        <v>92</v>
+        <v>4</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
+      <c r="F32" s="20">
+        <v>8</v>
+      </c>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
@@ -4520,22 +4364,23 @@
       <c r="Q32" s="27"/>
       <c r="R32" s="27"/>
       <c r="T32" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(F32:R32)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="B33" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>117</v>
       </c>
       <c r="D33" s="27"/>
-      <c r="F33" s="20">
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="20">
         <v>8</v>
       </c>
-      <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
       <c r="J33" s="27"/>
@@ -4548,67 +4393,67 @@
       <c r="Q33" s="27"/>
       <c r="R33" s="27"/>
       <c r="T33" s="4">
-        <f>SUM(F33:R33)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="B34" s="22">
-        <v>5</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="20">
-        <v>8</v>
-      </c>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
-      <c r="T34" s="4">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
-      <c r="A36" s="26" t="s">
+    <row r="35" spans="1:20" ht="13.6">
+      <c r="A35" s="26" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="36" spans="1:20" ht="13.6">
+      <c r="B36" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="37" spans="1:20">
-      <c r="B37" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>11</v>
+      <c r="B37" s="22">
+        <v>1</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="20">
+        <v>8</v>
+      </c>
+      <c r="F37" s="20">
+        <v>8</v>
+      </c>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="T37" s="4">
+        <f>SUM(E37:R37)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:20">
-      <c r="B38" s="22">
-        <v>1</v>
+      <c r="B38" s="86">
+        <v>2</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>142</v>
       </c>
       <c r="D38" s="27"/>
-      <c r="E38" s="20">
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="20">
         <v>8</v>
       </c>
-      <c r="F38" s="20">
-        <v>8</v>
-      </c>
-      <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
       <c r="J38" s="27"/>
@@ -4621,13 +4466,13 @@
       <c r="Q38" s="27"/>
       <c r="R38" s="27"/>
       <c r="T38" s="4">
-        <f>SUM(E38:R38)</f>
-        <v>16</v>
+        <f t="shared" ref="T38:T43" si="3">SUM(E38:R38)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:20">
-      <c r="B39" s="22">
-        <v>2</v>
+      <c r="B39" s="86">
+        <v>3</v>
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
@@ -4646,261 +4491,267 @@
       <c r="Q39" s="27"/>
       <c r="R39" s="27"/>
       <c r="T39" s="4">
-        <f t="shared" ref="T39:T45" si="3">SUM(E39:R39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="B40" s="22">
-        <v>3</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="20">
-        <v>8</v>
-      </c>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="T40" s="4">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="B41" s="22">
-        <v>4</v>
-      </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="T41" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="124" customFormat="1">
-      <c r="B42" s="127">
+    <row r="40" spans="1:20" s="83" customFormat="1">
+      <c r="B40" s="86">
+        <v>4</v>
+      </c>
+      <c r="C40" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="85">
+        <v>8</v>
+      </c>
+      <c r="J40" s="87"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87"/>
+      <c r="R40" s="87"/>
+      <c r="T40" s="84">
+        <f t="shared" ref="T40:T41" si="4">SUM(E40:R40)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" s="83" customFormat="1">
+      <c r="B41" s="86">
         <v>5</v>
       </c>
-      <c r="C42" s="128" t="s">
-        <v>149</v>
-      </c>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="126">
-        <v>8</v>
-      </c>
-      <c r="J42" s="128"/>
-      <c r="K42" s="128"/>
-      <c r="L42" s="128"/>
-      <c r="M42" s="128"/>
-      <c r="N42" s="128"/>
-      <c r="O42" s="128"/>
-      <c r="P42" s="128"/>
-      <c r="Q42" s="128"/>
-      <c r="R42" s="128"/>
-      <c r="T42" s="125">
-        <f t="shared" ref="T42:T43" si="4">SUM(E42:R42)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" s="124" customFormat="1">
-      <c r="B43" s="127">
-        <v>6</v>
-      </c>
-      <c r="C43" s="109">
+      <c r="C41" s="77">
         <v>6.1</v>
       </c>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="128"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="126">
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="85">
         <v>2</v>
       </c>
-      <c r="K43" s="128"/>
-      <c r="L43" s="128"/>
-      <c r="M43" s="128"/>
-      <c r="N43" s="128"/>
-      <c r="O43" s="128"/>
-      <c r="P43" s="128"/>
-      <c r="Q43" s="128"/>
-      <c r="R43" s="128"/>
-      <c r="T43" s="125">
+      <c r="K41" s="87"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="87"/>
+      <c r="Q41" s="87"/>
+      <c r="R41" s="87"/>
+      <c r="T41" s="84">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="124" customFormat="1">
-      <c r="B44" s="127">
+    <row r="42" spans="1:20" s="83" customFormat="1">
+      <c r="B42" s="86">
+        <v>6</v>
+      </c>
+      <c r="C42" s="77">
+        <v>6.1</v>
+      </c>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="85">
+        <v>2</v>
+      </c>
+      <c r="K42" s="87"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="87"/>
+      <c r="O42" s="87"/>
+      <c r="P42" s="87"/>
+      <c r="Q42" s="87"/>
+      <c r="R42" s="87"/>
+      <c r="T42" s="84">
+        <f t="shared" ref="T42" si="5">SUM(E42:R42)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="B43" s="86">
         <v>7</v>
       </c>
-      <c r="C44" s="109">
-        <v>6.1</v>
-      </c>
-      <c r="D44" s="128"/>
-      <c r="E44" s="128"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="128"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="128"/>
-      <c r="J44" s="126">
-        <v>2</v>
-      </c>
-      <c r="K44" s="128"/>
-      <c r="L44" s="128"/>
-      <c r="M44" s="128"/>
-      <c r="N44" s="128"/>
-      <c r="O44" s="128"/>
-      <c r="P44" s="128"/>
-      <c r="Q44" s="128"/>
-      <c r="R44" s="128"/>
-      <c r="T44" s="125">
-        <f t="shared" ref="T44" si="5">SUM(E44:R44)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="B45" s="22">
-        <v>8</v>
-      </c>
-      <c r="C45" s="109">
+      <c r="C43" s="77">
         <v>6.3</v>
       </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="20">
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="20">
         <v>4</v>
       </c>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="T45" s="4">
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="T43" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
+    <row r="45" spans="1:20" ht="13.6">
+      <c r="A45" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="13.6">
+      <c r="B46" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="47" spans="1:20">
-      <c r="A47" s="26" t="s">
-        <v>28</v>
+      <c r="B47" s="22">
+        <v>1</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="27"/>
+      <c r="E47" s="20">
+        <v>8</v>
+      </c>
+      <c r="F47" s="20">
+        <v>8</v>
+      </c>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="T47" s="4">
+        <f t="shared" ref="T47:T51" si="6">SUM(E47:R47)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:20">
-      <c r="B48" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="2:20">
-      <c r="B49" s="22">
-        <v>1</v>
-      </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="27"/>
-      <c r="T49" s="4">
-        <f>SUM(E49:R49)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:20">
-      <c r="B50" s="22">
+      <c r="B48" s="86">
         <v>2</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C48" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="20">
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="20">
         <v>8</v>
       </c>
-      <c r="F50" s="20">
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="T48" s="4">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="27"/>
-      <c r="T50" s="4">
-        <f t="shared" ref="T50:T56" si="6">SUM(E50:R50)</f>
-        <v>16</v>
-      </c>
+    </row>
+    <row r="49" spans="2:20" s="83" customFormat="1">
+      <c r="B49" s="86">
+        <v>3</v>
+      </c>
+      <c r="C49" s="77">
+        <v>6.4</v>
+      </c>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="87"/>
+      <c r="J49" s="85">
+        <v>2</v>
+      </c>
+      <c r="K49" s="87"/>
+      <c r="L49" s="87"/>
+      <c r="M49" s="87"/>
+      <c r="N49" s="87"/>
+      <c r="O49" s="87"/>
+      <c r="P49" s="87"/>
+      <c r="Q49" s="87"/>
+      <c r="R49" s="87"/>
+      <c r="T49" s="84"/>
+    </row>
+    <row r="50" spans="2:20" s="83" customFormat="1">
+      <c r="B50" s="86">
+        <v>4</v>
+      </c>
+      <c r="C50" s="77">
+        <v>6.5</v>
+      </c>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="85">
+        <v>3</v>
+      </c>
+      <c r="K50" s="87"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="87"/>
+      <c r="N50" s="87"/>
+      <c r="O50" s="87"/>
+      <c r="P50" s="87"/>
+      <c r="Q50" s="87"/>
+      <c r="R50" s="87"/>
+      <c r="T50" s="84"/>
     </row>
     <row r="51" spans="2:20">
-      <c r="B51" s="22">
-        <v>3</v>
-      </c>
-      <c r="C51" s="27"/>
+      <c r="B51" s="86">
+        <v>5</v>
+      </c>
+      <c r="C51" s="77">
+        <v>6.6</v>
+      </c>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
       <c r="F51" s="27"/>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
+      <c r="J51" s="85">
+        <v>3</v>
+      </c>
       <c r="K51" s="27"/>
       <c r="L51" s="27"/>
       <c r="M51" s="27"/>
@@ -4911,227 +4762,95 @@
       <c r="R51" s="27"/>
       <c r="T51" s="4">
         <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20">
+      <c r="B52" s="30"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="T52" s="31"/>
+    </row>
+    <row r="53" spans="2:20" ht="16.3" thickBot="1">
+      <c r="C53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="24">
+        <f>SUM(E8:E51)</f>
+        <v>32</v>
+      </c>
+      <c r="F53" s="24">
+        <f>SUM(F8:F51)</f>
+        <v>32</v>
+      </c>
+      <c r="G53" s="24">
+        <f>SUM(G8:G51)</f>
+        <v>32</v>
+      </c>
+      <c r="H53" s="24">
+        <f>SUM(H8:H51)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:20">
-      <c r="B52" s="22">
-        <v>4</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="20">
-        <v>8</v>
-      </c>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="128"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
-      <c r="R52" s="27"/>
-      <c r="T52" s="4">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="2:20" s="124" customFormat="1">
-      <c r="B53" s="127">
-        <v>5</v>
-      </c>
-      <c r="C53" s="128"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="128"/>
-      <c r="F53" s="128"/>
-      <c r="G53" s="128"/>
-      <c r="H53" s="128"/>
-      <c r="I53" s="128"/>
-      <c r="J53" s="128"/>
-      <c r="K53" s="128"/>
-      <c r="L53" s="128"/>
-      <c r="M53" s="128"/>
-      <c r="N53" s="128"/>
-      <c r="O53" s="128"/>
-      <c r="P53" s="128"/>
-      <c r="Q53" s="128"/>
-      <c r="R53" s="128"/>
-      <c r="T53" s="125"/>
-    </row>
-    <row r="54" spans="2:20" s="124" customFormat="1">
-      <c r="B54" s="127">
-        <v>6</v>
-      </c>
-      <c r="C54" s="109">
-        <v>6.4</v>
-      </c>
-      <c r="D54" s="128"/>
-      <c r="E54" s="128"/>
-      <c r="F54" s="128"/>
-      <c r="G54" s="128"/>
-      <c r="H54" s="128"/>
-      <c r="I54" s="128"/>
-      <c r="J54" s="126">
-        <v>2</v>
-      </c>
-      <c r="K54" s="128"/>
-      <c r="L54" s="128"/>
-      <c r="M54" s="128"/>
-      <c r="N54" s="128"/>
-      <c r="O54" s="128"/>
-      <c r="P54" s="128"/>
-      <c r="Q54" s="128"/>
-      <c r="R54" s="128"/>
-      <c r="T54" s="125"/>
-    </row>
-    <row r="55" spans="2:20" s="124" customFormat="1">
-      <c r="B55" s="127">
-        <v>7</v>
-      </c>
-      <c r="C55" s="109">
-        <v>6.5</v>
-      </c>
-      <c r="D55" s="128"/>
-      <c r="E55" s="128"/>
-      <c r="F55" s="128"/>
-      <c r="G55" s="128"/>
-      <c r="H55" s="128"/>
-      <c r="I55" s="128"/>
-      <c r="J55" s="126">
-        <v>3</v>
-      </c>
-      <c r="K55" s="128"/>
-      <c r="L55" s="128"/>
-      <c r="M55" s="128"/>
-      <c r="N55" s="128"/>
-      <c r="O55" s="128"/>
-      <c r="P55" s="128"/>
-      <c r="Q55" s="128"/>
-      <c r="R55" s="128"/>
-      <c r="T55" s="125"/>
-    </row>
-    <row r="56" spans="2:20">
-      <c r="B56" s="22">
-        <v>8</v>
-      </c>
-      <c r="C56" s="109">
-        <v>6.6</v>
-      </c>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="126">
-        <v>3</v>
-      </c>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="27"/>
-      <c r="T56" s="4">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="2:20">
-      <c r="B57" s="30"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="31"/>
-      <c r="T57" s="31"/>
-    </row>
-    <row r="58" spans="2:20" ht="16.2" thickBot="1">
-      <c r="C58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="24">
-        <f t="shared" ref="E58:F58" si="7">SUM(E8:E56)</f>
-        <v>32</v>
-      </c>
-      <c r="F58" s="24">
+      <c r="I53" s="24">
+        <f>SUM(I8:I51)</f>
+        <v>16</v>
+      </c>
+      <c r="J53" s="24">
+        <f>SUM(J8:J51)</f>
+        <v>23</v>
+      </c>
+      <c r="K53" s="24">
+        <f>SUM(K8:K51)</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="24">
+        <f>SUM(L8:L51)</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="24">
+        <f>SUM(M8:M51)</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="24">
+        <f>SUM(N8:N51)</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="24">
+        <f>SUM(O8:O51)</f>
+        <v>0</v>
+      </c>
+      <c r="P53" s="24">
+        <f>SUM(P8:P51)</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="24">
+        <f t="shared" ref="Q53:R53" si="7">SUM(Q8:Q51)</f>
+        <v>0</v>
+      </c>
+      <c r="R53" s="24">
         <f t="shared" si="7"/>
-        <v>32</v>
-      </c>
-      <c r="G58" s="24">
-        <f t="shared" ref="G58:P58" si="8">SUM(G8:G56)</f>
-        <v>32</v>
-      </c>
-      <c r="H58" s="24">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I58" s="24">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="J58" s="24">
-        <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="K58" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M58" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N58" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O58" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P58" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q58" s="24">
-        <f t="shared" ref="Q58:R58" si="9">SUM(Q8:Q56)</f>
-        <v>0</v>
-      </c>
-      <c r="R58" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T58" s="28">
-        <f>SUM(G58:R58)</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="2:20" ht="13.8" thickTop="1"/>
+      <c r="T53" s="28">
+        <f>SUM(G53:R53)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" ht="13.6" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Listing_Tool_Status_Report_v1.0.xlsx
+++ b/docs/Listing_Tool_Status_Report_v1.0.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5352" yWindow="-367" windowWidth="16614" windowHeight="9428" activeTab="1"/>
+    <workbookView xWindow="5352" yWindow="-367" windowWidth="16614" windowHeight="9428" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="WBS" sheetId="5" r:id="rId2"/>
-    <sheet name="March 2010" sheetId="3" r:id="rId3"/>
+    <sheet name="March 2015" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="156">
   <si>
     <t>Project Name:</t>
   </si>
@@ -1502,7 +1502,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1707,6 +1707,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1716,47 +1731,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2353,9 +2365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.9"/>
@@ -2412,7 +2424,7 @@
       <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="93" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -2433,7 +2445,7 @@
       <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A4" s="89"/>
+      <c r="A4" s="94"/>
       <c r="B4" s="45" t="s">
         <v>41</v>
       </c>
@@ -2452,7 +2464,7 @@
       <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:9" ht="13.6" customHeight="1" thickBot="1">
-      <c r="A5" s="90"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="50" t="s">
         <v>42</v>
       </c>
@@ -2495,10 +2507,10 @@
       <c r="H8" s="59"/>
     </row>
     <row r="9" spans="1:9" ht="26.7" customHeight="1">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="96" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="61" t="s">
@@ -2508,7 +2520,9 @@
         <v>40</v>
       </c>
       <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
+      <c r="F9" s="42">
+        <v>2</v>
+      </c>
       <c r="G9" s="43">
         <v>42081</v>
       </c>
@@ -2518,8 +2532,8 @@
       <c r="I9" s="44"/>
     </row>
     <row r="10" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A10" s="89"/>
-      <c r="B10" s="101"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="62" t="s">
         <v>47</v>
       </c>
@@ -2527,7 +2541,9 @@
         <v>48</v>
       </c>
       <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
+      <c r="F10" s="63">
+        <v>3</v>
+      </c>
       <c r="G10" s="64">
         <v>42081</v>
       </c>
@@ -2537,8 +2553,8 @@
       <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A11" s="89"/>
-      <c r="B11" s="101"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="46" t="s">
         <v>49</v>
       </c>
@@ -2546,7 +2562,9 @@
         <v>48</v>
       </c>
       <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
+      <c r="F11" s="47">
+        <v>5</v>
+      </c>
       <c r="G11" s="48">
         <v>42081</v>
       </c>
@@ -2556,8 +2574,8 @@
       <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A12" s="89"/>
-      <c r="B12" s="101"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="66" t="s">
         <v>50</v>
       </c>
@@ -2565,7 +2583,9 @@
         <v>51</v>
       </c>
       <c r="E12" s="66"/>
-      <c r="F12" s="67"/>
+      <c r="F12" s="67">
+        <v>8</v>
+      </c>
       <c r="G12" s="48">
         <v>42081</v>
       </c>
@@ -2575,8 +2595,8 @@
       <c r="I12" s="68"/>
     </row>
     <row r="13" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A13" s="89"/>
-      <c r="B13" s="102"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="66" t="s">
         <v>52</v>
       </c>
@@ -2594,8 +2614,8 @@
       <c r="I13" s="68"/>
     </row>
     <row r="14" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A14" s="89"/>
-      <c r="B14" s="91" t="s">
+      <c r="A14" s="94"/>
+      <c r="B14" s="99" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="66" t="s">
@@ -2605,7 +2625,9 @@
         <v>51</v>
       </c>
       <c r="E14" s="66"/>
-      <c r="F14" s="67"/>
+      <c r="F14" s="67">
+        <v>11</v>
+      </c>
       <c r="G14" s="48">
         <v>42082</v>
       </c>
@@ -2615,8 +2637,8 @@
       <c r="I14" s="68"/>
     </row>
     <row r="15" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A15" s="89"/>
-      <c r="B15" s="92"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="66" t="s">
         <v>55</v>
       </c>
@@ -2624,7 +2646,9 @@
         <v>56</v>
       </c>
       <c r="E15" s="66"/>
-      <c r="F15" s="67"/>
+      <c r="F15" s="67">
+        <v>4</v>
+      </c>
       <c r="G15" s="48">
         <v>42082</v>
       </c>
@@ -2634,8 +2658,8 @@
       <c r="I15" s="68"/>
     </row>
     <row r="16" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A16" s="89"/>
-      <c r="B16" s="92"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="66" t="s">
         <v>57</v>
       </c>
@@ -2643,7 +2667,9 @@
         <v>58</v>
       </c>
       <c r="E16" s="66"/>
-      <c r="F16" s="67"/>
+      <c r="F16" s="67">
+        <v>11</v>
+      </c>
       <c r="G16" s="48">
         <v>42082</v>
       </c>
@@ -2653,8 +2679,8 @@
       <c r="I16" s="68"/>
     </row>
     <row r="17" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A17" s="89"/>
-      <c r="B17" s="92"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="66" t="s">
         <v>59</v>
       </c>
@@ -2662,7 +2688,9 @@
         <v>40</v>
       </c>
       <c r="E17" s="66"/>
-      <c r="F17" s="67"/>
+      <c r="F17" s="67">
+        <v>4</v>
+      </c>
       <c r="G17" s="48">
         <v>42082</v>
       </c>
@@ -2672,8 +2700,8 @@
       <c r="I17" s="68"/>
     </row>
     <row r="18" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A18" s="89"/>
-      <c r="B18" s="92"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="66" t="s">
         <v>60</v>
       </c>
@@ -2681,7 +2709,9 @@
         <v>40</v>
       </c>
       <c r="E18" s="66"/>
-      <c r="F18" s="67"/>
+      <c r="F18" s="67">
+        <v>2</v>
+      </c>
       <c r="G18" s="48">
         <v>42082</v>
       </c>
@@ -2691,8 +2721,8 @@
       <c r="I18" s="68"/>
     </row>
     <row r="19" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A19" s="89"/>
-      <c r="B19" s="92"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="66" t="s">
         <v>61</v>
       </c>
@@ -2700,7 +2730,9 @@
         <v>40</v>
       </c>
       <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
+      <c r="F19" s="67">
+        <v>5</v>
+      </c>
       <c r="G19" s="48">
         <v>42082</v>
       </c>
@@ -2710,8 +2742,8 @@
       <c r="I19" s="68"/>
     </row>
     <row r="20" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A20" s="89"/>
-      <c r="B20" s="92"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="100"/>
       <c r="C20" s="66" t="s">
         <v>62</v>
       </c>
@@ -2719,7 +2751,9 @@
         <v>40</v>
       </c>
       <c r="E20" s="66"/>
-      <c r="F20" s="67"/>
+      <c r="F20" s="67">
+        <v>2</v>
+      </c>
       <c r="G20" s="48">
         <v>42082</v>
       </c>
@@ -2729,8 +2763,8 @@
       <c r="I20" s="68"/>
     </row>
     <row r="21" spans="1:9" ht="13.6" customHeight="1" thickBot="1">
-      <c r="A21" s="90"/>
-      <c r="B21" s="94"/>
+      <c r="A21" s="95"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="69" t="s">
         <v>63</v>
       </c>
@@ -2754,7 +2788,7 @@
       <c r="E22" s="57"/>
       <c r="F22" s="58">
         <f>SUM(F9:F21)</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
@@ -2774,7 +2808,7 @@
       <c r="H24" s="59"/>
     </row>
     <row r="25" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="93" t="s">
         <v>64</v>
       </c>
       <c r="B25" s="40" t="s">
@@ -2797,7 +2831,7 @@
       <c r="I25" s="44"/>
     </row>
     <row r="26" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A26" s="89"/>
+      <c r="A26" s="94"/>
       <c r="B26" s="45" t="s">
         <v>67</v>
       </c>
@@ -2818,8 +2852,8 @@
       <c r="I26" s="49"/>
     </row>
     <row r="27" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A27" s="89"/>
-      <c r="B27" s="103" t="s">
+      <c r="A27" s="94"/>
+      <c r="B27" s="102" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="66" t="s">
@@ -2841,8 +2875,8 @@
       <c r="I27" s="68"/>
     </row>
     <row r="28" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A28" s="89"/>
-      <c r="B28" s="98"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="66" t="s">
         <v>71</v>
       </c>
@@ -2862,8 +2896,8 @@
       <c r="I28" s="68"/>
     </row>
     <row r="29" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A29" s="89"/>
-      <c r="B29" s="104"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="66" t="s">
         <v>73</v>
       </c>
@@ -2883,8 +2917,8 @@
       <c r="I29" s="68"/>
     </row>
     <row r="30" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A30" s="89"/>
-      <c r="B30" s="97" t="s">
+      <c r="A30" s="94"/>
+      <c r="B30" s="90" t="s">
         <v>128</v>
       </c>
       <c r="C30" s="73" t="s">
@@ -2906,8 +2940,8 @@
       <c r="I30" s="68"/>
     </row>
     <row r="31" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A31" s="89"/>
-      <c r="B31" s="98"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="91"/>
       <c r="C31" s="73" t="s">
         <v>121</v>
       </c>
@@ -2927,8 +2961,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A32" s="89"/>
-      <c r="B32" s="98"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="91"/>
       <c r="C32" s="73" t="s">
         <v>123</v>
       </c>
@@ -2950,8 +2984,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A33" s="89"/>
-      <c r="B33" s="98"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="91"/>
       <c r="C33" s="73" t="s">
         <v>124</v>
       </c>
@@ -2971,8 +3005,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A34" s="89"/>
-      <c r="B34" s="98"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="73" t="s">
         <v>125</v>
       </c>
@@ -2992,8 +3026,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A35" s="89"/>
-      <c r="B35" s="98"/>
+      <c r="A35" s="94"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="73" t="s">
         <v>126</v>
       </c>
@@ -3013,8 +3047,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="13.6" customHeight="1" thickBot="1">
-      <c r="A36" s="89"/>
-      <c r="B36" s="99"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="92"/>
       <c r="C36" s="76" t="s">
         <v>127</v>
       </c>
@@ -3058,7 +3092,7 @@
       <c r="H39" s="59"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="88" t="s">
+      <c r="A40" s="93" t="s">
         <v>75</v>
       </c>
       <c r="B40" s="40" t="s">
@@ -3079,8 +3113,8 @@
       <c r="I40" s="44"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="89"/>
-      <c r="B41" s="91" t="s">
+      <c r="A41" s="94"/>
+      <c r="B41" s="99" t="s">
         <v>78</v>
       </c>
       <c r="C41" s="72" t="s">
@@ -3100,8 +3134,8 @@
       <c r="I41" s="49"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="89"/>
-      <c r="B42" s="92"/>
+      <c r="A42" s="94"/>
+      <c r="B42" s="100"/>
       <c r="C42" s="66" t="s">
         <v>80</v>
       </c>
@@ -3119,8 +3153,8 @@
       <c r="I42" s="68"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="89"/>
-      <c r="B43" s="92"/>
+      <c r="A43" s="94"/>
+      <c r="B43" s="100"/>
       <c r="C43" s="66" t="s">
         <v>81</v>
       </c>
@@ -3138,8 +3172,8 @@
       <c r="I43" s="68"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="89"/>
-      <c r="B44" s="92"/>
+      <c r="A44" s="94"/>
+      <c r="B44" s="100"/>
       <c r="C44" s="66" t="s">
         <v>82</v>
       </c>
@@ -3157,8 +3191,8 @@
       <c r="I44" s="68"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="89"/>
-      <c r="B45" s="92"/>
+      <c r="A45" s="94"/>
+      <c r="B45" s="100"/>
       <c r="C45" s="66" t="s">
         <v>84</v>
       </c>
@@ -3176,8 +3210,8 @@
       <c r="I45" s="68"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="89"/>
-      <c r="B46" s="93"/>
+      <c r="A46" s="94"/>
+      <c r="B46" s="104"/>
       <c r="C46" s="66" t="s">
         <v>86</v>
       </c>
@@ -3195,8 +3229,8 @@
       <c r="I46" s="68"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="89"/>
-      <c r="B47" s="91" t="s">
+      <c r="A47" s="94"/>
+      <c r="B47" s="99" t="s">
         <v>88</v>
       </c>
       <c r="C47" s="66" t="s">
@@ -3207,7 +3241,7 @@
       </c>
       <c r="E47" s="66"/>
       <c r="F47" s="67">
-        <f>'March 2010'!T29</f>
+        <f>'March 2015'!T35</f>
         <v>5</v>
       </c>
       <c r="G47" s="70">
@@ -3219,8 +3253,8 @@
       <c r="I47" s="68"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="89"/>
-      <c r="B48" s="92"/>
+      <c r="A48" s="94"/>
+      <c r="B48" s="100"/>
       <c r="C48" s="73" t="s">
         <v>91</v>
       </c>
@@ -3229,7 +3263,7 @@
       </c>
       <c r="E48" s="66"/>
       <c r="F48" s="67">
-        <f>'March 2010'!T30</f>
+        <f>'March 2015'!T36</f>
         <v>7</v>
       </c>
       <c r="G48" s="70">
@@ -3241,8 +3275,8 @@
       <c r="I48" s="68"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="89"/>
-      <c r="B49" s="92"/>
+      <c r="A49" s="94"/>
+      <c r="B49" s="100"/>
       <c r="C49" s="66" t="s">
         <v>92</v>
       </c>
@@ -3251,7 +3285,7 @@
       </c>
       <c r="E49" s="66"/>
       <c r="F49" s="67">
-        <f>'March 2010'!T31</f>
+        <f>'March 2015'!T37</f>
         <v>0</v>
       </c>
       <c r="G49" s="70">
@@ -3263,8 +3297,8 @@
       <c r="I49" s="68"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="89"/>
-      <c r="B50" s="92"/>
+      <c r="A50" s="94"/>
+      <c r="B50" s="100"/>
       <c r="C50" s="73" t="s">
         <v>94</v>
       </c>
@@ -3273,7 +3307,7 @@
       </c>
       <c r="E50" s="66"/>
       <c r="F50" s="67">
-        <f>'March 2010'!T32</f>
+        <f>'March 2015'!T38</f>
         <v>8</v>
       </c>
       <c r="G50" s="70">
@@ -3285,8 +3319,8 @@
       <c r="I50" s="68"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="89"/>
-      <c r="B51" s="92"/>
+      <c r="A51" s="94"/>
+      <c r="B51" s="100"/>
       <c r="C51" s="73" t="s">
         <v>95</v>
       </c>
@@ -3295,7 +3329,7 @@
       </c>
       <c r="E51" s="66"/>
       <c r="F51" s="67">
-        <f>'March 2010'!T33</f>
+        <f>'March 2015'!T39</f>
         <v>8</v>
       </c>
       <c r="G51" s="70">
@@ -3307,8 +3341,8 @@
       <c r="I51" s="68"/>
     </row>
     <row r="52" spans="1:9" ht="13.6" thickBot="1">
-      <c r="A52" s="90"/>
-      <c r="B52" s="94"/>
+      <c r="A52" s="95"/>
+      <c r="B52" s="101"/>
       <c r="C52" s="51" t="s">
         <v>97</v>
       </c>
@@ -3317,7 +3351,7 @@
       </c>
       <c r="E52" s="51"/>
       <c r="F52" s="67">
-        <f>'March 2010'!T34</f>
+        <f>'March 2015'!T40</f>
         <v>0</v>
       </c>
       <c r="G52" s="53">
@@ -3341,10 +3375,10 @@
     <row r="54" spans="1:9" ht="13.6" thickTop="1"/>
     <row r="55" spans="1:9" ht="13.6" thickBot="1"/>
     <row r="56" spans="1:9">
-      <c r="A56" s="88" t="s">
+      <c r="A56" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="95" t="s">
+      <c r="B56" s="105" t="s">
         <v>137</v>
       </c>
       <c r="C56" s="41" t="s">
@@ -3366,8 +3400,8 @@
       <c r="I56" s="44"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="89"/>
-      <c r="B57" s="96"/>
+      <c r="A57" s="94"/>
+      <c r="B57" s="106"/>
       <c r="C57" s="62" t="s">
         <v>101</v>
       </c>
@@ -3387,8 +3421,8 @@
       <c r="I57" s="65"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="89"/>
-      <c r="B58" s="91" t="s">
+      <c r="A58" s="94"/>
+      <c r="B58" s="99" t="s">
         <v>139</v>
       </c>
       <c r="C58" s="46" t="s">
@@ -3410,8 +3444,8 @@
       <c r="I58" s="49"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="89"/>
-      <c r="B59" s="92"/>
+      <c r="A59" s="94"/>
+      <c r="B59" s="100"/>
       <c r="C59" s="66" t="s">
         <v>104</v>
       </c>
@@ -3431,8 +3465,8 @@
       <c r="I59" s="68"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="89"/>
-      <c r="B60" s="92"/>
+      <c r="A60" s="94"/>
+      <c r="B60" s="100"/>
       <c r="C60" s="66" t="s">
         <v>106</v>
       </c>
@@ -3452,8 +3486,8 @@
       <c r="I60" s="68"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="89"/>
-      <c r="B61" s="93"/>
+      <c r="A61" s="94"/>
+      <c r="B61" s="104"/>
       <c r="C61" s="66" t="s">
         <v>108</v>
       </c>
@@ -3473,7 +3507,7 @@
       <c r="I61" s="68"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="89"/>
+      <c r="A62" s="94"/>
       <c r="B62" s="45" t="s">
         <v>141</v>
       </c>
@@ -3494,8 +3528,8 @@
       <c r="I62" s="68"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="89"/>
-      <c r="B63" s="91" t="s">
+      <c r="A63" s="94"/>
+      <c r="B63" s="99" t="s">
         <v>143</v>
       </c>
       <c r="C63" s="66" t="s">
@@ -3517,8 +3551,8 @@
       <c r="I63" s="68"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="89"/>
-      <c r="B64" s="92"/>
+      <c r="A64" s="94"/>
+      <c r="B64" s="100"/>
       <c r="C64" s="66" t="s">
         <v>112</v>
       </c>
@@ -3538,8 +3572,8 @@
       <c r="I64" s="68"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="89"/>
-      <c r="B65" s="92"/>
+      <c r="A65" s="94"/>
+      <c r="B65" s="100"/>
       <c r="C65" s="66" t="s">
         <v>113</v>
       </c>
@@ -3559,8 +3593,8 @@
       <c r="I65" s="68"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="89"/>
-      <c r="B66" s="93"/>
+      <c r="A66" s="94"/>
+      <c r="B66" s="104"/>
       <c r="C66" s="66" t="s">
         <v>114</v>
       </c>
@@ -3580,7 +3614,7 @@
       <c r="I66" s="74"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="89"/>
+      <c r="A67" s="94"/>
       <c r="B67" s="45" t="s">
         <v>145</v>
       </c>
@@ -3603,8 +3637,8 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="13.6" thickBot="1">
-      <c r="A68" s="90"/>
-      <c r="B68" s="91" t="s">
+      <c r="A68" s="95"/>
+      <c r="B68" s="99" t="s">
         <v>146</v>
       </c>
       <c r="C68" s="45" t="s">
@@ -3624,7 +3658,7 @@
       <c r="I68" s="74"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="B69" s="92"/>
+      <c r="B69" s="100"/>
       <c r="C69" s="45" t="s">
         <v>148</v>
       </c>
@@ -3642,7 +3676,7 @@
       <c r="I69" s="74"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="B70" s="92"/>
+      <c r="B70" s="100"/>
       <c r="C70" s="45" t="s">
         <v>151</v>
       </c>
@@ -3660,7 +3694,7 @@
       <c r="I70" s="74"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="B71" s="92"/>
+      <c r="B71" s="100"/>
       <c r="C71" s="45" t="s">
         <v>149</v>
       </c>
@@ -3678,7 +3712,7 @@
       <c r="I71" s="74"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="B72" s="92"/>
+      <c r="B72" s="100"/>
       <c r="C72" s="45" t="s">
         <v>152</v>
       </c>
@@ -3696,7 +3730,7 @@
       <c r="I72" s="74"/>
     </row>
     <row r="73" spans="1:9" ht="13.6" thickBot="1">
-      <c r="B73" s="94"/>
+      <c r="B73" s="101"/>
       <c r="C73" s="79" t="s">
         <v>150</v>
       </c>
@@ -3726,13 +3760,6 @@
     <row r="75" spans="1:9" ht="13.6" thickTop="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="A25:A36"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="A40:A52"/>
     <mergeCell ref="B41:B46"/>
     <mergeCell ref="B47:B52"/>
@@ -3741,6 +3768,13 @@
     <mergeCell ref="B58:B61"/>
     <mergeCell ref="B63:B66"/>
     <mergeCell ref="B68:B73"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="A25:A36"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3750,20 +3784,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD26"/>
+      <selection pane="bottomRight" activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.9"/>
   <cols>
     <col min="1" max="1" width="8.125" style="25" customWidth="1"/>
     <col min="2" max="2" width="4.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="64.875" style="25" customWidth="1"/>
     <col min="4" max="4" width="6.125" style="25" customWidth="1"/>
     <col min="5" max="18" width="4.375" style="25" customWidth="1"/>
     <col min="19" max="19" width="2.875" style="25" customWidth="1"/>
@@ -3858,7 +3892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="13.6">
+    <row r="9" spans="1:20" ht="14.3" thickBot="1">
       <c r="B9" s="21" t="s">
         <v>10</v>
       </c>
@@ -3867,15 +3901,19 @@
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="B10" s="22">
+      <c r="B10" s="107">
         <v>1</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="61" t="s">
+        <v>46</v>
+      </c>
       <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="E10" s="85">
+        <v>2</v>
+      </c>
       <c r="F10" s="27"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="23"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
@@ -3888,94 +3926,116 @@
       <c r="R10" s="27"/>
       <c r="T10" s="4">
         <f>SUM(E10:R10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="B11" s="22">
         <v>2</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="T11" s="4">
-        <f t="shared" ref="T11:T14" si="0">SUM(E11:R11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="B12" s="22">
+    </row>
+    <row r="11" spans="1:20" s="83" customFormat="1">
+      <c r="B11" s="107">
+        <v>2</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="87"/>
+      <c r="E11" s="85">
         <v>3</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="T12" s="4">
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
+      <c r="T11" s="84">
+        <f t="shared" ref="T11:T20" si="0">SUM(E11:R11)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="83" customFormat="1">
+      <c r="B12" s="107">
+        <v>3</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="87"/>
+      <c r="E12" s="85">
+        <v>3</v>
+      </c>
+      <c r="F12" s="85">
+        <v>2</v>
+      </c>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
+      <c r="T12" s="84">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="B13" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="83" customFormat="1">
+      <c r="B13" s="107">
         <v>4</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="T13" s="4">
+      <c r="C13" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="85">
+        <v>6</v>
+      </c>
+      <c r="G13" s="85">
+        <v>2</v>
+      </c>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+      <c r="T13" s="84">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="B14" s="22">
+      <c r="B14" s="107">
         <v>5</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="88" t="s">
+        <v>54</v>
+      </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="G14" s="20">
+        <v>6</v>
+      </c>
+      <c r="H14" s="23">
+        <v>5</v>
+      </c>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
@@ -3986,211 +4046,213 @@
       <c r="P14" s="27"/>
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
-      <c r="T14" s="4">
+      <c r="T14" s="84">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="13.6">
-      <c r="A16" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="B15" s="107">
+        <v>6</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="23">
+        <v>4</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="T15" s="84">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="B16" s="107">
+        <v>7</v>
+      </c>
+      <c r="C16" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="23">
+        <v>2</v>
+      </c>
+      <c r="I16" s="23">
+        <v>9</v>
+      </c>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="T16" s="84">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="83" customFormat="1">
+      <c r="B17" s="107">
+        <v>8</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="23">
+        <v>4</v>
+      </c>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
+      <c r="T17" s="84">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="83" customFormat="1">
+      <c r="B18" s="107">
+        <v>9</v>
+      </c>
+      <c r="C18" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="23">
+        <v>2</v>
+      </c>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="87"/>
+      <c r="T18" s="84">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="83" customFormat="1">
+      <c r="B19" s="107">
+        <v>10</v>
+      </c>
+      <c r="C19" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="23">
+        <v>5</v>
+      </c>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
+      <c r="T19" s="84">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="83" customFormat="1">
+      <c r="B20" s="107">
+        <v>11</v>
+      </c>
+      <c r="C20" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="23">
+        <v>2</v>
+      </c>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="87"/>
+      <c r="T20" s="84">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="13.6">
+      <c r="A22" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="13.6">
-      <c r="B17" s="21" t="s">
+    <row r="23" spans="1:20" ht="13.6">
+      <c r="B23" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="B18" s="22">
-        <v>1</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="20">
-        <v>4</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="T18" s="4">
-        <f>SUM(E18:R18)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="B19" s="22">
-        <v>2</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="20">
-        <v>4</v>
-      </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="T19" s="4">
-        <f t="shared" ref="T19:T25" si="1">SUM(E19:R19)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="B20" s="22">
-        <v>3</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="20">
-        <v>2</v>
-      </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="T20" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="B21" s="22">
-        <v>4</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="20">
-        <v>3</v>
-      </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="T21" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="B22" s="22">
-        <v>5</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="20">
-        <v>2</v>
-      </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="T22" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="B23" s="22">
-        <v>6</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="20">
-        <v>1</v>
-      </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="T23" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="B24" s="22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="E24" s="20">
+        <v>4</v>
+      </c>
       <c r="F24" s="27"/>
-      <c r="G24" s="20">
-        <v>2</v>
-      </c>
+      <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
@@ -4203,30 +4265,26 @@
       <c r="Q24" s="27"/>
       <c r="R24" s="27"/>
       <c r="T24" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>SUM(E24:R24)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="B25" s="22">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="E25" s="20">
+        <v>4</v>
+      </c>
       <c r="F25" s="27"/>
-      <c r="G25" s="20">
-        <v>6</v>
-      </c>
+      <c r="G25" s="27"/>
       <c r="H25" s="27"/>
-      <c r="I25" s="23">
-        <v>4</v>
-      </c>
-      <c r="J25" s="23">
-        <v>7</v>
-      </c>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
@@ -4236,35 +4294,109 @@
       <c r="Q25" s="27"/>
       <c r="R25" s="27"/>
       <c r="T25" s="4">
+        <f t="shared" ref="T25:T31" si="1">SUM(E25:R25)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="B26" s="22">
+        <v>3</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="20">
+        <v>2</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="T26" s="4">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="13.6">
-      <c r="A27" s="26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="13.6">
-      <c r="B28" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="B27" s="22">
+        <v>4</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="20">
+        <v>3</v>
+      </c>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="T27" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="B28" s="22">
+        <v>5</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="20">
+        <v>2</v>
+      </c>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="T28" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="B29" s="22">
+        <v>6</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="20">
         <v>1</v>
       </c>
-      <c r="C29" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="20">
-        <v>5</v>
-      </c>
-      <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
@@ -4278,27 +4410,25 @@
       <c r="Q29" s="27"/>
       <c r="R29" s="27"/>
       <c r="T29" s="4">
-        <f>SUM(E29:R29)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="B30" s="22">
+        <v>7</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="20">
         <v>2</v>
       </c>
-      <c r="C30" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="20">
-        <v>3</v>
-      </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
       <c r="H30" s="27"/>
-      <c r="I30" s="23">
-        <v>4</v>
-      </c>
+      <c r="I30" s="27"/>
       <c r="J30" s="27"/>
       <c r="K30" s="27"/>
       <c r="L30" s="27"/>
@@ -4309,24 +4439,30 @@
       <c r="Q30" s="27"/>
       <c r="R30" s="27"/>
       <c r="T30" s="4">
-        <f t="shared" ref="T30:T33" si="2">SUM(E30:R30)</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="B31" s="22">
-        <v>3</v>
-      </c>
-      <c r="C31" s="66" t="s">
-        <v>92</v>
+        <v>8</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>136</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
+      <c r="G31" s="20">
+        <v>6</v>
+      </c>
       <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
+      <c r="I31" s="23">
+        <v>4</v>
+      </c>
+      <c r="J31" s="23">
+        <v>7</v>
+      </c>
       <c r="K31" s="27"/>
       <c r="L31" s="27"/>
       <c r="M31" s="27"/>
@@ -4336,94 +4472,93 @@
       <c r="Q31" s="27"/>
       <c r="R31" s="27"/>
       <c r="T31" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="B32" s="22">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="13.6">
+      <c r="A33" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="13.6">
+      <c r="B34" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="B35" s="22">
+        <v>1</v>
+      </c>
+      <c r="C35" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="20">
+        <v>5</v>
+      </c>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="T35" s="4">
+        <f>SUM(E35:R35)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="B36" s="22">
+        <v>2</v>
+      </c>
+      <c r="C36" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="20">
+        <v>3</v>
+      </c>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="23">
         <v>4</v>
       </c>
-      <c r="C32" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="27"/>
-      <c r="F32" s="20">
-        <v>8</v>
-      </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="T32" s="4">
-        <f>SUM(F32:R32)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="B33" s="22">
-        <v>5</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="20">
-        <v>8</v>
-      </c>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="T33" s="4">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="13.6">
-      <c r="A35" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="13.6">
-      <c r="B36" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>11</v>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="T36" s="4">
+        <f t="shared" ref="T36:T39" si="2">SUM(E36:R36)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="B37" s="22">
-        <v>1</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>138</v>
+        <v>3</v>
+      </c>
+      <c r="C37" s="66" t="s">
+        <v>92</v>
       </c>
       <c r="D37" s="27"/>
-      <c r="E37" s="20">
-        <v>8</v>
-      </c>
-      <c r="F37" s="20">
-        <v>8</v>
-      </c>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
@@ -4437,23 +4572,22 @@
       <c r="Q37" s="27"/>
       <c r="R37" s="27"/>
       <c r="T37" s="4">
-        <f>SUM(E37:R37)</f>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:20">
-      <c r="B38" s="86">
-        <v>2</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>142</v>
+      <c r="B38" s="107">
+        <v>4</v>
+      </c>
+      <c r="C38" s="108" t="s">
+        <v>116</v>
       </c>
       <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="20">
+      <c r="F38" s="20">
         <v>8</v>
       </c>
+      <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
       <c r="J38" s="27"/>
@@ -4466,19 +4600,23 @@
       <c r="Q38" s="27"/>
       <c r="R38" s="27"/>
       <c r="T38" s="4">
-        <f t="shared" ref="T38:T43" si="3">SUM(E38:R38)</f>
+        <f>SUM(E38:R38)</f>
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:20">
-      <c r="B39" s="86">
-        <v>3</v>
-      </c>
-      <c r="C39" s="27"/>
+      <c r="B39" s="22">
+        <v>5</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
       <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
+      <c r="G39" s="20">
+        <v>8</v>
+      </c>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
       <c r="J39" s="27"/>
@@ -4491,113 +4629,41 @@
       <c r="Q39" s="27"/>
       <c r="R39" s="27"/>
       <c r="T39" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" s="83" customFormat="1">
-      <c r="B40" s="86">
-        <v>4</v>
-      </c>
-      <c r="C40" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="85">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87"/>
-      <c r="T40" s="84">
-        <f t="shared" ref="T40:T41" si="4">SUM(E40:R40)</f>
+    </row>
+    <row r="41" spans="1:20" ht="13.6">
+      <c r="A41" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="13.6">
+      <c r="B42" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="B43" s="22">
+        <v>1</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" s="83" customFormat="1">
-      <c r="B41" s="86">
-        <v>5</v>
-      </c>
-      <c r="C41" s="77">
-        <v>6.1</v>
-      </c>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="85">
-        <v>2</v>
-      </c>
-      <c r="K41" s="87"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="87"/>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="87"/>
-      <c r="T41" s="84">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" s="83" customFormat="1">
-      <c r="B42" s="86">
-        <v>6</v>
-      </c>
-      <c r="C42" s="77">
-        <v>6.1</v>
-      </c>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="85">
-        <v>2</v>
-      </c>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="87"/>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="87"/>
-      <c r="T42" s="84">
-        <f t="shared" ref="T42" si="5">SUM(E42:R42)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="B43" s="86">
-        <v>7</v>
-      </c>
-      <c r="C43" s="77">
-        <v>6.3</v>
-      </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
+      <c r="F43" s="20">
+        <v>8</v>
+      </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="20">
-        <v>4</v>
-      </c>
+      <c r="J43" s="27"/>
       <c r="K43" s="27"/>
       <c r="L43" s="27"/>
       <c r="M43" s="27"/>
@@ -4607,250 +4673,420 @@
       <c r="Q43" s="27"/>
       <c r="R43" s="27"/>
       <c r="T43" s="4">
+        <f>SUM(E43:R43)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="B44" s="86">
+        <v>2</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="20">
+        <v>8</v>
+      </c>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="T44" s="4">
+        <f t="shared" ref="T44:T49" si="3">SUM(E44:R44)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="B45" s="86">
+        <v>3</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="T45" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" s="83" customFormat="1">
+      <c r="B46" s="86">
+        <v>4</v>
+      </c>
+      <c r="C46" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="85">
+        <v>8</v>
+      </c>
+      <c r="J46" s="87"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="87"/>
+      <c r="P46" s="87"/>
+      <c r="Q46" s="87"/>
+      <c r="R46" s="87"/>
+      <c r="T46" s="84">
+        <f t="shared" ref="T46:T47" si="4">SUM(E46:R46)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" s="83" customFormat="1">
+      <c r="B47" s="86">
+        <v>5</v>
+      </c>
+      <c r="C47" s="77">
+        <v>6.1</v>
+      </c>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="85">
+        <v>2</v>
+      </c>
+      <c r="K47" s="87"/>
+      <c r="L47" s="87"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="87"/>
+      <c r="P47" s="87"/>
+      <c r="Q47" s="87"/>
+      <c r="R47" s="87"/>
+      <c r="T47" s="84">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" s="83" customFormat="1">
+      <c r="B48" s="86">
+        <v>6</v>
+      </c>
+      <c r="C48" s="77">
+        <v>6.1</v>
+      </c>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="85">
+        <v>2</v>
+      </c>
+      <c r="K48" s="87"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="87"/>
+      <c r="O48" s="87"/>
+      <c r="P48" s="87"/>
+      <c r="Q48" s="87"/>
+      <c r="R48" s="87"/>
+      <c r="T48" s="84">
+        <f t="shared" ref="T48" si="5">SUM(E48:R48)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="B49" s="86">
+        <v>7</v>
+      </c>
+      <c r="C49" s="77">
+        <v>6.3</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="20">
+        <v>4</v>
+      </c>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="T49" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="13.6">
-      <c r="A45" s="26" t="s">
+    <row r="51" spans="1:20" ht="13.6">
+      <c r="A51" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="13.6">
-      <c r="B46" s="21" t="s">
+    <row r="52" spans="1:20" ht="13.6">
+      <c r="B52" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
-      <c r="B47" s="22">
+    <row r="53" spans="1:20">
+      <c r="B53" s="22">
         <v>1</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C53" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="20">
+      <c r="D53" s="27"/>
+      <c r="E53" s="20">
         <v>8</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F53" s="20">
         <v>8</v>
       </c>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="T47" s="4">
-        <f t="shared" ref="T47:T51" si="6">SUM(E47:R47)</f>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="T53" s="4">
+        <f t="shared" ref="T53:T57" si="6">SUM(E53:R53)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
-      <c r="B48" s="86">
+    <row r="54" spans="1:20">
+      <c r="B54" s="86">
         <v>2</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C54" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="20">
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="20">
         <v>8</v>
       </c>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="27"/>
-      <c r="T48" s="4">
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="87"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27"/>
+      <c r="T54" s="4">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:20" s="83" customFormat="1">
-      <c r="B49" s="86">
+    <row r="55" spans="1:20" s="83" customFormat="1">
+      <c r="B55" s="86">
         <v>3</v>
       </c>
-      <c r="C49" s="77">
+      <c r="C55" s="77">
         <v>6.4</v>
       </c>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="85">
+      <c r="D55" s="87"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="87"/>
+      <c r="G55" s="87"/>
+      <c r="H55" s="87"/>
+      <c r="I55" s="87"/>
+      <c r="J55" s="85">
         <v>2</v>
       </c>
-      <c r="K49" s="87"/>
-      <c r="L49" s="87"/>
-      <c r="M49" s="87"/>
-      <c r="N49" s="87"/>
-      <c r="O49" s="87"/>
-      <c r="P49" s="87"/>
-      <c r="Q49" s="87"/>
-      <c r="R49" s="87"/>
-      <c r="T49" s="84"/>
-    </row>
-    <row r="50" spans="2:20" s="83" customFormat="1">
-      <c r="B50" s="86">
+      <c r="K55" s="87"/>
+      <c r="L55" s="87"/>
+      <c r="M55" s="87"/>
+      <c r="N55" s="87"/>
+      <c r="O55" s="87"/>
+      <c r="P55" s="87"/>
+      <c r="Q55" s="87"/>
+      <c r="R55" s="87"/>
+      <c r="T55" s="84"/>
+    </row>
+    <row r="56" spans="1:20" s="83" customFormat="1">
+      <c r="B56" s="86">
         <v>4</v>
       </c>
-      <c r="C50" s="77">
+      <c r="C56" s="77">
         <v>6.5</v>
       </c>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="87"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="85">
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="87"/>
+      <c r="J56" s="85">
         <v>3</v>
       </c>
-      <c r="K50" s="87"/>
-      <c r="L50" s="87"/>
-      <c r="M50" s="87"/>
-      <c r="N50" s="87"/>
-      <c r="O50" s="87"/>
-      <c r="P50" s="87"/>
-      <c r="Q50" s="87"/>
-      <c r="R50" s="87"/>
-      <c r="T50" s="84"/>
-    </row>
-    <row r="51" spans="2:20">
-      <c r="B51" s="86">
+      <c r="K56" s="87"/>
+      <c r="L56" s="87"/>
+      <c r="M56" s="87"/>
+      <c r="N56" s="87"/>
+      <c r="O56" s="87"/>
+      <c r="P56" s="87"/>
+      <c r="Q56" s="87"/>
+      <c r="R56" s="87"/>
+      <c r="T56" s="84"/>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="B57" s="86">
         <v>5</v>
       </c>
-      <c r="C51" s="77">
+      <c r="C57" s="77">
         <v>6.6</v>
       </c>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="85">
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="85">
         <v>3</v>
       </c>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="27"/>
-      <c r="T51" s="4">
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="T57" s="4">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="2:20">
-      <c r="B52" s="30"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="31"/>
-      <c r="T52" s="31"/>
-    </row>
-    <row r="53" spans="2:20" ht="16.3" thickBot="1">
-      <c r="C53" s="1" t="s">
+    <row r="58" spans="1:20">
+      <c r="B58" s="30"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="T58" s="31"/>
+    </row>
+    <row r="59" spans="1:20" ht="16.3" thickBot="1">
+      <c r="C59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="24">
-        <f>SUM(E8:E51)</f>
-        <v>32</v>
-      </c>
-      <c r="F53" s="24">
-        <f>SUM(F8:F51)</f>
-        <v>32</v>
-      </c>
-      <c r="G53" s="24">
-        <f>SUM(G8:G51)</f>
-        <v>32</v>
-      </c>
-      <c r="H53" s="24">
-        <f>SUM(H8:H51)</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="24">
-        <f>SUM(I8:I51)</f>
-        <v>16</v>
-      </c>
-      <c r="J53" s="24">
-        <f>SUM(J8:J51)</f>
-        <v>23</v>
-      </c>
-      <c r="K53" s="24">
-        <f>SUM(K8:K51)</f>
-        <v>0</v>
-      </c>
-      <c r="L53" s="24">
-        <f>SUM(L8:L51)</f>
-        <v>0</v>
-      </c>
-      <c r="M53" s="24">
-        <f>SUM(M8:M51)</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="24">
-        <f>SUM(N8:N51)</f>
-        <v>0</v>
-      </c>
-      <c r="O53" s="24">
-        <f>SUM(O8:O51)</f>
-        <v>0</v>
-      </c>
-      <c r="P53" s="24">
-        <f>SUM(P8:P51)</f>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="24">
-        <f t="shared" ref="Q53:R53" si="7">SUM(Q8:Q51)</f>
-        <v>0</v>
-      </c>
-      <c r="R53" s="24">
+      <c r="E59" s="24">
+        <f t="shared" ref="E59:P59" si="7">SUM(E8:E57)</f>
+        <v>40</v>
+      </c>
+      <c r="F59" s="24">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="G59" s="24">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="H59" s="24">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I59" s="24">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="J59" s="24">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="K59" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T53" s="28">
-        <f>SUM(G53:R53)</f>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="2:20" ht="13.6" thickTop="1"/>
+      <c r="L59" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="24">
+        <f>SUM(Q8:Q57)</f>
+        <v>0</v>
+      </c>
+      <c r="R59" s="24">
+        <f>SUM(R8:R57)</f>
+        <v>0</v>
+      </c>
+      <c r="T59" s="28">
+        <f>SUM(G59:R59)</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="13.6" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Listing_Tool_Status_Report_v1.0.xlsx
+++ b/docs/Listing_Tool_Status_Report_v1.0.xlsx
@@ -1713,6 +1713,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1722,15 +1755,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1741,34 +1765,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2424,7 +2424,7 @@
       <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="92" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -2445,7 +2445,7 @@
       <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A4" s="94"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="45" t="s">
         <v>41</v>
       </c>
@@ -2464,7 +2464,7 @@
       <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:9" ht="13.6" customHeight="1" thickBot="1">
-      <c r="A5" s="95"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="50" t="s">
         <v>42</v>
       </c>
@@ -2507,10 +2507,10 @@
       <c r="H8" s="59"/>
     </row>
     <row r="9" spans="1:9" ht="26.7" customHeight="1">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="104" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="61" t="s">
@@ -2532,8 +2532,8 @@
       <c r="I9" s="44"/>
     </row>
     <row r="10" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A10" s="94"/>
-      <c r="B10" s="97"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="62" t="s">
         <v>47</v>
       </c>
@@ -2553,8 +2553,8 @@
       <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A11" s="94"/>
-      <c r="B11" s="97"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="46" t="s">
         <v>49</v>
       </c>
@@ -2574,8 +2574,8 @@
       <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A12" s="94"/>
-      <c r="B12" s="97"/>
+      <c r="A12" s="93"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="66" t="s">
         <v>50</v>
       </c>
@@ -2595,8 +2595,8 @@
       <c r="I12" s="68"/>
     </row>
     <row r="13" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A13" s="94"/>
-      <c r="B13" s="98"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="66" t="s">
         <v>52</v>
       </c>
@@ -2614,8 +2614,8 @@
       <c r="I13" s="68"/>
     </row>
     <row r="14" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A14" s="94"/>
-      <c r="B14" s="99" t="s">
+      <c r="A14" s="93"/>
+      <c r="B14" s="95" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="66" t="s">
@@ -2637,8 +2637,8 @@
       <c r="I14" s="68"/>
     </row>
     <row r="15" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A15" s="94"/>
-      <c r="B15" s="100"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="66" t="s">
         <v>55</v>
       </c>
@@ -2658,8 +2658,8 @@
       <c r="I15" s="68"/>
     </row>
     <row r="16" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A16" s="94"/>
-      <c r="B16" s="100"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="66" t="s">
         <v>57</v>
       </c>
@@ -2679,8 +2679,8 @@
       <c r="I16" s="68"/>
     </row>
     <row r="17" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A17" s="94"/>
-      <c r="B17" s="100"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="66" t="s">
         <v>59</v>
       </c>
@@ -2700,8 +2700,8 @@
       <c r="I17" s="68"/>
     </row>
     <row r="18" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A18" s="94"/>
-      <c r="B18" s="100"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="66" t="s">
         <v>60</v>
       </c>
@@ -2721,8 +2721,8 @@
       <c r="I18" s="68"/>
     </row>
     <row r="19" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A19" s="94"/>
-      <c r="B19" s="100"/>
+      <c r="A19" s="93"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="66" t="s">
         <v>61</v>
       </c>
@@ -2742,8 +2742,8 @@
       <c r="I19" s="68"/>
     </row>
     <row r="20" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A20" s="94"/>
-      <c r="B20" s="100"/>
+      <c r="A20" s="93"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="66" t="s">
         <v>62</v>
       </c>
@@ -2763,8 +2763,8 @@
       <c r="I20" s="68"/>
     </row>
     <row r="21" spans="1:9" ht="13.6" customHeight="1" thickBot="1">
-      <c r="A21" s="95"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="98"/>
       <c r="C21" s="69" t="s">
         <v>63</v>
       </c>
@@ -2808,7 +2808,7 @@
       <c r="H24" s="59"/>
     </row>
     <row r="25" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="92" t="s">
         <v>64</v>
       </c>
       <c r="B25" s="40" t="s">
@@ -2831,7 +2831,7 @@
       <c r="I25" s="44"/>
     </row>
     <row r="26" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A26" s="94"/>
+      <c r="A26" s="93"/>
       <c r="B26" s="45" t="s">
         <v>67</v>
       </c>
@@ -2852,8 +2852,8 @@
       <c r="I26" s="49"/>
     </row>
     <row r="27" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A27" s="94"/>
-      <c r="B27" s="102" t="s">
+      <c r="A27" s="93"/>
+      <c r="B27" s="107" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="66" t="s">
@@ -2875,8 +2875,8 @@
       <c r="I27" s="68"/>
     </row>
     <row r="28" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A28" s="94"/>
-      <c r="B28" s="91"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="66" t="s">
         <v>71</v>
       </c>
@@ -2896,8 +2896,8 @@
       <c r="I28" s="68"/>
     </row>
     <row r="29" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A29" s="94"/>
-      <c r="B29" s="103"/>
+      <c r="A29" s="93"/>
+      <c r="B29" s="108"/>
       <c r="C29" s="66" t="s">
         <v>73</v>
       </c>
@@ -2917,8 +2917,8 @@
       <c r="I29" s="68"/>
     </row>
     <row r="30" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A30" s="94"/>
-      <c r="B30" s="90" t="s">
+      <c r="A30" s="93"/>
+      <c r="B30" s="101" t="s">
         <v>128</v>
       </c>
       <c r="C30" s="73" t="s">
@@ -2940,8 +2940,8 @@
       <c r="I30" s="68"/>
     </row>
     <row r="31" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A31" s="94"/>
-      <c r="B31" s="91"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="73" t="s">
         <v>121</v>
       </c>
@@ -2961,8 +2961,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A32" s="94"/>
-      <c r="B32" s="91"/>
+      <c r="A32" s="93"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="73" t="s">
         <v>123</v>
       </c>
@@ -2984,8 +2984,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A33" s="94"/>
-      <c r="B33" s="91"/>
+      <c r="A33" s="93"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="73" t="s">
         <v>124</v>
       </c>
@@ -3005,8 +3005,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A34" s="94"/>
-      <c r="B34" s="91"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="102"/>
       <c r="C34" s="73" t="s">
         <v>125</v>
       </c>
@@ -3026,8 +3026,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A35" s="94"/>
-      <c r="B35" s="91"/>
+      <c r="A35" s="93"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="73" t="s">
         <v>126</v>
       </c>
@@ -3047,8 +3047,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="13.6" customHeight="1" thickBot="1">
-      <c r="A36" s="94"/>
-      <c r="B36" s="92"/>
+      <c r="A36" s="93"/>
+      <c r="B36" s="103"/>
       <c r="C36" s="76" t="s">
         <v>127</v>
       </c>
@@ -3092,7 +3092,7 @@
       <c r="H39" s="59"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="93" t="s">
+      <c r="A40" s="92" t="s">
         <v>75</v>
       </c>
       <c r="B40" s="40" t="s">
@@ -3113,8 +3113,8 @@
       <c r="I40" s="44"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="94"/>
-      <c r="B41" s="99" t="s">
+      <c r="A41" s="93"/>
+      <c r="B41" s="95" t="s">
         <v>78</v>
       </c>
       <c r="C41" s="72" t="s">
@@ -3134,8 +3134,8 @@
       <c r="I41" s="49"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="94"/>
-      <c r="B42" s="100"/>
+      <c r="A42" s="93"/>
+      <c r="B42" s="96"/>
       <c r="C42" s="66" t="s">
         <v>80</v>
       </c>
@@ -3153,8 +3153,8 @@
       <c r="I42" s="68"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="94"/>
-      <c r="B43" s="100"/>
+      <c r="A43" s="93"/>
+      <c r="B43" s="96"/>
       <c r="C43" s="66" t="s">
         <v>81</v>
       </c>
@@ -3172,8 +3172,8 @@
       <c r="I43" s="68"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="94"/>
-      <c r="B44" s="100"/>
+      <c r="A44" s="93"/>
+      <c r="B44" s="96"/>
       <c r="C44" s="66" t="s">
         <v>82</v>
       </c>
@@ -3191,8 +3191,8 @@
       <c r="I44" s="68"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="94"/>
-      <c r="B45" s="100"/>
+      <c r="A45" s="93"/>
+      <c r="B45" s="96"/>
       <c r="C45" s="66" t="s">
         <v>84</v>
       </c>
@@ -3210,8 +3210,8 @@
       <c r="I45" s="68"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="94"/>
-      <c r="B46" s="104"/>
+      <c r="A46" s="93"/>
+      <c r="B46" s="97"/>
       <c r="C46" s="66" t="s">
         <v>86</v>
       </c>
@@ -3229,8 +3229,8 @@
       <c r="I46" s="68"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="94"/>
-      <c r="B47" s="99" t="s">
+      <c r="A47" s="93"/>
+      <c r="B47" s="95" t="s">
         <v>88</v>
       </c>
       <c r="C47" s="66" t="s">
@@ -3253,8 +3253,8 @@
       <c r="I47" s="68"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="94"/>
-      <c r="B48" s="100"/>
+      <c r="A48" s="93"/>
+      <c r="B48" s="96"/>
       <c r="C48" s="73" t="s">
         <v>91</v>
       </c>
@@ -3275,8 +3275,8 @@
       <c r="I48" s="68"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="94"/>
-      <c r="B49" s="100"/>
+      <c r="A49" s="93"/>
+      <c r="B49" s="96"/>
       <c r="C49" s="66" t="s">
         <v>92</v>
       </c>
@@ -3297,8 +3297,8 @@
       <c r="I49" s="68"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="94"/>
-      <c r="B50" s="100"/>
+      <c r="A50" s="93"/>
+      <c r="B50" s="96"/>
       <c r="C50" s="73" t="s">
         <v>94</v>
       </c>
@@ -3319,8 +3319,8 @@
       <c r="I50" s="68"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="94"/>
-      <c r="B51" s="100"/>
+      <c r="A51" s="93"/>
+      <c r="B51" s="96"/>
       <c r="C51" s="73" t="s">
         <v>95</v>
       </c>
@@ -3341,8 +3341,8 @@
       <c r="I51" s="68"/>
     </row>
     <row r="52" spans="1:9" ht="13.6" thickBot="1">
-      <c r="A52" s="95"/>
-      <c r="B52" s="101"/>
+      <c r="A52" s="94"/>
+      <c r="B52" s="98"/>
       <c r="C52" s="51" t="s">
         <v>97</v>
       </c>
@@ -3375,10 +3375,10 @@
     <row r="54" spans="1:9" ht="13.6" thickTop="1"/>
     <row r="55" spans="1:9" ht="13.6" thickBot="1"/>
     <row r="56" spans="1:9">
-      <c r="A56" s="93" t="s">
+      <c r="A56" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="105" t="s">
+      <c r="B56" s="99" t="s">
         <v>137</v>
       </c>
       <c r="C56" s="41" t="s">
@@ -3400,8 +3400,8 @@
       <c r="I56" s="44"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="94"/>
-      <c r="B57" s="106"/>
+      <c r="A57" s="93"/>
+      <c r="B57" s="100"/>
       <c r="C57" s="62" t="s">
         <v>101</v>
       </c>
@@ -3421,8 +3421,8 @@
       <c r="I57" s="65"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="94"/>
-      <c r="B58" s="99" t="s">
+      <c r="A58" s="93"/>
+      <c r="B58" s="95" t="s">
         <v>139</v>
       </c>
       <c r="C58" s="46" t="s">
@@ -3444,8 +3444,8 @@
       <c r="I58" s="49"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="94"/>
-      <c r="B59" s="100"/>
+      <c r="A59" s="93"/>
+      <c r="B59" s="96"/>
       <c r="C59" s="66" t="s">
         <v>104</v>
       </c>
@@ -3465,8 +3465,8 @@
       <c r="I59" s="68"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="94"/>
-      <c r="B60" s="100"/>
+      <c r="A60" s="93"/>
+      <c r="B60" s="96"/>
       <c r="C60" s="66" t="s">
         <v>106</v>
       </c>
@@ -3486,8 +3486,8 @@
       <c r="I60" s="68"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="94"/>
-      <c r="B61" s="104"/>
+      <c r="A61" s="93"/>
+      <c r="B61" s="97"/>
       <c r="C61" s="66" t="s">
         <v>108</v>
       </c>
@@ -3507,7 +3507,7 @@
       <c r="I61" s="68"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="94"/>
+      <c r="A62" s="93"/>
       <c r="B62" s="45" t="s">
         <v>141</v>
       </c>
@@ -3528,8 +3528,8 @@
       <c r="I62" s="68"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="94"/>
-      <c r="B63" s="99" t="s">
+      <c r="A63" s="93"/>
+      <c r="B63" s="95" t="s">
         <v>143</v>
       </c>
       <c r="C63" s="66" t="s">
@@ -3551,8 +3551,8 @@
       <c r="I63" s="68"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="94"/>
-      <c r="B64" s="100"/>
+      <c r="A64" s="93"/>
+      <c r="B64" s="96"/>
       <c r="C64" s="66" t="s">
         <v>112</v>
       </c>
@@ -3572,8 +3572,8 @@
       <c r="I64" s="68"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="94"/>
-      <c r="B65" s="100"/>
+      <c r="A65" s="93"/>
+      <c r="B65" s="96"/>
       <c r="C65" s="66" t="s">
         <v>113</v>
       </c>
@@ -3593,8 +3593,8 @@
       <c r="I65" s="68"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="94"/>
-      <c r="B66" s="104"/>
+      <c r="A66" s="93"/>
+      <c r="B66" s="97"/>
       <c r="C66" s="66" t="s">
         <v>114</v>
       </c>
@@ -3614,7 +3614,7 @@
       <c r="I66" s="74"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="94"/>
+      <c r="A67" s="93"/>
       <c r="B67" s="45" t="s">
         <v>145</v>
       </c>
@@ -3637,8 +3637,8 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="13.6" thickBot="1">
-      <c r="A68" s="95"/>
-      <c r="B68" s="99" t="s">
+      <c r="A68" s="94"/>
+      <c r="B68" s="95" t="s">
         <v>146</v>
       </c>
       <c r="C68" s="45" t="s">
@@ -3658,7 +3658,7 @@
       <c r="I68" s="74"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="B69" s="100"/>
+      <c r="B69" s="96"/>
       <c r="C69" s="45" t="s">
         <v>148</v>
       </c>
@@ -3676,7 +3676,7 @@
       <c r="I69" s="74"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="B70" s="100"/>
+      <c r="B70" s="96"/>
       <c r="C70" s="45" t="s">
         <v>151</v>
       </c>
@@ -3694,7 +3694,7 @@
       <c r="I70" s="74"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="B71" s="100"/>
+      <c r="B71" s="96"/>
       <c r="C71" s="45" t="s">
         <v>149</v>
       </c>
@@ -3712,7 +3712,7 @@
       <c r="I71" s="74"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="B72" s="100"/>
+      <c r="B72" s="96"/>
       <c r="C72" s="45" t="s">
         <v>152</v>
       </c>
@@ -3730,7 +3730,7 @@
       <c r="I72" s="74"/>
     </row>
     <row r="73" spans="1:9" ht="13.6" thickBot="1">
-      <c r="B73" s="101"/>
+      <c r="B73" s="98"/>
       <c r="C73" s="79" t="s">
         <v>150</v>
       </c>
@@ -3760,6 +3760,13 @@
     <row r="75" spans="1:9" ht="13.6" thickTop="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="A25:A36"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="A40:A52"/>
     <mergeCell ref="B41:B46"/>
     <mergeCell ref="B47:B52"/>
@@ -3768,13 +3775,6 @@
     <mergeCell ref="B58:B61"/>
     <mergeCell ref="B63:B66"/>
     <mergeCell ref="B68:B73"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="A25:A36"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3790,7 +3790,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V21" sqref="V21"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.9"/>
@@ -3901,7 +3901,7 @@
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="B10" s="107">
+      <c r="B10" s="90">
         <v>1</v>
       </c>
       <c r="C10" s="61" t="s">
@@ -3930,7 +3930,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" s="83" customFormat="1">
-      <c r="B11" s="107">
+      <c r="B11" s="90">
         <v>2</v>
       </c>
       <c r="C11" s="89" t="s">
@@ -3959,7 +3959,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" s="83" customFormat="1">
-      <c r="B12" s="107">
+      <c r="B12" s="90">
         <v>3</v>
       </c>
       <c r="C12" s="46" t="s">
@@ -3970,7 +3970,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="87"/>
       <c r="H12" s="87"/>
@@ -3986,11 +3986,11 @@
       <c r="R12" s="87"/>
       <c r="T12" s="84">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="83" customFormat="1">
-      <c r="B13" s="107">
+      <c r="B13" s="90">
         <v>4</v>
       </c>
       <c r="C13" s="88" t="s">
@@ -4021,7 +4021,7 @@
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="B14" s="107">
+      <c r="B14" s="90">
         <v>5</v>
       </c>
       <c r="C14" s="88" t="s">
@@ -4052,7 +4052,7 @@
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="B15" s="107">
+      <c r="B15" s="90">
         <v>6</v>
       </c>
       <c r="C15" s="88" t="s">
@@ -4081,7 +4081,7 @@
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="B16" s="107">
+      <c r="B16" s="90">
         <v>7</v>
       </c>
       <c r="C16" s="88" t="s">
@@ -4112,7 +4112,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" s="83" customFormat="1">
-      <c r="B17" s="107">
+      <c r="B17" s="90">
         <v>8</v>
       </c>
       <c r="C17" s="88" t="s">
@@ -4141,7 +4141,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" s="83" customFormat="1">
-      <c r="B18" s="107">
+      <c r="B18" s="90">
         <v>9</v>
       </c>
       <c r="C18" s="88" t="s">
@@ -4170,7 +4170,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" s="83" customFormat="1">
-      <c r="B19" s="107">
+      <c r="B19" s="90">
         <v>10</v>
       </c>
       <c r="C19" s="88" t="s">
@@ -4199,10 +4199,10 @@
       </c>
     </row>
     <row r="20" spans="1:20" s="83" customFormat="1">
-      <c r="B20" s="107">
+      <c r="B20" s="90">
         <v>11</v>
       </c>
-      <c r="C20" s="88" t="s">
+      <c r="C20" s="72" t="s">
         <v>62</v>
       </c>
       <c r="D20" s="87"/>
@@ -4577,10 +4577,10 @@
       </c>
     </row>
     <row r="38" spans="1:20">
-      <c r="B38" s="107">
+      <c r="B38" s="90">
         <v>4</v>
       </c>
-      <c r="C38" s="108" t="s">
+      <c r="C38" s="91" t="s">
         <v>116</v>
       </c>
       <c r="D38" s="27"/>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="F59" s="24">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G59" s="24">
         <f t="shared" si="7"/>

--- a/docs/Listing_Tool_Status_Report_v1.0.xlsx
+++ b/docs/Listing_Tool_Status_Report_v1.0.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Code\ListingTool\trunk\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5352" yWindow="-367" windowWidth="16614" windowHeight="9428" activeTab="2"/>
+    <workbookView xWindow="5352" yWindow="-372" windowWidth="16608" windowHeight="9432" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="WBS" sheetId="5" r:id="rId2"/>
     <sheet name="March 2015" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="157">
   <si>
     <t>Project Name:</t>
   </si>
@@ -971,11 +966,15 @@
     <t>Wolf, Devin</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>此功能包含，页面条件查询的结合，还有数据库的二次设计</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -1719,6 +1718,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1728,54 +1736,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="1"/>
     <cellStyle name="Normal 3 2" xfId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1791,7 +1790,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1833,7 +1832,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1865,10 +1864,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1900,7 +1898,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2076,22 +2073,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.375" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13.6" thickBot="1"/>
+    <row r="1" spans="2:10" ht="13.8" thickBot="1"/>
     <row r="2" spans="2:10">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -2103,7 +2100,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="2:10" ht="31.95">
+    <row r="3" spans="2:10" ht="31.8">
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
         <v>0</v>
@@ -2129,7 +2126,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="2:10" ht="13.6">
+    <row r="5" spans="2:10">
       <c r="B5" s="8"/>
       <c r="C5" s="14" t="s">
         <v>1</v>
@@ -2144,7 +2141,7 @@
       <c r="I5" s="12"/>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="2:10" ht="13.6">
+    <row r="6" spans="2:10">
       <c r="B6" s="8"/>
       <c r="C6" s="14" t="s">
         <v>3</v>
@@ -2170,7 +2167,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="2:10" ht="13.6">
+    <row r="8" spans="2:10">
       <c r="B8" s="8"/>
       <c r="C8" s="14" t="s">
         <v>5</v>
@@ -2302,7 +2299,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="2:10" ht="13.6">
+    <row r="18" spans="2:10">
       <c r="B18" s="8"/>
       <c r="C18" s="14" t="s">
         <v>4</v>
@@ -2317,7 +2314,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="2:10" ht="13.6">
+    <row r="19" spans="2:10">
       <c r="B19" s="8"/>
       <c r="C19" s="14" t="s">
         <v>7</v>
@@ -2343,7 +2340,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="2:10" ht="13.6" thickBot="1">
+    <row r="21" spans="2:10" ht="13.8" thickBot="1">
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -2362,28 +2359,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="39" style="55" customWidth="1"/>
-    <col min="2" max="2" width="41.875" style="56" customWidth="1"/>
-    <col min="3" max="3" width="54.125" style="55" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="55" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="71" customWidth="1"/>
-    <col min="7" max="8" width="11.625" style="55" customWidth="1"/>
-    <col min="9" max="9" width="38.5" style="55" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.125" style="36"/>
+    <col min="2" max="2" width="41.88671875" style="56" customWidth="1"/>
+    <col min="3" max="3" width="54.109375" style="55" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="55" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="71" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" style="55" customWidth="1"/>
+    <col min="9" max="9" width="38.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.6">
+    <row r="1" spans="1:9">
       <c r="A1" s="33" t="s">
         <v>29</v>
       </c>
@@ -2412,7 +2409,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.3" thickBot="1">
+    <row r="2" spans="1:9" ht="13.8" thickBot="1">
       <c r="A2" s="37"/>
       <c r="B2" s="38"/>
       <c r="C2" s="37"/>
@@ -2424,7 +2421,7 @@
       <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="95" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -2445,7 +2442,7 @@
       <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A4" s="93"/>
+      <c r="A4" s="96"/>
       <c r="B4" s="45" t="s">
         <v>41</v>
       </c>
@@ -2463,8 +2460,8 @@
       </c>
       <c r="I4" s="49"/>
     </row>
-    <row r="5" spans="1:9" ht="13.6" customHeight="1" thickBot="1">
-      <c r="A5" s="94"/>
+    <row r="5" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A5" s="97"/>
       <c r="B5" s="50" t="s">
         <v>42</v>
       </c>
@@ -2480,7 +2477,7 @@
       <c r="H5" s="51"/>
       <c r="I5" s="54"/>
     </row>
-    <row r="6" spans="1:9" ht="14.3" thickBot="1">
+    <row r="6" spans="1:9" ht="13.8" thickBot="1">
       <c r="D6" s="57" t="s">
         <v>43</v>
       </c>
@@ -2492,14 +2489,14 @@
       <c r="G6" s="59"/>
       <c r="H6" s="59"/>
     </row>
-    <row r="7" spans="1:9" ht="14.3" thickTop="1">
+    <row r="7" spans="1:9" ht="13.8" thickTop="1">
       <c r="D7" s="57"/>
       <c r="E7" s="57"/>
       <c r="F7" s="60"/>
       <c r="G7" s="59"/>
       <c r="H7" s="59"/>
     </row>
-    <row r="8" spans="1:9" ht="14.3" thickBot="1">
+    <row r="8" spans="1:9" ht="13.8" thickBot="1">
       <c r="D8" s="57"/>
       <c r="E8" s="57"/>
       <c r="F8" s="60"/>
@@ -2507,10 +2504,10 @@
       <c r="H8" s="59"/>
     </row>
     <row r="9" spans="1:9" ht="26.7" customHeight="1">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="98" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="61" t="s">
@@ -2532,8 +2529,8 @@
       <c r="I9" s="44"/>
     </row>
     <row r="10" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A10" s="93"/>
-      <c r="B10" s="105"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="62" t="s">
         <v>47</v>
       </c>
@@ -2553,8 +2550,8 @@
       <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A11" s="93"/>
-      <c r="B11" s="105"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="46" t="s">
         <v>49</v>
       </c>
@@ -2574,8 +2571,8 @@
       <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A12" s="93"/>
-      <c r="B12" s="105"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="66" t="s">
         <v>50</v>
       </c>
@@ -2595,8 +2592,8 @@
       <c r="I12" s="68"/>
     </row>
     <row r="13" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A13" s="93"/>
-      <c r="B13" s="106"/>
+      <c r="A13" s="96"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="66" t="s">
         <v>52</v>
       </c>
@@ -2614,8 +2611,8 @@
       <c r="I13" s="68"/>
     </row>
     <row r="14" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A14" s="93"/>
-      <c r="B14" s="95" t="s">
+      <c r="A14" s="96"/>
+      <c r="B14" s="101" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="66" t="s">
@@ -2637,8 +2634,8 @@
       <c r="I14" s="68"/>
     </row>
     <row r="15" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A15" s="93"/>
-      <c r="B15" s="96"/>
+      <c r="A15" s="96"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="66" t="s">
         <v>55</v>
       </c>
@@ -2658,8 +2655,8 @@
       <c r="I15" s="68"/>
     </row>
     <row r="16" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A16" s="93"/>
-      <c r="B16" s="96"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="66" t="s">
         <v>57</v>
       </c>
@@ -2679,8 +2676,8 @@
       <c r="I16" s="68"/>
     </row>
     <row r="17" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A17" s="93"/>
-      <c r="B17" s="96"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="66" t="s">
         <v>59</v>
       </c>
@@ -2700,8 +2697,8 @@
       <c r="I17" s="68"/>
     </row>
     <row r="18" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A18" s="93"/>
-      <c r="B18" s="96"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="66" t="s">
         <v>60</v>
       </c>
@@ -2721,8 +2718,8 @@
       <c r="I18" s="68"/>
     </row>
     <row r="19" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A19" s="93"/>
-      <c r="B19" s="96"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="66" t="s">
         <v>61</v>
       </c>
@@ -2742,8 +2739,8 @@
       <c r="I19" s="68"/>
     </row>
     <row r="20" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A20" s="93"/>
-      <c r="B20" s="96"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="66" t="s">
         <v>62</v>
       </c>
@@ -2762,9 +2759,9 @@
       </c>
       <c r="I20" s="68"/>
     </row>
-    <row r="21" spans="1:9" ht="13.6" customHeight="1" thickBot="1">
-      <c r="A21" s="94"/>
-      <c r="B21" s="98"/>
+    <row r="21" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A21" s="97"/>
+      <c r="B21" s="103"/>
       <c r="C21" s="69" t="s">
         <v>63</v>
       </c>
@@ -2781,7 +2778,7 @@
       </c>
       <c r="I21" s="54"/>
     </row>
-    <row r="22" spans="1:9" ht="14.3" thickBot="1">
+    <row r="22" spans="1:9" ht="13.8" thickBot="1">
       <c r="D22" s="57" t="s">
         <v>43</v>
       </c>
@@ -2793,14 +2790,14 @@
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
     </row>
-    <row r="23" spans="1:9" ht="14.3" thickTop="1">
+    <row r="23" spans="1:9" ht="13.8" thickTop="1">
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
       <c r="F23" s="60"/>
       <c r="G23" s="59"/>
       <c r="H23" s="59"/>
     </row>
-    <row r="24" spans="1:9" ht="14.3" thickBot="1">
+    <row r="24" spans="1:9" ht="13.8" thickBot="1">
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
       <c r="F24" s="60"/>
@@ -2808,7 +2805,7 @@
       <c r="H24" s="59"/>
     </row>
     <row r="25" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A25" s="92" t="s">
+      <c r="A25" s="95" t="s">
         <v>64</v>
       </c>
       <c r="B25" s="40" t="s">
@@ -2831,7 +2828,7 @@
       <c r="I25" s="44"/>
     </row>
     <row r="26" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A26" s="93"/>
+      <c r="A26" s="96"/>
       <c r="B26" s="45" t="s">
         <v>67</v>
       </c>
@@ -2852,8 +2849,8 @@
       <c r="I26" s="49"/>
     </row>
     <row r="27" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A27" s="93"/>
-      <c r="B27" s="107" t="s">
+      <c r="A27" s="96"/>
+      <c r="B27" s="104" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="66" t="s">
@@ -2875,8 +2872,8 @@
       <c r="I27" s="68"/>
     </row>
     <row r="28" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A28" s="93"/>
-      <c r="B28" s="102"/>
+      <c r="A28" s="96"/>
+      <c r="B28" s="93"/>
       <c r="C28" s="66" t="s">
         <v>71</v>
       </c>
@@ -2896,8 +2893,8 @@
       <c r="I28" s="68"/>
     </row>
     <row r="29" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A29" s="93"/>
-      <c r="B29" s="108"/>
+      <c r="A29" s="96"/>
+      <c r="B29" s="105"/>
       <c r="C29" s="66" t="s">
         <v>73</v>
       </c>
@@ -2917,8 +2914,8 @@
       <c r="I29" s="68"/>
     </row>
     <row r="30" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A30" s="93"/>
-      <c r="B30" s="101" t="s">
+      <c r="A30" s="96"/>
+      <c r="B30" s="92" t="s">
         <v>128</v>
       </c>
       <c r="C30" s="73" t="s">
@@ -2940,8 +2937,8 @@
       <c r="I30" s="68"/>
     </row>
     <row r="31" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A31" s="93"/>
-      <c r="B31" s="102"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="93"/>
       <c r="C31" s="73" t="s">
         <v>121</v>
       </c>
@@ -2961,8 +2958,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A32" s="93"/>
-      <c r="B32" s="102"/>
+      <c r="A32" s="96"/>
+      <c r="B32" s="93"/>
       <c r="C32" s="73" t="s">
         <v>123</v>
       </c>
@@ -2984,8 +2981,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A33" s="93"/>
-      <c r="B33" s="102"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="93"/>
       <c r="C33" s="73" t="s">
         <v>124</v>
       </c>
@@ -3005,8 +3002,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A34" s="93"/>
-      <c r="B34" s="102"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="93"/>
       <c r="C34" s="73" t="s">
         <v>125</v>
       </c>
@@ -3026,8 +3023,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A35" s="93"/>
-      <c r="B35" s="102"/>
+      <c r="A35" s="96"/>
+      <c r="B35" s="93"/>
       <c r="C35" s="73" t="s">
         <v>126</v>
       </c>
@@ -3046,9 +3043,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="13.6" customHeight="1" thickBot="1">
-      <c r="A36" s="93"/>
-      <c r="B36" s="103"/>
+    <row r="36" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A36" s="96"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="76" t="s">
         <v>127</v>
       </c>
@@ -3065,7 +3062,7 @@
       </c>
       <c r="I36" s="54"/>
     </row>
-    <row r="37" spans="1:9" ht="14.3" thickBot="1">
+    <row r="37" spans="1:9" ht="13.8" thickBot="1">
       <c r="D37" s="57" t="s">
         <v>43</v>
       </c>
@@ -3077,14 +3074,14 @@
       <c r="G37" s="59"/>
       <c r="H37" s="59"/>
     </row>
-    <row r="38" spans="1:9" ht="14.3" thickTop="1">
+    <row r="38" spans="1:9" ht="13.8" thickTop="1">
       <c r="D38" s="57"/>
       <c r="E38" s="57"/>
       <c r="F38" s="60"/>
       <c r="G38" s="59"/>
       <c r="H38" s="59"/>
     </row>
-    <row r="39" spans="1:9" ht="14.3" thickBot="1">
+    <row r="39" spans="1:9" ht="13.8" thickBot="1">
       <c r="D39" s="57"/>
       <c r="E39" s="57"/>
       <c r="F39" s="60"/>
@@ -3092,7 +3089,7 @@
       <c r="H39" s="59"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="92" t="s">
+      <c r="A40" s="95" t="s">
         <v>75</v>
       </c>
       <c r="B40" s="40" t="s">
@@ -3113,8 +3110,8 @@
       <c r="I40" s="44"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="93"/>
-      <c r="B41" s="95" t="s">
+      <c r="A41" s="96"/>
+      <c r="B41" s="101" t="s">
         <v>78</v>
       </c>
       <c r="C41" s="72" t="s">
@@ -3134,8 +3131,8 @@
       <c r="I41" s="49"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="93"/>
-      <c r="B42" s="96"/>
+      <c r="A42" s="96"/>
+      <c r="B42" s="102"/>
       <c r="C42" s="66" t="s">
         <v>80</v>
       </c>
@@ -3153,8 +3150,8 @@
       <c r="I42" s="68"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="93"/>
-      <c r="B43" s="96"/>
+      <c r="A43" s="96"/>
+      <c r="B43" s="102"/>
       <c r="C43" s="66" t="s">
         <v>81</v>
       </c>
@@ -3172,8 +3169,8 @@
       <c r="I43" s="68"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="93"/>
-      <c r="B44" s="96"/>
+      <c r="A44" s="96"/>
+      <c r="B44" s="102"/>
       <c r="C44" s="66" t="s">
         <v>82</v>
       </c>
@@ -3191,8 +3188,8 @@
       <c r="I44" s="68"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="93"/>
-      <c r="B45" s="96"/>
+      <c r="A45" s="96"/>
+      <c r="B45" s="102"/>
       <c r="C45" s="66" t="s">
         <v>84</v>
       </c>
@@ -3210,8 +3207,8 @@
       <c r="I45" s="68"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="93"/>
-      <c r="B46" s="97"/>
+      <c r="A46" s="96"/>
+      <c r="B46" s="106"/>
       <c r="C46" s="66" t="s">
         <v>86</v>
       </c>
@@ -3229,8 +3226,8 @@
       <c r="I46" s="68"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="93"/>
-      <c r="B47" s="95" t="s">
+      <c r="A47" s="96"/>
+      <c r="B47" s="101" t="s">
         <v>88</v>
       </c>
       <c r="C47" s="66" t="s">
@@ -3253,8 +3250,8 @@
       <c r="I47" s="68"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="93"/>
-      <c r="B48" s="96"/>
+      <c r="A48" s="96"/>
+      <c r="B48" s="102"/>
       <c r="C48" s="73" t="s">
         <v>91</v>
       </c>
@@ -3275,8 +3272,8 @@
       <c r="I48" s="68"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="93"/>
-      <c r="B49" s="96"/>
+      <c r="A49" s="96"/>
+      <c r="B49" s="102"/>
       <c r="C49" s="66" t="s">
         <v>92</v>
       </c>
@@ -3297,8 +3294,8 @@
       <c r="I49" s="68"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="93"/>
-      <c r="B50" s="96"/>
+      <c r="A50" s="96"/>
+      <c r="B50" s="102"/>
       <c r="C50" s="73" t="s">
         <v>94</v>
       </c>
@@ -3308,7 +3305,7 @@
       <c r="E50" s="66"/>
       <c r="F50" s="67">
         <f>'March 2015'!T38</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G50" s="70">
         <v>42079</v>
@@ -3316,11 +3313,13 @@
       <c r="H50" s="48">
         <v>42083</v>
       </c>
-      <c r="I50" s="68"/>
+      <c r="I50" s="74" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="93"/>
-      <c r="B51" s="96"/>
+      <c r="A51" s="96"/>
+      <c r="B51" s="102"/>
       <c r="C51" s="73" t="s">
         <v>95</v>
       </c>
@@ -3340,10 +3339,10 @@
       </c>
       <c r="I51" s="68"/>
     </row>
-    <row r="52" spans="1:9" ht="13.6" thickBot="1">
-      <c r="A52" s="94"/>
-      <c r="B52" s="98"/>
-      <c r="C52" s="51" t="s">
+    <row r="52" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A52" s="97"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="76" t="s">
         <v>97</v>
       </c>
       <c r="D52" s="51" t="s">
@@ -3352,7 +3351,7 @@
       <c r="E52" s="51"/>
       <c r="F52" s="67">
         <f>'March 2015'!T40</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G52" s="53">
         <v>42079</v>
@@ -3362,23 +3361,23 @@
       </c>
       <c r="I52" s="54"/>
     </row>
-    <row r="53" spans="1:9" ht="14.3" thickBot="1">
+    <row r="53" spans="1:9" ht="13.8" thickBot="1">
       <c r="D53" s="57" t="s">
         <v>43</v>
       </c>
       <c r="E53" s="57"/>
       <c r="F53" s="58">
         <f>SUM(F40:F52)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="13.6" thickTop="1"/>
-    <row r="55" spans="1:9" ht="13.6" thickBot="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="13.8" thickTop="1"/>
+    <row r="55" spans="1:9" ht="13.8" thickBot="1"/>
     <row r="56" spans="1:9">
-      <c r="A56" s="92" t="s">
+      <c r="A56" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="99" t="s">
+      <c r="B56" s="107" t="s">
         <v>137</v>
       </c>
       <c r="C56" s="41" t="s">
@@ -3400,8 +3399,8 @@
       <c r="I56" s="44"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="93"/>
-      <c r="B57" s="100"/>
+      <c r="A57" s="96"/>
+      <c r="B57" s="108"/>
       <c r="C57" s="62" t="s">
         <v>101</v>
       </c>
@@ -3421,8 +3420,8 @@
       <c r="I57" s="65"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="93"/>
-      <c r="B58" s="95" t="s">
+      <c r="A58" s="96"/>
+      <c r="B58" s="101" t="s">
         <v>139</v>
       </c>
       <c r="C58" s="46" t="s">
@@ -3444,8 +3443,8 @@
       <c r="I58" s="49"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="93"/>
-      <c r="B59" s="96"/>
+      <c r="A59" s="96"/>
+      <c r="B59" s="102"/>
       <c r="C59" s="66" t="s">
         <v>104</v>
       </c>
@@ -3465,8 +3464,8 @@
       <c r="I59" s="68"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="93"/>
-      <c r="B60" s="96"/>
+      <c r="A60" s="96"/>
+      <c r="B60" s="102"/>
       <c r="C60" s="66" t="s">
         <v>106</v>
       </c>
@@ -3486,8 +3485,8 @@
       <c r="I60" s="68"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="93"/>
-      <c r="B61" s="97"/>
+      <c r="A61" s="96"/>
+      <c r="B61" s="106"/>
       <c r="C61" s="66" t="s">
         <v>108</v>
       </c>
@@ -3507,7 +3506,7 @@
       <c r="I61" s="68"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="93"/>
+      <c r="A62" s="96"/>
       <c r="B62" s="45" t="s">
         <v>141</v>
       </c>
@@ -3528,8 +3527,8 @@
       <c r="I62" s="68"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="93"/>
-      <c r="B63" s="95" t="s">
+      <c r="A63" s="96"/>
+      <c r="B63" s="101" t="s">
         <v>143</v>
       </c>
       <c r="C63" s="66" t="s">
@@ -3551,8 +3550,8 @@
       <c r="I63" s="68"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="93"/>
-      <c r="B64" s="96"/>
+      <c r="A64" s="96"/>
+      <c r="B64" s="102"/>
       <c r="C64" s="66" t="s">
         <v>112</v>
       </c>
@@ -3572,8 +3571,8 @@
       <c r="I64" s="68"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="93"/>
-      <c r="B65" s="96"/>
+      <c r="A65" s="96"/>
+      <c r="B65" s="102"/>
       <c r="C65" s="66" t="s">
         <v>113</v>
       </c>
@@ -3593,8 +3592,8 @@
       <c r="I65" s="68"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="93"/>
-      <c r="B66" s="97"/>
+      <c r="A66" s="96"/>
+      <c r="B66" s="106"/>
       <c r="C66" s="66" t="s">
         <v>114</v>
       </c>
@@ -3614,7 +3613,7 @@
       <c r="I66" s="74"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="93"/>
+      <c r="A67" s="96"/>
       <c r="B67" s="45" t="s">
         <v>145</v>
       </c>
@@ -3636,9 +3635,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="13.6" thickBot="1">
-      <c r="A68" s="94"/>
-      <c r="B68" s="95" t="s">
+    <row r="68" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A68" s="97"/>
+      <c r="B68" s="101" t="s">
         <v>146</v>
       </c>
       <c r="C68" s="45" t="s">
@@ -3658,7 +3657,7 @@
       <c r="I68" s="74"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="B69" s="96"/>
+      <c r="B69" s="102"/>
       <c r="C69" s="45" t="s">
         <v>148</v>
       </c>
@@ -3676,7 +3675,7 @@
       <c r="I69" s="74"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="B70" s="96"/>
+      <c r="B70" s="102"/>
       <c r="C70" s="45" t="s">
         <v>151</v>
       </c>
@@ -3694,7 +3693,7 @@
       <c r="I70" s="74"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="B71" s="96"/>
+      <c r="B71" s="102"/>
       <c r="C71" s="45" t="s">
         <v>149</v>
       </c>
@@ -3712,7 +3711,7 @@
       <c r="I71" s="74"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="B72" s="96"/>
+      <c r="B72" s="102"/>
       <c r="C72" s="45" t="s">
         <v>152</v>
       </c>
@@ -3729,8 +3728,8 @@
       </c>
       <c r="I72" s="74"/>
     </row>
-    <row r="73" spans="1:9" ht="13.6" thickBot="1">
-      <c r="B73" s="98"/>
+    <row r="73" spans="1:9" ht="13.8" thickBot="1">
+      <c r="B73" s="103"/>
       <c r="C73" s="79" t="s">
         <v>150</v>
       </c>
@@ -3747,7 +3746,7 @@
       </c>
       <c r="I73" s="82"/>
     </row>
-    <row r="74" spans="1:9" ht="14.3" thickBot="1">
+    <row r="74" spans="1:9" ht="13.8" thickBot="1">
       <c r="D74" s="57" t="s">
         <v>43</v>
       </c>
@@ -3757,16 +3756,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="13.6" thickTop="1"/>
+    <row r="75" spans="1:9" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="A25:A36"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="A40:A52"/>
     <mergeCell ref="B41:B46"/>
     <mergeCell ref="B47:B52"/>
@@ -3775,6 +3767,13 @@
     <mergeCell ref="B58:B61"/>
     <mergeCell ref="B63:B66"/>
     <mergeCell ref="B68:B73"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="A25:A36"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3783,29 +3782,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="4.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="25" customWidth="1"/>
-    <col min="5" max="18" width="4.375" style="25" customWidth="1"/>
-    <col min="19" max="19" width="2.875" style="25" customWidth="1"/>
-    <col min="20" max="20" width="7.125" style="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.125" style="25"/>
+    <col min="1" max="1" width="8.109375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.88671875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="25" customWidth="1"/>
+    <col min="5" max="18" width="4.33203125" style="25" customWidth="1"/>
+    <col min="19" max="19" width="2.88671875" style="25" customWidth="1"/>
+    <col min="20" max="20" width="7.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.65">
+    <row r="1" spans="1:20" ht="15.6">
       <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
@@ -3813,7 +3812,7 @@
     <row r="2" spans="1:20" ht="7.5" customHeight="1">
       <c r="A2" s="26"/>
     </row>
-    <row r="3" spans="1:20" ht="13.6">
+    <row r="3" spans="1:20">
       <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
@@ -3822,21 +3821,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="13.6">
+    <row r="4" spans="1:20">
       <c r="A4" s="26"/>
       <c r="B4" s="23"/>
       <c r="C4" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="13.6">
+    <row r="5" spans="1:20">
       <c r="A5" s="26"/>
       <c r="B5" s="29"/>
       <c r="C5" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="13.6">
+    <row r="6" spans="1:20">
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
@@ -3887,12 +3886,12 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="7.5" customHeight="1"/>
-    <row r="8" spans="1:20" ht="13.6">
+    <row r="8" spans="1:20">
       <c r="A8" s="26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="14.3" thickBot="1">
+    <row r="9" spans="1:20" ht="13.8" thickBot="1">
       <c r="B9" s="21" t="s">
         <v>10</v>
       </c>
@@ -4227,12 +4226,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="13.6">
+    <row r="22" spans="1:20">
       <c r="A22" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="13.6">
+    <row r="23" spans="1:20">
       <c r="B23" s="21" t="s">
         <v>10</v>
       </c>
@@ -4476,12 +4475,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="13.6">
+    <row r="33" spans="1:20">
       <c r="A33" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="13.6">
+    <row r="34" spans="1:20">
       <c r="B34" s="21" t="s">
         <v>10</v>
       </c>
@@ -4590,7 +4589,9 @@
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
+      <c r="J38" s="85">
+        <v>8</v>
+      </c>
       <c r="K38" s="27"/>
       <c r="L38" s="27"/>
       <c r="M38" s="27"/>
@@ -4601,7 +4602,7 @@
       <c r="R38" s="27"/>
       <c r="T38" s="4">
         <f>SUM(E38:R38)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -4633,87 +4634,108 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="13.6">
-      <c r="A41" s="26" t="s">
+    <row r="40" spans="1:20" s="83" customFormat="1">
+      <c r="B40" s="86">
+        <v>5</v>
+      </c>
+      <c r="C40" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="85">
+        <v>8</v>
+      </c>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87"/>
+      <c r="R40" s="87"/>
+      <c r="T40" s="84">
+        <f t="shared" ref="T40" si="3">SUM(E40:R40)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" s="83" customFormat="1">
+      <c r="B41" s="86">
+        <v>6</v>
+      </c>
+      <c r="C41" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="87"/>
+      <c r="Q41" s="87"/>
+      <c r="R41" s="87"/>
+      <c r="T41" s="84">
+        <f t="shared" ref="T41" si="4">SUM(E41:R41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" s="83" customFormat="1">
+      <c r="B42" s="30"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="T42" s="31"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="13.6">
-      <c r="B42" s="21" t="s">
+    <row r="44" spans="1:20">
+      <c r="B44" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
-      <c r="B43" s="22">
+    <row r="45" spans="1:20">
+      <c r="B45" s="22">
         <v>1</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C45" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="20">
+      <c r="D45" s="27"/>
+      <c r="E45" s="20">
         <v>8</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F45" s="20">
         <v>8</v>
       </c>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="T43" s="4">
-        <f>SUM(E43:R43)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="B44" s="86">
-        <v>2</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="20">
-        <v>8</v>
-      </c>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
-      <c r="T44" s="4">
-        <f t="shared" ref="T44:T49" si="3">SUM(E44:R44)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="B45" s="86">
-        <v>3</v>
-      </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
@@ -4727,84 +4749,80 @@
       <c r="Q45" s="27"/>
       <c r="R45" s="27"/>
       <c r="T45" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(E45:R45)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="B46" s="86">
+        <v>2</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="20">
+        <v>8</v>
+      </c>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="T46" s="4">
+        <f t="shared" ref="T46:T51" si="5">SUM(E46:R46)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="B47" s="86">
+        <v>3</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="T47" s="4">
+        <f t="shared" si="5"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" s="83" customFormat="1">
-      <c r="B46" s="86">
-        <v>4</v>
-      </c>
-      <c r="C46" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" s="87"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="85">
-        <v>8</v>
-      </c>
-      <c r="J46" s="87"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="87"/>
-      <c r="M46" s="87"/>
-      <c r="N46" s="87"/>
-      <c r="O46" s="87"/>
-      <c r="P46" s="87"/>
-      <c r="Q46" s="87"/>
-      <c r="R46" s="87"/>
-      <c r="T46" s="84">
-        <f t="shared" ref="T46:T47" si="4">SUM(E46:R46)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" s="83" customFormat="1">
-      <c r="B47" s="86">
-        <v>5</v>
-      </c>
-      <c r="C47" s="77">
-        <v>6.1</v>
-      </c>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="85">
-        <v>2</v>
-      </c>
-      <c r="K47" s="87"/>
-      <c r="L47" s="87"/>
-      <c r="M47" s="87"/>
-      <c r="N47" s="87"/>
-      <c r="O47" s="87"/>
-      <c r="P47" s="87"/>
-      <c r="Q47" s="87"/>
-      <c r="R47" s="87"/>
-      <c r="T47" s="84">
-        <f t="shared" si="4"/>
-        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="83" customFormat="1">
       <c r="B48" s="86">
-        <v>6</v>
-      </c>
-      <c r="C48" s="77">
-        <v>6.1</v>
+        <v>4</v>
+      </c>
+      <c r="C48" s="87" t="s">
+        <v>145</v>
       </c>
       <c r="D48" s="87"/>
       <c r="E48" s="87"/>
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="87"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="85">
-        <v>2</v>
-      </c>
+      <c r="I48" s="85">
+        <v>8</v>
+      </c>
+      <c r="J48" s="87"/>
       <c r="K48" s="87"/>
       <c r="L48" s="87"/>
       <c r="M48" s="87"/>
@@ -4814,279 +4832,337 @@
       <c r="Q48" s="87"/>
       <c r="R48" s="87"/>
       <c r="T48" s="84">
-        <f t="shared" ref="T48" si="5">SUM(E48:R48)</f>
+        <f t="shared" ref="T48:T49" si="6">SUM(E48:R48)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" s="83" customFormat="1">
+      <c r="B49" s="86">
+        <v>5</v>
+      </c>
+      <c r="C49" s="77">
+        <v>6.1</v>
+      </c>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="87"/>
+      <c r="J49" s="85">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:20">
-      <c r="B49" s="86">
+      <c r="K49" s="87"/>
+      <c r="L49" s="87"/>
+      <c r="M49" s="87"/>
+      <c r="N49" s="87"/>
+      <c r="O49" s="87"/>
+      <c r="P49" s="87"/>
+      <c r="Q49" s="87"/>
+      <c r="R49" s="87"/>
+      <c r="T49" s="84">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" s="83" customFormat="1">
+      <c r="B50" s="86">
+        <v>6</v>
+      </c>
+      <c r="C50" s="77">
+        <v>6.1</v>
+      </c>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="85">
+        <v>2</v>
+      </c>
+      <c r="K50" s="87"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="87"/>
+      <c r="N50" s="87"/>
+      <c r="O50" s="87"/>
+      <c r="P50" s="87"/>
+      <c r="Q50" s="87"/>
+      <c r="R50" s="87"/>
+      <c r="T50" s="84">
+        <f t="shared" ref="T50" si="7">SUM(E50:R50)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="B51" s="86">
         <v>7</v>
       </c>
-      <c r="C49" s="77">
+      <c r="C51" s="77">
         <v>6.3</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="20">
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="20">
         <v>4</v>
       </c>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="27"/>
-      <c r="T49" s="4">
-        <f t="shared" si="3"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="T51" s="4">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="13.6">
-      <c r="A51" s="26" t="s">
+    <row r="53" spans="1:20">
+      <c r="A53" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="13.6">
-      <c r="B52" s="21" t="s">
+    <row r="54" spans="1:20">
+      <c r="B54" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
-      <c r="B53" s="22">
+    <row r="55" spans="1:20">
+      <c r="B55" s="22">
         <v>1</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C55" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="20">
+      <c r="D55" s="27"/>
+      <c r="E55" s="20">
         <v>8</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F55" s="20">
         <v>8</v>
       </c>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="T53" s="4">
-        <f t="shared" ref="T53:T57" si="6">SUM(E53:R53)</f>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27"/>
+      <c r="T55" s="4">
+        <f t="shared" ref="T55:T59" si="8">SUM(E55:R55)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
-      <c r="B54" s="86">
+    <row r="56" spans="1:20">
+      <c r="B56" s="86">
         <v>2</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C56" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="20">
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="20">
         <v>8</v>
       </c>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="87"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="T54" s="4">
-        <f t="shared" si="6"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="87"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="27"/>
+      <c r="T56" s="4">
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="83" customFormat="1">
-      <c r="B55" s="86">
+    <row r="57" spans="1:20" s="83" customFormat="1">
+      <c r="B57" s="86">
         <v>3</v>
       </c>
-      <c r="C55" s="77">
+      <c r="C57" s="77">
         <v>6.4</v>
       </c>
-      <c r="D55" s="87"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="87"/>
-      <c r="G55" s="87"/>
-      <c r="H55" s="87"/>
-      <c r="I55" s="87"/>
-      <c r="J55" s="85">
+      <c r="D57" s="87"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="87"/>
+      <c r="H57" s="87"/>
+      <c r="I57" s="87"/>
+      <c r="J57" s="85">
         <v>2</v>
       </c>
-      <c r="K55" s="87"/>
-      <c r="L55" s="87"/>
-      <c r="M55" s="87"/>
-      <c r="N55" s="87"/>
-      <c r="O55" s="87"/>
-      <c r="P55" s="87"/>
-      <c r="Q55" s="87"/>
-      <c r="R55" s="87"/>
-      <c r="T55" s="84"/>
-    </row>
-    <row r="56" spans="1:20" s="83" customFormat="1">
-      <c r="B56" s="86">
+      <c r="K57" s="87"/>
+      <c r="L57" s="87"/>
+      <c r="M57" s="87"/>
+      <c r="N57" s="87"/>
+      <c r="O57" s="87"/>
+      <c r="P57" s="87"/>
+      <c r="Q57" s="87"/>
+      <c r="R57" s="87"/>
+      <c r="T57" s="84"/>
+    </row>
+    <row r="58" spans="1:20" s="83" customFormat="1">
+      <c r="B58" s="86">
         <v>4</v>
       </c>
-      <c r="C56" s="77">
+      <c r="C58" s="77">
         <v>6.5</v>
       </c>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="85">
+      <c r="D58" s="87"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="87"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="87"/>
+      <c r="J58" s="85">
         <v>3</v>
       </c>
-      <c r="K56" s="87"/>
-      <c r="L56" s="87"/>
-      <c r="M56" s="87"/>
-      <c r="N56" s="87"/>
-      <c r="O56" s="87"/>
-      <c r="P56" s="87"/>
-      <c r="Q56" s="87"/>
-      <c r="R56" s="87"/>
-      <c r="T56" s="84"/>
-    </row>
-    <row r="57" spans="1:20">
-      <c r="B57" s="86">
+      <c r="K58" s="87"/>
+      <c r="L58" s="87"/>
+      <c r="M58" s="87"/>
+      <c r="N58" s="87"/>
+      <c r="O58" s="87"/>
+      <c r="P58" s="87"/>
+      <c r="Q58" s="87"/>
+      <c r="R58" s="87"/>
+      <c r="T58" s="84"/>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="B59" s="86">
         <v>5</v>
       </c>
-      <c r="C57" s="77">
+      <c r="C59" s="77">
         <v>6.6</v>
       </c>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="85">
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="85">
         <v>3</v>
       </c>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="27"/>
-      <c r="T57" s="4">
-        <f t="shared" si="6"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="27"/>
+      <c r="T59" s="4">
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
-      <c r="B58" s="30"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="31"/>
-      <c r="T58" s="31"/>
-    </row>
-    <row r="59" spans="1:20" ht="16.3" thickBot="1">
-      <c r="C59" s="1" t="s">
+    <row r="60" spans="1:20">
+      <c r="B60" s="30"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31"/>
+      <c r="T60" s="31"/>
+    </row>
+    <row r="61" spans="1:20" ht="16.2" thickBot="1">
+      <c r="C61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="24">
-        <f t="shared" ref="E59:P59" si="7">SUM(E8:E57)</f>
+      <c r="E61" s="24">
+        <f t="shared" ref="E61:P61" si="9">SUM(E8:E59)</f>
         <v>40</v>
       </c>
-      <c r="F59" s="24">
-        <f t="shared" si="7"/>
+      <c r="F61" s="24">
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
-      <c r="G59" s="24">
-        <f t="shared" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="H59" s="24">
-        <f t="shared" si="7"/>
+      <c r="G61" s="24">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="H61" s="24">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="I59" s="24">
-        <f t="shared" si="7"/>
+      <c r="I61" s="24">
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-      <c r="J59" s="24">
-        <f t="shared" si="7"/>
-        <v>36</v>
-      </c>
-      <c r="K59" s="24">
-        <f t="shared" si="7"/>
+      <c r="J61" s="24">
+        <f t="shared" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="K61" s="24">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L59" s="24">
-        <f t="shared" si="7"/>
+      <c r="L61" s="24">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M59" s="24">
-        <f t="shared" si="7"/>
+      <c r="M61" s="24">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N59" s="24">
-        <f t="shared" si="7"/>
+      <c r="N61" s="24">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O59" s="24">
-        <f t="shared" si="7"/>
+      <c r="O61" s="24">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P59" s="24">
-        <f t="shared" si="7"/>
+      <c r="P61" s="24">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q59" s="24">
-        <f>SUM(Q8:Q57)</f>
+      <c r="Q61" s="24">
+        <f>SUM(Q8:Q59)</f>
         <v>0</v>
       </c>
-      <c r="R59" s="24">
-        <f>SUM(R8:R57)</f>
+      <c r="R61" s="24">
+        <f>SUM(R8:R59)</f>
         <v>0</v>
       </c>
-      <c r="T59" s="28">
-        <f>SUM(G59:R59)</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="13.6" thickTop="1"/>
+      <c r="T61" s="28">
+        <f>SUM(G61:R61)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="13.8" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Listing_Tool_Status_Report_v1.0.xlsx
+++ b/docs/Listing_Tool_Status_Report_v1.0.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5352" yWindow="-372" windowWidth="16608" windowHeight="9432" activeTab="1"/>
+    <workbookView xWindow="5352" yWindow="-372" windowWidth="16608" windowHeight="9432" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="WBS" sheetId="5" r:id="rId2"/>
     <sheet name="March 2015" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="166">
   <si>
     <t>Project Name:</t>
   </si>
@@ -111,11 +111,11 @@
       </rPr>
       <t>(March 20 ~ March 31)</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>March</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -148,7 +148,7 @@
       </rPr>
       <t>Tik Sun</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -181,31 +181,31 @@
       </rPr>
       <t>Wolf Yan</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Listing Tool</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Record time spent on all activities for Listing Tool</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Tik Sun</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Wolf Yan</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>James Chen</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Devin Yang</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -238,7 +238,7 @@
       </rPr>
       <t>James Chen</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -271,7 +271,7 @@
       </rPr>
       <t>Devin Yang</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Module</t>
@@ -287,343 +287,343 @@
   </si>
   <si>
     <t>Propority</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Effort (hours)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Start Date</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>End Date</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Comments</t>
   </si>
   <si>
     <t>Google AdWords API Access Application</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1. Prepare project design doc</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Cloud</t>
   </si>
   <si>
     <t>2. Prepare for additional submit form</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3. Contact with consult for further feedback</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>SubTotal</t>
   </si>
   <si>
     <t>eBay Item Target &amp; Tracking</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1. Setup Interface for eBay Shopping Interface</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1.1 Update eBay service interface to be compatible with eBay shopping API</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1.2 Create eBay shopping API</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Cloud</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1.3 Create function for GetMultipleItems </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1.4 Create EAV model for eBay GetMultipleItems result</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Cloud</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1.5 Unit Test</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2. Target &amp; Tracking</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2.1 User Interface to create Target &amp; Tracking</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2.2 User Interface to List Target &amp; Tracking</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Cloud</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2.3 user Interface to update Target &amp; Tracking</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Cloud</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2.4 Miscellaneous user interface develop</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2.5 Schedule job to tracking items</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2.6 Schedule job to revise items if eligible</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2.7 Give feedback notification if any action executed</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2.8 Unit Test</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Google AdWords API Demostration</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1. Create sub MCC acount</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Tik</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2. Create sub client account</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Tik</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3. Create demo Ads</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3.1 Create demo Ad campaign</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3.2 Create demo Ad group</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Tik</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3.3 Create demo Ad criteria</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Tik</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>PayPal API Implementation</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1. PayPal API Interface</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>James</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2. Implement PayPal API Function</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2.1 PayPal API to initial payment</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2.2 PayPal API to confirm payment</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2.3 PayPal API to retrieve detail information of a transaction</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2.4 PayPal API to get account status, including balance</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>James</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2.5 PayPal API to make transfer</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>James</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2.6 Unit Test</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>James</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3. Transaction User Interface</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3.1 User interface to initial payment</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>James</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3.2 User interface to show transaction result</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3.3 User Interface to show transaction detail</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>James</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3.4 User interface to list transaction history, with search function</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3.5 User interface to apply withdraw</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>James</t>
   </si>
   <si>
     <t>3.6 Unit Test</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Webiste Basic Function Reconstruct</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1.1 SSO research</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Wolf, Devin</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1.2 Log in &amp; out based on cookies</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Wolf, Devin</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2.1 Synch CSS style from PHP site</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2.2 Setup website structure</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Wolf, Devin</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2.3 Setup website page layout</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Wolf, Devin</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2.4 Localization &amp; international</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Wolf, Devin</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>4.1 Company object update &amp; view</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Wolf, Devin</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>4.2 User object CRUD</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>4.3 Department object CRUD</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>4.4 Notification object CRUD</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Low</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3.4 User interface to list transaction history, with search function</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3.5 User interface to apply withdraw</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>研究中</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>4.1  Identify your business type</t>
@@ -681,43 +681,43 @@
   </si>
   <si>
     <t>1. SSO Login</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>SSO Login</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2. Website layout &amp; structure copy</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2. Website layout &amp; structure copy</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3. Log in &amp; out function</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3. Log in &amp; out function</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>4. Basic object CRUD &amp; interface</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>4. Basic object CRUD &amp; interface</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>5. Wish.com API Research</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>6. SSO Front And Backend</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -790,7 +790,7 @@
       </rPr>
       <t>文件的依赖关系</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -844,7 +844,7 @@
       </rPr>
       <t>部署、集成本地登录登出功能</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -860,7 +860,7 @@
       </rPr>
       <t>、后台页面模板建设</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -876,7 +876,7 @@
       </rPr>
       <t>、页面国际化</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -920,7 +920,7 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -952,33 +952,240 @@
       </rPr>
       <t>、配置Notification</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Wolf, Devin</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Wolf</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Wolf, Devin</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>此功能包含，页面条件查询的结合，还有数据库的二次设计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、创建开发者账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、创建广告客户账号并且关联，验证域名绑定校验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>api</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口源码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sdk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并且阅读</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wolf</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devin</t>
+  </si>
+  <si>
+    <r>
+      <t>7.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">jquery.validate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证表单加入框架</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、国际化页面文字，加入数据库不存在的翻译文字，整理脚本</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、准备分页</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.调研google-api ，截取google-ui 界面，为后续工项目界面集成做准备                              and                                                  验证框架、翻译脚本</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1062,13 +1269,6 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF7030A0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -1133,7 +1333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1246,15 +1446,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color theme="3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="3"/>
       </left>
@@ -1488,6 +1679,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="3"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="medium">
+        <color theme="3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1501,11 +1740,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1540,11 +1776,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1570,19 +1804,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1594,27 +1828,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1624,40 +1858,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1669,34 +1903,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1706,10 +1940,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1718,56 +1952,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1790,7 +2048,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1864,6 +2122,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1898,6 +2157,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2073,7 +2333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2090,1283 +2350,1283 @@
   <sheetData>
     <row r="1" spans="2:10" ht="13.8" thickBot="1"/>
     <row r="2" spans="2:10">
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="2:10" ht="31.8">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="8"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="8"/>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="8"/>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="8"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="8"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>1</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="8"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="15">
+      <c r="B9" s="7"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="14">
         <v>2</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="8"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="15">
+      <c r="B10" s="7"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="14">
         <v>3</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="8"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="15">
+      <c r="B11" s="7"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="14">
         <v>4</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="8"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="15">
+      <c r="B12" s="7"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="14">
         <v>5</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="8"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="8"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="8"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="8"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="8"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="8"/>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="32">
+      <c r="D18" s="11"/>
+      <c r="E18" s="29">
         <v>42083</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="8"/>
-      <c r="C19" s="14" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="16" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="8"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="2:10" ht="13.8" thickBot="1">
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="39" style="55" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" style="56" customWidth="1"/>
-    <col min="3" max="3" width="54.109375" style="55" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="55" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="71" customWidth="1"/>
-    <col min="7" max="8" width="11.6640625" style="55" customWidth="1"/>
-    <col min="9" max="9" width="38.44140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="36"/>
+    <col min="1" max="1" width="39" style="52" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" style="53" customWidth="1"/>
+    <col min="3" max="3" width="54.109375" style="52" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="52" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="68" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" style="52" customWidth="1"/>
+    <col min="9" max="9" width="38.44140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43">
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40">
         <v>42083</v>
       </c>
-      <c r="H3" s="43">
+      <c r="H3" s="40">
         <v>42083</v>
       </c>
-      <c r="I3" s="44"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A4" s="96"/>
-      <c r="B4" s="45" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48">
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45">
         <v>42083</v>
       </c>
-      <c r="H4" s="48">
+      <c r="H4" s="45">
         <v>42083</v>
       </c>
-      <c r="I4" s="49"/>
+      <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A5" s="97"/>
-      <c r="B5" s="50" t="s">
+      <c r="A5" s="92"/>
+      <c r="B5" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="53">
+      <c r="E5" s="48"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="50">
         <v>42084</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="54"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="51"/>
     </row>
     <row r="6" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58">
+      <c r="E6" s="54"/>
+      <c r="F6" s="55">
         <f>SUM(F3:F5)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
     </row>
     <row r="7" spans="1:9" ht="13.8" thickTop="1">
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
     </row>
     <row r="8" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
     </row>
     <row r="9" spans="1:9" ht="26.7" customHeight="1">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42">
+      <c r="E9" s="38"/>
+      <c r="F9" s="39">
         <v>2</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="40">
         <v>42081</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="40">
         <v>42083</v>
       </c>
-      <c r="I9" s="44"/>
+      <c r="I9" s="41"/>
     </row>
     <row r="10" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A10" s="96"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="62" t="s">
+      <c r="A10" s="91"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63">
+      <c r="E10" s="59"/>
+      <c r="F10" s="60">
         <v>3</v>
       </c>
-      <c r="G10" s="64">
+      <c r="G10" s="61">
         <v>42081</v>
       </c>
-      <c r="H10" s="64">
+      <c r="H10" s="61">
         <v>42083</v>
       </c>
-      <c r="I10" s="65"/>
+      <c r="I10" s="62"/>
     </row>
     <row r="11" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A11" s="96"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="46" t="s">
+      <c r="A11" s="91"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47">
+      <c r="E11" s="43"/>
+      <c r="F11" s="44">
         <v>5</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="45">
         <v>42081</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="45">
         <v>42083</v>
       </c>
-      <c r="I11" s="49"/>
+      <c r="I11" s="46"/>
     </row>
     <row r="12" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A12" s="96"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="66" t="s">
+      <c r="A12" s="91"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="67">
+      <c r="E12" s="63"/>
+      <c r="F12" s="64">
         <v>8</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="45">
         <v>42081</v>
       </c>
-      <c r="H12" s="48">
+      <c r="H12" s="45">
         <v>42083</v>
       </c>
-      <c r="I12" s="68"/>
+      <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A13" s="96"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="66" t="s">
+      <c r="A13" s="91"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="48">
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="45">
         <v>42081</v>
       </c>
-      <c r="H13" s="48">
+      <c r="H13" s="45">
         <v>42083</v>
       </c>
-      <c r="I13" s="68"/>
+      <c r="I13" s="65"/>
     </row>
     <row r="14" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A14" s="96"/>
-      <c r="B14" s="101" t="s">
+      <c r="A14" s="91"/>
+      <c r="B14" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="67">
+      <c r="E14" s="63"/>
+      <c r="F14" s="64">
         <v>11</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="45">
         <v>42082</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="45">
         <v>42083</v>
       </c>
-      <c r="I14" s="68"/>
+      <c r="I14" s="65"/>
     </row>
     <row r="15" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A15" s="96"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="66" t="s">
+      <c r="A15" s="91"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="67">
+      <c r="E15" s="63"/>
+      <c r="F15" s="64">
         <v>4</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="45">
         <v>42082</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="45">
         <v>42083</v>
       </c>
-      <c r="I15" s="68"/>
+      <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A16" s="96"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="66" t="s">
+      <c r="A16" s="91"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="67">
+      <c r="E16" s="63"/>
+      <c r="F16" s="64">
         <v>11</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="45">
         <v>42082</v>
       </c>
-      <c r="H16" s="48">
+      <c r="H16" s="45">
         <v>42083</v>
       </c>
-      <c r="I16" s="68"/>
+      <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A17" s="96"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="66" t="s">
+      <c r="A17" s="91"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="66"/>
-      <c r="F17" s="67">
+      <c r="E17" s="63"/>
+      <c r="F17" s="64">
         <v>4</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="45">
         <v>42082</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="45">
         <v>42083</v>
       </c>
-      <c r="I17" s="68"/>
+      <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A18" s="96"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="66" t="s">
+      <c r="A18" s="91"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="66"/>
-      <c r="F18" s="67">
+      <c r="E18" s="63"/>
+      <c r="F18" s="64">
         <v>2</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="45">
         <v>42082</v>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="45">
         <v>42083</v>
       </c>
-      <c r="I18" s="68"/>
+      <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A19" s="96"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="66" t="s">
+      <c r="A19" s="91"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67">
+      <c r="E19" s="63"/>
+      <c r="F19" s="64">
         <v>5</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="45">
         <v>42082</v>
       </c>
-      <c r="H19" s="48">
+      <c r="H19" s="45">
         <v>42083</v>
       </c>
-      <c r="I19" s="68"/>
+      <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A20" s="96"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="66" t="s">
+      <c r="A20" s="91"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67">
+      <c r="E20" s="63"/>
+      <c r="F20" s="64">
         <v>2</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="45">
         <v>42082</v>
       </c>
-      <c r="H20" s="48">
+      <c r="H20" s="45">
         <v>42083</v>
       </c>
-      <c r="I20" s="68"/>
+      <c r="I20" s="65"/>
     </row>
     <row r="21" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A21" s="97"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="69" t="s">
+      <c r="A21" s="92"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53">
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50">
         <v>42082</v>
       </c>
-      <c r="H21" s="53">
+      <c r="H21" s="50">
         <v>42083</v>
       </c>
-      <c r="I21" s="54"/>
+      <c r="I21" s="51"/>
     </row>
     <row r="22" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58">
+      <c r="E22" s="54"/>
+      <c r="F22" s="55">
         <f>SUM(F9:F21)</f>
         <v>57</v>
       </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
     </row>
     <row r="23" spans="1:9" ht="13.8" thickTop="1">
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
     </row>
     <row r="24" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
     </row>
     <row r="25" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A25" s="95" t="s">
+      <c r="A25" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41" t="s">
+      <c r="C25" s="38"/>
+      <c r="D25" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42">
+      <c r="E25" s="38"/>
+      <c r="F25" s="39">
         <v>4</v>
       </c>
-      <c r="G25" s="43">
+      <c r="G25" s="40">
         <v>42080</v>
       </c>
-      <c r="H25" s="43">
+      <c r="H25" s="40">
         <v>42083</v>
       </c>
-      <c r="I25" s="44"/>
+      <c r="I25" s="41"/>
     </row>
     <row r="26" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A26" s="96"/>
-      <c r="B26" s="45" t="s">
+      <c r="A26" s="91"/>
+      <c r="B26" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46" t="s">
+      <c r="C26" s="43"/>
+      <c r="D26" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47">
+      <c r="E26" s="43"/>
+      <c r="F26" s="44">
         <v>4</v>
       </c>
-      <c r="G26" s="70">
+      <c r="G26" s="67">
         <v>42080</v>
       </c>
-      <c r="H26" s="48">
+      <c r="H26" s="45">
         <v>42083</v>
       </c>
-      <c r="I26" s="49"/>
+      <c r="I26" s="46"/>
     </row>
     <row r="27" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A27" s="96"/>
-      <c r="B27" s="104" t="s">
+      <c r="A27" s="91"/>
+      <c r="B27" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="67">
+      <c r="E27" s="63"/>
+      <c r="F27" s="64">
         <v>2</v>
       </c>
-      <c r="G27" s="70">
+      <c r="G27" s="67">
         <v>42080</v>
       </c>
-      <c r="H27" s="48">
+      <c r="H27" s="45">
         <v>42083</v>
       </c>
-      <c r="I27" s="68"/>
+      <c r="I27" s="65"/>
     </row>
     <row r="28" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A28" s="96"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="66" t="s">
+      <c r="A28" s="91"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="67">
+      <c r="E28" s="63"/>
+      <c r="F28" s="64">
         <v>3</v>
       </c>
-      <c r="G28" s="70">
+      <c r="G28" s="67">
         <v>42080</v>
       </c>
-      <c r="H28" s="48">
+      <c r="H28" s="45">
         <v>42083</v>
       </c>
-      <c r="I28" s="68"/>
+      <c r="I28" s="65"/>
     </row>
     <row r="29" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A29" s="96"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="66" t="s">
+      <c r="A29" s="91"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="66"/>
-      <c r="F29" s="67">
+      <c r="E29" s="63"/>
+      <c r="F29" s="64">
         <v>2</v>
       </c>
-      <c r="G29" s="70">
+      <c r="G29" s="67">
         <v>42080</v>
       </c>
-      <c r="H29" s="48">
+      <c r="H29" s="45">
         <v>42083</v>
       </c>
-      <c r="I29" s="68"/>
+      <c r="I29" s="65"/>
     </row>
     <row r="30" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A30" s="96"/>
-      <c r="B30" s="92" t="s">
+      <c r="A30" s="91"/>
+      <c r="B30" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="67">
+      <c r="E30" s="63"/>
+      <c r="F30" s="64">
         <v>1</v>
       </c>
-      <c r="G30" s="70">
+      <c r="G30" s="67">
         <v>42080</v>
       </c>
-      <c r="H30" s="48">
+      <c r="H30" s="45">
         <v>42083</v>
       </c>
-      <c r="I30" s="68"/>
+      <c r="I30" s="65"/>
     </row>
     <row r="31" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A31" s="96"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="73" t="s">
+      <c r="A31" s="91"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="73" t="s">
+      <c r="D31" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="66"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="70">
+      <c r="E31" s="63"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="67">
         <v>42080</v>
       </c>
-      <c r="H31" s="48">
+      <c r="H31" s="45">
         <v>42083</v>
       </c>
-      <c r="I31" s="75" t="s">
+      <c r="I31" s="72" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A32" s="96"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="73" t="s">
+      <c r="A32" s="91"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="66"/>
-      <c r="F32" s="67">
+      <c r="E32" s="63"/>
+      <c r="F32" s="64">
         <v>17</v>
       </c>
-      <c r="G32" s="70">
+      <c r="G32" s="67">
         <v>42080</v>
       </c>
-      <c r="H32" s="48">
+      <c r="H32" s="45">
         <v>42083</v>
       </c>
-      <c r="I32" s="75" t="s">
+      <c r="I32" s="72" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A33" s="96"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="73" t="s">
+      <c r="A33" s="91"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="73" t="s">
+      <c r="D33" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="E33" s="66"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="70">
+      <c r="E33" s="63"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="67">
         <v>42080</v>
       </c>
-      <c r="H33" s="48">
+      <c r="H33" s="45">
         <v>42083</v>
       </c>
-      <c r="I33" s="75" t="s">
+      <c r="I33" s="72" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A34" s="96"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="73" t="s">
+      <c r="A34" s="91"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="D34" s="73" t="s">
+      <c r="D34" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="E34" s="66"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="70">
+      <c r="E34" s="63"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="67">
         <v>42080</v>
       </c>
-      <c r="H34" s="48">
+      <c r="H34" s="45">
         <v>42083</v>
       </c>
-      <c r="I34" s="75" t="s">
+      <c r="I34" s="72" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A35" s="96"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="73" t="s">
+      <c r="A35" s="91"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="73" t="s">
+      <c r="D35" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="E35" s="66"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="70">
+      <c r="E35" s="63"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="67">
         <v>42080</v>
       </c>
-      <c r="H35" s="48">
+      <c r="H35" s="45">
         <v>42083</v>
       </c>
-      <c r="I35" s="75" t="s">
+      <c r="I35" s="72" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A36" s="96"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="76" t="s">
+      <c r="A36" s="91"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="D36" s="76" t="s">
+      <c r="D36" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="E36" s="51"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="53">
+      <c r="E36" s="48"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="50">
         <v>42080</v>
       </c>
-      <c r="H36" s="53">
+      <c r="H36" s="50">
         <v>42083</v>
       </c>
-      <c r="I36" s="54"/>
+      <c r="I36" s="51"/>
     </row>
     <row r="37" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D37" s="57" t="s">
+      <c r="D37" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="58">
+      <c r="E37" s="54"/>
+      <c r="F37" s="55">
         <f>SUM(F25:F36)</f>
         <v>33</v>
       </c>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
     </row>
     <row r="38" spans="1:9" ht="13.8" thickTop="1">
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
     </row>
     <row r="39" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="95" t="s">
+      <c r="A40" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41" t="s">
+      <c r="C40" s="38"/>
+      <c r="D40" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="43">
+      <c r="E40" s="38"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="40">
         <v>42079</v>
       </c>
-      <c r="H40" s="43">
+      <c r="H40" s="40">
         <v>42083</v>
       </c>
-      <c r="I40" s="44"/>
+      <c r="I40" s="41"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="96"/>
-      <c r="B41" s="101" t="s">
+      <c r="A41" s="91"/>
+      <c r="B41" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="46" t="s">
+      <c r="D41" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="46"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="70">
+      <c r="E41" s="43"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="67">
         <v>42079</v>
       </c>
-      <c r="H41" s="48">
+      <c r="H41" s="45">
         <v>42083</v>
       </c>
-      <c r="I41" s="49"/>
+      <c r="I41" s="46"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="96"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="66" t="s">
+      <c r="A42" s="91"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="46" t="s">
+      <c r="D42" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="66"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="70">
+      <c r="E42" s="63"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="67">
         <v>42079</v>
       </c>
-      <c r="H42" s="48">
+      <c r="H42" s="45">
         <v>42083</v>
       </c>
-      <c r="I42" s="68"/>
+      <c r="I42" s="65"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="96"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="66" t="s">
+      <c r="A43" s="91"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="46" t="s">
+      <c r="D43" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="66"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="70">
+      <c r="E43" s="63"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="67">
         <v>42079</v>
       </c>
-      <c r="H43" s="48">
+      <c r="H43" s="45">
         <v>42083</v>
       </c>
-      <c r="I43" s="68"/>
+      <c r="I43" s="65"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="96"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="66" t="s">
+      <c r="A44" s="91"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="66"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="70">
+      <c r="E44" s="63"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="67">
         <v>42079</v>
       </c>
-      <c r="H44" s="48">
+      <c r="H44" s="45">
         <v>42083</v>
       </c>
-      <c r="I44" s="68"/>
+      <c r="I44" s="65"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="96"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="66" t="s">
+      <c r="A45" s="91"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="46" t="s">
+      <c r="D45" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="E45" s="66"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="70">
+      <c r="E45" s="63"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="67">
         <v>42079</v>
       </c>
-      <c r="H45" s="48">
+      <c r="H45" s="45">
         <v>42083</v>
       </c>
-      <c r="I45" s="68"/>
+      <c r="I45" s="65"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="96"/>
-      <c r="B46" s="106"/>
-      <c r="C46" s="66" t="s">
+      <c r="A46" s="91"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="46" t="s">
+      <c r="D46" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="E46" s="66"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="70">
+      <c r="E46" s="63"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="67">
         <v>42079</v>
       </c>
-      <c r="H46" s="48">
+      <c r="H46" s="45">
         <v>42083</v>
       </c>
-      <c r="I46" s="68"/>
+      <c r="I46" s="65"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="96"/>
-      <c r="B47" s="101" t="s">
+      <c r="A47" s="91"/>
+      <c r="B47" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="46" t="s">
+      <c r="D47" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="66"/>
-      <c r="F47" s="67">
+      <c r="E47" s="63"/>
+      <c r="F47" s="64">
         <f>'March 2015'!T35</f>
         <v>5</v>
       </c>
-      <c r="G47" s="70">
+      <c r="G47" s="67">
         <v>42079</v>
       </c>
-      <c r="H47" s="48">
+      <c r="H47" s="45">
         <v>42083</v>
       </c>
-      <c r="I47" s="68"/>
+      <c r="I47" s="65"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="96"/>
-      <c r="B48" s="102"/>
-      <c r="C48" s="73" t="s">
+      <c r="A48" s="91"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="46" t="s">
+      <c r="D48" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="E48" s="66"/>
-      <c r="F48" s="67">
+      <c r="E48" s="63"/>
+      <c r="F48" s="64">
         <f>'March 2015'!T36</f>
         <v>7</v>
       </c>
-      <c r="G48" s="70">
+      <c r="G48" s="67">
         <v>42079</v>
       </c>
-      <c r="H48" s="48">
+      <c r="H48" s="45">
         <v>42083</v>
       </c>
-      <c r="I48" s="68"/>
+      <c r="I48" s="65"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="96"/>
-      <c r="B49" s="102"/>
-      <c r="C49" s="66" t="s">
+      <c r="A49" s="91"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="46" t="s">
+      <c r="D49" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="E49" s="66"/>
-      <c r="F49" s="67">
+      <c r="E49" s="63"/>
+      <c r="F49" s="64">
         <f>'March 2015'!T37</f>
         <v>0</v>
       </c>
-      <c r="G49" s="70">
+      <c r="G49" s="67">
         <v>42079</v>
       </c>
-      <c r="H49" s="48">
+      <c r="H49" s="45">
         <v>42083</v>
       </c>
-      <c r="I49" s="68"/>
+      <c r="I49" s="65"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="96"/>
-      <c r="B50" s="102"/>
-      <c r="C50" s="73" t="s">
+      <c r="A50" s="91"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="46" t="s">
+      <c r="D50" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="E50" s="66"/>
-      <c r="F50" s="67">
+      <c r="E50" s="63"/>
+      <c r="F50" s="64">
         <f>'March 2015'!T38</f>
         <v>16</v>
       </c>
-      <c r="G50" s="70">
+      <c r="G50" s="67">
         <v>42079</v>
       </c>
-      <c r="H50" s="48">
+      <c r="H50" s="45">
         <v>42083</v>
       </c>
-      <c r="I50" s="74" t="s">
+      <c r="I50" s="71" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="96"/>
-      <c r="B51" s="102"/>
-      <c r="C51" s="73" t="s">
+      <c r="A51" s="91"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="66" t="s">
+      <c r="D51" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="66"/>
-      <c r="F51" s="67">
+      <c r="E51" s="63"/>
+      <c r="F51" s="64">
         <f>'March 2015'!T39</f>
         <v>8</v>
       </c>
-      <c r="G51" s="70">
+      <c r="G51" s="67">
         <v>42079</v>
       </c>
-      <c r="H51" s="48">
+      <c r="H51" s="45">
         <v>42083</v>
       </c>
-      <c r="I51" s="68"/>
+      <c r="I51" s="65"/>
     </row>
     <row r="52" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A52" s="97"/>
-      <c r="B52" s="103"/>
-      <c r="C52" s="76" t="s">
+      <c r="A52" s="92"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="51" t="s">
+      <c r="D52" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="E52" s="51"/>
-      <c r="F52" s="67">
+      <c r="E52" s="48"/>
+      <c r="F52" s="64">
         <f>'March 2015'!T40</f>
         <v>8</v>
       </c>
-      <c r="G52" s="53">
+      <c r="G52" s="50">
         <v>42079</v>
       </c>
-      <c r="H52" s="53">
+      <c r="H52" s="50">
         <v>42083</v>
       </c>
-      <c r="I52" s="54"/>
+      <c r="I52" s="51"/>
     </row>
     <row r="53" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D53" s="57" t="s">
+      <c r="D53" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="57"/>
-      <c r="F53" s="58">
+      <c r="E53" s="54"/>
+      <c r="F53" s="55">
         <f>SUM(F40:F52)</f>
         <v>44</v>
       </c>
@@ -3374,391 +3634,509 @@
     <row r="54" spans="1:9" ht="13.8" thickTop="1"/>
     <row r="55" spans="1:9" ht="13.8" thickBot="1"/>
     <row r="56" spans="1:9">
-      <c r="A56" s="95" t="s">
+      <c r="A56" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="107" t="s">
+      <c r="B56" s="97" t="s">
         <v>137</v>
       </c>
-      <c r="C56" s="41" t="s">
+      <c r="C56" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="41" t="s">
+      <c r="D56" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="E56" s="41"/>
-      <c r="F56" s="42">
+      <c r="E56" s="38"/>
+      <c r="F56" s="39">
         <v>15</v>
       </c>
-      <c r="G56" s="43">
+      <c r="G56" s="40">
         <v>42079</v>
       </c>
-      <c r="H56" s="43">
+      <c r="H56" s="40">
         <v>42083</v>
       </c>
-      <c r="I56" s="44"/>
+      <c r="I56" s="41"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="96"/>
-      <c r="B57" s="108"/>
-      <c r="C57" s="62" t="s">
+      <c r="A57" s="91"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="D57" s="62" t="s">
+      <c r="D57" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="E57" s="62"/>
-      <c r="F57" s="63">
+      <c r="E57" s="59"/>
+      <c r="F57" s="60">
         <v>5</v>
       </c>
-      <c r="G57" s="70">
+      <c r="G57" s="67">
         <v>42079</v>
       </c>
-      <c r="H57" s="48">
+      <c r="H57" s="45">
         <v>42083</v>
       </c>
-      <c r="I57" s="65"/>
+      <c r="I57" s="62"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="96"/>
-      <c r="B58" s="101" t="s">
+      <c r="A58" s="91"/>
+      <c r="B58" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="C58" s="46" t="s">
+      <c r="C58" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="46" t="s">
+      <c r="D58" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E58" s="46"/>
-      <c r="F58" s="47">
+      <c r="E58" s="43"/>
+      <c r="F58" s="44">
         <v>2</v>
       </c>
-      <c r="G58" s="70">
+      <c r="G58" s="67">
         <v>42079</v>
       </c>
-      <c r="H58" s="48">
+      <c r="H58" s="45">
         <v>42083</v>
       </c>
-      <c r="I58" s="49"/>
+      <c r="I58" s="46"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="96"/>
-      <c r="B59" s="102"/>
-      <c r="C59" s="66" t="s">
+      <c r="A59" s="91"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="D59" s="46" t="s">
+      <c r="D59" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="E59" s="66"/>
-      <c r="F59" s="67">
+      <c r="E59" s="63"/>
+      <c r="F59" s="64">
         <v>2</v>
       </c>
-      <c r="G59" s="70">
+      <c r="G59" s="67">
         <v>42079</v>
       </c>
-      <c r="H59" s="48">
+      <c r="H59" s="45">
         <v>42083</v>
       </c>
-      <c r="I59" s="68"/>
+      <c r="I59" s="65"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="96"/>
-      <c r="B60" s="102"/>
-      <c r="C60" s="66" t="s">
+      <c r="A60" s="91"/>
+      <c r="B60" s="94"/>
+      <c r="C60" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="D60" s="46" t="s">
+      <c r="D60" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="E60" s="66"/>
-      <c r="F60" s="67">
+      <c r="E60" s="63"/>
+      <c r="F60" s="64">
         <v>2</v>
       </c>
-      <c r="G60" s="70">
+      <c r="G60" s="67">
         <v>42079</v>
       </c>
-      <c r="H60" s="48">
+      <c r="H60" s="45">
         <v>42083</v>
       </c>
-      <c r="I60" s="68"/>
+      <c r="I60" s="65"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="96"/>
-      <c r="B61" s="106"/>
-      <c r="C61" s="66" t="s">
+      <c r="A61" s="91"/>
+      <c r="B61" s="95"/>
+      <c r="C61" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="D61" s="46" t="s">
+      <c r="D61" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E61" s="66"/>
-      <c r="F61" s="67">
+      <c r="E61" s="63"/>
+      <c r="F61" s="64">
         <v>2</v>
       </c>
-      <c r="G61" s="70">
+      <c r="G61" s="67">
         <v>42079</v>
       </c>
-      <c r="H61" s="48">
+      <c r="H61" s="45">
         <v>42083</v>
       </c>
-      <c r="I61" s="68"/>
+      <c r="I61" s="65"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="96"/>
-      <c r="B62" s="45" t="s">
+      <c r="A62" s="91"/>
+      <c r="B62" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="C62" s="66"/>
-      <c r="D62" s="46" t="s">
+      <c r="C62" s="63"/>
+      <c r="D62" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="E62" s="66"/>
-      <c r="F62" s="67">
+      <c r="E62" s="63"/>
+      <c r="F62" s="64">
         <v>2</v>
       </c>
-      <c r="G62" s="70">
+      <c r="G62" s="67">
         <v>42079</v>
       </c>
-      <c r="H62" s="48">
+      <c r="H62" s="45">
         <v>42083</v>
       </c>
-      <c r="I62" s="68"/>
+      <c r="I62" s="65"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="96"/>
-      <c r="B63" s="101" t="s">
+      <c r="A63" s="91"/>
+      <c r="B63" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="C63" s="66" t="s">
+      <c r="C63" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="D63" s="46" t="s">
+      <c r="D63" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="E63" s="66"/>
-      <c r="F63" s="67">
+      <c r="E63" s="63"/>
+      <c r="F63" s="64">
         <v>3</v>
       </c>
-      <c r="G63" s="70">
+      <c r="G63" s="67">
         <v>42079</v>
       </c>
-      <c r="H63" s="48">
+      <c r="H63" s="45">
         <v>42083</v>
       </c>
-      <c r="I63" s="68"/>
+      <c r="I63" s="65"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="96"/>
-      <c r="B64" s="102"/>
-      <c r="C64" s="66" t="s">
+      <c r="A64" s="91"/>
+      <c r="B64" s="94"/>
+      <c r="C64" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="D64" s="66" t="s">
+      <c r="D64" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="E64" s="66"/>
-      <c r="F64" s="67">
+      <c r="E64" s="63"/>
+      <c r="F64" s="64">
         <v>5</v>
       </c>
-      <c r="G64" s="70">
+      <c r="G64" s="67">
         <v>42079</v>
       </c>
-      <c r="H64" s="48">
+      <c r="H64" s="45">
         <v>42083</v>
       </c>
-      <c r="I64" s="68"/>
+      <c r="I64" s="65"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="96"/>
-      <c r="B65" s="102"/>
-      <c r="C65" s="66" t="s">
+      <c r="A65" s="91"/>
+      <c r="B65" s="94"/>
+      <c r="C65" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="D65" s="66" t="s">
+      <c r="D65" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="E65" s="66"/>
-      <c r="F65" s="67">
+      <c r="E65" s="63"/>
+      <c r="F65" s="64">
         <v>3</v>
       </c>
-      <c r="G65" s="70">
+      <c r="G65" s="67">
         <v>42079</v>
       </c>
-      <c r="H65" s="48">
+      <c r="H65" s="45">
         <v>42083</v>
       </c>
-      <c r="I65" s="68"/>
+      <c r="I65" s="65"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="96"/>
-      <c r="B66" s="106"/>
-      <c r="C66" s="66" t="s">
+      <c r="A66" s="91"/>
+      <c r="B66" s="95"/>
+      <c r="C66" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="D66" s="66" t="s">
+      <c r="D66" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="E66" s="66"/>
-      <c r="F66" s="67">
+      <c r="E66" s="63"/>
+      <c r="F66" s="64">
         <v>3</v>
       </c>
-      <c r="G66" s="70">
+      <c r="G66" s="67">
         <v>42079</v>
       </c>
-      <c r="H66" s="48">
+      <c r="H66" s="45">
         <v>42083</v>
       </c>
-      <c r="I66" s="74"/>
+      <c r="I66" s="71"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="96"/>
-      <c r="B67" s="45" t="s">
+      <c r="A67" s="91"/>
+      <c r="B67" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="C67" s="45"/>
-      <c r="D67" s="78" t="s">
+      <c r="C67" s="42"/>
+      <c r="D67" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="E67" s="78" t="s">
+      <c r="E67" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="F67" s="67"/>
-      <c r="G67" s="70">
+      <c r="F67" s="64"/>
+      <c r="G67" s="67">
         <v>42082</v>
       </c>
-      <c r="H67" s="48">
+      <c r="H67" s="45">
         <v>42088</v>
       </c>
-      <c r="I67" s="74" t="s">
+      <c r="I67" s="71" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A68" s="97"/>
-      <c r="B68" s="101" t="s">
+      <c r="A68" s="92"/>
+      <c r="B68" s="93" t="s">
         <v>146</v>
       </c>
-      <c r="C68" s="45" t="s">
+      <c r="C68" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="D68" s="78" t="s">
+      <c r="D68" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="E68" s="78"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="70">
+      <c r="E68" s="75"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="67">
         <v>42086</v>
       </c>
-      <c r="H68" s="48">
+      <c r="H68" s="45">
         <v>42086</v>
       </c>
-      <c r="I68" s="74"/>
+      <c r="I68" s="71"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="B69" s="102"/>
-      <c r="C69" s="45" t="s">
+      <c r="A69" s="110"/>
+      <c r="B69" s="94"/>
+      <c r="C69" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="D69" s="78" t="s">
+      <c r="D69" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="E69" s="78"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="70">
+      <c r="E69" s="75"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="67">
         <v>42086</v>
       </c>
-      <c r="H69" s="48">
+      <c r="H69" s="45">
         <v>42086</v>
       </c>
-      <c r="I69" s="74"/>
+      <c r="I69" s="71"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="B70" s="102"/>
-      <c r="C70" s="45" t="s">
+      <c r="A70" s="111"/>
+      <c r="B70" s="94"/>
+      <c r="C70" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="D70" s="78" t="s">
+      <c r="D70" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="E70" s="78"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="70">
+      <c r="E70" s="75"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="67">
         <v>42086</v>
       </c>
-      <c r="H70" s="48">
+      <c r="H70" s="45">
         <v>42086</v>
       </c>
-      <c r="I70" s="74"/>
+      <c r="I70" s="71"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="B71" s="102"/>
-      <c r="C71" s="45" t="s">
+      <c r="A71" s="111"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="D71" s="78" t="s">
+      <c r="D71" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="E71" s="78"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="70">
+      <c r="E71" s="75"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="67">
         <v>42086</v>
       </c>
-      <c r="H71" s="48">
+      <c r="H71" s="45">
         <v>42086</v>
       </c>
-      <c r="I71" s="74"/>
+      <c r="I71" s="71"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="B72" s="102"/>
-      <c r="C72" s="45" t="s">
+      <c r="A72" s="111"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="D72" s="78" t="s">
+      <c r="D72" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="E72" s="78"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="70">
+      <c r="E72" s="75"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="67">
         <v>42086</v>
       </c>
-      <c r="H72" s="48">
+      <c r="H72" s="45">
         <v>42086</v>
       </c>
-      <c r="I72" s="74"/>
+      <c r="I72" s="71"/>
     </row>
     <row r="73" spans="1:9" ht="13.8" thickBot="1">
-      <c r="B73" s="103"/>
-      <c r="C73" s="79" t="s">
+      <c r="A73" s="111"/>
+      <c r="B73" s="96"/>
+      <c r="C73" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="D73" s="79" t="s">
+      <c r="D73" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="E73" s="79"/>
-      <c r="F73" s="80"/>
-      <c r="G73" s="81">
+      <c r="E73" s="76"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="78">
         <v>42086</v>
       </c>
-      <c r="H73" s="81">
+      <c r="H73" s="78">
         <v>42086</v>
       </c>
-      <c r="I73" s="82"/>
-    </row>
-    <row r="74" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D74" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="E74" s="57"/>
-      <c r="F74" s="58">
-        <f>SUM(F56:F73)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="13.8" thickTop="1"/>
+      <c r="I73" s="79"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="111"/>
+      <c r="B74" s="107" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="E74" s="89"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="67">
+        <v>42087</v>
+      </c>
+      <c r="H74" s="67">
+        <v>42087</v>
+      </c>
+      <c r="I74" s="71"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="111"/>
+      <c r="B75" s="108"/>
+      <c r="C75" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D75" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="E75" s="89"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="67">
+        <v>42087</v>
+      </c>
+      <c r="H75" s="67">
+        <v>42087</v>
+      </c>
+      <c r="I75" s="71"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="111"/>
+      <c r="B76" s="108"/>
+      <c r="C76" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="D76" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="E76" s="89"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="67">
+        <v>42087</v>
+      </c>
+      <c r="H76" s="67">
+        <v>42087</v>
+      </c>
+      <c r="I76" s="71"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="111"/>
+      <c r="B77" s="108"/>
+      <c r="C77" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="E77" s="89"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="67">
+        <v>42087</v>
+      </c>
+      <c r="H77" s="67">
+        <v>42087</v>
+      </c>
+      <c r="I77" s="71"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="111"/>
+      <c r="B78" s="108"/>
+      <c r="C78" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="E78" s="89"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="67">
+        <v>42087</v>
+      </c>
+      <c r="H78" s="67">
+        <v>42087</v>
+      </c>
+      <c r="I78" s="71"/>
+    </row>
+    <row r="79" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A79" s="112"/>
+      <c r="B79" s="109"/>
+      <c r="C79" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="E79" s="76"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="67">
+        <v>42087</v>
+      </c>
+      <c r="H79" s="67">
+        <v>42087</v>
+      </c>
+      <c r="I79" s="79"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="A25:A36"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="A40:A52"/>
     <mergeCell ref="B41:B46"/>
     <mergeCell ref="B47:B52"/>
@@ -3767,1404 +4145,1454 @@
     <mergeCell ref="B58:B61"/>
     <mergeCell ref="B63:B66"/>
     <mergeCell ref="B68:B73"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="A25:A36"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="B27:B29"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="F43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L38" sqref="L38"/>
+      <selection pane="bottomRight" activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="25" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.88671875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" style="25" customWidth="1"/>
-    <col min="5" max="18" width="4.33203125" style="25" customWidth="1"/>
-    <col min="19" max="19" width="2.88671875" style="25" customWidth="1"/>
-    <col min="20" max="20" width="7.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="25"/>
+    <col min="1" max="1" width="8.109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.88671875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="23" customWidth="1"/>
+    <col min="5" max="18" width="4.33203125" style="23" customWidth="1"/>
+    <col min="19" max="19" width="2.88671875" style="23" customWidth="1"/>
+    <col min="20" max="20" width="7.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.6">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="7.5" customHeight="1">
-      <c r="A2" s="26"/>
+      <c r="A2" s="24"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="26"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="25" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="26"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="25" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>18</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>19</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>20</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>21</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>22</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>23</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>24</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>25</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>26</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>27</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="2">
         <v>28</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="2">
         <v>29</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="2">
         <v>30</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="2">
         <v>31</v>
       </c>
-      <c r="T6" s="26" t="s">
+      <c r="T6" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="7.5" customHeight="1"/>
     <row r="8" spans="1:20">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="13.8" thickBot="1">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="B10" s="90">
+      <c r="B10" s="87">
         <v>1</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="85">
+      <c r="D10" s="25"/>
+      <c r="E10" s="82">
         <v>2</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="T10" s="4">
+      <c r="F10" s="25"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="T10" s="3">
         <f>SUM(E10:R10)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="83" customFormat="1">
-      <c r="B11" s="90">
+    <row r="11" spans="1:20" s="80" customFormat="1">
+      <c r="B11" s="87">
         <v>2</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="87"/>
-      <c r="E11" s="85">
+      <c r="D11" s="84"/>
+      <c r="E11" s="82">
         <v>3</v>
       </c>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="T11" s="84">
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
+      <c r="T11" s="81">
         <f t="shared" ref="T11:T20" si="0">SUM(E11:R11)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="83" customFormat="1">
-      <c r="B12" s="90">
+    <row r="12" spans="1:20" s="80" customFormat="1">
+      <c r="B12" s="87">
         <v>3</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="87"/>
-      <c r="E12" s="85">
+      <c r="D12" s="84"/>
+      <c r="E12" s="82">
         <v>3</v>
       </c>
-      <c r="F12" s="85">
+      <c r="F12" s="82">
         <v>3</v>
       </c>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
-      <c r="T12" s="84">
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="84"/>
+      <c r="T12" s="81">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="83" customFormat="1">
-      <c r="B13" s="90">
+    <row r="13" spans="1:20" s="80" customFormat="1">
+      <c r="B13" s="87">
         <v>4</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="85">
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="82">
         <v>6</v>
       </c>
-      <c r="G13" s="85">
+      <c r="G13" s="82">
         <v>2</v>
       </c>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="T13" s="84">
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="T13" s="81">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="B14" s="90">
+      <c r="B14" s="87">
         <v>5</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="20">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="19">
         <v>6</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="22">
         <v>5</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="T14" s="84">
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="T14" s="81">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="B15" s="90">
+      <c r="B15" s="87">
         <v>6</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="23">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="22">
         <v>4</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="T15" s="84">
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="T15" s="81">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="B16" s="90">
+      <c r="B16" s="87">
         <v>7</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="23">
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="22">
         <v>2</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="22">
         <v>9</v>
       </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="T16" s="84">
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="T16" s="81">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="83" customFormat="1">
-      <c r="B17" s="90">
+    <row r="17" spans="1:20" s="80" customFormat="1">
+      <c r="B17" s="87">
         <v>8</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="23">
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="22">
         <v>4</v>
       </c>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="87"/>
-      <c r="T17" s="84">
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="T17" s="81">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="83" customFormat="1">
-      <c r="B18" s="90">
+    <row r="18" spans="1:20" s="80" customFormat="1">
+      <c r="B18" s="87">
         <v>9</v>
       </c>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="23">
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="22">
         <v>2</v>
       </c>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="87"/>
-      <c r="T18" s="84">
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+      <c r="T18" s="81">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="83" customFormat="1">
-      <c r="B19" s="90">
+    <row r="19" spans="1:20" s="80" customFormat="1">
+      <c r="B19" s="87">
         <v>10</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="23">
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="22">
         <v>5</v>
       </c>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="87"/>
-      <c r="T19" s="84">
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="84"/>
+      <c r="T19" s="81">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="83" customFormat="1">
-      <c r="B20" s="90">
+    <row r="20" spans="1:20" s="80" customFormat="1">
+      <c r="B20" s="87">
         <v>11</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="23">
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="22">
         <v>2</v>
       </c>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="87"/>
-      <c r="R20" s="87"/>
-      <c r="T20" s="84">
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="84"/>
+      <c r="T20" s="81">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="24" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:20">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:20">
-      <c r="B24" s="22">
+      <c r="B24" s="21">
         <v>1</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="20">
+      <c r="D24" s="25"/>
+      <c r="E24" s="19">
         <v>4</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="T24" s="4">
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="T24" s="3">
         <f>SUM(E24:R24)</f>
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:20">
-      <c r="B25" s="22">
+      <c r="B25" s="21">
         <v>2</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="20">
+      <c r="D25" s="25"/>
+      <c r="E25" s="19">
         <v>4</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="T25" s="4">
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="T25" s="3">
         <f t="shared" ref="T25:T31" si="1">SUM(E25:R25)</f>
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:20">
-      <c r="B26" s="22">
+      <c r="B26" s="21">
         <v>3</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="20">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="19">
         <v>2</v>
       </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="T26" s="4">
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="T26" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:20">
-      <c r="B27" s="22">
+      <c r="B27" s="21">
         <v>4</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="20">
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="19">
         <v>3</v>
       </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="T27" s="4">
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="T27" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:20">
-      <c r="B28" s="22">
+      <c r="B28" s="21">
         <v>5</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="20">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="19">
         <v>2</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="T28" s="4">
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="T28" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:20">
-      <c r="B29" s="22">
+      <c r="B29" s="21">
         <v>6</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="20">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="19">
         <v>1</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="T29" s="4">
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="T29" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:20">
-      <c r="B30" s="22">
+      <c r="B30" s="21">
         <v>7</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="20">
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="19">
         <v>2</v>
       </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="T30" s="4">
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="T30" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:20">
-      <c r="B31" s="22">
+      <c r="B31" s="21">
         <v>8</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="20">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="19">
         <v>6</v>
       </c>
-      <c r="H31" s="27"/>
-      <c r="I31" s="23">
+      <c r="H31" s="25"/>
+      <c r="I31" s="22">
         <v>4</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="22">
         <v>7</v>
       </c>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="T31" s="4">
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="T31" s="3">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:20">
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:20">
-      <c r="B35" s="22">
+      <c r="B35" s="21">
         <v>1</v>
       </c>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="20">
+      <c r="D35" s="25"/>
+      <c r="E35" s="19">
         <v>5</v>
       </c>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="T35" s="4">
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="T35" s="3">
         <f>SUM(E35:R35)</f>
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:20">
-      <c r="B36" s="22">
+      <c r="B36" s="21">
         <v>2</v>
       </c>
-      <c r="C36" s="73" t="s">
+      <c r="C36" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="20">
+      <c r="D36" s="25"/>
+      <c r="E36" s="19">
         <v>3</v>
       </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="23">
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="22">
         <v>4</v>
       </c>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="T36" s="4">
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="T36" s="3">
         <f t="shared" ref="T36:T39" si="2">SUM(E36:R36)</f>
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:20">
-      <c r="B37" s="22">
+      <c r="B37" s="21">
         <v>3</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="T37" s="4">
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="T37" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:20">
-      <c r="B38" s="90">
+      <c r="B38" s="87">
         <v>4</v>
       </c>
-      <c r="C38" s="91" t="s">
+      <c r="C38" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="27"/>
-      <c r="F38" s="20">
+      <c r="D38" s="25"/>
+      <c r="F38" s="19">
         <v>8</v>
       </c>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="85">
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="82">
         <v>8</v>
       </c>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="T38" s="4">
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="T38" s="3">
         <f>SUM(E38:R38)</f>
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:20">
-      <c r="B39" s="22">
+      <c r="B39" s="21">
         <v>5</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="20">
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="19">
         <v>8</v>
       </c>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="T39" s="4">
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="T39" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="83" customFormat="1">
-      <c r="B40" s="86">
+    <row r="40" spans="1:20" s="80" customFormat="1">
+      <c r="B40" s="83">
         <v>5</v>
       </c>
-      <c r="C40" s="87" t="s">
+      <c r="C40" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="85">
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="82">
         <v>8</v>
       </c>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87"/>
-      <c r="T40" s="84">
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="84"/>
+      <c r="N40" s="84"/>
+      <c r="O40" s="84"/>
+      <c r="P40" s="84"/>
+      <c r="Q40" s="84"/>
+      <c r="R40" s="84"/>
+      <c r="T40" s="81">
         <f t="shared" ref="T40" si="3">SUM(E40:R40)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="83" customFormat="1">
-      <c r="B41" s="86">
+    <row r="41" spans="1:20" s="80" customFormat="1">
+      <c r="B41" s="83">
         <v>6</v>
       </c>
-      <c r="C41" s="87" t="s">
+      <c r="C41" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="87"/>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="87"/>
-      <c r="T41" s="84">
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="84"/>
+      <c r="M41" s="84"/>
+      <c r="N41" s="84"/>
+      <c r="O41" s="84"/>
+      <c r="P41" s="84"/>
+      <c r="Q41" s="84"/>
+      <c r="R41" s="84"/>
+      <c r="T41" s="81">
         <f t="shared" ref="T41" si="4">SUM(E41:R41)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="83" customFormat="1">
-      <c r="B42" s="30"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="31"/>
-      <c r="T42" s="31"/>
+    <row r="42" spans="1:20" s="80" customFormat="1">
+      <c r="B42" s="27"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="T42" s="28"/>
     </row>
     <row r="43" spans="1:20">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:20">
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:20">
-      <c r="B45" s="22">
+      <c r="B45" s="21">
         <v>1</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="20">
+      <c r="D45" s="25"/>
+      <c r="E45" s="19">
         <v>8</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="19">
         <v>8</v>
       </c>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="T45" s="4">
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="T45" s="3">
         <f>SUM(E45:R45)</f>
         <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:20">
-      <c r="B46" s="86">
+      <c r="B46" s="83">
         <v>2</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="20">
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="19">
         <v>8</v>
       </c>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="27"/>
-      <c r="T46" s="4">
-        <f t="shared" ref="T46:T51" si="5">SUM(E46:R46)</f>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="T46" s="3">
+        <f t="shared" ref="T46:T52" si="5">SUM(E46:R46)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
-      <c r="B47" s="86">
+    <row r="47" spans="1:20" s="80" customFormat="1">
+      <c r="B47" s="83">
         <v>3</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="T47" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" s="83" customFormat="1">
-      <c r="B48" s="86">
+      <c r="C47" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="82">
+        <v>8</v>
+      </c>
+      <c r="J47" s="84"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="84"/>
+      <c r="M47" s="84"/>
+      <c r="N47" s="84"/>
+      <c r="O47" s="84"/>
+      <c r="P47" s="84"/>
+      <c r="Q47" s="84"/>
+      <c r="R47" s="84"/>
+      <c r="T47" s="81">
+        <f t="shared" ref="T47:T48" si="6">SUM(E47:R47)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" s="80" customFormat="1">
+      <c r="B48" s="83">
         <v>4</v>
       </c>
-      <c r="C48" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="85">
-        <v>8</v>
-      </c>
-      <c r="J48" s="87"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="87"/>
-      <c r="M48" s="87"/>
-      <c r="N48" s="87"/>
-      <c r="O48" s="87"/>
-      <c r="P48" s="87"/>
-      <c r="Q48" s="87"/>
-      <c r="R48" s="87"/>
-      <c r="T48" s="84">
-        <f t="shared" ref="T48:T49" si="6">SUM(E48:R48)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" s="83" customFormat="1">
-      <c r="B49" s="86">
-        <v>5</v>
-      </c>
-      <c r="C49" s="77">
+      <c r="C48" s="74">
         <v>6.1</v>
       </c>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="85">
+      <c r="D48" s="84"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="82">
         <v>2</v>
       </c>
-      <c r="K49" s="87"/>
-      <c r="L49" s="87"/>
-      <c r="M49" s="87"/>
-      <c r="N49" s="87"/>
-      <c r="O49" s="87"/>
-      <c r="P49" s="87"/>
-      <c r="Q49" s="87"/>
-      <c r="R49" s="87"/>
-      <c r="T49" s="84">
+      <c r="K48" s="84"/>
+      <c r="L48" s="84"/>
+      <c r="M48" s="84"/>
+      <c r="N48" s="84"/>
+      <c r="O48" s="84"/>
+      <c r="P48" s="84"/>
+      <c r="Q48" s="84"/>
+      <c r="R48" s="84"/>
+      <c r="T48" s="81">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="83" customFormat="1">
-      <c r="B50" s="86">
+    <row r="49" spans="1:20" s="80" customFormat="1">
+      <c r="B49" s="83">
+        <v>5</v>
+      </c>
+      <c r="C49" s="74">
+        <v>6.1</v>
+      </c>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="82">
+        <v>2</v>
+      </c>
+      <c r="K49" s="84"/>
+      <c r="L49" s="84"/>
+      <c r="M49" s="84"/>
+      <c r="N49" s="84"/>
+      <c r="O49" s="84"/>
+      <c r="P49" s="84"/>
+      <c r="Q49" s="84"/>
+      <c r="R49" s="84"/>
+      <c r="T49" s="81">
+        <f t="shared" ref="T49" si="7">SUM(E49:R49)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="B50" s="83">
         <v>6</v>
       </c>
-      <c r="C50" s="77">
-        <v>6.1</v>
-      </c>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="87"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="85">
-        <v>2</v>
-      </c>
-      <c r="K50" s="87"/>
-      <c r="L50" s="87"/>
-      <c r="M50" s="87"/>
-      <c r="N50" s="87"/>
-      <c r="O50" s="87"/>
-      <c r="P50" s="87"/>
-      <c r="Q50" s="87"/>
-      <c r="R50" s="87"/>
-      <c r="T50" s="84">
-        <f t="shared" ref="T50" si="7">SUM(E50:R50)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20">
-      <c r="B51" s="86">
-        <v>7</v>
-      </c>
-      <c r="C51" s="77">
+      <c r="C50" s="74">
         <v>6.3</v>
       </c>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="20">
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="19">
         <v>4</v>
       </c>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="27"/>
-      <c r="T51" s="4">
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="T50" s="3">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
-      <c r="A53" s="26" t="s">
+    <row r="51" spans="1:20" s="80" customFormat="1">
+      <c r="B51" s="83">
+        <v>7</v>
+      </c>
+      <c r="C51" s="74">
+        <v>7.1</v>
+      </c>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="84"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="84"/>
+      <c r="J51" s="82">
+        <v>2</v>
+      </c>
+      <c r="K51" s="84"/>
+      <c r="L51" s="84"/>
+      <c r="M51" s="84"/>
+      <c r="N51" s="84"/>
+      <c r="O51" s="84"/>
+      <c r="P51" s="84"/>
+      <c r="Q51" s="84"/>
+      <c r="R51" s="84"/>
+      <c r="T51" s="81">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" s="80" customFormat="1">
+      <c r="B52" s="83">
+        <v>8</v>
+      </c>
+      <c r="C52" s="74">
+        <v>7.1</v>
+      </c>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="82">
+        <v>4</v>
+      </c>
+      <c r="K52" s="84"/>
+      <c r="L52" s="84"/>
+      <c r="M52" s="84"/>
+      <c r="N52" s="84"/>
+      <c r="O52" s="84"/>
+      <c r="P52" s="84"/>
+      <c r="Q52" s="84"/>
+      <c r="R52" s="84"/>
+      <c r="T52" s="81">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" s="80" customFormat="1">
+      <c r="B53" s="83">
+        <v>9</v>
+      </c>
+      <c r="C53" s="74">
+        <v>7.3</v>
+      </c>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="82">
+        <v>5</v>
+      </c>
+      <c r="K53" s="84"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="84"/>
+      <c r="N53" s="84"/>
+      <c r="O53" s="84"/>
+      <c r="P53" s="84"/>
+      <c r="Q53" s="84"/>
+      <c r="R53" s="84"/>
+      <c r="T53" s="81">
+        <f t="shared" ref="T53" si="8">SUM(E53:R53)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
-      <c r="B54" s="21" t="s">
+    <row r="56" spans="1:20">
+      <c r="B56" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
-      <c r="B55" s="22">
+    <row r="57" spans="1:20">
+      <c r="B57" s="21">
         <v>1</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C57" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="20">
+      <c r="D57" s="25"/>
+      <c r="E57" s="19">
         <v>8</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F57" s="19">
         <v>8</v>
       </c>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="T55" s="4">
-        <f t="shared" ref="T55:T59" si="8">SUM(E55:R55)</f>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25"/>
+      <c r="T57" s="3">
+        <f t="shared" ref="T57:T61" si="9">SUM(E57:R57)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
-      <c r="B56" s="86">
+    <row r="58" spans="1:20">
+      <c r="B58" s="83">
         <v>2</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C58" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="20">
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="19">
         <v>8</v>
       </c>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="87"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="27"/>
-      <c r="T56" s="4">
-        <f t="shared" si="8"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="84"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="25"/>
+      <c r="T58" s="3">
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:20" s="83" customFormat="1">
-      <c r="B57" s="86">
+    <row r="59" spans="1:20" s="80" customFormat="1">
+      <c r="B59" s="83">
         <v>3</v>
       </c>
-      <c r="C57" s="77">
+      <c r="C59" s="74">
         <v>6.4</v>
       </c>
-      <c r="D57" s="87"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="87"/>
-      <c r="G57" s="87"/>
-      <c r="H57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="J57" s="85">
+      <c r="D59" s="84"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="84"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="84"/>
+      <c r="J59" s="82">
         <v>2</v>
       </c>
-      <c r="K57" s="87"/>
-      <c r="L57" s="87"/>
-      <c r="M57" s="87"/>
-      <c r="N57" s="87"/>
-      <c r="O57" s="87"/>
-      <c r="P57" s="87"/>
-      <c r="Q57" s="87"/>
-      <c r="R57" s="87"/>
-      <c r="T57" s="84"/>
-    </row>
-    <row r="58" spans="1:20" s="83" customFormat="1">
-      <c r="B58" s="86">
+      <c r="K59" s="84"/>
+      <c r="L59" s="84"/>
+      <c r="M59" s="84"/>
+      <c r="N59" s="84"/>
+      <c r="O59" s="84"/>
+      <c r="P59" s="84"/>
+      <c r="Q59" s="84"/>
+      <c r="R59" s="84"/>
+      <c r="T59" s="81"/>
+    </row>
+    <row r="60" spans="1:20" s="80" customFormat="1">
+      <c r="B60" s="83">
         <v>4</v>
       </c>
-      <c r="C58" s="77">
+      <c r="C60" s="74">
         <v>6.5</v>
       </c>
-      <c r="D58" s="87"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="87"/>
-      <c r="G58" s="87"/>
-      <c r="H58" s="87"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="85">
+      <c r="D60" s="84"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="84"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="84"/>
+      <c r="J60" s="82">
         <v>3</v>
       </c>
-      <c r="K58" s="87"/>
-      <c r="L58" s="87"/>
-      <c r="M58" s="87"/>
-      <c r="N58" s="87"/>
-      <c r="O58" s="87"/>
-      <c r="P58" s="87"/>
-      <c r="Q58" s="87"/>
-      <c r="R58" s="87"/>
-      <c r="T58" s="84"/>
-    </row>
-    <row r="59" spans="1:20">
-      <c r="B59" s="86">
+      <c r="K60" s="84"/>
+      <c r="L60" s="84"/>
+      <c r="M60" s="84"/>
+      <c r="N60" s="84"/>
+      <c r="O60" s="84"/>
+      <c r="P60" s="84"/>
+      <c r="Q60" s="84"/>
+      <c r="R60" s="84"/>
+      <c r="T60" s="81"/>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="B61" s="83">
         <v>5</v>
       </c>
-      <c r="C59" s="77">
+      <c r="C61" s="74">
         <v>6.6</v>
       </c>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="85">
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="82">
         <v>3</v>
       </c>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="27"/>
-      <c r="R59" s="27"/>
-      <c r="T59" s="4">
-        <f t="shared" si="8"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="25"/>
+      <c r="T61" s="3">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
-      <c r="B60" s="30"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="31"/>
-      <c r="T60" s="31"/>
-    </row>
-    <row r="61" spans="1:20" ht="16.2" thickBot="1">
-      <c r="C61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="24">
-        <f t="shared" ref="E61:P61" si="9">SUM(E8:E59)</f>
-        <v>40</v>
-      </c>
-      <c r="F61" s="24">
-        <f t="shared" si="9"/>
-        <v>41</v>
-      </c>
-      <c r="G61" s="24">
-        <f t="shared" si="9"/>
-        <v>48</v>
-      </c>
-      <c r="H61" s="24">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="I61" s="24">
-        <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="J61" s="24">
-        <f t="shared" si="9"/>
-        <v>44</v>
-      </c>
-      <c r="K61" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L61" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M61" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N61" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O61" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P61" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q61" s="24">
-        <f>SUM(Q8:Q59)</f>
-        <v>0</v>
-      </c>
-      <c r="R61" s="24">
-        <f>SUM(R8:R59)</f>
-        <v>0</v>
-      </c>
-      <c r="T61" s="28">
-        <f>SUM(G61:R61)</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="13.8" thickTop="1"/>
+    <row r="62" spans="1:20" s="80" customFormat="1">
+      <c r="B62" s="83">
+        <v>6</v>
+      </c>
+      <c r="C62" s="74">
+        <v>7.4</v>
+      </c>
+      <c r="D62" s="84"/>
+      <c r="E62" s="84"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="84"/>
+      <c r="H62" s="84"/>
+      <c r="I62" s="84"/>
+      <c r="J62" s="82">
+        <v>2</v>
+      </c>
+      <c r="K62" s="84"/>
+      <c r="L62" s="84"/>
+      <c r="M62" s="84"/>
+      <c r="N62" s="84"/>
+      <c r="O62" s="84"/>
+      <c r="P62" s="84"/>
+      <c r="Q62" s="84"/>
+      <c r="R62" s="84"/>
+      <c r="T62" s="81"/>
+    </row>
+    <row r="63" spans="1:20" s="80" customFormat="1">
+      <c r="B63" s="83">
+        <v>7</v>
+      </c>
+      <c r="C63" s="74">
+        <v>7.5</v>
+      </c>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="84"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="84"/>
+      <c r="J63" s="82">
+        <v>4</v>
+      </c>
+      <c r="K63" s="84"/>
+      <c r="L63" s="84"/>
+      <c r="M63" s="84"/>
+      <c r="N63" s="84"/>
+      <c r="O63" s="84"/>
+      <c r="P63" s="84"/>
+      <c r="Q63" s="84"/>
+      <c r="R63" s="84"/>
+      <c r="T63" s="81"/>
+    </row>
+    <row r="64" spans="1:20" s="80" customFormat="1">
+      <c r="B64" s="83">
+        <v>8</v>
+      </c>
+      <c r="C64" s="74">
+        <v>7.6</v>
+      </c>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="84"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="84"/>
+      <c r="J64" s="82">
+        <v>5</v>
+      </c>
+      <c r="K64" s="84"/>
+      <c r="L64" s="84"/>
+      <c r="M64" s="84"/>
+      <c r="N64" s="84"/>
+      <c r="O64" s="84"/>
+      <c r="P64" s="84"/>
+      <c r="Q64" s="84"/>
+      <c r="R64" s="84"/>
+      <c r="T64" s="81">
+        <f t="shared" ref="T64" si="10">SUM(E64:R64)</f>
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/docs/Listing_Tool_Status_Report_v1.0.xlsx
+++ b/docs/Listing_Tool_Status_Report_v1.0.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Code\ListingTool\trunk\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5352" yWindow="-372" windowWidth="16608" windowHeight="9432" activeTab="2"/>
+    <workbookView xWindow="5352" yWindow="-367" windowWidth="16614" windowHeight="9428" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="WBS" sheetId="5" r:id="rId2"/>
     <sheet name="March 2015" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="169">
   <si>
     <t>Project Name:</t>
   </si>
@@ -403,10 +408,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>2.8 Unit Test</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>Google AdWords API Demostration</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1175,6 +1176,21 @@
   </si>
   <si>
     <t>7.调研google-api ，截取google-ui 界面，为后续工项目界面集成做准备                              and                                                  验证框架、翻译脚本</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.8 Unit Test</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.9 Release &amp; Test</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.7 Give feedback notification if any action executed</t>
+  </si>
+  <si>
+    <t>2.9 Relase &amp; Test</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1740,7 +1756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1955,6 +1971,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1964,17 +2010,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1982,57 +2046,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="1"/>
     <cellStyle name="Normal 3 2" xfId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2048,7 +2067,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2090,7 +2109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2125,7 +2144,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2340,15 +2359,15 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.9"/>
   <cols>
-    <col min="1" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.375" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13.8" thickBot="1"/>
+    <row r="1" spans="2:10" ht="13.6" thickBot="1"/>
     <row r="2" spans="2:10">
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -2360,7 +2379,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="2:10" ht="31.8">
+    <row r="3" spans="2:10" ht="31.95">
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
         <v>0</v>
@@ -2386,7 +2405,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" ht="13.6">
       <c r="B5" s="7"/>
       <c r="C5" s="13" t="s">
         <v>1</v>
@@ -2401,7 +2420,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" ht="13.6">
       <c r="B6" s="7"/>
       <c r="C6" s="13" t="s">
         <v>3</v>
@@ -2427,7 +2446,7 @@
       <c r="I7" s="11"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" ht="13.6">
       <c r="B8" s="7"/>
       <c r="C8" s="13" t="s">
         <v>5</v>
@@ -2559,7 +2578,7 @@
       <c r="I17" s="11"/>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" ht="13.6">
       <c r="B18" s="7"/>
       <c r="C18" s="13" t="s">
         <v>4</v>
@@ -2574,7 +2593,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" ht="13.6">
       <c r="B19" s="7"/>
       <c r="C19" s="13" t="s">
         <v>7</v>
@@ -2600,7 +2619,7 @@
       <c r="I20" s="11"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="2:10" ht="13.8" thickBot="1">
+    <row r="21" spans="2:10" ht="13.6" thickBot="1">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -2620,27 +2639,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47:B52"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.9"/>
   <cols>
     <col min="1" max="1" width="39" style="52" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" style="53" customWidth="1"/>
-    <col min="3" max="3" width="54.109375" style="52" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="68" customWidth="1"/>
-    <col min="7" max="8" width="11.6640625" style="52" customWidth="1"/>
-    <col min="9" max="9" width="38.44140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="33"/>
+    <col min="2" max="2" width="41.875" style="53" customWidth="1"/>
+    <col min="3" max="3" width="54.125" style="52" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="52" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="68" customWidth="1"/>
+    <col min="7" max="8" width="11.625" style="52" customWidth="1"/>
+    <col min="9" max="9" width="38.5" style="52" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="13.6">
       <c r="A1" s="30" t="s">
         <v>29</v>
       </c>
@@ -2669,7 +2688,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.8" thickBot="1">
+    <row r="2" spans="1:9" ht="14.3" thickBot="1">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="34"/>
@@ -2681,7 +2700,7 @@
       <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="100" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="37" t="s">
@@ -2702,7 +2721,7 @@
       <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A4" s="91"/>
+      <c r="A4" s="101"/>
       <c r="B4" s="42" t="s">
         <v>41</v>
       </c>
@@ -2720,8 +2739,8 @@
       </c>
       <c r="I4" s="46"/>
     </row>
-    <row r="5" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A5" s="92"/>
+    <row r="5" spans="1:9" ht="13.6" customHeight="1" thickBot="1">
+      <c r="A5" s="102"/>
       <c r="B5" s="47" t="s">
         <v>42</v>
       </c>
@@ -2737,7 +2756,7 @@
       <c r="H5" s="48"/>
       <c r="I5" s="51"/>
     </row>
-    <row r="6" spans="1:9" ht="13.8" thickBot="1">
+    <row r="6" spans="1:9" ht="14.3" thickBot="1">
       <c r="D6" s="54" t="s">
         <v>43</v>
       </c>
@@ -2749,14 +2768,14 @@
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
     </row>
-    <row r="7" spans="1:9" ht="13.8" thickTop="1">
+    <row r="7" spans="1:9" ht="14.3" thickTop="1">
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
       <c r="F7" s="57"/>
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
     </row>
-    <row r="8" spans="1:9" ht="13.8" thickBot="1">
+    <row r="8" spans="1:9" ht="14.3" thickBot="1">
       <c r="D8" s="54"/>
       <c r="E8" s="54"/>
       <c r="F8" s="57"/>
@@ -2764,10 +2783,10 @@
       <c r="H8" s="56"/>
     </row>
     <row r="9" spans="1:9" ht="26.7" customHeight="1">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="103" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="58" t="s">
@@ -2789,8 +2808,8 @@
       <c r="I9" s="41"/>
     </row>
     <row r="10" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A10" s="91"/>
-      <c r="B10" s="103"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="59" t="s">
         <v>47</v>
       </c>
@@ -2810,8 +2829,8 @@
       <c r="I10" s="62"/>
     </row>
     <row r="11" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A11" s="91"/>
-      <c r="B11" s="103"/>
+      <c r="A11" s="101"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="43" t="s">
         <v>49</v>
       </c>
@@ -2831,8 +2850,8 @@
       <c r="I11" s="46"/>
     </row>
     <row r="12" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A12" s="91"/>
-      <c r="B12" s="103"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="63" t="s">
         <v>50</v>
       </c>
@@ -2852,8 +2871,8 @@
       <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A13" s="91"/>
-      <c r="B13" s="104"/>
+      <c r="A13" s="101"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="63" t="s">
         <v>52</v>
       </c>
@@ -2871,8 +2890,8 @@
       <c r="I13" s="65"/>
     </row>
     <row r="14" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A14" s="91"/>
-      <c r="B14" s="93" t="s">
+      <c r="A14" s="101"/>
+      <c r="B14" s="106" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="63" t="s">
@@ -2894,8 +2913,8 @@
       <c r="I14" s="65"/>
     </row>
     <row r="15" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A15" s="91"/>
-      <c r="B15" s="94"/>
+      <c r="A15" s="101"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="63" t="s">
         <v>55</v>
       </c>
@@ -2915,8 +2934,8 @@
       <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A16" s="91"/>
-      <c r="B16" s="94"/>
+      <c r="A16" s="101"/>
+      <c r="B16" s="107"/>
       <c r="C16" s="63" t="s">
         <v>57</v>
       </c>
@@ -2936,8 +2955,8 @@
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A17" s="91"/>
-      <c r="B17" s="94"/>
+      <c r="A17" s="101"/>
+      <c r="B17" s="107"/>
       <c r="C17" s="63" t="s">
         <v>59</v>
       </c>
@@ -2957,8 +2976,8 @@
       <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A18" s="91"/>
-      <c r="B18" s="94"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="107"/>
       <c r="C18" s="63" t="s">
         <v>60</v>
       </c>
@@ -2978,8 +2997,8 @@
       <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A19" s="91"/>
-      <c r="B19" s="94"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="107"/>
       <c r="C19" s="63" t="s">
         <v>61</v>
       </c>
@@ -2999,8 +3018,8 @@
       <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A20" s="91"/>
-      <c r="B20" s="94"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="107"/>
       <c r="C20" s="63" t="s">
         <v>62</v>
       </c>
@@ -3019,109 +3038,105 @@
       </c>
       <c r="I20" s="65"/>
     </row>
-    <row r="21" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A21" s="92"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="48" t="s">
+    <row r="21" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A21" s="101"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="90" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="50">
+      <c r="E21" s="90"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="45">
         <v>42082</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H21" s="45">
         <v>42083</v>
       </c>
-      <c r="I21" s="51"/>
-    </row>
-    <row r="22" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D22" s="54" t="s">
+      <c r="I21" s="65"/>
+    </row>
+    <row r="22" spans="1:9" ht="13.6" customHeight="1" thickBot="1">
+      <c r="A22" s="102"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50">
+        <v>42082</v>
+      </c>
+      <c r="H22" s="50">
+        <v>42083</v>
+      </c>
+      <c r="I22" s="51"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.3" thickBot="1">
+      <c r="D23" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55">
-        <f>SUM(F9:F21)</f>
+      <c r="E23" s="54"/>
+      <c r="F23" s="55">
+        <f>SUM(F9:F22)</f>
         <v>57</v>
       </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-    </row>
-    <row r="23" spans="1:9" ht="13.8" thickTop="1">
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="57"/>
       <c r="G23" s="56"/>
       <c r="H23" s="56"/>
     </row>
-    <row r="24" spans="1:9" ht="13.8" thickBot="1">
+    <row r="24" spans="1:9" ht="14.3" thickTop="1">
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
       <c r="F24" s="57"/>
       <c r="G24" s="56"/>
       <c r="H24" s="56"/>
     </row>
-    <row r="25" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A25" s="90" t="s">
+    <row r="25" spans="1:9" ht="14.3" thickBot="1">
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+    </row>
+    <row r="26" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A26" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="C26" s="38"/>
+      <c r="D26" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38" t="s">
+      <c r="E26" s="38"/>
+      <c r="F26" s="39">
+        <v>4</v>
+      </c>
+      <c r="G26" s="40">
+        <v>42080</v>
+      </c>
+      <c r="H26" s="40">
+        <v>42083</v>
+      </c>
+      <c r="I26" s="41"/>
+    </row>
+    <row r="27" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A27" s="101"/>
+      <c r="B27" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39">
+      <c r="C27" s="43"/>
+      <c r="D27" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="44">
         <v>4</v>
-      </c>
-      <c r="G25" s="40">
-        <v>42080</v>
-      </c>
-      <c r="H25" s="40">
-        <v>42083</v>
-      </c>
-      <c r="I25" s="41"/>
-    </row>
-    <row r="26" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A26" s="91"/>
-      <c r="B26" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44">
-        <v>4</v>
-      </c>
-      <c r="G26" s="67">
-        <v>42080</v>
-      </c>
-      <c r="H26" s="45">
-        <v>42083</v>
-      </c>
-      <c r="I26" s="46"/>
-    </row>
-    <row r="27" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A27" s="91"/>
-      <c r="B27" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="64">
-        <v>2</v>
       </c>
       <c r="G27" s="67">
         <v>42080</v>
@@ -3129,20 +3144,22 @@
       <c r="H27" s="45">
         <v>42083</v>
       </c>
-      <c r="I27" s="65"/>
+      <c r="I27" s="46"/>
     </row>
     <row r="28" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A28" s="91"/>
-      <c r="B28" s="100"/>
+      <c r="A28" s="101"/>
+      <c r="B28" s="109" t="s">
+        <v>68</v>
+      </c>
       <c r="C28" s="63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D28" s="63" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E28" s="63"/>
       <c r="F28" s="64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" s="67">
         <v>42080</v>
@@ -3153,17 +3170,17 @@
       <c r="I28" s="65"/>
     </row>
     <row r="29" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A29" s="91"/>
-      <c r="B29" s="106"/>
+      <c r="A29" s="101"/>
+      <c r="B29" s="98"/>
       <c r="C29" s="63" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D29" s="63" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E29" s="63"/>
       <c r="F29" s="64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" s="67">
         <v>42080</v>
@@ -3174,19 +3191,17 @@
       <c r="I29" s="65"/>
     </row>
     <row r="30" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A30" s="91"/>
-      <c r="B30" s="99" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" s="70" t="s">
-        <v>120</v>
+      <c r="A30" s="101"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>73</v>
       </c>
       <c r="E30" s="63"/>
       <c r="F30" s="64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="67">
         <v>42080</v>
@@ -3197,39 +3212,39 @@
       <c r="I30" s="65"/>
     </row>
     <row r="31" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A31" s="91"/>
-      <c r="B31" s="100"/>
+      <c r="A31" s="101"/>
+      <c r="B31" s="97" t="s">
+        <v>127</v>
+      </c>
       <c r="C31" s="70" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D31" s="70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E31" s="63"/>
-      <c r="F31" s="64"/>
+      <c r="F31" s="64">
+        <v>1</v>
+      </c>
       <c r="G31" s="67">
         <v>42080</v>
       </c>
       <c r="H31" s="45">
         <v>42083</v>
       </c>
-      <c r="I31" s="72" t="s">
-        <v>122</v>
-      </c>
+      <c r="I31" s="65"/>
     </row>
     <row r="32" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A32" s="91"/>
-      <c r="B32" s="100"/>
+      <c r="A32" s="101"/>
+      <c r="B32" s="98"/>
       <c r="C32" s="70" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D32" s="70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E32" s="63"/>
-      <c r="F32" s="64">
-        <v>17</v>
-      </c>
+      <c r="F32" s="64"/>
       <c r="G32" s="67">
         <v>42080</v>
       </c>
@@ -3237,20 +3252,22 @@
         <v>42083</v>
       </c>
       <c r="I32" s="72" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A33" s="101"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="70" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A33" s="91"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="70" t="s">
-        <v>124</v>
-      </c>
       <c r="D33" s="70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E33" s="63"/>
-      <c r="F33" s="64"/>
+      <c r="F33" s="64">
+        <v>17</v>
+      </c>
       <c r="G33" s="67">
         <v>42080</v>
       </c>
@@ -3258,17 +3275,17 @@
         <v>42083</v>
       </c>
       <c r="I33" s="72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A34" s="91"/>
-      <c r="B34" s="100"/>
+      <c r="A34" s="101"/>
+      <c r="B34" s="98"/>
       <c r="C34" s="70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D34" s="70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E34" s="63"/>
       <c r="F34" s="64"/>
@@ -3279,17 +3296,17 @@
         <v>42083</v>
       </c>
       <c r="I34" s="72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A35" s="91"/>
-      <c r="B35" s="100"/>
+      <c r="A35" s="101"/>
+      <c r="B35" s="98"/>
       <c r="C35" s="70" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D35" s="70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E35" s="63"/>
       <c r="F35" s="64"/>
@@ -3300,123 +3317,125 @@
         <v>42083</v>
       </c>
       <c r="I35" s="72" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A36" s="91"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="73" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="50">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A36" s="101"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="63"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="67">
         <v>42080</v>
       </c>
-      <c r="H36" s="50">
+      <c r="H36" s="45">
         <v>42083</v>
       </c>
-      <c r="I36" s="51"/>
-    </row>
-    <row r="37" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D37" s="54" t="s">
+      <c r="I36" s="72" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="13.6" customHeight="1" thickBot="1">
+      <c r="A37" s="101"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="48"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="50">
+        <v>42080</v>
+      </c>
+      <c r="H37" s="50">
+        <v>42083</v>
+      </c>
+      <c r="I37" s="51"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.3" thickBot="1">
+      <c r="D38" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="55">
-        <f>SUM(F25:F36)</f>
+      <c r="E38" s="54"/>
+      <c r="F38" s="55">
+        <f>SUM(F26:F37)</f>
         <v>33</v>
       </c>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-    </row>
-    <row r="38" spans="1:9" ht="13.8" thickTop="1">
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="57"/>
       <c r="G38" s="56"/>
       <c r="H38" s="56"/>
     </row>
-    <row r="39" spans="1:9" ht="13.8" thickBot="1">
+    <row r="39" spans="1:9" ht="14.3" thickTop="1">
       <c r="D39" s="54"/>
       <c r="E39" s="54"/>
       <c r="F39" s="57"/>
       <c r="G39" s="56"/>
       <c r="H39" s="56"/>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="90" t="s">
+    <row r="40" spans="1:9" ht="14.3" thickBot="1">
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="C41" s="38"/>
+      <c r="D41" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38" t="s">
+      <c r="E41" s="38"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="40">
+        <v>42079</v>
+      </c>
+      <c r="H41" s="40">
+        <v>42083</v>
+      </c>
+      <c r="I41" s="41"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="101"/>
+      <c r="B42" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="40">
-        <v>42079</v>
-      </c>
-      <c r="H40" s="40">
-        <v>42083</v>
-      </c>
-      <c r="I40" s="41"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="91"/>
-      <c r="B41" s="93" t="s">
+      <c r="C42" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="43"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="67">
-        <v>42079</v>
-      </c>
-      <c r="H41" s="45">
-        <v>42083</v>
-      </c>
-      <c r="I41" s="46"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="91"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="63" t="s">
-        <v>80</v>
-      </c>
       <c r="D42" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" s="63"/>
-      <c r="F42" s="64"/>
+        <v>76</v>
+      </c>
+      <c r="E42" s="43"/>
+      <c r="F42" s="44"/>
       <c r="G42" s="67">
         <v>42079</v>
       </c>
       <c r="H42" s="45">
         <v>42083</v>
       </c>
-      <c r="I42" s="65"/>
+      <c r="I42" s="46"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="91"/>
-      <c r="B43" s="94"/>
+      <c r="A43" s="101"/>
+      <c r="B43" s="107"/>
       <c r="C43" s="63" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E43" s="63"/>
       <c r="F43" s="64"/>
@@ -3429,13 +3448,13 @@
       <c r="I43" s="65"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="91"/>
-      <c r="B44" s="94"/>
+      <c r="A44" s="101"/>
+      <c r="B44" s="107"/>
       <c r="C44" s="63" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E44" s="63"/>
       <c r="F44" s="64"/>
@@ -3448,13 +3467,13 @@
       <c r="I44" s="65"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="91"/>
-      <c r="B45" s="94"/>
+      <c r="A45" s="101"/>
+      <c r="B45" s="107"/>
       <c r="C45" s="63" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E45" s="63"/>
       <c r="F45" s="64"/>
@@ -3467,13 +3486,13 @@
       <c r="I45" s="65"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="91"/>
-      <c r="B46" s="95"/>
+      <c r="A46" s="101"/>
+      <c r="B46" s="107"/>
       <c r="C46" s="63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E46" s="63"/>
       <c r="F46" s="64"/>
@@ -3486,21 +3505,16 @@
       <c r="I46" s="65"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="91"/>
-      <c r="B47" s="93" t="s">
-        <v>88</v>
-      </c>
+      <c r="A47" s="101"/>
+      <c r="B47" s="111"/>
       <c r="C47" s="63" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E47" s="63"/>
-      <c r="F47" s="64">
-        <f>'March 2015'!T35</f>
-        <v>5</v>
-      </c>
+      <c r="F47" s="64"/>
       <c r="G47" s="67">
         <v>42079</v>
       </c>
@@ -3510,18 +3524,20 @@
       <c r="I47" s="65"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="91"/>
-      <c r="B48" s="94"/>
-      <c r="C48" s="70" t="s">
-        <v>91</v>
+      <c r="A48" s="101"/>
+      <c r="B48" s="106" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="63" t="s">
+        <v>88</v>
       </c>
       <c r="D48" s="43" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E48" s="63"/>
       <c r="F48" s="64">
         <f>'March 2015'!T36</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G48" s="67">
         <v>42079</v>
@@ -3532,18 +3548,18 @@
       <c r="I48" s="65"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="91"/>
-      <c r="B49" s="94"/>
-      <c r="C49" s="63" t="s">
-        <v>92</v>
+      <c r="A49" s="101"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="70" t="s">
+        <v>90</v>
       </c>
       <c r="D49" s="43" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E49" s="63"/>
       <c r="F49" s="64">
         <f>'March 2015'!T37</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G49" s="67">
         <v>42079</v>
@@ -3554,18 +3570,18 @@
       <c r="I49" s="65"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="91"/>
-      <c r="B50" s="94"/>
-      <c r="C50" s="70" t="s">
-        <v>94</v>
+      <c r="A50" s="101"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="63" t="s">
+        <v>91</v>
       </c>
       <c r="D50" s="43" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E50" s="63"/>
       <c r="F50" s="64">
         <f>'March 2015'!T38</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G50" s="67">
         <v>42079</v>
@@ -3573,23 +3589,21 @@
       <c r="H50" s="45">
         <v>42083</v>
       </c>
-      <c r="I50" s="71" t="s">
-        <v>156</v>
-      </c>
+      <c r="I50" s="65"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="91"/>
-      <c r="B51" s="94"/>
+      <c r="A51" s="101"/>
+      <c r="B51" s="107"/>
       <c r="C51" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" s="63" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="D51" s="43" t="s">
+        <v>82</v>
       </c>
       <c r="E51" s="63"/>
       <c r="F51" s="64">
         <f>'March 2015'!T39</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G51" s="67">
         <v>42079</v>
@@ -3597,102 +3611,103 @@
       <c r="H51" s="45">
         <v>42083</v>
       </c>
-      <c r="I51" s="65"/>
-    </row>
-    <row r="52" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A52" s="92"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52" s="48"/>
+      <c r="I51" s="71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="101"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="63"/>
       <c r="F52" s="64">
         <f>'March 2015'!T40</f>
         <v>8</v>
       </c>
-      <c r="G52" s="50">
+      <c r="G52" s="67">
         <v>42079</v>
       </c>
-      <c r="H52" s="50">
+      <c r="H52" s="45">
         <v>42083</v>
       </c>
-      <c r="I52" s="51"/>
-    </row>
-    <row r="53" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D53" s="54" t="s">
+      <c r="I52" s="65"/>
+    </row>
+    <row r="53" spans="1:9" ht="13.6" thickBot="1">
+      <c r="A53" s="102"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" s="48"/>
+      <c r="F53" s="64">
+        <f>'March 2015'!T41</f>
+        <v>8</v>
+      </c>
+      <c r="G53" s="50">
+        <v>42079</v>
+      </c>
+      <c r="H53" s="50">
+        <v>42083</v>
+      </c>
+      <c r="I53" s="51"/>
+    </row>
+    <row r="54" spans="1:9" ht="14.3" thickBot="1">
+      <c r="D54" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="55">
-        <f>SUM(F40:F52)</f>
+      <c r="E54" s="54"/>
+      <c r="F54" s="55">
+        <f>SUM(F41:F53)</f>
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="13.8" thickTop="1"/>
-    <row r="55" spans="1:9" ht="13.8" thickBot="1"/>
-    <row r="56" spans="1:9">
-      <c r="A56" s="113" t="s">
+    <row r="55" spans="1:9" ht="13.6" thickTop="1"/>
+    <row r="56" spans="1:9" ht="13.6" thickBot="1"/>
+    <row r="57" spans="1:9">
+      <c r="A57" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="113" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="97" t="s">
-        <v>137</v>
-      </c>
-      <c r="C56" s="38" t="s">
+      <c r="D57" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="38" t="s">
+      <c r="E57" s="38"/>
+      <c r="F57" s="39">
+        <v>15</v>
+      </c>
+      <c r="G57" s="40">
+        <v>42079</v>
+      </c>
+      <c r="H57" s="40">
+        <v>42083</v>
+      </c>
+      <c r="I57" s="41"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="101"/>
+      <c r="B58" s="114"/>
+      <c r="C58" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="E56" s="38"/>
-      <c r="F56" s="39">
-        <v>15</v>
-      </c>
-      <c r="G56" s="40">
-        <v>42079</v>
-      </c>
-      <c r="H56" s="40">
-        <v>42083</v>
-      </c>
-      <c r="I56" s="41"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="91"/>
-      <c r="B57" s="98"/>
-      <c r="C57" s="59" t="s">
+      <c r="D58" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="D57" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="E57" s="59"/>
-      <c r="F57" s="60">
+      <c r="E58" s="59"/>
+      <c r="F58" s="60">
         <v>5</v>
-      </c>
-      <c r="G57" s="67">
-        <v>42079</v>
-      </c>
-      <c r="H57" s="45">
-        <v>42083</v>
-      </c>
-      <c r="I57" s="62"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="91"/>
-      <c r="B58" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="C58" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="D58" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58" s="43"/>
-      <c r="F58" s="44">
-        <v>2</v>
       </c>
       <c r="G58" s="67">
         <v>42079</v>
@@ -3700,19 +3715,21 @@
       <c r="H58" s="45">
         <v>42083</v>
       </c>
-      <c r="I58" s="46"/>
+      <c r="I58" s="62"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="91"/>
-      <c r="B59" s="94"/>
-      <c r="C59" s="63" t="s">
-        <v>104</v>
+      <c r="A59" s="101"/>
+      <c r="B59" s="106" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>102</v>
       </c>
       <c r="D59" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="E59" s="63"/>
-      <c r="F59" s="64">
+        <v>101</v>
+      </c>
+      <c r="E59" s="43"/>
+      <c r="F59" s="44">
         <v>2</v>
       </c>
       <c r="G59" s="67">
@@ -3721,16 +3738,16 @@
       <c r="H59" s="45">
         <v>42083</v>
       </c>
-      <c r="I59" s="65"/>
+      <c r="I59" s="46"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="91"/>
-      <c r="B60" s="94"/>
+      <c r="A60" s="101"/>
+      <c r="B60" s="107"/>
       <c r="C60" s="63" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D60" s="43" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E60" s="63"/>
       <c r="F60" s="64">
@@ -3745,13 +3762,13 @@
       <c r="I60" s="65"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="91"/>
-      <c r="B61" s="95"/>
+      <c r="A61" s="101"/>
+      <c r="B61" s="107"/>
       <c r="C61" s="63" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D61" s="43" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E61" s="63"/>
       <c r="F61" s="64">
@@ -3766,13 +3783,13 @@
       <c r="I61" s="65"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="91"/>
-      <c r="B62" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="C62" s="63"/>
+      <c r="A62" s="101"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="63" t="s">
+        <v>107</v>
+      </c>
       <c r="D62" s="43" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E62" s="63"/>
       <c r="F62" s="64">
@@ -3787,19 +3804,17 @@
       <c r="I62" s="65"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="91"/>
-      <c r="B63" s="93" t="s">
-        <v>143</v>
-      </c>
-      <c r="C63" s="63" t="s">
-        <v>110</v>
-      </c>
+      <c r="A63" s="101"/>
+      <c r="B63" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="63"/>
       <c r="D63" s="43" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E63" s="63"/>
       <c r="F63" s="64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63" s="67">
         <v>42079</v>
@@ -3810,17 +3825,19 @@
       <c r="I63" s="65"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="91"/>
-      <c r="B64" s="94"/>
+      <c r="A64" s="101"/>
+      <c r="B64" s="106" t="s">
+        <v>142</v>
+      </c>
       <c r="C64" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="D64" s="63" t="s">
-        <v>102</v>
+        <v>109</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>110</v>
       </c>
       <c r="E64" s="63"/>
       <c r="F64" s="64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G64" s="67">
         <v>42079</v>
@@ -3831,17 +3848,17 @@
       <c r="I64" s="65"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="91"/>
-      <c r="B65" s="94"/>
+      <c r="A65" s="101"/>
+      <c r="B65" s="107"/>
       <c r="C65" s="63" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D65" s="63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E65" s="63"/>
       <c r="F65" s="64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G65" s="67">
         <v>42079</v>
@@ -3852,13 +3869,13 @@
       <c r="I65" s="65"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="91"/>
-      <c r="B66" s="95"/>
+      <c r="A66" s="101"/>
+      <c r="B66" s="107"/>
       <c r="C66" s="63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D66" s="63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64">
@@ -3870,60 +3887,62 @@
       <c r="H66" s="45">
         <v>42083</v>
       </c>
-      <c r="I66" s="71"/>
+      <c r="I66" s="65"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="91"/>
-      <c r="B67" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="C67" s="42"/>
-      <c r="D67" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="E67" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="F67" s="64"/>
+      <c r="A67" s="101"/>
+      <c r="B67" s="111"/>
+      <c r="C67" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" s="63"/>
+      <c r="F67" s="64">
+        <v>3</v>
+      </c>
       <c r="G67" s="67">
-        <v>42082</v>
+        <v>42079</v>
       </c>
       <c r="H67" s="45">
-        <v>42088</v>
-      </c>
-      <c r="I67" s="71" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A68" s="92"/>
-      <c r="B68" s="93" t="s">
-        <v>146</v>
-      </c>
-      <c r="C68" s="42" t="s">
-        <v>147</v>
-      </c>
+        <v>42083</v>
+      </c>
+      <c r="I67" s="71"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="101"/>
+      <c r="B68" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" s="42"/>
       <c r="D68" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="E68" s="75"/>
+        <v>153</v>
+      </c>
+      <c r="E68" s="75" t="s">
+        <v>114</v>
+      </c>
       <c r="F68" s="64"/>
       <c r="G68" s="67">
-        <v>42086</v>
+        <v>42082</v>
       </c>
       <c r="H68" s="45">
-        <v>42086</v>
-      </c>
-      <c r="I68" s="71"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="110"/>
-      <c r="B69" s="94"/>
+        <v>42088</v>
+      </c>
+      <c r="I68" s="71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="13.6" thickBot="1">
+      <c r="A69" s="102"/>
+      <c r="B69" s="106" t="s">
+        <v>145</v>
+      </c>
       <c r="C69" s="42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D69" s="75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E69" s="75"/>
       <c r="F69" s="64"/>
@@ -3936,13 +3955,13 @@
       <c r="I69" s="71"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="111"/>
-      <c r="B70" s="94"/>
+      <c r="A70" s="91"/>
+      <c r="B70" s="107"/>
       <c r="C70" s="42" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D70" s="75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E70" s="75"/>
       <c r="F70" s="64"/>
@@ -3955,13 +3974,13 @@
       <c r="I70" s="71"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="111"/>
-      <c r="B71" s="94"/>
+      <c r="A71" s="92"/>
+      <c r="B71" s="107"/>
       <c r="C71" s="42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D71" s="75" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="E71" s="75"/>
       <c r="F71" s="64"/>
@@ -3974,13 +3993,13 @@
       <c r="I71" s="71"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="111"/>
-      <c r="B72" s="94"/>
+      <c r="A72" s="92"/>
+      <c r="B72" s="107"/>
       <c r="C72" s="42" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D72" s="75" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E72" s="75"/>
       <c r="F72" s="64"/>
@@ -3992,54 +4011,54 @@
       </c>
       <c r="I72" s="71"/>
     </row>
-    <row r="73" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A73" s="111"/>
-      <c r="B73" s="96"/>
-      <c r="C73" s="76" t="s">
-        <v>150</v>
-      </c>
-      <c r="D73" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="E73" s="76"/>
-      <c r="F73" s="77"/>
-      <c r="G73" s="78">
+    <row r="73" spans="1:9">
+      <c r="A73" s="92"/>
+      <c r="B73" s="107"/>
+      <c r="C73" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" s="75"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="67">
         <v>42086</v>
       </c>
-      <c r="H73" s="78">
+      <c r="H73" s="45">
         <v>42086</v>
       </c>
-      <c r="I73" s="79"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="111"/>
-      <c r="B74" s="107" t="s">
-        <v>165</v>
-      </c>
-      <c r="C74" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="D74" s="89" t="s">
-        <v>160</v>
-      </c>
-      <c r="E74" s="89"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="67">
-        <v>42087</v>
-      </c>
-      <c r="H74" s="67">
-        <v>42087</v>
-      </c>
-      <c r="I74" s="71"/>
+      <c r="I73" s="71"/>
+    </row>
+    <row r="74" spans="1:9" ht="13.6" thickBot="1">
+      <c r="A74" s="92"/>
+      <c r="B74" s="108"/>
+      <c r="C74" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="D74" s="76" t="s">
+        <v>152</v>
+      </c>
+      <c r="E74" s="76"/>
+      <c r="F74" s="77"/>
+      <c r="G74" s="78">
+        <v>42086</v>
+      </c>
+      <c r="H74" s="78">
+        <v>42086</v>
+      </c>
+      <c r="I74" s="79"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="111"/>
-      <c r="B75" s="108"/>
+      <c r="A75" s="92"/>
+      <c r="B75" s="94" t="s">
+        <v>164</v>
+      </c>
       <c r="C75" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D75" s="89" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E75" s="89"/>
       <c r="F75" s="64"/>
@@ -4052,13 +4071,13 @@
       <c r="I75" s="71"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="111"/>
-      <c r="B76" s="108"/>
+      <c r="A76" s="92"/>
+      <c r="B76" s="95"/>
       <c r="C76" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" s="89" t="s">
         <v>159</v>
-      </c>
-      <c r="D76" s="89" t="s">
-        <v>160</v>
       </c>
       <c r="E76" s="89"/>
       <c r="F76" s="64"/>
@@ -4071,13 +4090,13 @@
       <c r="I76" s="71"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="111"/>
-      <c r="B77" s="108"/>
+      <c r="A77" s="92"/>
+      <c r="B77" s="95"/>
       <c r="C77" s="42" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D77" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E77" s="89"/>
       <c r="F77" s="64"/>
@@ -4090,13 +4109,13 @@
       <c r="I77" s="71"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="111"/>
-      <c r="B78" s="108"/>
+      <c r="A78" s="92"/>
+      <c r="B78" s="95"/>
       <c r="C78" s="42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D78" s="89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E78" s="89"/>
       <c r="F78" s="64"/>
@@ -4108,43 +4127,62 @@
       </c>
       <c r="I78" s="71"/>
     </row>
-    <row r="79" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A79" s="112"/>
-      <c r="B79" s="109"/>
-      <c r="C79" s="76" t="s">
-        <v>164</v>
-      </c>
-      <c r="D79" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="E79" s="76"/>
-      <c r="F79" s="77"/>
+    <row r="79" spans="1:9">
+      <c r="A79" s="92"/>
+      <c r="B79" s="95"/>
+      <c r="C79" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="E79" s="89"/>
+      <c r="F79" s="64"/>
       <c r="G79" s="67">
         <v>42087</v>
       </c>
       <c r="H79" s="67">
         <v>42087</v>
       </c>
-      <c r="I79" s="79"/>
+      <c r="I79" s="71"/>
+    </row>
+    <row r="80" spans="1:9" ht="13.6" thickBot="1">
+      <c r="A80" s="93"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="E80" s="76"/>
+      <c r="F80" s="77"/>
+      <c r="G80" s="67">
+        <v>42087</v>
+      </c>
+      <c r="H80" s="67">
+        <v>42087</v>
+      </c>
+      <c r="I80" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="A25:A36"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="A26:A37"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="A9:A22"/>
     <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A40:A52"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="A56:A68"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A41:A53"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="A57:A69"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B69:B74"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4154,28 +4192,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="F43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K64" sqref="K64"/>
+      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.9"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="64.88671875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" style="23" customWidth="1"/>
-    <col min="5" max="18" width="4.33203125" style="23" customWidth="1"/>
-    <col min="19" max="19" width="2.88671875" style="23" customWidth="1"/>
-    <col min="20" max="20" width="7.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="23"/>
+    <col min="1" max="1" width="8.125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="6.125" style="23" customWidth="1"/>
+    <col min="5" max="18" width="4.375" style="23" customWidth="1"/>
+    <col min="19" max="19" width="2.875" style="23" customWidth="1"/>
+    <col min="20" max="20" width="7.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.6">
+    <row r="1" spans="1:20" ht="15.65">
       <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
@@ -4183,7 +4221,7 @@
     <row r="2" spans="1:20" ht="7.5" customHeight="1">
       <c r="A2" s="24"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" ht="13.6">
       <c r="A3" s="24" t="s">
         <v>12</v>
       </c>
@@ -4192,21 +4230,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" ht="13.6">
       <c r="A4" s="24"/>
       <c r="B4" s="22"/>
       <c r="C4" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" ht="13.6">
       <c r="A5" s="24"/>
       <c r="B5" s="26"/>
       <c r="C5" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" ht="13.6">
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
@@ -4257,12 +4295,12 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="7.5" customHeight="1"/>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" ht="13.6">
       <c r="A8" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="13.8" thickBot="1">
+    <row r="9" spans="1:20" ht="14.3" thickBot="1">
       <c r="B9" s="20" t="s">
         <v>10</v>
       </c>
@@ -4324,7 +4362,7 @@
       <c r="Q11" s="84"/>
       <c r="R11" s="84"/>
       <c r="T11" s="81">
-        <f t="shared" ref="T11:T20" si="0">SUM(E11:R11)</f>
+        <f t="shared" ref="T11:T21" si="0">SUM(E11:R11)</f>
         <v>3</v>
       </c>
     </row>
@@ -4572,8 +4610,8 @@
       <c r="B20" s="87">
         <v>11</v>
       </c>
-      <c r="C20" s="69" t="s">
-        <v>62</v>
+      <c r="C20" s="90" t="s">
+        <v>167</v>
       </c>
       <c r="D20" s="84"/>
       <c r="E20" s="84"/>
@@ -4584,7 +4622,9 @@
       <c r="J20" s="22">
         <v>2</v>
       </c>
-      <c r="K20" s="84"/>
+      <c r="K20" s="22">
+        <v>6</v>
+      </c>
       <c r="L20" s="84"/>
       <c r="M20" s="84"/>
       <c r="N20" s="84"/>
@@ -4594,57 +4634,59 @@
       <c r="R20" s="84"/>
       <c r="T20" s="81">
         <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="80" customFormat="1">
+      <c r="B21" s="87">
+        <v>12</v>
+      </c>
+      <c r="C21" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="22">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="24" t="s">
+      <c r="K21" s="22">
+        <v>3</v>
+      </c>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
+      <c r="T21" s="81">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="13.6">
+      <c r="A23" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
-      <c r="B23" s="20" t="s">
+    <row r="24" spans="1:20" ht="13.6">
+      <c r="B24" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="B24" s="21">
-        <v>1</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="19">
-        <v>4</v>
-      </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="T24" s="3">
-        <f>SUM(E24:R24)</f>
-        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="B25" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="19">
@@ -4664,22 +4706,22 @@
       <c r="Q25" s="25"/>
       <c r="R25" s="25"/>
       <c r="T25" s="3">
-        <f t="shared" ref="T25:T31" si="1">SUM(E25:R25)</f>
+        <f>SUM(E25:R25)</f>
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="B26" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="19">
-        <v>2</v>
-      </c>
+      <c r="E26" s="19">
+        <v>4</v>
+      </c>
+      <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
@@ -4693,21 +4735,21 @@
       <c r="Q26" s="25"/>
       <c r="R26" s="25"/>
       <c r="T26" s="3">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" ref="T26:T32" si="1">SUM(E26:R26)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="B27" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
       <c r="F27" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -4723,20 +4765,20 @@
       <c r="R27" s="25"/>
       <c r="T27" s="3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="B28" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
       <c r="F28" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
@@ -4752,20 +4794,20 @@
       <c r="R28" s="25"/>
       <c r="T28" s="3">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="B29" s="21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
       <c r="F29" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
@@ -4781,22 +4823,22 @@
       <c r="R29" s="25"/>
       <c r="T29" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="B30" s="21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="19">
-        <v>2</v>
-      </c>
+      <c r="F30" s="19">
+        <v>1</v>
+      </c>
+      <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
@@ -4810,29 +4852,25 @@
       <c r="R30" s="25"/>
       <c r="T30" s="3">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="B31" s="21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
       <c r="G31" s="19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H31" s="25"/>
-      <c r="I31" s="22">
-        <v>4</v>
-      </c>
-      <c r="J31" s="22">
-        <v>7</v>
-      </c>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
@@ -4843,68 +4881,70 @@
       <c r="R31" s="25"/>
       <c r="T31" s="3">
         <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="B32" s="21">
+        <v>8</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="19">
+        <v>6</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="22">
+        <v>4</v>
+      </c>
+      <c r="J32" s="22">
+        <v>7</v>
+      </c>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="T32" s="3">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
-      <c r="A33" s="24" t="s">
+    <row r="34" spans="1:20" ht="13.6">
+      <c r="A34" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
-      <c r="B34" s="20" t="s">
+    <row r="35" spans="1:20" ht="13.6">
+      <c r="B35" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="B35" s="21">
-        <v>1</v>
-      </c>
-      <c r="C35" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="19">
-        <v>5</v>
-      </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="T35" s="3">
-        <f>SUM(E35:R35)</f>
-        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="B36" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="70" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
-      <c r="I36" s="22">
-        <v>4</v>
-      </c>
+      <c r="I36" s="25"/>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
       <c r="L36" s="25"/>
@@ -4915,23 +4955,27 @@
       <c r="Q36" s="25"/>
       <c r="R36" s="25"/>
       <c r="T36" s="3">
-        <f t="shared" ref="T36:T39" si="2">SUM(E36:R36)</f>
-        <v>7</v>
+        <f>SUM(E36:R36)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="B37" s="21">
+        <v>2</v>
+      </c>
+      <c r="C37" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="19">
         <v>3</v>
       </c>
-      <c r="C37" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
       <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
+      <c r="I37" s="22">
+        <v>4</v>
+      </c>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
@@ -4942,27 +4986,24 @@
       <c r="Q37" s="25"/>
       <c r="R37" s="25"/>
       <c r="T37" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="T37:T40" si="2">SUM(E37:R37)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:20">
-      <c r="B38" s="87">
-        <v>4</v>
-      </c>
-      <c r="C38" s="88" t="s">
-        <v>116</v>
+      <c r="B38" s="21">
+        <v>3</v>
+      </c>
+      <c r="C38" s="63" t="s">
+        <v>91</v>
       </c>
       <c r="D38" s="25"/>
-      <c r="F38" s="19">
-        <v>8</v>
-      </c>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
-      <c r="J38" s="82">
-        <v>8</v>
-      </c>
+      <c r="J38" s="25"/>
       <c r="K38" s="25"/>
       <c r="L38" s="25"/>
       <c r="M38" s="25"/>
@@ -4972,26 +5013,27 @@
       <c r="Q38" s="25"/>
       <c r="R38" s="25"/>
       <c r="T38" s="3">
-        <f>SUM(E38:R38)</f>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:20">
-      <c r="B39" s="21">
-        <v>5</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>117</v>
+      <c r="B39" s="87">
+        <v>4</v>
+      </c>
+      <c r="C39" s="88" t="s">
+        <v>115</v>
       </c>
       <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="19">
+      <c r="F39" s="19">
         <v>8</v>
       </c>
+      <c r="G39" s="25"/>
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
+      <c r="J39" s="82">
+        <v>8</v>
+      </c>
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
@@ -5001,50 +5043,52 @@
       <c r="Q39" s="25"/>
       <c r="R39" s="25"/>
       <c r="T39" s="3">
+        <f>SUM(E39:R39)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="B40" s="21">
+        <v>5</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="19">
+        <v>8</v>
+      </c>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="T40" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="80" customFormat="1">
-      <c r="B40" s="83">
-        <v>5</v>
-      </c>
-      <c r="C40" s="84" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="82">
-        <v>8</v>
-      </c>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="84"/>
-      <c r="M40" s="84"/>
-      <c r="N40" s="84"/>
-      <c r="O40" s="84"/>
-      <c r="P40" s="84"/>
-      <c r="Q40" s="84"/>
-      <c r="R40" s="84"/>
-      <c r="T40" s="81">
-        <f t="shared" ref="T40" si="3">SUM(E40:R40)</f>
-        <v>8</v>
-      </c>
-    </row>
     <row r="41" spans="1:20" s="80" customFormat="1">
       <c r="B41" s="83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" s="84" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D41" s="84"/>
       <c r="E41" s="84"/>
       <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
+      <c r="G41" s="82">
+        <v>8</v>
+      </c>
       <c r="H41" s="84"/>
       <c r="I41" s="84"/>
       <c r="J41" s="84"/>
@@ -5057,86 +5101,84 @@
       <c r="Q41" s="84"/>
       <c r="R41" s="84"/>
       <c r="T41" s="81">
-        <f t="shared" ref="T41" si="4">SUM(E41:R41)</f>
+        <f t="shared" ref="T41" si="3">SUM(E41:R41)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" s="80" customFormat="1">
+      <c r="B42" s="83">
+        <v>6</v>
+      </c>
+      <c r="C42" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="84"/>
+      <c r="M42" s="84"/>
+      <c r="N42" s="84"/>
+      <c r="O42" s="84"/>
+      <c r="P42" s="84"/>
+      <c r="Q42" s="84"/>
+      <c r="R42" s="84"/>
+      <c r="T42" s="81">
+        <f t="shared" ref="T42" si="4">SUM(E42:R42)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="80" customFormat="1">
-      <c r="B42" s="27"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="T42" s="28"/>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="A43" s="24" t="s">
+    <row r="43" spans="1:20" s="80" customFormat="1">
+      <c r="B43" s="27"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="T43" s="28"/>
+    </row>
+    <row r="44" spans="1:20" ht="13.6">
+      <c r="A44" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
-      <c r="B44" s="20" t="s">
+    <row r="45" spans="1:20" ht="13.6">
+      <c r="B45" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
-      <c r="B45" s="21">
+    <row r="46" spans="1:20">
+      <c r="B46" s="21">
         <v>1</v>
       </c>
-      <c r="C45" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="19">
+      <c r="C46" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="25"/>
+      <c r="E46" s="19">
         <v>8</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F46" s="19">
         <v>8</v>
       </c>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="25"/>
-      <c r="T45" s="3">
-        <f>SUM(E45:R45)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="B46" s="83">
-        <v>2</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="19">
-        <v>8</v>
-      </c>
+      <c r="G46" s="25"/>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
@@ -5149,55 +5191,55 @@
       <c r="Q46" s="25"/>
       <c r="R46" s="25"/>
       <c r="T46" s="3">
-        <f t="shared" ref="T46:T52" si="5">SUM(E46:R46)</f>
+        <f>SUM(E46:R46)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="B47" s="83">
+        <v>2</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="19">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" s="80" customFormat="1">
-      <c r="B47" s="83">
-        <v>3</v>
-      </c>
-      <c r="C47" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="82">
-        <v>8</v>
-      </c>
-      <c r="J47" s="84"/>
-      <c r="K47" s="84"/>
-      <c r="L47" s="84"/>
-      <c r="M47" s="84"/>
-      <c r="N47" s="84"/>
-      <c r="O47" s="84"/>
-      <c r="P47" s="84"/>
-      <c r="Q47" s="84"/>
-      <c r="R47" s="84"/>
-      <c r="T47" s="81">
-        <f t="shared" ref="T47:T48" si="6">SUM(E47:R47)</f>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="T47" s="3">
+        <f t="shared" ref="T47:T53" si="5">SUM(E47:R47)</f>
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="80" customFormat="1">
       <c r="B48" s="83">
-        <v>4</v>
-      </c>
-      <c r="C48" s="74">
-        <v>6.1</v>
+        <v>3</v>
+      </c>
+      <c r="C48" s="84" t="s">
+        <v>144</v>
       </c>
       <c r="D48" s="84"/>
       <c r="E48" s="84"/>
       <c r="F48" s="84"/>
       <c r="G48" s="84"/>
       <c r="H48" s="84"/>
-      <c r="I48" s="84"/>
-      <c r="J48" s="82">
-        <v>2</v>
-      </c>
+      <c r="I48" s="82">
+        <v>8</v>
+      </c>
+      <c r="J48" s="84"/>
       <c r="K48" s="84"/>
       <c r="L48" s="84"/>
       <c r="M48" s="84"/>
@@ -5207,13 +5249,13 @@
       <c r="Q48" s="84"/>
       <c r="R48" s="84"/>
       <c r="T48" s="81">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" ref="T48:T49" si="6">SUM(E48:R48)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="80" customFormat="1">
       <c r="B49" s="83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" s="74">
         <v>6.1</v>
@@ -5236,71 +5278,71 @@
       <c r="Q49" s="84"/>
       <c r="R49" s="84"/>
       <c r="T49" s="81">
-        <f t="shared" ref="T49" si="7">SUM(E49:R49)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" s="80" customFormat="1">
       <c r="B50" s="83">
+        <v>5</v>
+      </c>
+      <c r="C50" s="74">
+        <v>6.1</v>
+      </c>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="82">
+        <v>2</v>
+      </c>
+      <c r="K50" s="84"/>
+      <c r="L50" s="84"/>
+      <c r="M50" s="84"/>
+      <c r="N50" s="84"/>
+      <c r="O50" s="84"/>
+      <c r="P50" s="84"/>
+      <c r="Q50" s="84"/>
+      <c r="R50" s="84"/>
+      <c r="T50" s="81">
+        <f t="shared" ref="T50" si="7">SUM(E50:R50)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="B51" s="83">
         <v>6</v>
       </c>
-      <c r="C50" s="74">
+      <c r="C51" s="74">
         <v>6.3</v>
       </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="19">
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="19">
         <v>4</v>
       </c>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="25"/>
-      <c r="O50" s="25"/>
-      <c r="P50" s="25"/>
-      <c r="Q50" s="25"/>
-      <c r="R50" s="25"/>
-      <c r="T50" s="3">
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="T51" s="3">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="80" customFormat="1">
-      <c r="B51" s="83">
-        <v>7</v>
-      </c>
-      <c r="C51" s="74">
-        <v>7.1</v>
-      </c>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="82">
-        <v>2</v>
-      </c>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="84"/>
-      <c r="Q51" s="84"/>
-      <c r="R51" s="84"/>
-      <c r="T51" s="81">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
     <row r="52" spans="1:20" s="80" customFormat="1">
       <c r="B52" s="83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" s="74">
         <v>7.1</v>
@@ -5312,7 +5354,7 @@
       <c r="H52" s="84"/>
       <c r="I52" s="84"/>
       <c r="J52" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K52" s="84"/>
       <c r="L52" s="84"/>
@@ -5324,15 +5366,15 @@
       <c r="R52" s="84"/>
       <c r="T52" s="81">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="80" customFormat="1">
       <c r="B53" s="83">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C53" s="74">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="D53" s="84"/>
       <c r="E53" s="84"/>
@@ -5341,7 +5383,7 @@
       <c r="H53" s="84"/>
       <c r="I53" s="84"/>
       <c r="J53" s="82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K53" s="84"/>
       <c r="L53" s="84"/>
@@ -5352,70 +5394,70 @@
       <c r="Q53" s="84"/>
       <c r="R53" s="84"/>
       <c r="T53" s="81">
-        <f t="shared" ref="T53" si="8">SUM(E53:R53)</f>
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" s="80" customFormat="1">
+      <c r="B54" s="83">
+        <v>9</v>
+      </c>
+      <c r="C54" s="74">
+        <v>7.3</v>
+      </c>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="82">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:20">
-      <c r="A55" s="24" t="s">
+      <c r="K54" s="84"/>
+      <c r="L54" s="84"/>
+      <c r="M54" s="84"/>
+      <c r="N54" s="84"/>
+      <c r="O54" s="84"/>
+      <c r="P54" s="84"/>
+      <c r="Q54" s="84"/>
+      <c r="R54" s="84"/>
+      <c r="T54" s="81">
+        <f t="shared" ref="T54" si="8">SUM(E54:R54)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="13.6">
+      <c r="A56" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
-      <c r="B56" s="20" t="s">
+    <row r="57" spans="1:20" ht="13.6">
+      <c r="B57" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
-      <c r="B57" s="21">
+    <row r="58" spans="1:20">
+      <c r="B58" s="21">
         <v>1</v>
       </c>
-      <c r="C57" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="19">
+      <c r="C58" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="19">
         <v>8</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F58" s="19">
         <v>8</v>
       </c>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="25"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="25"/>
-      <c r="R57" s="25"/>
-      <c r="T57" s="3">
-        <f t="shared" ref="T57:T61" si="9">SUM(E57:R57)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
-      <c r="B58" s="83">
-        <v>2</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="19">
-        <v>8</v>
-      </c>
+      <c r="G58" s="25"/>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
-      <c r="J58" s="84"/>
+      <c r="J58" s="25"/>
       <c r="K58" s="25"/>
       <c r="L58" s="25"/>
       <c r="M58" s="25"/>
@@ -5425,42 +5467,45 @@
       <c r="Q58" s="25"/>
       <c r="R58" s="25"/>
       <c r="T58" s="3">
+        <f t="shared" ref="T58:T62" si="9">SUM(E58:R58)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="B59" s="83">
+        <v>2</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="19">
+        <v>8</v>
+      </c>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="84"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="T59" s="3">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="80" customFormat="1">
-      <c r="B59" s="83">
-        <v>3</v>
-      </c>
-      <c r="C59" s="74">
-        <v>6.4</v>
-      </c>
-      <c r="D59" s="84"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="84"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="82">
-        <v>2</v>
-      </c>
-      <c r="K59" s="84"/>
-      <c r="L59" s="84"/>
-      <c r="M59" s="84"/>
-      <c r="N59" s="84"/>
-      <c r="O59" s="84"/>
-      <c r="P59" s="84"/>
-      <c r="Q59" s="84"/>
-      <c r="R59" s="84"/>
-      <c r="T59" s="81"/>
-    </row>
     <row r="60" spans="1:20" s="80" customFormat="1">
       <c r="B60" s="83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60" s="74">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D60" s="84"/>
       <c r="E60" s="84"/>
@@ -5469,7 +5514,7 @@
       <c r="H60" s="84"/>
       <c r="I60" s="84"/>
       <c r="J60" s="82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K60" s="84"/>
       <c r="L60" s="84"/>
@@ -5481,67 +5526,67 @@
       <c r="R60" s="84"/>
       <c r="T60" s="81"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" s="80" customFormat="1">
       <c r="B61" s="83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" s="74">
-        <v>6.6</v>
-      </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
+        <v>6.5</v>
+      </c>
+      <c r="D61" s="84"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="84"/>
+      <c r="H61" s="84"/>
+      <c r="I61" s="84"/>
       <c r="J61" s="82">
         <v>3</v>
       </c>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="25"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="25"/>
-      <c r="R61" s="25"/>
-      <c r="T61" s="3">
+      <c r="K61" s="84"/>
+      <c r="L61" s="84"/>
+      <c r="M61" s="84"/>
+      <c r="N61" s="84"/>
+      <c r="O61" s="84"/>
+      <c r="P61" s="84"/>
+      <c r="Q61" s="84"/>
+      <c r="R61" s="84"/>
+      <c r="T61" s="81"/>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="B62" s="83">
+        <v>5</v>
+      </c>
+      <c r="C62" s="74">
+        <v>6.6</v>
+      </c>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="82">
+        <v>3</v>
+      </c>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25"/>
+      <c r="R62" s="25"/>
+      <c r="T62" s="3">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:20" s="80" customFormat="1">
-      <c r="B62" s="83">
-        <v>6</v>
-      </c>
-      <c r="C62" s="74">
-        <v>7.4</v>
-      </c>
-      <c r="D62" s="84"/>
-      <c r="E62" s="84"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="84"/>
-      <c r="H62" s="84"/>
-      <c r="I62" s="84"/>
-      <c r="J62" s="82">
-        <v>2</v>
-      </c>
-      <c r="K62" s="84"/>
-      <c r="L62" s="84"/>
-      <c r="M62" s="84"/>
-      <c r="N62" s="84"/>
-      <c r="O62" s="84"/>
-      <c r="P62" s="84"/>
-      <c r="Q62" s="84"/>
-      <c r="R62" s="84"/>
-      <c r="T62" s="81"/>
-    </row>
     <row r="63" spans="1:20" s="80" customFormat="1">
       <c r="B63" s="83">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" s="74">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="D63" s="84"/>
       <c r="E63" s="84"/>
@@ -5550,7 +5595,7 @@
       <c r="H63" s="84"/>
       <c r="I63" s="84"/>
       <c r="J63" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K63" s="84"/>
       <c r="L63" s="84"/>
@@ -5564,10 +5609,10 @@
     </row>
     <row r="64" spans="1:20" s="80" customFormat="1">
       <c r="B64" s="83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" s="74">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="D64" s="84"/>
       <c r="E64" s="84"/>
@@ -5576,7 +5621,7 @@
       <c r="H64" s="84"/>
       <c r="I64" s="84"/>
       <c r="J64" s="82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K64" s="84"/>
       <c r="L64" s="84"/>
@@ -5586,8 +5631,34 @@
       <c r="P64" s="84"/>
       <c r="Q64" s="84"/>
       <c r="R64" s="84"/>
-      <c r="T64" s="81">
-        <f t="shared" ref="T64" si="10">SUM(E64:R64)</f>
+      <c r="T64" s="81"/>
+    </row>
+    <row r="65" spans="2:20" s="80" customFormat="1">
+      <c r="B65" s="83">
+        <v>8</v>
+      </c>
+      <c r="C65" s="74">
+        <v>7.6</v>
+      </c>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="84"/>
+      <c r="H65" s="84"/>
+      <c r="I65" s="84"/>
+      <c r="J65" s="82">
+        <v>5</v>
+      </c>
+      <c r="K65" s="84"/>
+      <c r="L65" s="84"/>
+      <c r="M65" s="84"/>
+      <c r="N65" s="84"/>
+      <c r="O65" s="84"/>
+      <c r="P65" s="84"/>
+      <c r="Q65" s="84"/>
+      <c r="R65" s="84"/>
+      <c r="T65" s="81">
+        <f t="shared" ref="T65" si="10">SUM(E65:R65)</f>
         <v>5</v>
       </c>
     </row>

--- a/docs/Listing_Tool_Status_Report_v1.0.xlsx
+++ b/docs/Listing_Tool_Status_Report_v1.0.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Code\ListingTool\trunk\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5352" yWindow="-367" windowWidth="16614" windowHeight="9428" activeTab="2"/>
+    <workbookView xWindow="5355" yWindow="-360" windowWidth="16620" windowHeight="9435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="WBS" sheetId="5" r:id="rId2"/>
     <sheet name="March 2015" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="173">
   <si>
     <t>Project Name:</t>
   </si>
@@ -1193,13 +1188,25 @@
     <t>2.9 Relase &amp; Test</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>5.Familiar with the operation of remrketing</t>
+  </si>
+  <si>
+    <t>5.2 Familiar with the operation of web ui process</t>
+  </si>
+  <si>
+    <t>5.3 check merchant account verify url rule</t>
+  </si>
+  <si>
+    <t>5.1 capture all process and add memo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1211,7 +1218,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1274,7 +1281,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1349,7 +1356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1743,6 +1750,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="3"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1756,7 +1774,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1800,7 +1818,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1983,6 +2001,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2045,6 +2066,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2109,7 +2139,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2141,10 +2171,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2176,7 +2205,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2352,22 +2380,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.375" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13.6" thickBot="1"/>
+    <row r="1" spans="2:10" ht="13.5" thickBot="1"/>
     <row r="2" spans="2:10">
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -2379,7 +2407,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="2:10" ht="31.95">
+    <row r="3" spans="2:10" ht="33">
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
         <v>0</v>
@@ -2405,7 +2433,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="2:10" ht="13.6">
+    <row r="5" spans="2:10">
       <c r="B5" s="7"/>
       <c r="C5" s="13" t="s">
         <v>1</v>
@@ -2420,7 +2448,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="2:10" ht="13.6">
+    <row r="6" spans="2:10">
       <c r="B6" s="7"/>
       <c r="C6" s="13" t="s">
         <v>3</v>
@@ -2446,7 +2474,7 @@
       <c r="I7" s="11"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="2:10" ht="13.6">
+    <row r="8" spans="2:10">
       <c r="B8" s="7"/>
       <c r="C8" s="13" t="s">
         <v>5</v>
@@ -2578,7 +2606,7 @@
       <c r="I17" s="11"/>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="2:10" ht="13.6">
+    <row r="18" spans="2:10">
       <c r="B18" s="7"/>
       <c r="C18" s="13" t="s">
         <v>4</v>
@@ -2593,7 +2621,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="2:10" ht="13.6">
+    <row r="19" spans="2:10">
       <c r="B19" s="7"/>
       <c r="C19" s="13" t="s">
         <v>7</v>
@@ -2619,7 +2647,7 @@
       <c r="I20" s="11"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="2:10" ht="13.6" thickBot="1">
+    <row r="21" spans="2:10" ht="13.5" thickBot="1">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -2638,28 +2666,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="39" style="52" customWidth="1"/>
-    <col min="2" max="2" width="41.875" style="53" customWidth="1"/>
-    <col min="3" max="3" width="54.125" style="52" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="68" customWidth="1"/>
-    <col min="7" max="8" width="11.625" style="52" customWidth="1"/>
-    <col min="9" max="9" width="38.5" style="52" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.125" style="33"/>
+    <col min="2" max="2" width="41.85546875" style="53" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="52" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="68" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" style="52" customWidth="1"/>
+    <col min="9" max="9" width="38.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.6">
+    <row r="1" spans="1:9">
       <c r="A1" s="30" t="s">
         <v>29</v>
       </c>
@@ -2688,7 +2716,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.3" thickBot="1">
+    <row r="2" spans="1:9" ht="13.5" thickBot="1">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="34"/>
@@ -2699,8 +2727,8 @@
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
     </row>
-    <row r="3" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A3" s="100" t="s">
+    <row r="3" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A3" s="101" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="37" t="s">
@@ -2720,8 +2748,8 @@
       </c>
       <c r="I3" s="41"/>
     </row>
-    <row r="4" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A4" s="101"/>
+    <row r="4" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A4" s="102"/>
       <c r="B4" s="42" t="s">
         <v>41</v>
       </c>
@@ -2739,8 +2767,8 @@
       </c>
       <c r="I4" s="46"/>
     </row>
-    <row r="5" spans="1:9" ht="13.6" customHeight="1" thickBot="1">
-      <c r="A5" s="102"/>
+    <row r="5" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A5" s="103"/>
       <c r="B5" s="47" t="s">
         <v>42</v>
       </c>
@@ -2756,7 +2784,7 @@
       <c r="H5" s="48"/>
       <c r="I5" s="51"/>
     </row>
-    <row r="6" spans="1:9" ht="14.3" thickBot="1">
+    <row r="6" spans="1:9" ht="13.5" thickBot="1">
       <c r="D6" s="54" t="s">
         <v>43</v>
       </c>
@@ -2768,25 +2796,25 @@
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
     </row>
-    <row r="7" spans="1:9" ht="14.3" thickTop="1">
+    <row r="7" spans="1:9" ht="13.5" thickTop="1">
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
       <c r="F7" s="57"/>
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
     </row>
-    <row r="8" spans="1:9" ht="14.3" thickBot="1">
+    <row r="8" spans="1:9" ht="13.5" thickBot="1">
       <c r="D8" s="54"/>
       <c r="E8" s="54"/>
       <c r="F8" s="57"/>
       <c r="G8" s="56"/>
       <c r="H8" s="56"/>
     </row>
-    <row r="9" spans="1:9" ht="26.7" customHeight="1">
-      <c r="A9" s="100" t="s">
+    <row r="9" spans="1:9" ht="26.65" customHeight="1">
+      <c r="A9" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="104" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="58" t="s">
@@ -2807,9 +2835,9 @@
       </c>
       <c r="I9" s="41"/>
     </row>
-    <row r="10" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="104"/>
+    <row r="10" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A10" s="102"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="59" t="s">
         <v>47</v>
       </c>
@@ -2828,9 +2856,9 @@
       </c>
       <c r="I10" s="62"/>
     </row>
-    <row r="11" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A11" s="101"/>
-      <c r="B11" s="104"/>
+    <row r="11" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A11" s="102"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="43" t="s">
         <v>49</v>
       </c>
@@ -2849,9 +2877,9 @@
       </c>
       <c r="I11" s="46"/>
     </row>
-    <row r="12" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A12" s="101"/>
-      <c r="B12" s="104"/>
+    <row r="12" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A12" s="102"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="63" t="s">
         <v>50</v>
       </c>
@@ -2870,9 +2898,9 @@
       </c>
       <c r="I12" s="65"/>
     </row>
-    <row r="13" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A13" s="101"/>
-      <c r="B13" s="105"/>
+    <row r="13" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A13" s="102"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="63" t="s">
         <v>52</v>
       </c>
@@ -2889,9 +2917,9 @@
       </c>
       <c r="I13" s="65"/>
     </row>
-    <row r="14" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A14" s="101"/>
-      <c r="B14" s="106" t="s">
+    <row r="14" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A14" s="102"/>
+      <c r="B14" s="107" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="63" t="s">
@@ -2912,9 +2940,9 @@
       </c>
       <c r="I14" s="65"/>
     </row>
-    <row r="15" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A15" s="101"/>
-      <c r="B15" s="107"/>
+    <row r="15" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A15" s="102"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="63" t="s">
         <v>55</v>
       </c>
@@ -2933,9 +2961,9 @@
       </c>
       <c r="I15" s="65"/>
     </row>
-    <row r="16" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A16" s="101"/>
-      <c r="B16" s="107"/>
+    <row r="16" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A16" s="102"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="63" t="s">
         <v>57</v>
       </c>
@@ -2954,9 +2982,9 @@
       </c>
       <c r="I16" s="65"/>
     </row>
-    <row r="17" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A17" s="101"/>
-      <c r="B17" s="107"/>
+    <row r="17" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A17" s="102"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="63" t="s">
         <v>59</v>
       </c>
@@ -2975,9 +3003,9 @@
       </c>
       <c r="I17" s="65"/>
     </row>
-    <row r="18" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A18" s="101"/>
-      <c r="B18" s="107"/>
+    <row r="18" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A18" s="102"/>
+      <c r="B18" s="108"/>
       <c r="C18" s="63" t="s">
         <v>60</v>
       </c>
@@ -2996,9 +3024,9 @@
       </c>
       <c r="I18" s="65"/>
     </row>
-    <row r="19" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A19" s="101"/>
-      <c r="B19" s="107"/>
+    <row r="19" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A19" s="102"/>
+      <c r="B19" s="108"/>
       <c r="C19" s="63" t="s">
         <v>61</v>
       </c>
@@ -3017,9 +3045,9 @@
       </c>
       <c r="I19" s="65"/>
     </row>
-    <row r="20" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A20" s="101"/>
-      <c r="B20" s="107"/>
+    <row r="20" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A20" s="102"/>
+      <c r="B20" s="108"/>
       <c r="C20" s="63" t="s">
         <v>62</v>
       </c>
@@ -3038,9 +3066,9 @@
       </c>
       <c r="I20" s="65"/>
     </row>
-    <row r="21" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A21" s="101"/>
-      <c r="B21" s="107"/>
+    <row r="21" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A21" s="102"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="90" t="s">
         <v>165</v>
       </c>
@@ -3057,9 +3085,9 @@
       </c>
       <c r="I21" s="65"/>
     </row>
-    <row r="22" spans="1:9" ht="13.6" customHeight="1" thickBot="1">
-      <c r="A22" s="102"/>
-      <c r="B22" s="108"/>
+    <row r="22" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A22" s="103"/>
+      <c r="B22" s="109"/>
       <c r="C22" s="66" t="s">
         <v>166</v>
       </c>
@@ -3076,7 +3104,7 @@
       </c>
       <c r="I22" s="51"/>
     </row>
-    <row r="23" spans="1:9" ht="14.3" thickBot="1">
+    <row r="23" spans="1:9" ht="13.5" thickBot="1">
       <c r="D23" s="54" t="s">
         <v>43</v>
       </c>
@@ -3088,22 +3116,22 @@
       <c r="G23" s="56"/>
       <c r="H23" s="56"/>
     </row>
-    <row r="24" spans="1:9" ht="14.3" thickTop="1">
+    <row r="24" spans="1:9" ht="13.5" thickTop="1">
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
       <c r="F24" s="57"/>
       <c r="G24" s="56"/>
       <c r="H24" s="56"/>
     </row>
-    <row r="25" spans="1:9" ht="14.3" thickBot="1">
+    <row r="25" spans="1:9" ht="13.5" thickBot="1">
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
       <c r="F25" s="57"/>
       <c r="G25" s="56"/>
       <c r="H25" s="56"/>
     </row>
-    <row r="26" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A26" s="100" t="s">
+    <row r="26" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A26" s="101" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="37" t="s">
@@ -3125,8 +3153,8 @@
       </c>
       <c r="I26" s="41"/>
     </row>
-    <row r="27" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A27" s="101"/>
+    <row r="27" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A27" s="102"/>
       <c r="B27" s="42" t="s">
         <v>66</v>
       </c>
@@ -3146,9 +3174,9 @@
       </c>
       <c r="I27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A28" s="101"/>
-      <c r="B28" s="109" t="s">
+    <row r="28" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A28" s="102"/>
+      <c r="B28" s="110" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="63" t="s">
@@ -3169,9 +3197,9 @@
       </c>
       <c r="I28" s="65"/>
     </row>
-    <row r="29" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A29" s="101"/>
-      <c r="B29" s="98"/>
+    <row r="29" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A29" s="102"/>
+      <c r="B29" s="99"/>
       <c r="C29" s="63" t="s">
         <v>70</v>
       </c>
@@ -3190,9 +3218,9 @@
       </c>
       <c r="I29" s="65"/>
     </row>
-    <row r="30" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A30" s="101"/>
-      <c r="B30" s="110"/>
+    <row r="30" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A30" s="102"/>
+      <c r="B30" s="111"/>
       <c r="C30" s="63" t="s">
         <v>72</v>
       </c>
@@ -3211,9 +3239,9 @@
       </c>
       <c r="I30" s="65"/>
     </row>
-    <row r="31" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A31" s="101"/>
-      <c r="B31" s="97" t="s">
+    <row r="31" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A31" s="102"/>
+      <c r="B31" s="110" t="s">
         <v>127</v>
       </c>
       <c r="C31" s="70" t="s">
@@ -3234,9 +3262,9 @@
       </c>
       <c r="I31" s="65"/>
     </row>
-    <row r="32" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A32" s="101"/>
-      <c r="B32" s="98"/>
+    <row r="32" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A32" s="102"/>
+      <c r="B32" s="99"/>
       <c r="C32" s="70" t="s">
         <v>120</v>
       </c>
@@ -3255,9 +3283,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A33" s="101"/>
-      <c r="B33" s="98"/>
+    <row r="33" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A33" s="102"/>
+      <c r="B33" s="99"/>
       <c r="C33" s="70" t="s">
         <v>122</v>
       </c>
@@ -3266,7 +3294,7 @@
       </c>
       <c r="E33" s="63"/>
       <c r="F33" s="64">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G33" s="67">
         <v>42080</v>
@@ -3278,9 +3306,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A34" s="101"/>
-      <c r="B34" s="98"/>
+    <row r="34" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A34" s="102"/>
+      <c r="B34" s="99"/>
       <c r="C34" s="70" t="s">
         <v>123</v>
       </c>
@@ -3299,9 +3327,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A35" s="101"/>
-      <c r="B35" s="98"/>
+    <row r="35" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A35" s="102"/>
+      <c r="B35" s="99"/>
       <c r="C35" s="70" t="s">
         <v>124</v>
       </c>
@@ -3320,9 +3348,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A36" s="101"/>
-      <c r="B36" s="98"/>
+    <row r="36" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A36" s="102"/>
+      <c r="B36" s="99"/>
       <c r="C36" s="70" t="s">
         <v>125</v>
       </c>
@@ -3341,9 +3369,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="13.6" customHeight="1" thickBot="1">
-      <c r="A37" s="101"/>
-      <c r="B37" s="99"/>
+    <row r="37" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A37" s="102"/>
+      <c r="B37" s="100"/>
       <c r="C37" s="73" t="s">
         <v>126</v>
       </c>
@@ -3360,139 +3388,147 @@
       </c>
       <c r="I37" s="51"/>
     </row>
-    <row r="38" spans="1:9" ht="14.3" thickBot="1">
-      <c r="D38" s="54" t="s">
+    <row r="38" spans="1:9" ht="13.7" customHeight="1">
+      <c r="A38" s="102"/>
+      <c r="B38" s="114" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="94"/>
+      <c r="F38" s="64">
+        <v>3</v>
+      </c>
+      <c r="G38" s="67">
+        <v>42087</v>
+      </c>
+      <c r="H38" s="67">
+        <v>42089</v>
+      </c>
+      <c r="I38" s="117"/>
+    </row>
+    <row r="39" spans="1:9" ht="13.7" customHeight="1">
+      <c r="A39" s="102"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="70"/>
+      <c r="F39" s="118">
+        <v>16</v>
+      </c>
+      <c r="G39" s="67">
+        <v>42087</v>
+      </c>
+      <c r="H39" s="67">
+        <v>42089</v>
+      </c>
+      <c r="I39" s="70"/>
+    </row>
+    <row r="40" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A40" s="103"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="76"/>
+      <c r="F40" s="77">
+        <v>3</v>
+      </c>
+      <c r="G40" s="78">
+        <v>42087</v>
+      </c>
+      <c r="H40" s="78">
+        <v>42089</v>
+      </c>
+      <c r="I40" s="51"/>
+    </row>
+    <row r="41" spans="1:9" ht="13.5" thickBot="1">
+      <c r="D41" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="55">
+      <c r="E41" s="54"/>
+      <c r="F41" s="55">
         <f>SUM(F26:F37)</f>
-        <v>33</v>
-      </c>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-    </row>
-    <row r="39" spans="1:9" ht="14.3" thickTop="1">
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-    </row>
-    <row r="40" spans="1:9" ht="14.3" thickBot="1">
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+    </row>
+    <row r="42" spans="1:9" ht="13.5" thickTop="1">
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+    </row>
+    <row r="43" spans="1:9" ht="13.5" thickBot="1">
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B44" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38" t="s">
+      <c r="C44" s="38"/>
+      <c r="D44" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="38"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="40">
+      <c r="E44" s="38"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="40">
         <v>42079</v>
       </c>
-      <c r="H41" s="40">
+      <c r="H44" s="40">
         <v>42083</v>
       </c>
-      <c r="I41" s="41"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="101"/>
-      <c r="B42" s="106" t="s">
+      <c r="I44" s="41"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="102"/>
+      <c r="B45" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="69" t="s">
+      <c r="C45" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D45" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="43"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="67">
-        <v>42079</v>
-      </c>
-      <c r="H42" s="45">
-        <v>42083</v>
-      </c>
-      <c r="I42" s="46"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="101"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" s="63"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="67">
-        <v>42079</v>
-      </c>
-      <c r="H43" s="45">
-        <v>42083</v>
-      </c>
-      <c r="I43" s="65"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="101"/>
-      <c r="B44" s="107"/>
-      <c r="C44" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="E44" s="63"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="67">
-        <v>42079</v>
-      </c>
-      <c r="H44" s="45">
-        <v>42083</v>
-      </c>
-      <c r="I44" s="65"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="101"/>
-      <c r="B45" s="107"/>
-      <c r="C45" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="63"/>
-      <c r="F45" s="64"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="44"/>
       <c r="G45" s="67">
         <v>42079</v>
       </c>
       <c r="H45" s="45">
         <v>42083</v>
       </c>
-      <c r="I45" s="65"/>
+      <c r="I45" s="46"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="101"/>
-      <c r="B46" s="107"/>
+      <c r="A46" s="102"/>
+      <c r="B46" s="108"/>
       <c r="C46" s="63" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E46" s="63"/>
       <c r="F46" s="64"/>
@@ -3505,13 +3541,13 @@
       <c r="I46" s="65"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="101"/>
-      <c r="B47" s="111"/>
+      <c r="A47" s="102"/>
+      <c r="B47" s="108"/>
       <c r="C47" s="63" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E47" s="63"/>
       <c r="F47" s="64"/>
@@ -3524,21 +3560,16 @@
       <c r="I47" s="65"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="101"/>
-      <c r="B48" s="106" t="s">
-        <v>87</v>
-      </c>
+      <c r="A48" s="102"/>
+      <c r="B48" s="108"/>
       <c r="C48" s="63" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D48" s="43" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E48" s="63"/>
-      <c r="F48" s="64">
-        <f>'March 2015'!T36</f>
-        <v>5</v>
-      </c>
+      <c r="F48" s="64"/>
       <c r="G48" s="67">
         <v>42079</v>
       </c>
@@ -3548,19 +3579,16 @@
       <c r="I48" s="65"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="101"/>
-      <c r="B49" s="107"/>
-      <c r="C49" s="70" t="s">
-        <v>90</v>
+      <c r="A49" s="102"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="63" t="s">
+        <v>83</v>
       </c>
       <c r="D49" s="43" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E49" s="63"/>
-      <c r="F49" s="64">
-        <f>'March 2015'!T37</f>
-        <v>7</v>
-      </c>
+      <c r="F49" s="64"/>
       <c r="G49" s="67">
         <v>42079</v>
       </c>
@@ -3570,19 +3598,16 @@
       <c r="I49" s="65"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="101"/>
-      <c r="B50" s="107"/>
+      <c r="A50" s="102"/>
+      <c r="B50" s="112"/>
       <c r="C50" s="63" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D50" s="43" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E50" s="63"/>
-      <c r="F50" s="64">
-        <f>'March 2015'!T38</f>
-        <v>0</v>
-      </c>
+      <c r="F50" s="64"/>
       <c r="G50" s="67">
         <v>42079</v>
       </c>
@@ -3592,18 +3617,20 @@
       <c r="I50" s="65"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="101"/>
-      <c r="B51" s="107"/>
-      <c r="C51" s="70" t="s">
-        <v>93</v>
+      <c r="A51" s="102"/>
+      <c r="B51" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="63" t="s">
+        <v>88</v>
       </c>
       <c r="D51" s="43" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E51" s="63"/>
       <c r="F51" s="64">
         <f>'March 2015'!T39</f>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G51" s="67">
         <v>42079</v>
@@ -3611,23 +3638,21 @@
       <c r="H51" s="45">
         <v>42083</v>
       </c>
-      <c r="I51" s="71" t="s">
-        <v>155</v>
-      </c>
+      <c r="I51" s="65"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="101"/>
-      <c r="B52" s="107"/>
+      <c r="A52" s="102"/>
+      <c r="B52" s="108"/>
       <c r="C52" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" s="63" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="D52" s="43" t="s">
+        <v>76</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64">
         <f>'March 2015'!T40</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G52" s="67">
         <v>42079</v>
@@ -3637,142 +3662,145 @@
       </c>
       <c r="I52" s="65"/>
     </row>
-    <row r="53" spans="1:9" ht="13.6" thickBot="1">
+    <row r="53" spans="1:9">
       <c r="A53" s="102"/>
       <c r="B53" s="108"/>
-      <c r="C53" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" s="48"/>
+      <c r="C53" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="63"/>
       <c r="F53" s="64">
         <f>'March 2015'!T41</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="67">
+        <v>42079</v>
+      </c>
+      <c r="H53" s="45">
+        <v>42083</v>
+      </c>
+      <c r="I53" s="65"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="102"/>
+      <c r="B54" s="108"/>
+      <c r="C54" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" s="63"/>
+      <c r="F54" s="64">
+        <f>'March 2015'!T42</f>
+        <v>16</v>
+      </c>
+      <c r="G54" s="67">
+        <v>42079</v>
+      </c>
+      <c r="H54" s="45">
+        <v>42083</v>
+      </c>
+      <c r="I54" s="71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="102"/>
+      <c r="B55" s="108"/>
+      <c r="C55" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" s="63"/>
+      <c r="F55" s="64">
+        <f>'March 2015'!T43</f>
         <v>8</v>
       </c>
-      <c r="G53" s="50">
+      <c r="G55" s="67">
         <v>42079</v>
       </c>
-      <c r="H53" s="50">
+      <c r="H55" s="45">
         <v>42083</v>
       </c>
-      <c r="I53" s="51"/>
-    </row>
-    <row r="54" spans="1:9" ht="14.3" thickBot="1">
-      <c r="D54" s="54" t="s">
+      <c r="I55" s="65"/>
+    </row>
+    <row r="56" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A56" s="103"/>
+      <c r="B56" s="109"/>
+      <c r="C56" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="48"/>
+      <c r="F56" s="64">
+        <f>'March 2015'!T44</f>
+        <v>8</v>
+      </c>
+      <c r="G56" s="50">
+        <v>42079</v>
+      </c>
+      <c r="H56" s="50">
+        <v>42083</v>
+      </c>
+      <c r="I56" s="51"/>
+    </row>
+    <row r="57" spans="1:9" ht="13.5" thickBot="1">
+      <c r="D57" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="55">
-        <f>SUM(F41:F53)</f>
+      <c r="E57" s="54"/>
+      <c r="F57" s="55">
+        <f>SUM(F44:F56)</f>
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="13.6" thickTop="1"/>
-    <row r="56" spans="1:9" ht="13.6" thickBot="1"/>
-    <row r="57" spans="1:9">
-      <c r="A57" s="112" t="s">
+    <row r="58" spans="1:9" ht="13.5" thickTop="1"/>
+    <row r="59" spans="1:9" ht="13.5" thickBot="1"/>
+    <row r="60" spans="1:9">
+      <c r="A60" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="113" t="s">
+      <c r="B60" s="114" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C60" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="38" t="s">
+      <c r="D60" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="38"/>
-      <c r="F57" s="39">
+      <c r="E60" s="38"/>
+      <c r="F60" s="39">
         <v>15</v>
       </c>
-      <c r="G57" s="40">
+      <c r="G60" s="40">
         <v>42079</v>
       </c>
-      <c r="H57" s="40">
+      <c r="H60" s="40">
         <v>42083</v>
       </c>
-      <c r="I57" s="41"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="101"/>
-      <c r="B58" s="114"/>
-      <c r="C58" s="59" t="s">
+      <c r="I60" s="41"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="102"/>
+      <c r="B61" s="115"/>
+      <c r="C61" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="D58" s="59" t="s">
+      <c r="D61" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="E58" s="59"/>
-      <c r="F58" s="60">
+      <c r="E61" s="59"/>
+      <c r="F61" s="60">
         <v>5</v>
-      </c>
-      <c r="G58" s="67">
-        <v>42079</v>
-      </c>
-      <c r="H58" s="45">
-        <v>42083</v>
-      </c>
-      <c r="I58" s="62"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="101"/>
-      <c r="B59" s="106" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="D59" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="E59" s="43"/>
-      <c r="F59" s="44">
-        <v>2</v>
-      </c>
-      <c r="G59" s="67">
-        <v>42079</v>
-      </c>
-      <c r="H59" s="45">
-        <v>42083</v>
-      </c>
-      <c r="I59" s="46"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="101"/>
-      <c r="B60" s="107"/>
-      <c r="C60" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="D60" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="63"/>
-      <c r="F60" s="64">
-        <v>2</v>
-      </c>
-      <c r="G60" s="67">
-        <v>42079</v>
-      </c>
-      <c r="H60" s="45">
-        <v>42083</v>
-      </c>
-      <c r="I60" s="65"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="101"/>
-      <c r="B61" s="107"/>
-      <c r="C61" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="D61" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="E61" s="63"/>
-      <c r="F61" s="64">
-        <v>2</v>
       </c>
       <c r="G61" s="67">
         <v>42079</v>
@@ -3780,19 +3808,21 @@
       <c r="H61" s="45">
         <v>42083</v>
       </c>
-      <c r="I61" s="65"/>
+      <c r="I61" s="62"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="101"/>
-      <c r="B62" s="111"/>
-      <c r="C62" s="63" t="s">
-        <v>107</v>
+      <c r="A62" s="102"/>
+      <c r="B62" s="107" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>102</v>
       </c>
       <c r="D62" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E62" s="63"/>
-      <c r="F62" s="64">
+      <c r="E62" s="43"/>
+      <c r="F62" s="44">
         <v>2</v>
       </c>
       <c r="G62" s="67">
@@ -3801,16 +3831,16 @@
       <c r="H62" s="45">
         <v>42083</v>
       </c>
-      <c r="I62" s="65"/>
+      <c r="I62" s="46"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="101"/>
-      <c r="B63" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C63" s="63"/>
+      <c r="A63" s="102"/>
+      <c r="B63" s="108"/>
+      <c r="C63" s="63" t="s">
+        <v>103</v>
+      </c>
       <c r="D63" s="43" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E63" s="63"/>
       <c r="F63" s="64">
@@ -3825,19 +3855,17 @@
       <c r="I63" s="65"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="101"/>
-      <c r="B64" s="106" t="s">
-        <v>142</v>
-      </c>
+      <c r="A64" s="102"/>
+      <c r="B64" s="108"/>
       <c r="C64" s="63" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D64" s="43" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E64" s="63"/>
       <c r="F64" s="64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G64" s="67">
         <v>42079</v>
@@ -3848,17 +3876,17 @@
       <c r="I64" s="65"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="101"/>
-      <c r="B65" s="107"/>
+      <c r="A65" s="102"/>
+      <c r="B65" s="112"/>
       <c r="C65" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="D65" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="43" t="s">
         <v>101</v>
       </c>
       <c r="E65" s="63"/>
       <c r="F65" s="64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G65" s="67">
         <v>42079</v>
@@ -3869,17 +3897,17 @@
       <c r="I65" s="65"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="101"/>
-      <c r="B66" s="107"/>
-      <c r="C66" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="D66" s="63" t="s">
-        <v>101</v>
+      <c r="A66" s="102"/>
+      <c r="B66" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="63"/>
+      <c r="D66" s="43" t="s">
+        <v>108</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G66" s="67">
         <v>42079</v>
@@ -3890,13 +3918,15 @@
       <c r="I66" s="65"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="101"/>
-      <c r="B67" s="111"/>
+      <c r="A67" s="102"/>
+      <c r="B67" s="107" t="s">
+        <v>142</v>
+      </c>
       <c r="C67" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="D67" s="63" t="s">
-        <v>101</v>
+        <v>109</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>110</v>
       </c>
       <c r="E67" s="63"/>
       <c r="F67" s="64">
@@ -3908,98 +3938,104 @@
       <c r="H67" s="45">
         <v>42083</v>
       </c>
-      <c r="I67" s="71"/>
+      <c r="I67" s="65"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="101"/>
-      <c r="B68" s="42" t="s">
+      <c r="A68" s="102"/>
+      <c r="B68" s="108"/>
+      <c r="C68" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="E68" s="63"/>
+      <c r="F68" s="64">
+        <v>5</v>
+      </c>
+      <c r="G68" s="67">
+        <v>42079</v>
+      </c>
+      <c r="H68" s="45">
+        <v>42083</v>
+      </c>
+      <c r="I68" s="65"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="102"/>
+      <c r="B69" s="108"/>
+      <c r="C69" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="E69" s="63"/>
+      <c r="F69" s="64">
+        <v>3</v>
+      </c>
+      <c r="G69" s="67">
+        <v>42079</v>
+      </c>
+      <c r="H69" s="45">
+        <v>42083</v>
+      </c>
+      <c r="I69" s="65"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="102"/>
+      <c r="B70" s="112"/>
+      <c r="C70" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" s="63"/>
+      <c r="F70" s="64">
+        <v>3</v>
+      </c>
+      <c r="G70" s="67">
+        <v>42079</v>
+      </c>
+      <c r="H70" s="45">
+        <v>42083</v>
+      </c>
+      <c r="I70" s="71"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="102"/>
+      <c r="B71" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C68" s="42"/>
-      <c r="D68" s="75" t="s">
+      <c r="C71" s="42"/>
+      <c r="D71" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="E68" s="75" t="s">
+      <c r="E71" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="F68" s="64"/>
-      <c r="G68" s="67">
-        <v>42082</v>
-      </c>
-      <c r="H68" s="45">
-        <v>42088</v>
-      </c>
-      <c r="I68" s="71" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="13.6" thickBot="1">
-      <c r="A69" s="102"/>
-      <c r="B69" s="106" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="D69" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="E69" s="75"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="67">
-        <v>42086</v>
-      </c>
-      <c r="H69" s="45">
-        <v>42086</v>
-      </c>
-      <c r="I69" s="71"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="91"/>
-      <c r="B70" s="107"/>
-      <c r="C70" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="D70" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="E70" s="75"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="67">
-        <v>42086</v>
-      </c>
-      <c r="H70" s="45">
-        <v>42086</v>
-      </c>
-      <c r="I70" s="71"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="92"/>
-      <c r="B71" s="107"/>
-      <c r="C71" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="D71" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="E71" s="75"/>
       <c r="F71" s="64"/>
       <c r="G71" s="67">
-        <v>42086</v>
+        <v>42082</v>
       </c>
       <c r="H71" s="45">
-        <v>42086</v>
-      </c>
-      <c r="I71" s="71"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="92"/>
-      <c r="B72" s="107"/>
+        <v>42088</v>
+      </c>
+      <c r="I71" s="71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A72" s="103"/>
+      <c r="B72" s="107" t="s">
+        <v>145</v>
+      </c>
       <c r="C72" s="42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D72" s="75" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="E72" s="75"/>
       <c r="F72" s="64"/>
@@ -4012,13 +4048,13 @@
       <c r="I72" s="71"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="92"/>
-      <c r="B73" s="107"/>
+      <c r="A73" s="91"/>
+      <c r="B73" s="108"/>
       <c r="C73" s="42" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D73" s="75" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="E73" s="75"/>
       <c r="F73" s="64"/>
@@ -4030,92 +4066,92 @@
       </c>
       <c r="I73" s="71"/>
     </row>
-    <row r="74" spans="1:9" ht="13.6" thickBot="1">
+    <row r="74" spans="1:9">
       <c r="A74" s="92"/>
       <c r="B74" s="108"/>
-      <c r="C74" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="D74" s="76" t="s">
-        <v>152</v>
-      </c>
-      <c r="E74" s="76"/>
-      <c r="F74" s="77"/>
-      <c r="G74" s="78">
+      <c r="C74" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="D74" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="E74" s="75"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="67">
         <v>42086</v>
       </c>
-      <c r="H74" s="78">
+      <c r="H74" s="45">
         <v>42086</v>
       </c>
-      <c r="I74" s="79"/>
+      <c r="I74" s="71"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="92"/>
-      <c r="B75" s="94" t="s">
-        <v>164</v>
-      </c>
+      <c r="B75" s="108"/>
       <c r="C75" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="D75" s="89" t="s">
-        <v>159</v>
-      </c>
-      <c r="E75" s="89"/>
+        <v>148</v>
+      </c>
+      <c r="D75" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="E75" s="75"/>
       <c r="F75" s="64"/>
       <c r="G75" s="67">
-        <v>42087</v>
-      </c>
-      <c r="H75" s="67">
-        <v>42087</v>
+        <v>42086</v>
+      </c>
+      <c r="H75" s="45">
+        <v>42086</v>
       </c>
       <c r="I75" s="71"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="92"/>
-      <c r="B76" s="95"/>
+      <c r="B76" s="108"/>
       <c r="C76" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="D76" s="89" t="s">
-        <v>159</v>
-      </c>
-      <c r="E76" s="89"/>
+        <v>151</v>
+      </c>
+      <c r="D76" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="E76" s="75"/>
       <c r="F76" s="64"/>
       <c r="G76" s="67">
-        <v>42087</v>
-      </c>
-      <c r="H76" s="67">
-        <v>42087</v>
+        <v>42086</v>
+      </c>
+      <c r="H76" s="45">
+        <v>42086</v>
       </c>
       <c r="I76" s="71"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" ht="13.5" thickBot="1">
       <c r="A77" s="92"/>
-      <c r="B77" s="95"/>
-      <c r="C77" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="D77" s="89" t="s">
-        <v>159</v>
-      </c>
-      <c r="E77" s="89"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="67">
-        <v>42087</v>
-      </c>
-      <c r="H77" s="67">
-        <v>42087</v>
-      </c>
-      <c r="I77" s="71"/>
+      <c r="B77" s="109"/>
+      <c r="C77" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="D77" s="76" t="s">
+        <v>152</v>
+      </c>
+      <c r="E77" s="76"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="78">
+        <v>42086</v>
+      </c>
+      <c r="H77" s="78">
+        <v>42086</v>
+      </c>
+      <c r="I77" s="79"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="92"/>
-      <c r="B78" s="95"/>
+      <c r="B78" s="95" t="s">
+        <v>164</v>
+      </c>
       <c r="C78" s="42" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D78" s="89" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E78" s="89"/>
       <c r="F78" s="64"/>
@@ -4129,12 +4165,12 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="92"/>
-      <c r="B79" s="95"/>
+      <c r="B79" s="96"/>
       <c r="C79" s="42" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D79" s="89" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E79" s="89"/>
       <c r="F79" s="64"/>
@@ -4146,43 +4182,101 @@
       </c>
       <c r="I79" s="71"/>
     </row>
-    <row r="80" spans="1:9" ht="13.6" thickBot="1">
-      <c r="A80" s="93"/>
+    <row r="80" spans="1:9">
+      <c r="A80" s="92"/>
       <c r="B80" s="96"/>
-      <c r="C80" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="D80" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="E80" s="76"/>
-      <c r="F80" s="77"/>
+      <c r="C80" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D80" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="E80" s="89"/>
+      <c r="F80" s="64"/>
       <c r="G80" s="67">
         <v>42087</v>
       </c>
       <c r="H80" s="67">
         <v>42087</v>
       </c>
-      <c r="I80" s="79"/>
+      <c r="I80" s="71"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="92"/>
+      <c r="B81" s="96"/>
+      <c r="C81" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="E81" s="89"/>
+      <c r="F81" s="64"/>
+      <c r="G81" s="67">
+        <v>42087</v>
+      </c>
+      <c r="H81" s="67">
+        <v>42087</v>
+      </c>
+      <c r="I81" s="71"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="92"/>
+      <c r="B82" s="96"/>
+      <c r="C82" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="D82" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="E82" s="89"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="67">
+        <v>42087</v>
+      </c>
+      <c r="H82" s="67">
+        <v>42087</v>
+      </c>
+      <c r="I82" s="71"/>
+    </row>
+    <row r="83" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A83" s="93"/>
+      <c r="B83" s="97"/>
+      <c r="C83" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="D83" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="E83" s="76"/>
+      <c r="F83" s="77"/>
+      <c r="G83" s="67">
+        <v>42087</v>
+      </c>
+      <c r="H83" s="67">
+        <v>42087</v>
+      </c>
+      <c r="I83" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B75:B80"/>
+  <mergeCells count="17">
+    <mergeCell ref="A26:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B78:B83"/>
     <mergeCell ref="B31:B37"/>
-    <mergeCell ref="A26:A37"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A9:A22"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B22"/>
     <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A41:A53"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="A57:A69"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="A44:A56"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="A60:A72"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B72:B77"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4191,29 +4285,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="4.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="64.875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="23" customWidth="1"/>
-    <col min="5" max="18" width="4.375" style="23" customWidth="1"/>
-    <col min="19" max="19" width="2.875" style="23" customWidth="1"/>
-    <col min="20" max="20" width="7.125" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.125" style="23"/>
+    <col min="1" max="1" width="8.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.85546875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="23" customWidth="1"/>
+    <col min="5" max="18" width="4.42578125" style="23" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" style="23" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.65">
+    <row r="1" spans="1:20" ht="15.75">
       <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
@@ -4221,7 +4315,7 @@
     <row r="2" spans="1:20" ht="7.5" customHeight="1">
       <c r="A2" s="24"/>
     </row>
-    <row r="3" spans="1:20" ht="13.6">
+    <row r="3" spans="1:20">
       <c r="A3" s="24" t="s">
         <v>12</v>
       </c>
@@ -4230,21 +4324,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="13.6">
+    <row r="4" spans="1:20">
       <c r="A4" s="24"/>
       <c r="B4" s="22"/>
       <c r="C4" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="13.6">
+    <row r="5" spans="1:20">
       <c r="A5" s="24"/>
       <c r="B5" s="26"/>
       <c r="C5" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="13.6">
+    <row r="6" spans="1:20">
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
@@ -4295,12 +4389,12 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="7.5" customHeight="1"/>
-    <row r="8" spans="1:20" ht="13.6">
+    <row r="8" spans="1:20">
       <c r="A8" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="14.3" thickBot="1">
+    <row r="9" spans="1:20" ht="13.5" thickBot="1">
       <c r="B9" s="20" t="s">
         <v>10</v>
       </c>
@@ -4308,7 +4402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" ht="25.5">
       <c r="B10" s="87">
         <v>1</v>
       </c>
@@ -4668,12 +4762,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="13.6">
+    <row r="23" spans="1:20">
       <c r="A23" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="13.6">
+    <row r="24" spans="1:20">
       <c r="B24" s="20" t="s">
         <v>10</v>
       </c>
@@ -4902,7 +4996,7 @@
         <v>4</v>
       </c>
       <c r="J32" s="22">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K32" s="25"/>
       <c r="L32" s="25"/>
@@ -4914,126 +5008,124 @@
       <c r="R32" s="25"/>
       <c r="T32" s="3">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="13.6">
-      <c r="A34" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="80" customFormat="1">
+      <c r="B33" s="83">
+        <v>9</v>
+      </c>
+      <c r="C33" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84">
+        <v>3</v>
+      </c>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="84"/>
+      <c r="T33" s="81"/>
+    </row>
+    <row r="34" spans="1:20" s="80" customFormat="1">
+      <c r="B34" s="83">
+        <v>10</v>
+      </c>
+      <c r="C34" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84">
+        <v>8</v>
+      </c>
+      <c r="L34" s="84">
+        <v>8</v>
+      </c>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="84"/>
+      <c r="T34" s="81">
+        <f t="shared" ref="T34:T35" si="2">SUM(E34:R34)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" s="80" customFormat="1">
+      <c r="B35" s="83">
+        <v>11</v>
+      </c>
+      <c r="C35" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84">
+        <v>3</v>
+      </c>
+      <c r="M35" s="84"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="84"/>
+      <c r="T35" s="81">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="13.6">
-      <c r="B35" s="20" t="s">
+    <row r="38" spans="1:20">
+      <c r="B38" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
-      <c r="B36" s="21">
+    <row r="39" spans="1:20">
+      <c r="B39" s="21">
         <v>1</v>
       </c>
-      <c r="C36" s="70" t="s">
+      <c r="C39" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="19">
+      <c r="D39" s="25"/>
+      <c r="E39" s="19">
         <v>5</v>
       </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="T36" s="3">
-        <f>SUM(E36:R36)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="B37" s="21">
-        <v>2</v>
-      </c>
-      <c r="C37" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="19">
-        <v>3</v>
-      </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="22">
-        <v>4</v>
-      </c>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="T37" s="3">
-        <f t="shared" ref="T37:T40" si="2">SUM(E37:R37)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="B38" s="21">
-        <v>3</v>
-      </c>
-      <c r="C38" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="T38" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="B39" s="87">
-        <v>4</v>
-      </c>
-      <c r="C39" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="F39" s="19">
-        <v>8</v>
-      </c>
+      <c r="F39" s="25"/>
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
-      <c r="J39" s="82">
-        <v>8</v>
-      </c>
+      <c r="J39" s="25"/>
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
@@ -5044,24 +5136,26 @@
       <c r="R39" s="25"/>
       <c r="T39" s="3">
         <f>SUM(E39:R39)</f>
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="B40" s="21">
-        <v>5</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>116</v>
+        <v>2</v>
+      </c>
+      <c r="C40" s="70" t="s">
+        <v>90</v>
       </c>
       <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
+      <c r="E40" s="19">
+        <v>3</v>
+      </c>
       <c r="F40" s="25"/>
-      <c r="G40" s="19">
-        <v>8</v>
-      </c>
+      <c r="G40" s="25"/>
       <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
+      <c r="I40" s="22">
+        <v>4</v>
+      </c>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
       <c r="L40" s="25"/>
@@ -5072,280 +5166,279 @@
       <c r="Q40" s="25"/>
       <c r="R40" s="25"/>
       <c r="T40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="T40:T43" si="3">SUM(E40:R40)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="B41" s="21">
+        <v>3</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="T41" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="B42" s="87">
+        <v>4</v>
+      </c>
+      <c r="C42" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="25"/>
+      <c r="F42" s="19">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" s="80" customFormat="1">
-      <c r="B41" s="83">
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="82">
+        <v>8</v>
+      </c>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="T42" s="3">
+        <f>SUM(E42:R42)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="B43" s="21">
         <v>5</v>
       </c>
-      <c r="C41" s="84" t="s">
+      <c r="C43" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="19">
+        <v>8</v>
+      </c>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="T43" s="3">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" s="80" customFormat="1">
+      <c r="B44" s="83">
+        <v>5</v>
+      </c>
+      <c r="C44" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="82">
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="82">
         <v>8</v>
       </c>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="84"/>
-      <c r="O41" s="84"/>
-      <c r="P41" s="84"/>
-      <c r="Q41" s="84"/>
-      <c r="R41" s="84"/>
-      <c r="T41" s="81">
-        <f t="shared" ref="T41" si="3">SUM(E41:R41)</f>
+      <c r="H44" s="84"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="84"/>
+      <c r="L44" s="84"/>
+      <c r="M44" s="84"/>
+      <c r="N44" s="84"/>
+      <c r="O44" s="84"/>
+      <c r="P44" s="84"/>
+      <c r="Q44" s="84"/>
+      <c r="R44" s="84"/>
+      <c r="T44" s="81">
+        <f t="shared" ref="T44" si="4">SUM(E44:R44)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="80" customFormat="1">
-      <c r="B42" s="83">
+    <row r="45" spans="1:20" s="80" customFormat="1">
+      <c r="B45" s="83">
         <v>6</v>
       </c>
-      <c r="C42" s="84" t="s">
+      <c r="C45" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="84"/>
-      <c r="O42" s="84"/>
-      <c r="P42" s="84"/>
-      <c r="Q42" s="84"/>
-      <c r="R42" s="84"/>
-      <c r="T42" s="81">
-        <f t="shared" ref="T42" si="4">SUM(E42:R42)</f>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="84"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="84"/>
+      <c r="M45" s="84"/>
+      <c r="N45" s="84"/>
+      <c r="O45" s="84"/>
+      <c r="P45" s="84"/>
+      <c r="Q45" s="84"/>
+      <c r="R45" s="84"/>
+      <c r="T45" s="81">
+        <f t="shared" ref="T45" si="5">SUM(E45:R45)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="80" customFormat="1">
-      <c r="B43" s="27"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
-      <c r="T43" s="28"/>
-    </row>
-    <row r="44" spans="1:20" ht="13.6">
-      <c r="A44" s="24" t="s">
+    <row r="46" spans="1:20" s="80" customFormat="1">
+      <c r="B46" s="27"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="T46" s="28"/>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="13.6">
-      <c r="B45" s="20" t="s">
+    <row r="48" spans="1:20">
+      <c r="B48" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
-      <c r="B46" s="21">
+    <row r="49" spans="1:20">
+      <c r="B49" s="21">
         <v>1</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C49" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="19">
+      <c r="D49" s="25"/>
+      <c r="E49" s="19">
         <v>8</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F49" s="19">
         <v>8</v>
       </c>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="T46" s="3">
-        <f>SUM(E46:R46)</f>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+      <c r="T49" s="3">
+        <f>SUM(E49:R49)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
-      <c r="B47" s="83">
+    <row r="50" spans="1:20">
+      <c r="B50" s="83">
         <v>2</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C50" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="19">
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="19">
         <v>8</v>
       </c>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="25"/>
-      <c r="T47" s="3">
-        <f t="shared" ref="T47:T53" si="5">SUM(E47:R47)</f>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="T50" s="3">
+        <f t="shared" ref="T50:T56" si="6">SUM(E50:R50)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="80" customFormat="1">
-      <c r="B48" s="83">
+    <row r="51" spans="1:20" s="80" customFormat="1">
+      <c r="B51" s="83">
         <v>3</v>
       </c>
-      <c r="C48" s="84" t="s">
+      <c r="C51" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="D48" s="84"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="82">
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="84"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="82">
         <v>8</v>
       </c>
-      <c r="J48" s="84"/>
-      <c r="K48" s="84"/>
-      <c r="L48" s="84"/>
-      <c r="M48" s="84"/>
-      <c r="N48" s="84"/>
-      <c r="O48" s="84"/>
-      <c r="P48" s="84"/>
-      <c r="Q48" s="84"/>
-      <c r="R48" s="84"/>
-      <c r="T48" s="81">
-        <f t="shared" ref="T48:T49" si="6">SUM(E48:R48)</f>
+      <c r="J51" s="84"/>
+      <c r="K51" s="84"/>
+      <c r="L51" s="84"/>
+      <c r="M51" s="84"/>
+      <c r="N51" s="84"/>
+      <c r="O51" s="84"/>
+      <c r="P51" s="84"/>
+      <c r="Q51" s="84"/>
+      <c r="R51" s="84"/>
+      <c r="T51" s="81">
+        <f t="shared" ref="T51:T52" si="7">SUM(E51:R51)</f>
         <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" s="80" customFormat="1">
-      <c r="B49" s="83">
-        <v>4</v>
-      </c>
-      <c r="C49" s="74">
-        <v>6.1</v>
-      </c>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="82">
-        <v>2</v>
-      </c>
-      <c r="K49" s="84"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="84"/>
-      <c r="O49" s="84"/>
-      <c r="P49" s="84"/>
-      <c r="Q49" s="84"/>
-      <c r="R49" s="84"/>
-      <c r="T49" s="81">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" s="80" customFormat="1">
-      <c r="B50" s="83">
-        <v>5</v>
-      </c>
-      <c r="C50" s="74">
-        <v>6.1</v>
-      </c>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="82">
-        <v>2</v>
-      </c>
-      <c r="K50" s="84"/>
-      <c r="L50" s="84"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="84"/>
-      <c r="P50" s="84"/>
-      <c r="Q50" s="84"/>
-      <c r="R50" s="84"/>
-      <c r="T50" s="81">
-        <f t="shared" ref="T50" si="7">SUM(E50:R50)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20">
-      <c r="B51" s="83">
-        <v>6</v>
-      </c>
-      <c r="C51" s="74">
-        <v>6.3</v>
-      </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="19">
-        <v>4</v>
-      </c>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="25"/>
-      <c r="T51" s="3">
-        <f t="shared" si="5"/>
-        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="80" customFormat="1">
       <c r="B52" s="83">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C52" s="74">
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="D52" s="84"/>
       <c r="E52" s="84"/>
@@ -5365,16 +5458,16 @@
       <c r="Q52" s="84"/>
       <c r="R52" s="84"/>
       <c r="T52" s="81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="80" customFormat="1">
       <c r="B53" s="83">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53" s="74">
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="D53" s="84"/>
       <c r="E53" s="84"/>
@@ -5383,7 +5476,7 @@
       <c r="H53" s="84"/>
       <c r="I53" s="84"/>
       <c r="J53" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K53" s="84"/>
       <c r="L53" s="84"/>
@@ -5394,180 +5487,186 @@
       <c r="Q53" s="84"/>
       <c r="R53" s="84"/>
       <c r="T53" s="81">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="T53" si="8">SUM(E53:R53)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="B54" s="83">
+        <v>6</v>
+      </c>
+      <c r="C54" s="74">
+        <v>6.3</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="19">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" s="80" customFormat="1">
-      <c r="B54" s="83">
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="T54" s="3">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" s="80" customFormat="1">
+      <c r="B55" s="83">
+        <v>7</v>
+      </c>
+      <c r="C55" s="74">
+        <v>7.1</v>
+      </c>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="84"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="84"/>
+      <c r="J55" s="82">
+        <v>2</v>
+      </c>
+      <c r="K55" s="84"/>
+      <c r="L55" s="84"/>
+      <c r="M55" s="84"/>
+      <c r="N55" s="84"/>
+      <c r="O55" s="84"/>
+      <c r="P55" s="84"/>
+      <c r="Q55" s="84"/>
+      <c r="R55" s="84"/>
+      <c r="T55" s="81">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" s="80" customFormat="1">
+      <c r="B56" s="83">
+        <v>8</v>
+      </c>
+      <c r="C56" s="74">
+        <v>7.1</v>
+      </c>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="84"/>
+      <c r="J56" s="82">
+        <v>4</v>
+      </c>
+      <c r="K56" s="84"/>
+      <c r="L56" s="84"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="84"/>
+      <c r="O56" s="84"/>
+      <c r="P56" s="84"/>
+      <c r="Q56" s="84"/>
+      <c r="R56" s="84"/>
+      <c r="T56" s="81">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" s="80" customFormat="1">
+      <c r="B57" s="83">
         <v>9</v>
       </c>
-      <c r="C54" s="74">
+      <c r="C57" s="74">
         <v>7.3</v>
       </c>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="82">
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="84"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="84"/>
+      <c r="J57" s="82">
         <v>5</v>
       </c>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="84"/>
-      <c r="Q54" s="84"/>
-      <c r="R54" s="84"/>
-      <c r="T54" s="81">
-        <f t="shared" ref="T54" si="8">SUM(E54:R54)</f>
+      <c r="K57" s="84"/>
+      <c r="L57" s="84"/>
+      <c r="M57" s="84"/>
+      <c r="N57" s="84"/>
+      <c r="O57" s="84"/>
+      <c r="P57" s="84"/>
+      <c r="Q57" s="84"/>
+      <c r="R57" s="84"/>
+      <c r="T57" s="81">
+        <f t="shared" ref="T57" si="9">SUM(E57:R57)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="13.6">
-      <c r="A56" s="24" t="s">
+    <row r="59" spans="1:20">
+      <c r="A59" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="13.6">
-      <c r="B57" s="20" t="s">
+    <row r="60" spans="1:20">
+      <c r="B60" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
-      <c r="B58" s="21">
+    <row r="61" spans="1:20">
+      <c r="B61" s="21">
         <v>1</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C61" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="19">
+      <c r="D61" s="25"/>
+      <c r="E61" s="19">
         <v>8</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F61" s="19">
         <v>8</v>
       </c>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="25"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="25"/>
-      <c r="R58" s="25"/>
-      <c r="T58" s="3">
-        <f t="shared" ref="T58:T62" si="9">SUM(E58:R58)</f>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="25"/>
+      <c r="T61" s="3">
+        <f t="shared" ref="T61:T65" si="10">SUM(E61:R61)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:20">
-      <c r="B59" s="83">
-        <v>2</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="19">
-        <v>8</v>
-      </c>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="84"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="25"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="25"/>
-      <c r="R59" s="25"/>
-      <c r="T59" s="3">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" s="80" customFormat="1">
-      <c r="B60" s="83">
-        <v>3</v>
-      </c>
-      <c r="C60" s="74">
-        <v>6.4</v>
-      </c>
-      <c r="D60" s="84"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="84"/>
-      <c r="H60" s="84"/>
-      <c r="I60" s="84"/>
-      <c r="J60" s="82">
-        <v>2</v>
-      </c>
-      <c r="K60" s="84"/>
-      <c r="L60" s="84"/>
-      <c r="M60" s="84"/>
-      <c r="N60" s="84"/>
-      <c r="O60" s="84"/>
-      <c r="P60" s="84"/>
-      <c r="Q60" s="84"/>
-      <c r="R60" s="84"/>
-      <c r="T60" s="81"/>
-    </row>
-    <row r="61" spans="1:20" s="80" customFormat="1">
-      <c r="B61" s="83">
-        <v>4</v>
-      </c>
-      <c r="C61" s="74">
-        <v>6.5</v>
-      </c>
-      <c r="D61" s="84"/>
-      <c r="E61" s="84"/>
-      <c r="F61" s="84"/>
-      <c r="G61" s="84"/>
-      <c r="H61" s="84"/>
-      <c r="I61" s="84"/>
-      <c r="J61" s="82">
-        <v>3</v>
-      </c>
-      <c r="K61" s="84"/>
-      <c r="L61" s="84"/>
-      <c r="M61" s="84"/>
-      <c r="N61" s="84"/>
-      <c r="O61" s="84"/>
-      <c r="P61" s="84"/>
-      <c r="Q61" s="84"/>
-      <c r="R61" s="84"/>
-      <c r="T61" s="81"/>
     </row>
     <row r="62" spans="1:20">
       <c r="B62" s="83">
-        <v>5</v>
-      </c>
-      <c r="C62" s="74">
-        <v>6.6</v>
+        <v>2</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>143</v>
       </c>
       <c r="D62" s="25"/>
       <c r="E62" s="25"/>
       <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
+      <c r="G62" s="19">
+        <v>8</v>
+      </c>
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
-      <c r="J62" s="82">
-        <v>3</v>
-      </c>
+      <c r="J62" s="84"/>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
       <c r="M62" s="25"/>
@@ -5577,16 +5676,16 @@
       <c r="Q62" s="25"/>
       <c r="R62" s="25"/>
       <c r="T62" s="3">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="80" customFormat="1">
       <c r="B63" s="83">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C63" s="74">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="D63" s="84"/>
       <c r="E63" s="84"/>
@@ -5609,10 +5708,10 @@
     </row>
     <row r="64" spans="1:20" s="80" customFormat="1">
       <c r="B64" s="83">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C64" s="74">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="D64" s="84"/>
       <c r="E64" s="84"/>
@@ -5621,7 +5720,7 @@
       <c r="H64" s="84"/>
       <c r="I64" s="84"/>
       <c r="J64" s="82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K64" s="84"/>
       <c r="L64" s="84"/>
@@ -5633,32 +5732,113 @@
       <c r="R64" s="84"/>
       <c r="T64" s="81"/>
     </row>
-    <row r="65" spans="2:20" s="80" customFormat="1">
+    <row r="65" spans="2:20">
       <c r="B65" s="83">
+        <v>5</v>
+      </c>
+      <c r="C65" s="74">
+        <v>6.6</v>
+      </c>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="82">
+        <v>3</v>
+      </c>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="25"/>
+      <c r="R65" s="25"/>
+      <c r="T65" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" s="80" customFormat="1">
+      <c r="B66" s="83">
+        <v>6</v>
+      </c>
+      <c r="C66" s="74">
+        <v>7.4</v>
+      </c>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="84"/>
+      <c r="G66" s="84"/>
+      <c r="H66" s="84"/>
+      <c r="I66" s="84"/>
+      <c r="J66" s="82">
+        <v>2</v>
+      </c>
+      <c r="K66" s="84"/>
+      <c r="L66" s="84"/>
+      <c r="M66" s="84"/>
+      <c r="N66" s="84"/>
+      <c r="O66" s="84"/>
+      <c r="P66" s="84"/>
+      <c r="Q66" s="84"/>
+      <c r="R66" s="84"/>
+      <c r="T66" s="81"/>
+    </row>
+    <row r="67" spans="2:20" s="80" customFormat="1">
+      <c r="B67" s="83">
+        <v>7</v>
+      </c>
+      <c r="C67" s="74">
+        <v>7.5</v>
+      </c>
+      <c r="D67" s="84"/>
+      <c r="E67" s="84"/>
+      <c r="F67" s="84"/>
+      <c r="G67" s="84"/>
+      <c r="H67" s="84"/>
+      <c r="I67" s="84"/>
+      <c r="J67" s="82">
+        <v>4</v>
+      </c>
+      <c r="K67" s="84"/>
+      <c r="L67" s="84"/>
+      <c r="M67" s="84"/>
+      <c r="N67" s="84"/>
+      <c r="O67" s="84"/>
+      <c r="P67" s="84"/>
+      <c r="Q67" s="84"/>
+      <c r="R67" s="84"/>
+      <c r="T67" s="81"/>
+    </row>
+    <row r="68" spans="2:20" s="80" customFormat="1">
+      <c r="B68" s="83">
         <v>8</v>
       </c>
-      <c r="C65" s="74">
+      <c r="C68" s="74">
         <v>7.6</v>
       </c>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="84"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="84"/>
-      <c r="J65" s="82">
+      <c r="D68" s="84"/>
+      <c r="E68" s="84"/>
+      <c r="F68" s="84"/>
+      <c r="G68" s="84"/>
+      <c r="H68" s="84"/>
+      <c r="I68" s="84"/>
+      <c r="J68" s="82">
         <v>5</v>
       </c>
-      <c r="K65" s="84"/>
-      <c r="L65" s="84"/>
-      <c r="M65" s="84"/>
-      <c r="N65" s="84"/>
-      <c r="O65" s="84"/>
-      <c r="P65" s="84"/>
-      <c r="Q65" s="84"/>
-      <c r="R65" s="84"/>
-      <c r="T65" s="81">
-        <f t="shared" ref="T65" si="10">SUM(E65:R65)</f>
+      <c r="K68" s="84"/>
+      <c r="L68" s="84"/>
+      <c r="M68" s="84"/>
+      <c r="N68" s="84"/>
+      <c r="O68" s="84"/>
+      <c r="P68" s="84"/>
+      <c r="Q68" s="84"/>
+      <c r="R68" s="84"/>
+      <c r="T68" s="81">
+        <f t="shared" ref="T68" si="11">SUM(E68:R68)</f>
         <v>5</v>
       </c>
     </row>

--- a/docs/Listing_Tool_Status_Report_v1.0.xlsx
+++ b/docs/Listing_Tool_Status_Report_v1.0.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="-360" windowWidth="16620" windowHeight="9435" activeTab="1"/>
+    <workbookView xWindow="5352" yWindow="-360" windowWidth="16620" windowHeight="9432" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="WBS" sheetId="5" r:id="rId2"/>
     <sheet name="March 2015" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="180">
   <si>
     <t>Project Name:</t>
   </si>
@@ -1199,14 +1199,343 @@
   </si>
   <si>
     <t>5.1 capture all process and add memo</t>
+  </si>
+  <si>
+    <t>8.调研google-api 获取google 广告点击情况                           and                                                  验证框架、翻译脚本、表单验证</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、下载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> google sdk </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>google</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代码运行测试</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">google </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广告字段信息，通过字段拼写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AWQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询语句，获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">google </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广告点击情况</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、项目组部署框架，本地运行报错，出现内存溢出错误，进行修改更正</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初次整合项目，抽取重复的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>companyservice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类，调整项目源码布局</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、加入分页控件，调整局部样式。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、现分页控件为无刷新模式，预改造为每次刷新请求模式，方便引擎搜索。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">局部加入表单验证
+</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1218,7 +1547,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1281,7 +1610,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1774,7 +2103,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1818,7 +2147,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2004,6 +2333,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2013,7 +2369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2022,15 +2378,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2049,9 +2396,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2061,27 +2405,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="1"/>
     <cellStyle name="Normal 3 2" xfId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2097,7 +2432,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2171,6 +2506,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2205,6 +2541,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2380,22 +2717,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13.5" thickBot="1"/>
+    <row r="1" spans="2:10" ht="13.8" thickBot="1"/>
     <row r="2" spans="2:10">
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -2407,7 +2744,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="2:10" ht="33">
+    <row r="3" spans="2:10" ht="31.8">
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
         <v>0</v>
@@ -2647,7 +2984,7 @@
       <c r="I20" s="11"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="2:10" ht="13.5" thickBot="1">
+    <row r="21" spans="2:10" ht="13.8" thickBot="1">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -2666,25 +3003,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="39" style="52" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" style="53" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="68" customWidth="1"/>
-    <col min="7" max="8" width="11.5703125" style="52" customWidth="1"/>
-    <col min="9" max="9" width="38.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="33"/>
+    <col min="2" max="2" width="41.88671875" style="53" customWidth="1"/>
+    <col min="3" max="3" width="54.109375" style="52" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="52" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="68" customWidth="1"/>
+    <col min="7" max="8" width="11.5546875" style="52" customWidth="1"/>
+    <col min="9" max="9" width="38.44140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2716,7 +3053,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.5" thickBot="1">
+    <row r="2" spans="1:9" ht="13.8" thickBot="1">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="34"/>
@@ -2727,8 +3064,8 @@
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
     </row>
-    <row r="3" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A3" s="101" t="s">
+    <row r="3" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A3" s="98" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="37" t="s">
@@ -2748,8 +3085,8 @@
       </c>
       <c r="I3" s="41"/>
     </row>
-    <row r="4" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A4" s="102"/>
+    <row r="4" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A4" s="99"/>
       <c r="B4" s="42" t="s">
         <v>41</v>
       </c>
@@ -2767,8 +3104,8 @@
       </c>
       <c r="I4" s="46"/>
     </row>
-    <row r="5" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A5" s="103"/>
+    <row r="5" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A5" s="100"/>
       <c r="B5" s="47" t="s">
         <v>42</v>
       </c>
@@ -2784,7 +3121,7 @@
       <c r="H5" s="48"/>
       <c r="I5" s="51"/>
     </row>
-    <row r="6" spans="1:9" ht="13.5" thickBot="1">
+    <row r="6" spans="1:9" ht="13.8" thickBot="1">
       <c r="D6" s="54" t="s">
         <v>43</v>
       </c>
@@ -2796,25 +3133,25 @@
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
     </row>
-    <row r="7" spans="1:9" ht="13.5" thickTop="1">
+    <row r="7" spans="1:9" ht="13.8" thickTop="1">
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
       <c r="F7" s="57"/>
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
     </row>
-    <row r="8" spans="1:9" ht="13.5" thickBot="1">
+    <row r="8" spans="1:9" ht="13.8" thickBot="1">
       <c r="D8" s="54"/>
       <c r="E8" s="54"/>
       <c r="F8" s="57"/>
       <c r="G8" s="56"/>
       <c r="H8" s="56"/>
     </row>
-    <row r="9" spans="1:9" ht="26.65" customHeight="1">
-      <c r="A9" s="101" t="s">
+    <row r="9" spans="1:9" ht="26.7" customHeight="1">
+      <c r="A9" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="110" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="58" t="s">
@@ -2835,9 +3172,9 @@
       </c>
       <c r="I9" s="41"/>
     </row>
-    <row r="10" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A10" s="102"/>
-      <c r="B10" s="105"/>
+    <row r="10" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A10" s="99"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="59" t="s">
         <v>47</v>
       </c>
@@ -2856,9 +3193,9 @@
       </c>
       <c r="I10" s="62"/>
     </row>
-    <row r="11" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A11" s="102"/>
-      <c r="B11" s="105"/>
+    <row r="11" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A11" s="99"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="43" t="s">
         <v>49</v>
       </c>
@@ -2877,9 +3214,9 @@
       </c>
       <c r="I11" s="46"/>
     </row>
-    <row r="12" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A12" s="102"/>
-      <c r="B12" s="105"/>
+    <row r="12" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A12" s="99"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="63" t="s">
         <v>50</v>
       </c>
@@ -2898,9 +3235,9 @@
       </c>
       <c r="I12" s="65"/>
     </row>
-    <row r="13" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A13" s="102"/>
-      <c r="B13" s="106"/>
+    <row r="13" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A13" s="99"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="63" t="s">
         <v>52</v>
       </c>
@@ -2917,9 +3254,9 @@
       </c>
       <c r="I13" s="65"/>
     </row>
-    <row r="14" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A14" s="102"/>
-      <c r="B14" s="107" t="s">
+    <row r="14" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A14" s="99"/>
+      <c r="B14" s="113" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="63" t="s">
@@ -2940,9 +3277,9 @@
       </c>
       <c r="I14" s="65"/>
     </row>
-    <row r="15" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A15" s="102"/>
-      <c r="B15" s="108"/>
+    <row r="15" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A15" s="99"/>
+      <c r="B15" s="114"/>
       <c r="C15" s="63" t="s">
         <v>55</v>
       </c>
@@ -2961,9 +3298,9 @@
       </c>
       <c r="I15" s="65"/>
     </row>
-    <row r="16" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A16" s="102"/>
-      <c r="B16" s="108"/>
+    <row r="16" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A16" s="99"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="63" t="s">
         <v>57</v>
       </c>
@@ -2982,9 +3319,9 @@
       </c>
       <c r="I16" s="65"/>
     </row>
-    <row r="17" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A17" s="102"/>
-      <c r="B17" s="108"/>
+    <row r="17" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A17" s="99"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="63" t="s">
         <v>59</v>
       </c>
@@ -3003,9 +3340,9 @@
       </c>
       <c r="I17" s="65"/>
     </row>
-    <row r="18" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A18" s="102"/>
-      <c r="B18" s="108"/>
+    <row r="18" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A18" s="99"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="63" t="s">
         <v>60</v>
       </c>
@@ -3024,9 +3361,9 @@
       </c>
       <c r="I18" s="65"/>
     </row>
-    <row r="19" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A19" s="102"/>
-      <c r="B19" s="108"/>
+    <row r="19" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A19" s="99"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="63" t="s">
         <v>61</v>
       </c>
@@ -3045,9 +3382,9 @@
       </c>
       <c r="I19" s="65"/>
     </row>
-    <row r="20" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A20" s="102"/>
-      <c r="B20" s="108"/>
+    <row r="20" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A20" s="99"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="63" t="s">
         <v>62</v>
       </c>
@@ -3066,9 +3403,9 @@
       </c>
       <c r="I20" s="65"/>
     </row>
-    <row r="21" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A21" s="102"/>
-      <c r="B21" s="108"/>
+    <row r="21" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A21" s="99"/>
+      <c r="B21" s="114"/>
       <c r="C21" s="90" t="s">
         <v>165</v>
       </c>
@@ -3085,9 +3422,9 @@
       </c>
       <c r="I21" s="65"/>
     </row>
-    <row r="22" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A22" s="103"/>
-      <c r="B22" s="109"/>
+    <row r="22" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A22" s="100"/>
+      <c r="B22" s="115"/>
       <c r="C22" s="66" t="s">
         <v>166</v>
       </c>
@@ -3104,7 +3441,7 @@
       </c>
       <c r="I22" s="51"/>
     </row>
-    <row r="23" spans="1:9" ht="13.5" thickBot="1">
+    <row r="23" spans="1:9" ht="13.8" thickBot="1">
       <c r="D23" s="54" t="s">
         <v>43</v>
       </c>
@@ -3116,22 +3453,22 @@
       <c r="G23" s="56"/>
       <c r="H23" s="56"/>
     </row>
-    <row r="24" spans="1:9" ht="13.5" thickTop="1">
+    <row r="24" spans="1:9" ht="13.8" thickTop="1">
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
       <c r="F24" s="57"/>
       <c r="G24" s="56"/>
       <c r="H24" s="56"/>
     </row>
-    <row r="25" spans="1:9" ht="13.5" thickBot="1">
+    <row r="25" spans="1:9" ht="13.8" thickBot="1">
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
       <c r="F25" s="57"/>
       <c r="G25" s="56"/>
       <c r="H25" s="56"/>
     </row>
-    <row r="26" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A26" s="101" t="s">
+    <row r="26" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A26" s="98" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="37" t="s">
@@ -3153,8 +3490,8 @@
       </c>
       <c r="I26" s="41"/>
     </row>
-    <row r="27" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A27" s="102"/>
+    <row r="27" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A27" s="99"/>
       <c r="B27" s="42" t="s">
         <v>66</v>
       </c>
@@ -3174,9 +3511,9 @@
       </c>
       <c r="I27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A28" s="102"/>
-      <c r="B28" s="110" t="s">
+    <row r="28" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A28" s="99"/>
+      <c r="B28" s="107" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="63" t="s">
@@ -3197,9 +3534,9 @@
       </c>
       <c r="I28" s="65"/>
     </row>
-    <row r="29" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A29" s="102"/>
-      <c r="B29" s="99"/>
+    <row r="29" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A29" s="99"/>
+      <c r="B29" s="108"/>
       <c r="C29" s="63" t="s">
         <v>70</v>
       </c>
@@ -3218,9 +3555,9 @@
       </c>
       <c r="I29" s="65"/>
     </row>
-    <row r="30" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A30" s="102"/>
-      <c r="B30" s="111"/>
+    <row r="30" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A30" s="99"/>
+      <c r="B30" s="116"/>
       <c r="C30" s="63" t="s">
         <v>72</v>
       </c>
@@ -3239,9 +3576,9 @@
       </c>
       <c r="I30" s="65"/>
     </row>
-    <row r="31" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A31" s="102"/>
-      <c r="B31" s="110" t="s">
+    <row r="31" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A31" s="99"/>
+      <c r="B31" s="107" t="s">
         <v>127</v>
       </c>
       <c r="C31" s="70" t="s">
@@ -3262,9 +3599,9 @@
       </c>
       <c r="I31" s="65"/>
     </row>
-    <row r="32" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A32" s="102"/>
-      <c r="B32" s="99"/>
+    <row r="32" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A32" s="99"/>
+      <c r="B32" s="108"/>
       <c r="C32" s="70" t="s">
         <v>120</v>
       </c>
@@ -3283,9 +3620,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A33" s="102"/>
-      <c r="B33" s="99"/>
+    <row r="33" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A33" s="99"/>
+      <c r="B33" s="108"/>
       <c r="C33" s="70" t="s">
         <v>122</v>
       </c>
@@ -3306,9 +3643,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A34" s="102"/>
-      <c r="B34" s="99"/>
+    <row r="34" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A34" s="99"/>
+      <c r="B34" s="108"/>
       <c r="C34" s="70" t="s">
         <v>123</v>
       </c>
@@ -3327,9 +3664,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A35" s="102"/>
-      <c r="B35" s="99"/>
+    <row r="35" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A35" s="99"/>
+      <c r="B35" s="108"/>
       <c r="C35" s="70" t="s">
         <v>124</v>
       </c>
@@ -3348,9 +3685,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A36" s="102"/>
-      <c r="B36" s="99"/>
+    <row r="36" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A36" s="99"/>
+      <c r="B36" s="108"/>
       <c r="C36" s="70" t="s">
         <v>125</v>
       </c>
@@ -3369,9 +3706,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A37" s="102"/>
-      <c r="B37" s="100"/>
+    <row r="37" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A37" s="99"/>
+      <c r="B37" s="109"/>
       <c r="C37" s="73" t="s">
         <v>126</v>
       </c>
@@ -3388,9 +3725,9 @@
       </c>
       <c r="I37" s="51"/>
     </row>
-    <row r="38" spans="1:9" ht="13.7" customHeight="1">
-      <c r="A38" s="102"/>
-      <c r="B38" s="114" t="s">
+    <row r="38" spans="1:9" ht="13.65" customHeight="1">
+      <c r="A38" s="99"/>
+      <c r="B38" s="101" t="s">
         <v>169</v>
       </c>
       <c r="C38" s="70" t="s">
@@ -3409,11 +3746,11 @@
       <c r="H38" s="67">
         <v>42089</v>
       </c>
-      <c r="I38" s="117"/>
-    </row>
-    <row r="39" spans="1:9" ht="13.7" customHeight="1">
-      <c r="A39" s="102"/>
-      <c r="B39" s="98"/>
+      <c r="I38" s="96"/>
+    </row>
+    <row r="39" spans="1:9" ht="13.65" customHeight="1">
+      <c r="A39" s="99"/>
+      <c r="B39" s="102"/>
       <c r="C39" s="70" t="s">
         <v>170</v>
       </c>
@@ -3421,7 +3758,7 @@
         <v>119</v>
       </c>
       <c r="E39" s="70"/>
-      <c r="F39" s="118">
+      <c r="F39" s="97">
         <v>16</v>
       </c>
       <c r="G39" s="67">
@@ -3432,9 +3769,9 @@
       </c>
       <c r="I39" s="70"/>
     </row>
-    <row r="40" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A40" s="103"/>
-      <c r="B40" s="116"/>
+    <row r="40" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A40" s="100"/>
+      <c r="B40" s="103"/>
       <c r="C40" s="73" t="s">
         <v>171</v>
       </c>
@@ -3453,7 +3790,7 @@
       </c>
       <c r="I40" s="51"/>
     </row>
-    <row r="41" spans="1:9" ht="13.5" thickBot="1">
+    <row r="41" spans="1:9" ht="13.8" thickBot="1">
       <c r="D41" s="54" t="s">
         <v>43</v>
       </c>
@@ -3465,14 +3802,14 @@
       <c r="G41" s="56"/>
       <c r="H41" s="56"/>
     </row>
-    <row r="42" spans="1:9" ht="13.5" thickTop="1">
+    <row r="42" spans="1:9" ht="13.8" thickTop="1">
       <c r="D42" s="54"/>
       <c r="E42" s="54"/>
       <c r="F42" s="57"/>
       <c r="G42" s="56"/>
       <c r="H42" s="56"/>
     </row>
-    <row r="43" spans="1:9" ht="13.5" thickBot="1">
+    <row r="43" spans="1:9" ht="13.8" thickBot="1">
       <c r="D43" s="54"/>
       <c r="E43" s="54"/>
       <c r="F43" s="57"/>
@@ -3480,7 +3817,7 @@
       <c r="H43" s="56"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="101" t="s">
+      <c r="A44" s="98" t="s">
         <v>74</v>
       </c>
       <c r="B44" s="37" t="s">
@@ -3501,8 +3838,8 @@
       <c r="I44" s="41"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="102"/>
-      <c r="B45" s="107" t="s">
+      <c r="A45" s="99"/>
+      <c r="B45" s="113" t="s">
         <v>77</v>
       </c>
       <c r="C45" s="69" t="s">
@@ -3522,8 +3859,8 @@
       <c r="I45" s="46"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="102"/>
-      <c r="B46" s="108"/>
+      <c r="A46" s="99"/>
+      <c r="B46" s="114"/>
       <c r="C46" s="63" t="s">
         <v>79</v>
       </c>
@@ -3541,8 +3878,8 @@
       <c r="I46" s="65"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="102"/>
-      <c r="B47" s="108"/>
+      <c r="A47" s="99"/>
+      <c r="B47" s="114"/>
       <c r="C47" s="63" t="s">
         <v>80</v>
       </c>
@@ -3560,8 +3897,8 @@
       <c r="I47" s="65"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="102"/>
-      <c r="B48" s="108"/>
+      <c r="A48" s="99"/>
+      <c r="B48" s="114"/>
       <c r="C48" s="63" t="s">
         <v>81</v>
       </c>
@@ -3579,8 +3916,8 @@
       <c r="I48" s="65"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="102"/>
-      <c r="B49" s="108"/>
+      <c r="A49" s="99"/>
+      <c r="B49" s="114"/>
       <c r="C49" s="63" t="s">
         <v>83</v>
       </c>
@@ -3598,8 +3935,8 @@
       <c r="I49" s="65"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="102"/>
-      <c r="B50" s="112"/>
+      <c r="A50" s="99"/>
+      <c r="B50" s="117"/>
       <c r="C50" s="63" t="s">
         <v>85</v>
       </c>
@@ -3617,8 +3954,8 @@
       <c r="I50" s="65"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="102"/>
-      <c r="B51" s="107" t="s">
+      <c r="A51" s="99"/>
+      <c r="B51" s="113" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="63" t="s">
@@ -3641,8 +3978,8 @@
       <c r="I51" s="65"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="102"/>
-      <c r="B52" s="108"/>
+      <c r="A52" s="99"/>
+      <c r="B52" s="114"/>
       <c r="C52" s="70" t="s">
         <v>90</v>
       </c>
@@ -3663,8 +4000,8 @@
       <c r="I52" s="65"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="102"/>
-      <c r="B53" s="108"/>
+      <c r="A53" s="99"/>
+      <c r="B53" s="114"/>
       <c r="C53" s="63" t="s">
         <v>91</v>
       </c>
@@ -3685,8 +4022,8 @@
       <c r="I53" s="65"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="102"/>
-      <c r="B54" s="108"/>
+      <c r="A54" s="99"/>
+      <c r="B54" s="114"/>
       <c r="C54" s="70" t="s">
         <v>93</v>
       </c>
@@ -3709,8 +4046,8 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="102"/>
-      <c r="B55" s="108"/>
+      <c r="A55" s="99"/>
+      <c r="B55" s="114"/>
       <c r="C55" s="70" t="s">
         <v>94</v>
       </c>
@@ -3730,9 +4067,9 @@
       </c>
       <c r="I55" s="65"/>
     </row>
-    <row r="56" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A56" s="103"/>
-      <c r="B56" s="109"/>
+    <row r="56" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A56" s="100"/>
+      <c r="B56" s="115"/>
       <c r="C56" s="73" t="s">
         <v>96</v>
       </c>
@@ -3752,7 +4089,7 @@
       </c>
       <c r="I56" s="51"/>
     </row>
-    <row r="57" spans="1:9" ht="13.5" thickBot="1">
+    <row r="57" spans="1:9" ht="13.8" thickBot="1">
       <c r="D57" s="54" t="s">
         <v>43</v>
       </c>
@@ -3762,13 +4099,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="13.5" thickTop="1"/>
-    <row r="59" spans="1:9" ht="13.5" thickBot="1"/>
+    <row r="58" spans="1:9" ht="13.8" thickTop="1"/>
+    <row r="59" spans="1:9" ht="13.8" thickBot="1"/>
     <row r="60" spans="1:9">
-      <c r="A60" s="113" t="s">
+      <c r="A60" s="118" t="s">
         <v>97</v>
       </c>
-      <c r="B60" s="114" t="s">
+      <c r="B60" s="101" t="s">
         <v>136</v>
       </c>
       <c r="C60" s="38" t="s">
@@ -3790,8 +4127,8 @@
       <c r="I60" s="41"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="102"/>
-      <c r="B61" s="115"/>
+      <c r="A61" s="99"/>
+      <c r="B61" s="119"/>
       <c r="C61" s="59" t="s">
         <v>100</v>
       </c>
@@ -3811,8 +4148,8 @@
       <c r="I61" s="62"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="102"/>
-      <c r="B62" s="107" t="s">
+      <c r="A62" s="99"/>
+      <c r="B62" s="113" t="s">
         <v>138</v>
       </c>
       <c r="C62" s="43" t="s">
@@ -3834,8 +4171,8 @@
       <c r="I62" s="46"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="102"/>
-      <c r="B63" s="108"/>
+      <c r="A63" s="99"/>
+      <c r="B63" s="114"/>
       <c r="C63" s="63" t="s">
         <v>103</v>
       </c>
@@ -3855,8 +4192,8 @@
       <c r="I63" s="65"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="102"/>
-      <c r="B64" s="108"/>
+      <c r="A64" s="99"/>
+      <c r="B64" s="114"/>
       <c r="C64" s="63" t="s">
         <v>105</v>
       </c>
@@ -3876,8 +4213,8 @@
       <c r="I64" s="65"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="102"/>
-      <c r="B65" s="112"/>
+      <c r="A65" s="99"/>
+      <c r="B65" s="117"/>
       <c r="C65" s="63" t="s">
         <v>107</v>
       </c>
@@ -3897,7 +4234,7 @@
       <c r="I65" s="65"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="102"/>
+      <c r="A66" s="99"/>
       <c r="B66" s="42" t="s">
         <v>140</v>
       </c>
@@ -3918,8 +4255,8 @@
       <c r="I66" s="65"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="102"/>
-      <c r="B67" s="107" t="s">
+      <c r="A67" s="99"/>
+      <c r="B67" s="113" t="s">
         <v>142</v>
       </c>
       <c r="C67" s="63" t="s">
@@ -3941,8 +4278,8 @@
       <c r="I67" s="65"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="102"/>
-      <c r="B68" s="108"/>
+      <c r="A68" s="99"/>
+      <c r="B68" s="114"/>
       <c r="C68" s="63" t="s">
         <v>111</v>
       </c>
@@ -3962,8 +4299,8 @@
       <c r="I68" s="65"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="102"/>
-      <c r="B69" s="108"/>
+      <c r="A69" s="99"/>
+      <c r="B69" s="114"/>
       <c r="C69" s="63" t="s">
         <v>112</v>
       </c>
@@ -3983,8 +4320,8 @@
       <c r="I69" s="65"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="102"/>
-      <c r="B70" s="112"/>
+      <c r="A70" s="99"/>
+      <c r="B70" s="117"/>
       <c r="C70" s="63" t="s">
         <v>113</v>
       </c>
@@ -4004,7 +4341,7 @@
       <c r="I70" s="71"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="102"/>
+      <c r="A71" s="99"/>
       <c r="B71" s="42" t="s">
         <v>144</v>
       </c>
@@ -4026,9 +4363,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A72" s="103"/>
-      <c r="B72" s="107" t="s">
+    <row r="72" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A72" s="100"/>
+      <c r="B72" s="113" t="s">
         <v>145</v>
       </c>
       <c r="C72" s="42" t="s">
@@ -4049,7 +4386,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="91"/>
-      <c r="B73" s="108"/>
+      <c r="B73" s="114"/>
       <c r="C73" s="42" t="s">
         <v>147</v>
       </c>
@@ -4068,7 +4405,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="92"/>
-      <c r="B74" s="108"/>
+      <c r="B74" s="114"/>
       <c r="C74" s="42" t="s">
         <v>150</v>
       </c>
@@ -4087,7 +4424,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="92"/>
-      <c r="B75" s="108"/>
+      <c r="B75" s="114"/>
       <c r="C75" s="42" t="s">
         <v>148</v>
       </c>
@@ -4106,7 +4443,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="92"/>
-      <c r="B76" s="108"/>
+      <c r="B76" s="114"/>
       <c r="C76" s="42" t="s">
         <v>151</v>
       </c>
@@ -4123,9 +4460,9 @@
       </c>
       <c r="I76" s="71"/>
     </row>
-    <row r="77" spans="1:9" ht="13.5" thickBot="1">
+    <row r="77" spans="1:9" ht="13.8" thickBot="1">
       <c r="A77" s="92"/>
-      <c r="B77" s="109"/>
+      <c r="B77" s="115"/>
       <c r="C77" s="76" t="s">
         <v>149</v>
       </c>
@@ -4144,7 +4481,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="92"/>
-      <c r="B78" s="95" t="s">
+      <c r="B78" s="104" t="s">
         <v>164</v>
       </c>
       <c r="C78" s="42" t="s">
@@ -4165,7 +4502,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="92"/>
-      <c r="B79" s="96"/>
+      <c r="B79" s="105"/>
       <c r="C79" s="42" t="s">
         <v>157</v>
       </c>
@@ -4184,7 +4521,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="92"/>
-      <c r="B80" s="96"/>
+      <c r="B80" s="105"/>
       <c r="C80" s="42" t="s">
         <v>158</v>
       </c>
@@ -4203,7 +4540,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="92"/>
-      <c r="B81" s="96"/>
+      <c r="B81" s="105"/>
       <c r="C81" s="42" t="s">
         <v>161</v>
       </c>
@@ -4222,7 +4559,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="92"/>
-      <c r="B82" s="96"/>
+      <c r="B82" s="105"/>
       <c r="C82" s="42" t="s">
         <v>162</v>
       </c>
@@ -4239,9 +4576,9 @@
       </c>
       <c r="I82" s="71"/>
     </row>
-    <row r="83" spans="1:9" ht="13.5" thickBot="1">
+    <row r="83" spans="1:9" ht="13.8" thickBot="1">
       <c r="A83" s="93"/>
-      <c r="B83" s="97"/>
+      <c r="B83" s="106"/>
       <c r="C83" s="76" t="s">
         <v>163</v>
       </c>
@@ -4258,8 +4595,126 @@
       </c>
       <c r="I83" s="79"/>
     </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="92"/>
+      <c r="B84" s="104" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="D84" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="E84" s="95"/>
+      <c r="F84" s="64"/>
+      <c r="G84" s="67">
+        <v>42088</v>
+      </c>
+      <c r="H84" s="67">
+        <v>42088</v>
+      </c>
+      <c r="I84" s="71"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="92"/>
+      <c r="B85" s="105"/>
+      <c r="C85" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="D85" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="E85" s="95"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="67">
+        <v>42088</v>
+      </c>
+      <c r="H85" s="67">
+        <v>42088</v>
+      </c>
+      <c r="I85" s="71"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="92"/>
+      <c r="B86" s="105"/>
+      <c r="C86" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="D86" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="E86" s="95"/>
+      <c r="F86" s="64"/>
+      <c r="G86" s="67">
+        <v>42088</v>
+      </c>
+      <c r="H86" s="67">
+        <v>42088</v>
+      </c>
+      <c r="I86" s="71"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="92"/>
+      <c r="B87" s="105"/>
+      <c r="C87" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87" s="95" t="s">
+        <v>160</v>
+      </c>
+      <c r="E87" s="95"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="67">
+        <v>42088</v>
+      </c>
+      <c r="H87" s="67">
+        <v>42088</v>
+      </c>
+      <c r="I87" s="71"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="92"/>
+      <c r="B88" s="105"/>
+      <c r="C88" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D88" s="95" t="s">
+        <v>160</v>
+      </c>
+      <c r="E88" s="95"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="67">
+        <v>42088</v>
+      </c>
+      <c r="H88" s="67">
+        <v>42088</v>
+      </c>
+      <c r="I88" s="71"/>
+    </row>
+    <row r="89" spans="1:9" ht="51" thickBot="1">
+      <c r="A89" s="93"/>
+      <c r="B89" s="106"/>
+      <c r="C89" s="120" t="s">
+        <v>179</v>
+      </c>
+      <c r="D89" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="E89" s="76"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="67">
+        <v>42088</v>
+      </c>
+      <c r="H89" s="67">
+        <v>42088</v>
+      </c>
+      <c r="I89" s="79"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="B72:B77"/>
+    <mergeCell ref="B84:B89"/>
     <mergeCell ref="A26:A40"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="B78:B83"/>
@@ -4276,7 +4731,6 @@
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="B62:B65"/>
     <mergeCell ref="B67:B70"/>
-    <mergeCell ref="B72:B77"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4285,29 +4739,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="D52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
+      <selection pane="bottomRight" activeCell="N71" sqref="N71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="64.85546875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="23" customWidth="1"/>
-    <col min="5" max="18" width="4.42578125" style="23" customWidth="1"/>
-    <col min="19" max="19" width="2.85546875" style="23" customWidth="1"/>
-    <col min="20" max="20" width="7.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="8.109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.88671875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="23" customWidth="1"/>
+    <col min="5" max="18" width="4.44140625" style="23" customWidth="1"/>
+    <col min="19" max="19" width="2.88671875" style="23" customWidth="1"/>
+    <col min="20" max="20" width="7.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75">
+    <row r="1" spans="1:20" ht="15.6">
       <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
@@ -4394,7 +4848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="13.5" thickBot="1">
+    <row r="9" spans="1:20" ht="13.8" thickBot="1">
       <c r="B9" s="20" t="s">
         <v>10</v>
       </c>
@@ -4402,7 +4856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="25.5">
+    <row r="10" spans="1:20">
       <c r="B10" s="87">
         <v>1</v>
       </c>
@@ -5533,10 +5987,10 @@
       <c r="G55" s="84"/>
       <c r="H55" s="84"/>
       <c r="I55" s="84"/>
-      <c r="J55" s="82">
+      <c r="J55" s="84"/>
+      <c r="K55" s="82">
         <v>2</v>
       </c>
-      <c r="K55" s="84"/>
       <c r="L55" s="84"/>
       <c r="M55" s="84"/>
       <c r="N55" s="84"/>
@@ -5562,10 +6016,10 @@
       <c r="G56" s="84"/>
       <c r="H56" s="84"/>
       <c r="I56" s="84"/>
-      <c r="J56" s="82">
+      <c r="J56" s="84"/>
+      <c r="K56" s="82">
         <v>4</v>
       </c>
-      <c r="K56" s="84"/>
       <c r="L56" s="84"/>
       <c r="M56" s="84"/>
       <c r="N56" s="84"/>
@@ -5591,10 +6045,10 @@
       <c r="G57" s="84"/>
       <c r="H57" s="84"/>
       <c r="I57" s="84"/>
-      <c r="J57" s="82">
+      <c r="J57" s="84"/>
+      <c r="K57" s="82">
         <v>5</v>
       </c>
-      <c r="K57" s="84"/>
       <c r="L57" s="84"/>
       <c r="M57" s="84"/>
       <c r="N57" s="84"/>
@@ -5603,151 +6057,157 @@
       <c r="Q57" s="84"/>
       <c r="R57" s="84"/>
       <c r="T57" s="81">
-        <f t="shared" ref="T57" si="9">SUM(E57:R57)</f>
+        <f t="shared" ref="T57:T59" si="9">SUM(E57:R57)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
-      <c r="A59" s="24" t="s">
+    <row r="58" spans="1:20" s="80" customFormat="1">
+      <c r="B58" s="83">
+        <v>10</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" s="84"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="84"/>
+      <c r="H58" s="84"/>
+      <c r="I58" s="84"/>
+      <c r="J58" s="84"/>
+      <c r="K58" s="84"/>
+      <c r="L58" s="82">
+        <v>2</v>
+      </c>
+      <c r="M58" s="84"/>
+      <c r="N58" s="84"/>
+      <c r="O58" s="84"/>
+      <c r="P58" s="84"/>
+      <c r="Q58" s="84"/>
+      <c r="R58" s="84"/>
+      <c r="T58" s="81">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" s="80" customFormat="1">
+      <c r="B59" s="83">
+        <v>11</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="84"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="84"/>
+      <c r="J59" s="84"/>
+      <c r="K59" s="84"/>
+      <c r="L59" s="82">
+        <v>4</v>
+      </c>
+      <c r="M59" s="84"/>
+      <c r="N59" s="84"/>
+      <c r="O59" s="84"/>
+      <c r="P59" s="84"/>
+      <c r="Q59" s="84"/>
+      <c r="R59" s="84"/>
+      <c r="T59" s="81">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" s="80" customFormat="1">
+      <c r="B60" s="83">
+        <v>12</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="84"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="84"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="84"/>
+      <c r="J60" s="84"/>
+      <c r="K60" s="84"/>
+      <c r="L60" s="82">
+        <v>5</v>
+      </c>
+      <c r="M60" s="84"/>
+      <c r="N60" s="84"/>
+      <c r="O60" s="84"/>
+      <c r="P60" s="84"/>
+      <c r="Q60" s="84"/>
+      <c r="R60" s="84"/>
+      <c r="T60" s="81">
+        <f t="shared" ref="T60" si="10">SUM(E60:R60)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
-      <c r="B60" s="20" t="s">
+    <row r="63" spans="1:20">
+      <c r="B63" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
-      <c r="B61" s="21">
+    <row r="64" spans="1:20">
+      <c r="B64" s="21">
         <v>1</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C64" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="19">
+      <c r="D64" s="25"/>
+      <c r="E64" s="19">
         <v>8</v>
       </c>
-      <c r="F61" s="19">
+      <c r="F64" s="19">
         <v>8</v>
       </c>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="25"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="25"/>
-      <c r="R61" s="25"/>
-      <c r="T61" s="3">
-        <f t="shared" ref="T61:T65" si="10">SUM(E61:R61)</f>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
+      <c r="R64" s="25"/>
+      <c r="T64" s="3">
+        <f t="shared" ref="T64:T68" si="11">SUM(E64:R64)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="1:20">
-      <c r="B62" s="83">
-        <v>2</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="19">
-        <v>8</v>
-      </c>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="84"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="25"/>
-      <c r="O62" s="25"/>
-      <c r="P62" s="25"/>
-      <c r="Q62" s="25"/>
-      <c r="R62" s="25"/>
-      <c r="T62" s="3">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" s="80" customFormat="1">
-      <c r="B63" s="83">
-        <v>3</v>
-      </c>
-      <c r="C63" s="74">
-        <v>6.4</v>
-      </c>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="84"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="84"/>
-      <c r="J63" s="82">
-        <v>2</v>
-      </c>
-      <c r="K63" s="84"/>
-      <c r="L63" s="84"/>
-      <c r="M63" s="84"/>
-      <c r="N63" s="84"/>
-      <c r="O63" s="84"/>
-      <c r="P63" s="84"/>
-      <c r="Q63" s="84"/>
-      <c r="R63" s="84"/>
-      <c r="T63" s="81"/>
-    </row>
-    <row r="64" spans="1:20" s="80" customFormat="1">
-      <c r="B64" s="83">
-        <v>4</v>
-      </c>
-      <c r="C64" s="74">
-        <v>6.5</v>
-      </c>
-      <c r="D64" s="84"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="84"/>
-      <c r="H64" s="84"/>
-      <c r="I64" s="84"/>
-      <c r="J64" s="82">
-        <v>3</v>
-      </c>
-      <c r="K64" s="84"/>
-      <c r="L64" s="84"/>
-      <c r="M64" s="84"/>
-      <c r="N64" s="84"/>
-      <c r="O64" s="84"/>
-      <c r="P64" s="84"/>
-      <c r="Q64" s="84"/>
-      <c r="R64" s="84"/>
-      <c r="T64" s="81"/>
     </row>
     <row r="65" spans="2:20">
       <c r="B65" s="83">
-        <v>5</v>
-      </c>
-      <c r="C65" s="74">
-        <v>6.6</v>
+        <v>2</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>143</v>
       </c>
       <c r="D65" s="25"/>
       <c r="E65" s="25"/>
       <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
+      <c r="G65" s="19">
+        <v>8</v>
+      </c>
       <c r="H65" s="25"/>
       <c r="I65" s="25"/>
-      <c r="J65" s="82">
-        <v>3</v>
-      </c>
+      <c r="J65" s="84"/>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
       <c r="M65" s="25"/>
@@ -5757,16 +6217,16 @@
       <c r="Q65" s="25"/>
       <c r="R65" s="25"/>
       <c r="T65" s="3">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="2:20" s="80" customFormat="1">
       <c r="B66" s="83">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C66" s="74">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="D66" s="84"/>
       <c r="E66" s="84"/>
@@ -5789,10 +6249,10 @@
     </row>
     <row r="67" spans="2:20" s="80" customFormat="1">
       <c r="B67" s="83">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C67" s="74">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="D67" s="84"/>
       <c r="E67" s="84"/>
@@ -5801,7 +6261,7 @@
       <c r="H67" s="84"/>
       <c r="I67" s="84"/>
       <c r="J67" s="82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K67" s="84"/>
       <c r="L67" s="84"/>
@@ -5813,32 +6273,194 @@
       <c r="R67" s="84"/>
       <c r="T67" s="81"/>
     </row>
-    <row r="68" spans="2:20" s="80" customFormat="1">
+    <row r="68" spans="2:20">
       <c r="B68" s="83">
+        <v>5</v>
+      </c>
+      <c r="C68" s="74">
+        <v>6.6</v>
+      </c>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="82">
+        <v>3</v>
+      </c>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="25"/>
+      <c r="R68" s="25"/>
+      <c r="T68" s="3">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" s="80" customFormat="1">
+      <c r="B69" s="83">
+        <v>6</v>
+      </c>
+      <c r="C69" s="74">
+        <v>7.4</v>
+      </c>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="84"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="84"/>
+      <c r="J69" s="84"/>
+      <c r="K69" s="82">
+        <v>2</v>
+      </c>
+      <c r="L69" s="84"/>
+      <c r="M69" s="84"/>
+      <c r="N69" s="84"/>
+      <c r="O69" s="84"/>
+      <c r="P69" s="84"/>
+      <c r="Q69" s="84"/>
+      <c r="R69" s="84"/>
+      <c r="T69" s="81"/>
+    </row>
+    <row r="70" spans="2:20" s="80" customFormat="1">
+      <c r="B70" s="83">
+        <v>7</v>
+      </c>
+      <c r="C70" s="74">
+        <v>7.5</v>
+      </c>
+      <c r="D70" s="84"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="84"/>
+      <c r="H70" s="84"/>
+      <c r="I70" s="84"/>
+      <c r="J70" s="84"/>
+      <c r="K70" s="82">
+        <v>4</v>
+      </c>
+      <c r="L70" s="84"/>
+      <c r="M70" s="84"/>
+      <c r="N70" s="84"/>
+      <c r="O70" s="84"/>
+      <c r="P70" s="84"/>
+      <c r="Q70" s="84"/>
+      <c r="R70" s="84"/>
+      <c r="T70" s="81"/>
+    </row>
+    <row r="71" spans="2:20" s="80" customFormat="1">
+      <c r="B71" s="83">
         <v>8</v>
       </c>
-      <c r="C68" s="74">
+      <c r="C71" s="74">
         <v>7.6</v>
       </c>
-      <c r="D68" s="84"/>
-      <c r="E68" s="84"/>
-      <c r="F68" s="84"/>
-      <c r="G68" s="84"/>
-      <c r="H68" s="84"/>
-      <c r="I68" s="84"/>
-      <c r="J68" s="82">
+      <c r="D71" s="84"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="84"/>
+      <c r="H71" s="84"/>
+      <c r="I71" s="84"/>
+      <c r="J71" s="84"/>
+      <c r="K71" s="82">
         <v>5</v>
       </c>
-      <c r="K68" s="84"/>
-      <c r="L68" s="84"/>
-      <c r="M68" s="84"/>
-      <c r="N68" s="84"/>
-      <c r="O68" s="84"/>
-      <c r="P68" s="84"/>
-      <c r="Q68" s="84"/>
-      <c r="R68" s="84"/>
-      <c r="T68" s="81">
-        <f t="shared" ref="T68" si="11">SUM(E68:R68)</f>
+      <c r="L71" s="84"/>
+      <c r="M71" s="84"/>
+      <c r="N71" s="84"/>
+      <c r="O71" s="84"/>
+      <c r="P71" s="84"/>
+      <c r="Q71" s="84"/>
+      <c r="R71" s="84"/>
+      <c r="T71" s="81">
+        <f t="shared" ref="T71" si="12">SUM(E71:R71)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" s="80" customFormat="1">
+      <c r="B72" s="83">
+        <v>9</v>
+      </c>
+      <c r="C72" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D72" s="84"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="84"/>
+      <c r="H72" s="84"/>
+      <c r="I72" s="84"/>
+      <c r="J72" s="84"/>
+      <c r="K72" s="84"/>
+      <c r="L72" s="82">
+        <v>2</v>
+      </c>
+      <c r="M72" s="84"/>
+      <c r="N72" s="84"/>
+      <c r="O72" s="84"/>
+      <c r="P72" s="84"/>
+      <c r="Q72" s="84"/>
+      <c r="R72" s="84"/>
+      <c r="T72" s="81"/>
+    </row>
+    <row r="73" spans="2:20" s="80" customFormat="1">
+      <c r="B73" s="83">
+        <v>10</v>
+      </c>
+      <c r="C73" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D73" s="84"/>
+      <c r="E73" s="84"/>
+      <c r="F73" s="84"/>
+      <c r="G73" s="84"/>
+      <c r="H73" s="84"/>
+      <c r="I73" s="84"/>
+      <c r="J73" s="84"/>
+      <c r="K73" s="84"/>
+      <c r="L73" s="82">
+        <v>4</v>
+      </c>
+      <c r="M73" s="84"/>
+      <c r="N73" s="84"/>
+      <c r="O73" s="84"/>
+      <c r="P73" s="84"/>
+      <c r="Q73" s="84"/>
+      <c r="R73" s="84"/>
+      <c r="T73" s="81"/>
+    </row>
+    <row r="74" spans="2:20" s="80" customFormat="1" ht="51" thickBot="1">
+      <c r="B74" s="83">
+        <v>11</v>
+      </c>
+      <c r="C74" s="120" t="s">
+        <v>179</v>
+      </c>
+      <c r="D74" s="84"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="84"/>
+      <c r="G74" s="84"/>
+      <c r="H74" s="84"/>
+      <c r="I74" s="84"/>
+      <c r="J74" s="84"/>
+      <c r="K74" s="84"/>
+      <c r="L74" s="82">
+        <v>5</v>
+      </c>
+      <c r="M74" s="84"/>
+      <c r="N74" s="84"/>
+      <c r="O74" s="84"/>
+      <c r="P74" s="84"/>
+      <c r="Q74" s="84"/>
+      <c r="R74" s="84"/>
+      <c r="T74" s="81">
+        <f t="shared" ref="T74" si="13">SUM(E74:R74)</f>
         <v>5</v>
       </c>
     </row>

--- a/docs/Listing_Tool_Status_Report_v1.0.xlsx
+++ b/docs/Listing_Tool_Status_Report_v1.0.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5352" yWindow="-360" windowWidth="16620" windowHeight="9432" activeTab="2"/>
+    <workbookView xWindow="5352" yWindow="-360" windowWidth="16608" windowHeight="9432" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="WBS" sheetId="5" r:id="rId2"/>
     <sheet name="March 2015" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="181">
   <si>
     <t>Project Name:</t>
   </si>
@@ -963,10 +963,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>此功能包含，页面条件查询的结合，还有数据库的二次设计</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>7.1</t>
     </r>
@@ -1526,6 +1522,38 @@
       </rPr>
       <t xml:space="preserve">局部加入表单验证
 </t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交易相关数据库设计</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交易相关数据库设计</t>
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1533,7 +1561,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -2103,7 +2131,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2342,6 +2370,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2360,15 +2412,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2387,15 +2430,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2407,9 +2441,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2432,7 +2463,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2506,7 +2537,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2541,7 +2571,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2717,7 +2746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3003,12 +3032,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -3065,7 +3094,7 @@
       <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="106" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="37" t="s">
@@ -3086,7 +3115,7 @@
       <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A4" s="99"/>
+      <c r="A4" s="107"/>
       <c r="B4" s="42" t="s">
         <v>41</v>
       </c>
@@ -3105,7 +3134,7 @@
       <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A5" s="100"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="47" t="s">
         <v>42</v>
       </c>
@@ -3148,10 +3177,10 @@
       <c r="H8" s="56"/>
     </row>
     <row r="9" spans="1:9" ht="26.7" customHeight="1">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="115" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="58" t="s">
@@ -3173,8 +3202,8 @@
       <c r="I9" s="41"/>
     </row>
     <row r="10" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A10" s="99"/>
-      <c r="B10" s="111"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="59" t="s">
         <v>47</v>
       </c>
@@ -3194,8 +3223,8 @@
       <c r="I10" s="62"/>
     </row>
     <row r="11" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A11" s="99"/>
-      <c r="B11" s="111"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="43" t="s">
         <v>49</v>
       </c>
@@ -3215,8 +3244,8 @@
       <c r="I11" s="46"/>
     </row>
     <row r="12" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A12" s="99"/>
-      <c r="B12" s="111"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="63" t="s">
         <v>50</v>
       </c>
@@ -3236,8 +3265,8 @@
       <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A13" s="99"/>
-      <c r="B13" s="112"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="63" t="s">
         <v>52</v>
       </c>
@@ -3255,8 +3284,8 @@
       <c r="I13" s="65"/>
     </row>
     <row r="14" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A14" s="99"/>
-      <c r="B14" s="113" t="s">
+      <c r="A14" s="107"/>
+      <c r="B14" s="100" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="63" t="s">
@@ -3278,8 +3307,8 @@
       <c r="I14" s="65"/>
     </row>
     <row r="15" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A15" s="99"/>
-      <c r="B15" s="114"/>
+      <c r="A15" s="107"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="63" t="s">
         <v>55</v>
       </c>
@@ -3299,8 +3328,8 @@
       <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A16" s="99"/>
-      <c r="B16" s="114"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="63" t="s">
         <v>57</v>
       </c>
@@ -3320,8 +3349,8 @@
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A17" s="99"/>
-      <c r="B17" s="114"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="63" t="s">
         <v>59</v>
       </c>
@@ -3341,8 +3370,8 @@
       <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A18" s="99"/>
-      <c r="B18" s="114"/>
+      <c r="A18" s="107"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="63" t="s">
         <v>60</v>
       </c>
@@ -3362,8 +3391,8 @@
       <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A19" s="99"/>
-      <c r="B19" s="114"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="63" t="s">
         <v>61</v>
       </c>
@@ -3383,8 +3412,8 @@
       <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A20" s="99"/>
-      <c r="B20" s="114"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="63" t="s">
         <v>62</v>
       </c>
@@ -3404,10 +3433,10 @@
       <c r="I20" s="65"/>
     </row>
     <row r="21" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A21" s="99"/>
-      <c r="B21" s="114"/>
+      <c r="A21" s="107"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D21" s="90" t="s">
         <v>40</v>
@@ -3423,10 +3452,10 @@
       <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A22" s="100"/>
-      <c r="B22" s="115"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>40</v>
@@ -3468,7 +3497,7 @@
       <c r="H25" s="56"/>
     </row>
     <row r="26" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="106" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="37" t="s">
@@ -3491,7 +3520,7 @@
       <c r="I26" s="41"/>
     </row>
     <row r="27" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A27" s="99"/>
+      <c r="A27" s="107"/>
       <c r="B27" s="42" t="s">
         <v>66</v>
       </c>
@@ -3512,8 +3541,8 @@
       <c r="I27" s="46"/>
     </row>
     <row r="28" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A28" s="99"/>
-      <c r="B28" s="107" t="s">
+      <c r="A28" s="107"/>
+      <c r="B28" s="112" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="63" t="s">
@@ -3535,8 +3564,8 @@
       <c r="I28" s="65"/>
     </row>
     <row r="29" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A29" s="99"/>
-      <c r="B29" s="108"/>
+      <c r="A29" s="107"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="63" t="s">
         <v>70</v>
       </c>
@@ -3556,8 +3585,8 @@
       <c r="I29" s="65"/>
     </row>
     <row r="30" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A30" s="99"/>
-      <c r="B30" s="116"/>
+      <c r="A30" s="107"/>
+      <c r="B30" s="118"/>
       <c r="C30" s="63" t="s">
         <v>72</v>
       </c>
@@ -3577,8 +3606,8 @@
       <c r="I30" s="65"/>
     </row>
     <row r="31" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A31" s="99"/>
-      <c r="B31" s="107" t="s">
+      <c r="A31" s="107"/>
+      <c r="B31" s="112" t="s">
         <v>127</v>
       </c>
       <c r="C31" s="70" t="s">
@@ -3600,8 +3629,8 @@
       <c r="I31" s="65"/>
     </row>
     <row r="32" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A32" s="99"/>
-      <c r="B32" s="108"/>
+      <c r="A32" s="107"/>
+      <c r="B32" s="113"/>
       <c r="C32" s="70" t="s">
         <v>120</v>
       </c>
@@ -3621,8 +3650,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A33" s="99"/>
-      <c r="B33" s="108"/>
+      <c r="A33" s="107"/>
+      <c r="B33" s="113"/>
       <c r="C33" s="70" t="s">
         <v>122</v>
       </c>
@@ -3644,8 +3673,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A34" s="99"/>
-      <c r="B34" s="108"/>
+      <c r="A34" s="107"/>
+      <c r="B34" s="113"/>
       <c r="C34" s="70" t="s">
         <v>123</v>
       </c>
@@ -3665,8 +3694,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A35" s="99"/>
-      <c r="B35" s="108"/>
+      <c r="A35" s="107"/>
+      <c r="B35" s="113"/>
       <c r="C35" s="70" t="s">
         <v>124</v>
       </c>
@@ -3686,8 +3715,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A36" s="99"/>
-      <c r="B36" s="108"/>
+      <c r="A36" s="107"/>
+      <c r="B36" s="113"/>
       <c r="C36" s="70" t="s">
         <v>125</v>
       </c>
@@ -3707,8 +3736,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A37" s="99"/>
-      <c r="B37" s="109"/>
+      <c r="A37" s="107"/>
+      <c r="B37" s="114"/>
       <c r="C37" s="73" t="s">
         <v>126</v>
       </c>
@@ -3726,12 +3755,12 @@
       <c r="I37" s="51"/>
     </row>
     <row r="38" spans="1:9" ht="13.65" customHeight="1">
-      <c r="A38" s="99"/>
-      <c r="B38" s="101" t="s">
-        <v>169</v>
+      <c r="A38" s="107"/>
+      <c r="B38" s="109" t="s">
+        <v>168</v>
       </c>
       <c r="C38" s="70" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D38" s="70" t="s">
         <v>119</v>
@@ -3749,10 +3778,10 @@
       <c r="I38" s="96"/>
     </row>
     <row r="39" spans="1:9" ht="13.65" customHeight="1">
-      <c r="A39" s="99"/>
-      <c r="B39" s="102"/>
+      <c r="A39" s="107"/>
+      <c r="B39" s="110"/>
       <c r="C39" s="70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D39" s="70" t="s">
         <v>119</v>
@@ -3770,10 +3799,10 @@
       <c r="I39" s="70"/>
     </row>
     <row r="40" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A40" s="100"/>
-      <c r="B40" s="103"/>
+      <c r="A40" s="108"/>
+      <c r="B40" s="111"/>
       <c r="C40" s="73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D40" s="73" t="s">
         <v>119</v>
@@ -3817,7 +3846,7 @@
       <c r="H43" s="56"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="98" t="s">
+      <c r="A44" s="106" t="s">
         <v>74</v>
       </c>
       <c r="B44" s="37" t="s">
@@ -3838,8 +3867,8 @@
       <c r="I44" s="41"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="99"/>
-      <c r="B45" s="113" t="s">
+      <c r="A45" s="107"/>
+      <c r="B45" s="100" t="s">
         <v>77</v>
       </c>
       <c r="C45" s="69" t="s">
@@ -3859,8 +3888,8 @@
       <c r="I45" s="46"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="99"/>
-      <c r="B46" s="114"/>
+      <c r="A46" s="107"/>
+      <c r="B46" s="101"/>
       <c r="C46" s="63" t="s">
         <v>79</v>
       </c>
@@ -3878,8 +3907,8 @@
       <c r="I46" s="65"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="99"/>
-      <c r="B47" s="114"/>
+      <c r="A47" s="107"/>
+      <c r="B47" s="101"/>
       <c r="C47" s="63" t="s">
         <v>80</v>
       </c>
@@ -3897,8 +3926,8 @@
       <c r="I47" s="65"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="99"/>
-      <c r="B48" s="114"/>
+      <c r="A48" s="107"/>
+      <c r="B48" s="101"/>
       <c r="C48" s="63" t="s">
         <v>81</v>
       </c>
@@ -3916,8 +3945,8 @@
       <c r="I48" s="65"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="99"/>
-      <c r="B49" s="114"/>
+      <c r="A49" s="107"/>
+      <c r="B49" s="101"/>
       <c r="C49" s="63" t="s">
         <v>83</v>
       </c>
@@ -3935,8 +3964,8 @@
       <c r="I49" s="65"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="99"/>
-      <c r="B50" s="117"/>
+      <c r="A50" s="107"/>
+      <c r="B50" s="119"/>
       <c r="C50" s="63" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +3983,8 @@
       <c r="I50" s="65"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="99"/>
-      <c r="B51" s="113" t="s">
+      <c r="A51" s="107"/>
+      <c r="B51" s="100" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="63" t="s">
@@ -3967,7 +3996,7 @@
       <c r="E51" s="63"/>
       <c r="F51" s="64">
         <f>'March 2015'!T39</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G51" s="67">
         <v>42079</v>
@@ -3978,8 +4007,8 @@
       <c r="I51" s="65"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="99"/>
-      <c r="B52" s="114"/>
+      <c r="A52" s="107"/>
+      <c r="B52" s="101"/>
       <c r="C52" s="70" t="s">
         <v>90</v>
       </c>
@@ -3989,7 +4018,7 @@
       <c r="E52" s="63"/>
       <c r="F52" s="64">
         <f>'March 2015'!T40</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G52" s="67">
         <v>42079</v>
@@ -4000,8 +4029,8 @@
       <c r="I52" s="65"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="99"/>
-      <c r="B53" s="114"/>
+      <c r="A53" s="107"/>
+      <c r="B53" s="101"/>
       <c r="C53" s="63" t="s">
         <v>91</v>
       </c>
@@ -4022,8 +4051,8 @@
       <c r="I53" s="65"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="99"/>
-      <c r="B54" s="114"/>
+      <c r="A54" s="107"/>
+      <c r="B54" s="101"/>
       <c r="C54" s="70" t="s">
         <v>93</v>
       </c>
@@ -4033,7 +4062,7 @@
       <c r="E54" s="63"/>
       <c r="F54" s="64">
         <f>'March 2015'!T42</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G54" s="67">
         <v>42079</v>
@@ -4041,13 +4070,11 @@
       <c r="H54" s="45">
         <v>42083</v>
       </c>
-      <c r="I54" s="71" t="s">
-        <v>155</v>
-      </c>
+      <c r="I54" s="71"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="99"/>
-      <c r="B55" s="114"/>
+      <c r="A55" s="107"/>
+      <c r="B55" s="101"/>
       <c r="C55" s="70" t="s">
         <v>94</v>
       </c>
@@ -4057,7 +4084,7 @@
       <c r="E55" s="63"/>
       <c r="F55" s="64">
         <f>'March 2015'!T43</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G55" s="67">
         <v>42079</v>
@@ -4067,100 +4094,99 @@
       </c>
       <c r="I55" s="65"/>
     </row>
-    <row r="56" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A56" s="100"/>
-      <c r="B56" s="115"/>
-      <c r="C56" s="73" t="s">
+    <row r="56" spans="1:9">
+      <c r="A56" s="107"/>
+      <c r="B56" s="101"/>
+      <c r="C56" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D56" s="48" t="s">
+      <c r="D56" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E56" s="48"/>
+      <c r="E56" s="98"/>
       <c r="F56" s="64">
         <f>'March 2015'!T44</f>
-        <v>8</v>
-      </c>
-      <c r="G56" s="50">
+        <v>1</v>
+      </c>
+      <c r="G56" s="67">
         <v>42079</v>
       </c>
-      <c r="H56" s="50">
+      <c r="H56" s="45">
         <v>42083</v>
       </c>
-      <c r="I56" s="51"/>
+      <c r="I56" s="71"/>
     </row>
     <row r="57" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D57" s="54" t="s">
+      <c r="A57" s="108"/>
+      <c r="B57" s="102"/>
+      <c r="C57" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="48"/>
+      <c r="F57" s="64">
+        <f>'March 2015'!T45</f>
+        <v>4</v>
+      </c>
+      <c r="G57" s="50">
+        <v>42079</v>
+      </c>
+      <c r="H57" s="50">
+        <v>42083</v>
+      </c>
+      <c r="I57" s="51"/>
+    </row>
+    <row r="58" spans="1:9" ht="13.8" thickBot="1">
+      <c r="D58" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E57" s="54"/>
-      <c r="F57" s="55">
-        <f>SUM(F44:F56)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="13.8" thickTop="1"/>
-    <row r="59" spans="1:9" ht="13.8" thickBot="1"/>
-    <row r="60" spans="1:9">
-      <c r="A60" s="118" t="s">
+      <c r="E58" s="54"/>
+      <c r="F58" s="55">
+        <f>SUM(F44:F57)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="13.8" thickTop="1"/>
+    <row r="60" spans="1:9" ht="13.8" thickBot="1"/>
+    <row r="61" spans="1:9">
+      <c r="A61" s="120" t="s">
         <v>97</v>
       </c>
-      <c r="B60" s="101" t="s">
+      <c r="B61" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C61" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D60" s="38" t="s">
+      <c r="D61" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="E60" s="38"/>
-      <c r="F60" s="39">
+      <c r="E61" s="38"/>
+      <c r="F61" s="39">
         <v>15</v>
       </c>
-      <c r="G60" s="40">
+      <c r="G61" s="40">
         <v>42079</v>
       </c>
-      <c r="H60" s="40">
+      <c r="H61" s="40">
         <v>42083</v>
       </c>
-      <c r="I60" s="41"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="99"/>
-      <c r="B61" s="119"/>
-      <c r="C61" s="59" t="s">
+      <c r="I61" s="41"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="107"/>
+      <c r="B62" s="121"/>
+      <c r="C62" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="D61" s="59" t="s">
+      <c r="D62" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="E61" s="59"/>
-      <c r="F61" s="60">
+      <c r="E62" s="59"/>
+      <c r="F62" s="60">
         <v>5</v>
-      </c>
-      <c r="G61" s="67">
-        <v>42079</v>
-      </c>
-      <c r="H61" s="45">
-        <v>42083</v>
-      </c>
-      <c r="I61" s="62"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="99"/>
-      <c r="B62" s="113" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="D62" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="E62" s="43"/>
-      <c r="F62" s="44">
-        <v>2</v>
       </c>
       <c r="G62" s="67">
         <v>42079</v>
@@ -4168,19 +4194,21 @@
       <c r="H62" s="45">
         <v>42083</v>
       </c>
-      <c r="I62" s="46"/>
+      <c r="I62" s="62"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="99"/>
-      <c r="B63" s="114"/>
-      <c r="C63" s="63" t="s">
-        <v>103</v>
+      <c r="A63" s="107"/>
+      <c r="B63" s="100" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>102</v>
       </c>
       <c r="D63" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="E63" s="63"/>
-      <c r="F63" s="64">
+        <v>101</v>
+      </c>
+      <c r="E63" s="43"/>
+      <c r="F63" s="44">
         <v>2</v>
       </c>
       <c r="G63" s="67">
@@ -4189,16 +4217,16 @@
       <c r="H63" s="45">
         <v>42083</v>
       </c>
-      <c r="I63" s="65"/>
+      <c r="I63" s="46"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="99"/>
-      <c r="B64" s="114"/>
+      <c r="A64" s="107"/>
+      <c r="B64" s="101"/>
       <c r="C64" s="63" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D64" s="43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E64" s="63"/>
       <c r="F64" s="64">
@@ -4213,13 +4241,13 @@
       <c r="I64" s="65"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="99"/>
-      <c r="B65" s="117"/>
+      <c r="A65" s="107"/>
+      <c r="B65" s="101"/>
       <c r="C65" s="63" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E65" s="63"/>
       <c r="F65" s="64">
@@ -4234,13 +4262,13 @@
       <c r="I65" s="65"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="99"/>
-      <c r="B66" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C66" s="63"/>
+      <c r="A66" s="107"/>
+      <c r="B66" s="119"/>
+      <c r="C66" s="63" t="s">
+        <v>107</v>
+      </c>
       <c r="D66" s="43" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64">
@@ -4255,19 +4283,17 @@
       <c r="I66" s="65"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="99"/>
-      <c r="B67" s="113" t="s">
-        <v>142</v>
-      </c>
-      <c r="C67" s="63" t="s">
-        <v>109</v>
-      </c>
+      <c r="A67" s="107"/>
+      <c r="B67" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="63"/>
       <c r="D67" s="43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E67" s="63"/>
       <c r="F67" s="64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G67" s="67">
         <v>42079</v>
@@ -4278,17 +4304,19 @@
       <c r="I67" s="65"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="99"/>
-      <c r="B68" s="114"/>
+      <c r="A68" s="107"/>
+      <c r="B68" s="100" t="s">
+        <v>142</v>
+      </c>
       <c r="C68" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="D68" s="63" t="s">
-        <v>101</v>
+        <v>109</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>110</v>
       </c>
       <c r="E68" s="63"/>
       <c r="F68" s="64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G68" s="67">
         <v>42079</v>
@@ -4299,17 +4327,17 @@
       <c r="I68" s="65"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="99"/>
-      <c r="B69" s="114"/>
+      <c r="A69" s="107"/>
+      <c r="B69" s="101"/>
       <c r="C69" s="63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D69" s="63" t="s">
         <v>101</v>
       </c>
       <c r="E69" s="63"/>
       <c r="F69" s="64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G69" s="67">
         <v>42079</v>
@@ -4320,10 +4348,10 @@
       <c r="I69" s="65"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="99"/>
-      <c r="B70" s="117"/>
+      <c r="A70" s="107"/>
+      <c r="B70" s="101"/>
       <c r="C70" s="63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D70" s="63" t="s">
         <v>101</v>
@@ -4338,57 +4366,59 @@
       <c r="H70" s="45">
         <v>42083</v>
       </c>
-      <c r="I70" s="71"/>
+      <c r="I70" s="65"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="99"/>
-      <c r="B71" s="42" t="s">
+      <c r="A71" s="107"/>
+      <c r="B71" s="119"/>
+      <c r="C71" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="E71" s="63"/>
+      <c r="F71" s="64">
+        <v>3</v>
+      </c>
+      <c r="G71" s="67">
+        <v>42079</v>
+      </c>
+      <c r="H71" s="45">
+        <v>42083</v>
+      </c>
+      <c r="I71" s="71"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="107"/>
+      <c r="B72" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="42"/>
-      <c r="D71" s="75" t="s">
+      <c r="C72" s="42"/>
+      <c r="D72" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="E71" s="75" t="s">
+      <c r="E72" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="F71" s="64"/>
-      <c r="G71" s="67">
-        <v>42082</v>
-      </c>
-      <c r="H71" s="45">
-        <v>42088</v>
-      </c>
-      <c r="I71" s="71" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A72" s="100"/>
-      <c r="B72" s="113" t="s">
-        <v>145</v>
-      </c>
-      <c r="C72" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="D72" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="E72" s="75"/>
       <c r="F72" s="64"/>
       <c r="G72" s="67">
-        <v>42086</v>
+        <v>42082</v>
       </c>
       <c r="H72" s="45">
-        <v>42086</v>
-      </c>
-      <c r="I72" s="71"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="91"/>
-      <c r="B73" s="114"/>
+        <v>42088</v>
+      </c>
+      <c r="I72" s="71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A73" s="108"/>
+      <c r="B73" s="100" t="s">
+        <v>145</v>
+      </c>
       <c r="C73" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D73" s="75" t="s">
         <v>99</v>
@@ -4404,10 +4434,10 @@
       <c r="I73" s="71"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="92"/>
-      <c r="B74" s="114"/>
+      <c r="A74" s="91"/>
+      <c r="B74" s="101"/>
       <c r="C74" s="42" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D74" s="75" t="s">
         <v>99</v>
@@ -4424,12 +4454,12 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="92"/>
-      <c r="B75" s="114"/>
+      <c r="B75" s="101"/>
       <c r="C75" s="42" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D75" s="75" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="E75" s="75"/>
       <c r="F75" s="64"/>
@@ -4443,9 +4473,9 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="92"/>
-      <c r="B76" s="114"/>
+      <c r="B76" s="101"/>
       <c r="C76" s="42" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D76" s="75" t="s">
         <v>154</v>
@@ -4460,54 +4490,54 @@
       </c>
       <c r="I76" s="71"/>
     </row>
-    <row r="77" spans="1:9" ht="13.8" thickBot="1">
+    <row r="77" spans="1:9">
       <c r="A77" s="92"/>
-      <c r="B77" s="115"/>
-      <c r="C77" s="76" t="s">
+      <c r="B77" s="101"/>
+      <c r="C77" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D77" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="E77" s="75"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="67">
+        <v>42086</v>
+      </c>
+      <c r="H77" s="45">
+        <v>42086</v>
+      </c>
+      <c r="I77" s="71"/>
+    </row>
+    <row r="78" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A78" s="92"/>
+      <c r="B78" s="102"/>
+      <c r="C78" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="D77" s="76" t="s">
+      <c r="D78" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="E77" s="76"/>
-      <c r="F77" s="77"/>
-      <c r="G77" s="78">
+      <c r="E78" s="76"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="78">
         <v>42086</v>
       </c>
-      <c r="H77" s="78">
+      <c r="H78" s="78">
         <v>42086</v>
       </c>
-      <c r="I77" s="79"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="92"/>
-      <c r="B78" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="C78" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="D78" s="89" t="s">
-        <v>159</v>
-      </c>
-      <c r="E78" s="89"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="67">
-        <v>42087</v>
-      </c>
-      <c r="H78" s="67">
-        <v>42087</v>
-      </c>
-      <c r="I78" s="71"/>
+      <c r="I78" s="79"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="92"/>
-      <c r="B79" s="105"/>
+      <c r="B79" s="103" t="s">
+        <v>163</v>
+      </c>
       <c r="C79" s="42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D79" s="89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E79" s="89"/>
       <c r="F79" s="64"/>
@@ -4521,12 +4551,12 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="92"/>
-      <c r="B80" s="105"/>
+      <c r="B80" s="104"/>
       <c r="C80" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="D80" s="89" t="s">
         <v>158</v>
-      </c>
-      <c r="D80" s="89" t="s">
-        <v>159</v>
       </c>
       <c r="E80" s="89"/>
       <c r="F80" s="64"/>
@@ -4540,12 +4570,12 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="92"/>
-      <c r="B81" s="105"/>
+      <c r="B81" s="104"/>
       <c r="C81" s="42" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D81" s="89" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E81" s="89"/>
       <c r="F81" s="64"/>
@@ -4559,12 +4589,12 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="92"/>
-      <c r="B82" s="105"/>
+      <c r="B82" s="104"/>
       <c r="C82" s="42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D82" s="89" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E82" s="89"/>
       <c r="F82" s="64"/>
@@ -4576,51 +4606,51 @@
       </c>
       <c r="I82" s="71"/>
     </row>
-    <row r="83" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A83" s="93"/>
-      <c r="B83" s="106"/>
-      <c r="C83" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="D83" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="E83" s="76"/>
-      <c r="F83" s="77"/>
+    <row r="83" spans="1:9">
+      <c r="A83" s="92"/>
+      <c r="B83" s="104"/>
+      <c r="C83" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D83" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="E83" s="89"/>
+      <c r="F83" s="64"/>
       <c r="G83" s="67">
         <v>42087</v>
       </c>
       <c r="H83" s="67">
         <v>42087</v>
       </c>
-      <c r="I83" s="79"/>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="92"/>
-      <c r="B84" s="104" t="s">
-        <v>173</v>
-      </c>
-      <c r="C84" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="D84" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="E84" s="95"/>
-      <c r="F84" s="64"/>
+      <c r="I83" s="71"/>
+    </row>
+    <row r="84" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A84" s="93"/>
+      <c r="B84" s="105"/>
+      <c r="C84" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="E84" s="76"/>
+      <c r="F84" s="77"/>
       <c r="G84" s="67">
-        <v>42088</v>
+        <v>42087</v>
       </c>
       <c r="H84" s="67">
-        <v>42088</v>
-      </c>
-      <c r="I84" s="71"/>
+        <v>42087</v>
+      </c>
+      <c r="I84" s="79"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="92"/>
-      <c r="B85" s="105"/>
+      <c r="B85" s="103" t="s">
+        <v>172</v>
+      </c>
       <c r="C85" s="42" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D85" s="95" t="s">
         <v>153</v>
@@ -4637,9 +4667,9 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="92"/>
-      <c r="B86" s="105"/>
+      <c r="B86" s="104"/>
       <c r="C86" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D86" s="95" t="s">
         <v>153</v>
@@ -4656,12 +4686,12 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="92"/>
-      <c r="B87" s="105"/>
+      <c r="B87" s="104"/>
       <c r="C87" s="42" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D87" s="95" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E87" s="95"/>
       <c r="F87" s="64"/>
@@ -4675,12 +4705,12 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="92"/>
-      <c r="B88" s="105"/>
+      <c r="B88" s="104"/>
       <c r="C88" s="42" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D88" s="95" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E88" s="95"/>
       <c r="F88" s="64"/>
@@ -4692,45 +4722,64 @@
       </c>
       <c r="I88" s="71"/>
     </row>
-    <row r="89" spans="1:9" ht="51" thickBot="1">
-      <c r="A89" s="93"/>
-      <c r="B89" s="106"/>
-      <c r="C89" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="D89" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="E89" s="76"/>
-      <c r="F89" s="77"/>
+    <row r="89" spans="1:9">
+      <c r="A89" s="92"/>
+      <c r="B89" s="104"/>
+      <c r="C89" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D89" s="95" t="s">
+        <v>159</v>
+      </c>
+      <c r="E89" s="95"/>
+      <c r="F89" s="64"/>
       <c r="G89" s="67">
         <v>42088</v>
       </c>
       <c r="H89" s="67">
         <v>42088</v>
       </c>
-      <c r="I89" s="79"/>
+      <c r="I89" s="71"/>
+    </row>
+    <row r="90" spans="1:9" ht="51" thickBot="1">
+      <c r="A90" s="93"/>
+      <c r="B90" s="105"/>
+      <c r="C90" s="99" t="s">
+        <v>178</v>
+      </c>
+      <c r="D90" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="E90" s="76"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="67">
+        <v>42088</v>
+      </c>
+      <c r="H90" s="67">
+        <v>42088</v>
+      </c>
+      <c r="I90" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B72:B77"/>
-    <mergeCell ref="B84:B89"/>
-    <mergeCell ref="A26:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B78:B83"/>
-    <mergeCell ref="B31:B37"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A9:A22"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B22"/>
     <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A44:A56"/>
+    <mergeCell ref="B73:B78"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="A26:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="A44:A57"/>
     <mergeCell ref="B45:B50"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="A60:A72"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="A61:A73"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B68:B71"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4739,14 +4788,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D52" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N71" sqref="N71"/>
+      <selection pane="bottomRight" activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -5159,7 +5208,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="90" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D20" s="84"/>
       <c r="E20" s="84"/>
@@ -5190,7 +5239,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D21" s="84"/>
       <c r="E21" s="84"/>
@@ -5470,7 +5519,7 @@
         <v>9</v>
       </c>
       <c r="C33" s="84" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D33" s="84"/>
       <c r="E33" s="84"/>
@@ -5496,7 +5545,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="84" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D34" s="84"/>
       <c r="E34" s="84"/>
@@ -5527,7 +5576,7 @@
         <v>11</v>
       </c>
       <c r="C35" s="84" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D35" s="84"/>
       <c r="E35" s="84"/>
@@ -5581,7 +5630,9 @@
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
+      <c r="L39" s="82">
+        <v>2</v>
+      </c>
       <c r="M39" s="25"/>
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
@@ -5590,7 +5641,7 @@
       <c r="R39" s="25"/>
       <c r="T39" s="3">
         <f>SUM(E39:R39)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -5611,8 +5662,12 @@
         <v>4</v>
       </c>
       <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
+      <c r="K40" s="82">
+        <v>5</v>
+      </c>
+      <c r="L40" s="82">
+        <v>1</v>
+      </c>
       <c r="M40" s="25"/>
       <c r="N40" s="25"/>
       <c r="O40" s="25"/>
@@ -5621,7 +5676,7 @@
       <c r="R40" s="25"/>
       <c r="T40" s="3">
         <f t="shared" ref="T40:T43" si="3">SUM(E40:R40)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -5668,8 +5723,12 @@
       <c r="J42" s="82">
         <v>8</v>
       </c>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
+      <c r="K42" s="82">
+        <v>1</v>
+      </c>
+      <c r="L42" s="82">
+        <v>5</v>
+      </c>
       <c r="M42" s="25"/>
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
@@ -5678,7 +5737,7 @@
       <c r="R42" s="25"/>
       <c r="T42" s="3">
         <f>SUM(E42:R42)</f>
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -5697,7 +5756,9 @@
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
+      <c r="K43" s="82">
+        <v>1</v>
+      </c>
       <c r="L43" s="25"/>
       <c r="M43" s="25"/>
       <c r="N43" s="25"/>
@@ -5707,27 +5768,27 @@
       <c r="R43" s="25"/>
       <c r="T43" s="3">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="80" customFormat="1">
       <c r="B44" s="83">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44" s="84" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D44" s="84"/>
       <c r="E44" s="84"/>
       <c r="F44" s="84"/>
-      <c r="G44" s="82">
-        <v>8</v>
-      </c>
+      <c r="G44" s="84"/>
       <c r="H44" s="84"/>
       <c r="I44" s="84"/>
       <c r="J44" s="84"/>
       <c r="K44" s="84"/>
-      <c r="L44" s="84"/>
+      <c r="L44" s="82">
+        <v>1</v>
+      </c>
       <c r="M44" s="84"/>
       <c r="N44" s="84"/>
       <c r="O44" s="84"/>
@@ -5736,15 +5797,15 @@
       <c r="R44" s="84"/>
       <c r="T44" s="81">
         <f t="shared" ref="T44" si="4">SUM(E44:R44)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="80" customFormat="1">
       <c r="B45" s="83">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" s="84" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="D45" s="84"/>
       <c r="E45" s="84"/>
@@ -5753,8 +5814,12 @@
       <c r="H45" s="84"/>
       <c r="I45" s="84"/>
       <c r="J45" s="84"/>
-      <c r="K45" s="84"/>
-      <c r="L45" s="84"/>
+      <c r="K45" s="82">
+        <v>3</v>
+      </c>
+      <c r="L45" s="82">
+        <v>1</v>
+      </c>
       <c r="M45" s="84"/>
       <c r="N45" s="84"/>
       <c r="O45" s="84"/>
@@ -5763,7 +5828,7 @@
       <c r="R45" s="84"/>
       <c r="T45" s="81">
         <f t="shared" ref="T45" si="5">SUM(E45:R45)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="80" customFormat="1">
@@ -6066,7 +6131,7 @@
         <v>10</v>
       </c>
       <c r="C58" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="84"/>
       <c r="E58" s="84"/>
@@ -6095,7 +6160,7 @@
         <v>11</v>
       </c>
       <c r="C59" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="84"/>
       <c r="E59" s="84"/>
@@ -6124,7 +6189,7 @@
         <v>12</v>
       </c>
       <c r="C60" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="84"/>
       <c r="E60" s="84"/>
@@ -6388,7 +6453,7 @@
         <v>9</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D72" s="84"/>
       <c r="E72" s="84"/>
@@ -6414,7 +6479,7 @@
         <v>10</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D73" s="84"/>
       <c r="E73" s="84"/>
@@ -6439,8 +6504,8 @@
       <c r="B74" s="83">
         <v>11</v>
       </c>
-      <c r="C74" s="120" t="s">
-        <v>179</v>
+      <c r="C74" s="99" t="s">
+        <v>178</v>
       </c>
       <c r="D74" s="84"/>
       <c r="E74" s="84"/>

--- a/docs/Listing_Tool_Status_Report_v1.0.xlsx
+++ b/docs/Listing_Tool_Status_Report_v1.0.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5352" yWindow="-360" windowWidth="16608" windowHeight="9432" activeTab="1"/>
+    <workbookView xWindow="5352" yWindow="-360" windowWidth="16608" windowHeight="9432" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="WBS" sheetId="5" r:id="rId2"/>
     <sheet name="March 2015" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="188">
   <si>
     <t>Project Name:</t>
   </si>
@@ -1554,6 +1554,315 @@
         <charset val="134"/>
       </rPr>
       <t>交易相关数据库设计</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.调研google-api 获取google 广告点击情况 目前google-sdk已经测试[通过]                          and                                                  改无刷新分页为刷新分页，加入php分页样式，调整transaction页面样式，国际化页面</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、继续查看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>google-api</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取广告的展示率和点击率</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、由于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>google</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有提供单纯广告的点击率和展示率，只查阅到广告系列下的广告组的点击率和展示率，目前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>google-sdk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已经测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、还在进一步查看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>api</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否提供，更深层次的费率调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、调整</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>transaction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面样式，国际化页面</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、改无刷新分页为刷新分页，加入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分页样式。</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、加入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>department</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分页和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>transaction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">分页功能
+</t>
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1561,7 +1870,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -2131,7 +2440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2377,6 +2686,27 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2385,6 +2715,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2394,15 +2733,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2412,25 +2742,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2463,7 +2775,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2537,6 +2849,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2571,6 +2884,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2746,7 +3060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3032,12 +3346,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -3094,7 +3408,7 @@
       <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="101" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="37" t="s">
@@ -3115,7 +3429,7 @@
       <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A4" s="107"/>
+      <c r="A4" s="102"/>
       <c r="B4" s="42" t="s">
         <v>41</v>
       </c>
@@ -3134,7 +3448,7 @@
       <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A5" s="108"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="47" t="s">
         <v>42</v>
       </c>
@@ -3177,10 +3491,10 @@
       <c r="H8" s="56"/>
     </row>
     <row r="9" spans="1:9" ht="26.7" customHeight="1">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="104" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="58" t="s">
@@ -3202,8 +3516,8 @@
       <c r="I9" s="41"/>
     </row>
     <row r="10" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A10" s="107"/>
-      <c r="B10" s="116"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="59" t="s">
         <v>47</v>
       </c>
@@ -3223,8 +3537,8 @@
       <c r="I10" s="62"/>
     </row>
     <row r="11" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A11" s="107"/>
-      <c r="B11" s="116"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="43" t="s">
         <v>49</v>
       </c>
@@ -3244,8 +3558,8 @@
       <c r="I11" s="46"/>
     </row>
     <row r="12" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A12" s="107"/>
-      <c r="B12" s="116"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="63" t="s">
         <v>50</v>
       </c>
@@ -3265,8 +3579,8 @@
       <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A13" s="107"/>
-      <c r="B13" s="117"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="63" t="s">
         <v>52</v>
       </c>
@@ -3284,8 +3598,8 @@
       <c r="I13" s="65"/>
     </row>
     <row r="14" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A14" s="107"/>
-      <c r="B14" s="100" t="s">
+      <c r="A14" s="102"/>
+      <c r="B14" s="107" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="63" t="s">
@@ -3307,8 +3621,8 @@
       <c r="I14" s="65"/>
     </row>
     <row r="15" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A15" s="107"/>
-      <c r="B15" s="101"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="63" t="s">
         <v>55</v>
       </c>
@@ -3328,8 +3642,8 @@
       <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A16" s="107"/>
-      <c r="B16" s="101"/>
+      <c r="A16" s="102"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="63" t="s">
         <v>57</v>
       </c>
@@ -3349,8 +3663,8 @@
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A17" s="107"/>
-      <c r="B17" s="101"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="63" t="s">
         <v>59</v>
       </c>
@@ -3370,8 +3684,8 @@
       <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A18" s="107"/>
-      <c r="B18" s="101"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="108"/>
       <c r="C18" s="63" t="s">
         <v>60</v>
       </c>
@@ -3391,8 +3705,8 @@
       <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A19" s="107"/>
-      <c r="B19" s="101"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="108"/>
       <c r="C19" s="63" t="s">
         <v>61</v>
       </c>
@@ -3412,8 +3726,8 @@
       <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A20" s="107"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="108"/>
       <c r="C20" s="63" t="s">
         <v>62</v>
       </c>
@@ -3433,8 +3747,8 @@
       <c r="I20" s="65"/>
     </row>
     <row r="21" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A21" s="107"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="90" t="s">
         <v>164</v>
       </c>
@@ -3452,8 +3766,8 @@
       <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A22" s="108"/>
-      <c r="B22" s="102"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="109"/>
       <c r="C22" s="66" t="s">
         <v>165</v>
       </c>
@@ -3497,7 +3811,7 @@
       <c r="H25" s="56"/>
     </row>
     <row r="26" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A26" s="106" t="s">
+      <c r="A26" s="101" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="37" t="s">
@@ -3520,7 +3834,7 @@
       <c r="I26" s="41"/>
     </row>
     <row r="27" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A27" s="107"/>
+      <c r="A27" s="102"/>
       <c r="B27" s="42" t="s">
         <v>66</v>
       </c>
@@ -3541,8 +3855,8 @@
       <c r="I27" s="46"/>
     </row>
     <row r="28" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A28" s="107"/>
-      <c r="B28" s="112" t="s">
+      <c r="A28" s="102"/>
+      <c r="B28" s="110" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="63" t="s">
@@ -3564,8 +3878,8 @@
       <c r="I28" s="65"/>
     </row>
     <row r="29" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A29" s="107"/>
-      <c r="B29" s="113"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="63" t="s">
         <v>70</v>
       </c>
@@ -3585,8 +3899,8 @@
       <c r="I29" s="65"/>
     </row>
     <row r="30" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A30" s="107"/>
-      <c r="B30" s="118"/>
+      <c r="A30" s="102"/>
+      <c r="B30" s="112"/>
       <c r="C30" s="63" t="s">
         <v>72</v>
       </c>
@@ -3606,8 +3920,8 @@
       <c r="I30" s="65"/>
     </row>
     <row r="31" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A31" s="107"/>
-      <c r="B31" s="112" t="s">
+      <c r="A31" s="102"/>
+      <c r="B31" s="110" t="s">
         <v>127</v>
       </c>
       <c r="C31" s="70" t="s">
@@ -3629,8 +3943,8 @@
       <c r="I31" s="65"/>
     </row>
     <row r="32" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A32" s="107"/>
-      <c r="B32" s="113"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="111"/>
       <c r="C32" s="70" t="s">
         <v>120</v>
       </c>
@@ -3650,8 +3964,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A33" s="107"/>
-      <c r="B33" s="113"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="111"/>
       <c r="C33" s="70" t="s">
         <v>122</v>
       </c>
@@ -3673,8 +3987,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A34" s="107"/>
-      <c r="B34" s="113"/>
+      <c r="A34" s="102"/>
+      <c r="B34" s="111"/>
       <c r="C34" s="70" t="s">
         <v>123</v>
       </c>
@@ -3694,8 +4008,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A35" s="107"/>
-      <c r="B35" s="113"/>
+      <c r="A35" s="102"/>
+      <c r="B35" s="111"/>
       <c r="C35" s="70" t="s">
         <v>124</v>
       </c>
@@ -3715,8 +4029,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A36" s="107"/>
-      <c r="B36" s="113"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="70" t="s">
         <v>125</v>
       </c>
@@ -3736,8 +4050,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A37" s="107"/>
-      <c r="B37" s="114"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="119"/>
       <c r="C37" s="73" t="s">
         <v>126</v>
       </c>
@@ -3755,8 +4069,8 @@
       <c r="I37" s="51"/>
     </row>
     <row r="38" spans="1:9" ht="13.65" customHeight="1">
-      <c r="A38" s="107"/>
-      <c r="B38" s="109" t="s">
+      <c r="A38" s="102"/>
+      <c r="B38" s="116" t="s">
         <v>168</v>
       </c>
       <c r="C38" s="70" t="s">
@@ -3778,8 +4092,8 @@
       <c r="I38" s="96"/>
     </row>
     <row r="39" spans="1:9" ht="13.65" customHeight="1">
-      <c r="A39" s="107"/>
-      <c r="B39" s="110"/>
+      <c r="A39" s="102"/>
+      <c r="B39" s="117"/>
       <c r="C39" s="70" t="s">
         <v>169</v>
       </c>
@@ -3799,8 +4113,8 @@
       <c r="I39" s="70"/>
     </row>
     <row r="40" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A40" s="108"/>
-      <c r="B40" s="111"/>
+      <c r="A40" s="103"/>
+      <c r="B40" s="118"/>
       <c r="C40" s="73" t="s">
         <v>170</v>
       </c>
@@ -3846,7 +4160,7 @@
       <c r="H43" s="56"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="106" t="s">
+      <c r="A44" s="101" t="s">
         <v>74</v>
       </c>
       <c r="B44" s="37" t="s">
@@ -3867,8 +4181,8 @@
       <c r="I44" s="41"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="107"/>
-      <c r="B45" s="100" t="s">
+      <c r="A45" s="102"/>
+      <c r="B45" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C45" s="69" t="s">
@@ -3888,8 +4202,8 @@
       <c r="I45" s="46"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="107"/>
-      <c r="B46" s="101"/>
+      <c r="A46" s="102"/>
+      <c r="B46" s="108"/>
       <c r="C46" s="63" t="s">
         <v>79</v>
       </c>
@@ -3907,8 +4221,8 @@
       <c r="I46" s="65"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="107"/>
-      <c r="B47" s="101"/>
+      <c r="A47" s="102"/>
+      <c r="B47" s="108"/>
       <c r="C47" s="63" t="s">
         <v>80</v>
       </c>
@@ -3926,8 +4240,8 @@
       <c r="I47" s="65"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="107"/>
-      <c r="B48" s="101"/>
+      <c r="A48" s="102"/>
+      <c r="B48" s="108"/>
       <c r="C48" s="63" t="s">
         <v>81</v>
       </c>
@@ -3945,8 +4259,8 @@
       <c r="I48" s="65"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="107"/>
-      <c r="B49" s="101"/>
+      <c r="A49" s="102"/>
+      <c r="B49" s="108"/>
       <c r="C49" s="63" t="s">
         <v>83</v>
       </c>
@@ -3964,8 +4278,8 @@
       <c r="I49" s="65"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="107"/>
-      <c r="B50" s="119"/>
+      <c r="A50" s="102"/>
+      <c r="B50" s="120"/>
       <c r="C50" s="63" t="s">
         <v>85</v>
       </c>
@@ -3983,8 +4297,8 @@
       <c r="I50" s="65"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="107"/>
-      <c r="B51" s="100" t="s">
+      <c r="A51" s="102"/>
+      <c r="B51" s="107" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="63" t="s">
@@ -4007,8 +4321,8 @@
       <c r="I51" s="65"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="107"/>
-      <c r="B52" s="101"/>
+      <c r="A52" s="102"/>
+      <c r="B52" s="108"/>
       <c r="C52" s="70" t="s">
         <v>90</v>
       </c>
@@ -4029,8 +4343,8 @@
       <c r="I52" s="65"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="107"/>
-      <c r="B53" s="101"/>
+      <c r="A53" s="102"/>
+      <c r="B53" s="108"/>
       <c r="C53" s="63" t="s">
         <v>91</v>
       </c>
@@ -4051,8 +4365,8 @@
       <c r="I53" s="65"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="107"/>
-      <c r="B54" s="101"/>
+      <c r="A54" s="102"/>
+      <c r="B54" s="108"/>
       <c r="C54" s="70" t="s">
         <v>93</v>
       </c>
@@ -4073,8 +4387,8 @@
       <c r="I54" s="71"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="107"/>
-      <c r="B55" s="101"/>
+      <c r="A55" s="102"/>
+      <c r="B55" s="108"/>
       <c r="C55" s="70" t="s">
         <v>94</v>
       </c>
@@ -4095,8 +4409,8 @@
       <c r="I55" s="65"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="107"/>
-      <c r="B56" s="101"/>
+      <c r="A56" s="102"/>
+      <c r="B56" s="108"/>
       <c r="C56" s="70" t="s">
         <v>96</v>
       </c>
@@ -4117,8 +4431,8 @@
       <c r="I56" s="71"/>
     </row>
     <row r="57" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A57" s="108"/>
-      <c r="B57" s="102"/>
+      <c r="A57" s="103"/>
+      <c r="B57" s="109"/>
       <c r="C57" s="73" t="s">
         <v>180</v>
       </c>
@@ -4151,10 +4465,10 @@
     <row r="59" spans="1:9" ht="13.8" thickTop="1"/>
     <row r="60" spans="1:9" ht="13.8" thickBot="1"/>
     <row r="61" spans="1:9">
-      <c r="A61" s="120" t="s">
+      <c r="A61" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="B61" s="109" t="s">
+      <c r="B61" s="116" t="s">
         <v>136</v>
       </c>
       <c r="C61" s="38" t="s">
@@ -4176,8 +4490,8 @@
       <c r="I61" s="41"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="107"/>
-      <c r="B62" s="121"/>
+      <c r="A62" s="102"/>
+      <c r="B62" s="122"/>
       <c r="C62" s="59" t="s">
         <v>100</v>
       </c>
@@ -4197,8 +4511,8 @@
       <c r="I62" s="62"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="107"/>
-      <c r="B63" s="100" t="s">
+      <c r="A63" s="102"/>
+      <c r="B63" s="107" t="s">
         <v>138</v>
       </c>
       <c r="C63" s="43" t="s">
@@ -4220,8 +4534,8 @@
       <c r="I63" s="46"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="107"/>
-      <c r="B64" s="101"/>
+      <c r="A64" s="102"/>
+      <c r="B64" s="108"/>
       <c r="C64" s="63" t="s">
         <v>103</v>
       </c>
@@ -4241,8 +4555,8 @@
       <c r="I64" s="65"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="107"/>
-      <c r="B65" s="101"/>
+      <c r="A65" s="102"/>
+      <c r="B65" s="108"/>
       <c r="C65" s="63" t="s">
         <v>105</v>
       </c>
@@ -4262,8 +4576,8 @@
       <c r="I65" s="65"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="107"/>
-      <c r="B66" s="119"/>
+      <c r="A66" s="102"/>
+      <c r="B66" s="120"/>
       <c r="C66" s="63" t="s">
         <v>107</v>
       </c>
@@ -4283,7 +4597,7 @@
       <c r="I66" s="65"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="107"/>
+      <c r="A67" s="102"/>
       <c r="B67" s="42" t="s">
         <v>140</v>
       </c>
@@ -4304,8 +4618,8 @@
       <c r="I67" s="65"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="107"/>
-      <c r="B68" s="100" t="s">
+      <c r="A68" s="102"/>
+      <c r="B68" s="107" t="s">
         <v>142</v>
       </c>
       <c r="C68" s="63" t="s">
@@ -4327,8 +4641,8 @@
       <c r="I68" s="65"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="107"/>
-      <c r="B69" s="101"/>
+      <c r="A69" s="102"/>
+      <c r="B69" s="108"/>
       <c r="C69" s="63" t="s">
         <v>111</v>
       </c>
@@ -4348,8 +4662,8 @@
       <c r="I69" s="65"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="107"/>
-      <c r="B70" s="101"/>
+      <c r="A70" s="102"/>
+      <c r="B70" s="108"/>
       <c r="C70" s="63" t="s">
         <v>112</v>
       </c>
@@ -4369,8 +4683,8 @@
       <c r="I70" s="65"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="107"/>
-      <c r="B71" s="119"/>
+      <c r="A71" s="102"/>
+      <c r="B71" s="120"/>
       <c r="C71" s="63" t="s">
         <v>113</v>
       </c>
@@ -4390,7 +4704,7 @@
       <c r="I71" s="71"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="107"/>
+      <c r="A72" s="102"/>
       <c r="B72" s="42" t="s">
         <v>144</v>
       </c>
@@ -4413,8 +4727,8 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A73" s="108"/>
-      <c r="B73" s="100" t="s">
+      <c r="A73" s="103"/>
+      <c r="B73" s="107" t="s">
         <v>145</v>
       </c>
       <c r="C73" s="42" t="s">
@@ -4435,7 +4749,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="91"/>
-      <c r="B74" s="101"/>
+      <c r="B74" s="108"/>
       <c r="C74" s="42" t="s">
         <v>147</v>
       </c>
@@ -4454,7 +4768,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="92"/>
-      <c r="B75" s="101"/>
+      <c r="B75" s="108"/>
       <c r="C75" s="42" t="s">
         <v>150</v>
       </c>
@@ -4473,7 +4787,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="92"/>
-      <c r="B76" s="101"/>
+      <c r="B76" s="108"/>
       <c r="C76" s="42" t="s">
         <v>148</v>
       </c>
@@ -4492,7 +4806,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="92"/>
-      <c r="B77" s="101"/>
+      <c r="B77" s="108"/>
       <c r="C77" s="42" t="s">
         <v>151</v>
       </c>
@@ -4511,7 +4825,7 @@
     </row>
     <row r="78" spans="1:9" ht="13.8" thickBot="1">
       <c r="A78" s="92"/>
-      <c r="B78" s="102"/>
+      <c r="B78" s="109"/>
       <c r="C78" s="76" t="s">
         <v>149</v>
       </c>
@@ -4530,7 +4844,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="92"/>
-      <c r="B79" s="103" t="s">
+      <c r="B79" s="113" t="s">
         <v>163</v>
       </c>
       <c r="C79" s="42" t="s">
@@ -4551,7 +4865,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="92"/>
-      <c r="B80" s="104"/>
+      <c r="B80" s="114"/>
       <c r="C80" s="42" t="s">
         <v>156</v>
       </c>
@@ -4570,7 +4884,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="92"/>
-      <c r="B81" s="104"/>
+      <c r="B81" s="114"/>
       <c r="C81" s="42" t="s">
         <v>157</v>
       </c>
@@ -4589,7 +4903,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="92"/>
-      <c r="B82" s="104"/>
+      <c r="B82" s="114"/>
       <c r="C82" s="42" t="s">
         <v>160</v>
       </c>
@@ -4608,7 +4922,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="92"/>
-      <c r="B83" s="104"/>
+      <c r="B83" s="114"/>
       <c r="C83" s="42" t="s">
         <v>161</v>
       </c>
@@ -4627,7 +4941,7 @@
     </row>
     <row r="84" spans="1:9" ht="13.8" thickBot="1">
       <c r="A84" s="93"/>
-      <c r="B84" s="105"/>
+      <c r="B84" s="115"/>
       <c r="C84" s="76" t="s">
         <v>162</v>
       </c>
@@ -4646,7 +4960,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="92"/>
-      <c r="B85" s="103" t="s">
+      <c r="B85" s="113" t="s">
         <v>172</v>
       </c>
       <c r="C85" s="42" t="s">
@@ -4667,7 +4981,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="92"/>
-      <c r="B86" s="104"/>
+      <c r="B86" s="114"/>
       <c r="C86" s="42" t="s">
         <v>174</v>
       </c>
@@ -4686,7 +5000,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="92"/>
-      <c r="B87" s="104"/>
+      <c r="B87" s="114"/>
       <c r="C87" s="42" t="s">
         <v>175</v>
       </c>
@@ -4705,7 +5019,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="92"/>
-      <c r="B88" s="104"/>
+      <c r="B88" s="114"/>
       <c r="C88" s="42" t="s">
         <v>176</v>
       </c>
@@ -4724,7 +5038,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="92"/>
-      <c r="B89" s="104"/>
+      <c r="B89" s="114"/>
       <c r="C89" s="42" t="s">
         <v>177</v>
       </c>
@@ -4743,7 +5057,7 @@
     </row>
     <row r="90" spans="1:9" ht="51" thickBot="1">
       <c r="A90" s="93"/>
-      <c r="B90" s="105"/>
+      <c r="B90" s="115"/>
       <c r="C90" s="99" t="s">
         <v>178</v>
       </c>
@@ -4760,13 +5074,125 @@
       </c>
       <c r="I90" s="79"/>
     </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="92"/>
+      <c r="B91" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="D91" s="100" t="s">
+        <v>153</v>
+      </c>
+      <c r="E91" s="100"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="67">
+        <v>42089</v>
+      </c>
+      <c r="H91" s="67">
+        <v>42089</v>
+      </c>
+      <c r="I91" s="71"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="92"/>
+      <c r="B92" s="114"/>
+      <c r="C92" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="D92" s="100" t="s">
+        <v>153</v>
+      </c>
+      <c r="E92" s="100"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="67">
+        <v>42089</v>
+      </c>
+      <c r="H92" s="67">
+        <v>42089</v>
+      </c>
+      <c r="I92" s="71"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="92"/>
+      <c r="B93" s="114"/>
+      <c r="C93" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="D93" s="100" t="s">
+        <v>153</v>
+      </c>
+      <c r="E93" s="100"/>
+      <c r="F93" s="64"/>
+      <c r="G93" s="67">
+        <v>42089</v>
+      </c>
+      <c r="H93" s="67">
+        <v>42089</v>
+      </c>
+      <c r="I93" s="71"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="92"/>
+      <c r="B94" s="114"/>
+      <c r="C94" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="D94" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="E94" s="100"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="67">
+        <v>42089</v>
+      </c>
+      <c r="H94" s="67">
+        <v>42089</v>
+      </c>
+      <c r="I94" s="71"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="92"/>
+      <c r="B95" s="114"/>
+      <c r="C95" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="D95" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="E95" s="100"/>
+      <c r="F95" s="64"/>
+      <c r="G95" s="67">
+        <v>42089</v>
+      </c>
+      <c r="H95" s="67">
+        <v>42089</v>
+      </c>
+      <c r="I95" s="71"/>
+    </row>
+    <row r="96" spans="1:9" ht="16.8" customHeight="1" thickBot="1">
+      <c r="A96" s="93"/>
+      <c r="B96" s="115"/>
+      <c r="C96" s="99" t="s">
+        <v>187</v>
+      </c>
+      <c r="D96" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="E96" s="76"/>
+      <c r="F96" s="77"/>
+      <c r="G96" s="67">
+        <v>42089</v>
+      </c>
+      <c r="H96" s="67">
+        <v>42089</v>
+      </c>
+      <c r="I96" s="79"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A9:A22"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="B28:B30"/>
+  <mergeCells count="19">
+    <mergeCell ref="B91:B96"/>
     <mergeCell ref="B73:B78"/>
     <mergeCell ref="B85:B90"/>
     <mergeCell ref="A26:A40"/>
@@ -4780,6 +5206,11 @@
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="B63:B66"/>
     <mergeCell ref="B68:B71"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A9:A22"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="B28:B30"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4788,14 +5219,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="D58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O42" sqref="O42"/>
+      <selection pane="bottomRight" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -5863,7 +6294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="2:20">
       <c r="B49" s="21">
         <v>1</v>
       </c>
@@ -5894,7 +6325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="2:20">
       <c r="B50" s="83">
         <v>2</v>
       </c>
@@ -5923,7 +6354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="80" customFormat="1">
+    <row r="51" spans="2:20" s="80" customFormat="1">
       <c r="B51" s="83">
         <v>3</v>
       </c>
@@ -5952,7 +6383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="80" customFormat="1">
+    <row r="52" spans="2:20" s="80" customFormat="1">
       <c r="B52" s="83">
         <v>4</v>
       </c>
@@ -5981,7 +6412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="80" customFormat="1">
+    <row r="53" spans="2:20" s="80" customFormat="1">
       <c r="B53" s="83">
         <v>5</v>
       </c>
@@ -6010,7 +6441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="2:20">
       <c r="B54" s="83">
         <v>6</v>
       </c>
@@ -6039,7 +6470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="80" customFormat="1">
+    <row r="55" spans="2:20" s="80" customFormat="1">
       <c r="B55" s="83">
         <v>7</v>
       </c>
@@ -6068,7 +6499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="80" customFormat="1">
+    <row r="56" spans="2:20" s="80" customFormat="1">
       <c r="B56" s="83">
         <v>8</v>
       </c>
@@ -6097,7 +6528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:20" s="80" customFormat="1">
+    <row r="57" spans="2:20" s="80" customFormat="1">
       <c r="B57" s="83">
         <v>9</v>
       </c>
@@ -6126,7 +6557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:20" s="80" customFormat="1">
+    <row r="58" spans="2:20" s="80" customFormat="1">
       <c r="B58" s="83">
         <v>10</v>
       </c>
@@ -6155,7 +6586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="80" customFormat="1">
+    <row r="59" spans="2:20" s="80" customFormat="1">
       <c r="B59" s="83">
         <v>11</v>
       </c>
@@ -6184,7 +6615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="80" customFormat="1">
+    <row r="60" spans="2:20" s="80" customFormat="1">
       <c r="B60" s="83">
         <v>12</v>
       </c>
@@ -6209,151 +6640,157 @@
       <c r="Q60" s="84"/>
       <c r="R60" s="84"/>
       <c r="T60" s="81">
-        <f t="shared" ref="T60" si="10">SUM(E60:R60)</f>
+        <f t="shared" ref="T60:T62" si="10">SUM(E60:R60)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
-      <c r="A62" s="24" t="s">
+    <row r="61" spans="2:20" s="80" customFormat="1">
+      <c r="B61" s="83">
+        <v>13</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="84"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="84"/>
+      <c r="H61" s="84"/>
+      <c r="I61" s="84"/>
+      <c r="J61" s="84"/>
+      <c r="K61" s="84"/>
+      <c r="L61" s="84"/>
+      <c r="M61" s="82">
+        <v>2</v>
+      </c>
+      <c r="N61" s="84"/>
+      <c r="O61" s="84"/>
+      <c r="P61" s="84"/>
+      <c r="Q61" s="84"/>
+      <c r="R61" s="84"/>
+      <c r="T61" s="81">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" s="80" customFormat="1">
+      <c r="B62" s="83">
+        <v>14</v>
+      </c>
+      <c r="C62" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" s="84"/>
+      <c r="E62" s="84"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="84"/>
+      <c r="H62" s="84"/>
+      <c r="I62" s="84"/>
+      <c r="J62" s="84"/>
+      <c r="K62" s="84"/>
+      <c r="L62" s="84"/>
+      <c r="M62" s="82">
+        <v>4</v>
+      </c>
+      <c r="N62" s="84"/>
+      <c r="O62" s="84"/>
+      <c r="P62" s="84"/>
+      <c r="Q62" s="84"/>
+      <c r="R62" s="84"/>
+      <c r="T62" s="81">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" s="80" customFormat="1">
+      <c r="B63" s="83">
+        <v>15</v>
+      </c>
+      <c r="C63" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="84"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="84"/>
+      <c r="J63" s="84"/>
+      <c r="K63" s="84"/>
+      <c r="L63" s="84"/>
+      <c r="M63" s="82">
+        <v>5</v>
+      </c>
+      <c r="N63" s="84"/>
+      <c r="O63" s="84"/>
+      <c r="P63" s="84"/>
+      <c r="Q63" s="84"/>
+      <c r="R63" s="84"/>
+      <c r="T63" s="81">
+        <f t="shared" ref="T63" si="11">SUM(E63:R63)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
-      <c r="B63" s="20" t="s">
+    <row r="66" spans="1:20">
+      <c r="B66" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
-      <c r="B64" s="21">
+    <row r="67" spans="1:20">
+      <c r="B67" s="21">
         <v>1</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C67" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="D64" s="25"/>
-      <c r="E64" s="19">
+      <c r="D67" s="25"/>
+      <c r="E67" s="19">
         <v>8</v>
       </c>
-      <c r="F64" s="19">
+      <c r="F67" s="19">
         <v>8</v>
       </c>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="25"/>
-      <c r="O64" s="25"/>
-      <c r="P64" s="25"/>
-      <c r="Q64" s="25"/>
-      <c r="R64" s="25"/>
-      <c r="T64" s="3">
-        <f t="shared" ref="T64:T68" si="11">SUM(E64:R64)</f>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="25"/>
+      <c r="R67" s="25"/>
+      <c r="T67" s="3">
+        <f t="shared" ref="T67:T71" si="12">SUM(E67:R67)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="2:20">
-      <c r="B65" s="83">
+    <row r="68" spans="1:20">
+      <c r="B68" s="83">
         <v>2</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C68" s="25" t="s">
         <v>143</v>
-      </c>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="19">
-        <v>8</v>
-      </c>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="84"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
-      <c r="O65" s="25"/>
-      <c r="P65" s="25"/>
-      <c r="Q65" s="25"/>
-      <c r="R65" s="25"/>
-      <c r="T65" s="3">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="2:20" s="80" customFormat="1">
-      <c r="B66" s="83">
-        <v>3</v>
-      </c>
-      <c r="C66" s="74">
-        <v>6.4</v>
-      </c>
-      <c r="D66" s="84"/>
-      <c r="E66" s="84"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="84"/>
-      <c r="H66" s="84"/>
-      <c r="I66" s="84"/>
-      <c r="J66" s="82">
-        <v>2</v>
-      </c>
-      <c r="K66" s="84"/>
-      <c r="L66" s="84"/>
-      <c r="M66" s="84"/>
-      <c r="N66" s="84"/>
-      <c r="O66" s="84"/>
-      <c r="P66" s="84"/>
-      <c r="Q66" s="84"/>
-      <c r="R66" s="84"/>
-      <c r="T66" s="81"/>
-    </row>
-    <row r="67" spans="2:20" s="80" customFormat="1">
-      <c r="B67" s="83">
-        <v>4</v>
-      </c>
-      <c r="C67" s="74">
-        <v>6.5</v>
-      </c>
-      <c r="D67" s="84"/>
-      <c r="E67" s="84"/>
-      <c r="F67" s="84"/>
-      <c r="G67" s="84"/>
-      <c r="H67" s="84"/>
-      <c r="I67" s="84"/>
-      <c r="J67" s="82">
-        <v>3</v>
-      </c>
-      <c r="K67" s="84"/>
-      <c r="L67" s="84"/>
-      <c r="M67" s="84"/>
-      <c r="N67" s="84"/>
-      <c r="O67" s="84"/>
-      <c r="P67" s="84"/>
-      <c r="Q67" s="84"/>
-      <c r="R67" s="84"/>
-      <c r="T67" s="81"/>
-    </row>
-    <row r="68" spans="2:20">
-      <c r="B68" s="83">
-        <v>5</v>
-      </c>
-      <c r="C68" s="74">
-        <v>6.6</v>
       </c>
       <c r="D68" s="25"/>
       <c r="E68" s="25"/>
       <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
+      <c r="G68" s="19">
+        <v>8</v>
+      </c>
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
-      <c r="J68" s="82">
-        <v>3</v>
-      </c>
+      <c r="J68" s="84"/>
       <c r="K68" s="25"/>
       <c r="L68" s="25"/>
       <c r="M68" s="25"/>
@@ -6363,16 +6800,16 @@
       <c r="Q68" s="25"/>
       <c r="R68" s="25"/>
       <c r="T68" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" s="80" customFormat="1">
+      <c r="B69" s="83">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" s="80" customFormat="1">
-      <c r="B69" s="83">
-        <v>6</v>
-      </c>
       <c r="C69" s="74">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="D69" s="84"/>
       <c r="E69" s="84"/>
@@ -6380,10 +6817,10 @@
       <c r="G69" s="84"/>
       <c r="H69" s="84"/>
       <c r="I69" s="84"/>
-      <c r="J69" s="84"/>
-      <c r="K69" s="82">
+      <c r="J69" s="82">
         <v>2</v>
       </c>
+      <c r="K69" s="84"/>
       <c r="L69" s="84"/>
       <c r="M69" s="84"/>
       <c r="N69" s="84"/>
@@ -6393,12 +6830,12 @@
       <c r="R69" s="84"/>
       <c r="T69" s="81"/>
     </row>
-    <row r="70" spans="2:20" s="80" customFormat="1">
+    <row r="70" spans="1:20" s="80" customFormat="1">
       <c r="B70" s="83">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C70" s="74">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="D70" s="84"/>
       <c r="E70" s="84"/>
@@ -6406,10 +6843,10 @@
       <c r="G70" s="84"/>
       <c r="H70" s="84"/>
       <c r="I70" s="84"/>
-      <c r="J70" s="84"/>
-      <c r="K70" s="82">
-        <v>4</v>
-      </c>
+      <c r="J70" s="82">
+        <v>3</v>
+      </c>
+      <c r="K70" s="84"/>
       <c r="L70" s="84"/>
       <c r="M70" s="84"/>
       <c r="N70" s="84"/>
@@ -6419,41 +6856,41 @@
       <c r="R70" s="84"/>
       <c r="T70" s="81"/>
     </row>
-    <row r="71" spans="2:20" s="80" customFormat="1">
+    <row r="71" spans="1:20">
       <c r="B71" s="83">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71" s="74">
-        <v>7.6</v>
-      </c>
-      <c r="D71" s="84"/>
-      <c r="E71" s="84"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="84"/>
-      <c r="H71" s="84"/>
-      <c r="I71" s="84"/>
-      <c r="J71" s="84"/>
-      <c r="K71" s="82">
-        <v>5</v>
-      </c>
-      <c r="L71" s="84"/>
-      <c r="M71" s="84"/>
-      <c r="N71" s="84"/>
-      <c r="O71" s="84"/>
-      <c r="P71" s="84"/>
-      <c r="Q71" s="84"/>
-      <c r="R71" s="84"/>
-      <c r="T71" s="81">
-        <f t="shared" ref="T71" si="12">SUM(E71:R71)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="2:20" s="80" customFormat="1">
+        <v>6.6</v>
+      </c>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="82">
+        <v>3</v>
+      </c>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="25"/>
+      <c r="R71" s="25"/>
+      <c r="T71" s="3">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" s="80" customFormat="1">
       <c r="B72" s="83">
-        <v>9</v>
-      </c>
-      <c r="C72" s="42" t="s">
-        <v>176</v>
+        <v>6</v>
+      </c>
+      <c r="C72" s="74">
+        <v>7.4</v>
       </c>
       <c r="D72" s="84"/>
       <c r="E72" s="84"/>
@@ -6462,10 +6899,10 @@
       <c r="H72" s="84"/>
       <c r="I72" s="84"/>
       <c r="J72" s="84"/>
-      <c r="K72" s="84"/>
-      <c r="L72" s="82">
+      <c r="K72" s="82">
         <v>2</v>
       </c>
+      <c r="L72" s="84"/>
       <c r="M72" s="84"/>
       <c r="N72" s="84"/>
       <c r="O72" s="84"/>
@@ -6474,12 +6911,12 @@
       <c r="R72" s="84"/>
       <c r="T72" s="81"/>
     </row>
-    <row r="73" spans="2:20" s="80" customFormat="1">
+    <row r="73" spans="1:20" s="80" customFormat="1">
       <c r="B73" s="83">
-        <v>10</v>
-      </c>
-      <c r="C73" s="42" t="s">
-        <v>177</v>
+        <v>7</v>
+      </c>
+      <c r="C73" s="74">
+        <v>7.5</v>
       </c>
       <c r="D73" s="84"/>
       <c r="E73" s="84"/>
@@ -6488,10 +6925,10 @@
       <c r="H73" s="84"/>
       <c r="I73" s="84"/>
       <c r="J73" s="84"/>
-      <c r="K73" s="84"/>
-      <c r="L73" s="82">
+      <c r="K73" s="82">
         <v>4</v>
       </c>
+      <c r="L73" s="84"/>
       <c r="M73" s="84"/>
       <c r="N73" s="84"/>
       <c r="O73" s="84"/>
@@ -6500,12 +6937,12 @@
       <c r="R73" s="84"/>
       <c r="T73" s="81"/>
     </row>
-    <row r="74" spans="2:20" s="80" customFormat="1" ht="51" thickBot="1">
+    <row r="74" spans="1:20" s="80" customFormat="1">
       <c r="B74" s="83">
-        <v>11</v>
-      </c>
-      <c r="C74" s="99" t="s">
-        <v>178</v>
+        <v>8</v>
+      </c>
+      <c r="C74" s="74">
+        <v>7.6</v>
       </c>
       <c r="D74" s="84"/>
       <c r="E74" s="84"/>
@@ -6514,10 +6951,10 @@
       <c r="H74" s="84"/>
       <c r="I74" s="84"/>
       <c r="J74" s="84"/>
-      <c r="K74" s="84"/>
-      <c r="L74" s="82">
+      <c r="K74" s="82">
         <v>5</v>
       </c>
+      <c r="L74" s="84"/>
       <c r="M74" s="84"/>
       <c r="N74" s="84"/>
       <c r="O74" s="84"/>
@@ -6529,6 +6966,168 @@
         <v>5</v>
       </c>
     </row>
+    <row r="75" spans="1:20" s="80" customFormat="1">
+      <c r="B75" s="83">
+        <v>9</v>
+      </c>
+      <c r="C75" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="D75" s="84"/>
+      <c r="E75" s="84"/>
+      <c r="F75" s="84"/>
+      <c r="G75" s="84"/>
+      <c r="H75" s="84"/>
+      <c r="I75" s="84"/>
+      <c r="J75" s="84"/>
+      <c r="K75" s="84"/>
+      <c r="L75" s="82">
+        <v>2</v>
+      </c>
+      <c r="M75" s="84"/>
+      <c r="N75" s="84"/>
+      <c r="O75" s="84"/>
+      <c r="P75" s="84"/>
+      <c r="Q75" s="84"/>
+      <c r="R75" s="84"/>
+      <c r="T75" s="81"/>
+    </row>
+    <row r="76" spans="1:20" s="80" customFormat="1">
+      <c r="B76" s="83">
+        <v>10</v>
+      </c>
+      <c r="C76" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D76" s="84"/>
+      <c r="E76" s="84"/>
+      <c r="F76" s="84"/>
+      <c r="G76" s="84"/>
+      <c r="H76" s="84"/>
+      <c r="I76" s="84"/>
+      <c r="J76" s="84"/>
+      <c r="K76" s="84"/>
+      <c r="L76" s="82">
+        <v>4</v>
+      </c>
+      <c r="M76" s="84"/>
+      <c r="N76" s="84"/>
+      <c r="O76" s="84"/>
+      <c r="P76" s="84"/>
+      <c r="Q76" s="84"/>
+      <c r="R76" s="84"/>
+      <c r="T76" s="81"/>
+    </row>
+    <row r="77" spans="1:20" s="80" customFormat="1" ht="13.8" thickBot="1">
+      <c r="B77" s="83">
+        <v>11</v>
+      </c>
+      <c r="C77" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="D77" s="84"/>
+      <c r="E77" s="84"/>
+      <c r="F77" s="84"/>
+      <c r="G77" s="84"/>
+      <c r="H77" s="84"/>
+      <c r="I77" s="84"/>
+      <c r="J77" s="84"/>
+      <c r="K77" s="84"/>
+      <c r="L77" s="82">
+        <v>5</v>
+      </c>
+      <c r="M77" s="84"/>
+      <c r="N77" s="84"/>
+      <c r="O77" s="84"/>
+      <c r="P77" s="84"/>
+      <c r="Q77" s="84"/>
+      <c r="R77" s="84"/>
+      <c r="T77" s="81">
+        <f t="shared" ref="T77" si="14">SUM(E77:R77)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" s="80" customFormat="1">
+      <c r="B78" s="83">
+        <v>12</v>
+      </c>
+      <c r="C78" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="D78" s="84"/>
+      <c r="E78" s="84"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="84"/>
+      <c r="H78" s="84"/>
+      <c r="I78" s="84"/>
+      <c r="J78" s="84"/>
+      <c r="K78" s="84"/>
+      <c r="L78" s="84"/>
+      <c r="M78" s="82">
+        <v>2</v>
+      </c>
+      <c r="N78" s="84"/>
+      <c r="O78" s="84"/>
+      <c r="P78" s="84"/>
+      <c r="Q78" s="84"/>
+      <c r="R78" s="84"/>
+      <c r="T78" s="81"/>
+    </row>
+    <row r="79" spans="1:20" s="80" customFormat="1">
+      <c r="B79" s="83">
+        <v>13</v>
+      </c>
+      <c r="C79" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="D79" s="84"/>
+      <c r="E79" s="84"/>
+      <c r="F79" s="84"/>
+      <c r="G79" s="84"/>
+      <c r="H79" s="84"/>
+      <c r="I79" s="84"/>
+      <c r="J79" s="84"/>
+      <c r="K79" s="84"/>
+      <c r="L79" s="84"/>
+      <c r="M79" s="82">
+        <v>4</v>
+      </c>
+      <c r="N79" s="84"/>
+      <c r="O79" s="84"/>
+      <c r="P79" s="84"/>
+      <c r="Q79" s="84"/>
+      <c r="R79" s="84"/>
+      <c r="T79" s="81"/>
+    </row>
+    <row r="80" spans="1:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
+      <c r="B80" s="83">
+        <v>14</v>
+      </c>
+      <c r="C80" s="99" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" s="84"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="84"/>
+      <c r="H80" s="84"/>
+      <c r="I80" s="84"/>
+      <c r="J80" s="84"/>
+      <c r="K80" s="84"/>
+      <c r="L80" s="84"/>
+      <c r="M80" s="82">
+        <v>5</v>
+      </c>
+      <c r="N80" s="84"/>
+      <c r="O80" s="84"/>
+      <c r="P80" s="84"/>
+      <c r="Q80" s="84"/>
+      <c r="R80" s="84"/>
+      <c r="T80" s="81">
+        <f t="shared" ref="T80" si="15">SUM(E80:R80)</f>
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Listing_Tool_Status_Report_v1.0.xlsx
+++ b/docs/Listing_Tool_Status_Report_v1.0.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5352" yWindow="-360" windowWidth="16608" windowHeight="9432" activeTab="2"/>
+    <workbookView xWindow="5355" yWindow="-360" windowWidth="16605" windowHeight="9435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="WBS" sheetId="5" r:id="rId2"/>
     <sheet name="March 2015" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="189">
   <si>
     <t>Project Name:</t>
   </si>
@@ -1865,14 +1865,17 @@
 </t>
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4 test to generate dynamic custome liberay for ads</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1884,7 +1887,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1947,7 +1950,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2440,7 +2443,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2484,7 +2487,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2688,6 +2691,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2698,6 +2719,27 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2706,60 +2748,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="1"/>
     <cellStyle name="Normal 3 2" xfId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2775,7 +2787,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2849,7 +2861,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2884,7 +2895,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3060,22 +3070,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13.8" thickBot="1"/>
+    <row r="1" spans="2:10" ht="13.5" thickBot="1"/>
     <row r="2" spans="2:10">
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -3087,7 +3097,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="2:10" ht="31.8">
+    <row r="3" spans="2:10" ht="33">
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
         <v>0</v>
@@ -3327,7 +3337,7 @@
       <c r="I20" s="11"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="2:10" ht="13.8" thickBot="1">
+    <row r="21" spans="2:10" ht="13.5" thickBot="1">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -3346,25 +3356,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="39" style="52" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" style="53" customWidth="1"/>
-    <col min="3" max="3" width="54.109375" style="52" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="68" customWidth="1"/>
-    <col min="7" max="8" width="11.5546875" style="52" customWidth="1"/>
-    <col min="9" max="9" width="38.44140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="33"/>
+    <col min="2" max="2" width="41.85546875" style="53" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="52" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="68" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" style="52" customWidth="1"/>
+    <col min="9" max="9" width="38.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3396,7 +3406,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.8" thickBot="1">
+    <row r="2" spans="1:9" ht="13.5" thickBot="1">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="34"/>
@@ -3407,8 +3417,8 @@
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
     </row>
-    <row r="3" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A3" s="101" t="s">
+    <row r="3" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A3" s="107" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="37" t="s">
@@ -3428,8 +3438,8 @@
       </c>
       <c r="I3" s="41"/>
     </row>
-    <row r="4" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A4" s="102"/>
+    <row r="4" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A4" s="108"/>
       <c r="B4" s="42" t="s">
         <v>41</v>
       </c>
@@ -3447,8 +3457,8 @@
       </c>
       <c r="I4" s="46"/>
     </row>
-    <row r="5" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A5" s="103"/>
+    <row r="5" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A5" s="109"/>
       <c r="B5" s="47" t="s">
         <v>42</v>
       </c>
@@ -3464,7 +3474,7 @@
       <c r="H5" s="48"/>
       <c r="I5" s="51"/>
     </row>
-    <row r="6" spans="1:9" ht="13.8" thickBot="1">
+    <row r="6" spans="1:9" ht="13.5" thickBot="1">
       <c r="D6" s="54" t="s">
         <v>43</v>
       </c>
@@ -3476,25 +3486,25 @@
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
     </row>
-    <row r="7" spans="1:9" ht="13.8" thickTop="1">
+    <row r="7" spans="1:9" ht="13.5" thickTop="1">
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
       <c r="F7" s="57"/>
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
     </row>
-    <row r="8" spans="1:9" ht="13.8" thickBot="1">
+    <row r="8" spans="1:9" ht="13.5" thickBot="1">
       <c r="D8" s="54"/>
       <c r="E8" s="54"/>
       <c r="F8" s="57"/>
       <c r="G8" s="56"/>
       <c r="H8" s="56"/>
     </row>
-    <row r="9" spans="1:9" ht="26.7" customHeight="1">
-      <c r="A9" s="101" t="s">
+    <row r="9" spans="1:9" ht="26.65" customHeight="1">
+      <c r="A9" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="117" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="58" t="s">
@@ -3515,9 +3525,9 @@
       </c>
       <c r="I9" s="41"/>
     </row>
-    <row r="10" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A10" s="102"/>
-      <c r="B10" s="105"/>
+    <row r="10" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A10" s="108"/>
+      <c r="B10" s="118"/>
       <c r="C10" s="59" t="s">
         <v>47</v>
       </c>
@@ -3536,9 +3546,9 @@
       </c>
       <c r="I10" s="62"/>
     </row>
-    <row r="11" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A11" s="102"/>
-      <c r="B11" s="105"/>
+    <row r="11" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A11" s="108"/>
+      <c r="B11" s="118"/>
       <c r="C11" s="43" t="s">
         <v>49</v>
       </c>
@@ -3557,9 +3567,9 @@
       </c>
       <c r="I11" s="46"/>
     </row>
-    <row r="12" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A12" s="102"/>
-      <c r="B12" s="105"/>
+    <row r="12" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A12" s="108"/>
+      <c r="B12" s="118"/>
       <c r="C12" s="63" t="s">
         <v>50</v>
       </c>
@@ -3578,9 +3588,9 @@
       </c>
       <c r="I12" s="65"/>
     </row>
-    <row r="13" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A13" s="102"/>
-      <c r="B13" s="106"/>
+    <row r="13" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A13" s="108"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="63" t="s">
         <v>52</v>
       </c>
@@ -3597,9 +3607,9 @@
       </c>
       <c r="I13" s="65"/>
     </row>
-    <row r="14" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A14" s="102"/>
-      <c r="B14" s="107" t="s">
+    <row r="14" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A14" s="108"/>
+      <c r="B14" s="104" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="63" t="s">
@@ -3620,9 +3630,9 @@
       </c>
       <c r="I14" s="65"/>
     </row>
-    <row r="15" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A15" s="102"/>
-      <c r="B15" s="108"/>
+    <row r="15" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A15" s="108"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="63" t="s">
         <v>55</v>
       </c>
@@ -3641,9 +3651,9 @@
       </c>
       <c r="I15" s="65"/>
     </row>
-    <row r="16" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A16" s="102"/>
-      <c r="B16" s="108"/>
+    <row r="16" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A16" s="108"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="63" t="s">
         <v>57</v>
       </c>
@@ -3662,9 +3672,9 @@
       </c>
       <c r="I16" s="65"/>
     </row>
-    <row r="17" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A17" s="102"/>
-      <c r="B17" s="108"/>
+    <row r="17" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A17" s="108"/>
+      <c r="B17" s="105"/>
       <c r="C17" s="63" t="s">
         <v>59</v>
       </c>
@@ -3683,9 +3693,9 @@
       </c>
       <c r="I17" s="65"/>
     </row>
-    <row r="18" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A18" s="102"/>
-      <c r="B18" s="108"/>
+    <row r="18" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A18" s="108"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="63" t="s">
         <v>60</v>
       </c>
@@ -3704,9 +3714,9 @@
       </c>
       <c r="I18" s="65"/>
     </row>
-    <row r="19" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A19" s="102"/>
-      <c r="B19" s="108"/>
+    <row r="19" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A19" s="108"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="63" t="s">
         <v>61</v>
       </c>
@@ -3725,9 +3735,9 @@
       </c>
       <c r="I19" s="65"/>
     </row>
-    <row r="20" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A20" s="102"/>
-      <c r="B20" s="108"/>
+    <row r="20" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A20" s="108"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="63" t="s">
         <v>62</v>
       </c>
@@ -3746,9 +3756,9 @@
       </c>
       <c r="I20" s="65"/>
     </row>
-    <row r="21" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A21" s="102"/>
-      <c r="B21" s="108"/>
+    <row r="21" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A21" s="108"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="90" t="s">
         <v>164</v>
       </c>
@@ -3765,9 +3775,9 @@
       </c>
       <c r="I21" s="65"/>
     </row>
-    <row r="22" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A22" s="103"/>
-      <c r="B22" s="109"/>
+    <row r="22" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A22" s="109"/>
+      <c r="B22" s="106"/>
       <c r="C22" s="66" t="s">
         <v>165</v>
       </c>
@@ -3784,7 +3794,7 @@
       </c>
       <c r="I22" s="51"/>
     </row>
-    <row r="23" spans="1:9" ht="13.8" thickBot="1">
+    <row r="23" spans="1:9" ht="13.5" thickBot="1">
       <c r="D23" s="54" t="s">
         <v>43</v>
       </c>
@@ -3796,22 +3806,22 @@
       <c r="G23" s="56"/>
       <c r="H23" s="56"/>
     </row>
-    <row r="24" spans="1:9" ht="13.8" thickTop="1">
+    <row r="24" spans="1:9" ht="13.5" thickTop="1">
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
       <c r="F24" s="57"/>
       <c r="G24" s="56"/>
       <c r="H24" s="56"/>
     </row>
-    <row r="25" spans="1:9" ht="13.8" thickBot="1">
+    <row r="25" spans="1:9" ht="13.5" thickBot="1">
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
       <c r="F25" s="57"/>
       <c r="G25" s="56"/>
       <c r="H25" s="56"/>
     </row>
-    <row r="26" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A26" s="101" t="s">
+    <row r="26" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A26" s="121" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="37" t="s">
@@ -3833,8 +3843,8 @@
       </c>
       <c r="I26" s="41"/>
     </row>
-    <row r="27" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A27" s="102"/>
+    <row r="27" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A27" s="122"/>
       <c r="B27" s="42" t="s">
         <v>66</v>
       </c>
@@ -3854,9 +3864,9 @@
       </c>
       <c r="I27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A28" s="102"/>
-      <c r="B28" s="110" t="s">
+    <row r="28" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A28" s="122"/>
+      <c r="B28" s="111" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="63" t="s">
@@ -3877,9 +3887,9 @@
       </c>
       <c r="I28" s="65"/>
     </row>
-    <row r="29" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A29" s="102"/>
-      <c r="B29" s="111"/>
+    <row r="29" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A29" s="122"/>
+      <c r="B29" s="112"/>
       <c r="C29" s="63" t="s">
         <v>70</v>
       </c>
@@ -3898,9 +3908,9 @@
       </c>
       <c r="I29" s="65"/>
     </row>
-    <row r="30" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A30" s="102"/>
-      <c r="B30" s="112"/>
+    <row r="30" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A30" s="122"/>
+      <c r="B30" s="120"/>
       <c r="C30" s="63" t="s">
         <v>72</v>
       </c>
@@ -3919,9 +3929,9 @@
       </c>
       <c r="I30" s="65"/>
     </row>
-    <row r="31" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A31" s="102"/>
-      <c r="B31" s="110" t="s">
+    <row r="31" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A31" s="122"/>
+      <c r="B31" s="111" t="s">
         <v>127</v>
       </c>
       <c r="C31" s="70" t="s">
@@ -3942,9 +3952,9 @@
       </c>
       <c r="I31" s="65"/>
     </row>
-    <row r="32" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A32" s="102"/>
-      <c r="B32" s="111"/>
+    <row r="32" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A32" s="122"/>
+      <c r="B32" s="112"/>
       <c r="C32" s="70" t="s">
         <v>120</v>
       </c>
@@ -3963,9 +3973,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A33" s="102"/>
-      <c r="B33" s="111"/>
+    <row r="33" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A33" s="122"/>
+      <c r="B33" s="112"/>
       <c r="C33" s="70" t="s">
         <v>122</v>
       </c>
@@ -3986,9 +3996,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A34" s="102"/>
-      <c r="B34" s="111"/>
+    <row r="34" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A34" s="122"/>
+      <c r="B34" s="112"/>
       <c r="C34" s="70" t="s">
         <v>123</v>
       </c>
@@ -4007,9 +4017,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A35" s="102"/>
-      <c r="B35" s="111"/>
+    <row r="35" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A35" s="122"/>
+      <c r="B35" s="112"/>
       <c r="C35" s="70" t="s">
         <v>124</v>
       </c>
@@ -4028,9 +4038,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A36" s="102"/>
-      <c r="B36" s="111"/>
+    <row r="36" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A36" s="122"/>
+      <c r="B36" s="112"/>
       <c r="C36" s="70" t="s">
         <v>125</v>
       </c>
@@ -4049,9 +4059,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A37" s="102"/>
-      <c r="B37" s="119"/>
+    <row r="37" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A37" s="122"/>
+      <c r="B37" s="113"/>
       <c r="C37" s="73" t="s">
         <v>126</v>
       </c>
@@ -4068,9 +4078,9 @@
       </c>
       <c r="I37" s="51"/>
     </row>
-    <row r="38" spans="1:9" ht="13.65" customHeight="1">
-      <c r="A38" s="102"/>
-      <c r="B38" s="116" t="s">
+    <row r="38" spans="1:9" ht="13.7" customHeight="1">
+      <c r="A38" s="122"/>
+      <c r="B38" s="123" t="s">
         <v>168</v>
       </c>
       <c r="C38" s="70" t="s">
@@ -4091,9 +4101,9 @@
       </c>
       <c r="I38" s="96"/>
     </row>
-    <row r="39" spans="1:9" ht="13.65" customHeight="1">
-      <c r="A39" s="102"/>
-      <c r="B39" s="117"/>
+    <row r="39" spans="1:9" ht="13.7" customHeight="1">
+      <c r="A39" s="122"/>
+      <c r="B39" s="112"/>
       <c r="C39" s="70" t="s">
         <v>169</v>
       </c>
@@ -4112,9 +4122,9 @@
       </c>
       <c r="I39" s="70"/>
     </row>
-    <row r="40" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A40" s="103"/>
-      <c r="B40" s="118"/>
+    <row r="40" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A40" s="122"/>
+      <c r="B40" s="112"/>
       <c r="C40" s="73" t="s">
         <v>170</v>
       </c>
@@ -4133,98 +4143,100 @@
       </c>
       <c r="I40" s="51"/>
     </row>
-    <row r="41" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D41" s="54" t="s">
+    <row r="41" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A41" s="125"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="76"/>
+      <c r="F41" s="77">
+        <v>11</v>
+      </c>
+      <c r="G41" s="78">
+        <v>42087</v>
+      </c>
+      <c r="H41" s="78">
+        <v>42089</v>
+      </c>
+      <c r="I41" s="51"/>
+    </row>
+    <row r="42" spans="1:9" ht="13.5" thickBot="1">
+      <c r="D42" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="55">
+      <c r="E42" s="54"/>
+      <c r="F42" s="55">
         <f>SUM(F26:F37)</f>
         <v>36</v>
       </c>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-    </row>
-    <row r="42" spans="1:9" ht="13.8" thickTop="1">
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="57"/>
       <c r="G42" s="56"/>
       <c r="H42" s="56"/>
     </row>
-    <row r="43" spans="1:9" ht="13.8" thickBot="1">
+    <row r="43" spans="1:9" ht="13.5" thickTop="1">
       <c r="D43" s="54"/>
       <c r="E43" s="54"/>
       <c r="F43" s="57"/>
       <c r="G43" s="56"/>
       <c r="H43" s="56"/>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="101" t="s">
+    <row r="44" spans="1:9" ht="13.5" thickBot="1">
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B45" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38" t="s">
+      <c r="C45" s="38"/>
+      <c r="D45" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="38"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="40">
+      <c r="E45" s="38"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="40">
         <v>42079</v>
       </c>
-      <c r="H44" s="40">
+      <c r="H45" s="40">
         <v>42083</v>
       </c>
-      <c r="I44" s="41"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="102"/>
-      <c r="B45" s="107" t="s">
+      <c r="I45" s="41"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="108"/>
+      <c r="B46" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="69" t="s">
+      <c r="C46" s="69" t="s">
         <v>78</v>
-      </c>
-      <c r="D45" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="43"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="67">
-        <v>42079</v>
-      </c>
-      <c r="H45" s="45">
-        <v>42083</v>
-      </c>
-      <c r="I45" s="46"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="102"/>
-      <c r="B46" s="108"/>
-      <c r="C46" s="63" t="s">
-        <v>79</v>
       </c>
       <c r="D46" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="63"/>
-      <c r="F46" s="64"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="44"/>
       <c r="G46" s="67">
         <v>42079</v>
       </c>
       <c r="H46" s="45">
         <v>42083</v>
       </c>
-      <c r="I46" s="65"/>
+      <c r="I46" s="46"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="102"/>
-      <c r="B47" s="108"/>
+      <c r="A47" s="108"/>
+      <c r="B47" s="105"/>
       <c r="C47" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D47" s="43" t="s">
         <v>76</v>
@@ -4240,13 +4252,13 @@
       <c r="I47" s="65"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="102"/>
-      <c r="B48" s="108"/>
+      <c r="A48" s="108"/>
+      <c r="B48" s="105"/>
       <c r="C48" s="63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D48" s="43" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E48" s="63"/>
       <c r="F48" s="64"/>
@@ -4259,13 +4271,13 @@
       <c r="I48" s="65"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="102"/>
-      <c r="B49" s="108"/>
+      <c r="A49" s="108"/>
+      <c r="B49" s="105"/>
       <c r="C49" s="63" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D49" s="43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E49" s="63"/>
       <c r="F49" s="64"/>
@@ -4278,13 +4290,13 @@
       <c r="I49" s="65"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="102"/>
-      <c r="B50" s="120"/>
+      <c r="A50" s="108"/>
+      <c r="B50" s="105"/>
       <c r="C50" s="63" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D50" s="43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E50" s="63"/>
       <c r="F50" s="64"/>
@@ -4297,21 +4309,16 @@
       <c r="I50" s="65"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="102"/>
-      <c r="B51" s="107" t="s">
-        <v>87</v>
-      </c>
+      <c r="A51" s="108"/>
+      <c r="B51" s="114"/>
       <c r="C51" s="63" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D51" s="43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E51" s="63"/>
-      <c r="F51" s="64">
-        <f>'March 2015'!T39</f>
-        <v>7</v>
-      </c>
+      <c r="F51" s="64"/>
       <c r="G51" s="67">
         <v>42079</v>
       </c>
@@ -4321,18 +4328,20 @@
       <c r="I51" s="65"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="102"/>
-      <c r="B52" s="108"/>
-      <c r="C52" s="70" t="s">
-        <v>90</v>
+      <c r="A52" s="108"/>
+      <c r="B52" s="104" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="63" t="s">
+        <v>88</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64">
         <f>'March 2015'!T40</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G52" s="67">
         <v>42079</v>
@@ -4343,18 +4352,18 @@
       <c r="I52" s="65"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="102"/>
-      <c r="B53" s="108"/>
-      <c r="C53" s="63" t="s">
-        <v>91</v>
+      <c r="A53" s="108"/>
+      <c r="B53" s="105"/>
+      <c r="C53" s="70" t="s">
+        <v>90</v>
       </c>
       <c r="D53" s="43" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E53" s="63"/>
       <c r="F53" s="64">
         <f>'March 2015'!T41</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G53" s="67">
         <v>42079</v>
@@ -4365,18 +4374,18 @@
       <c r="I53" s="65"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="102"/>
-      <c r="B54" s="108"/>
-      <c r="C54" s="70" t="s">
-        <v>93</v>
+      <c r="A54" s="108"/>
+      <c r="B54" s="105"/>
+      <c r="C54" s="63" t="s">
+        <v>91</v>
       </c>
       <c r="D54" s="43" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E54" s="63"/>
       <c r="F54" s="64">
         <f>'March 2015'!T42</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G54" s="67">
         <v>42079</v>
@@ -4384,21 +4393,21 @@
       <c r="H54" s="45">
         <v>42083</v>
       </c>
-      <c r="I54" s="71"/>
+      <c r="I54" s="65"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="102"/>
-      <c r="B55" s="108"/>
+      <c r="A55" s="108"/>
+      <c r="B55" s="105"/>
       <c r="C55" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="63" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+      <c r="D55" s="43" t="s">
+        <v>82</v>
       </c>
       <c r="E55" s="63"/>
       <c r="F55" s="64">
         <f>'March 2015'!T43</f>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G55" s="67">
         <v>42079</v>
@@ -4406,21 +4415,21 @@
       <c r="H55" s="45">
         <v>42083</v>
       </c>
-      <c r="I55" s="65"/>
+      <c r="I55" s="71"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="102"/>
-      <c r="B56" s="108"/>
+      <c r="A56" s="108"/>
+      <c r="B56" s="105"/>
       <c r="C56" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="D56" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="E56" s="98"/>
+        <v>94</v>
+      </c>
+      <c r="D56" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="63"/>
       <c r="F56" s="64">
         <f>'March 2015'!T44</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G56" s="67">
         <v>42079</v>
@@ -4428,102 +4437,101 @@
       <c r="H56" s="45">
         <v>42083</v>
       </c>
-      <c r="I56" s="71"/>
-    </row>
-    <row r="57" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A57" s="103"/>
-      <c r="B57" s="109"/>
-      <c r="C57" s="73" t="s">
-        <v>180</v>
-      </c>
-      <c r="D57" s="48" t="s">
+      <c r="I56" s="65"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="108"/>
+      <c r="B57" s="105"/>
+      <c r="C57" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="48"/>
+      <c r="E57" s="98"/>
       <c r="F57" s="64">
         <f>'March 2015'!T45</f>
+        <v>1</v>
+      </c>
+      <c r="G57" s="67">
+        <v>42079</v>
+      </c>
+      <c r="H57" s="45">
+        <v>42083</v>
+      </c>
+      <c r="I57" s="71"/>
+    </row>
+    <row r="58" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A58" s="109"/>
+      <c r="B58" s="106"/>
+      <c r="C58" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="48"/>
+      <c r="F58" s="64">
+        <f>'March 2015'!T46</f>
         <v>4</v>
       </c>
-      <c r="G57" s="50">
+      <c r="G58" s="50">
         <v>42079</v>
       </c>
-      <c r="H57" s="50">
+      <c r="H58" s="50">
         <v>42083</v>
       </c>
-      <c r="I57" s="51"/>
-    </row>
-    <row r="58" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D58" s="54" t="s">
+      <c r="I58" s="51"/>
+    </row>
+    <row r="59" spans="1:9" ht="13.5" thickBot="1">
+      <c r="D59" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E58" s="54"/>
-      <c r="F58" s="55">
-        <f>SUM(F44:F57)</f>
+      <c r="E59" s="54"/>
+      <c r="F59" s="55">
+        <f>SUM(F45:F58)</f>
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="13.8" thickTop="1"/>
-    <row r="60" spans="1:9" ht="13.8" thickBot="1"/>
-    <row r="61" spans="1:9">
-      <c r="A61" s="121" t="s">
+    <row r="60" spans="1:9" ht="13.5" thickTop="1"/>
+    <row r="61" spans="1:9" ht="13.5" thickBot="1"/>
+    <row r="62" spans="1:9">
+      <c r="A62" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="B61" s="116" t="s">
+      <c r="B62" s="110" t="s">
         <v>136</v>
       </c>
-      <c r="C61" s="38" t="s">
+      <c r="C62" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D61" s="38" t="s">
+      <c r="D62" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="E61" s="38"/>
-      <c r="F61" s="39">
+      <c r="E62" s="38"/>
+      <c r="F62" s="39">
         <v>15</v>
       </c>
-      <c r="G61" s="40">
+      <c r="G62" s="40">
         <v>42079</v>
       </c>
-      <c r="H61" s="40">
+      <c r="H62" s="40">
         <v>42083</v>
       </c>
-      <c r="I61" s="41"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="102"/>
-      <c r="B62" s="122"/>
-      <c r="C62" s="59" t="s">
+      <c r="I62" s="41"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="108"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="D62" s="59" t="s">
+      <c r="D63" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="E62" s="59"/>
-      <c r="F62" s="60">
+      <c r="E63" s="59"/>
+      <c r="F63" s="60">
         <v>5</v>
-      </c>
-      <c r="G62" s="67">
-        <v>42079</v>
-      </c>
-      <c r="H62" s="45">
-        <v>42083</v>
-      </c>
-      <c r="I62" s="62"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="102"/>
-      <c r="B63" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="C63" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="D63" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="E63" s="43"/>
-      <c r="F63" s="44">
-        <v>2</v>
       </c>
       <c r="G63" s="67">
         <v>42079</v>
@@ -4531,19 +4539,21 @@
       <c r="H63" s="45">
         <v>42083</v>
       </c>
-      <c r="I63" s="46"/>
+      <c r="I63" s="62"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="102"/>
-      <c r="B64" s="108"/>
-      <c r="C64" s="63" t="s">
-        <v>103</v>
+      <c r="A64" s="108"/>
+      <c r="B64" s="104" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>102</v>
       </c>
       <c r="D64" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="E64" s="63"/>
-      <c r="F64" s="64">
+        <v>101</v>
+      </c>
+      <c r="E64" s="43"/>
+      <c r="F64" s="44">
         <v>2</v>
       </c>
       <c r="G64" s="67">
@@ -4552,16 +4562,16 @@
       <c r="H64" s="45">
         <v>42083</v>
       </c>
-      <c r="I64" s="65"/>
+      <c r="I64" s="46"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="102"/>
-      <c r="B65" s="108"/>
+      <c r="A65" s="108"/>
+      <c r="B65" s="105"/>
       <c r="C65" s="63" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E65" s="63"/>
       <c r="F65" s="64">
@@ -4576,13 +4586,13 @@
       <c r="I65" s="65"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="102"/>
-      <c r="B66" s="120"/>
+      <c r="A66" s="108"/>
+      <c r="B66" s="105"/>
       <c r="C66" s="63" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D66" s="43" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64">
@@ -4597,13 +4607,13 @@
       <c r="I66" s="65"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="102"/>
-      <c r="B67" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C67" s="63"/>
+      <c r="A67" s="108"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="63" t="s">
+        <v>107</v>
+      </c>
       <c r="D67" s="43" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E67" s="63"/>
       <c r="F67" s="64">
@@ -4618,19 +4628,17 @@
       <c r="I67" s="65"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="102"/>
-      <c r="B68" s="107" t="s">
-        <v>142</v>
-      </c>
-      <c r="C68" s="63" t="s">
-        <v>109</v>
-      </c>
+      <c r="A68" s="108"/>
+      <c r="B68" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="63"/>
       <c r="D68" s="43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E68" s="63"/>
       <c r="F68" s="64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G68" s="67">
         <v>42079</v>
@@ -4641,17 +4649,19 @@
       <c r="I68" s="65"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="102"/>
-      <c r="B69" s="108"/>
+      <c r="A69" s="108"/>
+      <c r="B69" s="104" t="s">
+        <v>142</v>
+      </c>
       <c r="C69" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="D69" s="63" t="s">
-        <v>101</v>
+        <v>109</v>
+      </c>
+      <c r="D69" s="43" t="s">
+        <v>110</v>
       </c>
       <c r="E69" s="63"/>
       <c r="F69" s="64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G69" s="67">
         <v>42079</v>
@@ -4662,17 +4672,17 @@
       <c r="I69" s="65"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="102"/>
-      <c r="B70" s="108"/>
+      <c r="A70" s="108"/>
+      <c r="B70" s="105"/>
       <c r="C70" s="63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D70" s="63" t="s">
         <v>101</v>
       </c>
       <c r="E70" s="63"/>
       <c r="F70" s="64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G70" s="67">
         <v>42079</v>
@@ -4683,10 +4693,10 @@
       <c r="I70" s="65"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="102"/>
-      <c r="B71" s="120"/>
+      <c r="A71" s="108"/>
+      <c r="B71" s="105"/>
       <c r="C71" s="63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D71" s="63" t="s">
         <v>101</v>
@@ -4701,57 +4711,59 @@
       <c r="H71" s="45">
         <v>42083</v>
       </c>
-      <c r="I71" s="71"/>
+      <c r="I71" s="65"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="102"/>
-      <c r="B72" s="42" t="s">
+      <c r="A72" s="108"/>
+      <c r="B72" s="114"/>
+      <c r="C72" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D72" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="E72" s="63"/>
+      <c r="F72" s="64">
+        <v>3</v>
+      </c>
+      <c r="G72" s="67">
+        <v>42079</v>
+      </c>
+      <c r="H72" s="45">
+        <v>42083</v>
+      </c>
+      <c r="I72" s="71"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="108"/>
+      <c r="B73" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C72" s="42"/>
-      <c r="D72" s="75" t="s">
+      <c r="C73" s="42"/>
+      <c r="D73" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="E72" s="75" t="s">
+      <c r="E73" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="F72" s="64"/>
-      <c r="G72" s="67">
-        <v>42082</v>
-      </c>
-      <c r="H72" s="45">
-        <v>42088</v>
-      </c>
-      <c r="I72" s="71" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A73" s="103"/>
-      <c r="B73" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="C73" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="D73" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="E73" s="75"/>
       <c r="F73" s="64"/>
       <c r="G73" s="67">
-        <v>42086</v>
+        <v>42082</v>
       </c>
       <c r="H73" s="45">
-        <v>42086</v>
-      </c>
-      <c r="I73" s="71"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="91"/>
-      <c r="B74" s="108"/>
+        <v>42088</v>
+      </c>
+      <c r="I73" s="71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A74" s="109"/>
+      <c r="B74" s="104" t="s">
+        <v>145</v>
+      </c>
       <c r="C74" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D74" s="75" t="s">
         <v>99</v>
@@ -4767,10 +4779,10 @@
       <c r="I74" s="71"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="92"/>
-      <c r="B75" s="108"/>
+      <c r="A75" s="91"/>
+      <c r="B75" s="105"/>
       <c r="C75" s="42" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D75" s="75" t="s">
         <v>99</v>
@@ -4787,12 +4799,12 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="92"/>
-      <c r="B76" s="108"/>
+      <c r="B76" s="105"/>
       <c r="C76" s="42" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D76" s="75" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="E76" s="75"/>
       <c r="F76" s="64"/>
@@ -4806,9 +4818,9 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="92"/>
-      <c r="B77" s="108"/>
+      <c r="B77" s="105"/>
       <c r="C77" s="42" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D77" s="75" t="s">
         <v>154</v>
@@ -4823,51 +4835,51 @@
       </c>
       <c r="I77" s="71"/>
     </row>
-    <row r="78" spans="1:9" ht="13.8" thickBot="1">
+    <row r="78" spans="1:9">
       <c r="A78" s="92"/>
-      <c r="B78" s="109"/>
-      <c r="C78" s="76" t="s">
+      <c r="B78" s="105"/>
+      <c r="C78" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D78" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="E78" s="75"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="67">
+        <v>42086</v>
+      </c>
+      <c r="H78" s="45">
+        <v>42086</v>
+      </c>
+      <c r="I78" s="71"/>
+    </row>
+    <row r="79" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A79" s="92"/>
+      <c r="B79" s="106"/>
+      <c r="C79" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="D78" s="76" t="s">
+      <c r="D79" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="E78" s="76"/>
-      <c r="F78" s="77"/>
-      <c r="G78" s="78">
+      <c r="E79" s="76"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="78">
         <v>42086</v>
       </c>
-      <c r="H78" s="78">
+      <c r="H79" s="78">
         <v>42086</v>
       </c>
-      <c r="I78" s="79"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="92"/>
-      <c r="B79" s="113" t="s">
-        <v>163</v>
-      </c>
-      <c r="C79" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="D79" s="89" t="s">
-        <v>158</v>
-      </c>
-      <c r="E79" s="89"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="67">
-        <v>42087</v>
-      </c>
-      <c r="H79" s="67">
-        <v>42087</v>
-      </c>
-      <c r="I79" s="71"/>
+      <c r="I79" s="79"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="92"/>
-      <c r="B80" s="114"/>
+      <c r="B80" s="101" t="s">
+        <v>163</v>
+      </c>
       <c r="C80" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D80" s="89" t="s">
         <v>158</v>
@@ -4884,9 +4896,9 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="92"/>
-      <c r="B81" s="114"/>
+      <c r="B81" s="102"/>
       <c r="C81" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D81" s="89" t="s">
         <v>158</v>
@@ -4903,12 +4915,12 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="92"/>
-      <c r="B82" s="114"/>
+      <c r="B82" s="102"/>
       <c r="C82" s="42" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D82" s="89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E82" s="89"/>
       <c r="F82" s="64"/>
@@ -4922,9 +4934,9 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="92"/>
-      <c r="B83" s="114"/>
+      <c r="B83" s="102"/>
       <c r="C83" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D83" s="89" t="s">
         <v>159</v>
@@ -4939,51 +4951,51 @@
       </c>
       <c r="I83" s="71"/>
     </row>
-    <row r="84" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A84" s="93"/>
-      <c r="B84" s="115"/>
-      <c r="C84" s="76" t="s">
-        <v>162</v>
-      </c>
-      <c r="D84" s="76" t="s">
+    <row r="84" spans="1:9">
+      <c r="A84" s="92"/>
+      <c r="B84" s="102"/>
+      <c r="C84" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D84" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="E84" s="76"/>
-      <c r="F84" s="77"/>
+      <c r="E84" s="89"/>
+      <c r="F84" s="64"/>
       <c r="G84" s="67">
         <v>42087</v>
       </c>
       <c r="H84" s="67">
         <v>42087</v>
       </c>
-      <c r="I84" s="79"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="92"/>
-      <c r="B85" s="113" t="s">
-        <v>172</v>
-      </c>
-      <c r="C85" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="D85" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="E85" s="95"/>
-      <c r="F85" s="64"/>
+      <c r="I84" s="71"/>
+    </row>
+    <row r="85" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A85" s="93"/>
+      <c r="B85" s="103"/>
+      <c r="C85" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="D85" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="E85" s="76"/>
+      <c r="F85" s="77"/>
       <c r="G85" s="67">
-        <v>42088</v>
+        <v>42087</v>
       </c>
       <c r="H85" s="67">
-        <v>42088</v>
-      </c>
-      <c r="I85" s="71"/>
+        <v>42087</v>
+      </c>
+      <c r="I85" s="79"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="92"/>
-      <c r="B86" s="114"/>
+      <c r="B86" s="101" t="s">
+        <v>172</v>
+      </c>
       <c r="C86" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D86" s="95" t="s">
         <v>153</v>
@@ -5000,9 +5012,9 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="92"/>
-      <c r="B87" s="114"/>
+      <c r="B87" s="102"/>
       <c r="C87" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D87" s="95" t="s">
         <v>153</v>
@@ -5019,12 +5031,12 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="92"/>
-      <c r="B88" s="114"/>
+      <c r="B88" s="102"/>
       <c r="C88" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D88" s="95" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E88" s="95"/>
       <c r="F88" s="64"/>
@@ -5038,9 +5050,9 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="92"/>
-      <c r="B89" s="114"/>
+      <c r="B89" s="102"/>
       <c r="C89" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D89" s="95" t="s">
         <v>159</v>
@@ -5055,51 +5067,51 @@
       </c>
       <c r="I89" s="71"/>
     </row>
-    <row r="90" spans="1:9" ht="51" thickBot="1">
-      <c r="A90" s="93"/>
-      <c r="B90" s="115"/>
-      <c r="C90" s="99" t="s">
-        <v>178</v>
-      </c>
-      <c r="D90" s="76" t="s">
+    <row r="90" spans="1:9">
+      <c r="A90" s="92"/>
+      <c r="B90" s="102"/>
+      <c r="C90" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D90" s="95" t="s">
         <v>159</v>
       </c>
-      <c r="E90" s="76"/>
-      <c r="F90" s="77"/>
+      <c r="E90" s="95"/>
+      <c r="F90" s="64"/>
       <c r="G90" s="67">
         <v>42088</v>
       </c>
       <c r="H90" s="67">
         <v>42088</v>
       </c>
-      <c r="I90" s="79"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="92"/>
-      <c r="B91" s="113" t="s">
-        <v>181</v>
-      </c>
-      <c r="C91" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="D91" s="100" t="s">
-        <v>153</v>
-      </c>
-      <c r="E91" s="100"/>
-      <c r="F91" s="64"/>
+      <c r="I90" s="71"/>
+    </row>
+    <row r="91" spans="1:9" ht="50.25" thickBot="1">
+      <c r="A91" s="93"/>
+      <c r="B91" s="103"/>
+      <c r="C91" s="99" t="s">
+        <v>178</v>
+      </c>
+      <c r="D91" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="E91" s="76"/>
+      <c r="F91" s="77"/>
       <c r="G91" s="67">
-        <v>42089</v>
+        <v>42088</v>
       </c>
       <c r="H91" s="67">
-        <v>42089</v>
-      </c>
-      <c r="I91" s="71"/>
+        <v>42088</v>
+      </c>
+      <c r="I91" s="79"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="92"/>
-      <c r="B92" s="114"/>
+      <c r="B92" s="101" t="s">
+        <v>181</v>
+      </c>
       <c r="C92" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D92" s="100" t="s">
         <v>153</v>
@@ -5116,9 +5128,9 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="92"/>
-      <c r="B93" s="114"/>
+      <c r="B93" s="102"/>
       <c r="C93" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D93" s="100" t="s">
         <v>153</v>
@@ -5135,12 +5147,12 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="92"/>
-      <c r="B94" s="114"/>
+      <c r="B94" s="102"/>
       <c r="C94" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D94" s="100" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E94" s="100"/>
       <c r="F94" s="64"/>
@@ -5154,9 +5166,9 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="92"/>
-      <c r="B95" s="114"/>
+      <c r="B95" s="102"/>
       <c r="C95" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D95" s="100" t="s">
         <v>159</v>
@@ -5171,46 +5183,65 @@
       </c>
       <c r="I95" s="71"/>
     </row>
-    <row r="96" spans="1:9" ht="16.8" customHeight="1" thickBot="1">
-      <c r="A96" s="93"/>
-      <c r="B96" s="115"/>
-      <c r="C96" s="99" t="s">
-        <v>187</v>
-      </c>
-      <c r="D96" s="76" t="s">
+    <row r="96" spans="1:9">
+      <c r="A96" s="92"/>
+      <c r="B96" s="102"/>
+      <c r="C96" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="D96" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="E96" s="76"/>
-      <c r="F96" s="77"/>
+      <c r="E96" s="100"/>
+      <c r="F96" s="64"/>
       <c r="G96" s="67">
         <v>42089</v>
       </c>
       <c r="H96" s="67">
         <v>42089</v>
       </c>
-      <c r="I96" s="79"/>
+      <c r="I96" s="71"/>
+    </row>
+    <row r="97" spans="1:9" ht="16.899999999999999" customHeight="1" thickBot="1">
+      <c r="A97" s="93"/>
+      <c r="B97" s="103"/>
+      <c r="C97" s="99" t="s">
+        <v>187</v>
+      </c>
+      <c r="D97" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="E97" s="76"/>
+      <c r="F97" s="77"/>
+      <c r="G97" s="67">
+        <v>42089</v>
+      </c>
+      <c r="H97" s="67">
+        <v>42089</v>
+      </c>
+      <c r="I97" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="B73:B78"/>
-    <mergeCell ref="B85:B90"/>
-    <mergeCell ref="A26:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="A44:A57"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="B51:B57"/>
-    <mergeCell ref="A61:A73"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B68:B71"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A9:A22"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B22"/>
     <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A26:A41"/>
+    <mergeCell ref="B92:B97"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="B86:B91"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="A45:A58"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="A62:A74"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B38:B41"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5219,29 +5250,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D58" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C73" sqref="C73"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="64.88671875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" style="23" customWidth="1"/>
-    <col min="5" max="18" width="4.44140625" style="23" customWidth="1"/>
-    <col min="19" max="19" width="2.88671875" style="23" customWidth="1"/>
-    <col min="20" max="20" width="7.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="23"/>
+    <col min="1" max="1" width="8.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.85546875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="23" customWidth="1"/>
+    <col min="5" max="18" width="4.42578125" style="23" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" style="23" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.6">
+    <row r="1" spans="1:20" ht="15.75">
       <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
@@ -5328,7 +5359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="13.8" thickBot="1">
+    <row r="9" spans="1:20" ht="13.5" thickBot="1">
       <c r="B9" s="20" t="s">
         <v>10</v>
       </c>
@@ -5336,7 +5367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" ht="25.5">
       <c r="B10" s="87">
         <v>1</v>
       </c>
@@ -5959,7 +5990,7 @@
       <c r="H33" s="84"/>
       <c r="I33" s="84"/>
       <c r="J33" s="84"/>
-      <c r="K33" s="84">
+      <c r="K33" s="82">
         <v>3</v>
       </c>
       <c r="L33" s="84"/>
@@ -5985,10 +6016,10 @@
       <c r="H34" s="84"/>
       <c r="I34" s="84"/>
       <c r="J34" s="84"/>
-      <c r="K34" s="84">
+      <c r="K34" s="82">
         <v>8</v>
       </c>
-      <c r="L34" s="84">
+      <c r="L34" s="82">
         <v>8</v>
       </c>
       <c r="M34" s="84"/>
@@ -6017,7 +6048,7 @@
       <c r="I35" s="84"/>
       <c r="J35" s="84"/>
       <c r="K35" s="84"/>
-      <c r="L35" s="84">
+      <c r="L35" s="82">
         <v>3</v>
       </c>
       <c r="M35" s="84"/>
@@ -6031,73 +6062,67 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
-      <c r="A37" s="24" t="s">
+    <row r="36" spans="1:20" s="80" customFormat="1">
+      <c r="B36" s="83">
+        <v>12</v>
+      </c>
+      <c r="C36" s="84" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="82">
+        <v>11</v>
+      </c>
+      <c r="N36" s="84"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="84"/>
+      <c r="R36" s="84"/>
+      <c r="T36" s="81">
+        <f t="shared" ref="T36" si="3">SUM(E36:R36)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
-      <c r="B38" s="20" t="s">
+    <row r="39" spans="1:20">
+      <c r="B39" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="B39" s="21">
-        <v>1</v>
-      </c>
-      <c r="C39" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="19">
-        <v>5</v>
-      </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="82">
-        <v>2</v>
-      </c>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="T39" s="3">
-        <f>SUM(E39:R39)</f>
-        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="B40" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" s="70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
-      <c r="I40" s="22">
-        <v>4</v>
-      </c>
+      <c r="I40" s="25"/>
       <c r="J40" s="25"/>
-      <c r="K40" s="82">
-        <v>5</v>
-      </c>
+      <c r="K40" s="25"/>
       <c r="L40" s="82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40" s="25"/>
       <c r="N40" s="25"/>
@@ -6106,26 +6131,34 @@
       <c r="Q40" s="25"/>
       <c r="R40" s="25"/>
       <c r="T40" s="3">
-        <f t="shared" ref="T40:T43" si="3">SUM(E40:R40)</f>
-        <v>13</v>
+        <f>SUM(E40:R40)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:20">
       <c r="B41" s="21">
+        <v>2</v>
+      </c>
+      <c r="C41" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="25"/>
+      <c r="E41" s="19">
         <v>3</v>
       </c>
-      <c r="C41" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
+      <c r="I41" s="22">
+        <v>4</v>
+      </c>
       <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
+      <c r="K41" s="82">
+        <v>5</v>
+      </c>
+      <c r="L41" s="82">
+        <v>1</v>
+      </c>
       <c r="M41" s="25"/>
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
@@ -6133,33 +6166,26 @@
       <c r="Q41" s="25"/>
       <c r="R41" s="25"/>
       <c r="T41" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="T41:T44" si="4">SUM(E41:R41)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:20">
-      <c r="B42" s="87">
-        <v>4</v>
-      </c>
-      <c r="C42" s="88" t="s">
-        <v>115</v>
+      <c r="B42" s="21">
+        <v>3</v>
+      </c>
+      <c r="C42" s="63" t="s">
+        <v>91</v>
       </c>
       <c r="D42" s="25"/>
-      <c r="F42" s="19">
-        <v>8</v>
-      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
-      <c r="J42" s="82">
-        <v>8</v>
-      </c>
-      <c r="K42" s="82">
-        <v>1</v>
-      </c>
-      <c r="L42" s="82">
-        <v>5</v>
-      </c>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
       <c r="M42" s="25"/>
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
@@ -6167,30 +6193,33 @@
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
       <c r="T42" s="3">
-        <f>SUM(E42:R42)</f>
-        <v>22</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:20">
-      <c r="B43" s="21">
-        <v>5</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>116</v>
+      <c r="B43" s="87">
+        <v>4</v>
+      </c>
+      <c r="C43" s="88" t="s">
+        <v>115</v>
       </c>
       <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="19">
+      <c r="F43" s="19">
         <v>8</v>
       </c>
+      <c r="G43" s="25"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
+      <c r="J43" s="82">
+        <v>8</v>
+      </c>
       <c r="K43" s="82">
         <v>1</v>
       </c>
-      <c r="L43" s="25"/>
+      <c r="L43" s="82">
+        <v>5</v>
+      </c>
       <c r="M43" s="25"/>
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
@@ -6198,45 +6227,47 @@
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
       <c r="T43" s="3">
-        <f t="shared" si="3"/>
+        <f>SUM(E43:R43)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="B44" s="21">
+        <v>5</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="19">
+        <v>8</v>
+      </c>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="82">
+        <v>1</v>
+      </c>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="T44" s="3">
+        <f t="shared" si="4"/>
         <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" s="80" customFormat="1">
-      <c r="B44" s="83">
-        <v>6</v>
-      </c>
-      <c r="C44" s="84" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="84"/>
-      <c r="K44" s="84"/>
-      <c r="L44" s="82">
-        <v>1</v>
-      </c>
-      <c r="M44" s="84"/>
-      <c r="N44" s="84"/>
-      <c r="O44" s="84"/>
-      <c r="P44" s="84"/>
-      <c r="Q44" s="84"/>
-      <c r="R44" s="84"/>
-      <c r="T44" s="81">
-        <f t="shared" ref="T44" si="4">SUM(E44:R44)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="80" customFormat="1">
       <c r="B45" s="83">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" s="84" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="D45" s="84"/>
       <c r="E45" s="84"/>
@@ -6245,9 +6276,7 @@
       <c r="H45" s="84"/>
       <c r="I45" s="84"/>
       <c r="J45" s="84"/>
-      <c r="K45" s="82">
-        <v>3</v>
-      </c>
+      <c r="K45" s="84"/>
       <c r="L45" s="82">
         <v>1</v>
       </c>
@@ -6259,85 +6288,87 @@
       <c r="R45" s="84"/>
       <c r="T45" s="81">
         <f t="shared" ref="T45" si="5">SUM(E45:R45)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" s="80" customFormat="1">
+      <c r="B46" s="83">
+        <v>7</v>
+      </c>
+      <c r="C46" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="84"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="82">
+        <v>3</v>
+      </c>
+      <c r="L46" s="82">
+        <v>1</v>
+      </c>
+      <c r="M46" s="84"/>
+      <c r="N46" s="84"/>
+      <c r="O46" s="84"/>
+      <c r="P46" s="84"/>
+      <c r="Q46" s="84"/>
+      <c r="R46" s="84"/>
+      <c r="T46" s="81">
+        <f t="shared" ref="T46" si="6">SUM(E46:R46)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="80" customFormat="1">
-      <c r="B46" s="27"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="T46" s="28"/>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="A47" s="24" t="s">
+    <row r="47" spans="1:20" s="80" customFormat="1">
+      <c r="B47" s="27"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="T47" s="28"/>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
-      <c r="B48" s="20" t="s">
+    <row r="49" spans="2:20">
+      <c r="B49" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="2:20">
-      <c r="B49" s="21">
+    <row r="50" spans="2:20">
+      <c r="B50" s="21">
         <v>1</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C50" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="19">
+      <c r="D50" s="25"/>
+      <c r="E50" s="19">
         <v>8</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F50" s="19">
         <v>8</v>
       </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="25"/>
-      <c r="T49" s="3">
-        <f>SUM(E49:R49)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="2:20">
-      <c r="B50" s="83">
-        <v>2</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="19">
-        <v>8</v>
-      </c>
+      <c r="G50" s="25"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
@@ -6350,55 +6381,55 @@
       <c r="Q50" s="25"/>
       <c r="R50" s="25"/>
       <c r="T50" s="3">
-        <f t="shared" ref="T50:T56" si="6">SUM(E50:R50)</f>
+        <f>SUM(E50:R50)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20">
+      <c r="B51" s="83">
+        <v>2</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="19">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="2:20" s="80" customFormat="1">
-      <c r="B51" s="83">
-        <v>3</v>
-      </c>
-      <c r="C51" s="84" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="82">
-        <v>8</v>
-      </c>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="84"/>
-      <c r="Q51" s="84"/>
-      <c r="R51" s="84"/>
-      <c r="T51" s="81">
-        <f t="shared" ref="T51:T52" si="7">SUM(E51:R51)</f>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="T51" s="3">
+        <f t="shared" ref="T51:T57" si="7">SUM(E51:R51)</f>
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="2:20" s="80" customFormat="1">
       <c r="B52" s="83">
-        <v>4</v>
-      </c>
-      <c r="C52" s="74">
-        <v>6.1</v>
+        <v>3</v>
+      </c>
+      <c r="C52" s="84" t="s">
+        <v>144</v>
       </c>
       <c r="D52" s="84"/>
       <c r="E52" s="84"/>
       <c r="F52" s="84"/>
       <c r="G52" s="84"/>
       <c r="H52" s="84"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="82">
-        <v>2</v>
-      </c>
+      <c r="I52" s="82">
+        <v>8</v>
+      </c>
+      <c r="J52" s="84"/>
       <c r="K52" s="84"/>
       <c r="L52" s="84"/>
       <c r="M52" s="84"/>
@@ -6408,13 +6439,13 @@
       <c r="Q52" s="84"/>
       <c r="R52" s="84"/>
       <c r="T52" s="81">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" ref="T52:T53" si="8">SUM(E52:R52)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="2:20" s="80" customFormat="1">
       <c r="B53" s="83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53" s="74">
         <v>6.1</v>
@@ -6437,71 +6468,71 @@
       <c r="Q53" s="84"/>
       <c r="R53" s="84"/>
       <c r="T53" s="81">
-        <f t="shared" ref="T53" si="8">SUM(E53:R53)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:20">
+    <row r="54" spans="2:20" s="80" customFormat="1">
       <c r="B54" s="83">
+        <v>5</v>
+      </c>
+      <c r="C54" s="74">
+        <v>6.1</v>
+      </c>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="82">
+        <v>2</v>
+      </c>
+      <c r="K54" s="84"/>
+      <c r="L54" s="84"/>
+      <c r="M54" s="84"/>
+      <c r="N54" s="84"/>
+      <c r="O54" s="84"/>
+      <c r="P54" s="84"/>
+      <c r="Q54" s="84"/>
+      <c r="R54" s="84"/>
+      <c r="T54" s="81">
+        <f t="shared" ref="T54" si="9">SUM(E54:R54)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20">
+      <c r="B55" s="83">
         <v>6</v>
       </c>
-      <c r="C54" s="74">
+      <c r="C55" s="74">
         <v>6.3</v>
       </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="19">
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="19">
         <v>4</v>
       </c>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="25"/>
-      <c r="P54" s="25"/>
-      <c r="Q54" s="25"/>
-      <c r="R54" s="25"/>
-      <c r="T54" s="3">
-        <f t="shared" si="6"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25"/>
+      <c r="T55" s="3">
+        <f t="shared" si="7"/>
         <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="2:20" s="80" customFormat="1">
-      <c r="B55" s="83">
-        <v>7</v>
-      </c>
-      <c r="C55" s="74">
-        <v>7.1</v>
-      </c>
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="84"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="84"/>
-      <c r="K55" s="82">
-        <v>2</v>
-      </c>
-      <c r="L55" s="84"/>
-      <c r="M55" s="84"/>
-      <c r="N55" s="84"/>
-      <c r="O55" s="84"/>
-      <c r="P55" s="84"/>
-      <c r="Q55" s="84"/>
-      <c r="R55" s="84"/>
-      <c r="T55" s="81">
-        <f t="shared" si="6"/>
-        <v>2</v>
       </c>
     </row>
     <row r="56" spans="2:20" s="80" customFormat="1">
       <c r="B56" s="83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" s="74">
         <v>7.1</v>
@@ -6514,7 +6545,7 @@
       <c r="I56" s="84"/>
       <c r="J56" s="84"/>
       <c r="K56" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L56" s="84"/>
       <c r="M56" s="84"/>
@@ -6524,16 +6555,16 @@
       <c r="Q56" s="84"/>
       <c r="R56" s="84"/>
       <c r="T56" s="81">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="2:20" s="80" customFormat="1">
       <c r="B57" s="83">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C57" s="74">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="D57" s="84"/>
       <c r="E57" s="84"/>
@@ -6543,7 +6574,7 @@
       <c r="I57" s="84"/>
       <c r="J57" s="84"/>
       <c r="K57" s="82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L57" s="84"/>
       <c r="M57" s="84"/>
@@ -6553,16 +6584,16 @@
       <c r="Q57" s="84"/>
       <c r="R57" s="84"/>
       <c r="T57" s="81">
-        <f t="shared" ref="T57:T59" si="9">SUM(E57:R57)</f>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="2:20" s="80" customFormat="1">
       <c r="B58" s="83">
-        <v>10</v>
-      </c>
-      <c r="C58" s="42" t="s">
-        <v>173</v>
+        <v>9</v>
+      </c>
+      <c r="C58" s="74">
+        <v>7.3</v>
       </c>
       <c r="D58" s="84"/>
       <c r="E58" s="84"/>
@@ -6571,10 +6602,10 @@
       <c r="H58" s="84"/>
       <c r="I58" s="84"/>
       <c r="J58" s="84"/>
-      <c r="K58" s="84"/>
-      <c r="L58" s="82">
-        <v>2</v>
-      </c>
+      <c r="K58" s="82">
+        <v>5</v>
+      </c>
+      <c r="L58" s="84"/>
       <c r="M58" s="84"/>
       <c r="N58" s="84"/>
       <c r="O58" s="84"/>
@@ -6582,16 +6613,16 @@
       <c r="Q58" s="84"/>
       <c r="R58" s="84"/>
       <c r="T58" s="81">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" ref="T58:T60" si="10">SUM(E58:R58)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="2:20" s="80" customFormat="1">
       <c r="B59" s="83">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C59" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="84"/>
       <c r="E59" s="84"/>
@@ -6602,7 +6633,7 @@
       <c r="J59" s="84"/>
       <c r="K59" s="84"/>
       <c r="L59" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M59" s="84"/>
       <c r="N59" s="84"/>
@@ -6611,16 +6642,16 @@
       <c r="Q59" s="84"/>
       <c r="R59" s="84"/>
       <c r="T59" s="81">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="2:20" s="80" customFormat="1">
       <c r="B60" s="83">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="84"/>
       <c r="E60" s="84"/>
@@ -6631,7 +6662,7 @@
       <c r="J60" s="84"/>
       <c r="K60" s="84"/>
       <c r="L60" s="82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M60" s="84"/>
       <c r="N60" s="84"/>
@@ -6640,16 +6671,16 @@
       <c r="Q60" s="84"/>
       <c r="R60" s="84"/>
       <c r="T60" s="81">
-        <f t="shared" ref="T60:T62" si="10">SUM(E60:R60)</f>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="2:20" s="80" customFormat="1">
       <c r="B61" s="83">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C61" s="42" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D61" s="84"/>
       <c r="E61" s="84"/>
@@ -6659,26 +6690,26 @@
       <c r="I61" s="84"/>
       <c r="J61" s="84"/>
       <c r="K61" s="84"/>
-      <c r="L61" s="84"/>
-      <c r="M61" s="82">
-        <v>2</v>
-      </c>
+      <c r="L61" s="82">
+        <v>5</v>
+      </c>
+      <c r="M61" s="84"/>
       <c r="N61" s="84"/>
       <c r="O61" s="84"/>
       <c r="P61" s="84"/>
       <c r="Q61" s="84"/>
       <c r="R61" s="84"/>
       <c r="T61" s="81">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" ref="T61:T63" si="11">SUM(E61:R61)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="2:20" s="80" customFormat="1">
       <c r="B62" s="83">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C62" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="84"/>
       <c r="E62" s="84"/>
@@ -6690,7 +6721,7 @@
       <c r="K62" s="84"/>
       <c r="L62" s="84"/>
       <c r="M62" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N62" s="84"/>
       <c r="O62" s="84"/>
@@ -6698,16 +6729,16 @@
       <c r="Q62" s="84"/>
       <c r="R62" s="84"/>
       <c r="T62" s="81">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="2:20" s="80" customFormat="1">
       <c r="B63" s="83">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="84"/>
       <c r="E63" s="84"/>
@@ -6719,7 +6750,7 @@
       <c r="K63" s="84"/>
       <c r="L63" s="84"/>
       <c r="M63" s="82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N63" s="84"/>
       <c r="O63" s="84"/>
@@ -6727,70 +6758,70 @@
       <c r="Q63" s="84"/>
       <c r="R63" s="84"/>
       <c r="T63" s="81">
-        <f t="shared" ref="T63" si="11">SUM(E63:R63)</f>
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" s="80" customFormat="1">
+      <c r="B64" s="83">
+        <v>15</v>
+      </c>
+      <c r="C64" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="84"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="84"/>
+      <c r="J64" s="84"/>
+      <c r="K64" s="84"/>
+      <c r="L64" s="84"/>
+      <c r="M64" s="82">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:20">
-      <c r="A65" s="24" t="s">
+      <c r="N64" s="84"/>
+      <c r="O64" s="84"/>
+      <c r="P64" s="84"/>
+      <c r="Q64" s="84"/>
+      <c r="R64" s="84"/>
+      <c r="T64" s="81">
+        <f t="shared" ref="T64" si="12">SUM(E64:R64)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
-      <c r="B66" s="20" t="s">
+    <row r="67" spans="1:20">
+      <c r="B67" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
-      <c r="B67" s="21">
+    <row r="68" spans="1:20">
+      <c r="B68" s="21">
         <v>1</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C68" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="19">
+      <c r="D68" s="25"/>
+      <c r="E68" s="19">
         <v>8</v>
       </c>
-      <c r="F67" s="19">
+      <c r="F68" s="19">
         <v>8</v>
       </c>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="25"/>
-      <c r="P67" s="25"/>
-      <c r="Q67" s="25"/>
-      <c r="R67" s="25"/>
-      <c r="T67" s="3">
-        <f t="shared" ref="T67:T71" si="12">SUM(E67:R67)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20">
-      <c r="B68" s="83">
-        <v>2</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="19">
-        <v>8</v>
-      </c>
+      <c r="G68" s="25"/>
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
-      <c r="J68" s="84"/>
+      <c r="J68" s="25"/>
       <c r="K68" s="25"/>
       <c r="L68" s="25"/>
       <c r="M68" s="25"/>
@@ -6800,42 +6831,45 @@
       <c r="Q68" s="25"/>
       <c r="R68" s="25"/>
       <c r="T68" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="T68:T72" si="13">SUM(E68:R68)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="B69" s="83">
+        <v>2</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="19">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" s="80" customFormat="1">
-      <c r="B69" s="83">
-        <v>3</v>
-      </c>
-      <c r="C69" s="74">
-        <v>6.4</v>
-      </c>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="84"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="84"/>
-      <c r="J69" s="82">
-        <v>2</v>
-      </c>
-      <c r="K69" s="84"/>
-      <c r="L69" s="84"/>
-      <c r="M69" s="84"/>
-      <c r="N69" s="84"/>
-      <c r="O69" s="84"/>
-      <c r="P69" s="84"/>
-      <c r="Q69" s="84"/>
-      <c r="R69" s="84"/>
-      <c r="T69" s="81"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="84"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="25"/>
+      <c r="T69" s="3">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="70" spans="1:20" s="80" customFormat="1">
       <c r="B70" s="83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C70" s="74">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D70" s="84"/>
       <c r="E70" s="84"/>
@@ -6844,7 +6878,7 @@
       <c r="H70" s="84"/>
       <c r="I70" s="84"/>
       <c r="J70" s="82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K70" s="84"/>
       <c r="L70" s="84"/>
@@ -6856,67 +6890,67 @@
       <c r="R70" s="84"/>
       <c r="T70" s="81"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" s="80" customFormat="1">
       <c r="B71" s="83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C71" s="74">
-        <v>6.6</v>
-      </c>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
+        <v>6.5</v>
+      </c>
+      <c r="D71" s="84"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="84"/>
+      <c r="H71" s="84"/>
+      <c r="I71" s="84"/>
       <c r="J71" s="82">
         <v>3</v>
       </c>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
-      <c r="M71" s="25"/>
-      <c r="N71" s="25"/>
-      <c r="O71" s="25"/>
-      <c r="P71" s="25"/>
-      <c r="Q71" s="25"/>
-      <c r="R71" s="25"/>
-      <c r="T71" s="3">
-        <f t="shared" si="12"/>
+      <c r="K71" s="84"/>
+      <c r="L71" s="84"/>
+      <c r="M71" s="84"/>
+      <c r="N71" s="84"/>
+      <c r="O71" s="84"/>
+      <c r="P71" s="84"/>
+      <c r="Q71" s="84"/>
+      <c r="R71" s="84"/>
+      <c r="T71" s="81"/>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="B72" s="83">
+        <v>5</v>
+      </c>
+      <c r="C72" s="74">
+        <v>6.6</v>
+      </c>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="82">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" s="80" customFormat="1">
-      <c r="B72" s="83">
-        <v>6</v>
-      </c>
-      <c r="C72" s="74">
-        <v>7.4</v>
-      </c>
-      <c r="D72" s="84"/>
-      <c r="E72" s="84"/>
-      <c r="F72" s="84"/>
-      <c r="G72" s="84"/>
-      <c r="H72" s="84"/>
-      <c r="I72" s="84"/>
-      <c r="J72" s="84"/>
-      <c r="K72" s="82">
-        <v>2</v>
-      </c>
-      <c r="L72" s="84"/>
-      <c r="M72" s="84"/>
-      <c r="N72" s="84"/>
-      <c r="O72" s="84"/>
-      <c r="P72" s="84"/>
-      <c r="Q72" s="84"/>
-      <c r="R72" s="84"/>
-      <c r="T72" s="81"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="25"/>
+      <c r="R72" s="25"/>
+      <c r="T72" s="3">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="73" spans="1:20" s="80" customFormat="1">
       <c r="B73" s="83">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" s="74">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="D73" s="84"/>
       <c r="E73" s="84"/>
@@ -6926,7 +6960,7 @@
       <c r="I73" s="84"/>
       <c r="J73" s="84"/>
       <c r="K73" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L73" s="84"/>
       <c r="M73" s="84"/>
@@ -6939,10 +6973,10 @@
     </row>
     <row r="74" spans="1:20" s="80" customFormat="1">
       <c r="B74" s="83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C74" s="74">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="D74" s="84"/>
       <c r="E74" s="84"/>
@@ -6952,7 +6986,7 @@
       <c r="I74" s="84"/>
       <c r="J74" s="84"/>
       <c r="K74" s="82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L74" s="84"/>
       <c r="M74" s="84"/>
@@ -6961,17 +6995,14 @@
       <c r="P74" s="84"/>
       <c r="Q74" s="84"/>
       <c r="R74" s="84"/>
-      <c r="T74" s="81">
-        <f t="shared" ref="T74" si="13">SUM(E74:R74)</f>
-        <v>5</v>
-      </c>
+      <c r="T74" s="81"/>
     </row>
     <row r="75" spans="1:20" s="80" customFormat="1">
       <c r="B75" s="83">
-        <v>9</v>
-      </c>
-      <c r="C75" s="42" t="s">
-        <v>176</v>
+        <v>8</v>
+      </c>
+      <c r="C75" s="74">
+        <v>7.6</v>
       </c>
       <c r="D75" s="84"/>
       <c r="E75" s="84"/>
@@ -6980,24 +7011,27 @@
       <c r="H75" s="84"/>
       <c r="I75" s="84"/>
       <c r="J75" s="84"/>
-      <c r="K75" s="84"/>
-      <c r="L75" s="82">
-        <v>2</v>
-      </c>
+      <c r="K75" s="82">
+        <v>5</v>
+      </c>
+      <c r="L75" s="84"/>
       <c r="M75" s="84"/>
       <c r="N75" s="84"/>
       <c r="O75" s="84"/>
       <c r="P75" s="84"/>
       <c r="Q75" s="84"/>
       <c r="R75" s="84"/>
-      <c r="T75" s="81"/>
+      <c r="T75" s="81">
+        <f t="shared" ref="T75" si="14">SUM(E75:R75)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="76" spans="1:20" s="80" customFormat="1">
       <c r="B76" s="83">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C76" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D76" s="84"/>
       <c r="E76" s="84"/>
@@ -7008,7 +7042,7 @@
       <c r="J76" s="84"/>
       <c r="K76" s="84"/>
       <c r="L76" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M76" s="84"/>
       <c r="N76" s="84"/>
@@ -7018,12 +7052,12 @@
       <c r="R76" s="84"/>
       <c r="T76" s="81"/>
     </row>
-    <row r="77" spans="1:20" s="80" customFormat="1" ht="13.8" thickBot="1">
+    <row r="77" spans="1:20" s="80" customFormat="1">
       <c r="B77" s="83">
-        <v>11</v>
-      </c>
-      <c r="C77" s="76" t="s">
-        <v>178</v>
+        <v>10</v>
+      </c>
+      <c r="C77" s="42" t="s">
+        <v>177</v>
       </c>
       <c r="D77" s="84"/>
       <c r="E77" s="84"/>
@@ -7034,7 +7068,7 @@
       <c r="J77" s="84"/>
       <c r="K77" s="84"/>
       <c r="L77" s="82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M77" s="84"/>
       <c r="N77" s="84"/>
@@ -7042,17 +7076,14 @@
       <c r="P77" s="84"/>
       <c r="Q77" s="84"/>
       <c r="R77" s="84"/>
-      <c r="T77" s="81">
-        <f t="shared" ref="T77" si="14">SUM(E77:R77)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" s="80" customFormat="1">
+      <c r="T77" s="81"/>
+    </row>
+    <row r="78" spans="1:20" s="80" customFormat="1" ht="13.5" thickBot="1">
       <c r="B78" s="83">
-        <v>12</v>
-      </c>
-      <c r="C78" s="42" t="s">
-        <v>185</v>
+        <v>11</v>
+      </c>
+      <c r="C78" s="76" t="s">
+        <v>178</v>
       </c>
       <c r="D78" s="84"/>
       <c r="E78" s="84"/>
@@ -7062,23 +7093,26 @@
       <c r="I78" s="84"/>
       <c r="J78" s="84"/>
       <c r="K78" s="84"/>
-      <c r="L78" s="84"/>
-      <c r="M78" s="82">
-        <v>2</v>
-      </c>
+      <c r="L78" s="82">
+        <v>5</v>
+      </c>
+      <c r="M78" s="84"/>
       <c r="N78" s="84"/>
       <c r="O78" s="84"/>
       <c r="P78" s="84"/>
       <c r="Q78" s="84"/>
       <c r="R78" s="84"/>
-      <c r="T78" s="81"/>
+      <c r="T78" s="81">
+        <f t="shared" ref="T78" si="15">SUM(E78:R78)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="79" spans="1:20" s="80" customFormat="1">
       <c r="B79" s="83">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C79" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D79" s="84"/>
       <c r="E79" s="84"/>
@@ -7090,7 +7124,7 @@
       <c r="K79" s="84"/>
       <c r="L79" s="84"/>
       <c r="M79" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N79" s="84"/>
       <c r="O79" s="84"/>
@@ -7099,12 +7133,12 @@
       <c r="R79" s="84"/>
       <c r="T79" s="81"/>
     </row>
-    <row r="80" spans="1:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
+    <row r="80" spans="1:20" s="80" customFormat="1">
       <c r="B80" s="83">
-        <v>14</v>
-      </c>
-      <c r="C80" s="99" t="s">
-        <v>187</v>
+        <v>13</v>
+      </c>
+      <c r="C80" s="42" t="s">
+        <v>186</v>
       </c>
       <c r="D80" s="84"/>
       <c r="E80" s="84"/>
@@ -7116,15 +7150,41 @@
       <c r="K80" s="84"/>
       <c r="L80" s="84"/>
       <c r="M80" s="82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N80" s="84"/>
       <c r="O80" s="84"/>
       <c r="P80" s="84"/>
       <c r="Q80" s="84"/>
       <c r="R80" s="84"/>
-      <c r="T80" s="81">
-        <f t="shared" ref="T80" si="15">SUM(E80:R80)</f>
+      <c r="T80" s="81"/>
+    </row>
+    <row r="81" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
+      <c r="B81" s="83">
+        <v>14</v>
+      </c>
+      <c r="C81" s="99" t="s">
+        <v>187</v>
+      </c>
+      <c r="D81" s="84"/>
+      <c r="E81" s="84"/>
+      <c r="F81" s="84"/>
+      <c r="G81" s="84"/>
+      <c r="H81" s="84"/>
+      <c r="I81" s="84"/>
+      <c r="J81" s="84"/>
+      <c r="K81" s="84"/>
+      <c r="L81" s="84"/>
+      <c r="M81" s="82">
+        <v>5</v>
+      </c>
+      <c r="N81" s="84"/>
+      <c r="O81" s="84"/>
+      <c r="P81" s="84"/>
+      <c r="Q81" s="84"/>
+      <c r="R81" s="84"/>
+      <c r="T81" s="81">
+        <f t="shared" ref="T81" si="16">SUM(E81:R81)</f>
         <v>5</v>
       </c>
     </row>

--- a/docs/Listing_Tool_Status_Report_v1.0.xlsx
+++ b/docs/Listing_Tool_Status_Report_v1.0.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="-360" windowWidth="16605" windowHeight="9435" activeTab="1"/>
+    <workbookView xWindow="5352" yWindow="-360" windowWidth="16608" windowHeight="9432" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="WBS" sheetId="5" r:id="rId2"/>
     <sheet name="March 2015" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="196">
   <si>
     <t>Project Name:</t>
   </si>
@@ -1868,14 +1868,303 @@
   </si>
   <si>
     <t>5.4 test to generate dynamic custome liberay for ads</t>
+  </si>
+  <si>
+    <t>10.继续研究google-api,集成功能测试,集成项目功能过程中                              and                                                  调整transaction页面样式，集成SSO模块项目;分装分页插件，提取page.jsp</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、继续研究</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>google-api,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广告组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以获得关键子的统计，其中创建默认广告组，自动加入一个关键字，目前没有研究出为什么加入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正在调研中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、集成功能测试，前端功能、后端功能集成测试通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、集成项目功能过程中，出现国际化错误信息，以及完全解决</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、分装分页插件，提取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>page.jsp</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、调整</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>transaction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面样式，集成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SSO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块项目</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、碰到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">页面样式问题，正在解决，不影响功能！
+</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1887,7 +2176,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1950,7 +2239,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2443,7 +2732,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2487,7 +2776,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2691,6 +2980,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2700,78 +3037,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="1"/>
     <cellStyle name="Normal 3 2" xfId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2787,7 +3079,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2861,6 +3153,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2895,6 +3188,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3070,22 +3364,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13.5" thickBot="1"/>
+    <row r="1" spans="2:10" ht="13.8" thickBot="1"/>
     <row r="2" spans="2:10">
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -3097,7 +3391,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="2:10" ht="33">
+    <row r="3" spans="2:10" ht="31.8">
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
         <v>0</v>
@@ -3337,7 +3631,7 @@
       <c r="I20" s="11"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="2:10" ht="13.5" thickBot="1">
+    <row r="21" spans="2:10" ht="13.8" thickBot="1">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -3356,25 +3650,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="39" style="52" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" style="53" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="68" customWidth="1"/>
-    <col min="7" max="8" width="11.5703125" style="52" customWidth="1"/>
-    <col min="9" max="9" width="38.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="33"/>
+    <col min="2" max="2" width="41.88671875" style="53" customWidth="1"/>
+    <col min="3" max="3" width="54.109375" style="52" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="52" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="68" customWidth="1"/>
+    <col min="7" max="8" width="11.5546875" style="52" customWidth="1"/>
+    <col min="9" max="9" width="38.44140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3406,7 +3700,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.5" thickBot="1">
+    <row r="2" spans="1:9" ht="13.8" thickBot="1">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="34"/>
@@ -3417,8 +3711,8 @@
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
     </row>
-    <row r="3" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A3" s="107" t="s">
+    <row r="3" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A3" s="102" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="37" t="s">
@@ -3438,8 +3732,8 @@
       </c>
       <c r="I3" s="41"/>
     </row>
-    <row r="4" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A4" s="108"/>
+    <row r="4" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A4" s="103"/>
       <c r="B4" s="42" t="s">
         <v>41</v>
       </c>
@@ -3457,8 +3751,8 @@
       </c>
       <c r="I4" s="46"/>
     </row>
-    <row r="5" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A5" s="109"/>
+    <row r="5" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A5" s="104"/>
       <c r="B5" s="47" t="s">
         <v>42</v>
       </c>
@@ -3474,7 +3768,7 @@
       <c r="H5" s="48"/>
       <c r="I5" s="51"/>
     </row>
-    <row r="6" spans="1:9" ht="13.5" thickBot="1">
+    <row r="6" spans="1:9" ht="13.8" thickBot="1">
       <c r="D6" s="54" t="s">
         <v>43</v>
       </c>
@@ -3486,25 +3780,25 @@
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
     </row>
-    <row r="7" spans="1:9" ht="13.5" thickTop="1">
+    <row r="7" spans="1:9" ht="13.8" thickTop="1">
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
       <c r="F7" s="57"/>
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
     </row>
-    <row r="8" spans="1:9" ht="13.5" thickBot="1">
+    <row r="8" spans="1:9" ht="13.8" thickBot="1">
       <c r="D8" s="54"/>
       <c r="E8" s="54"/>
       <c r="F8" s="57"/>
       <c r="G8" s="56"/>
       <c r="H8" s="56"/>
     </row>
-    <row r="9" spans="1:9" ht="26.65" customHeight="1">
-      <c r="A9" s="107" t="s">
+    <row r="9" spans="1:9" ht="26.7" customHeight="1">
+      <c r="A9" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="105" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="58" t="s">
@@ -3525,9 +3819,9 @@
       </c>
       <c r="I9" s="41"/>
     </row>
-    <row r="10" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A10" s="108"/>
-      <c r="B10" s="118"/>
+    <row r="10" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A10" s="103"/>
+      <c r="B10" s="106"/>
       <c r="C10" s="59" t="s">
         <v>47</v>
       </c>
@@ -3546,9 +3840,9 @@
       </c>
       <c r="I10" s="62"/>
     </row>
-    <row r="11" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A11" s="108"/>
-      <c r="B11" s="118"/>
+    <row r="11" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A11" s="103"/>
+      <c r="B11" s="106"/>
       <c r="C11" s="43" t="s">
         <v>49</v>
       </c>
@@ -3567,9 +3861,9 @@
       </c>
       <c r="I11" s="46"/>
     </row>
-    <row r="12" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A12" s="108"/>
-      <c r="B12" s="118"/>
+    <row r="12" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A12" s="103"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="63" t="s">
         <v>50</v>
       </c>
@@ -3588,9 +3882,9 @@
       </c>
       <c r="I12" s="65"/>
     </row>
-    <row r="13" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A13" s="108"/>
-      <c r="B13" s="119"/>
+    <row r="13" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A13" s="103"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="63" t="s">
         <v>52</v>
       </c>
@@ -3607,9 +3901,9 @@
       </c>
       <c r="I13" s="65"/>
     </row>
-    <row r="14" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A14" s="108"/>
-      <c r="B14" s="104" t="s">
+    <row r="14" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A14" s="103"/>
+      <c r="B14" s="108" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="63" t="s">
@@ -3630,9 +3924,9 @@
       </c>
       <c r="I14" s="65"/>
     </row>
-    <row r="15" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A15" s="108"/>
-      <c r="B15" s="105"/>
+    <row r="15" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A15" s="103"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="63" t="s">
         <v>55</v>
       </c>
@@ -3651,9 +3945,9 @@
       </c>
       <c r="I15" s="65"/>
     </row>
-    <row r="16" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A16" s="108"/>
-      <c r="B16" s="105"/>
+    <row r="16" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A16" s="103"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="63" t="s">
         <v>57</v>
       </c>
@@ -3672,9 +3966,9 @@
       </c>
       <c r="I16" s="65"/>
     </row>
-    <row r="17" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A17" s="108"/>
-      <c r="B17" s="105"/>
+    <row r="17" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A17" s="103"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="63" t="s">
         <v>59</v>
       </c>
@@ -3693,9 +3987,9 @@
       </c>
       <c r="I17" s="65"/>
     </row>
-    <row r="18" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A18" s="108"/>
-      <c r="B18" s="105"/>
+    <row r="18" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A18" s="103"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="63" t="s">
         <v>60</v>
       </c>
@@ -3714,9 +4008,9 @@
       </c>
       <c r="I18" s="65"/>
     </row>
-    <row r="19" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A19" s="108"/>
-      <c r="B19" s="105"/>
+    <row r="19" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A19" s="103"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="63" t="s">
         <v>61</v>
       </c>
@@ -3735,9 +4029,9 @@
       </c>
       <c r="I19" s="65"/>
     </row>
-    <row r="20" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A20" s="108"/>
-      <c r="B20" s="105"/>
+    <row r="20" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A20" s="103"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="63" t="s">
         <v>62</v>
       </c>
@@ -3756,9 +4050,9 @@
       </c>
       <c r="I20" s="65"/>
     </row>
-    <row r="21" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A21" s="108"/>
-      <c r="B21" s="105"/>
+    <row r="21" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A21" s="103"/>
+      <c r="B21" s="109"/>
       <c r="C21" s="90" t="s">
         <v>164</v>
       </c>
@@ -3775,9 +4069,9 @@
       </c>
       <c r="I21" s="65"/>
     </row>
-    <row r="22" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A22" s="109"/>
-      <c r="B22" s="106"/>
+    <row r="22" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A22" s="104"/>
+      <c r="B22" s="110"/>
       <c r="C22" s="66" t="s">
         <v>165</v>
       </c>
@@ -3794,7 +4088,7 @@
       </c>
       <c r="I22" s="51"/>
     </row>
-    <row r="23" spans="1:9" ht="13.5" thickBot="1">
+    <row r="23" spans="1:9" ht="13.8" thickBot="1">
       <c r="D23" s="54" t="s">
         <v>43</v>
       </c>
@@ -3806,22 +4100,22 @@
       <c r="G23" s="56"/>
       <c r="H23" s="56"/>
     </row>
-    <row r="24" spans="1:9" ht="13.5" thickTop="1">
+    <row r="24" spans="1:9" ht="13.8" thickTop="1">
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
       <c r="F24" s="57"/>
       <c r="G24" s="56"/>
       <c r="H24" s="56"/>
     </row>
-    <row r="25" spans="1:9" ht="13.5" thickBot="1">
+    <row r="25" spans="1:9" ht="13.8" thickBot="1">
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
       <c r="F25" s="57"/>
       <c r="G25" s="56"/>
       <c r="H25" s="56"/>
     </row>
-    <row r="26" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A26" s="121" t="s">
+    <row r="26" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A26" s="114" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="37" t="s">
@@ -3843,8 +4137,8 @@
       </c>
       <c r="I26" s="41"/>
     </row>
-    <row r="27" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A27" s="122"/>
+    <row r="27" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A27" s="115"/>
       <c r="B27" s="42" t="s">
         <v>66</v>
       </c>
@@ -3864,8 +4158,8 @@
       </c>
       <c r="I27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A28" s="122"/>
+    <row r="28" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A28" s="115"/>
       <c r="B28" s="111" t="s">
         <v>68</v>
       </c>
@@ -3887,8 +4181,8 @@
       </c>
       <c r="I28" s="65"/>
     </row>
-    <row r="29" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A29" s="122"/>
+    <row r="29" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A29" s="115"/>
       <c r="B29" s="112"/>
       <c r="C29" s="63" t="s">
         <v>70</v>
@@ -3908,9 +4202,9 @@
       </c>
       <c r="I29" s="65"/>
     </row>
-    <row r="30" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A30" s="122"/>
-      <c r="B30" s="120"/>
+    <row r="30" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A30" s="115"/>
+      <c r="B30" s="113"/>
       <c r="C30" s="63" t="s">
         <v>72</v>
       </c>
@@ -3929,8 +4223,8 @@
       </c>
       <c r="I30" s="65"/>
     </row>
-    <row r="31" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A31" s="122"/>
+    <row r="31" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A31" s="115"/>
       <c r="B31" s="111" t="s">
         <v>127</v>
       </c>
@@ -3952,8 +4246,8 @@
       </c>
       <c r="I31" s="65"/>
     </row>
-    <row r="32" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A32" s="122"/>
+    <row r="32" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A32" s="115"/>
       <c r="B32" s="112"/>
       <c r="C32" s="70" t="s">
         <v>120</v>
@@ -3973,8 +4267,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A33" s="122"/>
+    <row r="33" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A33" s="115"/>
       <c r="B33" s="112"/>
       <c r="C33" s="70" t="s">
         <v>122</v>
@@ -3996,8 +4290,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A34" s="122"/>
+    <row r="34" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A34" s="115"/>
       <c r="B34" s="112"/>
       <c r="C34" s="70" t="s">
         <v>123</v>
@@ -4017,8 +4311,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A35" s="122"/>
+    <row r="35" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A35" s="115"/>
       <c r="B35" s="112"/>
       <c r="C35" s="70" t="s">
         <v>124</v>
@@ -4038,8 +4332,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A36" s="122"/>
+    <row r="36" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A36" s="115"/>
       <c r="B36" s="112"/>
       <c r="C36" s="70" t="s">
         <v>125</v>
@@ -4059,9 +4353,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A37" s="122"/>
-      <c r="B37" s="113"/>
+    <row r="37" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A37" s="115"/>
+      <c r="B37" s="120"/>
       <c r="C37" s="73" t="s">
         <v>126</v>
       </c>
@@ -4078,9 +4372,9 @@
       </c>
       <c r="I37" s="51"/>
     </row>
-    <row r="38" spans="1:9" ht="13.7" customHeight="1">
-      <c r="A38" s="122"/>
-      <c r="B38" s="123" t="s">
+    <row r="38" spans="1:9" ht="13.65" customHeight="1">
+      <c r="A38" s="115"/>
+      <c r="B38" s="125" t="s">
         <v>168</v>
       </c>
       <c r="C38" s="70" t="s">
@@ -4101,8 +4395,8 @@
       </c>
       <c r="I38" s="96"/>
     </row>
-    <row r="39" spans="1:9" ht="13.7" customHeight="1">
-      <c r="A39" s="122"/>
+    <row r="39" spans="1:9" ht="13.65" customHeight="1">
+      <c r="A39" s="115"/>
       <c r="B39" s="112"/>
       <c r="C39" s="70" t="s">
         <v>169</v>
@@ -4122,8 +4416,8 @@
       </c>
       <c r="I39" s="70"/>
     </row>
-    <row r="40" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A40" s="122"/>
+    <row r="40" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A40" s="115"/>
       <c r="B40" s="112"/>
       <c r="C40" s="73" t="s">
         <v>170</v>
@@ -4143,9 +4437,9 @@
       </c>
       <c r="I40" s="51"/>
     </row>
-    <row r="41" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A41" s="125"/>
-      <c r="B41" s="124"/>
+    <row r="41" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A41" s="116"/>
+      <c r="B41" s="126"/>
       <c r="C41" s="73" t="s">
         <v>188</v>
       </c>
@@ -4164,7 +4458,7 @@
       </c>
       <c r="I41" s="51"/>
     </row>
-    <row r="42" spans="1:9" ht="13.5" thickBot="1">
+    <row r="42" spans="1:9" ht="13.8" thickBot="1">
       <c r="D42" s="54" t="s">
         <v>43</v>
       </c>
@@ -4176,14 +4470,14 @@
       <c r="G42" s="56"/>
       <c r="H42" s="56"/>
     </row>
-    <row r="43" spans="1:9" ht="13.5" thickTop="1">
+    <row r="43" spans="1:9" ht="13.8" thickTop="1">
       <c r="D43" s="54"/>
       <c r="E43" s="54"/>
       <c r="F43" s="57"/>
       <c r="G43" s="56"/>
       <c r="H43" s="56"/>
     </row>
-    <row r="44" spans="1:9" ht="13.5" thickBot="1">
+    <row r="44" spans="1:9" ht="13.8" thickBot="1">
       <c r="D44" s="54"/>
       <c r="E44" s="54"/>
       <c r="F44" s="57"/>
@@ -4191,7 +4485,7 @@
       <c r="H44" s="56"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="107" t="s">
+      <c r="A45" s="102" t="s">
         <v>74</v>
       </c>
       <c r="B45" s="37" t="s">
@@ -4212,8 +4506,8 @@
       <c r="I45" s="41"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="108"/>
-      <c r="B46" s="104" t="s">
+      <c r="A46" s="103"/>
+      <c r="B46" s="108" t="s">
         <v>77</v>
       </c>
       <c r="C46" s="69" t="s">
@@ -4233,8 +4527,8 @@
       <c r="I46" s="46"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="108"/>
-      <c r="B47" s="105"/>
+      <c r="A47" s="103"/>
+      <c r="B47" s="109"/>
       <c r="C47" s="63" t="s">
         <v>79</v>
       </c>
@@ -4252,8 +4546,8 @@
       <c r="I47" s="65"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="108"/>
-      <c r="B48" s="105"/>
+      <c r="A48" s="103"/>
+      <c r="B48" s="109"/>
       <c r="C48" s="63" t="s">
         <v>80</v>
       </c>
@@ -4271,8 +4565,8 @@
       <c r="I48" s="65"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="108"/>
-      <c r="B49" s="105"/>
+      <c r="A49" s="103"/>
+      <c r="B49" s="109"/>
       <c r="C49" s="63" t="s">
         <v>81</v>
       </c>
@@ -4290,8 +4584,8 @@
       <c r="I49" s="65"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="108"/>
-      <c r="B50" s="105"/>
+      <c r="A50" s="103"/>
+      <c r="B50" s="109"/>
       <c r="C50" s="63" t="s">
         <v>83</v>
       </c>
@@ -4309,8 +4603,8 @@
       <c r="I50" s="65"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="108"/>
-      <c r="B51" s="114"/>
+      <c r="A51" s="103"/>
+      <c r="B51" s="121"/>
       <c r="C51" s="63" t="s">
         <v>85</v>
       </c>
@@ -4328,8 +4622,8 @@
       <c r="I51" s="65"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="108"/>
-      <c r="B52" s="104" t="s">
+      <c r="A52" s="103"/>
+      <c r="B52" s="108" t="s">
         <v>87</v>
       </c>
       <c r="C52" s="63" t="s">
@@ -4352,8 +4646,8 @@
       <c r="I52" s="65"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="108"/>
-      <c r="B53" s="105"/>
+      <c r="A53" s="103"/>
+      <c r="B53" s="109"/>
       <c r="C53" s="70" t="s">
         <v>90</v>
       </c>
@@ -4374,8 +4668,8 @@
       <c r="I53" s="65"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="108"/>
-      <c r="B54" s="105"/>
+      <c r="A54" s="103"/>
+      <c r="B54" s="109"/>
       <c r="C54" s="63" t="s">
         <v>91</v>
       </c>
@@ -4396,8 +4690,8 @@
       <c r="I54" s="65"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="108"/>
-      <c r="B55" s="105"/>
+      <c r="A55" s="103"/>
+      <c r="B55" s="109"/>
       <c r="C55" s="70" t="s">
         <v>93</v>
       </c>
@@ -4418,8 +4712,8 @@
       <c r="I55" s="71"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="108"/>
-      <c r="B56" s="105"/>
+      <c r="A56" s="103"/>
+      <c r="B56" s="109"/>
       <c r="C56" s="70" t="s">
         <v>94</v>
       </c>
@@ -4440,8 +4734,8 @@
       <c r="I56" s="65"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="108"/>
-      <c r="B57" s="105"/>
+      <c r="A57" s="103"/>
+      <c r="B57" s="109"/>
       <c r="C57" s="70" t="s">
         <v>96</v>
       </c>
@@ -4461,9 +4755,9 @@
       </c>
       <c r="I57" s="71"/>
     </row>
-    <row r="58" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A58" s="109"/>
-      <c r="B58" s="106"/>
+    <row r="58" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A58" s="104"/>
+      <c r="B58" s="110"/>
       <c r="C58" s="73" t="s">
         <v>180</v>
       </c>
@@ -4483,7 +4777,7 @@
       </c>
       <c r="I58" s="51"/>
     </row>
-    <row r="59" spans="1:9" ht="13.5" thickBot="1">
+    <row r="59" spans="1:9" ht="13.8" thickBot="1">
       <c r="D59" s="54" t="s">
         <v>43</v>
       </c>
@@ -4493,13 +4787,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="13.5" thickTop="1"/>
-    <row r="61" spans="1:9" ht="13.5" thickBot="1"/>
+    <row r="60" spans="1:9" ht="13.8" thickTop="1"/>
+    <row r="61" spans="1:9" ht="13.8" thickBot="1"/>
     <row r="62" spans="1:9">
-      <c r="A62" s="115" t="s">
+      <c r="A62" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="110" t="s">
+      <c r="B62" s="123" t="s">
         <v>136</v>
       </c>
       <c r="C62" s="38" t="s">
@@ -4521,8 +4815,8 @@
       <c r="I62" s="41"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="108"/>
-      <c r="B63" s="116"/>
+      <c r="A63" s="103"/>
+      <c r="B63" s="124"/>
       <c r="C63" s="59" t="s">
         <v>100</v>
       </c>
@@ -4542,8 +4836,8 @@
       <c r="I63" s="62"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="108"/>
-      <c r="B64" s="104" t="s">
+      <c r="A64" s="103"/>
+      <c r="B64" s="108" t="s">
         <v>138</v>
       </c>
       <c r="C64" s="43" t="s">
@@ -4565,8 +4859,8 @@
       <c r="I64" s="46"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="108"/>
-      <c r="B65" s="105"/>
+      <c r="A65" s="103"/>
+      <c r="B65" s="109"/>
       <c r="C65" s="63" t="s">
         <v>103</v>
       </c>
@@ -4586,8 +4880,8 @@
       <c r="I65" s="65"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="108"/>
-      <c r="B66" s="105"/>
+      <c r="A66" s="103"/>
+      <c r="B66" s="109"/>
       <c r="C66" s="63" t="s">
         <v>105</v>
       </c>
@@ -4607,8 +4901,8 @@
       <c r="I66" s="65"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="108"/>
-      <c r="B67" s="114"/>
+      <c r="A67" s="103"/>
+      <c r="B67" s="121"/>
       <c r="C67" s="63" t="s">
         <v>107</v>
       </c>
@@ -4628,7 +4922,7 @@
       <c r="I67" s="65"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="108"/>
+      <c r="A68" s="103"/>
       <c r="B68" s="42" t="s">
         <v>140</v>
       </c>
@@ -4649,8 +4943,8 @@
       <c r="I68" s="65"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="108"/>
-      <c r="B69" s="104" t="s">
+      <c r="A69" s="103"/>
+      <c r="B69" s="108" t="s">
         <v>142</v>
       </c>
       <c r="C69" s="63" t="s">
@@ -4672,8 +4966,8 @@
       <c r="I69" s="65"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="108"/>
-      <c r="B70" s="105"/>
+      <c r="A70" s="103"/>
+      <c r="B70" s="109"/>
       <c r="C70" s="63" t="s">
         <v>111</v>
       </c>
@@ -4693,8 +4987,8 @@
       <c r="I70" s="65"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="108"/>
-      <c r="B71" s="105"/>
+      <c r="A71" s="103"/>
+      <c r="B71" s="109"/>
       <c r="C71" s="63" t="s">
         <v>112</v>
       </c>
@@ -4714,8 +5008,8 @@
       <c r="I71" s="65"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="108"/>
-      <c r="B72" s="114"/>
+      <c r="A72" s="103"/>
+      <c r="B72" s="121"/>
       <c r="C72" s="63" t="s">
         <v>113</v>
       </c>
@@ -4735,7 +5029,7 @@
       <c r="I72" s="71"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="108"/>
+      <c r="A73" s="103"/>
       <c r="B73" s="42" t="s">
         <v>144</v>
       </c>
@@ -4757,9 +5051,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A74" s="109"/>
-      <c r="B74" s="104" t="s">
+    <row r="74" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A74" s="104"/>
+      <c r="B74" s="108" t="s">
         <v>145</v>
       </c>
       <c r="C74" s="42" t="s">
@@ -4780,7 +5074,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="91"/>
-      <c r="B75" s="105"/>
+      <c r="B75" s="109"/>
       <c r="C75" s="42" t="s">
         <v>147</v>
       </c>
@@ -4799,7 +5093,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="92"/>
-      <c r="B76" s="105"/>
+      <c r="B76" s="109"/>
       <c r="C76" s="42" t="s">
         <v>150</v>
       </c>
@@ -4818,7 +5112,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="92"/>
-      <c r="B77" s="105"/>
+      <c r="B77" s="109"/>
       <c r="C77" s="42" t="s">
         <v>148</v>
       </c>
@@ -4837,7 +5131,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="92"/>
-      <c r="B78" s="105"/>
+      <c r="B78" s="109"/>
       <c r="C78" s="42" t="s">
         <v>151</v>
       </c>
@@ -4854,9 +5148,9 @@
       </c>
       <c r="I78" s="71"/>
     </row>
-    <row r="79" spans="1:9" ht="13.5" thickBot="1">
+    <row r="79" spans="1:9" ht="13.8" thickBot="1">
       <c r="A79" s="92"/>
-      <c r="B79" s="106"/>
+      <c r="B79" s="110"/>
       <c r="C79" s="76" t="s">
         <v>149</v>
       </c>
@@ -4875,7 +5169,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="92"/>
-      <c r="B80" s="101" t="s">
+      <c r="B80" s="117" t="s">
         <v>163</v>
       </c>
       <c r="C80" s="42" t="s">
@@ -4896,7 +5190,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="92"/>
-      <c r="B81" s="102"/>
+      <c r="B81" s="118"/>
       <c r="C81" s="42" t="s">
         <v>156</v>
       </c>
@@ -4915,7 +5209,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="92"/>
-      <c r="B82" s="102"/>
+      <c r="B82" s="118"/>
       <c r="C82" s="42" t="s">
         <v>157</v>
       </c>
@@ -4934,7 +5228,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="92"/>
-      <c r="B83" s="102"/>
+      <c r="B83" s="118"/>
       <c r="C83" s="42" t="s">
         <v>160</v>
       </c>
@@ -4953,7 +5247,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="92"/>
-      <c r="B84" s="102"/>
+      <c r="B84" s="118"/>
       <c r="C84" s="42" t="s">
         <v>161</v>
       </c>
@@ -4970,9 +5264,9 @@
       </c>
       <c r="I84" s="71"/>
     </row>
-    <row r="85" spans="1:9" ht="13.5" thickBot="1">
+    <row r="85" spans="1:9" ht="13.8" thickBot="1">
       <c r="A85" s="93"/>
-      <c r="B85" s="103"/>
+      <c r="B85" s="119"/>
       <c r="C85" s="76" t="s">
         <v>162</v>
       </c>
@@ -4991,7 +5285,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="92"/>
-      <c r="B86" s="101" t="s">
+      <c r="B86" s="117" t="s">
         <v>172</v>
       </c>
       <c r="C86" s="42" t="s">
@@ -5012,7 +5306,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="92"/>
-      <c r="B87" s="102"/>
+      <c r="B87" s="118"/>
       <c r="C87" s="42" t="s">
         <v>174</v>
       </c>
@@ -5031,7 +5325,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="92"/>
-      <c r="B88" s="102"/>
+      <c r="B88" s="118"/>
       <c r="C88" s="42" t="s">
         <v>175</v>
       </c>
@@ -5050,7 +5344,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="92"/>
-      <c r="B89" s="102"/>
+      <c r="B89" s="118"/>
       <c r="C89" s="42" t="s">
         <v>176</v>
       </c>
@@ -5069,7 +5363,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="92"/>
-      <c r="B90" s="102"/>
+      <c r="B90" s="118"/>
       <c r="C90" s="42" t="s">
         <v>177</v>
       </c>
@@ -5086,9 +5380,9 @@
       </c>
       <c r="I90" s="71"/>
     </row>
-    <row r="91" spans="1:9" ht="50.25" thickBot="1">
+    <row r="91" spans="1:9" ht="51" thickBot="1">
       <c r="A91" s="93"/>
-      <c r="B91" s="103"/>
+      <c r="B91" s="119"/>
       <c r="C91" s="99" t="s">
         <v>178</v>
       </c>
@@ -5107,7 +5401,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="92"/>
-      <c r="B92" s="101" t="s">
+      <c r="B92" s="117" t="s">
         <v>181</v>
       </c>
       <c r="C92" s="42" t="s">
@@ -5128,7 +5422,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="92"/>
-      <c r="B93" s="102"/>
+      <c r="B93" s="118"/>
       <c r="C93" s="42" t="s">
         <v>183</v>
       </c>
@@ -5147,7 +5441,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="92"/>
-      <c r="B94" s="102"/>
+      <c r="B94" s="118"/>
       <c r="C94" s="42" t="s">
         <v>184</v>
       </c>
@@ -5166,7 +5460,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="92"/>
-      <c r="B95" s="102"/>
+      <c r="B95" s="118"/>
       <c r="C95" s="42" t="s">
         <v>185</v>
       </c>
@@ -5185,7 +5479,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="92"/>
-      <c r="B96" s="102"/>
+      <c r="B96" s="118"/>
       <c r="C96" s="42" t="s">
         <v>186</v>
       </c>
@@ -5202,9 +5496,9 @@
       </c>
       <c r="I96" s="71"/>
     </row>
-    <row r="97" spans="1:9" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="97" spans="1:9" ht="16.95" customHeight="1" thickBot="1">
       <c r="A97" s="93"/>
-      <c r="B97" s="103"/>
+      <c r="B97" s="119"/>
       <c r="C97" s="99" t="s">
         <v>187</v>
       </c>
@@ -5221,19 +5515,125 @@
       </c>
       <c r="I97" s="79"/>
     </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="92"/>
+      <c r="B98" s="117" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="D98" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="E98" s="101"/>
+      <c r="F98" s="64"/>
+      <c r="G98" s="67">
+        <v>42090</v>
+      </c>
+      <c r="H98" s="67">
+        <v>42090</v>
+      </c>
+      <c r="I98" s="71"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="92"/>
+      <c r="B99" s="118"/>
+      <c r="C99" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D99" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="E99" s="101"/>
+      <c r="F99" s="64"/>
+      <c r="G99" s="67">
+        <v>42090</v>
+      </c>
+      <c r="H99" s="67">
+        <v>42090</v>
+      </c>
+      <c r="I99" s="71"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="92"/>
+      <c r="B100" s="118"/>
+      <c r="C100" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="D100" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="E100" s="101"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="67">
+        <v>42090</v>
+      </c>
+      <c r="H100" s="67">
+        <v>42090</v>
+      </c>
+      <c r="I100" s="71"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="92"/>
+      <c r="B101" s="118"/>
+      <c r="C101" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="D101" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="E101" s="101"/>
+      <c r="F101" s="64"/>
+      <c r="G101" s="67">
+        <v>42090</v>
+      </c>
+      <c r="H101" s="67">
+        <v>42090</v>
+      </c>
+      <c r="I101" s="71"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="92"/>
+      <c r="B102" s="118"/>
+      <c r="C102" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="D102" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="E102" s="101"/>
+      <c r="F102" s="64"/>
+      <c r="G102" s="67">
+        <v>42090</v>
+      </c>
+      <c r="H102" s="67">
+        <v>42090</v>
+      </c>
+      <c r="I102" s="71"/>
+    </row>
+    <row r="103" spans="1:9" ht="16.95" customHeight="1" thickBot="1">
+      <c r="A103" s="93"/>
+      <c r="B103" s="119"/>
+      <c r="C103" s="99" t="s">
+        <v>195</v>
+      </c>
+      <c r="D103" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="E103" s="76"/>
+      <c r="F103" s="77"/>
+      <c r="G103" s="67">
+        <v>42090</v>
+      </c>
+      <c r="H103" s="67">
+        <v>42090</v>
+      </c>
+      <c r="I103" s="79"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A9:A22"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A26:A41"/>
-    <mergeCell ref="B92:B97"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="B86:B91"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="B31:B37"/>
+  <mergeCells count="20">
+    <mergeCell ref="B98:B103"/>
     <mergeCell ref="A45:A58"/>
     <mergeCell ref="B46:B51"/>
     <mergeCell ref="B52:B58"/>
@@ -5241,7 +5641,18 @@
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="B64:B67"/>
     <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B92:B97"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="B86:B91"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="B31:B37"/>
     <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A9:A22"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A26:A41"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5250,29 +5661,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T87"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="D70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="64.85546875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="23" customWidth="1"/>
-    <col min="5" max="18" width="4.42578125" style="23" customWidth="1"/>
-    <col min="19" max="19" width="2.85546875" style="23" customWidth="1"/>
-    <col min="20" max="20" width="7.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="8.109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.88671875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="23" customWidth="1"/>
+    <col min="5" max="18" width="4.44140625" style="23" customWidth="1"/>
+    <col min="19" max="19" width="2.88671875" style="23" customWidth="1"/>
+    <col min="20" max="20" width="7.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75">
+    <row r="1" spans="1:20" ht="15.6">
       <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
@@ -5359,7 +5770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="13.5" thickBot="1">
+    <row r="9" spans="1:20" ht="13.8" thickBot="1">
       <c r="B9" s="20" t="s">
         <v>10</v>
       </c>
@@ -5367,7 +5778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="25.5">
+    <row r="10" spans="1:20">
       <c r="B10" s="87">
         <v>1</v>
       </c>
@@ -6787,151 +7198,157 @@
       <c r="Q64" s="84"/>
       <c r="R64" s="84"/>
       <c r="T64" s="81">
-        <f t="shared" ref="T64" si="12">SUM(E64:R64)</f>
+        <f t="shared" ref="T64:T66" si="12">SUM(E64:R64)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
-      <c r="A66" s="24" t="s">
+    <row r="65" spans="1:20" s="80" customFormat="1">
+      <c r="B65" s="83">
+        <v>13</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="84"/>
+      <c r="H65" s="84"/>
+      <c r="I65" s="84"/>
+      <c r="J65" s="84"/>
+      <c r="K65" s="84"/>
+      <c r="L65" s="84"/>
+      <c r="M65" s="84"/>
+      <c r="N65" s="82">
+        <v>2</v>
+      </c>
+      <c r="O65" s="84"/>
+      <c r="P65" s="84"/>
+      <c r="Q65" s="84"/>
+      <c r="R65" s="84"/>
+      <c r="T65" s="81">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" s="80" customFormat="1">
+      <c r="B66" s="83">
+        <v>14</v>
+      </c>
+      <c r="C66" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="84"/>
+      <c r="G66" s="84"/>
+      <c r="H66" s="84"/>
+      <c r="I66" s="84"/>
+      <c r="J66" s="84"/>
+      <c r="K66" s="84"/>
+      <c r="L66" s="84"/>
+      <c r="M66" s="84"/>
+      <c r="N66" s="82">
+        <v>4</v>
+      </c>
+      <c r="O66" s="84"/>
+      <c r="P66" s="84"/>
+      <c r="Q66" s="84"/>
+      <c r="R66" s="84"/>
+      <c r="T66" s="81">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" s="80" customFormat="1">
+      <c r="B67" s="83">
+        <v>15</v>
+      </c>
+      <c r="C67" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="D67" s="84"/>
+      <c r="E67" s="84"/>
+      <c r="F67" s="84"/>
+      <c r="G67" s="84"/>
+      <c r="H67" s="84"/>
+      <c r="I67" s="84"/>
+      <c r="J67" s="84"/>
+      <c r="K67" s="84"/>
+      <c r="L67" s="84"/>
+      <c r="M67" s="84"/>
+      <c r="N67" s="82">
+        <v>4</v>
+      </c>
+      <c r="O67" s="84"/>
+      <c r="P67" s="84"/>
+      <c r="Q67" s="84"/>
+      <c r="R67" s="84"/>
+      <c r="T67" s="81">
+        <f t="shared" ref="T67" si="13">SUM(E67:R67)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
-      <c r="B67" s="20" t="s">
+    <row r="70" spans="1:20">
+      <c r="B70" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
-      <c r="B68" s="21">
+    <row r="71" spans="1:20">
+      <c r="B71" s="21">
         <v>1</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C71" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="D68" s="25"/>
-      <c r="E68" s="19">
+      <c r="D71" s="25"/>
+      <c r="E71" s="19">
         <v>8</v>
       </c>
-      <c r="F68" s="19">
+      <c r="F71" s="19">
         <v>8</v>
       </c>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="25"/>
-      <c r="O68" s="25"/>
-      <c r="P68" s="25"/>
-      <c r="Q68" s="25"/>
-      <c r="R68" s="25"/>
-      <c r="T68" s="3">
-        <f t="shared" ref="T68:T72" si="13">SUM(E68:R68)</f>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="25"/>
+      <c r="R71" s="25"/>
+      <c r="T71" s="3">
+        <f t="shared" ref="T71:T75" si="14">SUM(E71:R71)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:20">
-      <c r="B69" s="83">
-        <v>2</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="19">
-        <v>8</v>
-      </c>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="84"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="25"/>
-      <c r="N69" s="25"/>
-      <c r="O69" s="25"/>
-      <c r="P69" s="25"/>
-      <c r="Q69" s="25"/>
-      <c r="R69" s="25"/>
-      <c r="T69" s="3">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" s="80" customFormat="1">
-      <c r="B70" s="83">
-        <v>3</v>
-      </c>
-      <c r="C70" s="74">
-        <v>6.4</v>
-      </c>
-      <c r="D70" s="84"/>
-      <c r="E70" s="84"/>
-      <c r="F70" s="84"/>
-      <c r="G70" s="84"/>
-      <c r="H70" s="84"/>
-      <c r="I70" s="84"/>
-      <c r="J70" s="82">
-        <v>2</v>
-      </c>
-      <c r="K70" s="84"/>
-      <c r="L70" s="84"/>
-      <c r="M70" s="84"/>
-      <c r="N70" s="84"/>
-      <c r="O70" s="84"/>
-      <c r="P70" s="84"/>
-      <c r="Q70" s="84"/>
-      <c r="R70" s="84"/>
-      <c r="T70" s="81"/>
-    </row>
-    <row r="71" spans="1:20" s="80" customFormat="1">
-      <c r="B71" s="83">
-        <v>4</v>
-      </c>
-      <c r="C71" s="74">
-        <v>6.5</v>
-      </c>
-      <c r="D71" s="84"/>
-      <c r="E71" s="84"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="84"/>
-      <c r="H71" s="84"/>
-      <c r="I71" s="84"/>
-      <c r="J71" s="82">
-        <v>3</v>
-      </c>
-      <c r="K71" s="84"/>
-      <c r="L71" s="84"/>
-      <c r="M71" s="84"/>
-      <c r="N71" s="84"/>
-      <c r="O71" s="84"/>
-      <c r="P71" s="84"/>
-      <c r="Q71" s="84"/>
-      <c r="R71" s="84"/>
-      <c r="T71" s="81"/>
     </row>
     <row r="72" spans="1:20">
       <c r="B72" s="83">
-        <v>5</v>
-      </c>
-      <c r="C72" s="74">
-        <v>6.6</v>
+        <v>2</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>143</v>
       </c>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
+      <c r="G72" s="19">
+        <v>8</v>
+      </c>
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
-      <c r="J72" s="82">
-        <v>3</v>
-      </c>
+      <c r="J72" s="84"/>
       <c r="K72" s="25"/>
       <c r="L72" s="25"/>
       <c r="M72" s="25"/>
@@ -6941,16 +7358,16 @@
       <c r="Q72" s="25"/>
       <c r="R72" s="25"/>
       <c r="T72" s="3">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:20" s="80" customFormat="1">
       <c r="B73" s="83">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C73" s="74">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="D73" s="84"/>
       <c r="E73" s="84"/>
@@ -6958,10 +7375,10 @@
       <c r="G73" s="84"/>
       <c r="H73" s="84"/>
       <c r="I73" s="84"/>
-      <c r="J73" s="84"/>
-      <c r="K73" s="82">
+      <c r="J73" s="82">
         <v>2</v>
       </c>
+      <c r="K73" s="84"/>
       <c r="L73" s="84"/>
       <c r="M73" s="84"/>
       <c r="N73" s="84"/>
@@ -6973,10 +7390,10 @@
     </row>
     <row r="74" spans="1:20" s="80" customFormat="1">
       <c r="B74" s="83">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C74" s="74">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="D74" s="84"/>
       <c r="E74" s="84"/>
@@ -6984,10 +7401,10 @@
       <c r="G74" s="84"/>
       <c r="H74" s="84"/>
       <c r="I74" s="84"/>
-      <c r="J74" s="84"/>
-      <c r="K74" s="82">
-        <v>4</v>
-      </c>
+      <c r="J74" s="82">
+        <v>3</v>
+      </c>
+      <c r="K74" s="84"/>
       <c r="L74" s="84"/>
       <c r="M74" s="84"/>
       <c r="N74" s="84"/>
@@ -6997,41 +7414,41 @@
       <c r="R74" s="84"/>
       <c r="T74" s="81"/>
     </row>
-    <row r="75" spans="1:20" s="80" customFormat="1">
+    <row r="75" spans="1:20">
       <c r="B75" s="83">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C75" s="74">
-        <v>7.6</v>
-      </c>
-      <c r="D75" s="84"/>
-      <c r="E75" s="84"/>
-      <c r="F75" s="84"/>
-      <c r="G75" s="84"/>
-      <c r="H75" s="84"/>
-      <c r="I75" s="84"/>
-      <c r="J75" s="84"/>
-      <c r="K75" s="82">
-        <v>5</v>
-      </c>
-      <c r="L75" s="84"/>
-      <c r="M75" s="84"/>
-      <c r="N75" s="84"/>
-      <c r="O75" s="84"/>
-      <c r="P75" s="84"/>
-      <c r="Q75" s="84"/>
-      <c r="R75" s="84"/>
-      <c r="T75" s="81">
-        <f t="shared" ref="T75" si="14">SUM(E75:R75)</f>
-        <v>5</v>
+        <v>6.6</v>
+      </c>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="82">
+        <v>3</v>
+      </c>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
+      <c r="R75" s="25"/>
+      <c r="T75" s="3">
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:20" s="80" customFormat="1">
       <c r="B76" s="83">
-        <v>9</v>
-      </c>
-      <c r="C76" s="42" t="s">
-        <v>176</v>
+        <v>6</v>
+      </c>
+      <c r="C76" s="74">
+        <v>7.4</v>
       </c>
       <c r="D76" s="84"/>
       <c r="E76" s="84"/>
@@ -7040,10 +7457,10 @@
       <c r="H76" s="84"/>
       <c r="I76" s="84"/>
       <c r="J76" s="84"/>
-      <c r="K76" s="84"/>
-      <c r="L76" s="82">
+      <c r="K76" s="82">
         <v>2</v>
       </c>
+      <c r="L76" s="84"/>
       <c r="M76" s="84"/>
       <c r="N76" s="84"/>
       <c r="O76" s="84"/>
@@ -7054,10 +7471,10 @@
     </row>
     <row r="77" spans="1:20" s="80" customFormat="1">
       <c r="B77" s="83">
-        <v>10</v>
-      </c>
-      <c r="C77" s="42" t="s">
-        <v>177</v>
+        <v>7</v>
+      </c>
+      <c r="C77" s="74">
+        <v>7.5</v>
       </c>
       <c r="D77" s="84"/>
       <c r="E77" s="84"/>
@@ -7066,10 +7483,10 @@
       <c r="H77" s="84"/>
       <c r="I77" s="84"/>
       <c r="J77" s="84"/>
-      <c r="K77" s="84"/>
-      <c r="L77" s="82">
+      <c r="K77" s="82">
         <v>4</v>
       </c>
+      <c r="L77" s="84"/>
       <c r="M77" s="84"/>
       <c r="N77" s="84"/>
       <c r="O77" s="84"/>
@@ -7078,12 +7495,12 @@
       <c r="R77" s="84"/>
       <c r="T77" s="81"/>
     </row>
-    <row r="78" spans="1:20" s="80" customFormat="1" ht="13.5" thickBot="1">
+    <row r="78" spans="1:20" s="80" customFormat="1">
       <c r="B78" s="83">
-        <v>11</v>
-      </c>
-      <c r="C78" s="76" t="s">
-        <v>178</v>
+        <v>8</v>
+      </c>
+      <c r="C78" s="74">
+        <v>7.6</v>
       </c>
       <c r="D78" s="84"/>
       <c r="E78" s="84"/>
@@ -7092,10 +7509,10 @@
       <c r="H78" s="84"/>
       <c r="I78" s="84"/>
       <c r="J78" s="84"/>
-      <c r="K78" s="84"/>
-      <c r="L78" s="82">
+      <c r="K78" s="82">
         <v>5</v>
       </c>
+      <c r="L78" s="84"/>
       <c r="M78" s="84"/>
       <c r="N78" s="84"/>
       <c r="O78" s="84"/>
@@ -7109,10 +7526,10 @@
     </row>
     <row r="79" spans="1:20" s="80" customFormat="1">
       <c r="B79" s="83">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C79" s="42" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D79" s="84"/>
       <c r="E79" s="84"/>
@@ -7122,10 +7539,10 @@
       <c r="I79" s="84"/>
       <c r="J79" s="84"/>
       <c r="K79" s="84"/>
-      <c r="L79" s="84"/>
-      <c r="M79" s="82">
+      <c r="L79" s="82">
         <v>2</v>
       </c>
+      <c r="M79" s="84"/>
       <c r="N79" s="84"/>
       <c r="O79" s="84"/>
       <c r="P79" s="84"/>
@@ -7135,10 +7552,10 @@
     </row>
     <row r="80" spans="1:20" s="80" customFormat="1">
       <c r="B80" s="83">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D80" s="84"/>
       <c r="E80" s="84"/>
@@ -7148,10 +7565,10 @@
       <c r="I80" s="84"/>
       <c r="J80" s="84"/>
       <c r="K80" s="84"/>
-      <c r="L80" s="84"/>
-      <c r="M80" s="82">
+      <c r="L80" s="82">
         <v>4</v>
       </c>
+      <c r="M80" s="84"/>
       <c r="N80" s="84"/>
       <c r="O80" s="84"/>
       <c r="P80" s="84"/>
@@ -7159,12 +7576,12 @@
       <c r="R80" s="84"/>
       <c r="T80" s="81"/>
     </row>
-    <row r="81" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
+    <row r="81" spans="2:20" s="80" customFormat="1" ht="13.8" thickBot="1">
       <c r="B81" s="83">
-        <v>14</v>
-      </c>
-      <c r="C81" s="99" t="s">
-        <v>187</v>
+        <v>11</v>
+      </c>
+      <c r="C81" s="76" t="s">
+        <v>178</v>
       </c>
       <c r="D81" s="84"/>
       <c r="E81" s="84"/>
@@ -7174,10 +7591,10 @@
       <c r="I81" s="84"/>
       <c r="J81" s="84"/>
       <c r="K81" s="84"/>
-      <c r="L81" s="84"/>
-      <c r="M81" s="82">
+      <c r="L81" s="82">
         <v>5</v>
       </c>
+      <c r="M81" s="84"/>
       <c r="N81" s="84"/>
       <c r="O81" s="84"/>
       <c r="P81" s="84"/>
@@ -7188,6 +7605,168 @@
         <v>5</v>
       </c>
     </row>
+    <row r="82" spans="2:20" s="80" customFormat="1">
+      <c r="B82" s="83">
+        <v>12</v>
+      </c>
+      <c r="C82" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="D82" s="84"/>
+      <c r="E82" s="84"/>
+      <c r="F82" s="84"/>
+      <c r="G82" s="84"/>
+      <c r="H82" s="84"/>
+      <c r="I82" s="84"/>
+      <c r="J82" s="84"/>
+      <c r="K82" s="84"/>
+      <c r="L82" s="84"/>
+      <c r="M82" s="82">
+        <v>2</v>
+      </c>
+      <c r="N82" s="84"/>
+      <c r="O82" s="84"/>
+      <c r="P82" s="84"/>
+      <c r="Q82" s="84"/>
+      <c r="R82" s="84"/>
+      <c r="T82" s="81"/>
+    </row>
+    <row r="83" spans="2:20" s="80" customFormat="1">
+      <c r="B83" s="83">
+        <v>13</v>
+      </c>
+      <c r="C83" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="D83" s="84"/>
+      <c r="E83" s="84"/>
+      <c r="F83" s="84"/>
+      <c r="G83" s="84"/>
+      <c r="H83" s="84"/>
+      <c r="I83" s="84"/>
+      <c r="J83" s="84"/>
+      <c r="K83" s="84"/>
+      <c r="L83" s="84"/>
+      <c r="M83" s="82">
+        <v>4</v>
+      </c>
+      <c r="N83" s="84"/>
+      <c r="O83" s="84"/>
+      <c r="P83" s="84"/>
+      <c r="Q83" s="84"/>
+      <c r="R83" s="84"/>
+      <c r="T83" s="81"/>
+    </row>
+    <row r="84" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
+      <c r="B84" s="83">
+        <v>14</v>
+      </c>
+      <c r="C84" s="99" t="s">
+        <v>187</v>
+      </c>
+      <c r="D84" s="84"/>
+      <c r="E84" s="84"/>
+      <c r="F84" s="84"/>
+      <c r="G84" s="84"/>
+      <c r="H84" s="84"/>
+      <c r="I84" s="84"/>
+      <c r="J84" s="84"/>
+      <c r="K84" s="84"/>
+      <c r="L84" s="84"/>
+      <c r="M84" s="82">
+        <v>5</v>
+      </c>
+      <c r="N84" s="84"/>
+      <c r="O84" s="84"/>
+      <c r="P84" s="84"/>
+      <c r="Q84" s="84"/>
+      <c r="R84" s="84"/>
+      <c r="T84" s="81">
+        <f t="shared" ref="T84" si="17">SUM(E84:R84)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20" s="80" customFormat="1">
+      <c r="B85" s="83">
+        <v>12</v>
+      </c>
+      <c r="C85" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="D85" s="84"/>
+      <c r="E85" s="84"/>
+      <c r="F85" s="84"/>
+      <c r="G85" s="84"/>
+      <c r="H85" s="84"/>
+      <c r="I85" s="84"/>
+      <c r="J85" s="84"/>
+      <c r="K85" s="84"/>
+      <c r="L85" s="84"/>
+      <c r="M85" s="84"/>
+      <c r="N85" s="82">
+        <v>2</v>
+      </c>
+      <c r="O85" s="84"/>
+      <c r="P85" s="84"/>
+      <c r="Q85" s="84"/>
+      <c r="R85" s="84"/>
+      <c r="T85" s="81"/>
+    </row>
+    <row r="86" spans="2:20" s="80" customFormat="1">
+      <c r="B86" s="83">
+        <v>13</v>
+      </c>
+      <c r="C86" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="D86" s="84"/>
+      <c r="E86" s="84"/>
+      <c r="F86" s="84"/>
+      <c r="G86" s="84"/>
+      <c r="H86" s="84"/>
+      <c r="I86" s="84"/>
+      <c r="J86" s="84"/>
+      <c r="K86" s="84"/>
+      <c r="L86" s="84"/>
+      <c r="M86" s="84"/>
+      <c r="N86" s="82">
+        <v>4</v>
+      </c>
+      <c r="O86" s="84"/>
+      <c r="P86" s="84"/>
+      <c r="Q86" s="84"/>
+      <c r="R86" s="84"/>
+      <c r="T86" s="81"/>
+    </row>
+    <row r="87" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
+      <c r="B87" s="83">
+        <v>14</v>
+      </c>
+      <c r="C87" s="99" t="s">
+        <v>195</v>
+      </c>
+      <c r="D87" s="84"/>
+      <c r="E87" s="84"/>
+      <c r="F87" s="84"/>
+      <c r="G87" s="84"/>
+      <c r="H87" s="84"/>
+      <c r="I87" s="84"/>
+      <c r="J87" s="84"/>
+      <c r="K87" s="84"/>
+      <c r="L87" s="84"/>
+      <c r="M87" s="84"/>
+      <c r="N87" s="82">
+        <v>2</v>
+      </c>
+      <c r="O87" s="84"/>
+      <c r="P87" s="84"/>
+      <c r="Q87" s="84"/>
+      <c r="R87" s="84"/>
+      <c r="T87" s="81">
+        <f t="shared" ref="T87" si="18">SUM(E87:R87)</f>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Listing_Tool_Status_Report_v1.0.xlsx
+++ b/docs/Listing_Tool_Status_Report_v1.0.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5352" yWindow="-360" windowWidth="16608" windowHeight="9432" activeTab="2"/>
+    <workbookView xWindow="5355" yWindow="-360" windowWidth="16605" windowHeight="9435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="WBS" sheetId="5" r:id="rId2"/>
     <sheet name="March 2015" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="197">
   <si>
     <t>Project Name:</t>
   </si>
@@ -2157,14 +2157,17 @@
 </t>
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5 建立商户多帐户，测试验证商户url可行性</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -2176,7 +2179,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2239,7 +2242,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2314,7 +2317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -2709,14 +2712,58 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="3"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color theme="3"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="medium">
+        <color theme="3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2776,7 +2823,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2965,9 +3012,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2983,6 +3027,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2992,6 +3045,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3001,69 +3084,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="1"/>
     <cellStyle name="Normal 3 2" xfId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3079,7 +3126,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3153,7 +3200,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3188,7 +3234,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3364,22 +3409,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13.8" thickBot="1"/>
+    <row r="1" spans="2:10" ht="13.5" thickBot="1"/>
     <row r="2" spans="2:10">
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -3391,7 +3436,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="2:10" ht="31.8">
+    <row r="3" spans="2:10" ht="33">
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
         <v>0</v>
@@ -3631,7 +3676,7 @@
       <c r="I20" s="11"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="2:10" ht="13.8" thickBot="1">
+    <row r="21" spans="2:10" ht="13.5" thickBot="1">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -3650,25 +3695,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="39" style="52" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" style="53" customWidth="1"/>
-    <col min="3" max="3" width="54.109375" style="52" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="68" customWidth="1"/>
-    <col min="7" max="8" width="11.5546875" style="52" customWidth="1"/>
-    <col min="9" max="9" width="38.44140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="33"/>
+    <col min="2" max="2" width="41.85546875" style="53" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="52" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="68" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" style="52" customWidth="1"/>
+    <col min="9" max="9" width="38.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3700,7 +3745,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.8" thickBot="1">
+    <row r="2" spans="1:9" ht="13.5" thickBot="1">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="34"/>
@@ -3711,8 +3756,8 @@
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
     </row>
-    <row r="3" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A3" s="102" t="s">
+    <row r="3" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A3" s="104" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="37" t="s">
@@ -3732,8 +3777,8 @@
       </c>
       <c r="I3" s="41"/>
     </row>
-    <row r="4" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A4" s="103"/>
+    <row r="4" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A4" s="105"/>
       <c r="B4" s="42" t="s">
         <v>41</v>
       </c>
@@ -3751,8 +3796,8 @@
       </c>
       <c r="I4" s="46"/>
     </row>
-    <row r="5" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A5" s="104"/>
+    <row r="5" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A5" s="106"/>
       <c r="B5" s="47" t="s">
         <v>42</v>
       </c>
@@ -3768,7 +3813,7 @@
       <c r="H5" s="48"/>
       <c r="I5" s="51"/>
     </row>
-    <row r="6" spans="1:9" ht="13.8" thickBot="1">
+    <row r="6" spans="1:9" ht="13.5" thickBot="1">
       <c r="D6" s="54" t="s">
         <v>43</v>
       </c>
@@ -3780,25 +3825,25 @@
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
     </row>
-    <row r="7" spans="1:9" ht="13.8" thickTop="1">
+    <row r="7" spans="1:9" ht="13.5" thickTop="1">
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
       <c r="F7" s="57"/>
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
     </row>
-    <row r="8" spans="1:9" ht="13.8" thickBot="1">
+    <row r="8" spans="1:9" ht="13.5" thickBot="1">
       <c r="D8" s="54"/>
       <c r="E8" s="54"/>
       <c r="F8" s="57"/>
       <c r="G8" s="56"/>
       <c r="H8" s="56"/>
     </row>
-    <row r="9" spans="1:9" ht="26.7" customHeight="1">
-      <c r="A9" s="102" t="s">
+    <row r="9" spans="1:9" ht="26.65" customHeight="1">
+      <c r="A9" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="117" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="58" t="s">
@@ -3819,9 +3864,9 @@
       </c>
       <c r="I9" s="41"/>
     </row>
-    <row r="10" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A10" s="103"/>
-      <c r="B10" s="106"/>
+    <row r="10" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A10" s="105"/>
+      <c r="B10" s="118"/>
       <c r="C10" s="59" t="s">
         <v>47</v>
       </c>
@@ -3840,9 +3885,9 @@
       </c>
       <c r="I10" s="62"/>
     </row>
-    <row r="11" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A11" s="103"/>
-      <c r="B11" s="106"/>
+    <row r="11" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A11" s="105"/>
+      <c r="B11" s="118"/>
       <c r="C11" s="43" t="s">
         <v>49</v>
       </c>
@@ -3861,9 +3906,9 @@
       </c>
       <c r="I11" s="46"/>
     </row>
-    <row r="12" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A12" s="103"/>
-      <c r="B12" s="106"/>
+    <row r="12" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A12" s="105"/>
+      <c r="B12" s="118"/>
       <c r="C12" s="63" t="s">
         <v>50</v>
       </c>
@@ -3882,9 +3927,9 @@
       </c>
       <c r="I12" s="65"/>
     </row>
-    <row r="13" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A13" s="103"/>
-      <c r="B13" s="107"/>
+    <row r="13" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A13" s="105"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="63" t="s">
         <v>52</v>
       </c>
@@ -3901,9 +3946,9 @@
       </c>
       <c r="I13" s="65"/>
     </row>
-    <row r="14" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A14" s="103"/>
-      <c r="B14" s="108" t="s">
+    <row r="14" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A14" s="105"/>
+      <c r="B14" s="107" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="63" t="s">
@@ -3924,9 +3969,9 @@
       </c>
       <c r="I14" s="65"/>
     </row>
-    <row r="15" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A15" s="103"/>
-      <c r="B15" s="109"/>
+    <row r="15" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A15" s="105"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="63" t="s">
         <v>55</v>
       </c>
@@ -3945,9 +3990,9 @@
       </c>
       <c r="I15" s="65"/>
     </row>
-    <row r="16" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A16" s="103"/>
-      <c r="B16" s="109"/>
+    <row r="16" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A16" s="105"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="63" t="s">
         <v>57</v>
       </c>
@@ -3966,9 +4011,9 @@
       </c>
       <c r="I16" s="65"/>
     </row>
-    <row r="17" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A17" s="103"/>
-      <c r="B17" s="109"/>
+    <row r="17" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A17" s="105"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="63" t="s">
         <v>59</v>
       </c>
@@ -3987,9 +4032,9 @@
       </c>
       <c r="I17" s="65"/>
     </row>
-    <row r="18" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A18" s="103"/>
-      <c r="B18" s="109"/>
+    <row r="18" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A18" s="105"/>
+      <c r="B18" s="108"/>
       <c r="C18" s="63" t="s">
         <v>60</v>
       </c>
@@ -4008,9 +4053,9 @@
       </c>
       <c r="I18" s="65"/>
     </row>
-    <row r="19" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A19" s="103"/>
-      <c r="B19" s="109"/>
+    <row r="19" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A19" s="105"/>
+      <c r="B19" s="108"/>
       <c r="C19" s="63" t="s">
         <v>61</v>
       </c>
@@ -4029,9 +4074,9 @@
       </c>
       <c r="I19" s="65"/>
     </row>
-    <row r="20" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A20" s="103"/>
-      <c r="B20" s="109"/>
+    <row r="20" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A20" s="105"/>
+      <c r="B20" s="108"/>
       <c r="C20" s="63" t="s">
         <v>62</v>
       </c>
@@ -4050,9 +4095,9 @@
       </c>
       <c r="I20" s="65"/>
     </row>
-    <row r="21" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A21" s="103"/>
-      <c r="B21" s="109"/>
+    <row r="21" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A21" s="105"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="90" t="s">
         <v>164</v>
       </c>
@@ -4069,8 +4114,8 @@
       </c>
       <c r="I21" s="65"/>
     </row>
-    <row r="22" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A22" s="104"/>
+    <row r="22" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A22" s="106"/>
       <c r="B22" s="110"/>
       <c r="C22" s="66" t="s">
         <v>165</v>
@@ -4088,7 +4133,7 @@
       </c>
       <c r="I22" s="51"/>
     </row>
-    <row r="23" spans="1:9" ht="13.8" thickBot="1">
+    <row r="23" spans="1:9" ht="13.5" thickBot="1">
       <c r="D23" s="54" t="s">
         <v>43</v>
       </c>
@@ -4100,22 +4145,22 @@
       <c r="G23" s="56"/>
       <c r="H23" s="56"/>
     </row>
-    <row r="24" spans="1:9" ht="13.8" thickTop="1">
+    <row r="24" spans="1:9" ht="13.5" thickTop="1">
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
       <c r="F24" s="57"/>
       <c r="G24" s="56"/>
       <c r="H24" s="56"/>
     </row>
-    <row r="25" spans="1:9" ht="13.8" thickBot="1">
+    <row r="25" spans="1:9" ht="13.5" thickBot="1">
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
       <c r="F25" s="57"/>
       <c r="G25" s="56"/>
       <c r="H25" s="56"/>
     </row>
-    <row r="26" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A26" s="114" t="s">
+    <row r="26" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A26" s="121" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="37" t="s">
@@ -4137,8 +4182,8 @@
       </c>
       <c r="I26" s="41"/>
     </row>
-    <row r="27" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A27" s="115"/>
+    <row r="27" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A27" s="122"/>
       <c r="B27" s="42" t="s">
         <v>66</v>
       </c>
@@ -4158,9 +4203,9 @@
       </c>
       <c r="I27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A28" s="115"/>
-      <c r="B28" s="111" t="s">
+    <row r="28" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A28" s="122"/>
+      <c r="B28" s="114" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="63" t="s">
@@ -4181,9 +4226,9 @@
       </c>
       <c r="I28" s="65"/>
     </row>
-    <row r="29" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A29" s="115"/>
-      <c r="B29" s="112"/>
+    <row r="29" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A29" s="122"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="63" t="s">
         <v>70</v>
       </c>
@@ -4202,9 +4247,9 @@
       </c>
       <c r="I29" s="65"/>
     </row>
-    <row r="30" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A30" s="115"/>
-      <c r="B30" s="113"/>
+    <row r="30" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A30" s="122"/>
+      <c r="B30" s="120"/>
       <c r="C30" s="63" t="s">
         <v>72</v>
       </c>
@@ -4223,9 +4268,9 @@
       </c>
       <c r="I30" s="65"/>
     </row>
-    <row r="31" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A31" s="115"/>
-      <c r="B31" s="111" t="s">
+    <row r="31" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A31" s="122"/>
+      <c r="B31" s="114" t="s">
         <v>127</v>
       </c>
       <c r="C31" s="70" t="s">
@@ -4246,9 +4291,9 @@
       </c>
       <c r="I31" s="65"/>
     </row>
-    <row r="32" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A32" s="115"/>
-      <c r="B32" s="112"/>
+    <row r="32" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A32" s="122"/>
+      <c r="B32" s="115"/>
       <c r="C32" s="70" t="s">
         <v>120</v>
       </c>
@@ -4267,9 +4312,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A33" s="115"/>
-      <c r="B33" s="112"/>
+    <row r="33" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A33" s="122"/>
+      <c r="B33" s="115"/>
       <c r="C33" s="70" t="s">
         <v>122</v>
       </c>
@@ -4290,9 +4335,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A34" s="115"/>
-      <c r="B34" s="112"/>
+    <row r="34" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A34" s="122"/>
+      <c r="B34" s="115"/>
       <c r="C34" s="70" t="s">
         <v>123</v>
       </c>
@@ -4311,9 +4356,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A35" s="115"/>
-      <c r="B35" s="112"/>
+    <row r="35" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A35" s="122"/>
+      <c r="B35" s="115"/>
       <c r="C35" s="70" t="s">
         <v>124</v>
       </c>
@@ -4332,9 +4377,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A36" s="115"/>
-      <c r="B36" s="112"/>
+    <row r="36" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A36" s="122"/>
+      <c r="B36" s="115"/>
       <c r="C36" s="70" t="s">
         <v>125</v>
       </c>
@@ -4353,9 +4398,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A37" s="115"/>
-      <c r="B37" s="120"/>
+    <row r="37" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A37" s="122"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="73" t="s">
         <v>126</v>
       </c>
@@ -4372,9 +4417,9 @@
       </c>
       <c r="I37" s="51"/>
     </row>
-    <row r="38" spans="1:9" ht="13.65" customHeight="1">
-      <c r="A38" s="115"/>
-      <c r="B38" s="125" t="s">
+    <row r="38" spans="1:9" ht="13.7" customHeight="1">
+      <c r="A38" s="122"/>
+      <c r="B38" s="124" t="s">
         <v>168</v>
       </c>
       <c r="C38" s="70" t="s">
@@ -4393,11 +4438,11 @@
       <c r="H38" s="67">
         <v>42089</v>
       </c>
-      <c r="I38" s="96"/>
-    </row>
-    <row r="39" spans="1:9" ht="13.65" customHeight="1">
-      <c r="A39" s="115"/>
-      <c r="B39" s="112"/>
+      <c r="I38" s="70"/>
+    </row>
+    <row r="39" spans="1:9" ht="13.7" customHeight="1">
+      <c r="A39" s="122"/>
+      <c r="B39" s="125"/>
       <c r="C39" s="70" t="s">
         <v>169</v>
       </c>
@@ -4405,7 +4450,7 @@
         <v>119</v>
       </c>
       <c r="E39" s="70"/>
-      <c r="F39" s="97">
+      <c r="F39" s="96">
         <v>16</v>
       </c>
       <c r="G39" s="67">
@@ -4416,9 +4461,9 @@
       </c>
       <c r="I39" s="70"/>
     </row>
-    <row r="40" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A40" s="115"/>
-      <c r="B40" s="112"/>
+    <row r="40" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A40" s="122"/>
+      <c r="B40" s="125"/>
       <c r="C40" s="73" t="s">
         <v>170</v>
       </c>
@@ -4437,9 +4482,9 @@
       </c>
       <c r="I40" s="51"/>
     </row>
-    <row r="41" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A41" s="116"/>
-      <c r="B41" s="126"/>
+    <row r="41" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A41" s="122"/>
+      <c r="B41" s="125"/>
       <c r="C41" s="73" t="s">
         <v>188</v>
       </c>
@@ -4458,26 +4503,35 @@
       </c>
       <c r="I41" s="51"/>
     </row>
-    <row r="42" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D42" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="55">
-        <f>SUM(F26:F37)</f>
-        <v>36</v>
-      </c>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-    </row>
-    <row r="43" spans="1:9" ht="13.8" thickTop="1">
+    <row r="42" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A42" s="123"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="D42" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" s="76"/>
+      <c r="F42" s="77">
+        <v>9</v>
+      </c>
+      <c r="G42" s="78">
+        <v>42090</v>
+      </c>
+      <c r="H42" s="78">
+        <v>42093</v>
+      </c>
+      <c r="I42" s="51"/>
+    </row>
+    <row r="43" spans="1:9">
       <c r="D43" s="54"/>
       <c r="E43" s="54"/>
       <c r="F43" s="57"/>
       <c r="G43" s="56"/>
       <c r="H43" s="56"/>
     </row>
-    <row r="44" spans="1:9" ht="13.8" thickBot="1">
+    <row r="44" spans="1:9" ht="13.5" thickBot="1">
       <c r="D44" s="54"/>
       <c r="E44" s="54"/>
       <c r="F44" s="57"/>
@@ -4485,7 +4539,7 @@
       <c r="H44" s="56"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="102" t="s">
+      <c r="A45" s="104" t="s">
         <v>74</v>
       </c>
       <c r="B45" s="37" t="s">
@@ -4506,8 +4560,8 @@
       <c r="I45" s="41"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="103"/>
-      <c r="B46" s="108" t="s">
+      <c r="A46" s="105"/>
+      <c r="B46" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C46" s="69" t="s">
@@ -4527,8 +4581,8 @@
       <c r="I46" s="46"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="103"/>
-      <c r="B47" s="109"/>
+      <c r="A47" s="105"/>
+      <c r="B47" s="108"/>
       <c r="C47" s="63" t="s">
         <v>79</v>
       </c>
@@ -4546,8 +4600,8 @@
       <c r="I47" s="65"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="103"/>
-      <c r="B48" s="109"/>
+      <c r="A48" s="105"/>
+      <c r="B48" s="108"/>
       <c r="C48" s="63" t="s">
         <v>80</v>
       </c>
@@ -4565,8 +4619,8 @@
       <c r="I48" s="65"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="103"/>
-      <c r="B49" s="109"/>
+      <c r="A49" s="105"/>
+      <c r="B49" s="108"/>
       <c r="C49" s="63" t="s">
         <v>81</v>
       </c>
@@ -4584,8 +4638,8 @@
       <c r="I49" s="65"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="103"/>
-      <c r="B50" s="109"/>
+      <c r="A50" s="105"/>
+      <c r="B50" s="108"/>
       <c r="C50" s="63" t="s">
         <v>83</v>
       </c>
@@ -4603,8 +4657,8 @@
       <c r="I50" s="65"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="103"/>
-      <c r="B51" s="121"/>
+      <c r="A51" s="105"/>
+      <c r="B51" s="109"/>
       <c r="C51" s="63" t="s">
         <v>85</v>
       </c>
@@ -4622,8 +4676,8 @@
       <c r="I51" s="65"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="103"/>
-      <c r="B52" s="108" t="s">
+      <c r="A52" s="105"/>
+      <c r="B52" s="107" t="s">
         <v>87</v>
       </c>
       <c r="C52" s="63" t="s">
@@ -4634,7 +4688,7 @@
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64">
-        <f>'March 2015'!T40</f>
+        <f>'March 2015'!T41</f>
         <v>7</v>
       </c>
       <c r="G52" s="67">
@@ -4646,8 +4700,8 @@
       <c r="I52" s="65"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="103"/>
-      <c r="B53" s="109"/>
+      <c r="A53" s="105"/>
+      <c r="B53" s="108"/>
       <c r="C53" s="70" t="s">
         <v>90</v>
       </c>
@@ -4656,7 +4710,7 @@
       </c>
       <c r="E53" s="63"/>
       <c r="F53" s="64">
-        <f>'March 2015'!T41</f>
+        <f>'March 2015'!T42</f>
         <v>13</v>
       </c>
       <c r="G53" s="67">
@@ -4668,8 +4722,8 @@
       <c r="I53" s="65"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="103"/>
-      <c r="B54" s="109"/>
+      <c r="A54" s="105"/>
+      <c r="B54" s="108"/>
       <c r="C54" s="63" t="s">
         <v>91</v>
       </c>
@@ -4678,7 +4732,7 @@
       </c>
       <c r="E54" s="63"/>
       <c r="F54" s="64">
-        <f>'March 2015'!T42</f>
+        <f>'March 2015'!T43</f>
         <v>0</v>
       </c>
       <c r="G54" s="67">
@@ -4690,8 +4744,8 @@
       <c r="I54" s="65"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="103"/>
-      <c r="B55" s="109"/>
+      <c r="A55" s="105"/>
+      <c r="B55" s="108"/>
       <c r="C55" s="70" t="s">
         <v>93</v>
       </c>
@@ -4700,7 +4754,7 @@
       </c>
       <c r="E55" s="63"/>
       <c r="F55" s="64">
-        <f>'March 2015'!T43</f>
+        <f>'March 2015'!T44</f>
         <v>22</v>
       </c>
       <c r="G55" s="67">
@@ -4712,8 +4766,8 @@
       <c r="I55" s="71"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="103"/>
-      <c r="B56" s="109"/>
+      <c r="A56" s="105"/>
+      <c r="B56" s="108"/>
       <c r="C56" s="70" t="s">
         <v>94</v>
       </c>
@@ -4722,7 +4776,7 @@
       </c>
       <c r="E56" s="63"/>
       <c r="F56" s="64">
-        <f>'March 2015'!T44</f>
+        <f>'March 2015'!T45</f>
         <v>9</v>
       </c>
       <c r="G56" s="67">
@@ -4734,17 +4788,17 @@
       <c r="I56" s="65"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="103"/>
-      <c r="B57" s="109"/>
+      <c r="A57" s="105"/>
+      <c r="B57" s="108"/>
       <c r="C57" s="70" t="s">
         <v>96</v>
       </c>
       <c r="D57" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="98"/>
+      <c r="E57" s="97"/>
       <c r="F57" s="64">
-        <f>'March 2015'!T45</f>
+        <f>'March 2015'!T46</f>
         <v>1</v>
       </c>
       <c r="G57" s="67">
@@ -4755,8 +4809,8 @@
       </c>
       <c r="I57" s="71"/>
     </row>
-    <row r="58" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A58" s="104"/>
+    <row r="58" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A58" s="106"/>
       <c r="B58" s="110"/>
       <c r="C58" s="73" t="s">
         <v>180</v>
@@ -4766,7 +4820,7 @@
       </c>
       <c r="E58" s="48"/>
       <c r="F58" s="64">
-        <f>'March 2015'!T46</f>
+        <f>'March 2015'!T47</f>
         <v>4</v>
       </c>
       <c r="G58" s="50">
@@ -4777,7 +4831,7 @@
       </c>
       <c r="I58" s="51"/>
     </row>
-    <row r="59" spans="1:9" ht="13.8" thickBot="1">
+    <row r="59" spans="1:9" ht="13.5" thickBot="1">
       <c r="D59" s="54" t="s">
         <v>43</v>
       </c>
@@ -4787,13 +4841,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="13.8" thickTop="1"/>
-    <row r="61" spans="1:9" ht="13.8" thickBot="1"/>
+    <row r="60" spans="1:9" ht="13.5" thickTop="1"/>
+    <row r="61" spans="1:9" ht="13.5" thickBot="1"/>
     <row r="62" spans="1:9">
-      <c r="A62" s="122" t="s">
+      <c r="A62" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="123" t="s">
+      <c r="B62" s="112" t="s">
         <v>136</v>
       </c>
       <c r="C62" s="38" t="s">
@@ -4815,8 +4869,8 @@
       <c r="I62" s="41"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="103"/>
-      <c r="B63" s="124"/>
+      <c r="A63" s="105"/>
+      <c r="B63" s="113"/>
       <c r="C63" s="59" t="s">
         <v>100</v>
       </c>
@@ -4836,8 +4890,8 @@
       <c r="I63" s="62"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="103"/>
-      <c r="B64" s="108" t="s">
+      <c r="A64" s="105"/>
+      <c r="B64" s="107" t="s">
         <v>138</v>
       </c>
       <c r="C64" s="43" t="s">
@@ -4859,8 +4913,8 @@
       <c r="I64" s="46"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="103"/>
-      <c r="B65" s="109"/>
+      <c r="A65" s="105"/>
+      <c r="B65" s="108"/>
       <c r="C65" s="63" t="s">
         <v>103</v>
       </c>
@@ -4880,8 +4934,8 @@
       <c r="I65" s="65"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="103"/>
-      <c r="B66" s="109"/>
+      <c r="A66" s="105"/>
+      <c r="B66" s="108"/>
       <c r="C66" s="63" t="s">
         <v>105</v>
       </c>
@@ -4901,8 +4955,8 @@
       <c r="I66" s="65"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="103"/>
-      <c r="B67" s="121"/>
+      <c r="A67" s="105"/>
+      <c r="B67" s="109"/>
       <c r="C67" s="63" t="s">
         <v>107</v>
       </c>
@@ -4922,7 +4976,7 @@
       <c r="I67" s="65"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="103"/>
+      <c r="A68" s="105"/>
       <c r="B68" s="42" t="s">
         <v>140</v>
       </c>
@@ -4943,8 +4997,8 @@
       <c r="I68" s="65"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="103"/>
-      <c r="B69" s="108" t="s">
+      <c r="A69" s="105"/>
+      <c r="B69" s="107" t="s">
         <v>142</v>
       </c>
       <c r="C69" s="63" t="s">
@@ -4966,8 +5020,8 @@
       <c r="I69" s="65"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="103"/>
-      <c r="B70" s="109"/>
+      <c r="A70" s="105"/>
+      <c r="B70" s="108"/>
       <c r="C70" s="63" t="s">
         <v>111</v>
       </c>
@@ -4987,8 +5041,8 @@
       <c r="I70" s="65"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="103"/>
-      <c r="B71" s="109"/>
+      <c r="A71" s="105"/>
+      <c r="B71" s="108"/>
       <c r="C71" s="63" t="s">
         <v>112</v>
       </c>
@@ -5008,8 +5062,8 @@
       <c r="I71" s="65"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="103"/>
-      <c r="B72" s="121"/>
+      <c r="A72" s="105"/>
+      <c r="B72" s="109"/>
       <c r="C72" s="63" t="s">
         <v>113</v>
       </c>
@@ -5029,7 +5083,7 @@
       <c r="I72" s="71"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="103"/>
+      <c r="A73" s="105"/>
       <c r="B73" s="42" t="s">
         <v>144</v>
       </c>
@@ -5051,9 +5105,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A74" s="104"/>
-      <c r="B74" s="108" t="s">
+    <row r="74" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A74" s="106"/>
+      <c r="B74" s="107" t="s">
         <v>145</v>
       </c>
       <c r="C74" s="42" t="s">
@@ -5074,7 +5128,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="91"/>
-      <c r="B75" s="109"/>
+      <c r="B75" s="108"/>
       <c r="C75" s="42" t="s">
         <v>147</v>
       </c>
@@ -5093,7 +5147,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="92"/>
-      <c r="B76" s="109"/>
+      <c r="B76" s="108"/>
       <c r="C76" s="42" t="s">
         <v>150</v>
       </c>
@@ -5112,7 +5166,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="92"/>
-      <c r="B77" s="109"/>
+      <c r="B77" s="108"/>
       <c r="C77" s="42" t="s">
         <v>148</v>
       </c>
@@ -5131,7 +5185,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="92"/>
-      <c r="B78" s="109"/>
+      <c r="B78" s="108"/>
       <c r="C78" s="42" t="s">
         <v>151</v>
       </c>
@@ -5148,7 +5202,7 @@
       </c>
       <c r="I78" s="71"/>
     </row>
-    <row r="79" spans="1:9" ht="13.8" thickBot="1">
+    <row r="79" spans="1:9" ht="13.5" thickBot="1">
       <c r="A79" s="92"/>
       <c r="B79" s="110"/>
       <c r="C79" s="76" t="s">
@@ -5169,7 +5223,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="92"/>
-      <c r="B80" s="117" t="s">
+      <c r="B80" s="101" t="s">
         <v>163</v>
       </c>
       <c r="C80" s="42" t="s">
@@ -5190,7 +5244,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="92"/>
-      <c r="B81" s="118"/>
+      <c r="B81" s="102"/>
       <c r="C81" s="42" t="s">
         <v>156</v>
       </c>
@@ -5209,7 +5263,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="92"/>
-      <c r="B82" s="118"/>
+      <c r="B82" s="102"/>
       <c r="C82" s="42" t="s">
         <v>157</v>
       </c>
@@ -5228,7 +5282,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="92"/>
-      <c r="B83" s="118"/>
+      <c r="B83" s="102"/>
       <c r="C83" s="42" t="s">
         <v>160</v>
       </c>
@@ -5247,7 +5301,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="92"/>
-      <c r="B84" s="118"/>
+      <c r="B84" s="102"/>
       <c r="C84" s="42" t="s">
         <v>161</v>
       </c>
@@ -5264,9 +5318,9 @@
       </c>
       <c r="I84" s="71"/>
     </row>
-    <row r="85" spans="1:9" ht="13.8" thickBot="1">
+    <row r="85" spans="1:9" ht="13.5" thickBot="1">
       <c r="A85" s="93"/>
-      <c r="B85" s="119"/>
+      <c r="B85" s="103"/>
       <c r="C85" s="76" t="s">
         <v>162</v>
       </c>
@@ -5285,7 +5339,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="92"/>
-      <c r="B86" s="117" t="s">
+      <c r="B86" s="101" t="s">
         <v>172</v>
       </c>
       <c r="C86" s="42" t="s">
@@ -5306,7 +5360,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="92"/>
-      <c r="B87" s="118"/>
+      <c r="B87" s="102"/>
       <c r="C87" s="42" t="s">
         <v>174</v>
       </c>
@@ -5325,7 +5379,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="92"/>
-      <c r="B88" s="118"/>
+      <c r="B88" s="102"/>
       <c r="C88" s="42" t="s">
         <v>175</v>
       </c>
@@ -5344,7 +5398,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="92"/>
-      <c r="B89" s="118"/>
+      <c r="B89" s="102"/>
       <c r="C89" s="42" t="s">
         <v>176</v>
       </c>
@@ -5363,7 +5417,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="92"/>
-      <c r="B90" s="118"/>
+      <c r="B90" s="102"/>
       <c r="C90" s="42" t="s">
         <v>177</v>
       </c>
@@ -5380,10 +5434,10 @@
       </c>
       <c r="I90" s="71"/>
     </row>
-    <row r="91" spans="1:9" ht="51" thickBot="1">
+    <row r="91" spans="1:9" ht="50.25" thickBot="1">
       <c r="A91" s="93"/>
-      <c r="B91" s="119"/>
-      <c r="C91" s="99" t="s">
+      <c r="B91" s="103"/>
+      <c r="C91" s="98" t="s">
         <v>178</v>
       </c>
       <c r="D91" s="76" t="s">
@@ -5401,16 +5455,16 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="92"/>
-      <c r="B92" s="117" t="s">
+      <c r="B92" s="101" t="s">
         <v>181</v>
       </c>
       <c r="C92" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="D92" s="100" t="s">
+      <c r="D92" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="E92" s="100"/>
+      <c r="E92" s="99"/>
       <c r="F92" s="64"/>
       <c r="G92" s="67">
         <v>42089</v>
@@ -5422,14 +5476,14 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="92"/>
-      <c r="B93" s="118"/>
+      <c r="B93" s="102"/>
       <c r="C93" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="D93" s="100" t="s">
+      <c r="D93" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="E93" s="100"/>
+      <c r="E93" s="99"/>
       <c r="F93" s="64"/>
       <c r="G93" s="67">
         <v>42089</v>
@@ -5441,14 +5495,14 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="92"/>
-      <c r="B94" s="118"/>
+      <c r="B94" s="102"/>
       <c r="C94" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="D94" s="100" t="s">
+      <c r="D94" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="E94" s="100"/>
+      <c r="E94" s="99"/>
       <c r="F94" s="64"/>
       <c r="G94" s="67">
         <v>42089</v>
@@ -5460,14 +5514,14 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="92"/>
-      <c r="B95" s="118"/>
+      <c r="B95" s="102"/>
       <c r="C95" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="D95" s="100" t="s">
+      <c r="D95" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="E95" s="100"/>
+      <c r="E95" s="99"/>
       <c r="F95" s="64"/>
       <c r="G95" s="67">
         <v>42089</v>
@@ -5479,14 +5533,14 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="92"/>
-      <c r="B96" s="118"/>
+      <c r="B96" s="102"/>
       <c r="C96" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="D96" s="100" t="s">
+      <c r="D96" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="E96" s="100"/>
+      <c r="E96" s="99"/>
       <c r="F96" s="64"/>
       <c r="G96" s="67">
         <v>42089</v>
@@ -5496,10 +5550,10 @@
       </c>
       <c r="I96" s="71"/>
     </row>
-    <row r="97" spans="1:9" ht="16.95" customHeight="1" thickBot="1">
+    <row r="97" spans="1:9" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A97" s="93"/>
-      <c r="B97" s="119"/>
-      <c r="C97" s="99" t="s">
+      <c r="B97" s="103"/>
+      <c r="C97" s="98" t="s">
         <v>187</v>
       </c>
       <c r="D97" s="76" t="s">
@@ -5517,16 +5571,16 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="92"/>
-      <c r="B98" s="117" t="s">
+      <c r="B98" s="101" t="s">
         <v>189</v>
       </c>
       <c r="C98" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="D98" s="101" t="s">
+      <c r="D98" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="E98" s="101"/>
+      <c r="E98" s="100"/>
       <c r="F98" s="64"/>
       <c r="G98" s="67">
         <v>42090</v>
@@ -5538,14 +5592,14 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="92"/>
-      <c r="B99" s="118"/>
+      <c r="B99" s="102"/>
       <c r="C99" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="D99" s="101" t="s">
+      <c r="D99" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="E99" s="101"/>
+      <c r="E99" s="100"/>
       <c r="F99" s="64"/>
       <c r="G99" s="67">
         <v>42090</v>
@@ -5557,14 +5611,14 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="92"/>
-      <c r="B100" s="118"/>
+      <c r="B100" s="102"/>
       <c r="C100" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="D100" s="101" t="s">
+      <c r="D100" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="E100" s="101"/>
+      <c r="E100" s="100"/>
       <c r="F100" s="64"/>
       <c r="G100" s="67">
         <v>42090</v>
@@ -5576,14 +5630,14 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="92"/>
-      <c r="B101" s="118"/>
+      <c r="B101" s="102"/>
       <c r="C101" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="D101" s="101" t="s">
+      <c r="D101" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="E101" s="101"/>
+      <c r="E101" s="100"/>
       <c r="F101" s="64"/>
       <c r="G101" s="67">
         <v>42090</v>
@@ -5595,14 +5649,14 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="92"/>
-      <c r="B102" s="118"/>
+      <c r="B102" s="102"/>
       <c r="C102" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="D102" s="101" t="s">
+      <c r="D102" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="E102" s="101"/>
+      <c r="E102" s="100"/>
       <c r="F102" s="64"/>
       <c r="G102" s="67">
         <v>42090</v>
@@ -5612,10 +5666,10 @@
       </c>
       <c r="I102" s="71"/>
     </row>
-    <row r="103" spans="1:9" ht="16.95" customHeight="1" thickBot="1">
+    <row r="103" spans="1:9" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A103" s="93"/>
-      <c r="B103" s="119"/>
-      <c r="C103" s="99" t="s">
+      <c r="B103" s="103"/>
+      <c r="C103" s="98" t="s">
         <v>195</v>
       </c>
       <c r="D103" s="76" t="s">
@@ -5633,6 +5687,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A9:A22"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="A26:A42"/>
     <mergeCell ref="B98:B103"/>
     <mergeCell ref="A45:A58"/>
     <mergeCell ref="B46:B51"/>
@@ -5645,14 +5707,6 @@
     <mergeCell ref="B74:B79"/>
     <mergeCell ref="B86:B91"/>
     <mergeCell ref="B80:B85"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A9:A22"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A26:A41"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5661,29 +5715,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I87" sqref="I87"/>
+      <selection pane="bottomRight" activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="64.88671875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" style="23" customWidth="1"/>
-    <col min="5" max="18" width="4.44140625" style="23" customWidth="1"/>
-    <col min="19" max="19" width="2.88671875" style="23" customWidth="1"/>
-    <col min="20" max="20" width="7.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="23"/>
+    <col min="1" max="1" width="8.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.85546875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="23" customWidth="1"/>
+    <col min="5" max="18" width="4.42578125" style="23" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" style="23" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.6">
+    <row r="1" spans="1:20" ht="15.75">
       <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
@@ -5770,7 +5824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="13.8" thickBot="1">
+    <row r="9" spans="1:20" ht="13.5" thickBot="1">
       <c r="B9" s="20" t="s">
         <v>10</v>
       </c>
@@ -5778,7 +5832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" ht="25.5">
       <c r="B10" s="87">
         <v>1</v>
       </c>
@@ -6497,78 +6551,69 @@
       <c r="P36" s="84"/>
       <c r="Q36" s="84"/>
       <c r="R36" s="84"/>
-      <c r="T36" s="81">
-        <f t="shared" ref="T36" si="3">SUM(E36:R36)</f>
+      <c r="T36" s="81"/>
+    </row>
+    <row r="37" spans="1:20" s="80" customFormat="1">
+      <c r="B37" s="83">
+        <v>13</v>
+      </c>
+      <c r="C37" s="84" t="s">
+        <v>196</v>
+      </c>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="84"/>
+      <c r="M37" s="84"/>
+      <c r="N37" s="82">
+        <v>9</v>
+      </c>
+      <c r="O37" s="84"/>
+      <c r="P37" s="84"/>
+      <c r="Q37" s="84"/>
+      <c r="R37" s="84"/>
+      <c r="T37" s="81">
+        <f t="shared" ref="T37" si="3">SUM(E37:R37)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="B40" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="A38" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="B39" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="B40" s="21">
-        <v>1</v>
-      </c>
-      <c r="C40" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="19">
-        <v>5</v>
-      </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="82">
-        <v>2</v>
-      </c>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
-      <c r="T40" s="3">
-        <f>SUM(E40:R40)</f>
-        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:20">
       <c r="B41" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" s="70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D41" s="25"/>
       <c r="E41" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
-      <c r="I41" s="22">
-        <v>4</v>
-      </c>
+      <c r="I41" s="25"/>
       <c r="J41" s="25"/>
-      <c r="K41" s="82">
-        <v>5</v>
-      </c>
+      <c r="K41" s="25"/>
       <c r="L41" s="82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M41" s="25"/>
       <c r="N41" s="25"/>
@@ -6577,26 +6622,34 @@
       <c r="Q41" s="25"/>
       <c r="R41" s="25"/>
       <c r="T41" s="3">
-        <f t="shared" ref="T41:T44" si="4">SUM(E41:R41)</f>
-        <v>13</v>
+        <f>SUM(E41:R41)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:20">
       <c r="B42" s="21">
+        <v>2</v>
+      </c>
+      <c r="C42" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="25"/>
+      <c r="E42" s="19">
         <v>3</v>
       </c>
-      <c r="C42" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
+      <c r="I42" s="22">
+        <v>4</v>
+      </c>
       <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
+      <c r="K42" s="82">
+        <v>5</v>
+      </c>
+      <c r="L42" s="82">
+        <v>1</v>
+      </c>
       <c r="M42" s="25"/>
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
@@ -6604,33 +6657,26 @@
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
       <c r="T42" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="T42:T45" si="4">SUM(E42:R42)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:20">
-      <c r="B43" s="87">
-        <v>4</v>
-      </c>
-      <c r="C43" s="88" t="s">
-        <v>115</v>
+      <c r="B43" s="21">
+        <v>3</v>
+      </c>
+      <c r="C43" s="63" t="s">
+        <v>91</v>
       </c>
       <c r="D43" s="25"/>
-      <c r="F43" s="19">
-        <v>8</v>
-      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
-      <c r="J43" s="82">
-        <v>8</v>
-      </c>
-      <c r="K43" s="82">
-        <v>1</v>
-      </c>
-      <c r="L43" s="82">
-        <v>5</v>
-      </c>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
       <c r="M43" s="25"/>
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
@@ -6638,30 +6684,33 @@
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
       <c r="T43" s="3">
-        <f>SUM(E43:R43)</f>
-        <v>22</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:20">
-      <c r="B44" s="21">
-        <v>5</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>116</v>
+      <c r="B44" s="87">
+        <v>4</v>
+      </c>
+      <c r="C44" s="88" t="s">
+        <v>115</v>
       </c>
       <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="19">
+      <c r="F44" s="19">
         <v>8</v>
       </c>
+      <c r="G44" s="25"/>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
+      <c r="J44" s="82">
+        <v>8</v>
+      </c>
       <c r="K44" s="82">
         <v>1</v>
       </c>
-      <c r="L44" s="25"/>
+      <c r="L44" s="82">
+        <v>5</v>
+      </c>
       <c r="M44" s="25"/>
       <c r="N44" s="25"/>
       <c r="O44" s="25"/>
@@ -6669,45 +6718,47 @@
       <c r="Q44" s="25"/>
       <c r="R44" s="25"/>
       <c r="T44" s="3">
+        <f>SUM(E44:R44)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="B45" s="21">
+        <v>5</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="19">
+        <v>8</v>
+      </c>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="82">
+        <v>1</v>
+      </c>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="T45" s="3">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="80" customFormat="1">
-      <c r="B45" s="83">
-        <v>6</v>
-      </c>
-      <c r="C45" s="84" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="84"/>
-      <c r="K45" s="84"/>
-      <c r="L45" s="82">
-        <v>1</v>
-      </c>
-      <c r="M45" s="84"/>
-      <c r="N45" s="84"/>
-      <c r="O45" s="84"/>
-      <c r="P45" s="84"/>
-      <c r="Q45" s="84"/>
-      <c r="R45" s="84"/>
-      <c r="T45" s="81">
-        <f t="shared" ref="T45" si="5">SUM(E45:R45)</f>
-        <v>1</v>
-      </c>
-    </row>
     <row r="46" spans="1:20" s="80" customFormat="1">
       <c r="B46" s="83">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" s="84" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="D46" s="84"/>
       <c r="E46" s="84"/>
@@ -6716,9 +6767,7 @@
       <c r="H46" s="84"/>
       <c r="I46" s="84"/>
       <c r="J46" s="84"/>
-      <c r="K46" s="82">
-        <v>3</v>
-      </c>
+      <c r="K46" s="84"/>
       <c r="L46" s="82">
         <v>1</v>
       </c>
@@ -6729,86 +6778,88 @@
       <c r="Q46" s="84"/>
       <c r="R46" s="84"/>
       <c r="T46" s="81">
-        <f t="shared" ref="T46" si="6">SUM(E46:R46)</f>
+        <f t="shared" ref="T46" si="5">SUM(E46:R46)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" s="80" customFormat="1">
+      <c r="B47" s="83">
+        <v>7</v>
+      </c>
+      <c r="C47" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="82">
+        <v>3</v>
+      </c>
+      <c r="L47" s="82">
+        <v>1</v>
+      </c>
+      <c r="M47" s="84"/>
+      <c r="N47" s="84"/>
+      <c r="O47" s="84"/>
+      <c r="P47" s="84"/>
+      <c r="Q47" s="84"/>
+      <c r="R47" s="84"/>
+      <c r="T47" s="81">
+        <f t="shared" ref="T47" si="6">SUM(E47:R47)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="80" customFormat="1">
-      <c r="B47" s="27"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="T47" s="28"/>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="A48" s="24" t="s">
+    <row r="48" spans="1:20" s="80" customFormat="1">
+      <c r="B48" s="27"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="T48" s="28"/>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="2:20">
-      <c r="B49" s="20" t="s">
+    <row r="50" spans="1:20">
+      <c r="B50" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="2:20">
-      <c r="B50" s="21">
+    <row r="51" spans="1:20">
+      <c r="B51" s="21">
         <v>1</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C51" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="19">
+      <c r="D51" s="25"/>
+      <c r="E51" s="19">
         <v>8</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F51" s="19">
         <v>8</v>
       </c>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="25"/>
-      <c r="O50" s="25"/>
-      <c r="P50" s="25"/>
-      <c r="Q50" s="25"/>
-      <c r="R50" s="25"/>
-      <c r="T50" s="3">
-        <f>SUM(E50:R50)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="2:20">
-      <c r="B51" s="83">
-        <v>2</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="19">
-        <v>8</v>
-      </c>
+      <c r="G51" s="25"/>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
@@ -6821,55 +6872,55 @@
       <c r="Q51" s="25"/>
       <c r="R51" s="25"/>
       <c r="T51" s="3">
-        <f t="shared" ref="T51:T57" si="7">SUM(E51:R51)</f>
+        <f>SUM(E51:R51)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="B52" s="83">
+        <v>2</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="19">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="2:20" s="80" customFormat="1">
-      <c r="B52" s="83">
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
+      <c r="T52" s="3">
+        <f t="shared" ref="T52:T58" si="7">SUM(E52:R52)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" s="80" customFormat="1">
+      <c r="B53" s="83">
         <v>3</v>
       </c>
-      <c r="C52" s="84" t="s">
+      <c r="C53" s="84" t="s">
         <v>144</v>
-      </c>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="82">
-        <v>8</v>
-      </c>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="84"/>
-      <c r="O52" s="84"/>
-      <c r="P52" s="84"/>
-      <c r="Q52" s="84"/>
-      <c r="R52" s="84"/>
-      <c r="T52" s="81">
-        <f t="shared" ref="T52:T53" si="8">SUM(E52:R52)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="2:20" s="80" customFormat="1">
-      <c r="B53" s="83">
-        <v>4</v>
-      </c>
-      <c r="C53" s="74">
-        <v>6.1</v>
       </c>
       <c r="D53" s="84"/>
       <c r="E53" s="84"/>
       <c r="F53" s="84"/>
       <c r="G53" s="84"/>
       <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="82">
-        <v>2</v>
-      </c>
+      <c r="I53" s="82">
+        <v>8</v>
+      </c>
+      <c r="J53" s="84"/>
       <c r="K53" s="84"/>
       <c r="L53" s="84"/>
       <c r="M53" s="84"/>
@@ -6879,13 +6930,13 @@
       <c r="Q53" s="84"/>
       <c r="R53" s="84"/>
       <c r="T53" s="81">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:20" s="80" customFormat="1">
+        <f t="shared" ref="T53:T54" si="8">SUM(E53:R53)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" s="80" customFormat="1">
       <c r="B54" s="83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C54" s="74">
         <v>6.1</v>
@@ -6908,71 +6959,71 @@
       <c r="Q54" s="84"/>
       <c r="R54" s="84"/>
       <c r="T54" s="81">
-        <f t="shared" ref="T54" si="9">SUM(E54:R54)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="2:20">
+    <row r="55" spans="1:20" s="80" customFormat="1">
       <c r="B55" s="83">
+        <v>5</v>
+      </c>
+      <c r="C55" s="74">
+        <v>6.1</v>
+      </c>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="84"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="84"/>
+      <c r="J55" s="82">
+        <v>2</v>
+      </c>
+      <c r="K55" s="84"/>
+      <c r="L55" s="84"/>
+      <c r="M55" s="84"/>
+      <c r="N55" s="84"/>
+      <c r="O55" s="84"/>
+      <c r="P55" s="84"/>
+      <c r="Q55" s="84"/>
+      <c r="R55" s="84"/>
+      <c r="T55" s="81">
+        <f t="shared" ref="T55" si="9">SUM(E55:R55)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="B56" s="83">
         <v>6</v>
       </c>
-      <c r="C55" s="74">
+      <c r="C56" s="74">
         <v>6.3</v>
       </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="19">
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="19">
         <v>4</v>
       </c>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="25"/>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="25"/>
-      <c r="R55" s="25"/>
-      <c r="T55" s="3">
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="25"/>
+      <c r="T56" s="3">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="2:20" s="80" customFormat="1">
-      <c r="B56" s="83">
+    <row r="57" spans="1:20" s="80" customFormat="1">
+      <c r="B57" s="83">
         <v>7</v>
-      </c>
-      <c r="C56" s="74">
-        <v>7.1</v>
-      </c>
-      <c r="D56" s="84"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="84"/>
-      <c r="H56" s="84"/>
-      <c r="I56" s="84"/>
-      <c r="J56" s="84"/>
-      <c r="K56" s="82">
-        <v>2</v>
-      </c>
-      <c r="L56" s="84"/>
-      <c r="M56" s="84"/>
-      <c r="N56" s="84"/>
-      <c r="O56" s="84"/>
-      <c r="P56" s="84"/>
-      <c r="Q56" s="84"/>
-      <c r="R56" s="84"/>
-      <c r="T56" s="81">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="2:20" s="80" customFormat="1">
-      <c r="B57" s="83">
-        <v>8</v>
       </c>
       <c r="C57" s="74">
         <v>7.1</v>
@@ -6985,7 +7036,7 @@
       <c r="I57" s="84"/>
       <c r="J57" s="84"/>
       <c r="K57" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L57" s="84"/>
       <c r="M57" s="84"/>
@@ -6996,15 +7047,15 @@
       <c r="R57" s="84"/>
       <c r="T57" s="81">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="2:20" s="80" customFormat="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" s="80" customFormat="1">
       <c r="B58" s="83">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C58" s="74">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="D58" s="84"/>
       <c r="E58" s="84"/>
@@ -7014,7 +7065,7 @@
       <c r="I58" s="84"/>
       <c r="J58" s="84"/>
       <c r="K58" s="82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L58" s="84"/>
       <c r="M58" s="84"/>
@@ -7024,16 +7075,16 @@
       <c r="Q58" s="84"/>
       <c r="R58" s="84"/>
       <c r="T58" s="81">
-        <f t="shared" ref="T58:T60" si="10">SUM(E58:R58)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="2:20" s="80" customFormat="1">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" s="80" customFormat="1">
       <c r="B59" s="83">
-        <v>10</v>
-      </c>
-      <c r="C59" s="42" t="s">
-        <v>173</v>
+        <v>9</v>
+      </c>
+      <c r="C59" s="74">
+        <v>7.3</v>
       </c>
       <c r="D59" s="84"/>
       <c r="E59" s="84"/>
@@ -7042,10 +7093,10 @@
       <c r="H59" s="84"/>
       <c r="I59" s="84"/>
       <c r="J59" s="84"/>
-      <c r="K59" s="84"/>
-      <c r="L59" s="82">
-        <v>2</v>
-      </c>
+      <c r="K59" s="82">
+        <v>5</v>
+      </c>
+      <c r="L59" s="84"/>
       <c r="M59" s="84"/>
       <c r="N59" s="84"/>
       <c r="O59" s="84"/>
@@ -7053,16 +7104,16 @@
       <c r="Q59" s="84"/>
       <c r="R59" s="84"/>
       <c r="T59" s="81">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="2:20" s="80" customFormat="1">
+        <f t="shared" ref="T59:T61" si="10">SUM(E59:R59)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" s="80" customFormat="1">
       <c r="B60" s="83">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C60" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="84"/>
       <c r="E60" s="84"/>
@@ -7073,7 +7124,7 @@
       <c r="J60" s="84"/>
       <c r="K60" s="84"/>
       <c r="L60" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M60" s="84"/>
       <c r="N60" s="84"/>
@@ -7083,15 +7134,15 @@
       <c r="R60" s="84"/>
       <c r="T60" s="81">
         <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="2:20" s="80" customFormat="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" s="80" customFormat="1">
       <c r="B61" s="83">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" s="84"/>
       <c r="E61" s="84"/>
@@ -7102,7 +7153,7 @@
       <c r="J61" s="84"/>
       <c r="K61" s="84"/>
       <c r="L61" s="82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M61" s="84"/>
       <c r="N61" s="84"/>
@@ -7111,16 +7162,16 @@
       <c r="Q61" s="84"/>
       <c r="R61" s="84"/>
       <c r="T61" s="81">
-        <f t="shared" ref="T61:T63" si="11">SUM(E61:R61)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="2:20" s="80" customFormat="1">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" s="80" customFormat="1">
       <c r="B62" s="83">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C62" s="42" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D62" s="84"/>
       <c r="E62" s="84"/>
@@ -7130,26 +7181,26 @@
       <c r="I62" s="84"/>
       <c r="J62" s="84"/>
       <c r="K62" s="84"/>
-      <c r="L62" s="84"/>
-      <c r="M62" s="82">
-        <v>2</v>
-      </c>
+      <c r="L62" s="82">
+        <v>5</v>
+      </c>
+      <c r="M62" s="84"/>
       <c r="N62" s="84"/>
       <c r="O62" s="84"/>
       <c r="P62" s="84"/>
       <c r="Q62" s="84"/>
       <c r="R62" s="84"/>
       <c r="T62" s="81">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="2:20" s="80" customFormat="1">
+        <f t="shared" ref="T62:T64" si="11">SUM(E62:R62)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" s="80" customFormat="1">
       <c r="B63" s="83">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="84"/>
       <c r="E63" s="84"/>
@@ -7161,7 +7212,7 @@
       <c r="K63" s="84"/>
       <c r="L63" s="84"/>
       <c r="M63" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N63" s="84"/>
       <c r="O63" s="84"/>
@@ -7170,15 +7221,15 @@
       <c r="R63" s="84"/>
       <c r="T63" s="81">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="2:20" s="80" customFormat="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" s="80" customFormat="1">
       <c r="B64" s="83">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="84"/>
       <c r="E64" s="84"/>
@@ -7190,7 +7241,7 @@
       <c r="K64" s="84"/>
       <c r="L64" s="84"/>
       <c r="M64" s="82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N64" s="84"/>
       <c r="O64" s="84"/>
@@ -7198,16 +7249,16 @@
       <c r="Q64" s="84"/>
       <c r="R64" s="84"/>
       <c r="T64" s="81">
-        <f t="shared" ref="T64:T66" si="12">SUM(E64:R64)</f>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:20" s="80" customFormat="1">
       <c r="B65" s="83">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D65" s="84"/>
       <c r="E65" s="84"/>
@@ -7218,25 +7269,25 @@
       <c r="J65" s="84"/>
       <c r="K65" s="84"/>
       <c r="L65" s="84"/>
-      <c r="M65" s="84"/>
-      <c r="N65" s="82">
-        <v>2</v>
-      </c>
+      <c r="M65" s="82">
+        <v>5</v>
+      </c>
+      <c r="N65" s="84"/>
       <c r="O65" s="84"/>
       <c r="P65" s="84"/>
       <c r="Q65" s="84"/>
       <c r="R65" s="84"/>
       <c r="T65" s="81">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" ref="T65:T67" si="12">SUM(E65:R65)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:20" s="80" customFormat="1">
       <c r="B66" s="83">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D66" s="84"/>
       <c r="E66" s="84"/>
@@ -7249,7 +7300,7 @@
       <c r="L66" s="84"/>
       <c r="M66" s="84"/>
       <c r="N66" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O66" s="84"/>
       <c r="P66" s="84"/>
@@ -7257,15 +7308,15 @@
       <c r="R66" s="84"/>
       <c r="T66" s="81">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:20" s="80" customFormat="1">
       <c r="B67" s="83">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C67" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="84"/>
       <c r="E67" s="84"/>
@@ -7285,70 +7336,70 @@
       <c r="Q67" s="84"/>
       <c r="R67" s="84"/>
       <c r="T67" s="81">
-        <f t="shared" ref="T67" si="13">SUM(E67:R67)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
-      <c r="A69" s="24" t="s">
+    <row r="68" spans="1:20" s="80" customFormat="1">
+      <c r="B68" s="83">
+        <v>15</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="D68" s="84"/>
+      <c r="E68" s="84"/>
+      <c r="F68" s="84"/>
+      <c r="G68" s="84"/>
+      <c r="H68" s="84"/>
+      <c r="I68" s="84"/>
+      <c r="J68" s="84"/>
+      <c r="K68" s="84"/>
+      <c r="L68" s="84"/>
+      <c r="M68" s="84"/>
+      <c r="N68" s="82">
+        <v>4</v>
+      </c>
+      <c r="O68" s="84"/>
+      <c r="P68" s="84"/>
+      <c r="Q68" s="84"/>
+      <c r="R68" s="84"/>
+      <c r="T68" s="81">
+        <f t="shared" ref="T68" si="13">SUM(E68:R68)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
-      <c r="B70" s="20" t="s">
+    <row r="71" spans="1:20">
+      <c r="B71" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
-      <c r="B71" s="21">
+    <row r="72" spans="1:20">
+      <c r="B72" s="21">
         <v>1</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C72" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="D71" s="25"/>
-      <c r="E71" s="19">
+      <c r="D72" s="25"/>
+      <c r="E72" s="19">
         <v>8</v>
       </c>
-      <c r="F71" s="19">
+      <c r="F72" s="19">
         <v>8</v>
       </c>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
-      <c r="M71" s="25"/>
-      <c r="N71" s="25"/>
-      <c r="O71" s="25"/>
-      <c r="P71" s="25"/>
-      <c r="Q71" s="25"/>
-      <c r="R71" s="25"/>
-      <c r="T71" s="3">
-        <f t="shared" ref="T71:T75" si="14">SUM(E71:R71)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20">
-      <c r="B72" s="83">
-        <v>2</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="19">
-        <v>8</v>
-      </c>
+      <c r="G72" s="25"/>
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
-      <c r="J72" s="84"/>
+      <c r="J72" s="25"/>
       <c r="K72" s="25"/>
       <c r="L72" s="25"/>
       <c r="M72" s="25"/>
@@ -7358,42 +7409,45 @@
       <c r="Q72" s="25"/>
       <c r="R72" s="25"/>
       <c r="T72" s="3">
+        <f t="shared" ref="T72:T76" si="14">SUM(E72:R72)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="B73" s="83">
+        <v>2</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="19">
+        <v>8</v>
+      </c>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="84"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="25"/>
+      <c r="Q73" s="25"/>
+      <c r="R73" s="25"/>
+      <c r="T73" s="3">
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:20" s="80" customFormat="1">
-      <c r="B73" s="83">
-        <v>3</v>
-      </c>
-      <c r="C73" s="74">
-        <v>6.4</v>
-      </c>
-      <c r="D73" s="84"/>
-      <c r="E73" s="84"/>
-      <c r="F73" s="84"/>
-      <c r="G73" s="84"/>
-      <c r="H73" s="84"/>
-      <c r="I73" s="84"/>
-      <c r="J73" s="82">
-        <v>2</v>
-      </c>
-      <c r="K73" s="84"/>
-      <c r="L73" s="84"/>
-      <c r="M73" s="84"/>
-      <c r="N73" s="84"/>
-      <c r="O73" s="84"/>
-      <c r="P73" s="84"/>
-      <c r="Q73" s="84"/>
-      <c r="R73" s="84"/>
-      <c r="T73" s="81"/>
-    </row>
     <row r="74" spans="1:20" s="80" customFormat="1">
       <c r="B74" s="83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74" s="74">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D74" s="84"/>
       <c r="E74" s="84"/>
@@ -7402,7 +7456,7 @@
       <c r="H74" s="84"/>
       <c r="I74" s="84"/>
       <c r="J74" s="82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K74" s="84"/>
       <c r="L74" s="84"/>
@@ -7414,67 +7468,67 @@
       <c r="R74" s="84"/>
       <c r="T74" s="81"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" s="80" customFormat="1">
       <c r="B75" s="83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C75" s="74">
-        <v>6.6</v>
-      </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
+        <v>6.5</v>
+      </c>
+      <c r="D75" s="84"/>
+      <c r="E75" s="84"/>
+      <c r="F75" s="84"/>
+      <c r="G75" s="84"/>
+      <c r="H75" s="84"/>
+      <c r="I75" s="84"/>
       <c r="J75" s="82">
         <v>3</v>
       </c>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="25"/>
-      <c r="N75" s="25"/>
-      <c r="O75" s="25"/>
-      <c r="P75" s="25"/>
-      <c r="Q75" s="25"/>
-      <c r="R75" s="25"/>
-      <c r="T75" s="3">
+      <c r="K75" s="84"/>
+      <c r="L75" s="84"/>
+      <c r="M75" s="84"/>
+      <c r="N75" s="84"/>
+      <c r="O75" s="84"/>
+      <c r="P75" s="84"/>
+      <c r="Q75" s="84"/>
+      <c r="R75" s="84"/>
+      <c r="T75" s="81"/>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="B76" s="83">
+        <v>5</v>
+      </c>
+      <c r="C76" s="74">
+        <v>6.6</v>
+      </c>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="82">
+        <v>3</v>
+      </c>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="25"/>
+      <c r="O76" s="25"/>
+      <c r="P76" s="25"/>
+      <c r="Q76" s="25"/>
+      <c r="R76" s="25"/>
+      <c r="T76" s="3">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:20" s="80" customFormat="1">
-      <c r="B76" s="83">
-        <v>6</v>
-      </c>
-      <c r="C76" s="74">
-        <v>7.4</v>
-      </c>
-      <c r="D76" s="84"/>
-      <c r="E76" s="84"/>
-      <c r="F76" s="84"/>
-      <c r="G76" s="84"/>
-      <c r="H76" s="84"/>
-      <c r="I76" s="84"/>
-      <c r="J76" s="84"/>
-      <c r="K76" s="82">
-        <v>2</v>
-      </c>
-      <c r="L76" s="84"/>
-      <c r="M76" s="84"/>
-      <c r="N76" s="84"/>
-      <c r="O76" s="84"/>
-      <c r="P76" s="84"/>
-      <c r="Q76" s="84"/>
-      <c r="R76" s="84"/>
-      <c r="T76" s="81"/>
-    </row>
     <row r="77" spans="1:20" s="80" customFormat="1">
       <c r="B77" s="83">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" s="74">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="D77" s="84"/>
       <c r="E77" s="84"/>
@@ -7484,7 +7538,7 @@
       <c r="I77" s="84"/>
       <c r="J77" s="84"/>
       <c r="K77" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L77" s="84"/>
       <c r="M77" s="84"/>
@@ -7497,10 +7551,10 @@
     </row>
     <row r="78" spans="1:20" s="80" customFormat="1">
       <c r="B78" s="83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78" s="74">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="D78" s="84"/>
       <c r="E78" s="84"/>
@@ -7510,7 +7564,7 @@
       <c r="I78" s="84"/>
       <c r="J78" s="84"/>
       <c r="K78" s="82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L78" s="84"/>
       <c r="M78" s="84"/>
@@ -7519,17 +7573,14 @@
       <c r="P78" s="84"/>
       <c r="Q78" s="84"/>
       <c r="R78" s="84"/>
-      <c r="T78" s="81">
-        <f t="shared" ref="T78" si="15">SUM(E78:R78)</f>
-        <v>5</v>
-      </c>
+      <c r="T78" s="81"/>
     </row>
     <row r="79" spans="1:20" s="80" customFormat="1">
       <c r="B79" s="83">
-        <v>9</v>
-      </c>
-      <c r="C79" s="42" t="s">
-        <v>176</v>
+        <v>8</v>
+      </c>
+      <c r="C79" s="74">
+        <v>7.6</v>
       </c>
       <c r="D79" s="84"/>
       <c r="E79" s="84"/>
@@ -7538,24 +7589,27 @@
       <c r="H79" s="84"/>
       <c r="I79" s="84"/>
       <c r="J79" s="84"/>
-      <c r="K79" s="84"/>
-      <c r="L79" s="82">
-        <v>2</v>
-      </c>
+      <c r="K79" s="82">
+        <v>5</v>
+      </c>
+      <c r="L79" s="84"/>
       <c r="M79" s="84"/>
       <c r="N79" s="84"/>
       <c r="O79" s="84"/>
       <c r="P79" s="84"/>
       <c r="Q79" s="84"/>
       <c r="R79" s="84"/>
-      <c r="T79" s="81"/>
+      <c r="T79" s="81">
+        <f t="shared" ref="T79" si="15">SUM(E79:R79)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="80" spans="1:20" s="80" customFormat="1">
       <c r="B80" s="83">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D80" s="84"/>
       <c r="E80" s="84"/>
@@ -7566,7 +7620,7 @@
       <c r="J80" s="84"/>
       <c r="K80" s="84"/>
       <c r="L80" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M80" s="84"/>
       <c r="N80" s="84"/>
@@ -7576,12 +7630,12 @@
       <c r="R80" s="84"/>
       <c r="T80" s="81"/>
     </row>
-    <row r="81" spans="2:20" s="80" customFormat="1" ht="13.8" thickBot="1">
+    <row r="81" spans="2:20" s="80" customFormat="1">
       <c r="B81" s="83">
-        <v>11</v>
-      </c>
-      <c r="C81" s="76" t="s">
-        <v>178</v>
+        <v>10</v>
+      </c>
+      <c r="C81" s="42" t="s">
+        <v>177</v>
       </c>
       <c r="D81" s="84"/>
       <c r="E81" s="84"/>
@@ -7592,7 +7646,7 @@
       <c r="J81" s="84"/>
       <c r="K81" s="84"/>
       <c r="L81" s="82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M81" s="84"/>
       <c r="N81" s="84"/>
@@ -7600,17 +7654,14 @@
       <c r="P81" s="84"/>
       <c r="Q81" s="84"/>
       <c r="R81" s="84"/>
-      <c r="T81" s="81">
-        <f t="shared" ref="T81" si="16">SUM(E81:R81)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="2:20" s="80" customFormat="1">
+      <c r="T81" s="81"/>
+    </row>
+    <row r="82" spans="2:20" s="80" customFormat="1" ht="13.5" thickBot="1">
       <c r="B82" s="83">
-        <v>12</v>
-      </c>
-      <c r="C82" s="42" t="s">
-        <v>185</v>
+        <v>11</v>
+      </c>
+      <c r="C82" s="76" t="s">
+        <v>178</v>
       </c>
       <c r="D82" s="84"/>
       <c r="E82" s="84"/>
@@ -7620,23 +7671,26 @@
       <c r="I82" s="84"/>
       <c r="J82" s="84"/>
       <c r="K82" s="84"/>
-      <c r="L82" s="84"/>
-      <c r="M82" s="82">
-        <v>2</v>
-      </c>
+      <c r="L82" s="82">
+        <v>5</v>
+      </c>
+      <c r="M82" s="84"/>
       <c r="N82" s="84"/>
       <c r="O82" s="84"/>
       <c r="P82" s="84"/>
       <c r="Q82" s="84"/>
       <c r="R82" s="84"/>
-      <c r="T82" s="81"/>
+      <c r="T82" s="81">
+        <f t="shared" ref="T82" si="16">SUM(E82:R82)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="83" spans="2:20" s="80" customFormat="1">
       <c r="B83" s="83">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C83" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D83" s="84"/>
       <c r="E83" s="84"/>
@@ -7648,7 +7702,7 @@
       <c r="K83" s="84"/>
       <c r="L83" s="84"/>
       <c r="M83" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N83" s="84"/>
       <c r="O83" s="84"/>
@@ -7657,12 +7711,12 @@
       <c r="R83" s="84"/>
       <c r="T83" s="81"/>
     </row>
-    <row r="84" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
+    <row r="84" spans="2:20" s="80" customFormat="1">
       <c r="B84" s="83">
-        <v>14</v>
-      </c>
-      <c r="C84" s="99" t="s">
-        <v>187</v>
+        <v>13</v>
+      </c>
+      <c r="C84" s="42" t="s">
+        <v>186</v>
       </c>
       <c r="D84" s="84"/>
       <c r="E84" s="84"/>
@@ -7674,24 +7728,21 @@
       <c r="K84" s="84"/>
       <c r="L84" s="84"/>
       <c r="M84" s="82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N84" s="84"/>
       <c r="O84" s="84"/>
       <c r="P84" s="84"/>
       <c r="Q84" s="84"/>
       <c r="R84" s="84"/>
-      <c r="T84" s="81">
-        <f t="shared" ref="T84" si="17">SUM(E84:R84)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="2:20" s="80" customFormat="1">
+      <c r="T84" s="81"/>
+    </row>
+    <row r="85" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="B85" s="83">
-        <v>12</v>
-      </c>
-      <c r="C85" s="42" t="s">
-        <v>193</v>
+        <v>14</v>
+      </c>
+      <c r="C85" s="98" t="s">
+        <v>187</v>
       </c>
       <c r="D85" s="84"/>
       <c r="E85" s="84"/>
@@ -7702,22 +7753,25 @@
       <c r="J85" s="84"/>
       <c r="K85" s="84"/>
       <c r="L85" s="84"/>
-      <c r="M85" s="84"/>
-      <c r="N85" s="82">
-        <v>2</v>
-      </c>
+      <c r="M85" s="82">
+        <v>5</v>
+      </c>
+      <c r="N85" s="84"/>
       <c r="O85" s="84"/>
       <c r="P85" s="84"/>
       <c r="Q85" s="84"/>
       <c r="R85" s="84"/>
-      <c r="T85" s="81"/>
+      <c r="T85" s="81">
+        <f t="shared" ref="T85" si="17">SUM(E85:R85)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="86" spans="2:20" s="80" customFormat="1">
       <c r="B86" s="83">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C86" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D86" s="84"/>
       <c r="E86" s="84"/>
@@ -7730,7 +7784,7 @@
       <c r="L86" s="84"/>
       <c r="M86" s="84"/>
       <c r="N86" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O86" s="84"/>
       <c r="P86" s="84"/>
@@ -7738,12 +7792,12 @@
       <c r="R86" s="84"/>
       <c r="T86" s="81"/>
     </row>
-    <row r="87" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
+    <row r="87" spans="2:20" s="80" customFormat="1">
       <c r="B87" s="83">
-        <v>14</v>
-      </c>
-      <c r="C87" s="99" t="s">
-        <v>195</v>
+        <v>13</v>
+      </c>
+      <c r="C87" s="42" t="s">
+        <v>194</v>
       </c>
       <c r="D87" s="84"/>
       <c r="E87" s="84"/>
@@ -7756,14 +7810,40 @@
       <c r="L87" s="84"/>
       <c r="M87" s="84"/>
       <c r="N87" s="82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O87" s="84"/>
       <c r="P87" s="84"/>
       <c r="Q87" s="84"/>
       <c r="R87" s="84"/>
-      <c r="T87" s="81">
-        <f t="shared" ref="T87" si="18">SUM(E87:R87)</f>
+      <c r="T87" s="81"/>
+    </row>
+    <row r="88" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
+      <c r="B88" s="83">
+        <v>14</v>
+      </c>
+      <c r="C88" s="98" t="s">
+        <v>195</v>
+      </c>
+      <c r="D88" s="84"/>
+      <c r="E88" s="84"/>
+      <c r="F88" s="84"/>
+      <c r="G88" s="84"/>
+      <c r="H88" s="84"/>
+      <c r="I88" s="84"/>
+      <c r="J88" s="84"/>
+      <c r="K88" s="84"/>
+      <c r="L88" s="84"/>
+      <c r="M88" s="84"/>
+      <c r="N88" s="82">
+        <v>2</v>
+      </c>
+      <c r="O88" s="84"/>
+      <c r="P88" s="84"/>
+      <c r="Q88" s="84"/>
+      <c r="R88" s="84"/>
+      <c r="T88" s="81">
+        <f t="shared" ref="T88" si="18">SUM(E88:R88)</f>
         <v>2</v>
       </c>
     </row>

--- a/docs/Listing_Tool_Status_Report_v1.0.xlsx
+++ b/docs/Listing_Tool_Status_Report_v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="-360" windowWidth="16605" windowHeight="9435" activeTab="2"/>
+    <workbookView xWindow="5352" yWindow="-360" windowWidth="16608" windowHeight="9432" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="203">
   <si>
     <t>Project Name:</t>
   </si>
@@ -1542,8 +1542,12 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">3.7 </t>
+    <t>9.调研google-api 获取google 广告点击情况 目前google-sdk已经测试[通过]                          and                                                  改无刷新分页为刷新分页，加入php分页样式，调整transaction页面样式，国际化页面</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9.1</t>
     </r>
     <r>
       <rPr>
@@ -1553,17 +1557,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>交易相关数据库设计</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.调研google-api 获取google 广告点击情况 目前google-sdk已经测试[通过]                          and                                                  改无刷新分页为刷新分页，加入php分页样式，调整transaction页面样式，国际化页面</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9.1</t>
+      <t>、继续查看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>google-api</t>
     </r>
     <r>
       <rPr>
@@ -1573,16 +1576,13 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>、继续查看</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>google-api</t>
+      <t>获取广告的展示率和点击率</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9.2</t>
     </r>
     <r>
       <rPr>
@@ -1592,13 +1592,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>获取广告的展示率和点击率</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9.2</t>
+      <t>、由于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>google</t>
     </r>
     <r>
       <rPr>
@@ -1608,7 +1611,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>、由于</t>
+      <t>没有提供单纯广告的点击率和展示率，只查阅到广告系列下的广告组的点击率和展示率，目前</t>
     </r>
     <r>
       <rPr>
@@ -1617,7 +1620,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>google</t>
+      <t>google-sdk</t>
     </r>
     <r>
       <rPr>
@@ -1627,7 +1630,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>没有提供单纯广告的点击率和展示率，只查阅到广告系列下的广告组的点击率和展示率，目前</t>
+      <t>已经测试</t>
     </r>
     <r>
       <rPr>
@@ -1636,7 +1639,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>google-sdk</t>
+      <t>[</t>
     </r>
     <r>
       <rPr>
@@ -1646,7 +1649,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>已经测试</t>
+      <t>通过</t>
     </r>
     <r>
       <rPr>
@@ -1655,7 +1658,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[</t>
+      <t xml:space="preserve">] </t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9.3</t>
     </r>
     <r>
       <rPr>
@@ -1665,7 +1674,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>通过</t>
+      <t>、还在进一步查看</t>
     </r>
     <r>
       <rPr>
@@ -1674,13 +1683,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9.3</t>
+      <t>api</t>
     </r>
     <r>
       <rPr>
@@ -1690,7 +1693,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>、还在进一步查看</t>
+      <t>是否提供，更深层次的费率调用</t>
     </r>
     <r>
       <rPr>
@@ -1699,7 +1702,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>api</t>
+      <t>[</t>
     </r>
     <r>
       <rPr>
@@ -1709,7 +1712,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>是否提供，更深层次的费率调用</t>
+      <t>进行中</t>
     </r>
     <r>
       <rPr>
@@ -1718,7 +1721,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[</t>
+      <t xml:space="preserve">] </t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9.4</t>
     </r>
     <r>
       <rPr>
@@ -1728,7 +1737,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>进行中</t>
+      <t>、调整</t>
     </r>
     <r>
       <rPr>
@@ -1737,13 +1746,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9.4</t>
+      <t>transaction</t>
     </r>
     <r>
       <rPr>
@@ -1753,16 +1756,13 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>、调整</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>transaction</t>
+      <t>页面样式，国际化页面</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9.5</t>
     </r>
     <r>
       <rPr>
@@ -1772,13 +1772,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>页面样式，国际化页面</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9.5</t>
+      <t>、改无刷新分页为刷新分页，加入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>php</t>
     </r>
     <r>
       <rPr>
@@ -1788,16 +1791,13 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>、改无刷新分页为刷新分页，加入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>php</t>
+      <t>分页样式。</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9.6</t>
     </r>
     <r>
       <rPr>
@@ -1807,13 +1807,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>分页样式。</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9.6</t>
+      <t>、加入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>department</t>
     </r>
     <r>
       <rPr>
@@ -1823,7 +1826,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>、加入</t>
+      <t>分页和</t>
     </r>
     <r>
       <rPr>
@@ -1832,7 +1835,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>department</t>
+      <t>transaction</t>
     </r>
     <r>
       <rPr>
@@ -1842,16 +1845,21 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>分页和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>transaction</t>
+      <t xml:space="preserve">分页功能
+</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4 test to generate dynamic custome liberay for ads</t>
+  </si>
+  <si>
+    <t>10.继续研究google-api,集成功能测试,集成项目功能过程中                              and                                                  调整transaction页面样式，集成SSO模块项目;分装分页插件，提取page.jsp</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10.1</t>
     </r>
     <r>
       <rPr>
@@ -1861,21 +1869,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">分页功能
-</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.4 test to generate dynamic custome liberay for ads</t>
-  </si>
-  <si>
-    <t>10.继续研究google-api,集成功能测试,集成项目功能过程中                              and                                                  调整transaction页面样式，集成SSO模块项目;分装分页插件，提取page.jsp</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10.1</t>
+      <t>、继续研究</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>google-api,</t>
     </r>
     <r>
       <rPr>
@@ -1885,7 +1888,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>、继续研究</t>
+      <t>成果</t>
     </r>
     <r>
       <rPr>
@@ -1894,7 +1897,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>google-api,</t>
+      <t>[</t>
     </r>
     <r>
       <rPr>
@@ -1904,7 +1907,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>成果</t>
+      <t>广告组</t>
     </r>
     <r>
       <rPr>
@@ -1913,7 +1916,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1923,7 +1926,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>广告组</t>
+      <t>可以获得关键子的统计，其中创建默认广告组，自动加入一个关键字，目前没有研究出为什么加入</t>
     </r>
     <r>
       <rPr>
@@ -1932,7 +1935,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>][</t>
     </r>
     <r>
       <rPr>
@@ -1942,7 +1945,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>可以获得关键子的统计，其中创建默认广告组，自动加入一个关键字，目前没有研究出为什么加入</t>
+      <t>正在调研中</t>
     </r>
     <r>
       <rPr>
@@ -1951,7 +1954,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>][</t>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10.2</t>
     </r>
     <r>
       <rPr>
@@ -1961,7 +1970,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>正在调研中</t>
+      <t>、集成功能测试，前端功能、后端功能集成测试通过</t>
     </r>
     <r>
       <rPr>
@@ -1970,13 +1979,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10.2</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10.3</t>
     </r>
     <r>
       <rPr>
@@ -1986,7 +1995,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>、集成功能测试，前端功能、后端功能集成测试通过</t>
+      <t>、集成项目功能过程中，出现国际化错误信息，以及完全解决</t>
     </r>
     <r>
       <rPr>
@@ -1995,13 +2004,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10.3</t>
+      <t>[</t>
     </r>
     <r>
       <rPr>
@@ -2011,7 +2014,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>、集成项目功能过程中，出现国际化错误信息，以及完全解决</t>
+      <t>通过</t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2023,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[</t>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10.4</t>
     </r>
     <r>
       <rPr>
@@ -2030,7 +2039,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>通过</t>
+      <t>、分装分页插件，提取</t>
     </r>
     <r>
       <rPr>
@@ -2039,13 +2048,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10.4</t>
+      <t>page.jsp</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10.5</t>
     </r>
     <r>
       <rPr>
@@ -2055,7 +2064,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>、分装分页插件，提取</t>
+      <t>、调整</t>
     </r>
     <r>
       <rPr>
@@ -2064,13 +2073,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>page.jsp</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10.5</t>
+      <t>transaction</t>
     </r>
     <r>
       <rPr>
@@ -2080,7 +2083,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>、调整</t>
+      <t>页面样式，集成</t>
     </r>
     <r>
       <rPr>
@@ -2089,7 +2092,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>transaction</t>
+      <t>SSO</t>
     </r>
     <r>
       <rPr>
@@ -2099,16 +2102,13 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>页面样式，集成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SSO</t>
+      <t>模块项目</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10.6</t>
     </r>
     <r>
       <rPr>
@@ -2118,13 +2118,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>模块项目</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10.6</t>
+      <t>、碰到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>login</t>
     </r>
     <r>
       <rPr>
@@ -2134,16 +2137,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>、碰到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>login</t>
+      <t xml:space="preserve">页面样式问题，正在解决，不影响功能！
+</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5 建立商户多帐户，测试验证商户url可行性</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.8 </t>
     </r>
     <r>
       <rPr>
@@ -2153,13 +2157,93 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">页面样式问题，正在解决，不影响功能！
-</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.5 建立商户多帐户，测试验证商户url可行性</t>
+      <t>交易后台列表页面开发</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交易后台详情开发</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交易后台添加功能开发</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7 Unit Test</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交易后台列表页面开发</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交易后台详情开发</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交易后台添加功能开发</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2167,7 +2251,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -2179,7 +2263,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2242,7 +2326,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2823,7 +2907,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3015,18 +3099,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3036,27 +3177,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3066,51 +3189,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="1"/>
     <cellStyle name="Normal 3 2" xfId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3126,7 +3210,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3416,15 +3500,15 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13.5" thickBot="1"/>
+    <row r="1" spans="2:10" ht="13.8" thickBot="1"/>
     <row r="2" spans="2:10">
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -3436,7 +3520,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="2:10" ht="33">
+    <row r="3" spans="2:10" ht="31.8">
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
         <v>0</v>
@@ -3676,7 +3760,7 @@
       <c r="I20" s="11"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="2:10" ht="13.5" thickBot="1">
+    <row r="21" spans="2:10" ht="13.8" thickBot="1">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -3696,24 +3780,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52:B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="39" style="52" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" style="53" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="68" customWidth="1"/>
-    <col min="7" max="8" width="11.5703125" style="52" customWidth="1"/>
-    <col min="9" max="9" width="38.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="33"/>
+    <col min="2" max="2" width="41.88671875" style="53" customWidth="1"/>
+    <col min="3" max="3" width="54.109375" style="52" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="52" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="68" customWidth="1"/>
+    <col min="7" max="8" width="11.5546875" style="52" customWidth="1"/>
+    <col min="9" max="9" width="38.44140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3745,7 +3829,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.5" thickBot="1">
+    <row r="2" spans="1:9" ht="13.8" thickBot="1">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="34"/>
@@ -3756,7 +3840,7 @@
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
     </row>
-    <row r="3" spans="1:9" ht="12.95" customHeight="1">
+    <row r="3" spans="1:9" ht="12.9" customHeight="1">
       <c r="A3" s="104" t="s">
         <v>38</v>
       </c>
@@ -3777,7 +3861,7 @@
       </c>
       <c r="I3" s="41"/>
     </row>
-    <row r="4" spans="1:9" ht="12.95" customHeight="1">
+    <row r="4" spans="1:9" ht="12.9" customHeight="1">
       <c r="A4" s="105"/>
       <c r="B4" s="42" t="s">
         <v>41</v>
@@ -3796,7 +3880,7 @@
       </c>
       <c r="I4" s="46"/>
     </row>
-    <row r="5" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+    <row r="5" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
       <c r="A5" s="106"/>
       <c r="B5" s="47" t="s">
         <v>42</v>
@@ -3813,7 +3897,7 @@
       <c r="H5" s="48"/>
       <c r="I5" s="51"/>
     </row>
-    <row r="6" spans="1:9" ht="13.5" thickBot="1">
+    <row r="6" spans="1:9" ht="13.8" thickBot="1">
       <c r="D6" s="54" t="s">
         <v>43</v>
       </c>
@@ -3825,25 +3909,25 @@
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
     </row>
-    <row r="7" spans="1:9" ht="13.5" thickTop="1">
+    <row r="7" spans="1:9" ht="13.8" thickTop="1">
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
       <c r="F7" s="57"/>
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
     </row>
-    <row r="8" spans="1:9" ht="13.5" thickBot="1">
+    <row r="8" spans="1:9" ht="13.8" thickBot="1">
       <c r="D8" s="54"/>
       <c r="E8" s="54"/>
       <c r="F8" s="57"/>
       <c r="G8" s="56"/>
       <c r="H8" s="56"/>
     </row>
-    <row r="9" spans="1:9" ht="26.65" customHeight="1">
+    <row r="9" spans="1:9" ht="26.7" customHeight="1">
       <c r="A9" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="107" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="58" t="s">
@@ -3864,9 +3948,9 @@
       </c>
       <c r="I9" s="41"/>
     </row>
-    <row r="10" spans="1:9" ht="12.95" customHeight="1">
+    <row r="10" spans="1:9" ht="12.9" customHeight="1">
       <c r="A10" s="105"/>
-      <c r="B10" s="118"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="59" t="s">
         <v>47</v>
       </c>
@@ -3885,9 +3969,9 @@
       </c>
       <c r="I10" s="62"/>
     </row>
-    <row r="11" spans="1:9" ht="12.95" customHeight="1">
+    <row r="11" spans="1:9" ht="12.9" customHeight="1">
       <c r="A11" s="105"/>
-      <c r="B11" s="118"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="43" t="s">
         <v>49</v>
       </c>
@@ -3906,9 +3990,9 @@
       </c>
       <c r="I11" s="46"/>
     </row>
-    <row r="12" spans="1:9" ht="12.95" customHeight="1">
+    <row r="12" spans="1:9" ht="12.9" customHeight="1">
       <c r="A12" s="105"/>
-      <c r="B12" s="118"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="63" t="s">
         <v>50</v>
       </c>
@@ -3927,9 +4011,9 @@
       </c>
       <c r="I12" s="65"/>
     </row>
-    <row r="13" spans="1:9" ht="12.95" customHeight="1">
+    <row r="13" spans="1:9" ht="12.9" customHeight="1">
       <c r="A13" s="105"/>
-      <c r="B13" s="119"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="63" t="s">
         <v>52</v>
       </c>
@@ -3946,9 +4030,9 @@
       </c>
       <c r="I13" s="65"/>
     </row>
-    <row r="14" spans="1:9" ht="12.95" customHeight="1">
+    <row r="14" spans="1:9" ht="12.9" customHeight="1">
       <c r="A14" s="105"/>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="110" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="63" t="s">
@@ -3969,9 +4053,9 @@
       </c>
       <c r="I14" s="65"/>
     </row>
-    <row r="15" spans="1:9" ht="12.95" customHeight="1">
+    <row r="15" spans="1:9" ht="12.9" customHeight="1">
       <c r="A15" s="105"/>
-      <c r="B15" s="108"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="63" t="s">
         <v>55</v>
       </c>
@@ -3990,9 +4074,9 @@
       </c>
       <c r="I15" s="65"/>
     </row>
-    <row r="16" spans="1:9" ht="12.95" customHeight="1">
+    <row r="16" spans="1:9" ht="12.9" customHeight="1">
       <c r="A16" s="105"/>
-      <c r="B16" s="108"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="63" t="s">
         <v>57</v>
       </c>
@@ -4011,9 +4095,9 @@
       </c>
       <c r="I16" s="65"/>
     </row>
-    <row r="17" spans="1:9" ht="12.95" customHeight="1">
+    <row r="17" spans="1:9" ht="12.9" customHeight="1">
       <c r="A17" s="105"/>
-      <c r="B17" s="108"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="63" t="s">
         <v>59</v>
       </c>
@@ -4032,9 +4116,9 @@
       </c>
       <c r="I17" s="65"/>
     </row>
-    <row r="18" spans="1:9" ht="12.95" customHeight="1">
+    <row r="18" spans="1:9" ht="12.9" customHeight="1">
       <c r="A18" s="105"/>
-      <c r="B18" s="108"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="63" t="s">
         <v>60</v>
       </c>
@@ -4053,9 +4137,9 @@
       </c>
       <c r="I18" s="65"/>
     </row>
-    <row r="19" spans="1:9" ht="12.95" customHeight="1">
+    <row r="19" spans="1:9" ht="12.9" customHeight="1">
       <c r="A19" s="105"/>
-      <c r="B19" s="108"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="63" t="s">
         <v>61</v>
       </c>
@@ -4074,9 +4158,9 @@
       </c>
       <c r="I19" s="65"/>
     </row>
-    <row r="20" spans="1:9" ht="12.95" customHeight="1">
+    <row r="20" spans="1:9" ht="12.9" customHeight="1">
       <c r="A20" s="105"/>
-      <c r="B20" s="108"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="63" t="s">
         <v>62</v>
       </c>
@@ -4095,9 +4179,9 @@
       </c>
       <c r="I20" s="65"/>
     </row>
-    <row r="21" spans="1:9" ht="12.95" customHeight="1">
+    <row r="21" spans="1:9" ht="12.9" customHeight="1">
       <c r="A21" s="105"/>
-      <c r="B21" s="108"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="90" t="s">
         <v>164</v>
       </c>
@@ -4114,9 +4198,9 @@
       </c>
       <c r="I21" s="65"/>
     </row>
-    <row r="22" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+    <row r="22" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
       <c r="A22" s="106"/>
-      <c r="B22" s="110"/>
+      <c r="B22" s="112"/>
       <c r="C22" s="66" t="s">
         <v>165</v>
       </c>
@@ -4133,7 +4217,7 @@
       </c>
       <c r="I22" s="51"/>
     </row>
-    <row r="23" spans="1:9" ht="13.5" thickBot="1">
+    <row r="23" spans="1:9" ht="13.8" thickBot="1">
       <c r="D23" s="54" t="s">
         <v>43</v>
       </c>
@@ -4145,22 +4229,22 @@
       <c r="G23" s="56"/>
       <c r="H23" s="56"/>
     </row>
-    <row r="24" spans="1:9" ht="13.5" thickTop="1">
+    <row r="24" spans="1:9" ht="13.8" thickTop="1">
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
       <c r="F24" s="57"/>
       <c r="G24" s="56"/>
       <c r="H24" s="56"/>
     </row>
-    <row r="25" spans="1:9" ht="13.5" thickBot="1">
+    <row r="25" spans="1:9" ht="13.8" thickBot="1">
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
       <c r="F25" s="57"/>
       <c r="G25" s="56"/>
       <c r="H25" s="56"/>
     </row>
-    <row r="26" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A26" s="121" t="s">
+    <row r="26" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A26" s="117" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="37" t="s">
@@ -4182,8 +4266,8 @@
       </c>
       <c r="I26" s="41"/>
     </row>
-    <row r="27" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A27" s="122"/>
+    <row r="27" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A27" s="118"/>
       <c r="B27" s="42" t="s">
         <v>66</v>
       </c>
@@ -4203,9 +4287,9 @@
       </c>
       <c r="I27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A28" s="122"/>
-      <c r="B28" s="114" t="s">
+    <row r="28" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A28" s="118"/>
+      <c r="B28" s="101" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="63" t="s">
@@ -4226,9 +4310,9 @@
       </c>
       <c r="I28" s="65"/>
     </row>
-    <row r="29" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A29" s="122"/>
-      <c r="B29" s="115"/>
+    <row r="29" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A29" s="118"/>
+      <c r="B29" s="102"/>
       <c r="C29" s="63" t="s">
         <v>70</v>
       </c>
@@ -4247,9 +4331,9 @@
       </c>
       <c r="I29" s="65"/>
     </row>
-    <row r="30" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A30" s="122"/>
-      <c r="B30" s="120"/>
+    <row r="30" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A30" s="118"/>
+      <c r="B30" s="113"/>
       <c r="C30" s="63" t="s">
         <v>72</v>
       </c>
@@ -4268,9 +4352,9 @@
       </c>
       <c r="I30" s="65"/>
     </row>
-    <row r="31" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A31" s="122"/>
-      <c r="B31" s="114" t="s">
+    <row r="31" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A31" s="118"/>
+      <c r="B31" s="101" t="s">
         <v>127</v>
       </c>
       <c r="C31" s="70" t="s">
@@ -4291,9 +4375,9 @@
       </c>
       <c r="I31" s="65"/>
     </row>
-    <row r="32" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A32" s="122"/>
-      <c r="B32" s="115"/>
+    <row r="32" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A32" s="118"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="70" t="s">
         <v>120</v>
       </c>
@@ -4312,9 +4396,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A33" s="122"/>
-      <c r="B33" s="115"/>
+    <row r="33" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A33" s="118"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="70" t="s">
         <v>122</v>
       </c>
@@ -4335,9 +4419,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A34" s="122"/>
-      <c r="B34" s="115"/>
+    <row r="34" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A34" s="118"/>
+      <c r="B34" s="102"/>
       <c r="C34" s="70" t="s">
         <v>123</v>
       </c>
@@ -4356,9 +4440,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A35" s="122"/>
-      <c r="B35" s="115"/>
+    <row r="35" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A35" s="118"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="70" t="s">
         <v>124</v>
       </c>
@@ -4377,9 +4461,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A36" s="122"/>
-      <c r="B36" s="115"/>
+    <row r="36" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A36" s="118"/>
+      <c r="B36" s="102"/>
       <c r="C36" s="70" t="s">
         <v>125</v>
       </c>
@@ -4398,9 +4482,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A37" s="122"/>
-      <c r="B37" s="116"/>
+    <row r="37" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A37" s="118"/>
+      <c r="B37" s="103"/>
       <c r="C37" s="73" t="s">
         <v>126</v>
       </c>
@@ -4417,9 +4501,9 @@
       </c>
       <c r="I37" s="51"/>
     </row>
-    <row r="38" spans="1:9" ht="13.7" customHeight="1">
-      <c r="A38" s="122"/>
-      <c r="B38" s="124" t="s">
+    <row r="38" spans="1:9" ht="13.65" customHeight="1">
+      <c r="A38" s="118"/>
+      <c r="B38" s="114" t="s">
         <v>168</v>
       </c>
       <c r="C38" s="70" t="s">
@@ -4440,9 +4524,9 @@
       </c>
       <c r="I38" s="70"/>
     </row>
-    <row r="39" spans="1:9" ht="13.7" customHeight="1">
-      <c r="A39" s="122"/>
-      <c r="B39" s="125"/>
+    <row r="39" spans="1:9" ht="13.65" customHeight="1">
+      <c r="A39" s="118"/>
+      <c r="B39" s="115"/>
       <c r="C39" s="70" t="s">
         <v>169</v>
       </c>
@@ -4461,9 +4545,9 @@
       </c>
       <c r="I39" s="70"/>
     </row>
-    <row r="40" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A40" s="122"/>
-      <c r="B40" s="125"/>
+    <row r="40" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A40" s="118"/>
+      <c r="B40" s="115"/>
       <c r="C40" s="73" t="s">
         <v>170</v>
       </c>
@@ -4482,11 +4566,11 @@
       </c>
       <c r="I40" s="51"/>
     </row>
-    <row r="41" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A41" s="122"/>
-      <c r="B41" s="125"/>
+    <row r="41" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A41" s="118"/>
+      <c r="B41" s="115"/>
       <c r="C41" s="73" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D41" s="73" t="s">
         <v>119</v>
@@ -4503,11 +4587,11 @@
       </c>
       <c r="I41" s="51"/>
     </row>
-    <row r="42" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A42" s="123"/>
-      <c r="B42" s="126"/>
+    <row r="42" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A42" s="119"/>
+      <c r="B42" s="116"/>
       <c r="C42" s="73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D42" s="73" t="s">
         <v>119</v>
@@ -4531,7 +4615,7 @@
       <c r="G43" s="56"/>
       <c r="H43" s="56"/>
     </row>
-    <row r="44" spans="1:9" ht="13.5" thickBot="1">
+    <row r="44" spans="1:9" ht="13.8" thickBot="1">
       <c r="D44" s="54"/>
       <c r="E44" s="54"/>
       <c r="F44" s="57"/>
@@ -4561,7 +4645,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="105"/>
-      <c r="B46" s="107" t="s">
+      <c r="B46" s="110" t="s">
         <v>77</v>
       </c>
       <c r="C46" s="69" t="s">
@@ -4582,7 +4666,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="105"/>
-      <c r="B47" s="108"/>
+      <c r="B47" s="111"/>
       <c r="C47" s="63" t="s">
         <v>79</v>
       </c>
@@ -4601,7 +4685,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="105"/>
-      <c r="B48" s="108"/>
+      <c r="B48" s="111"/>
       <c r="C48" s="63" t="s">
         <v>80</v>
       </c>
@@ -4620,7 +4704,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="105"/>
-      <c r="B49" s="108"/>
+      <c r="B49" s="111"/>
       <c r="C49" s="63" t="s">
         <v>81</v>
       </c>
@@ -4639,7 +4723,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="105"/>
-      <c r="B50" s="108"/>
+      <c r="B50" s="111"/>
       <c r="C50" s="63" t="s">
         <v>83</v>
       </c>
@@ -4658,7 +4742,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="105"/>
-      <c r="B51" s="109"/>
+      <c r="B51" s="123"/>
       <c r="C51" s="63" t="s">
         <v>85</v>
       </c>
@@ -4677,7 +4761,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="105"/>
-      <c r="B52" s="107" t="s">
+      <c r="B52" s="110" t="s">
         <v>87</v>
       </c>
       <c r="C52" s="63" t="s">
@@ -4689,7 +4773,7 @@
       <c r="E52" s="63"/>
       <c r="F52" s="64">
         <f>'March 2015'!T41</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G52" s="67">
         <v>42079</v>
@@ -4701,7 +4785,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="105"/>
-      <c r="B53" s="108"/>
+      <c r="B53" s="111"/>
       <c r="C53" s="70" t="s">
         <v>90</v>
       </c>
@@ -4711,7 +4795,7 @@
       <c r="E53" s="63"/>
       <c r="F53" s="64">
         <f>'March 2015'!T42</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G53" s="67">
         <v>42079</v>
@@ -4723,7 +4807,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="105"/>
-      <c r="B54" s="108"/>
+      <c r="B54" s="111"/>
       <c r="C54" s="63" t="s">
         <v>91</v>
       </c>
@@ -4733,7 +4817,7 @@
       <c r="E54" s="63"/>
       <c r="F54" s="64">
         <f>'March 2015'!T43</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G54" s="67">
         <v>42079</v>
@@ -4745,7 +4829,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="105"/>
-      <c r="B55" s="108"/>
+      <c r="B55" s="111"/>
       <c r="C55" s="70" t="s">
         <v>93</v>
       </c>
@@ -4755,7 +4839,7 @@
       <c r="E55" s="63"/>
       <c r="F55" s="64">
         <f>'March 2015'!T44</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G55" s="67">
         <v>42079</v>
@@ -4767,7 +4851,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="105"/>
-      <c r="B56" s="108"/>
+      <c r="B56" s="111"/>
       <c r="C56" s="70" t="s">
         <v>94</v>
       </c>
@@ -4789,17 +4873,17 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="105"/>
-      <c r="B57" s="108"/>
+      <c r="B57" s="111"/>
       <c r="C57" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D57" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="E57" s="97"/>
+      <c r="D57" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="100"/>
       <c r="F57" s="64">
         <f>'March 2015'!T46</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" s="67">
         <v>42079</v>
@@ -4809,163 +4893,160 @@
       </c>
       <c r="I57" s="71"/>
     </row>
-    <row r="58" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A58" s="106"/>
-      <c r="B58" s="110"/>
-      <c r="C58" s="73" t="s">
-        <v>180</v>
-      </c>
-      <c r="D58" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="E58" s="48"/>
+    <row r="58" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A58" s="105"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="D58" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="100"/>
       <c r="F58" s="64">
         <f>'March 2015'!T47</f>
-        <v>4</v>
-      </c>
-      <c r="G58" s="50">
+        <v>5</v>
+      </c>
+      <c r="G58" s="78">
         <v>42079</v>
       </c>
-      <c r="H58" s="50">
+      <c r="H58" s="45">
+        <v>42084</v>
+      </c>
+      <c r="I58" s="71"/>
+    </row>
+    <row r="59" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A59" s="105"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="D59" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" s="100"/>
+      <c r="F59" s="64">
+        <f>'March 2015'!T48</f>
+        <v>3</v>
+      </c>
+      <c r="G59" s="78">
+        <v>42080</v>
+      </c>
+      <c r="H59" s="45">
+        <v>42085</v>
+      </c>
+      <c r="I59" s="71"/>
+    </row>
+    <row r="60" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A60" s="105"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="D60" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="100"/>
+      <c r="F60" s="64">
+        <f>'March 2015'!T49</f>
+        <v>2</v>
+      </c>
+      <c r="G60" s="78">
+        <v>42081</v>
+      </c>
+      <c r="H60" s="45">
+        <v>42086</v>
+      </c>
+      <c r="I60" s="71"/>
+    </row>
+    <row r="61" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A61" s="105"/>
+      <c r="B61" s="111"/>
+      <c r="C61" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="D61" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="100"/>
+      <c r="F61" s="64">
+        <f>'March 2015'!T50</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="78">
+        <v>42082</v>
+      </c>
+      <c r="H61" s="45">
+        <v>42087</v>
+      </c>
+      <c r="I61" s="71"/>
+    </row>
+    <row r="62" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A62" s="106"/>
+      <c r="B62" s="112"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="E62" s="48"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="50">
+        <v>42079</v>
+      </c>
+      <c r="H62" s="50">
         <v>42083</v>
       </c>
-      <c r="I58" s="51"/>
-    </row>
-    <row r="59" spans="1:9" ht="13.5" thickBot="1">
-      <c r="D59" s="54" t="s">
+      <c r="I62" s="51"/>
+    </row>
+    <row r="63" spans="1:9" ht="13.8" thickBot="1">
+      <c r="D63" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E59" s="54"/>
-      <c r="F59" s="55">
-        <f>SUM(F45:F58)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="13.5" thickTop="1"/>
-    <row r="61" spans="1:9" ht="13.5" thickBot="1"/>
-    <row r="62" spans="1:9">
-      <c r="A62" s="111" t="s">
+      <c r="E63" s="54"/>
+      <c r="F63" s="55">
+        <f>SUM(F45:F62)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="13.8" thickTop="1"/>
+    <row r="65" spans="1:9" ht="13.8" thickBot="1"/>
+    <row r="66" spans="1:9">
+      <c r="A66" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="112" t="s">
+      <c r="B66" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="C66" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D62" s="38" t="s">
+      <c r="D66" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="E62" s="38"/>
-      <c r="F62" s="39">
+      <c r="E66" s="38"/>
+      <c r="F66" s="39">
         <v>15</v>
       </c>
-      <c r="G62" s="40">
+      <c r="G66" s="40">
         <v>42079</v>
       </c>
-      <c r="H62" s="40">
+      <c r="H66" s="40">
         <v>42083</v>
       </c>
-      <c r="I62" s="41"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="105"/>
-      <c r="B63" s="113"/>
-      <c r="C63" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="D63" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="E63" s="59"/>
-      <c r="F63" s="60">
-        <v>5</v>
-      </c>
-      <c r="G63" s="67">
-        <v>42079</v>
-      </c>
-      <c r="H63" s="45">
-        <v>42083</v>
-      </c>
-      <c r="I63" s="62"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="105"/>
-      <c r="B64" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="C64" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="D64" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="E64" s="43"/>
-      <c r="F64" s="44">
-        <v>2</v>
-      </c>
-      <c r="G64" s="67">
-        <v>42079</v>
-      </c>
-      <c r="H64" s="45">
-        <v>42083</v>
-      </c>
-      <c r="I64" s="46"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="105"/>
-      <c r="B65" s="108"/>
-      <c r="C65" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="E65" s="63"/>
-      <c r="F65" s="64">
-        <v>2</v>
-      </c>
-      <c r="G65" s="67">
-        <v>42079</v>
-      </c>
-      <c r="H65" s="45">
-        <v>42083</v>
-      </c>
-      <c r="I65" s="65"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="105"/>
-      <c r="B66" s="108"/>
-      <c r="C66" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="D66" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="E66" s="63"/>
-      <c r="F66" s="64">
-        <v>2</v>
-      </c>
-      <c r="G66" s="67">
-        <v>42079</v>
-      </c>
-      <c r="H66" s="45">
-        <v>42083</v>
-      </c>
-      <c r="I66" s="65"/>
+      <c r="I66" s="41"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="105"/>
-      <c r="B67" s="109"/>
-      <c r="C67" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="D67" s="43" t="s">
+      <c r="B67" s="126"/>
+      <c r="C67" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="E67" s="63"/>
-      <c r="F67" s="64">
-        <v>2</v>
+      <c r="E67" s="59"/>
+      <c r="F67" s="60">
+        <v>5</v>
       </c>
       <c r="G67" s="67">
         <v>42079</v>
@@ -4973,19 +5054,21 @@
       <c r="H67" s="45">
         <v>42083</v>
       </c>
-      <c r="I67" s="65"/>
+      <c r="I67" s="62"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="105"/>
-      <c r="B68" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C68" s="63"/>
+      <c r="B68" s="110" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>102</v>
+      </c>
       <c r="D68" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="E68" s="63"/>
-      <c r="F68" s="64">
+        <v>101</v>
+      </c>
+      <c r="E68" s="43"/>
+      <c r="F68" s="44">
         <v>2</v>
       </c>
       <c r="G68" s="67">
@@ -4994,22 +5077,20 @@
       <c r="H68" s="45">
         <v>42083</v>
       </c>
-      <c r="I68" s="65"/>
+      <c r="I68" s="46"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="105"/>
-      <c r="B69" s="107" t="s">
-        <v>142</v>
-      </c>
+      <c r="B69" s="111"/>
       <c r="C69" s="63" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E69" s="63"/>
       <c r="F69" s="64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G69" s="67">
         <v>42079</v>
@@ -5021,16 +5102,16 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="105"/>
-      <c r="B70" s="108"/>
+      <c r="B70" s="111"/>
       <c r="C70" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="D70" s="63" t="s">
-        <v>101</v>
+        <v>105</v>
+      </c>
+      <c r="D70" s="43" t="s">
+        <v>106</v>
       </c>
       <c r="E70" s="63"/>
       <c r="F70" s="64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G70" s="67">
         <v>42079</v>
@@ -5042,16 +5123,16 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="105"/>
-      <c r="B71" s="108"/>
+      <c r="B71" s="123"/>
       <c r="C71" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="D71" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="43" t="s">
         <v>101</v>
       </c>
       <c r="E71" s="63"/>
       <c r="F71" s="64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G71" s="67">
         <v>42079</v>
@@ -5063,16 +5144,16 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="105"/>
-      <c r="B72" s="109"/>
-      <c r="C72" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="D72" s="63" t="s">
-        <v>101</v>
+      <c r="B72" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="63"/>
+      <c r="D72" s="43" t="s">
+        <v>108</v>
       </c>
       <c r="E72" s="63"/>
       <c r="F72" s="64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G72" s="67">
         <v>42079</v>
@@ -5080,117 +5161,127 @@
       <c r="H72" s="45">
         <v>42083</v>
       </c>
-      <c r="I72" s="71"/>
+      <c r="I72" s="65"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="105"/>
-      <c r="B73" s="42" t="s">
+      <c r="B73" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="D73" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="E73" s="63"/>
+      <c r="F73" s="64">
+        <v>3</v>
+      </c>
+      <c r="G73" s="67">
+        <v>42079</v>
+      </c>
+      <c r="H73" s="45">
+        <v>42083</v>
+      </c>
+      <c r="I73" s="65"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="105"/>
+      <c r="B74" s="111"/>
+      <c r="C74" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" s="63"/>
+      <c r="F74" s="64">
+        <v>5</v>
+      </c>
+      <c r="G74" s="67">
+        <v>42079</v>
+      </c>
+      <c r="H74" s="45">
+        <v>42083</v>
+      </c>
+      <c r="I74" s="65"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="105"/>
+      <c r="B75" s="111"/>
+      <c r="C75" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="D75" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75" s="63"/>
+      <c r="F75" s="64">
+        <v>3</v>
+      </c>
+      <c r="G75" s="67">
+        <v>42079</v>
+      </c>
+      <c r="H75" s="45">
+        <v>42083</v>
+      </c>
+      <c r="I75" s="65"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="105"/>
+      <c r="B76" s="123"/>
+      <c r="C76" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76" s="63"/>
+      <c r="F76" s="64">
+        <v>3</v>
+      </c>
+      <c r="G76" s="67">
+        <v>42079</v>
+      </c>
+      <c r="H76" s="45">
+        <v>42083</v>
+      </c>
+      <c r="I76" s="71"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="105"/>
+      <c r="B77" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C73" s="42"/>
-      <c r="D73" s="75" t="s">
+      <c r="C77" s="42"/>
+      <c r="D77" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="E73" s="75" t="s">
+      <c r="E77" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="F73" s="64"/>
-      <c r="G73" s="67">
-        <v>42082</v>
-      </c>
-      <c r="H73" s="45">
-        <v>42088</v>
-      </c>
-      <c r="I73" s="71" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A74" s="106"/>
-      <c r="B74" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="C74" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="D74" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="E74" s="75"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="67">
-        <v>42086</v>
-      </c>
-      <c r="H74" s="45">
-        <v>42086</v>
-      </c>
-      <c r="I74" s="71"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="91"/>
-      <c r="B75" s="108"/>
-      <c r="C75" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="D75" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="E75" s="75"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="67">
-        <v>42086</v>
-      </c>
-      <c r="H75" s="45">
-        <v>42086</v>
-      </c>
-      <c r="I75" s="71"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="92"/>
-      <c r="B76" s="108"/>
-      <c r="C76" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="D76" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="E76" s="75"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="67">
-        <v>42086</v>
-      </c>
-      <c r="H76" s="45">
-        <v>42086</v>
-      </c>
-      <c r="I76" s="71"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="92"/>
-      <c r="B77" s="108"/>
-      <c r="C77" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="D77" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="E77" s="75"/>
       <c r="F77" s="64"/>
       <c r="G77" s="67">
-        <v>42086</v>
+        <v>42082</v>
       </c>
       <c r="H77" s="45">
-        <v>42086</v>
-      </c>
-      <c r="I77" s="71"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="92"/>
-      <c r="B78" s="108"/>
+        <v>42088</v>
+      </c>
+      <c r="I77" s="71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A78" s="106"/>
+      <c r="B78" s="110" t="s">
+        <v>145</v>
+      </c>
       <c r="C78" s="42" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D78" s="75" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="E78" s="75"/>
       <c r="F78" s="64"/>
@@ -5202,111 +5293,111 @@
       </c>
       <c r="I78" s="71"/>
     </row>
-    <row r="79" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A79" s="92"/>
-      <c r="B79" s="110"/>
-      <c r="C79" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="D79" s="76" t="s">
-        <v>152</v>
-      </c>
-      <c r="E79" s="76"/>
-      <c r="F79" s="77"/>
-      <c r="G79" s="78">
+    <row r="79" spans="1:9">
+      <c r="A79" s="91"/>
+      <c r="B79" s="111"/>
+      <c r="C79" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D79" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="E79" s="75"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="67">
         <v>42086</v>
       </c>
-      <c r="H79" s="78">
+      <c r="H79" s="45">
         <v>42086</v>
       </c>
-      <c r="I79" s="79"/>
+      <c r="I79" s="71"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="92"/>
-      <c r="B80" s="101" t="s">
-        <v>163</v>
-      </c>
+      <c r="B80" s="111"/>
       <c r="C80" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="D80" s="89" t="s">
-        <v>158</v>
-      </c>
-      <c r="E80" s="89"/>
+        <v>150</v>
+      </c>
+      <c r="D80" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="E80" s="75"/>
       <c r="F80" s="64"/>
       <c r="G80" s="67">
-        <v>42087</v>
-      </c>
-      <c r="H80" s="67">
-        <v>42087</v>
+        <v>42086</v>
+      </c>
+      <c r="H80" s="45">
+        <v>42086</v>
       </c>
       <c r="I80" s="71"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="92"/>
-      <c r="B81" s="102"/>
+      <c r="B81" s="111"/>
       <c r="C81" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="D81" s="89" t="s">
-        <v>158</v>
-      </c>
-      <c r="E81" s="89"/>
+        <v>148</v>
+      </c>
+      <c r="D81" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="E81" s="75"/>
       <c r="F81" s="64"/>
       <c r="G81" s="67">
-        <v>42087</v>
-      </c>
-      <c r="H81" s="67">
-        <v>42087</v>
+        <v>42086</v>
+      </c>
+      <c r="H81" s="45">
+        <v>42086</v>
       </c>
       <c r="I81" s="71"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="92"/>
-      <c r="B82" s="102"/>
+      <c r="B82" s="111"/>
       <c r="C82" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="D82" s="89" t="s">
-        <v>158</v>
-      </c>
-      <c r="E82" s="89"/>
+        <v>151</v>
+      </c>
+      <c r="D82" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="E82" s="75"/>
       <c r="F82" s="64"/>
       <c r="G82" s="67">
-        <v>42087</v>
-      </c>
-      <c r="H82" s="67">
-        <v>42087</v>
+        <v>42086</v>
+      </c>
+      <c r="H82" s="45">
+        <v>42086</v>
       </c>
       <c r="I82" s="71"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" ht="13.8" thickBot="1">
       <c r="A83" s="92"/>
-      <c r="B83" s="102"/>
-      <c r="C83" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="D83" s="89" t="s">
-        <v>159</v>
-      </c>
-      <c r="E83" s="89"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="67">
-        <v>42087</v>
-      </c>
-      <c r="H83" s="67">
-        <v>42087</v>
-      </c>
-      <c r="I83" s="71"/>
+      <c r="B83" s="112"/>
+      <c r="C83" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="D83" s="76" t="s">
+        <v>152</v>
+      </c>
+      <c r="E83" s="76"/>
+      <c r="F83" s="77"/>
+      <c r="G83" s="78">
+        <v>42086</v>
+      </c>
+      <c r="H83" s="78">
+        <v>42086</v>
+      </c>
+      <c r="I83" s="79"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="92"/>
-      <c r="B84" s="102"/>
+      <c r="B84" s="120" t="s">
+        <v>163</v>
+      </c>
       <c r="C84" s="42" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D84" s="89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E84" s="89"/>
       <c r="F84" s="64"/>
@@ -5318,111 +5409,111 @@
       </c>
       <c r="I84" s="71"/>
     </row>
-    <row r="85" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A85" s="93"/>
-      <c r="B85" s="103"/>
-      <c r="C85" s="76" t="s">
-        <v>162</v>
-      </c>
-      <c r="D85" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="E85" s="76"/>
-      <c r="F85" s="77"/>
+    <row r="85" spans="1:9">
+      <c r="A85" s="92"/>
+      <c r="B85" s="121"/>
+      <c r="C85" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="D85" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="E85" s="89"/>
+      <c r="F85" s="64"/>
       <c r="G85" s="67">
         <v>42087</v>
       </c>
       <c r="H85" s="67">
         <v>42087</v>
       </c>
-      <c r="I85" s="79"/>
+      <c r="I85" s="71"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="92"/>
-      <c r="B86" s="101" t="s">
-        <v>172</v>
-      </c>
+      <c r="B86" s="121"/>
       <c r="C86" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="D86" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="E86" s="95"/>
+        <v>157</v>
+      </c>
+      <c r="D86" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="E86" s="89"/>
       <c r="F86" s="64"/>
       <c r="G86" s="67">
-        <v>42088</v>
+        <v>42087</v>
       </c>
       <c r="H86" s="67">
-        <v>42088</v>
+        <v>42087</v>
       </c>
       <c r="I86" s="71"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="92"/>
-      <c r="B87" s="102"/>
+      <c r="B87" s="121"/>
       <c r="C87" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="D87" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="E87" s="95"/>
+        <v>160</v>
+      </c>
+      <c r="D87" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="E87" s="89"/>
       <c r="F87" s="64"/>
       <c r="G87" s="67">
-        <v>42088</v>
+        <v>42087</v>
       </c>
       <c r="H87" s="67">
-        <v>42088</v>
+        <v>42087</v>
       </c>
       <c r="I87" s="71"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="92"/>
-      <c r="B88" s="102"/>
+      <c r="B88" s="121"/>
       <c r="C88" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="D88" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="E88" s="95"/>
+        <v>161</v>
+      </c>
+      <c r="D88" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="E88" s="89"/>
       <c r="F88" s="64"/>
       <c r="G88" s="67">
-        <v>42088</v>
+        <v>42087</v>
       </c>
       <c r="H88" s="67">
-        <v>42088</v>
+        <v>42087</v>
       </c>
       <c r="I88" s="71"/>
     </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="92"/>
-      <c r="B89" s="102"/>
-      <c r="C89" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="D89" s="95" t="s">
+    <row r="89" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A89" s="93"/>
+      <c r="B89" s="122"/>
+      <c r="C89" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="D89" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="E89" s="95"/>
-      <c r="F89" s="64"/>
+      <c r="E89" s="76"/>
+      <c r="F89" s="77"/>
       <c r="G89" s="67">
-        <v>42088</v>
+        <v>42087</v>
       </c>
       <c r="H89" s="67">
-        <v>42088</v>
-      </c>
-      <c r="I89" s="71"/>
+        <v>42087</v>
+      </c>
+      <c r="I89" s="79"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="92"/>
-      <c r="B90" s="102"/>
+      <c r="B90" s="120" t="s">
+        <v>172</v>
+      </c>
       <c r="C90" s="42" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D90" s="95" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E90" s="95"/>
       <c r="F90" s="64"/>
@@ -5434,113 +5525,113 @@
       </c>
       <c r="I90" s="71"/>
     </row>
-    <row r="91" spans="1:9" ht="50.25" thickBot="1">
-      <c r="A91" s="93"/>
-      <c r="B91" s="103"/>
-      <c r="C91" s="98" t="s">
-        <v>178</v>
-      </c>
-      <c r="D91" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="E91" s="76"/>
-      <c r="F91" s="77"/>
+    <row r="91" spans="1:9">
+      <c r="A91" s="92"/>
+      <c r="B91" s="121"/>
+      <c r="C91" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="D91" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="E91" s="95"/>
+      <c r="F91" s="64"/>
       <c r="G91" s="67">
         <v>42088</v>
       </c>
       <c r="H91" s="67">
         <v>42088</v>
       </c>
-      <c r="I91" s="79"/>
+      <c r="I91" s="71"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="92"/>
-      <c r="B92" s="101" t="s">
-        <v>181</v>
-      </c>
+      <c r="B92" s="121"/>
       <c r="C92" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="D92" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="D92" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="E92" s="99"/>
+      <c r="E92" s="95"/>
       <c r="F92" s="64"/>
       <c r="G92" s="67">
-        <v>42089</v>
+        <v>42088</v>
       </c>
       <c r="H92" s="67">
-        <v>42089</v>
+        <v>42088</v>
       </c>
       <c r="I92" s="71"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="92"/>
-      <c r="B93" s="102"/>
+      <c r="B93" s="121"/>
       <c r="C93" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D93" s="99" t="s">
-        <v>153</v>
-      </c>
-      <c r="E93" s="99"/>
+        <v>176</v>
+      </c>
+      <c r="D93" s="95" t="s">
+        <v>159</v>
+      </c>
+      <c r="E93" s="95"/>
       <c r="F93" s="64"/>
       <c r="G93" s="67">
-        <v>42089</v>
+        <v>42088</v>
       </c>
       <c r="H93" s="67">
-        <v>42089</v>
+        <v>42088</v>
       </c>
       <c r="I93" s="71"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="92"/>
-      <c r="B94" s="102"/>
+      <c r="B94" s="121"/>
       <c r="C94" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="D94" s="99" t="s">
-        <v>153</v>
-      </c>
-      <c r="E94" s="99"/>
+        <v>177</v>
+      </c>
+      <c r="D94" s="95" t="s">
+        <v>159</v>
+      </c>
+      <c r="E94" s="95"/>
       <c r="F94" s="64"/>
       <c r="G94" s="67">
-        <v>42089</v>
+        <v>42088</v>
       </c>
       <c r="H94" s="67">
-        <v>42089</v>
+        <v>42088</v>
       </c>
       <c r="I94" s="71"/>
     </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="92"/>
-      <c r="B95" s="102"/>
-      <c r="C95" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="D95" s="99" t="s">
+    <row r="95" spans="1:9" ht="51" thickBot="1">
+      <c r="A95" s="93"/>
+      <c r="B95" s="122"/>
+      <c r="C95" s="97" t="s">
+        <v>178</v>
+      </c>
+      <c r="D95" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="E95" s="99"/>
-      <c r="F95" s="64"/>
+      <c r="E95" s="76"/>
+      <c r="F95" s="77"/>
       <c r="G95" s="67">
-        <v>42089</v>
+        <v>42088</v>
       </c>
       <c r="H95" s="67">
-        <v>42089</v>
-      </c>
-      <c r="I95" s="71"/>
+        <v>42088</v>
+      </c>
+      <c r="I95" s="79"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="92"/>
-      <c r="B96" s="102"/>
+      <c r="B96" s="120" t="s">
+        <v>180</v>
+      </c>
       <c r="C96" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="D96" s="99" t="s">
-        <v>159</v>
-      </c>
-      <c r="E96" s="99"/>
+        <v>181</v>
+      </c>
+      <c r="D96" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="E96" s="98"/>
       <c r="F96" s="64"/>
       <c r="G96" s="67">
         <v>42089</v>
@@ -5550,113 +5641,113 @@
       </c>
       <c r="I96" s="71"/>
     </row>
-    <row r="97" spans="1:9" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="A97" s="93"/>
-      <c r="B97" s="103"/>
-      <c r="C97" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="D97" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="E97" s="76"/>
-      <c r="F97" s="77"/>
+    <row r="97" spans="1:9">
+      <c r="A97" s="92"/>
+      <c r="B97" s="121"/>
+      <c r="C97" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="D97" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="E97" s="98"/>
+      <c r="F97" s="64"/>
       <c r="G97" s="67">
         <v>42089</v>
       </c>
       <c r="H97" s="67">
         <v>42089</v>
       </c>
-      <c r="I97" s="79"/>
+      <c r="I97" s="71"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="92"/>
-      <c r="B98" s="101" t="s">
-        <v>189</v>
-      </c>
+      <c r="B98" s="121"/>
       <c r="C98" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="D98" s="100" t="s">
+        <v>183</v>
+      </c>
+      <c r="D98" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="E98" s="100"/>
+      <c r="E98" s="98"/>
       <c r="F98" s="64"/>
       <c r="G98" s="67">
-        <v>42090</v>
+        <v>42089</v>
       </c>
       <c r="H98" s="67">
-        <v>42090</v>
+        <v>42089</v>
       </c>
       <c r="I98" s="71"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="92"/>
-      <c r="B99" s="102"/>
+      <c r="B99" s="121"/>
       <c r="C99" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="D99" s="100" t="s">
-        <v>153</v>
-      </c>
-      <c r="E99" s="100"/>
+        <v>184</v>
+      </c>
+      <c r="D99" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="E99" s="98"/>
       <c r="F99" s="64"/>
       <c r="G99" s="67">
-        <v>42090</v>
+        <v>42089</v>
       </c>
       <c r="H99" s="67">
-        <v>42090</v>
+        <v>42089</v>
       </c>
       <c r="I99" s="71"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="92"/>
-      <c r="B100" s="102"/>
+      <c r="B100" s="121"/>
       <c r="C100" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="D100" s="100" t="s">
-        <v>153</v>
-      </c>
-      <c r="E100" s="100"/>
+        <v>185</v>
+      </c>
+      <c r="D100" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="E100" s="98"/>
       <c r="F100" s="64"/>
       <c r="G100" s="67">
-        <v>42090</v>
+        <v>42089</v>
       </c>
       <c r="H100" s="67">
-        <v>42090</v>
+        <v>42089</v>
       </c>
       <c r="I100" s="71"/>
     </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="92"/>
-      <c r="B101" s="102"/>
-      <c r="C101" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="D101" s="100" t="s">
+    <row r="101" spans="1:9" ht="16.95" customHeight="1" thickBot="1">
+      <c r="A101" s="93"/>
+      <c r="B101" s="122"/>
+      <c r="C101" s="97" t="s">
+        <v>186</v>
+      </c>
+      <c r="D101" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="E101" s="100"/>
-      <c r="F101" s="64"/>
+      <c r="E101" s="76"/>
+      <c r="F101" s="77"/>
       <c r="G101" s="67">
-        <v>42090</v>
+        <v>42089</v>
       </c>
       <c r="H101" s="67">
-        <v>42090</v>
-      </c>
-      <c r="I101" s="71"/>
+        <v>42089</v>
+      </c>
+      <c r="I101" s="79"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="92"/>
-      <c r="B102" s="102"/>
+      <c r="B102" s="120" t="s">
+        <v>188</v>
+      </c>
       <c r="C102" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="D102" s="100" t="s">
-        <v>159</v>
-      </c>
-      <c r="E102" s="100"/>
+        <v>189</v>
+      </c>
+      <c r="D102" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="E102" s="99"/>
       <c r="F102" s="64"/>
       <c r="G102" s="67">
         <v>42090</v>
@@ -5666,47 +5757,123 @@
       </c>
       <c r="I102" s="71"/>
     </row>
-    <row r="103" spans="1:9" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="A103" s="93"/>
-      <c r="B103" s="103"/>
-      <c r="C103" s="98" t="s">
-        <v>195</v>
-      </c>
-      <c r="D103" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="E103" s="76"/>
-      <c r="F103" s="77"/>
+    <row r="103" spans="1:9">
+      <c r="A103" s="92"/>
+      <c r="B103" s="121"/>
+      <c r="C103" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="D103" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="E103" s="99"/>
+      <c r="F103" s="64"/>
       <c r="G103" s="67">
         <v>42090</v>
       </c>
       <c r="H103" s="67">
         <v>42090</v>
       </c>
-      <c r="I103" s="79"/>
+      <c r="I103" s="71"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="92"/>
+      <c r="B104" s="121"/>
+      <c r="C104" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D104" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="E104" s="99"/>
+      <c r="F104" s="64"/>
+      <c r="G104" s="67">
+        <v>42090</v>
+      </c>
+      <c r="H104" s="67">
+        <v>42090</v>
+      </c>
+      <c r="I104" s="71"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="92"/>
+      <c r="B105" s="121"/>
+      <c r="C105" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="D105" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="E105" s="99"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="67">
+        <v>42090</v>
+      </c>
+      <c r="H105" s="67">
+        <v>42090</v>
+      </c>
+      <c r="I105" s="71"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="92"/>
+      <c r="B106" s="121"/>
+      <c r="C106" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="D106" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="E106" s="99"/>
+      <c r="F106" s="64"/>
+      <c r="G106" s="67">
+        <v>42090</v>
+      </c>
+      <c r="H106" s="67">
+        <v>42090</v>
+      </c>
+      <c r="I106" s="71"/>
+    </row>
+    <row r="107" spans="1:9" ht="16.95" customHeight="1" thickBot="1">
+      <c r="A107" s="93"/>
+      <c r="B107" s="122"/>
+      <c r="C107" s="97" t="s">
+        <v>194</v>
+      </c>
+      <c r="D107" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="E107" s="76"/>
+      <c r="F107" s="77"/>
+      <c r="G107" s="67">
+        <v>42090</v>
+      </c>
+      <c r="H107" s="67">
+        <v>42090</v>
+      </c>
+      <c r="I107" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="A26:A42"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="A45:A62"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="B52:B62"/>
+    <mergeCell ref="A66:A78"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B96:B101"/>
+    <mergeCell ref="B78:B83"/>
+    <mergeCell ref="B90:B95"/>
+    <mergeCell ref="B84:B89"/>
     <mergeCell ref="B31:B37"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A9:A22"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B22"/>
     <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="A26:A42"/>
-    <mergeCell ref="B98:B103"/>
-    <mergeCell ref="A45:A58"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="A62:A74"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B92:B97"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="B86:B91"/>
-    <mergeCell ref="B80:B85"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5716,28 +5883,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T88"/>
+  <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="F40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W35" sqref="W35"/>
+      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="64.85546875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="23" customWidth="1"/>
-    <col min="5" max="18" width="4.42578125" style="23" customWidth="1"/>
-    <col min="19" max="19" width="2.85546875" style="23" customWidth="1"/>
-    <col min="20" max="20" width="7.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="8.109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.88671875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="23" customWidth="1"/>
+    <col min="5" max="18" width="4.44140625" style="23" customWidth="1"/>
+    <col min="19" max="19" width="2.88671875" style="23" customWidth="1"/>
+    <col min="20" max="20" width="7.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75">
+    <row r="1" spans="1:20" ht="15.6">
       <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
@@ -5824,7 +5991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="13.5" thickBot="1">
+    <row r="9" spans="1:20" ht="13.8" thickBot="1">
       <c r="B9" s="20" t="s">
         <v>10</v>
       </c>
@@ -5832,7 +5999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="25.5">
+    <row r="10" spans="1:20">
       <c r="B10" s="87">
         <v>1</v>
       </c>
@@ -6532,7 +6699,7 @@
         <v>12</v>
       </c>
       <c r="C36" s="84" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D36" s="84"/>
       <c r="E36" s="84"/>
@@ -6558,7 +6725,7 @@
         <v>13</v>
       </c>
       <c r="C37" s="84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D37" s="84"/>
       <c r="E37" s="84"/>
@@ -6615,7 +6782,9 @@
       <c r="L41" s="82">
         <v>2</v>
       </c>
-      <c r="M41" s="25"/>
+      <c r="M41" s="82">
+        <v>2</v>
+      </c>
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
       <c r="P41" s="25"/>
@@ -6623,7 +6792,7 @@
       <c r="R41" s="25"/>
       <c r="T41" s="3">
         <f>SUM(E41:R41)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -6650,7 +6819,9 @@
       <c r="L42" s="82">
         <v>1</v>
       </c>
-      <c r="M42" s="25"/>
+      <c r="M42" s="82">
+        <v>2</v>
+      </c>
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
@@ -6658,7 +6829,7 @@
       <c r="R42" s="25"/>
       <c r="T42" s="3">
         <f t="shared" ref="T42:T45" si="4">SUM(E42:R42)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -6678,14 +6849,16 @@
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
       <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
+      <c r="N43" s="82">
+        <v>2</v>
+      </c>
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
       <c r="T43" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -6711,15 +6884,19 @@
       <c r="L44" s="82">
         <v>5</v>
       </c>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
+      <c r="M44" s="82">
+        <v>1</v>
+      </c>
+      <c r="N44" s="82">
+        <v>2</v>
+      </c>
       <c r="O44" s="25"/>
       <c r="P44" s="25"/>
       <c r="Q44" s="25"/>
       <c r="R44" s="25"/>
       <c r="T44" s="3">
         <f>SUM(E44:R44)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -6771,15 +6948,17 @@
       <c r="L46" s="82">
         <v>1</v>
       </c>
-      <c r="M46" s="84"/>
+      <c r="M46" s="82">
+        <v>1</v>
+      </c>
       <c r="N46" s="84"/>
       <c r="O46" s="84"/>
       <c r="P46" s="84"/>
       <c r="Q46" s="84"/>
       <c r="R46" s="84"/>
       <c r="T46" s="81">
-        <f t="shared" ref="T46" si="5">SUM(E46:R46)</f>
-        <v>1</v>
+        <f t="shared" ref="T46:T49" si="5">SUM(E46:R46)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="80" customFormat="1">
@@ -6802,231 +6981,233 @@
       <c r="L47" s="82">
         <v>1</v>
       </c>
-      <c r="M47" s="84"/>
+      <c r="M47" s="82">
+        <v>1</v>
+      </c>
       <c r="N47" s="84"/>
       <c r="O47" s="84"/>
       <c r="P47" s="84"/>
       <c r="Q47" s="84"/>
       <c r="R47" s="84"/>
       <c r="T47" s="81">
-        <f t="shared" ref="T47" si="6">SUM(E47:R47)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" s="80" customFormat="1">
-      <c r="B48" s="27"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="T48" s="28"/>
-    </row>
-    <row r="49" spans="1:20">
-      <c r="A49" s="24" t="s">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" s="80" customFormat="1" ht="13.8" thickBot="1">
+      <c r="B48" s="83">
+        <v>8</v>
+      </c>
+      <c r="C48" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" s="84"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="84"/>
+      <c r="K48" s="84"/>
+      <c r="L48" s="84"/>
+      <c r="M48" s="82">
+        <v>1</v>
+      </c>
+      <c r="N48" s="82">
+        <v>2</v>
+      </c>
+      <c r="O48" s="84"/>
+      <c r="P48" s="84"/>
+      <c r="Q48" s="84"/>
+      <c r="R48" s="84"/>
+      <c r="T48" s="81">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" s="80" customFormat="1">
+      <c r="B49" s="83">
+        <v>9</v>
+      </c>
+      <c r="C49" s="84" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="84"/>
+      <c r="M49" s="84"/>
+      <c r="N49" s="82">
+        <v>2</v>
+      </c>
+      <c r="O49" s="84"/>
+      <c r="P49" s="84"/>
+      <c r="Q49" s="84"/>
+      <c r="R49" s="84"/>
+      <c r="T49" s="81">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" s="80" customFormat="1">
+      <c r="B50" s="83">
+        <v>10</v>
+      </c>
+      <c r="C50" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="84"/>
+      <c r="M50" s="84"/>
+      <c r="N50" s="84"/>
+      <c r="O50" s="84"/>
+      <c r="P50" s="84"/>
+      <c r="Q50" s="84"/>
+      <c r="R50" s="84"/>
+      <c r="T50" s="81">
+        <f t="shared" ref="T50" si="6">SUM(E50:R50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" s="80" customFormat="1">
+      <c r="B51" s="27"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="T51" s="28"/>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
-      <c r="B50" s="20" t="s">
+    <row r="53" spans="1:20">
+      <c r="B53" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
-      <c r="B51" s="21">
+    <row r="54" spans="1:20">
+      <c r="B54" s="21">
         <v>1</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C54" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="19">
+      <c r="D54" s="25"/>
+      <c r="E54" s="19">
         <v>8</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F54" s="19">
         <v>8</v>
       </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="25"/>
-      <c r="T51" s="3">
-        <f>SUM(E51:R51)</f>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="T54" s="3">
+        <f>SUM(E54:R54)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
-      <c r="B52" s="83">
+    <row r="55" spans="1:20">
+      <c r="B55" s="83">
         <v>2</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C55" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="19">
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="19">
         <v>8</v>
       </c>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="25"/>
-      <c r="R52" s="25"/>
-      <c r="T52" s="3">
-        <f t="shared" ref="T52:T58" si="7">SUM(E52:R52)</f>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25"/>
+      <c r="T55" s="3">
+        <f t="shared" ref="T55:T61" si="7">SUM(E55:R55)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="80" customFormat="1">
-      <c r="B53" s="83">
+    <row r="56" spans="1:20" s="80" customFormat="1">
+      <c r="B56" s="83">
         <v>3</v>
       </c>
-      <c r="C53" s="84" t="s">
+      <c r="C56" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="82">
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="82">
         <v>8</v>
       </c>
-      <c r="J53" s="84"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="84"/>
-      <c r="O53" s="84"/>
-      <c r="P53" s="84"/>
-      <c r="Q53" s="84"/>
-      <c r="R53" s="84"/>
-      <c r="T53" s="81">
-        <f t="shared" ref="T53:T54" si="8">SUM(E53:R53)</f>
+      <c r="J56" s="84"/>
+      <c r="K56" s="84"/>
+      <c r="L56" s="84"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="84"/>
+      <c r="O56" s="84"/>
+      <c r="P56" s="84"/>
+      <c r="Q56" s="84"/>
+      <c r="R56" s="84"/>
+      <c r="T56" s="81">
+        <f t="shared" ref="T56:T57" si="8">SUM(E56:R56)</f>
         <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" s="80" customFormat="1">
-      <c r="B54" s="83">
-        <v>4</v>
-      </c>
-      <c r="C54" s="74">
-        <v>6.1</v>
-      </c>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="82">
-        <v>2</v>
-      </c>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="84"/>
-      <c r="Q54" s="84"/>
-      <c r="R54" s="84"/>
-      <c r="T54" s="81">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" s="80" customFormat="1">
-      <c r="B55" s="83">
-        <v>5</v>
-      </c>
-      <c r="C55" s="74">
-        <v>6.1</v>
-      </c>
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="84"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="82">
-        <v>2</v>
-      </c>
-      <c r="K55" s="84"/>
-      <c r="L55" s="84"/>
-      <c r="M55" s="84"/>
-      <c r="N55" s="84"/>
-      <c r="O55" s="84"/>
-      <c r="P55" s="84"/>
-      <c r="Q55" s="84"/>
-      <c r="R55" s="84"/>
-      <c r="T55" s="81">
-        <f t="shared" ref="T55" si="9">SUM(E55:R55)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20">
-      <c r="B56" s="83">
-        <v>6</v>
-      </c>
-      <c r="C56" s="74">
-        <v>6.3</v>
-      </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="19">
-        <v>4</v>
-      </c>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="25"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="25"/>
-      <c r="R56" s="25"/>
-      <c r="T56" s="3">
-        <f t="shared" si="7"/>
-        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="80" customFormat="1">
       <c r="B57" s="83">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C57" s="74">
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="D57" s="84"/>
       <c r="E57" s="84"/>
@@ -7034,10 +7215,10 @@
       <c r="G57" s="84"/>
       <c r="H57" s="84"/>
       <c r="I57" s="84"/>
-      <c r="J57" s="84"/>
-      <c r="K57" s="82">
+      <c r="J57" s="82">
         <v>2</v>
       </c>
+      <c r="K57" s="84"/>
       <c r="L57" s="84"/>
       <c r="M57" s="84"/>
       <c r="N57" s="84"/>
@@ -7046,16 +7227,16 @@
       <c r="Q57" s="84"/>
       <c r="R57" s="84"/>
       <c r="T57" s="81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:20" s="80" customFormat="1">
       <c r="B58" s="83">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C58" s="74">
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="D58" s="84"/>
       <c r="E58" s="84"/>
@@ -7063,10 +7244,10 @@
       <c r="G58" s="84"/>
       <c r="H58" s="84"/>
       <c r="I58" s="84"/>
-      <c r="J58" s="84"/>
-      <c r="K58" s="82">
-        <v>4</v>
-      </c>
+      <c r="J58" s="82">
+        <v>2</v>
+      </c>
+      <c r="K58" s="84"/>
       <c r="L58" s="84"/>
       <c r="M58" s="84"/>
       <c r="N58" s="84"/>
@@ -7075,45 +7256,45 @@
       <c r="Q58" s="84"/>
       <c r="R58" s="84"/>
       <c r="T58" s="81">
+        <f t="shared" ref="T58" si="9">SUM(E58:R58)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="B59" s="83">
+        <v>6</v>
+      </c>
+      <c r="C59" s="74">
+        <v>6.3</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="19">
+        <v>4</v>
+      </c>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="T59" s="3">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="80" customFormat="1">
-      <c r="B59" s="83">
-        <v>9</v>
-      </c>
-      <c r="C59" s="74">
-        <v>7.3</v>
-      </c>
-      <c r="D59" s="84"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="84"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="84"/>
-      <c r="K59" s="82">
-        <v>5</v>
-      </c>
-      <c r="L59" s="84"/>
-      <c r="M59" s="84"/>
-      <c r="N59" s="84"/>
-      <c r="O59" s="84"/>
-      <c r="P59" s="84"/>
-      <c r="Q59" s="84"/>
-      <c r="R59" s="84"/>
-      <c r="T59" s="81">
-        <f t="shared" ref="T59:T61" si="10">SUM(E59:R59)</f>
-        <v>5</v>
-      </c>
-    </row>
     <row r="60" spans="1:20" s="80" customFormat="1">
       <c r="B60" s="83">
-        <v>10</v>
-      </c>
-      <c r="C60" s="42" t="s">
-        <v>173</v>
+        <v>7</v>
+      </c>
+      <c r="C60" s="74">
+        <v>7.1</v>
       </c>
       <c r="D60" s="84"/>
       <c r="E60" s="84"/>
@@ -7122,10 +7303,10 @@
       <c r="H60" s="84"/>
       <c r="I60" s="84"/>
       <c r="J60" s="84"/>
-      <c r="K60" s="84"/>
-      <c r="L60" s="82">
+      <c r="K60" s="82">
         <v>2</v>
       </c>
+      <c r="L60" s="84"/>
       <c r="M60" s="84"/>
       <c r="N60" s="84"/>
       <c r="O60" s="84"/>
@@ -7133,16 +7314,16 @@
       <c r="Q60" s="84"/>
       <c r="R60" s="84"/>
       <c r="T60" s="81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:20" s="80" customFormat="1">
       <c r="B61" s="83">
-        <v>11</v>
-      </c>
-      <c r="C61" s="42" t="s">
-        <v>174</v>
+        <v>8</v>
+      </c>
+      <c r="C61" s="74">
+        <v>7.1</v>
       </c>
       <c r="D61" s="84"/>
       <c r="E61" s="84"/>
@@ -7151,10 +7332,10 @@
       <c r="H61" s="84"/>
       <c r="I61" s="84"/>
       <c r="J61" s="84"/>
-      <c r="K61" s="84"/>
-      <c r="L61" s="82">
+      <c r="K61" s="82">
         <v>4</v>
       </c>
+      <c r="L61" s="84"/>
       <c r="M61" s="84"/>
       <c r="N61" s="84"/>
       <c r="O61" s="84"/>
@@ -7162,16 +7343,16 @@
       <c r="Q61" s="84"/>
       <c r="R61" s="84"/>
       <c r="T61" s="81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:20" s="80" customFormat="1">
       <c r="B62" s="83">
-        <v>12</v>
-      </c>
-      <c r="C62" s="42" t="s">
-        <v>175</v>
+        <v>9</v>
+      </c>
+      <c r="C62" s="74">
+        <v>7.3</v>
       </c>
       <c r="D62" s="84"/>
       <c r="E62" s="84"/>
@@ -7180,10 +7361,10 @@
       <c r="H62" s="84"/>
       <c r="I62" s="84"/>
       <c r="J62" s="84"/>
-      <c r="K62" s="84"/>
-      <c r="L62" s="82">
+      <c r="K62" s="82">
         <v>5</v>
       </c>
+      <c r="L62" s="84"/>
       <c r="M62" s="84"/>
       <c r="N62" s="84"/>
       <c r="O62" s="84"/>
@@ -7191,16 +7372,16 @@
       <c r="Q62" s="84"/>
       <c r="R62" s="84"/>
       <c r="T62" s="81">
-        <f t="shared" ref="T62:T64" si="11">SUM(E62:R62)</f>
+        <f t="shared" ref="T62:T64" si="10">SUM(E62:R62)</f>
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="80" customFormat="1">
       <c r="B63" s="83">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D63" s="84"/>
       <c r="E63" s="84"/>
@@ -7210,26 +7391,26 @@
       <c r="I63" s="84"/>
       <c r="J63" s="84"/>
       <c r="K63" s="84"/>
-      <c r="L63" s="84"/>
-      <c r="M63" s="82">
+      <c r="L63" s="82">
         <v>2</v>
       </c>
+      <c r="M63" s="84"/>
       <c r="N63" s="84"/>
       <c r="O63" s="84"/>
       <c r="P63" s="84"/>
       <c r="Q63" s="84"/>
       <c r="R63" s="84"/>
       <c r="T63" s="81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:20" s="80" customFormat="1">
       <c r="B64" s="83">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D64" s="84"/>
       <c r="E64" s="84"/>
@@ -7239,26 +7420,26 @@
       <c r="I64" s="84"/>
       <c r="J64" s="84"/>
       <c r="K64" s="84"/>
-      <c r="L64" s="84"/>
-      <c r="M64" s="82">
+      <c r="L64" s="82">
         <v>4</v>
       </c>
+      <c r="M64" s="84"/>
       <c r="N64" s="84"/>
       <c r="O64" s="84"/>
       <c r="P64" s="84"/>
       <c r="Q64" s="84"/>
       <c r="R64" s="84"/>
       <c r="T64" s="81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:20" s="80" customFormat="1">
       <c r="B65" s="83">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D65" s="84"/>
       <c r="E65" s="84"/>
@@ -7268,17 +7449,17 @@
       <c r="I65" s="84"/>
       <c r="J65" s="84"/>
       <c r="K65" s="84"/>
-      <c r="L65" s="84"/>
-      <c r="M65" s="82">
+      <c r="L65" s="82">
         <v>5</v>
       </c>
+      <c r="M65" s="84"/>
       <c r="N65" s="84"/>
       <c r="O65" s="84"/>
       <c r="P65" s="84"/>
       <c r="Q65" s="84"/>
       <c r="R65" s="84"/>
       <c r="T65" s="81">
-        <f t="shared" ref="T65:T67" si="12">SUM(E65:R65)</f>
+        <f t="shared" ref="T65:T67" si="11">SUM(E65:R65)</f>
         <v>5</v>
       </c>
     </row>
@@ -7287,7 +7468,7 @@
         <v>13</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D66" s="84"/>
       <c r="E66" s="84"/>
@@ -7298,16 +7479,16 @@
       <c r="J66" s="84"/>
       <c r="K66" s="84"/>
       <c r="L66" s="84"/>
-      <c r="M66" s="84"/>
-      <c r="N66" s="82">
+      <c r="M66" s="82">
         <v>2</v>
       </c>
+      <c r="N66" s="84"/>
       <c r="O66" s="84"/>
       <c r="P66" s="84"/>
       <c r="Q66" s="84"/>
       <c r="R66" s="84"/>
       <c r="T66" s="81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -7316,7 +7497,7 @@
         <v>14</v>
       </c>
       <c r="C67" s="42" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D67" s="84"/>
       <c r="E67" s="84"/>
@@ -7327,16 +7508,16 @@
       <c r="J67" s="84"/>
       <c r="K67" s="84"/>
       <c r="L67" s="84"/>
-      <c r="M67" s="84"/>
-      <c r="N67" s="82">
+      <c r="M67" s="82">
         <v>4</v>
       </c>
+      <c r="N67" s="84"/>
       <c r="O67" s="84"/>
       <c r="P67" s="84"/>
       <c r="Q67" s="84"/>
       <c r="R67" s="84"/>
       <c r="T67" s="81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -7345,7 +7526,7 @@
         <v>15</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D68" s="84"/>
       <c r="E68" s="84"/>
@@ -7356,160 +7537,166 @@
       <c r="J68" s="84"/>
       <c r="K68" s="84"/>
       <c r="L68" s="84"/>
-      <c r="M68" s="84"/>
-      <c r="N68" s="82">
-        <v>4</v>
-      </c>
+      <c r="M68" s="82">
+        <v>5</v>
+      </c>
+      <c r="N68" s="84"/>
       <c r="O68" s="84"/>
       <c r="P68" s="84"/>
       <c r="Q68" s="84"/>
       <c r="R68" s="84"/>
       <c r="T68" s="81">
-        <f t="shared" ref="T68" si="13">SUM(E68:R68)</f>
+        <f t="shared" ref="T68:T70" si="12">SUM(E68:R68)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" s="80" customFormat="1">
+      <c r="B69" s="83">
+        <v>13</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="84"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="84"/>
+      <c r="J69" s="84"/>
+      <c r="K69" s="84"/>
+      <c r="L69" s="84"/>
+      <c r="M69" s="84"/>
+      <c r="N69" s="82">
+        <v>2</v>
+      </c>
+      <c r="O69" s="84"/>
+      <c r="P69" s="84"/>
+      <c r="Q69" s="84"/>
+      <c r="R69" s="84"/>
+      <c r="T69" s="81">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" s="80" customFormat="1">
+      <c r="B70" s="83">
+        <v>14</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="D70" s="84"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="84"/>
+      <c r="H70" s="84"/>
+      <c r="I70" s="84"/>
+      <c r="J70" s="84"/>
+      <c r="K70" s="84"/>
+      <c r="L70" s="84"/>
+      <c r="M70" s="84"/>
+      <c r="N70" s="82">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:20">
-      <c r="A70" s="24" t="s">
+      <c r="O70" s="84"/>
+      <c r="P70" s="84"/>
+      <c r="Q70" s="84"/>
+      <c r="R70" s="84"/>
+      <c r="T70" s="81">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" s="80" customFormat="1">
+      <c r="B71" s="83">
+        <v>15</v>
+      </c>
+      <c r="C71" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D71" s="84"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="84"/>
+      <c r="H71" s="84"/>
+      <c r="I71" s="84"/>
+      <c r="J71" s="84"/>
+      <c r="K71" s="84"/>
+      <c r="L71" s="84"/>
+      <c r="M71" s="84"/>
+      <c r="N71" s="82">
+        <v>4</v>
+      </c>
+      <c r="O71" s="84"/>
+      <c r="P71" s="84"/>
+      <c r="Q71" s="84"/>
+      <c r="R71" s="84"/>
+      <c r="T71" s="81">
+        <f t="shared" ref="T71" si="13">SUM(E71:R71)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="A73" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
-      <c r="B71" s="20" t="s">
+    <row r="74" spans="1:20">
+      <c r="B74" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
-      <c r="B72" s="21">
+    <row r="75" spans="1:20">
+      <c r="B75" s="21">
         <v>1</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C75" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="D72" s="25"/>
-      <c r="E72" s="19">
+      <c r="D75" s="25"/>
+      <c r="E75" s="19">
         <v>8</v>
       </c>
-      <c r="F72" s="19">
+      <c r="F75" s="19">
         <v>8</v>
       </c>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
-      <c r="M72" s="25"/>
-      <c r="N72" s="25"/>
-      <c r="O72" s="25"/>
-      <c r="P72" s="25"/>
-      <c r="Q72" s="25"/>
-      <c r="R72" s="25"/>
-      <c r="T72" s="3">
-        <f t="shared" ref="T72:T76" si="14">SUM(E72:R72)</f>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
+      <c r="R75" s="25"/>
+      <c r="T75" s="3">
+        <f t="shared" ref="T75:T79" si="14">SUM(E75:R75)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="1:20">
-      <c r="B73" s="83">
-        <v>2</v>
-      </c>
-      <c r="C73" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="19">
-        <v>8</v>
-      </c>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="84"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="25"/>
-      <c r="N73" s="25"/>
-      <c r="O73" s="25"/>
-      <c r="P73" s="25"/>
-      <c r="Q73" s="25"/>
-      <c r="R73" s="25"/>
-      <c r="T73" s="3">
-        <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" s="80" customFormat="1">
-      <c r="B74" s="83">
-        <v>3</v>
-      </c>
-      <c r="C74" s="74">
-        <v>6.4</v>
-      </c>
-      <c r="D74" s="84"/>
-      <c r="E74" s="84"/>
-      <c r="F74" s="84"/>
-      <c r="G74" s="84"/>
-      <c r="H74" s="84"/>
-      <c r="I74" s="84"/>
-      <c r="J74" s="82">
-        <v>2</v>
-      </c>
-      <c r="K74" s="84"/>
-      <c r="L74" s="84"/>
-      <c r="M74" s="84"/>
-      <c r="N74" s="84"/>
-      <c r="O74" s="84"/>
-      <c r="P74" s="84"/>
-      <c r="Q74" s="84"/>
-      <c r="R74" s="84"/>
-      <c r="T74" s="81"/>
-    </row>
-    <row r="75" spans="1:20" s="80" customFormat="1">
-      <c r="B75" s="83">
-        <v>4</v>
-      </c>
-      <c r="C75" s="74">
-        <v>6.5</v>
-      </c>
-      <c r="D75" s="84"/>
-      <c r="E75" s="84"/>
-      <c r="F75" s="84"/>
-      <c r="G75" s="84"/>
-      <c r="H75" s="84"/>
-      <c r="I75" s="84"/>
-      <c r="J75" s="82">
-        <v>3</v>
-      </c>
-      <c r="K75" s="84"/>
-      <c r="L75" s="84"/>
-      <c r="M75" s="84"/>
-      <c r="N75" s="84"/>
-      <c r="O75" s="84"/>
-      <c r="P75" s="84"/>
-      <c r="Q75" s="84"/>
-      <c r="R75" s="84"/>
-      <c r="T75" s="81"/>
     </row>
     <row r="76" spans="1:20">
       <c r="B76" s="83">
-        <v>5</v>
-      </c>
-      <c r="C76" s="74">
-        <v>6.6</v>
+        <v>2</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>143</v>
       </c>
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
       <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
+      <c r="G76" s="19">
+        <v>8</v>
+      </c>
       <c r="H76" s="25"/>
       <c r="I76" s="25"/>
-      <c r="J76" s="82">
-        <v>3</v>
-      </c>
+      <c r="J76" s="84"/>
       <c r="K76" s="25"/>
       <c r="L76" s="25"/>
       <c r="M76" s="25"/>
@@ -7520,15 +7707,15 @@
       <c r="R76" s="25"/>
       <c r="T76" s="3">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:20" s="80" customFormat="1">
       <c r="B77" s="83">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C77" s="74">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="D77" s="84"/>
       <c r="E77" s="84"/>
@@ -7536,10 +7723,10 @@
       <c r="G77" s="84"/>
       <c r="H77" s="84"/>
       <c r="I77" s="84"/>
-      <c r="J77" s="84"/>
-      <c r="K77" s="82">
+      <c r="J77" s="82">
         <v>2</v>
       </c>
+      <c r="K77" s="84"/>
       <c r="L77" s="84"/>
       <c r="M77" s="84"/>
       <c r="N77" s="84"/>
@@ -7551,10 +7738,10 @@
     </row>
     <row r="78" spans="1:20" s="80" customFormat="1">
       <c r="B78" s="83">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C78" s="74">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="D78" s="84"/>
       <c r="E78" s="84"/>
@@ -7562,10 +7749,10 @@
       <c r="G78" s="84"/>
       <c r="H78" s="84"/>
       <c r="I78" s="84"/>
-      <c r="J78" s="84"/>
-      <c r="K78" s="82">
-        <v>4</v>
-      </c>
+      <c r="J78" s="82">
+        <v>3</v>
+      </c>
+      <c r="K78" s="84"/>
       <c r="L78" s="84"/>
       <c r="M78" s="84"/>
       <c r="N78" s="84"/>
@@ -7575,41 +7762,41 @@
       <c r="R78" s="84"/>
       <c r="T78" s="81"/>
     </row>
-    <row r="79" spans="1:20" s="80" customFormat="1">
+    <row r="79" spans="1:20">
       <c r="B79" s="83">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C79" s="74">
-        <v>7.6</v>
-      </c>
-      <c r="D79" s="84"/>
-      <c r="E79" s="84"/>
-      <c r="F79" s="84"/>
-      <c r="G79" s="84"/>
-      <c r="H79" s="84"/>
-      <c r="I79" s="84"/>
-      <c r="J79" s="84"/>
-      <c r="K79" s="82">
-        <v>5</v>
-      </c>
-      <c r="L79" s="84"/>
-      <c r="M79" s="84"/>
-      <c r="N79" s="84"/>
-      <c r="O79" s="84"/>
-      <c r="P79" s="84"/>
-      <c r="Q79" s="84"/>
-      <c r="R79" s="84"/>
-      <c r="T79" s="81">
-        <f t="shared" ref="T79" si="15">SUM(E79:R79)</f>
-        <v>5</v>
+        <v>6.6</v>
+      </c>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="82">
+        <v>3</v>
+      </c>
+      <c r="K79" s="25"/>
+      <c r="L79" s="25"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="25"/>
+      <c r="O79" s="25"/>
+      <c r="P79" s="25"/>
+      <c r="Q79" s="25"/>
+      <c r="R79" s="25"/>
+      <c r="T79" s="3">
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:20" s="80" customFormat="1">
       <c r="B80" s="83">
-        <v>9</v>
-      </c>
-      <c r="C80" s="42" t="s">
-        <v>176</v>
+        <v>6</v>
+      </c>
+      <c r="C80" s="74">
+        <v>7.4</v>
       </c>
       <c r="D80" s="84"/>
       <c r="E80" s="84"/>
@@ -7618,10 +7805,10 @@
       <c r="H80" s="84"/>
       <c r="I80" s="84"/>
       <c r="J80" s="84"/>
-      <c r="K80" s="84"/>
-      <c r="L80" s="82">
+      <c r="K80" s="82">
         <v>2</v>
       </c>
+      <c r="L80" s="84"/>
       <c r="M80" s="84"/>
       <c r="N80" s="84"/>
       <c r="O80" s="84"/>
@@ -7632,10 +7819,10 @@
     </row>
     <row r="81" spans="2:20" s="80" customFormat="1">
       <c r="B81" s="83">
-        <v>10</v>
-      </c>
-      <c r="C81" s="42" t="s">
-        <v>177</v>
+        <v>7</v>
+      </c>
+      <c r="C81" s="74">
+        <v>7.5</v>
       </c>
       <c r="D81" s="84"/>
       <c r="E81" s="84"/>
@@ -7644,10 +7831,10 @@
       <c r="H81" s="84"/>
       <c r="I81" s="84"/>
       <c r="J81" s="84"/>
-      <c r="K81" s="84"/>
-      <c r="L81" s="82">
+      <c r="K81" s="82">
         <v>4</v>
       </c>
+      <c r="L81" s="84"/>
       <c r="M81" s="84"/>
       <c r="N81" s="84"/>
       <c r="O81" s="84"/>
@@ -7656,12 +7843,12 @@
       <c r="R81" s="84"/>
       <c r="T81" s="81"/>
     </row>
-    <row r="82" spans="2:20" s="80" customFormat="1" ht="13.5" thickBot="1">
+    <row r="82" spans="2:20" s="80" customFormat="1">
       <c r="B82" s="83">
-        <v>11</v>
-      </c>
-      <c r="C82" s="76" t="s">
-        <v>178</v>
+        <v>8</v>
+      </c>
+      <c r="C82" s="74">
+        <v>7.6</v>
       </c>
       <c r="D82" s="84"/>
       <c r="E82" s="84"/>
@@ -7670,10 +7857,10 @@
       <c r="H82" s="84"/>
       <c r="I82" s="84"/>
       <c r="J82" s="84"/>
-      <c r="K82" s="84"/>
-      <c r="L82" s="82">
+      <c r="K82" s="82">
         <v>5</v>
       </c>
+      <c r="L82" s="84"/>
       <c r="M82" s="84"/>
       <c r="N82" s="84"/>
       <c r="O82" s="84"/>
@@ -7681,16 +7868,16 @@
       <c r="Q82" s="84"/>
       <c r="R82" s="84"/>
       <c r="T82" s="81">
-        <f t="shared" ref="T82" si="16">SUM(E82:R82)</f>
+        <f t="shared" ref="T82" si="15">SUM(E82:R82)</f>
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="2:20" s="80" customFormat="1">
       <c r="B83" s="83">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C83" s="42" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D83" s="84"/>
       <c r="E83" s="84"/>
@@ -7700,10 +7887,10 @@
       <c r="I83" s="84"/>
       <c r="J83" s="84"/>
       <c r="K83" s="84"/>
-      <c r="L83" s="84"/>
-      <c r="M83" s="82">
+      <c r="L83" s="82">
         <v>2</v>
       </c>
+      <c r="M83" s="84"/>
       <c r="N83" s="84"/>
       <c r="O83" s="84"/>
       <c r="P83" s="84"/>
@@ -7713,10 +7900,10 @@
     </row>
     <row r="84" spans="2:20" s="80" customFormat="1">
       <c r="B84" s="83">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C84" s="42" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D84" s="84"/>
       <c r="E84" s="84"/>
@@ -7726,10 +7913,10 @@
       <c r="I84" s="84"/>
       <c r="J84" s="84"/>
       <c r="K84" s="84"/>
-      <c r="L84" s="84"/>
-      <c r="M84" s="82">
+      <c r="L84" s="82">
         <v>4</v>
       </c>
+      <c r="M84" s="84"/>
       <c r="N84" s="84"/>
       <c r="O84" s="84"/>
       <c r="P84" s="84"/>
@@ -7737,12 +7924,12 @@
       <c r="R84" s="84"/>
       <c r="T84" s="81"/>
     </row>
-    <row r="85" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
+    <row r="85" spans="2:20" s="80" customFormat="1" ht="13.8" thickBot="1">
       <c r="B85" s="83">
-        <v>14</v>
-      </c>
-      <c r="C85" s="98" t="s">
-        <v>187</v>
+        <v>11</v>
+      </c>
+      <c r="C85" s="76" t="s">
+        <v>178</v>
       </c>
       <c r="D85" s="84"/>
       <c r="E85" s="84"/>
@@ -7752,17 +7939,17 @@
       <c r="I85" s="84"/>
       <c r="J85" s="84"/>
       <c r="K85" s="84"/>
-      <c r="L85" s="84"/>
-      <c r="M85" s="82">
+      <c r="L85" s="82">
         <v>5</v>
       </c>
+      <c r="M85" s="84"/>
       <c r="N85" s="84"/>
       <c r="O85" s="84"/>
       <c r="P85" s="84"/>
       <c r="Q85" s="84"/>
       <c r="R85" s="84"/>
       <c r="T85" s="81">
-        <f t="shared" ref="T85" si="17">SUM(E85:R85)</f>
+        <f t="shared" ref="T85" si="16">SUM(E85:R85)</f>
         <v>5</v>
       </c>
     </row>
@@ -7771,7 +7958,7 @@
         <v>12</v>
       </c>
       <c r="C86" s="42" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D86" s="84"/>
       <c r="E86" s="84"/>
@@ -7782,10 +7969,10 @@
       <c r="J86" s="84"/>
       <c r="K86" s="84"/>
       <c r="L86" s="84"/>
-      <c r="M86" s="84"/>
-      <c r="N86" s="82">
+      <c r="M86" s="82">
         <v>2</v>
       </c>
+      <c r="N86" s="84"/>
       <c r="O86" s="84"/>
       <c r="P86" s="84"/>
       <c r="Q86" s="84"/>
@@ -7797,7 +7984,7 @@
         <v>13</v>
       </c>
       <c r="C87" s="42" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D87" s="84"/>
       <c r="E87" s="84"/>
@@ -7808,10 +7995,10 @@
       <c r="J87" s="84"/>
       <c r="K87" s="84"/>
       <c r="L87" s="84"/>
-      <c r="M87" s="84"/>
-      <c r="N87" s="82">
+      <c r="M87" s="82">
         <v>4</v>
       </c>
+      <c r="N87" s="84"/>
       <c r="O87" s="84"/>
       <c r="P87" s="84"/>
       <c r="Q87" s="84"/>
@@ -7822,8 +8009,8 @@
       <c r="B88" s="83">
         <v>14</v>
       </c>
-      <c r="C88" s="98" t="s">
-        <v>195</v>
+      <c r="C88" s="97" t="s">
+        <v>186</v>
       </c>
       <c r="D88" s="84"/>
       <c r="E88" s="84"/>
@@ -7834,16 +8021,97 @@
       <c r="J88" s="84"/>
       <c r="K88" s="84"/>
       <c r="L88" s="84"/>
-      <c r="M88" s="84"/>
-      <c r="N88" s="82">
-        <v>2</v>
-      </c>
+      <c r="M88" s="82">
+        <v>5</v>
+      </c>
+      <c r="N88" s="84"/>
       <c r="O88" s="84"/>
       <c r="P88" s="84"/>
       <c r="Q88" s="84"/>
       <c r="R88" s="84"/>
       <c r="T88" s="81">
-        <f t="shared" ref="T88" si="18">SUM(E88:R88)</f>
+        <f t="shared" ref="T88" si="17">SUM(E88:R88)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="2:20" s="80" customFormat="1">
+      <c r="B89" s="83">
+        <v>12</v>
+      </c>
+      <c r="C89" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="D89" s="84"/>
+      <c r="E89" s="84"/>
+      <c r="F89" s="84"/>
+      <c r="G89" s="84"/>
+      <c r="H89" s="84"/>
+      <c r="I89" s="84"/>
+      <c r="J89" s="84"/>
+      <c r="K89" s="84"/>
+      <c r="L89" s="84"/>
+      <c r="M89" s="84"/>
+      <c r="N89" s="82">
+        <v>2</v>
+      </c>
+      <c r="O89" s="84"/>
+      <c r="P89" s="84"/>
+      <c r="Q89" s="84"/>
+      <c r="R89" s="84"/>
+      <c r="T89" s="81"/>
+    </row>
+    <row r="90" spans="2:20" s="80" customFormat="1">
+      <c r="B90" s="83">
+        <v>13</v>
+      </c>
+      <c r="C90" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="D90" s="84"/>
+      <c r="E90" s="84"/>
+      <c r="F90" s="84"/>
+      <c r="G90" s="84"/>
+      <c r="H90" s="84"/>
+      <c r="I90" s="84"/>
+      <c r="J90" s="84"/>
+      <c r="K90" s="84"/>
+      <c r="L90" s="84"/>
+      <c r="M90" s="84"/>
+      <c r="N90" s="82">
+        <v>4</v>
+      </c>
+      <c r="O90" s="84"/>
+      <c r="P90" s="84"/>
+      <c r="Q90" s="84"/>
+      <c r="R90" s="84"/>
+      <c r="T90" s="81"/>
+    </row>
+    <row r="91" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
+      <c r="B91" s="83">
+        <v>14</v>
+      </c>
+      <c r="C91" s="97" t="s">
+        <v>194</v>
+      </c>
+      <c r="D91" s="84"/>
+      <c r="E91" s="84"/>
+      <c r="F91" s="84"/>
+      <c r="G91" s="84"/>
+      <c r="H91" s="84"/>
+      <c r="I91" s="84"/>
+      <c r="J91" s="84"/>
+      <c r="K91" s="84"/>
+      <c r="L91" s="84"/>
+      <c r="M91" s="84"/>
+      <c r="N91" s="82">
+        <v>2</v>
+      </c>
+      <c r="O91" s="84"/>
+      <c r="P91" s="84"/>
+      <c r="Q91" s="84"/>
+      <c r="R91" s="84"/>
+      <c r="T91" s="81">
+        <f t="shared" ref="T91" si="18">SUM(E91:R91)</f>
         <v>2</v>
       </c>
     </row>

--- a/docs/Listing_Tool_Status_Report_v1.0.xlsx
+++ b/docs/Listing_Tool_Status_Report_v1.0.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5352" yWindow="-360" windowWidth="16608" windowHeight="9432" activeTab="1"/>
+    <workbookView xWindow="5352" yWindow="-360" windowWidth="16608" windowHeight="9432" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="WBS" sheetId="5" r:id="rId2"/>
     <sheet name="March 2015" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="210">
   <si>
     <t>Project Name:</t>
   </si>
@@ -2242,6 +2242,132 @@
         <charset val="134"/>
       </rPr>
       <t>交易后台添加功能开发</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.分析广告组，关键字与广告关系，因为统计和关键字关联，未找到广告的统计;调研广告点击率和展示率                                and                                                  加入后头验证框架，修改页面样式</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、分析广告组，关键字与广告关系，因为统计和关键字关联，未找到广告的统计</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wolf</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、继续调研广告点击率和展示率</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、加入后头项目验证框架，调整</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SSO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过滤配置项</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、修改登录页面样式，修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>transaction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面中英翻译后的小三角对齐样式</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、修正国际化缓存异常情况</t>
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -2249,7 +2375,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -2401,7 +2527,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -2850,6 +2976,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3"/>
+      </left>
+      <right style="medium">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2863,7 +3030,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3114,21 +3281,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3138,55 +3356,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3210,7 +3392,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3284,6 +3466,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3318,6 +3501,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3493,7 +3677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3779,12 +3963,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52:B62"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -3841,7 +4025,7 @@
       <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="111" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="37" t="s">
@@ -3862,7 +4046,7 @@
       <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A4" s="105"/>
+      <c r="A4" s="112"/>
       <c r="B4" s="42" t="s">
         <v>41</v>
       </c>
@@ -3881,7 +4065,7 @@
       <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A5" s="106"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="47" t="s">
         <v>42</v>
       </c>
@@ -3924,10 +4108,10 @@
       <c r="H8" s="56"/>
     </row>
     <row r="9" spans="1:9" ht="26.7" customHeight="1">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="124" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="58" t="s">
@@ -3949,8 +4133,8 @@
       <c r="I9" s="41"/>
     </row>
     <row r="10" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A10" s="105"/>
-      <c r="B10" s="108"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="125"/>
       <c r="C10" s="59" t="s">
         <v>47</v>
       </c>
@@ -3970,8 +4154,8 @@
       <c r="I10" s="62"/>
     </row>
     <row r="11" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A11" s="105"/>
-      <c r="B11" s="108"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="125"/>
       <c r="C11" s="43" t="s">
         <v>49</v>
       </c>
@@ -3991,8 +4175,8 @@
       <c r="I11" s="46"/>
     </row>
     <row r="12" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A12" s="105"/>
-      <c r="B12" s="108"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="125"/>
       <c r="C12" s="63" t="s">
         <v>50</v>
       </c>
@@ -4012,8 +4196,8 @@
       <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A13" s="105"/>
-      <c r="B13" s="109"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="63" t="s">
         <v>52</v>
       </c>
@@ -4031,8 +4215,8 @@
       <c r="I13" s="65"/>
     </row>
     <row r="14" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A14" s="105"/>
-      <c r="B14" s="110" t="s">
+      <c r="A14" s="112"/>
+      <c r="B14" s="114" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="63" t="s">
@@ -4054,8 +4238,8 @@
       <c r="I14" s="65"/>
     </row>
     <row r="15" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A15" s="105"/>
-      <c r="B15" s="111"/>
+      <c r="A15" s="112"/>
+      <c r="B15" s="115"/>
       <c r="C15" s="63" t="s">
         <v>55</v>
       </c>
@@ -4075,8 +4259,8 @@
       <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A16" s="105"/>
-      <c r="B16" s="111"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="115"/>
       <c r="C16" s="63" t="s">
         <v>57</v>
       </c>
@@ -4096,8 +4280,8 @@
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A17" s="105"/>
-      <c r="B17" s="111"/>
+      <c r="A17" s="112"/>
+      <c r="B17" s="115"/>
       <c r="C17" s="63" t="s">
         <v>59</v>
       </c>
@@ -4117,8 +4301,8 @@
       <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A18" s="105"/>
-      <c r="B18" s="111"/>
+      <c r="A18" s="112"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="63" t="s">
         <v>60</v>
       </c>
@@ -4138,8 +4322,8 @@
       <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A19" s="105"/>
-      <c r="B19" s="111"/>
+      <c r="A19" s="112"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="63" t="s">
         <v>61</v>
       </c>
@@ -4159,8 +4343,8 @@
       <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A20" s="105"/>
-      <c r="B20" s="111"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="63" t="s">
         <v>62</v>
       </c>
@@ -4180,8 +4364,8 @@
       <c r="I20" s="65"/>
     </row>
     <row r="21" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A21" s="105"/>
-      <c r="B21" s="111"/>
+      <c r="A21" s="112"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="90" t="s">
         <v>164</v>
       </c>
@@ -4199,8 +4383,8 @@
       <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A22" s="106"/>
-      <c r="B22" s="112"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="66" t="s">
         <v>165</v>
       </c>
@@ -4244,7 +4428,7 @@
       <c r="H25" s="56"/>
     </row>
     <row r="26" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A26" s="117" t="s">
+      <c r="A26" s="105" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="37" t="s">
@@ -4267,7 +4451,7 @@
       <c r="I26" s="41"/>
     </row>
     <row r="27" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A27" s="118"/>
+      <c r="A27" s="106"/>
       <c r="B27" s="42" t="s">
         <v>66</v>
       </c>
@@ -4288,8 +4472,8 @@
       <c r="I27" s="46"/>
     </row>
     <row r="28" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A28" s="118"/>
-      <c r="B28" s="101" t="s">
+      <c r="A28" s="106"/>
+      <c r="B28" s="121" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="63" t="s">
@@ -4311,8 +4495,8 @@
       <c r="I28" s="65"/>
     </row>
     <row r="29" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A29" s="118"/>
-      <c r="B29" s="102"/>
+      <c r="A29" s="106"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="63" t="s">
         <v>70</v>
       </c>
@@ -4332,8 +4516,8 @@
       <c r="I29" s="65"/>
     </row>
     <row r="30" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A30" s="118"/>
-      <c r="B30" s="113"/>
+      <c r="A30" s="106"/>
+      <c r="B30" s="127"/>
       <c r="C30" s="63" t="s">
         <v>72</v>
       </c>
@@ -4353,8 +4537,8 @@
       <c r="I30" s="65"/>
     </row>
     <row r="31" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A31" s="118"/>
-      <c r="B31" s="101" t="s">
+      <c r="A31" s="106"/>
+      <c r="B31" s="121" t="s">
         <v>127</v>
       </c>
       <c r="C31" s="70" t="s">
@@ -4376,8 +4560,8 @@
       <c r="I31" s="65"/>
     </row>
     <row r="32" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A32" s="118"/>
-      <c r="B32" s="102"/>
+      <c r="A32" s="106"/>
+      <c r="B32" s="122"/>
       <c r="C32" s="70" t="s">
         <v>120</v>
       </c>
@@ -4397,8 +4581,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A33" s="118"/>
-      <c r="B33" s="102"/>
+      <c r="A33" s="106"/>
+      <c r="B33" s="122"/>
       <c r="C33" s="70" t="s">
         <v>122</v>
       </c>
@@ -4420,8 +4604,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A34" s="118"/>
-      <c r="B34" s="102"/>
+      <c r="A34" s="106"/>
+      <c r="B34" s="122"/>
       <c r="C34" s="70" t="s">
         <v>123</v>
       </c>
@@ -4441,8 +4625,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A35" s="118"/>
-      <c r="B35" s="102"/>
+      <c r="A35" s="106"/>
+      <c r="B35" s="122"/>
       <c r="C35" s="70" t="s">
         <v>124</v>
       </c>
@@ -4462,8 +4646,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A36" s="118"/>
-      <c r="B36" s="102"/>
+      <c r="A36" s="106"/>
+      <c r="B36" s="122"/>
       <c r="C36" s="70" t="s">
         <v>125</v>
       </c>
@@ -4483,8 +4667,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A37" s="118"/>
-      <c r="B37" s="103"/>
+      <c r="A37" s="106"/>
+      <c r="B37" s="123"/>
       <c r="C37" s="73" t="s">
         <v>126</v>
       </c>
@@ -4502,8 +4686,8 @@
       <c r="I37" s="51"/>
     </row>
     <row r="38" spans="1:9" ht="13.65" customHeight="1">
-      <c r="A38" s="118"/>
-      <c r="B38" s="114" t="s">
+      <c r="A38" s="106"/>
+      <c r="B38" s="102" t="s">
         <v>168</v>
       </c>
       <c r="C38" s="70" t="s">
@@ -4525,8 +4709,8 @@
       <c r="I38" s="70"/>
     </row>
     <row r="39" spans="1:9" ht="13.65" customHeight="1">
-      <c r="A39" s="118"/>
-      <c r="B39" s="115"/>
+      <c r="A39" s="106"/>
+      <c r="B39" s="103"/>
       <c r="C39" s="70" t="s">
         <v>169</v>
       </c>
@@ -4546,8 +4730,8 @@
       <c r="I39" s="70"/>
     </row>
     <row r="40" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A40" s="118"/>
-      <c r="B40" s="115"/>
+      <c r="A40" s="106"/>
+      <c r="B40" s="103"/>
       <c r="C40" s="73" t="s">
         <v>170</v>
       </c>
@@ -4567,8 +4751,8 @@
       <c r="I40" s="51"/>
     </row>
     <row r="41" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A41" s="118"/>
-      <c r="B41" s="115"/>
+      <c r="A41" s="106"/>
+      <c r="B41" s="103"/>
       <c r="C41" s="73" t="s">
         <v>187</v>
       </c>
@@ -4588,8 +4772,8 @@
       <c r="I41" s="51"/>
     </row>
     <row r="42" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A42" s="119"/>
-      <c r="B42" s="116"/>
+      <c r="A42" s="107"/>
+      <c r="B42" s="104"/>
       <c r="C42" s="73" t="s">
         <v>195</v>
       </c>
@@ -4623,7 +4807,7 @@
       <c r="H44" s="56"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="104" t="s">
+      <c r="A45" s="111" t="s">
         <v>74</v>
       </c>
       <c r="B45" s="37" t="s">
@@ -4644,8 +4828,8 @@
       <c r="I45" s="41"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="105"/>
-      <c r="B46" s="110" t="s">
+      <c r="A46" s="112"/>
+      <c r="B46" s="114" t="s">
         <v>77</v>
       </c>
       <c r="C46" s="69" t="s">
@@ -4665,8 +4849,8 @@
       <c r="I46" s="46"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="105"/>
-      <c r="B47" s="111"/>
+      <c r="A47" s="112"/>
+      <c r="B47" s="115"/>
       <c r="C47" s="63" t="s">
         <v>79</v>
       </c>
@@ -4684,8 +4868,8 @@
       <c r="I47" s="65"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="105"/>
-      <c r="B48" s="111"/>
+      <c r="A48" s="112"/>
+      <c r="B48" s="115"/>
       <c r="C48" s="63" t="s">
         <v>80</v>
       </c>
@@ -4703,8 +4887,8 @@
       <c r="I48" s="65"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="105"/>
-      <c r="B49" s="111"/>
+      <c r="A49" s="112"/>
+      <c r="B49" s="115"/>
       <c r="C49" s="63" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4906,8 @@
       <c r="I49" s="65"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="105"/>
-      <c r="B50" s="111"/>
+      <c r="A50" s="112"/>
+      <c r="B50" s="115"/>
       <c r="C50" s="63" t="s">
         <v>83</v>
       </c>
@@ -4741,8 +4925,8 @@
       <c r="I50" s="65"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="105"/>
-      <c r="B51" s="123"/>
+      <c r="A51" s="112"/>
+      <c r="B51" s="116"/>
       <c r="C51" s="63" t="s">
         <v>85</v>
       </c>
@@ -4760,8 +4944,8 @@
       <c r="I51" s="65"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="105"/>
-      <c r="B52" s="110" t="s">
+      <c r="A52" s="112"/>
+      <c r="B52" s="114" t="s">
         <v>87</v>
       </c>
       <c r="C52" s="63" t="s">
@@ -4784,8 +4968,8 @@
       <c r="I52" s="65"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="105"/>
-      <c r="B53" s="111"/>
+      <c r="A53" s="112"/>
+      <c r="B53" s="115"/>
       <c r="C53" s="70" t="s">
         <v>90</v>
       </c>
@@ -4806,8 +4990,8 @@
       <c r="I53" s="65"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="105"/>
-      <c r="B54" s="111"/>
+      <c r="A54" s="112"/>
+      <c r="B54" s="115"/>
       <c r="C54" s="63" t="s">
         <v>91</v>
       </c>
@@ -4828,8 +5012,8 @@
       <c r="I54" s="65"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="105"/>
-      <c r="B55" s="111"/>
+      <c r="A55" s="112"/>
+      <c r="B55" s="115"/>
       <c r="C55" s="70" t="s">
         <v>93</v>
       </c>
@@ -4850,8 +5034,8 @@
       <c r="I55" s="71"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="105"/>
-      <c r="B56" s="111"/>
+      <c r="A56" s="112"/>
+      <c r="B56" s="115"/>
       <c r="C56" s="70" t="s">
         <v>94</v>
       </c>
@@ -4872,8 +5056,8 @@
       <c r="I56" s="65"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="105"/>
-      <c r="B57" s="111"/>
+      <c r="A57" s="112"/>
+      <c r="B57" s="115"/>
       <c r="C57" s="70" t="s">
         <v>96</v>
       </c>
@@ -4894,8 +5078,8 @@
       <c r="I57" s="71"/>
     </row>
     <row r="58" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A58" s="105"/>
-      <c r="B58" s="111"/>
+      <c r="A58" s="112"/>
+      <c r="B58" s="115"/>
       <c r="C58" s="70" t="s">
         <v>199</v>
       </c>
@@ -4916,8 +5100,8 @@
       <c r="I58" s="71"/>
     </row>
     <row r="59" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A59" s="105"/>
-      <c r="B59" s="111"/>
+      <c r="A59" s="112"/>
+      <c r="B59" s="115"/>
       <c r="C59" s="70" t="s">
         <v>200</v>
       </c>
@@ -4938,8 +5122,8 @@
       <c r="I59" s="71"/>
     </row>
     <row r="60" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A60" s="105"/>
-      <c r="B60" s="111"/>
+      <c r="A60" s="112"/>
+      <c r="B60" s="115"/>
       <c r="C60" s="70" t="s">
         <v>201</v>
       </c>
@@ -4960,8 +5144,8 @@
       <c r="I60" s="71"/>
     </row>
     <row r="61" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A61" s="105"/>
-      <c r="B61" s="111"/>
+      <c r="A61" s="112"/>
+      <c r="B61" s="115"/>
       <c r="C61" s="70" t="s">
         <v>202</v>
       </c>
@@ -4982,8 +5166,8 @@
       <c r="I61" s="71"/>
     </row>
     <row r="62" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A62" s="106"/>
-      <c r="B62" s="112"/>
+      <c r="A62" s="113"/>
+      <c r="B62" s="117"/>
       <c r="C62" s="73"/>
       <c r="D62" s="73" t="s">
         <v>76</v>
@@ -5011,10 +5195,10 @@
     <row r="64" spans="1:9" ht="13.8" thickTop="1"/>
     <row r="65" spans="1:9" ht="13.8" thickBot="1"/>
     <row r="66" spans="1:9">
-      <c r="A66" s="124" t="s">
+      <c r="A66" s="118" t="s">
         <v>97</v>
       </c>
-      <c r="B66" s="125" t="s">
+      <c r="B66" s="119" t="s">
         <v>136</v>
       </c>
       <c r="C66" s="38" t="s">
@@ -5036,8 +5220,8 @@
       <c r="I66" s="41"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="105"/>
-      <c r="B67" s="126"/>
+      <c r="A67" s="112"/>
+      <c r="B67" s="120"/>
       <c r="C67" s="59" t="s">
         <v>100</v>
       </c>
@@ -5057,8 +5241,8 @@
       <c r="I67" s="62"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="105"/>
-      <c r="B68" s="110" t="s">
+      <c r="A68" s="112"/>
+      <c r="B68" s="114" t="s">
         <v>138</v>
       </c>
       <c r="C68" s="43" t="s">
@@ -5080,8 +5264,8 @@
       <c r="I68" s="46"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="105"/>
-      <c r="B69" s="111"/>
+      <c r="A69" s="112"/>
+      <c r="B69" s="115"/>
       <c r="C69" s="63" t="s">
         <v>103</v>
       </c>
@@ -5101,8 +5285,8 @@
       <c r="I69" s="65"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="105"/>
-      <c r="B70" s="111"/>
+      <c r="A70" s="112"/>
+      <c r="B70" s="115"/>
       <c r="C70" s="63" t="s">
         <v>105</v>
       </c>
@@ -5122,8 +5306,8 @@
       <c r="I70" s="65"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="105"/>
-      <c r="B71" s="123"/>
+      <c r="A71" s="112"/>
+      <c r="B71" s="116"/>
       <c r="C71" s="63" t="s">
         <v>107</v>
       </c>
@@ -5143,7 +5327,7 @@
       <c r="I71" s="65"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="105"/>
+      <c r="A72" s="112"/>
       <c r="B72" s="42" t="s">
         <v>140</v>
       </c>
@@ -5164,8 +5348,8 @@
       <c r="I72" s="65"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="105"/>
-      <c r="B73" s="110" t="s">
+      <c r="A73" s="112"/>
+      <c r="B73" s="114" t="s">
         <v>142</v>
       </c>
       <c r="C73" s="63" t="s">
@@ -5187,8 +5371,8 @@
       <c r="I73" s="65"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="105"/>
-      <c r="B74" s="111"/>
+      <c r="A74" s="112"/>
+      <c r="B74" s="115"/>
       <c r="C74" s="63" t="s">
         <v>111</v>
       </c>
@@ -5208,8 +5392,8 @@
       <c r="I74" s="65"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="105"/>
-      <c r="B75" s="111"/>
+      <c r="A75" s="112"/>
+      <c r="B75" s="115"/>
       <c r="C75" s="63" t="s">
         <v>112</v>
       </c>
@@ -5229,8 +5413,8 @@
       <c r="I75" s="65"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="105"/>
-      <c r="B76" s="123"/>
+      <c r="A76" s="112"/>
+      <c r="B76" s="116"/>
       <c r="C76" s="63" t="s">
         <v>113</v>
       </c>
@@ -5250,7 +5434,7 @@
       <c r="I76" s="71"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="105"/>
+      <c r="A77" s="112"/>
       <c r="B77" s="42" t="s">
         <v>144</v>
       </c>
@@ -5273,8 +5457,8 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A78" s="106"/>
-      <c r="B78" s="110" t="s">
+      <c r="A78" s="113"/>
+      <c r="B78" s="114" t="s">
         <v>145</v>
       </c>
       <c r="C78" s="42" t="s">
@@ -5295,7 +5479,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="91"/>
-      <c r="B79" s="111"/>
+      <c r="B79" s="115"/>
       <c r="C79" s="42" t="s">
         <v>147</v>
       </c>
@@ -5314,7 +5498,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="92"/>
-      <c r="B80" s="111"/>
+      <c r="B80" s="115"/>
       <c r="C80" s="42" t="s">
         <v>150</v>
       </c>
@@ -5333,7 +5517,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="92"/>
-      <c r="B81" s="111"/>
+      <c r="B81" s="115"/>
       <c r="C81" s="42" t="s">
         <v>148</v>
       </c>
@@ -5352,7 +5536,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="92"/>
-      <c r="B82" s="111"/>
+      <c r="B82" s="115"/>
       <c r="C82" s="42" t="s">
         <v>151</v>
       </c>
@@ -5371,7 +5555,7 @@
     </row>
     <row r="83" spans="1:9" ht="13.8" thickBot="1">
       <c r="A83" s="92"/>
-      <c r="B83" s="112"/>
+      <c r="B83" s="117"/>
       <c r="C83" s="76" t="s">
         <v>149</v>
       </c>
@@ -5390,7 +5574,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="92"/>
-      <c r="B84" s="120" t="s">
+      <c r="B84" s="108" t="s">
         <v>163</v>
       </c>
       <c r="C84" s="42" t="s">
@@ -5411,7 +5595,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="92"/>
-      <c r="B85" s="121"/>
+      <c r="B85" s="109"/>
       <c r="C85" s="42" t="s">
         <v>156</v>
       </c>
@@ -5430,7 +5614,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="92"/>
-      <c r="B86" s="121"/>
+      <c r="B86" s="109"/>
       <c r="C86" s="42" t="s">
         <v>157</v>
       </c>
@@ -5449,7 +5633,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="92"/>
-      <c r="B87" s="121"/>
+      <c r="B87" s="109"/>
       <c r="C87" s="42" t="s">
         <v>160</v>
       </c>
@@ -5468,7 +5652,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="92"/>
-      <c r="B88" s="121"/>
+      <c r="B88" s="109"/>
       <c r="C88" s="42" t="s">
         <v>161</v>
       </c>
@@ -5487,7 +5671,7 @@
     </row>
     <row r="89" spans="1:9" ht="13.8" thickBot="1">
       <c r="A89" s="93"/>
-      <c r="B89" s="122"/>
+      <c r="B89" s="110"/>
       <c r="C89" s="76" t="s">
         <v>162</v>
       </c>
@@ -5506,7 +5690,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="92"/>
-      <c r="B90" s="120" t="s">
+      <c r="B90" s="108" t="s">
         <v>172</v>
       </c>
       <c r="C90" s="42" t="s">
@@ -5527,7 +5711,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="92"/>
-      <c r="B91" s="121"/>
+      <c r="B91" s="109"/>
       <c r="C91" s="42" t="s">
         <v>174</v>
       </c>
@@ -5546,7 +5730,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="92"/>
-      <c r="B92" s="121"/>
+      <c r="B92" s="109"/>
       <c r="C92" s="42" t="s">
         <v>175</v>
       </c>
@@ -5565,7 +5749,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="92"/>
-      <c r="B93" s="121"/>
+      <c r="B93" s="109"/>
       <c r="C93" s="42" t="s">
         <v>176</v>
       </c>
@@ -5584,7 +5768,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="92"/>
-      <c r="B94" s="121"/>
+      <c r="B94" s="109"/>
       <c r="C94" s="42" t="s">
         <v>177</v>
       </c>
@@ -5603,7 +5787,7 @@
     </row>
     <row r="95" spans="1:9" ht="51" thickBot="1">
       <c r="A95" s="93"/>
-      <c r="B95" s="122"/>
+      <c r="B95" s="110"/>
       <c r="C95" s="97" t="s">
         <v>178</v>
       </c>
@@ -5622,7 +5806,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="92"/>
-      <c r="B96" s="120" t="s">
+      <c r="B96" s="108" t="s">
         <v>180</v>
       </c>
       <c r="C96" s="42" t="s">
@@ -5643,7 +5827,7 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="92"/>
-      <c r="B97" s="121"/>
+      <c r="B97" s="109"/>
       <c r="C97" s="42" t="s">
         <v>182</v>
       </c>
@@ -5662,7 +5846,7 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="92"/>
-      <c r="B98" s="121"/>
+      <c r="B98" s="109"/>
       <c r="C98" s="42" t="s">
         <v>183</v>
       </c>
@@ -5681,7 +5865,7 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="92"/>
-      <c r="B99" s="121"/>
+      <c r="B99" s="109"/>
       <c r="C99" s="42" t="s">
         <v>184</v>
       </c>
@@ -5700,7 +5884,7 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="92"/>
-      <c r="B100" s="121"/>
+      <c r="B100" s="109"/>
       <c r="C100" s="42" t="s">
         <v>185</v>
       </c>
@@ -5719,7 +5903,7 @@
     </row>
     <row r="101" spans="1:9" ht="16.95" customHeight="1" thickBot="1">
       <c r="A101" s="93"/>
-      <c r="B101" s="122"/>
+      <c r="B101" s="110"/>
       <c r="C101" s="97" t="s">
         <v>186</v>
       </c>
@@ -5738,7 +5922,7 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="92"/>
-      <c r="B102" s="120" t="s">
+      <c r="B102" s="108" t="s">
         <v>188</v>
       </c>
       <c r="C102" s="42" t="s">
@@ -5759,7 +5943,7 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="92"/>
-      <c r="B103" s="121"/>
+      <c r="B103" s="109"/>
       <c r="C103" s="42" t="s">
         <v>190</v>
       </c>
@@ -5778,7 +5962,7 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="92"/>
-      <c r="B104" s="121"/>
+      <c r="B104" s="109"/>
       <c r="C104" s="42" t="s">
         <v>191</v>
       </c>
@@ -5797,7 +5981,7 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="92"/>
-      <c r="B105" s="121"/>
+      <c r="B105" s="109"/>
       <c r="C105" s="42" t="s">
         <v>192</v>
       </c>
@@ -5816,7 +6000,7 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="92"/>
-      <c r="B106" s="121"/>
+      <c r="B106" s="109"/>
       <c r="C106" s="42" t="s">
         <v>193</v>
       </c>
@@ -5835,7 +6019,7 @@
     </row>
     <row r="107" spans="1:9" ht="16.95" customHeight="1" thickBot="1">
       <c r="A107" s="93"/>
-      <c r="B107" s="122"/>
+      <c r="B107" s="110"/>
       <c r="C107" s="97" t="s">
         <v>194</v>
       </c>
@@ -5852,8 +6036,111 @@
       </c>
       <c r="I107" s="79"/>
     </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="128"/>
+      <c r="B108" s="108" t="s">
+        <v>203</v>
+      </c>
+      <c r="C108" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="D108" s="101" t="s">
+        <v>205</v>
+      </c>
+      <c r="E108" s="101"/>
+      <c r="F108" s="64"/>
+      <c r="G108" s="67">
+        <v>42093</v>
+      </c>
+      <c r="H108" s="67">
+        <v>42093</v>
+      </c>
+      <c r="I108" s="71"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="92"/>
+      <c r="B109" s="109"/>
+      <c r="C109" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D109" s="101" t="s">
+        <v>205</v>
+      </c>
+      <c r="E109" s="101"/>
+      <c r="F109" s="64"/>
+      <c r="G109" s="67">
+        <v>42093</v>
+      </c>
+      <c r="H109" s="67">
+        <v>42093</v>
+      </c>
+      <c r="I109" s="71"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="92"/>
+      <c r="B110" s="109"/>
+      <c r="C110" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D110" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="E110" s="101"/>
+      <c r="F110" s="64"/>
+      <c r="G110" s="67">
+        <v>42093</v>
+      </c>
+      <c r="H110" s="67">
+        <v>42093</v>
+      </c>
+      <c r="I110" s="71"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="92"/>
+      <c r="B111" s="109"/>
+      <c r="C111" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="D111" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="E111" s="101"/>
+      <c r="F111" s="64"/>
+      <c r="G111" s="67">
+        <v>42093</v>
+      </c>
+      <c r="H111" s="67">
+        <v>42093</v>
+      </c>
+      <c r="I111" s="71"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="93"/>
+      <c r="B112" s="110"/>
+      <c r="C112" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="D112" s="129" t="s">
+        <v>159</v>
+      </c>
+      <c r="E112" s="129"/>
+      <c r="F112" s="130"/>
+      <c r="G112" s="67">
+        <v>42093</v>
+      </c>
+      <c r="H112" s="67">
+        <v>42093</v>
+      </c>
+      <c r="I112" s="131"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="B108:B112"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A9:A22"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="B28:B30"/>
     <mergeCell ref="B38:B42"/>
     <mergeCell ref="A26:A42"/>
     <mergeCell ref="B102:B107"/>
@@ -5869,11 +6156,6 @@
     <mergeCell ref="B90:B95"/>
     <mergeCell ref="B84:B89"/>
     <mergeCell ref="B31:B37"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A9:A22"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="B28:B30"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5882,14 +6164,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T96"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="F40" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="F80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomRight" activeCell="L95" sqref="L95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -7633,170 +7915,173 @@
       <c r="Q71" s="84"/>
       <c r="R71" s="84"/>
       <c r="T71" s="81">
-        <f t="shared" ref="T71" si="13">SUM(E71:R71)</f>
+        <f t="shared" ref="T71:T72" si="13">SUM(E71:R71)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
-      <c r="A73" s="24" t="s">
+    <row r="72" spans="1:20" s="80" customFormat="1">
+      <c r="B72" s="83">
+        <v>16</v>
+      </c>
+      <c r="C72" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="D72" s="84"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="84"/>
+      <c r="H72" s="84"/>
+      <c r="I72" s="84"/>
+      <c r="J72" s="84"/>
+      <c r="K72" s="84"/>
+      <c r="L72" s="84"/>
+      <c r="M72" s="84"/>
+      <c r="N72" s="84"/>
+      <c r="O72" s="84"/>
+      <c r="P72" s="84"/>
+      <c r="Q72" s="82">
+        <v>4</v>
+      </c>
+      <c r="R72" s="84"/>
+      <c r="T72" s="81">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" s="80" customFormat="1">
+      <c r="B73" s="83">
+        <v>17</v>
+      </c>
+      <c r="C73" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D73" s="84"/>
+      <c r="E73" s="84"/>
+      <c r="F73" s="84"/>
+      <c r="G73" s="84"/>
+      <c r="H73" s="84"/>
+      <c r="I73" s="84"/>
+      <c r="J73" s="84"/>
+      <c r="K73" s="84"/>
+      <c r="L73" s="84"/>
+      <c r="M73" s="84"/>
+      <c r="N73" s="84"/>
+      <c r="O73" s="84"/>
+      <c r="P73" s="84"/>
+      <c r="Q73" s="82">
+        <v>4</v>
+      </c>
+      <c r="R73" s="84"/>
+      <c r="T73" s="81">
+        <f t="shared" ref="T73" si="14">SUM(E73:R73)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
+      <c r="A75" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
-      <c r="B74" s="20" t="s">
+    <row r="76" spans="1:20">
+      <c r="B76" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
-      <c r="B75" s="21">
+    <row r="77" spans="1:20">
+      <c r="B77" s="21">
         <v>1</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C77" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="19">
+      <c r="D77" s="25"/>
+      <c r="E77" s="19">
         <v>8</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F77" s="19">
         <v>8</v>
       </c>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="25"/>
-      <c r="N75" s="25"/>
-      <c r="O75" s="25"/>
-      <c r="P75" s="25"/>
-      <c r="Q75" s="25"/>
-      <c r="R75" s="25"/>
-      <c r="T75" s="3">
-        <f t="shared" ref="T75:T79" si="14">SUM(E75:R75)</f>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="25"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="25"/>
+      <c r="O77" s="25"/>
+      <c r="P77" s="25"/>
+      <c r="Q77" s="25"/>
+      <c r="R77" s="25"/>
+      <c r="T77" s="3">
+        <f t="shared" ref="T77:T81" si="15">SUM(E77:R77)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
-      <c r="B76" s="83">
+    <row r="78" spans="1:20">
+      <c r="B78" s="83">
         <v>2</v>
       </c>
-      <c r="C76" s="25" t="s">
+      <c r="C78" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="19">
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="19">
         <v>8</v>
       </c>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="84"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="25"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="25"/>
-      <c r="O76" s="25"/>
-      <c r="P76" s="25"/>
-      <c r="Q76" s="25"/>
-      <c r="R76" s="25"/>
-      <c r="T76" s="3">
-        <f t="shared" si="14"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="84"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="25"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="25"/>
+      <c r="O78" s="25"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="25"/>
+      <c r="R78" s="25"/>
+      <c r="T78" s="3">
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:20" s="80" customFormat="1">
-      <c r="B77" s="83">
+    <row r="79" spans="1:20" s="80" customFormat="1">
+      <c r="B79" s="83">
         <v>3</v>
       </c>
-      <c r="C77" s="74">
+      <c r="C79" s="74">
         <v>6.4</v>
       </c>
-      <c r="D77" s="84"/>
-      <c r="E77" s="84"/>
-      <c r="F77" s="84"/>
-      <c r="G77" s="84"/>
-      <c r="H77" s="84"/>
-      <c r="I77" s="84"/>
-      <c r="J77" s="82">
+      <c r="D79" s="84"/>
+      <c r="E79" s="84"/>
+      <c r="F79" s="84"/>
+      <c r="G79" s="84"/>
+      <c r="H79" s="84"/>
+      <c r="I79" s="84"/>
+      <c r="J79" s="82">
         <v>2</v>
       </c>
-      <c r="K77" s="84"/>
-      <c r="L77" s="84"/>
-      <c r="M77" s="84"/>
-      <c r="N77" s="84"/>
-      <c r="O77" s="84"/>
-      <c r="P77" s="84"/>
-      <c r="Q77" s="84"/>
-      <c r="R77" s="84"/>
-      <c r="T77" s="81"/>
-    </row>
-    <row r="78" spans="1:20" s="80" customFormat="1">
-      <c r="B78" s="83">
-        <v>4</v>
-      </c>
-      <c r="C78" s="74">
-        <v>6.5</v>
-      </c>
-      <c r="D78" s="84"/>
-      <c r="E78" s="84"/>
-      <c r="F78" s="84"/>
-      <c r="G78" s="84"/>
-      <c r="H78" s="84"/>
-      <c r="I78" s="84"/>
-      <c r="J78" s="82">
-        <v>3</v>
-      </c>
-      <c r="K78" s="84"/>
-      <c r="L78" s="84"/>
-      <c r="M78" s="84"/>
-      <c r="N78" s="84"/>
-      <c r="O78" s="84"/>
-      <c r="P78" s="84"/>
-      <c r="Q78" s="84"/>
-      <c r="R78" s="84"/>
-      <c r="T78" s="81"/>
-    </row>
-    <row r="79" spans="1:20">
-      <c r="B79" s="83">
-        <v>5</v>
-      </c>
-      <c r="C79" s="74">
-        <v>6.6</v>
-      </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="82">
-        <v>3</v>
-      </c>
-      <c r="K79" s="25"/>
-      <c r="L79" s="25"/>
-      <c r="M79" s="25"/>
-      <c r="N79" s="25"/>
-      <c r="O79" s="25"/>
-      <c r="P79" s="25"/>
-      <c r="Q79" s="25"/>
-      <c r="R79" s="25"/>
-      <c r="T79" s="3">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
+      <c r="K79" s="84"/>
+      <c r="L79" s="84"/>
+      <c r="M79" s="84"/>
+      <c r="N79" s="84"/>
+      <c r="O79" s="84"/>
+      <c r="P79" s="84"/>
+      <c r="Q79" s="84"/>
+      <c r="R79" s="84"/>
+      <c r="T79" s="81"/>
     </row>
     <row r="80" spans="1:20" s="80" customFormat="1">
       <c r="B80" s="83">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C80" s="74">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="D80" s="84"/>
       <c r="E80" s="84"/>
@@ -7804,10 +8089,10 @@
       <c r="G80" s="84"/>
       <c r="H80" s="84"/>
       <c r="I80" s="84"/>
-      <c r="J80" s="84"/>
-      <c r="K80" s="82">
-        <v>2</v>
-      </c>
+      <c r="J80" s="82">
+        <v>3</v>
+      </c>
+      <c r="K80" s="84"/>
       <c r="L80" s="84"/>
       <c r="M80" s="84"/>
       <c r="N80" s="84"/>
@@ -7817,38 +8102,41 @@
       <c r="R80" s="84"/>
       <c r="T80" s="81"/>
     </row>
-    <row r="81" spans="2:20" s="80" customFormat="1">
+    <row r="81" spans="2:20">
       <c r="B81" s="83">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C81" s="74">
-        <v>7.5</v>
-      </c>
-      <c r="D81" s="84"/>
-      <c r="E81" s="84"/>
-      <c r="F81" s="84"/>
-      <c r="G81" s="84"/>
-      <c r="H81" s="84"/>
-      <c r="I81" s="84"/>
-      <c r="J81" s="84"/>
-      <c r="K81" s="82">
-        <v>4</v>
-      </c>
-      <c r="L81" s="84"/>
-      <c r="M81" s="84"/>
-      <c r="N81" s="84"/>
-      <c r="O81" s="84"/>
-      <c r="P81" s="84"/>
-      <c r="Q81" s="84"/>
-      <c r="R81" s="84"/>
-      <c r="T81" s="81"/>
+        <v>6.6</v>
+      </c>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="82">
+        <v>3</v>
+      </c>
+      <c r="K81" s="25"/>
+      <c r="L81" s="25"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="25"/>
+      <c r="O81" s="25"/>
+      <c r="P81" s="25"/>
+      <c r="Q81" s="25"/>
+      <c r="R81" s="25"/>
+      <c r="T81" s="3">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="82" spans="2:20" s="80" customFormat="1">
       <c r="B82" s="83">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" s="74">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="D82" s="84"/>
       <c r="E82" s="84"/>
@@ -7858,7 +8146,7 @@
       <c r="I82" s="84"/>
       <c r="J82" s="84"/>
       <c r="K82" s="82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L82" s="84"/>
       <c r="M82" s="84"/>
@@ -7867,17 +8155,14 @@
       <c r="P82" s="84"/>
       <c r="Q82" s="84"/>
       <c r="R82" s="84"/>
-      <c r="T82" s="81">
-        <f t="shared" ref="T82" si="15">SUM(E82:R82)</f>
-        <v>5</v>
-      </c>
+      <c r="T82" s="81"/>
     </row>
     <row r="83" spans="2:20" s="80" customFormat="1">
       <c r="B83" s="83">
-        <v>9</v>
-      </c>
-      <c r="C83" s="42" t="s">
-        <v>176</v>
+        <v>7</v>
+      </c>
+      <c r="C83" s="74">
+        <v>7.5</v>
       </c>
       <c r="D83" s="84"/>
       <c r="E83" s="84"/>
@@ -7886,10 +8171,10 @@
       <c r="H83" s="84"/>
       <c r="I83" s="84"/>
       <c r="J83" s="84"/>
-      <c r="K83" s="84"/>
-      <c r="L83" s="82">
-        <v>2</v>
-      </c>
+      <c r="K83" s="82">
+        <v>4</v>
+      </c>
+      <c r="L83" s="84"/>
       <c r="M83" s="84"/>
       <c r="N83" s="84"/>
       <c r="O83" s="84"/>
@@ -7900,10 +8185,10 @@
     </row>
     <row r="84" spans="2:20" s="80" customFormat="1">
       <c r="B84" s="83">
-        <v>10</v>
-      </c>
-      <c r="C84" s="42" t="s">
-        <v>177</v>
+        <v>8</v>
+      </c>
+      <c r="C84" s="74">
+        <v>7.6</v>
       </c>
       <c r="D84" s="84"/>
       <c r="E84" s="84"/>
@@ -7912,24 +8197,27 @@
       <c r="H84" s="84"/>
       <c r="I84" s="84"/>
       <c r="J84" s="84"/>
-      <c r="K84" s="84"/>
-      <c r="L84" s="82">
-        <v>4</v>
-      </c>
+      <c r="K84" s="82">
+        <v>5</v>
+      </c>
+      <c r="L84" s="84"/>
       <c r="M84" s="84"/>
       <c r="N84" s="84"/>
       <c r="O84" s="84"/>
       <c r="P84" s="84"/>
       <c r="Q84" s="84"/>
       <c r="R84" s="84"/>
-      <c r="T84" s="81"/>
-    </row>
-    <row r="85" spans="2:20" s="80" customFormat="1" ht="13.8" thickBot="1">
+      <c r="T84" s="81">
+        <f t="shared" ref="T84" si="16">SUM(E84:R84)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20" s="80" customFormat="1">
       <c r="B85" s="83">
-        <v>11</v>
-      </c>
-      <c r="C85" s="76" t="s">
-        <v>178</v>
+        <v>9</v>
+      </c>
+      <c r="C85" s="42" t="s">
+        <v>176</v>
       </c>
       <c r="D85" s="84"/>
       <c r="E85" s="84"/>
@@ -7940,7 +8228,7 @@
       <c r="J85" s="84"/>
       <c r="K85" s="84"/>
       <c r="L85" s="82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M85" s="84"/>
       <c r="N85" s="84"/>
@@ -7948,17 +8236,14 @@
       <c r="P85" s="84"/>
       <c r="Q85" s="84"/>
       <c r="R85" s="84"/>
-      <c r="T85" s="81">
-        <f t="shared" ref="T85" si="16">SUM(E85:R85)</f>
-        <v>5</v>
-      </c>
+      <c r="T85" s="81"/>
     </row>
     <row r="86" spans="2:20" s="80" customFormat="1">
       <c r="B86" s="83">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C86" s="42" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D86" s="84"/>
       <c r="E86" s="84"/>
@@ -7968,10 +8253,10 @@
       <c r="I86" s="84"/>
       <c r="J86" s="84"/>
       <c r="K86" s="84"/>
-      <c r="L86" s="84"/>
-      <c r="M86" s="82">
-        <v>2</v>
-      </c>
+      <c r="L86" s="82">
+        <v>4</v>
+      </c>
+      <c r="M86" s="84"/>
       <c r="N86" s="84"/>
       <c r="O86" s="84"/>
       <c r="P86" s="84"/>
@@ -7979,12 +8264,12 @@
       <c r="R86" s="84"/>
       <c r="T86" s="81"/>
     </row>
-    <row r="87" spans="2:20" s="80" customFormat="1">
+    <row r="87" spans="2:20" s="80" customFormat="1" ht="13.8" thickBot="1">
       <c r="B87" s="83">
-        <v>13</v>
-      </c>
-      <c r="C87" s="42" t="s">
-        <v>185</v>
+        <v>11</v>
+      </c>
+      <c r="C87" s="76" t="s">
+        <v>178</v>
       </c>
       <c r="D87" s="84"/>
       <c r="E87" s="84"/>
@@ -7994,23 +8279,26 @@
       <c r="I87" s="84"/>
       <c r="J87" s="84"/>
       <c r="K87" s="84"/>
-      <c r="L87" s="84"/>
-      <c r="M87" s="82">
-        <v>4</v>
-      </c>
+      <c r="L87" s="82">
+        <v>5</v>
+      </c>
+      <c r="M87" s="84"/>
       <c r="N87" s="84"/>
       <c r="O87" s="84"/>
       <c r="P87" s="84"/>
       <c r="Q87" s="84"/>
       <c r="R87" s="84"/>
-      <c r="T87" s="81"/>
-    </row>
-    <row r="88" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
+      <c r="T87" s="81">
+        <f t="shared" ref="T87" si="17">SUM(E87:R87)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20" s="80" customFormat="1">
       <c r="B88" s="83">
-        <v>14</v>
-      </c>
-      <c r="C88" s="97" t="s">
-        <v>186</v>
+        <v>12</v>
+      </c>
+      <c r="C88" s="42" t="s">
+        <v>184</v>
       </c>
       <c r="D88" s="84"/>
       <c r="E88" s="84"/>
@@ -8022,24 +8310,21 @@
       <c r="K88" s="84"/>
       <c r="L88" s="84"/>
       <c r="M88" s="82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N88" s="84"/>
       <c r="O88" s="84"/>
       <c r="P88" s="84"/>
       <c r="Q88" s="84"/>
       <c r="R88" s="84"/>
-      <c r="T88" s="81">
-        <f t="shared" ref="T88" si="17">SUM(E88:R88)</f>
-        <v>5</v>
-      </c>
+      <c r="T88" s="81"/>
     </row>
     <row r="89" spans="2:20" s="80" customFormat="1">
       <c r="B89" s="83">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C89" s="42" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D89" s="84"/>
       <c r="E89" s="84"/>
@@ -8050,22 +8335,22 @@
       <c r="J89" s="84"/>
       <c r="K89" s="84"/>
       <c r="L89" s="84"/>
-      <c r="M89" s="84"/>
-      <c r="N89" s="82">
-        <v>2</v>
-      </c>
+      <c r="M89" s="82">
+        <v>4</v>
+      </c>
+      <c r="N89" s="84"/>
       <c r="O89" s="84"/>
       <c r="P89" s="84"/>
       <c r="Q89" s="84"/>
       <c r="R89" s="84"/>
       <c r="T89" s="81"/>
     </row>
-    <row r="90" spans="2:20" s="80" customFormat="1">
+    <row r="90" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="B90" s="83">
-        <v>13</v>
-      </c>
-      <c r="C90" s="42" t="s">
-        <v>193</v>
+        <v>14</v>
+      </c>
+      <c r="C90" s="97" t="s">
+        <v>186</v>
       </c>
       <c r="D90" s="84"/>
       <c r="E90" s="84"/>
@@ -8076,22 +8361,25 @@
       <c r="J90" s="84"/>
       <c r="K90" s="84"/>
       <c r="L90" s="84"/>
-      <c r="M90" s="84"/>
-      <c r="N90" s="82">
-        <v>4</v>
-      </c>
+      <c r="M90" s="82">
+        <v>5</v>
+      </c>
+      <c r="N90" s="84"/>
       <c r="O90" s="84"/>
       <c r="P90" s="84"/>
       <c r="Q90" s="84"/>
       <c r="R90" s="84"/>
-      <c r="T90" s="81"/>
-    </row>
-    <row r="91" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
+      <c r="T90" s="81">
+        <f t="shared" ref="T90" si="18">SUM(E90:R90)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20" s="80" customFormat="1">
       <c r="B91" s="83">
-        <v>14</v>
-      </c>
-      <c r="C91" s="97" t="s">
-        <v>194</v>
+        <v>12</v>
+      </c>
+      <c r="C91" s="42" t="s">
+        <v>192</v>
       </c>
       <c r="D91" s="84"/>
       <c r="E91" s="84"/>
@@ -8110,9 +8398,142 @@
       <c r="P91" s="84"/>
       <c r="Q91" s="84"/>
       <c r="R91" s="84"/>
-      <c r="T91" s="81">
-        <f t="shared" ref="T91" si="18">SUM(E91:R91)</f>
+      <c r="T91" s="81"/>
+    </row>
+    <row r="92" spans="2:20" s="80" customFormat="1">
+      <c r="B92" s="83">
+        <v>13</v>
+      </c>
+      <c r="C92" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="D92" s="84"/>
+      <c r="E92" s="84"/>
+      <c r="F92" s="84"/>
+      <c r="G92" s="84"/>
+      <c r="H92" s="84"/>
+      <c r="I92" s="84"/>
+      <c r="J92" s="84"/>
+      <c r="K92" s="84"/>
+      <c r="L92" s="84"/>
+      <c r="M92" s="84"/>
+      <c r="N92" s="82">
+        <v>4</v>
+      </c>
+      <c r="O92" s="84"/>
+      <c r="P92" s="84"/>
+      <c r="Q92" s="84"/>
+      <c r="R92" s="84"/>
+      <c r="T92" s="81"/>
+    </row>
+    <row r="93" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
+      <c r="B93" s="83">
+        <v>14</v>
+      </c>
+      <c r="C93" s="97" t="s">
+        <v>194</v>
+      </c>
+      <c r="D93" s="84"/>
+      <c r="E93" s="84"/>
+      <c r="F93" s="84"/>
+      <c r="G93" s="84"/>
+      <c r="H93" s="84"/>
+      <c r="I93" s="84"/>
+      <c r="J93" s="84"/>
+      <c r="K93" s="84"/>
+      <c r="L93" s="84"/>
+      <c r="M93" s="84"/>
+      <c r="N93" s="82">
         <v>2</v>
+      </c>
+      <c r="O93" s="84"/>
+      <c r="P93" s="84"/>
+      <c r="Q93" s="84"/>
+      <c r="R93" s="84"/>
+      <c r="T93" s="81">
+        <f t="shared" ref="T93" si="19">SUM(E93:R93)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:20" s="80" customFormat="1">
+      <c r="B94" s="83">
+        <v>15</v>
+      </c>
+      <c r="C94" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D94" s="84"/>
+      <c r="E94" s="84"/>
+      <c r="F94" s="84"/>
+      <c r="G94" s="84"/>
+      <c r="H94" s="84"/>
+      <c r="I94" s="84"/>
+      <c r="J94" s="84"/>
+      <c r="K94" s="84"/>
+      <c r="L94" s="84"/>
+      <c r="M94" s="84"/>
+      <c r="N94" s="84"/>
+      <c r="O94" s="84"/>
+      <c r="P94" s="84"/>
+      <c r="Q94" s="82">
+        <v>2</v>
+      </c>
+      <c r="R94" s="84"/>
+      <c r="T94" s="81"/>
+    </row>
+    <row r="95" spans="2:20" s="80" customFormat="1">
+      <c r="B95" s="83">
+        <v>16</v>
+      </c>
+      <c r="C95" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="D95" s="84"/>
+      <c r="E95" s="84"/>
+      <c r="F95" s="84"/>
+      <c r="G95" s="84"/>
+      <c r="H95" s="84"/>
+      <c r="I95" s="84"/>
+      <c r="J95" s="84"/>
+      <c r="K95" s="84"/>
+      <c r="L95" s="84"/>
+      <c r="M95" s="84"/>
+      <c r="N95" s="84"/>
+      <c r="O95" s="84"/>
+      <c r="P95" s="84"/>
+      <c r="Q95" s="82">
+        <v>2</v>
+      </c>
+      <c r="R95" s="84"/>
+      <c r="T95" s="81"/>
+    </row>
+    <row r="96" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1">
+      <c r="B96" s="83">
+        <v>17</v>
+      </c>
+      <c r="C96" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="D96" s="84"/>
+      <c r="E96" s="84"/>
+      <c r="F96" s="84"/>
+      <c r="G96" s="84"/>
+      <c r="H96" s="84"/>
+      <c r="I96" s="84"/>
+      <c r="J96" s="84"/>
+      <c r="K96" s="84"/>
+      <c r="L96" s="84"/>
+      <c r="M96" s="84"/>
+      <c r="N96" s="84"/>
+      <c r="O96" s="84"/>
+      <c r="P96" s="84"/>
+      <c r="Q96" s="82">
+        <v>4</v>
+      </c>
+      <c r="R96" s="84"/>
+      <c r="T96" s="81">
+        <f t="shared" ref="T96" si="20">SUM(E96:R96)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Listing_Tool_Status_Report_v1.0.xlsx
+++ b/docs/Listing_Tool_Status_Report_v1.0.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5352" yWindow="-360" windowWidth="16608" windowHeight="9432" activeTab="2"/>
+    <workbookView xWindow="5352" yWindow="-360" windowWidth="16608" windowHeight="9432" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="WBS" sheetId="5" r:id="rId2"/>
     <sheet name="March 2015" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="211">
   <si>
     <t>Project Name:</t>
   </si>
@@ -2368,6 +2368,22 @@
         <charset val="134"/>
       </rPr>
       <t>、修正国际化缓存异常情况</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交易异常的场景处理</t>
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -2375,7 +2391,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -3030,7 +3046,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3281,6 +3297,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3299,36 +3375,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3338,37 +3387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3392,7 +3411,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3466,7 +3485,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3501,7 +3519,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3677,7 +3694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3963,12 +3980,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -4025,7 +4042,7 @@
       <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="110" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="37" t="s">
@@ -4046,7 +4063,7 @@
       <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A4" s="112"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="42" t="s">
         <v>41</v>
       </c>
@@ -4065,7 +4082,7 @@
       <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A5" s="113"/>
+      <c r="A5" s="112"/>
       <c r="B5" s="47" t="s">
         <v>42</v>
       </c>
@@ -4108,10 +4125,10 @@
       <c r="H8" s="56"/>
     </row>
     <row r="9" spans="1:9" ht="26.7" customHeight="1">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="113" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="58" t="s">
@@ -4133,8 +4150,8 @@
       <c r="I9" s="41"/>
     </row>
     <row r="10" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A10" s="112"/>
-      <c r="B10" s="125"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="114"/>
       <c r="C10" s="59" t="s">
         <v>47</v>
       </c>
@@ -4154,8 +4171,8 @@
       <c r="I10" s="62"/>
     </row>
     <row r="11" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A11" s="112"/>
-      <c r="B11" s="125"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="43" t="s">
         <v>49</v>
       </c>
@@ -4175,8 +4192,8 @@
       <c r="I11" s="46"/>
     </row>
     <row r="12" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A12" s="112"/>
-      <c r="B12" s="125"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="63" t="s">
         <v>50</v>
       </c>
@@ -4196,8 +4213,8 @@
       <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A13" s="112"/>
-      <c r="B13" s="126"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="115"/>
       <c r="C13" s="63" t="s">
         <v>52</v>
       </c>
@@ -4215,8 +4232,8 @@
       <c r="I13" s="65"/>
     </row>
     <row r="14" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A14" s="112"/>
-      <c r="B14" s="114" t="s">
+      <c r="A14" s="111"/>
+      <c r="B14" s="116" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="63" t="s">
@@ -4238,8 +4255,8 @@
       <c r="I14" s="65"/>
     </row>
     <row r="15" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A15" s="112"/>
-      <c r="B15" s="115"/>
+      <c r="A15" s="111"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="63" t="s">
         <v>55</v>
       </c>
@@ -4259,8 +4276,8 @@
       <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A16" s="112"/>
-      <c r="B16" s="115"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="63" t="s">
         <v>57</v>
       </c>
@@ -4280,8 +4297,8 @@
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A17" s="112"/>
-      <c r="B17" s="115"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="117"/>
       <c r="C17" s="63" t="s">
         <v>59</v>
       </c>
@@ -4301,8 +4318,8 @@
       <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A18" s="112"/>
-      <c r="B18" s="115"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="63" t="s">
         <v>60</v>
       </c>
@@ -4322,8 +4339,8 @@
       <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A19" s="112"/>
-      <c r="B19" s="115"/>
+      <c r="A19" s="111"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="63" t="s">
         <v>61</v>
       </c>
@@ -4343,8 +4360,8 @@
       <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A20" s="112"/>
-      <c r="B20" s="115"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="63" t="s">
         <v>62</v>
       </c>
@@ -4364,8 +4381,8 @@
       <c r="I20" s="65"/>
     </row>
     <row r="21" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A21" s="112"/>
-      <c r="B21" s="115"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="90" t="s">
         <v>164</v>
       </c>
@@ -4383,8 +4400,8 @@
       <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A22" s="113"/>
-      <c r="B22" s="117"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="118"/>
       <c r="C22" s="66" t="s">
         <v>165</v>
       </c>
@@ -4428,7 +4445,7 @@
       <c r="H25" s="56"/>
     </row>
     <row r="26" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A26" s="105" t="s">
+      <c r="A26" s="125" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="37" t="s">
@@ -4451,7 +4468,7 @@
       <c r="I26" s="41"/>
     </row>
     <row r="27" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A27" s="106"/>
+      <c r="A27" s="126"/>
       <c r="B27" s="42" t="s">
         <v>66</v>
       </c>
@@ -4472,8 +4489,8 @@
       <c r="I27" s="46"/>
     </row>
     <row r="28" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A28" s="106"/>
-      <c r="B28" s="121" t="s">
+      <c r="A28" s="126"/>
+      <c r="B28" s="119" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="63" t="s">
@@ -4495,8 +4512,8 @@
       <c r="I28" s="65"/>
     </row>
     <row r="29" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A29" s="106"/>
-      <c r="B29" s="122"/>
+      <c r="A29" s="126"/>
+      <c r="B29" s="120"/>
       <c r="C29" s="63" t="s">
         <v>70</v>
       </c>
@@ -4516,8 +4533,8 @@
       <c r="I29" s="65"/>
     </row>
     <row r="30" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A30" s="106"/>
-      <c r="B30" s="127"/>
+      <c r="A30" s="126"/>
+      <c r="B30" s="121"/>
       <c r="C30" s="63" t="s">
         <v>72</v>
       </c>
@@ -4537,8 +4554,8 @@
       <c r="I30" s="65"/>
     </row>
     <row r="31" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A31" s="106"/>
-      <c r="B31" s="121" t="s">
+      <c r="A31" s="126"/>
+      <c r="B31" s="119" t="s">
         <v>127</v>
       </c>
       <c r="C31" s="70" t="s">
@@ -4560,8 +4577,8 @@
       <c r="I31" s="65"/>
     </row>
     <row r="32" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A32" s="106"/>
-      <c r="B32" s="122"/>
+      <c r="A32" s="126"/>
+      <c r="B32" s="120"/>
       <c r="C32" s="70" t="s">
         <v>120</v>
       </c>
@@ -4581,8 +4598,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A33" s="106"/>
-      <c r="B33" s="122"/>
+      <c r="A33" s="126"/>
+      <c r="B33" s="120"/>
       <c r="C33" s="70" t="s">
         <v>122</v>
       </c>
@@ -4604,8 +4621,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A34" s="106"/>
-      <c r="B34" s="122"/>
+      <c r="A34" s="126"/>
+      <c r="B34" s="120"/>
       <c r="C34" s="70" t="s">
         <v>123</v>
       </c>
@@ -4625,8 +4642,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A35" s="106"/>
-      <c r="B35" s="122"/>
+      <c r="A35" s="126"/>
+      <c r="B35" s="120"/>
       <c r="C35" s="70" t="s">
         <v>124</v>
       </c>
@@ -4646,8 +4663,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A36" s="106"/>
-      <c r="B36" s="122"/>
+      <c r="A36" s="126"/>
+      <c r="B36" s="120"/>
       <c r="C36" s="70" t="s">
         <v>125</v>
       </c>
@@ -4667,8 +4684,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A37" s="106"/>
-      <c r="B37" s="123"/>
+      <c r="A37" s="126"/>
+      <c r="B37" s="132"/>
       <c r="C37" s="73" t="s">
         <v>126</v>
       </c>
@@ -4686,8 +4703,8 @@
       <c r="I37" s="51"/>
     </row>
     <row r="38" spans="1:9" ht="13.65" customHeight="1">
-      <c r="A38" s="106"/>
-      <c r="B38" s="102" t="s">
+      <c r="A38" s="126"/>
+      <c r="B38" s="122" t="s">
         <v>168</v>
       </c>
       <c r="C38" s="70" t="s">
@@ -4709,8 +4726,8 @@
       <c r="I38" s="70"/>
     </row>
     <row r="39" spans="1:9" ht="13.65" customHeight="1">
-      <c r="A39" s="106"/>
-      <c r="B39" s="103"/>
+      <c r="A39" s="126"/>
+      <c r="B39" s="123"/>
       <c r="C39" s="70" t="s">
         <v>169</v>
       </c>
@@ -4730,8 +4747,8 @@
       <c r="I39" s="70"/>
     </row>
     <row r="40" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A40" s="106"/>
-      <c r="B40" s="103"/>
+      <c r="A40" s="126"/>
+      <c r="B40" s="123"/>
       <c r="C40" s="73" t="s">
         <v>170</v>
       </c>
@@ -4751,8 +4768,8 @@
       <c r="I40" s="51"/>
     </row>
     <row r="41" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A41" s="106"/>
-      <c r="B41" s="103"/>
+      <c r="A41" s="126"/>
+      <c r="B41" s="123"/>
       <c r="C41" s="73" t="s">
         <v>187</v>
       </c>
@@ -4772,8 +4789,8 @@
       <c r="I41" s="51"/>
     </row>
     <row r="42" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A42" s="107"/>
-      <c r="B42" s="104"/>
+      <c r="A42" s="127"/>
+      <c r="B42" s="124"/>
       <c r="C42" s="73" t="s">
         <v>195</v>
       </c>
@@ -4807,7 +4824,7 @@
       <c r="H44" s="56"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="111" t="s">
+      <c r="A45" s="110" t="s">
         <v>74</v>
       </c>
       <c r="B45" s="37" t="s">
@@ -4828,8 +4845,8 @@
       <c r="I45" s="41"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="112"/>
-      <c r="B46" s="114" t="s">
+      <c r="A46" s="111"/>
+      <c r="B46" s="116" t="s">
         <v>77</v>
       </c>
       <c r="C46" s="69" t="s">
@@ -4849,8 +4866,8 @@
       <c r="I46" s="46"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="112"/>
-      <c r="B47" s="115"/>
+      <c r="A47" s="111"/>
+      <c r="B47" s="117"/>
       <c r="C47" s="63" t="s">
         <v>79</v>
       </c>
@@ -4868,8 +4885,8 @@
       <c r="I47" s="65"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="112"/>
-      <c r="B48" s="115"/>
+      <c r="A48" s="111"/>
+      <c r="B48" s="117"/>
       <c r="C48" s="63" t="s">
         <v>80</v>
       </c>
@@ -4887,8 +4904,8 @@
       <c r="I48" s="65"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="112"/>
-      <c r="B49" s="115"/>
+      <c r="A49" s="111"/>
+      <c r="B49" s="117"/>
       <c r="C49" s="63" t="s">
         <v>81</v>
       </c>
@@ -4906,8 +4923,8 @@
       <c r="I49" s="65"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="112"/>
-      <c r="B50" s="115"/>
+      <c r="A50" s="111"/>
+      <c r="B50" s="117"/>
       <c r="C50" s="63" t="s">
         <v>83</v>
       </c>
@@ -4925,8 +4942,8 @@
       <c r="I50" s="65"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="112"/>
-      <c r="B51" s="116"/>
+      <c r="A51" s="111"/>
+      <c r="B51" s="128"/>
       <c r="C51" s="63" t="s">
         <v>85</v>
       </c>
@@ -4944,8 +4961,8 @@
       <c r="I51" s="65"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="112"/>
-      <c r="B52" s="114" t="s">
+      <c r="A52" s="111"/>
+      <c r="B52" s="116" t="s">
         <v>87</v>
       </c>
       <c r="C52" s="63" t="s">
@@ -4968,8 +4985,8 @@
       <c r="I52" s="65"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="112"/>
-      <c r="B53" s="115"/>
+      <c r="A53" s="111"/>
+      <c r="B53" s="117"/>
       <c r="C53" s="70" t="s">
         <v>90</v>
       </c>
@@ -4990,8 +5007,8 @@
       <c r="I53" s="65"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="112"/>
-      <c r="B54" s="115"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="117"/>
       <c r="C54" s="63" t="s">
         <v>91</v>
       </c>
@@ -5012,8 +5029,8 @@
       <c r="I54" s="65"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="112"/>
-      <c r="B55" s="115"/>
+      <c r="A55" s="111"/>
+      <c r="B55" s="117"/>
       <c r="C55" s="70" t="s">
         <v>93</v>
       </c>
@@ -5034,8 +5051,8 @@
       <c r="I55" s="71"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="112"/>
-      <c r="B56" s="115"/>
+      <c r="A56" s="111"/>
+      <c r="B56" s="117"/>
       <c r="C56" s="70" t="s">
         <v>94</v>
       </c>
@@ -5056,8 +5073,8 @@
       <c r="I56" s="65"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="112"/>
-      <c r="B57" s="115"/>
+      <c r="A57" s="111"/>
+      <c r="B57" s="117"/>
       <c r="C57" s="70" t="s">
         <v>96</v>
       </c>
@@ -5078,8 +5095,8 @@
       <c r="I57" s="71"/>
     </row>
     <row r="58" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A58" s="112"/>
-      <c r="B58" s="115"/>
+      <c r="A58" s="111"/>
+      <c r="B58" s="117"/>
       <c r="C58" s="70" t="s">
         <v>199</v>
       </c>
@@ -5100,8 +5117,8 @@
       <c r="I58" s="71"/>
     </row>
     <row r="59" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A59" s="112"/>
-      <c r="B59" s="115"/>
+      <c r="A59" s="111"/>
+      <c r="B59" s="117"/>
       <c r="C59" s="70" t="s">
         <v>200</v>
       </c>
@@ -5122,8 +5139,8 @@
       <c r="I59" s="71"/>
     </row>
     <row r="60" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A60" s="112"/>
-      <c r="B60" s="115"/>
+      <c r="A60" s="111"/>
+      <c r="B60" s="117"/>
       <c r="C60" s="70" t="s">
         <v>201</v>
       </c>
@@ -5144,8 +5161,8 @@
       <c r="I60" s="71"/>
     </row>
     <row r="61" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A61" s="112"/>
-      <c r="B61" s="115"/>
+      <c r="A61" s="111"/>
+      <c r="B61" s="117"/>
       <c r="C61" s="70" t="s">
         <v>202</v>
       </c>
@@ -5155,105 +5172,104 @@
       <c r="E61" s="100"/>
       <c r="F61" s="64">
         <f>'March 2015'!T50</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G61" s="78">
-        <v>42082</v>
+        <v>42087</v>
       </c>
       <c r="H61" s="45">
-        <v>42087</v>
+        <v>42090</v>
       </c>
       <c r="I61" s="71"/>
     </row>
     <row r="62" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A62" s="113"/>
+      <c r="A62" s="111"/>
       <c r="B62" s="117"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73" t="s">
+      <c r="C62" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="D62" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="102"/>
+      <c r="F62" s="64">
+        <f>'March 2015'!T51</f>
+        <v>6</v>
+      </c>
+      <c r="G62" s="78">
+        <v>42093</v>
+      </c>
+      <c r="H62" s="45">
+        <v>42093</v>
+      </c>
+      <c r="I62" s="71"/>
+    </row>
+    <row r="63" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A63" s="112"/>
+      <c r="B63" s="118"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="E62" s="48"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="50">
+      <c r="E63" s="48"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="50">
+        <v>42093</v>
+      </c>
+      <c r="H63" s="50">
+        <v>42095</v>
+      </c>
+      <c r="I63" s="51"/>
+    </row>
+    <row r="64" spans="1:9" ht="13.8" thickBot="1">
+      <c r="D64" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" s="54"/>
+      <c r="F64" s="55">
+        <f>SUM(F45:F63)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="13.8" thickTop="1"/>
+    <row r="66" spans="1:9" ht="13.8" thickBot="1"/>
+    <row r="67" spans="1:9">
+      <c r="A67" s="129" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="130" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="38"/>
+      <c r="F67" s="39">
+        <v>15</v>
+      </c>
+      <c r="G67" s="40">
         <v>42079</v>
       </c>
-      <c r="H62" s="50">
+      <c r="H67" s="40">
         <v>42083</v>
       </c>
-      <c r="I62" s="51"/>
-    </row>
-    <row r="63" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D63" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="E63" s="54"/>
-      <c r="F63" s="55">
-        <f>SUM(F45:F62)</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="13.8" thickTop="1"/>
-    <row r="65" spans="1:9" ht="13.8" thickBot="1"/>
-    <row r="66" spans="1:9">
-      <c r="A66" s="118" t="s">
-        <v>97</v>
-      </c>
-      <c r="B66" s="119" t="s">
-        <v>136</v>
-      </c>
-      <c r="C66" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="D66" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E66" s="38"/>
-      <c r="F66" s="39">
-        <v>15</v>
-      </c>
-      <c r="G66" s="40">
-        <v>42079</v>
-      </c>
-      <c r="H66" s="40">
-        <v>42083</v>
-      </c>
-      <c r="I66" s="41"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="112"/>
-      <c r="B67" s="120"/>
-      <c r="C67" s="59" t="s">
+      <c r="I67" s="41"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="111"/>
+      <c r="B68" s="131"/>
+      <c r="C68" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="D67" s="59" t="s">
+      <c r="D68" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="E67" s="59"/>
-      <c r="F67" s="60">
+      <c r="E68" s="59"/>
+      <c r="F68" s="60">
         <v>5</v>
-      </c>
-      <c r="G67" s="67">
-        <v>42079</v>
-      </c>
-      <c r="H67" s="45">
-        <v>42083</v>
-      </c>
-      <c r="I67" s="62"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="112"/>
-      <c r="B68" s="114" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="D68" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="E68" s="43"/>
-      <c r="F68" s="44">
-        <v>2</v>
       </c>
       <c r="G68" s="67">
         <v>42079</v>
@@ -5261,19 +5277,21 @@
       <c r="H68" s="45">
         <v>42083</v>
       </c>
-      <c r="I68" s="46"/>
+      <c r="I68" s="62"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="112"/>
-      <c r="B69" s="115"/>
-      <c r="C69" s="63" t="s">
-        <v>103</v>
+      <c r="A69" s="111"/>
+      <c r="B69" s="116" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>102</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="E69" s="63"/>
-      <c r="F69" s="64">
+        <v>101</v>
+      </c>
+      <c r="E69" s="43"/>
+      <c r="F69" s="44">
         <v>2</v>
       </c>
       <c r="G69" s="67">
@@ -5282,16 +5300,16 @@
       <c r="H69" s="45">
         <v>42083</v>
       </c>
-      <c r="I69" s="65"/>
+      <c r="I69" s="46"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="112"/>
-      <c r="B70" s="115"/>
+      <c r="A70" s="111"/>
+      <c r="B70" s="117"/>
       <c r="C70" s="63" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D70" s="43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E70" s="63"/>
       <c r="F70" s="64">
@@ -5306,13 +5324,13 @@
       <c r="I70" s="65"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="112"/>
-      <c r="B71" s="116"/>
+      <c r="A71" s="111"/>
+      <c r="B71" s="117"/>
       <c r="C71" s="63" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D71" s="43" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E71" s="63"/>
       <c r="F71" s="64">
@@ -5327,13 +5345,13 @@
       <c r="I71" s="65"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="112"/>
-      <c r="B72" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C72" s="63"/>
+      <c r="A72" s="111"/>
+      <c r="B72" s="128"/>
+      <c r="C72" s="63" t="s">
+        <v>107</v>
+      </c>
       <c r="D72" s="43" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E72" s="63"/>
       <c r="F72" s="64">
@@ -5348,19 +5366,17 @@
       <c r="I72" s="65"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="112"/>
-      <c r="B73" s="114" t="s">
-        <v>142</v>
-      </c>
-      <c r="C73" s="63" t="s">
-        <v>109</v>
-      </c>
+      <c r="A73" s="111"/>
+      <c r="B73" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="63"/>
       <c r="D73" s="43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E73" s="63"/>
       <c r="F73" s="64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G73" s="67">
         <v>42079</v>
@@ -5371,17 +5387,19 @@
       <c r="I73" s="65"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="112"/>
-      <c r="B74" s="115"/>
+      <c r="A74" s="111"/>
+      <c r="B74" s="116" t="s">
+        <v>142</v>
+      </c>
       <c r="C74" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="D74" s="63" t="s">
-        <v>101</v>
+        <v>109</v>
+      </c>
+      <c r="D74" s="43" t="s">
+        <v>110</v>
       </c>
       <c r="E74" s="63"/>
       <c r="F74" s="64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G74" s="67">
         <v>42079</v>
@@ -5392,17 +5410,17 @@
       <c r="I74" s="65"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="112"/>
-      <c r="B75" s="115"/>
+      <c r="A75" s="111"/>
+      <c r="B75" s="117"/>
       <c r="C75" s="63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D75" s="63" t="s">
         <v>101</v>
       </c>
       <c r="E75" s="63"/>
       <c r="F75" s="64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G75" s="67">
         <v>42079</v>
@@ -5413,10 +5431,10 @@
       <c r="I75" s="65"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="112"/>
-      <c r="B76" s="116"/>
+      <c r="A76" s="111"/>
+      <c r="B76" s="117"/>
       <c r="C76" s="63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D76" s="63" t="s">
         <v>101</v>
@@ -5431,57 +5449,59 @@
       <c r="H76" s="45">
         <v>42083</v>
       </c>
-      <c r="I76" s="71"/>
+      <c r="I76" s="65"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="112"/>
-      <c r="B77" s="42" t="s">
+      <c r="A77" s="111"/>
+      <c r="B77" s="128"/>
+      <c r="C77" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="E77" s="63"/>
+      <c r="F77" s="64">
+        <v>3</v>
+      </c>
+      <c r="G77" s="67">
+        <v>42079</v>
+      </c>
+      <c r="H77" s="45">
+        <v>42083</v>
+      </c>
+      <c r="I77" s="71"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="111"/>
+      <c r="B78" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C77" s="42"/>
-      <c r="D77" s="75" t="s">
+      <c r="C78" s="42"/>
+      <c r="D78" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="E77" s="75" t="s">
+      <c r="E78" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="F77" s="64"/>
-      <c r="G77" s="67">
-        <v>42082</v>
-      </c>
-      <c r="H77" s="45">
-        <v>42088</v>
-      </c>
-      <c r="I77" s="71" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A78" s="113"/>
-      <c r="B78" s="114" t="s">
-        <v>145</v>
-      </c>
-      <c r="C78" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="D78" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="E78" s="75"/>
       <c r="F78" s="64"/>
       <c r="G78" s="67">
-        <v>42086</v>
+        <v>42082</v>
       </c>
       <c r="H78" s="45">
-        <v>42086</v>
-      </c>
-      <c r="I78" s="71"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="91"/>
-      <c r="B79" s="115"/>
+        <v>42088</v>
+      </c>
+      <c r="I78" s="71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A79" s="112"/>
+      <c r="B79" s="116" t="s">
+        <v>145</v>
+      </c>
       <c r="C79" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D79" s="75" t="s">
         <v>99</v>
@@ -5497,10 +5517,10 @@
       <c r="I79" s="71"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="92"/>
-      <c r="B80" s="115"/>
+      <c r="A80" s="91"/>
+      <c r="B80" s="117"/>
       <c r="C80" s="42" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D80" s="75" t="s">
         <v>99</v>
@@ -5517,12 +5537,12 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="92"/>
-      <c r="B81" s="115"/>
+      <c r="B81" s="117"/>
       <c r="C81" s="42" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D81" s="75" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="E81" s="75"/>
       <c r="F81" s="64"/>
@@ -5536,9 +5556,9 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="92"/>
-      <c r="B82" s="115"/>
+      <c r="B82" s="117"/>
       <c r="C82" s="42" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D82" s="75" t="s">
         <v>154</v>
@@ -5553,51 +5573,51 @@
       </c>
       <c r="I82" s="71"/>
     </row>
-    <row r="83" spans="1:9" ht="13.8" thickBot="1">
+    <row r="83" spans="1:9">
       <c r="A83" s="92"/>
       <c r="B83" s="117"/>
-      <c r="C83" s="76" t="s">
+      <c r="C83" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D83" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="E83" s="75"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="67">
+        <v>42086</v>
+      </c>
+      <c r="H83" s="45">
+        <v>42086</v>
+      </c>
+      <c r="I83" s="71"/>
+    </row>
+    <row r="84" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A84" s="92"/>
+      <c r="B84" s="118"/>
+      <c r="C84" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="D83" s="76" t="s">
+      <c r="D84" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="E83" s="76"/>
-      <c r="F83" s="77"/>
-      <c r="G83" s="78">
+      <c r="E84" s="76"/>
+      <c r="F84" s="77"/>
+      <c r="G84" s="78">
         <v>42086</v>
       </c>
-      <c r="H83" s="78">
+      <c r="H84" s="78">
         <v>42086</v>
       </c>
-      <c r="I83" s="79"/>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="92"/>
-      <c r="B84" s="108" t="s">
-        <v>163</v>
-      </c>
-      <c r="C84" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="D84" s="89" t="s">
-        <v>158</v>
-      </c>
-      <c r="E84" s="89"/>
-      <c r="F84" s="64"/>
-      <c r="G84" s="67">
-        <v>42087</v>
-      </c>
-      <c r="H84" s="67">
-        <v>42087</v>
-      </c>
-      <c r="I84" s="71"/>
+      <c r="I84" s="79"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="92"/>
-      <c r="B85" s="109"/>
+      <c r="B85" s="107" t="s">
+        <v>163</v>
+      </c>
       <c r="C85" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D85" s="89" t="s">
         <v>158</v>
@@ -5614,9 +5634,9 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="92"/>
-      <c r="B86" s="109"/>
+      <c r="B86" s="108"/>
       <c r="C86" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D86" s="89" t="s">
         <v>158</v>
@@ -5633,12 +5653,12 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="92"/>
-      <c r="B87" s="109"/>
+      <c r="B87" s="108"/>
       <c r="C87" s="42" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D87" s="89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E87" s="89"/>
       <c r="F87" s="64"/>
@@ -5652,9 +5672,9 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="92"/>
-      <c r="B88" s="109"/>
+      <c r="B88" s="108"/>
       <c r="C88" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D88" s="89" t="s">
         <v>159</v>
@@ -5669,51 +5689,51 @@
       </c>
       <c r="I88" s="71"/>
     </row>
-    <row r="89" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A89" s="93"/>
-      <c r="B89" s="110"/>
-      <c r="C89" s="76" t="s">
-        <v>162</v>
-      </c>
-      <c r="D89" s="76" t="s">
+    <row r="89" spans="1:9">
+      <c r="A89" s="92"/>
+      <c r="B89" s="108"/>
+      <c r="C89" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D89" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="E89" s="76"/>
-      <c r="F89" s="77"/>
+      <c r="E89" s="89"/>
+      <c r="F89" s="64"/>
       <c r="G89" s="67">
         <v>42087</v>
       </c>
       <c r="H89" s="67">
         <v>42087</v>
       </c>
-      <c r="I89" s="79"/>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="92"/>
-      <c r="B90" s="108" t="s">
-        <v>172</v>
-      </c>
-      <c r="C90" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="D90" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="E90" s="95"/>
-      <c r="F90" s="64"/>
+      <c r="I89" s="71"/>
+    </row>
+    <row r="90" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A90" s="93"/>
+      <c r="B90" s="109"/>
+      <c r="C90" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="D90" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="E90" s="76"/>
+      <c r="F90" s="77"/>
       <c r="G90" s="67">
-        <v>42088</v>
+        <v>42087</v>
       </c>
       <c r="H90" s="67">
-        <v>42088</v>
-      </c>
-      <c r="I90" s="71"/>
+        <v>42087</v>
+      </c>
+      <c r="I90" s="79"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="92"/>
-      <c r="B91" s="109"/>
+      <c r="B91" s="107" t="s">
+        <v>172</v>
+      </c>
       <c r="C91" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D91" s="95" t="s">
         <v>153</v>
@@ -5730,9 +5750,9 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="92"/>
-      <c r="B92" s="109"/>
+      <c r="B92" s="108"/>
       <c r="C92" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D92" s="95" t="s">
         <v>153</v>
@@ -5749,12 +5769,12 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="92"/>
-      <c r="B93" s="109"/>
+      <c r="B93" s="108"/>
       <c r="C93" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D93" s="95" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E93" s="95"/>
       <c r="F93" s="64"/>
@@ -5768,9 +5788,9 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="92"/>
-      <c r="B94" s="109"/>
+      <c r="B94" s="108"/>
       <c r="C94" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D94" s="95" t="s">
         <v>159</v>
@@ -5785,51 +5805,51 @@
       </c>
       <c r="I94" s="71"/>
     </row>
-    <row r="95" spans="1:9" ht="51" thickBot="1">
-      <c r="A95" s="93"/>
-      <c r="B95" s="110"/>
-      <c r="C95" s="97" t="s">
-        <v>178</v>
-      </c>
-      <c r="D95" s="76" t="s">
+    <row r="95" spans="1:9">
+      <c r="A95" s="92"/>
+      <c r="B95" s="108"/>
+      <c r="C95" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D95" s="95" t="s">
         <v>159</v>
       </c>
-      <c r="E95" s="76"/>
-      <c r="F95" s="77"/>
+      <c r="E95" s="95"/>
+      <c r="F95" s="64"/>
       <c r="G95" s="67">
         <v>42088</v>
       </c>
       <c r="H95" s="67">
         <v>42088</v>
       </c>
-      <c r="I95" s="79"/>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="92"/>
-      <c r="B96" s="108" t="s">
-        <v>180</v>
-      </c>
-      <c r="C96" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="D96" s="98" t="s">
-        <v>153</v>
-      </c>
-      <c r="E96" s="98"/>
-      <c r="F96" s="64"/>
+      <c r="I95" s="71"/>
+    </row>
+    <row r="96" spans="1:9" ht="51" thickBot="1">
+      <c r="A96" s="93"/>
+      <c r="B96" s="109"/>
+      <c r="C96" s="97" t="s">
+        <v>178</v>
+      </c>
+      <c r="D96" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="E96" s="76"/>
+      <c r="F96" s="77"/>
       <c r="G96" s="67">
-        <v>42089</v>
+        <v>42088</v>
       </c>
       <c r="H96" s="67">
-        <v>42089</v>
-      </c>
-      <c r="I96" s="71"/>
+        <v>42088</v>
+      </c>
+      <c r="I96" s="79"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="92"/>
-      <c r="B97" s="109"/>
+      <c r="B97" s="107" t="s">
+        <v>180</v>
+      </c>
       <c r="C97" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D97" s="98" t="s">
         <v>153</v>
@@ -5846,9 +5866,9 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="92"/>
-      <c r="B98" s="109"/>
+      <c r="B98" s="108"/>
       <c r="C98" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D98" s="98" t="s">
         <v>153</v>
@@ -5865,12 +5885,12 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="92"/>
-      <c r="B99" s="109"/>
+      <c r="B99" s="108"/>
       <c r="C99" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D99" s="98" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E99" s="98"/>
       <c r="F99" s="64"/>
@@ -5884,9 +5904,9 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="92"/>
-      <c r="B100" s="109"/>
+      <c r="B100" s="108"/>
       <c r="C100" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D100" s="98" t="s">
         <v>159</v>
@@ -5901,51 +5921,51 @@
       </c>
       <c r="I100" s="71"/>
     </row>
-    <row r="101" spans="1:9" ht="16.95" customHeight="1" thickBot="1">
-      <c r="A101" s="93"/>
-      <c r="B101" s="110"/>
-      <c r="C101" s="97" t="s">
-        <v>186</v>
-      </c>
-      <c r="D101" s="76" t="s">
+    <row r="101" spans="1:9">
+      <c r="A101" s="92"/>
+      <c r="B101" s="108"/>
+      <c r="C101" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="D101" s="98" t="s">
         <v>159</v>
       </c>
-      <c r="E101" s="76"/>
-      <c r="F101" s="77"/>
+      <c r="E101" s="98"/>
+      <c r="F101" s="64"/>
       <c r="G101" s="67">
         <v>42089</v>
       </c>
       <c r="H101" s="67">
         <v>42089</v>
       </c>
-      <c r="I101" s="79"/>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="92"/>
-      <c r="B102" s="108" t="s">
-        <v>188</v>
-      </c>
-      <c r="C102" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="D102" s="99" t="s">
-        <v>153</v>
-      </c>
-      <c r="E102" s="99"/>
-      <c r="F102" s="64"/>
+      <c r="I101" s="71"/>
+    </row>
+    <row r="102" spans="1:9" ht="16.95" customHeight="1" thickBot="1">
+      <c r="A102" s="93"/>
+      <c r="B102" s="109"/>
+      <c r="C102" s="97" t="s">
+        <v>186</v>
+      </c>
+      <c r="D102" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="E102" s="76"/>
+      <c r="F102" s="77"/>
       <c r="G102" s="67">
-        <v>42090</v>
+        <v>42089</v>
       </c>
       <c r="H102" s="67">
-        <v>42090</v>
-      </c>
-      <c r="I102" s="71"/>
+        <v>42089</v>
+      </c>
+      <c r="I102" s="79"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="92"/>
-      <c r="B103" s="109"/>
+      <c r="B103" s="107" t="s">
+        <v>188</v>
+      </c>
       <c r="C103" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D103" s="99" t="s">
         <v>153</v>
@@ -5962,9 +5982,9 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="92"/>
-      <c r="B104" s="109"/>
+      <c r="B104" s="108"/>
       <c r="C104" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D104" s="99" t="s">
         <v>153</v>
@@ -5981,12 +6001,12 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="92"/>
-      <c r="B105" s="109"/>
+      <c r="B105" s="108"/>
       <c r="C105" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D105" s="99" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E105" s="99"/>
       <c r="F105" s="64"/>
@@ -6000,9 +6020,9 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="92"/>
-      <c r="B106" s="109"/>
+      <c r="B106" s="108"/>
       <c r="C106" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D106" s="99" t="s">
         <v>159</v>
@@ -6017,51 +6037,51 @@
       </c>
       <c r="I106" s="71"/>
     </row>
-    <row r="107" spans="1:9" ht="16.95" customHeight="1" thickBot="1">
-      <c r="A107" s="93"/>
-      <c r="B107" s="110"/>
-      <c r="C107" s="97" t="s">
-        <v>194</v>
-      </c>
-      <c r="D107" s="76" t="s">
+    <row r="107" spans="1:9">
+      <c r="A107" s="92"/>
+      <c r="B107" s="108"/>
+      <c r="C107" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="D107" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="E107" s="76"/>
-      <c r="F107" s="77"/>
+      <c r="E107" s="99"/>
+      <c r="F107" s="64"/>
       <c r="G107" s="67">
         <v>42090</v>
       </c>
       <c r="H107" s="67">
         <v>42090</v>
       </c>
-      <c r="I107" s="79"/>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="128"/>
-      <c r="B108" s="108" t="s">
+      <c r="I107" s="71"/>
+    </row>
+    <row r="108" spans="1:9" ht="16.95" customHeight="1" thickBot="1">
+      <c r="A108" s="93"/>
+      <c r="B108" s="109"/>
+      <c r="C108" s="97" t="s">
+        <v>194</v>
+      </c>
+      <c r="D108" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="E108" s="76"/>
+      <c r="F108" s="77"/>
+      <c r="G108" s="67">
+        <v>42090</v>
+      </c>
+      <c r="H108" s="67">
+        <v>42090</v>
+      </c>
+      <c r="I108" s="79"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="103"/>
+      <c r="B109" s="107" t="s">
         <v>203</v>
       </c>
-      <c r="C108" s="42" t="s">
+      <c r="C109" s="42" t="s">
         <v>204</v>
-      </c>
-      <c r="D108" s="101" t="s">
-        <v>205</v>
-      </c>
-      <c r="E108" s="101"/>
-      <c r="F108" s="64"/>
-      <c r="G108" s="67">
-        <v>42093</v>
-      </c>
-      <c r="H108" s="67">
-        <v>42093</v>
-      </c>
-      <c r="I108" s="71"/>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="92"/>
-      <c r="B109" s="109"/>
-      <c r="C109" s="42" t="s">
-        <v>206</v>
       </c>
       <c r="D109" s="101" t="s">
         <v>205</v>
@@ -6078,12 +6098,12 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="92"/>
-      <c r="B110" s="109"/>
+      <c r="B110" s="108"/>
       <c r="C110" s="42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D110" s="101" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="E110" s="101"/>
       <c r="F110" s="64"/>
@@ -6097,9 +6117,9 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="92"/>
-      <c r="B111" s="109"/>
+      <c r="B111" s="108"/>
       <c r="C111" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D111" s="101" t="s">
         <v>159</v>
@@ -6115,27 +6135,51 @@
       <c r="I111" s="71"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="93"/>
-      <c r="B112" s="110"/>
+      <c r="A112" s="92"/>
+      <c r="B112" s="108"/>
       <c r="C112" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="D112" s="129" t="s">
+        <v>208</v>
+      </c>
+      <c r="D112" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="E112" s="129"/>
-      <c r="F112" s="130"/>
+      <c r="E112" s="101"/>
+      <c r="F112" s="64"/>
       <c r="G112" s="67">
         <v>42093</v>
       </c>
       <c r="H112" s="67">
         <v>42093</v>
       </c>
-      <c r="I112" s="131"/>
+      <c r="I112" s="71"/>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="93"/>
+      <c r="B113" s="109"/>
+      <c r="C113" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="D113" s="104" t="s">
+        <v>159</v>
+      </c>
+      <c r="E113" s="104"/>
+      <c r="F113" s="105"/>
+      <c r="G113" s="67">
+        <v>42093</v>
+      </c>
+      <c r="H113" s="67">
+        <v>42093</v>
+      </c>
+      <c r="I113" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B108:B112"/>
+    <mergeCell ref="B97:B102"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="B109:B113"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A9:A22"/>
     <mergeCell ref="B9:B13"/>
@@ -6143,19 +6187,14 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B38:B42"/>
     <mergeCell ref="A26:A42"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="A45:A62"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="A45:A63"/>
     <mergeCell ref="B46:B51"/>
-    <mergeCell ref="B52:B62"/>
-    <mergeCell ref="A66:A78"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B96:B101"/>
-    <mergeCell ref="B78:B83"/>
-    <mergeCell ref="B90:B95"/>
-    <mergeCell ref="B84:B89"/>
-    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="B52:B63"/>
+    <mergeCell ref="A67:A79"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B74:B77"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6164,14 +6203,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="F80" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="F47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L95" sqref="L95"/>
+      <selection pane="bottomRight" activeCell="Q51" sqref="Q51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -7064,7 +7103,7 @@
       <c r="L41" s="82">
         <v>2</v>
       </c>
-      <c r="M41" s="82">
+      <c r="M41" s="22">
         <v>2</v>
       </c>
       <c r="N41" s="25"/>
@@ -7101,7 +7140,7 @@
       <c r="L42" s="82">
         <v>1</v>
       </c>
-      <c r="M42" s="82">
+      <c r="M42" s="22">
         <v>2</v>
       </c>
       <c r="N42" s="25"/>
@@ -7166,10 +7205,10 @@
       <c r="L44" s="82">
         <v>5</v>
       </c>
-      <c r="M44" s="82">
+      <c r="M44" s="22">
         <v>1</v>
       </c>
-      <c r="N44" s="82">
+      <c r="N44" s="22">
         <v>2</v>
       </c>
       <c r="O44" s="25"/>
@@ -7239,7 +7278,7 @@
       <c r="Q46" s="84"/>
       <c r="R46" s="84"/>
       <c r="T46" s="81">
-        <f t="shared" ref="T46:T49" si="5">SUM(E46:R46)</f>
+        <f t="shared" ref="T46:T50" si="5">SUM(E46:R46)</f>
         <v>2</v>
       </c>
     </row>
@@ -7356,89 +7395,91 @@
       <c r="N50" s="84"/>
       <c r="O50" s="84"/>
       <c r="P50" s="84"/>
-      <c r="Q50" s="84"/>
+      <c r="Q50" s="82">
+        <v>2</v>
+      </c>
       <c r="R50" s="84"/>
       <c r="T50" s="81">
-        <f t="shared" ref="T50" si="6">SUM(E50:R50)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="80" customFormat="1">
-      <c r="B51" s="27"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="T51" s="28"/>
-    </row>
-    <row r="52" spans="1:20">
-      <c r="A52" s="24" t="s">
+      <c r="B51" s="83">
+        <v>11</v>
+      </c>
+      <c r="C51" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="84"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="84"/>
+      <c r="J51" s="84"/>
+      <c r="K51" s="84"/>
+      <c r="L51" s="84"/>
+      <c r="M51" s="84"/>
+      <c r="N51" s="84"/>
+      <c r="O51" s="84"/>
+      <c r="P51" s="84"/>
+      <c r="Q51" s="82">
+        <v>6</v>
+      </c>
+      <c r="R51" s="84"/>
+      <c r="T51" s="81">
+        <f t="shared" ref="T51" si="6">SUM(E51:R51)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" s="80" customFormat="1">
+      <c r="B52" s="27"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="28"/>
+      <c r="T52" s="28"/>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
-      <c r="B53" s="20" t="s">
+    <row r="54" spans="1:20">
+      <c r="B54" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
-      <c r="B54" s="21">
+    <row r="55" spans="1:20">
+      <c r="B55" s="21">
         <v>1</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C55" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="19">
+      <c r="D55" s="25"/>
+      <c r="E55" s="19">
         <v>8</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F55" s="19">
         <v>8</v>
       </c>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="25"/>
-      <c r="P54" s="25"/>
-      <c r="Q54" s="25"/>
-      <c r="R54" s="25"/>
-      <c r="T54" s="3">
-        <f>SUM(E54:R54)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20">
-      <c r="B55" s="83">
-        <v>2</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="19">
-        <v>8</v>
-      </c>
+      <c r="G55" s="25"/>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
       <c r="J55" s="25"/>
@@ -7451,55 +7492,55 @@
       <c r="Q55" s="25"/>
       <c r="R55" s="25"/>
       <c r="T55" s="3">
-        <f t="shared" ref="T55:T61" si="7">SUM(E55:R55)</f>
+        <f>SUM(E55:R55)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="B56" s="83">
+        <v>2</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="19">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" s="80" customFormat="1">
-      <c r="B56" s="83">
-        <v>3</v>
-      </c>
-      <c r="C56" s="84" t="s">
-        <v>144</v>
-      </c>
-      <c r="D56" s="84"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="84"/>
-      <c r="H56" s="84"/>
-      <c r="I56" s="82">
-        <v>8</v>
-      </c>
-      <c r="J56" s="84"/>
-      <c r="K56" s="84"/>
-      <c r="L56" s="84"/>
-      <c r="M56" s="84"/>
-      <c r="N56" s="84"/>
-      <c r="O56" s="84"/>
-      <c r="P56" s="84"/>
-      <c r="Q56" s="84"/>
-      <c r="R56" s="84"/>
-      <c r="T56" s="81">
-        <f t="shared" ref="T56:T57" si="8">SUM(E56:R56)</f>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="25"/>
+      <c r="T56" s="3">
+        <f t="shared" ref="T56:T62" si="7">SUM(E56:R56)</f>
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="80" customFormat="1">
       <c r="B57" s="83">
-        <v>4</v>
-      </c>
-      <c r="C57" s="74">
-        <v>6.1</v>
+        <v>3</v>
+      </c>
+      <c r="C57" s="84" t="s">
+        <v>144</v>
       </c>
       <c r="D57" s="84"/>
       <c r="E57" s="84"/>
       <c r="F57" s="84"/>
       <c r="G57" s="84"/>
       <c r="H57" s="84"/>
-      <c r="I57" s="84"/>
-      <c r="J57" s="82">
-        <v>2</v>
-      </c>
+      <c r="I57" s="82">
+        <v>8</v>
+      </c>
+      <c r="J57" s="84"/>
       <c r="K57" s="84"/>
       <c r="L57" s="84"/>
       <c r="M57" s="84"/>
@@ -7509,13 +7550,13 @@
       <c r="Q57" s="84"/>
       <c r="R57" s="84"/>
       <c r="T57" s="81">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" ref="T57:T58" si="8">SUM(E57:R57)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:20" s="80" customFormat="1">
       <c r="B58" s="83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58" s="74">
         <v>6.1</v>
@@ -7538,71 +7579,71 @@
       <c r="Q58" s="84"/>
       <c r="R58" s="84"/>
       <c r="T58" s="81">
-        <f t="shared" ref="T58" si="9">SUM(E58:R58)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" s="80" customFormat="1">
       <c r="B59" s="83">
+        <v>5</v>
+      </c>
+      <c r="C59" s="74">
+        <v>6.1</v>
+      </c>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="84"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="84"/>
+      <c r="J59" s="82">
+        <v>2</v>
+      </c>
+      <c r="K59" s="84"/>
+      <c r="L59" s="84"/>
+      <c r="M59" s="84"/>
+      <c r="N59" s="84"/>
+      <c r="O59" s="84"/>
+      <c r="P59" s="84"/>
+      <c r="Q59" s="84"/>
+      <c r="R59" s="84"/>
+      <c r="T59" s="81">
+        <f t="shared" ref="T59" si="9">SUM(E59:R59)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="B60" s="83">
         <v>6</v>
       </c>
-      <c r="C59" s="74">
+      <c r="C60" s="74">
         <v>6.3</v>
       </c>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="19">
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="19">
         <v>4</v>
       </c>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="25"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="25"/>
-      <c r="R59" s="25"/>
-      <c r="T59" s="3">
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="25"/>
+      <c r="T60" s="3">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="80" customFormat="1">
-      <c r="B60" s="83">
-        <v>7</v>
-      </c>
-      <c r="C60" s="74">
-        <v>7.1</v>
-      </c>
-      <c r="D60" s="84"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="84"/>
-      <c r="H60" s="84"/>
-      <c r="I60" s="84"/>
-      <c r="J60" s="84"/>
-      <c r="K60" s="82">
-        <v>2</v>
-      </c>
-      <c r="L60" s="84"/>
-      <c r="M60" s="84"/>
-      <c r="N60" s="84"/>
-      <c r="O60" s="84"/>
-      <c r="P60" s="84"/>
-      <c r="Q60" s="84"/>
-      <c r="R60" s="84"/>
-      <c r="T60" s="81">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
     <row r="61" spans="1:20" s="80" customFormat="1">
       <c r="B61" s="83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" s="74">
         <v>7.1</v>
@@ -7615,7 +7656,7 @@
       <c r="I61" s="84"/>
       <c r="J61" s="84"/>
       <c r="K61" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L61" s="84"/>
       <c r="M61" s="84"/>
@@ -7626,15 +7667,15 @@
       <c r="R61" s="84"/>
       <c r="T61" s="81">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:20" s="80" customFormat="1">
       <c r="B62" s="83">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C62" s="74">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="D62" s="84"/>
       <c r="E62" s="84"/>
@@ -7644,7 +7685,7 @@
       <c r="I62" s="84"/>
       <c r="J62" s="84"/>
       <c r="K62" s="82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L62" s="84"/>
       <c r="M62" s="84"/>
@@ -7654,16 +7695,16 @@
       <c r="Q62" s="84"/>
       <c r="R62" s="84"/>
       <c r="T62" s="81">
-        <f t="shared" ref="T62:T64" si="10">SUM(E62:R62)</f>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="80" customFormat="1">
       <c r="B63" s="83">
-        <v>10</v>
-      </c>
-      <c r="C63" s="42" t="s">
-        <v>173</v>
+        <v>9</v>
+      </c>
+      <c r="C63" s="74">
+        <v>7.3</v>
       </c>
       <c r="D63" s="84"/>
       <c r="E63" s="84"/>
@@ -7672,10 +7713,10 @@
       <c r="H63" s="84"/>
       <c r="I63" s="84"/>
       <c r="J63" s="84"/>
-      <c r="K63" s="84"/>
-      <c r="L63" s="82">
-        <v>2</v>
-      </c>
+      <c r="K63" s="82">
+        <v>5</v>
+      </c>
+      <c r="L63" s="84"/>
       <c r="M63" s="84"/>
       <c r="N63" s="84"/>
       <c r="O63" s="84"/>
@@ -7683,16 +7724,16 @@
       <c r="Q63" s="84"/>
       <c r="R63" s="84"/>
       <c r="T63" s="81">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" ref="T63:T65" si="10">SUM(E63:R63)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:20" s="80" customFormat="1">
       <c r="B64" s="83">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D64" s="84"/>
       <c r="E64" s="84"/>
@@ -7703,7 +7744,7 @@
       <c r="J64" s="84"/>
       <c r="K64" s="84"/>
       <c r="L64" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M64" s="84"/>
       <c r="N64" s="84"/>
@@ -7713,15 +7754,15 @@
       <c r="R64" s="84"/>
       <c r="T64" s="81">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:20" s="80" customFormat="1">
       <c r="B65" s="83">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D65" s="84"/>
       <c r="E65" s="84"/>
@@ -7732,7 +7773,7 @@
       <c r="J65" s="84"/>
       <c r="K65" s="84"/>
       <c r="L65" s="82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M65" s="84"/>
       <c r="N65" s="84"/>
@@ -7741,16 +7782,16 @@
       <c r="Q65" s="84"/>
       <c r="R65" s="84"/>
       <c r="T65" s="81">
-        <f t="shared" ref="T65:T67" si="11">SUM(E65:R65)</f>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:20" s="80" customFormat="1">
       <c r="B66" s="83">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D66" s="84"/>
       <c r="E66" s="84"/>
@@ -7760,26 +7801,26 @@
       <c r="I66" s="84"/>
       <c r="J66" s="84"/>
       <c r="K66" s="84"/>
-      <c r="L66" s="84"/>
-      <c r="M66" s="82">
-        <v>2</v>
-      </c>
+      <c r="L66" s="82">
+        <v>5</v>
+      </c>
+      <c r="M66" s="84"/>
       <c r="N66" s="84"/>
       <c r="O66" s="84"/>
       <c r="P66" s="84"/>
       <c r="Q66" s="84"/>
       <c r="R66" s="84"/>
       <c r="T66" s="81">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" ref="T66:T68" si="11">SUM(E66:R66)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:20" s="80" customFormat="1">
       <c r="B67" s="83">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C67" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D67" s="84"/>
       <c r="E67" s="84"/>
@@ -7791,7 +7832,7 @@
       <c r="K67" s="84"/>
       <c r="L67" s="84"/>
       <c r="M67" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N67" s="84"/>
       <c r="O67" s="84"/>
@@ -7800,15 +7841,15 @@
       <c r="R67" s="84"/>
       <c r="T67" s="81">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:20" s="80" customFormat="1">
       <c r="B68" s="83">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D68" s="84"/>
       <c r="E68" s="84"/>
@@ -7820,7 +7861,7 @@
       <c r="K68" s="84"/>
       <c r="L68" s="84"/>
       <c r="M68" s="82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N68" s="84"/>
       <c r="O68" s="84"/>
@@ -7828,16 +7869,16 @@
       <c r="Q68" s="84"/>
       <c r="R68" s="84"/>
       <c r="T68" s="81">
-        <f t="shared" ref="T68:T70" si="12">SUM(E68:R68)</f>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:20" s="80" customFormat="1">
       <c r="B69" s="83">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D69" s="84"/>
       <c r="E69" s="84"/>
@@ -7848,25 +7889,25 @@
       <c r="J69" s="84"/>
       <c r="K69" s="84"/>
       <c r="L69" s="84"/>
-      <c r="M69" s="84"/>
-      <c r="N69" s="82">
-        <v>2</v>
-      </c>
+      <c r="M69" s="82">
+        <v>5</v>
+      </c>
+      <c r="N69" s="84"/>
       <c r="O69" s="84"/>
       <c r="P69" s="84"/>
       <c r="Q69" s="84"/>
       <c r="R69" s="84"/>
       <c r="T69" s="81">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" ref="T69:T71" si="12">SUM(E69:R69)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:20" s="80" customFormat="1">
       <c r="B70" s="83">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D70" s="84"/>
       <c r="E70" s="84"/>
@@ -7879,7 +7920,7 @@
       <c r="L70" s="84"/>
       <c r="M70" s="84"/>
       <c r="N70" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O70" s="84"/>
       <c r="P70" s="84"/>
@@ -7887,15 +7928,15 @@
       <c r="R70" s="84"/>
       <c r="T70" s="81">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:20" s="80" customFormat="1">
       <c r="B71" s="83">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D71" s="84"/>
       <c r="E71" s="84"/>
@@ -7915,16 +7956,16 @@
       <c r="Q71" s="84"/>
       <c r="R71" s="84"/>
       <c r="T71" s="81">
-        <f t="shared" ref="T71:T72" si="13">SUM(E71:R71)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:20" s="80" customFormat="1">
       <c r="B72" s="83">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D72" s="84"/>
       <c r="E72" s="84"/>
@@ -7936,24 +7977,24 @@
       <c r="K72" s="84"/>
       <c r="L72" s="84"/>
       <c r="M72" s="84"/>
-      <c r="N72" s="84"/>
+      <c r="N72" s="82">
+        <v>4</v>
+      </c>
       <c r="O72" s="84"/>
       <c r="P72" s="84"/>
-      <c r="Q72" s="82">
-        <v>4</v>
-      </c>
+      <c r="Q72" s="84"/>
       <c r="R72" s="84"/>
       <c r="T72" s="81">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="T72:T73" si="13">SUM(E72:R72)</f>
         <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:20" s="80" customFormat="1">
       <c r="B73" s="83">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D73" s="84"/>
       <c r="E73" s="84"/>
@@ -7973,70 +8014,70 @@
       </c>
       <c r="R73" s="84"/>
       <c r="T73" s="81">
-        <f t="shared" ref="T73" si="14">SUM(E73:R73)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
-      <c r="A75" s="24" t="s">
+    <row r="74" spans="1:20" s="80" customFormat="1">
+      <c r="B74" s="83">
+        <v>17</v>
+      </c>
+      <c r="C74" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" s="84"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="84"/>
+      <c r="G74" s="84"/>
+      <c r="H74" s="84"/>
+      <c r="I74" s="84"/>
+      <c r="J74" s="84"/>
+      <c r="K74" s="84"/>
+      <c r="L74" s="84"/>
+      <c r="M74" s="84"/>
+      <c r="N74" s="84"/>
+      <c r="O74" s="84"/>
+      <c r="P74" s="84"/>
+      <c r="Q74" s="82">
+        <v>4</v>
+      </c>
+      <c r="R74" s="84"/>
+      <c r="T74" s="81">
+        <f t="shared" ref="T74" si="14">SUM(E74:R74)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="A76" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
-      <c r="B76" s="20" t="s">
+    <row r="77" spans="1:20">
+      <c r="B77" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
-      <c r="B77" s="21">
+    <row r="78" spans="1:20">
+      <c r="B78" s="21">
         <v>1</v>
       </c>
-      <c r="C77" s="25" t="s">
+      <c r="C78" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="D77" s="25"/>
-      <c r="E77" s="19">
+      <c r="D78" s="25"/>
+      <c r="E78" s="19">
         <v>8</v>
       </c>
-      <c r="F77" s="19">
+      <c r="F78" s="19">
         <v>8</v>
       </c>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="25"/>
-      <c r="M77" s="25"/>
-      <c r="N77" s="25"/>
-      <c r="O77" s="25"/>
-      <c r="P77" s="25"/>
-      <c r="Q77" s="25"/>
-      <c r="R77" s="25"/>
-      <c r="T77" s="3">
-        <f t="shared" ref="T77:T81" si="15">SUM(E77:R77)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20">
-      <c r="B78" s="83">
-        <v>2</v>
-      </c>
-      <c r="C78" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="19">
-        <v>8</v>
-      </c>
+      <c r="G78" s="25"/>
       <c r="H78" s="25"/>
       <c r="I78" s="25"/>
-      <c r="J78" s="84"/>
+      <c r="J78" s="25"/>
       <c r="K78" s="25"/>
       <c r="L78" s="25"/>
       <c r="M78" s="25"/>
@@ -8046,42 +8087,45 @@
       <c r="Q78" s="25"/>
       <c r="R78" s="25"/>
       <c r="T78" s="3">
+        <f t="shared" ref="T78:T82" si="15">SUM(E78:R78)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="B79" s="83">
+        <v>2</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="19">
+        <v>8</v>
+      </c>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="84"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="25"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="25"/>
+      <c r="O79" s="25"/>
+      <c r="P79" s="25"/>
+      <c r="Q79" s="25"/>
+      <c r="R79" s="25"/>
+      <c r="T79" s="3">
         <f t="shared" si="15"/>
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:20" s="80" customFormat="1">
-      <c r="B79" s="83">
-        <v>3</v>
-      </c>
-      <c r="C79" s="74">
-        <v>6.4</v>
-      </c>
-      <c r="D79" s="84"/>
-      <c r="E79" s="84"/>
-      <c r="F79" s="84"/>
-      <c r="G79" s="84"/>
-      <c r="H79" s="84"/>
-      <c r="I79" s="84"/>
-      <c r="J79" s="82">
-        <v>2</v>
-      </c>
-      <c r="K79" s="84"/>
-      <c r="L79" s="84"/>
-      <c r="M79" s="84"/>
-      <c r="N79" s="84"/>
-      <c r="O79" s="84"/>
-      <c r="P79" s="84"/>
-      <c r="Q79" s="84"/>
-      <c r="R79" s="84"/>
-      <c r="T79" s="81"/>
-    </row>
     <row r="80" spans="1:20" s="80" customFormat="1">
       <c r="B80" s="83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80" s="74">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D80" s="84"/>
       <c r="E80" s="84"/>
@@ -8090,7 +8134,7 @@
       <c r="H80" s="84"/>
       <c r="I80" s="84"/>
       <c r="J80" s="82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K80" s="84"/>
       <c r="L80" s="84"/>
@@ -8102,67 +8146,67 @@
       <c r="R80" s="84"/>
       <c r="T80" s="81"/>
     </row>
-    <row r="81" spans="2:20">
+    <row r="81" spans="2:20" s="80" customFormat="1">
       <c r="B81" s="83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C81" s="74">
-        <v>6.6</v>
-      </c>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
+        <v>6.5</v>
+      </c>
+      <c r="D81" s="84"/>
+      <c r="E81" s="84"/>
+      <c r="F81" s="84"/>
+      <c r="G81" s="84"/>
+      <c r="H81" s="84"/>
+      <c r="I81" s="84"/>
       <c r="J81" s="82">
         <v>3</v>
       </c>
-      <c r="K81" s="25"/>
-      <c r="L81" s="25"/>
-      <c r="M81" s="25"/>
-      <c r="N81" s="25"/>
-      <c r="O81" s="25"/>
-      <c r="P81" s="25"/>
-      <c r="Q81" s="25"/>
-      <c r="R81" s="25"/>
-      <c r="T81" s="3">
+      <c r="K81" s="84"/>
+      <c r="L81" s="84"/>
+      <c r="M81" s="84"/>
+      <c r="N81" s="84"/>
+      <c r="O81" s="84"/>
+      <c r="P81" s="84"/>
+      <c r="Q81" s="84"/>
+      <c r="R81" s="84"/>
+      <c r="T81" s="81"/>
+    </row>
+    <row r="82" spans="2:20">
+      <c r="B82" s="83">
+        <v>5</v>
+      </c>
+      <c r="C82" s="74">
+        <v>6.6</v>
+      </c>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="82">
+        <v>3</v>
+      </c>
+      <c r="K82" s="25"/>
+      <c r="L82" s="25"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="25"/>
+      <c r="Q82" s="25"/>
+      <c r="R82" s="25"/>
+      <c r="T82" s="3">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:20" s="80" customFormat="1">
-      <c r="B82" s="83">
-        <v>6</v>
-      </c>
-      <c r="C82" s="74">
-        <v>7.4</v>
-      </c>
-      <c r="D82" s="84"/>
-      <c r="E82" s="84"/>
-      <c r="F82" s="84"/>
-      <c r="G82" s="84"/>
-      <c r="H82" s="84"/>
-      <c r="I82" s="84"/>
-      <c r="J82" s="84"/>
-      <c r="K82" s="82">
-        <v>2</v>
-      </c>
-      <c r="L82" s="84"/>
-      <c r="M82" s="84"/>
-      <c r="N82" s="84"/>
-      <c r="O82" s="84"/>
-      <c r="P82" s="84"/>
-      <c r="Q82" s="84"/>
-      <c r="R82" s="84"/>
-      <c r="T82" s="81"/>
-    </row>
     <row r="83" spans="2:20" s="80" customFormat="1">
       <c r="B83" s="83">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83" s="74">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="D83" s="84"/>
       <c r="E83" s="84"/>
@@ -8172,7 +8216,7 @@
       <c r="I83" s="84"/>
       <c r="J83" s="84"/>
       <c r="K83" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L83" s="84"/>
       <c r="M83" s="84"/>
@@ -8185,10 +8229,10 @@
     </row>
     <row r="84" spans="2:20" s="80" customFormat="1">
       <c r="B84" s="83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" s="74">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="D84" s="84"/>
       <c r="E84" s="84"/>
@@ -8198,7 +8242,7 @@
       <c r="I84" s="84"/>
       <c r="J84" s="84"/>
       <c r="K84" s="82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L84" s="84"/>
       <c r="M84" s="84"/>
@@ -8207,17 +8251,14 @@
       <c r="P84" s="84"/>
       <c r="Q84" s="84"/>
       <c r="R84" s="84"/>
-      <c r="T84" s="81">
-        <f t="shared" ref="T84" si="16">SUM(E84:R84)</f>
-        <v>5</v>
-      </c>
+      <c r="T84" s="81"/>
     </row>
     <row r="85" spans="2:20" s="80" customFormat="1">
       <c r="B85" s="83">
-        <v>9</v>
-      </c>
-      <c r="C85" s="42" t="s">
-        <v>176</v>
+        <v>8</v>
+      </c>
+      <c r="C85" s="74">
+        <v>7.6</v>
       </c>
       <c r="D85" s="84"/>
       <c r="E85" s="84"/>
@@ -8226,24 +8267,27 @@
       <c r="H85" s="84"/>
       <c r="I85" s="84"/>
       <c r="J85" s="84"/>
-      <c r="K85" s="84"/>
-      <c r="L85" s="82">
-        <v>2</v>
-      </c>
+      <c r="K85" s="82">
+        <v>5</v>
+      </c>
+      <c r="L85" s="84"/>
       <c r="M85" s="84"/>
       <c r="N85" s="84"/>
       <c r="O85" s="84"/>
       <c r="P85" s="84"/>
       <c r="Q85" s="84"/>
       <c r="R85" s="84"/>
-      <c r="T85" s="81"/>
+      <c r="T85" s="81">
+        <f t="shared" ref="T85" si="16">SUM(E85:R85)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="86" spans="2:20" s="80" customFormat="1">
       <c r="B86" s="83">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C86" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D86" s="84"/>
       <c r="E86" s="84"/>
@@ -8254,7 +8298,7 @@
       <c r="J86" s="84"/>
       <c r="K86" s="84"/>
       <c r="L86" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M86" s="84"/>
       <c r="N86" s="84"/>
@@ -8264,12 +8308,12 @@
       <c r="R86" s="84"/>
       <c r="T86" s="81"/>
     </row>
-    <row r="87" spans="2:20" s="80" customFormat="1" ht="13.8" thickBot="1">
+    <row r="87" spans="2:20" s="80" customFormat="1">
       <c r="B87" s="83">
-        <v>11</v>
-      </c>
-      <c r="C87" s="76" t="s">
-        <v>178</v>
+        <v>10</v>
+      </c>
+      <c r="C87" s="42" t="s">
+        <v>177</v>
       </c>
       <c r="D87" s="84"/>
       <c r="E87" s="84"/>
@@ -8280,7 +8324,7 @@
       <c r="J87" s="84"/>
       <c r="K87" s="84"/>
       <c r="L87" s="82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M87" s="84"/>
       <c r="N87" s="84"/>
@@ -8288,17 +8332,14 @@
       <c r="P87" s="84"/>
       <c r="Q87" s="84"/>
       <c r="R87" s="84"/>
-      <c r="T87" s="81">
-        <f t="shared" ref="T87" si="17">SUM(E87:R87)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="2:20" s="80" customFormat="1">
+      <c r="T87" s="81"/>
+    </row>
+    <row r="88" spans="2:20" s="80" customFormat="1" ht="13.8" thickBot="1">
       <c r="B88" s="83">
-        <v>12</v>
-      </c>
-      <c r="C88" s="42" t="s">
-        <v>184</v>
+        <v>11</v>
+      </c>
+      <c r="C88" s="76" t="s">
+        <v>178</v>
       </c>
       <c r="D88" s="84"/>
       <c r="E88" s="84"/>
@@ -8308,23 +8349,26 @@
       <c r="I88" s="84"/>
       <c r="J88" s="84"/>
       <c r="K88" s="84"/>
-      <c r="L88" s="84"/>
-      <c r="M88" s="82">
-        <v>2</v>
-      </c>
+      <c r="L88" s="82">
+        <v>5</v>
+      </c>
+      <c r="M88" s="84"/>
       <c r="N88" s="84"/>
       <c r="O88" s="84"/>
       <c r="P88" s="84"/>
       <c r="Q88" s="84"/>
       <c r="R88" s="84"/>
-      <c r="T88" s="81"/>
+      <c r="T88" s="81">
+        <f t="shared" ref="T88" si="17">SUM(E88:R88)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="89" spans="2:20" s="80" customFormat="1">
       <c r="B89" s="83">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C89" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D89" s="84"/>
       <c r="E89" s="84"/>
@@ -8336,7 +8380,7 @@
       <c r="K89" s="84"/>
       <c r="L89" s="84"/>
       <c r="M89" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N89" s="84"/>
       <c r="O89" s="84"/>
@@ -8345,12 +8389,12 @@
       <c r="R89" s="84"/>
       <c r="T89" s="81"/>
     </row>
-    <row r="90" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
+    <row r="90" spans="2:20" s="80" customFormat="1">
       <c r="B90" s="83">
-        <v>14</v>
-      </c>
-      <c r="C90" s="97" t="s">
-        <v>186</v>
+        <v>13</v>
+      </c>
+      <c r="C90" s="42" t="s">
+        <v>185</v>
       </c>
       <c r="D90" s="84"/>
       <c r="E90" s="84"/>
@@ -8362,24 +8406,21 @@
       <c r="K90" s="84"/>
       <c r="L90" s="84"/>
       <c r="M90" s="82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N90" s="84"/>
       <c r="O90" s="84"/>
       <c r="P90" s="84"/>
       <c r="Q90" s="84"/>
       <c r="R90" s="84"/>
-      <c r="T90" s="81">
-        <f t="shared" ref="T90" si="18">SUM(E90:R90)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="2:20" s="80" customFormat="1">
+      <c r="T90" s="81"/>
+    </row>
+    <row r="91" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="B91" s="83">
-        <v>12</v>
-      </c>
-      <c r="C91" s="42" t="s">
-        <v>192</v>
+        <v>14</v>
+      </c>
+      <c r="C91" s="97" t="s">
+        <v>186</v>
       </c>
       <c r="D91" s="84"/>
       <c r="E91" s="84"/>
@@ -8390,22 +8431,25 @@
       <c r="J91" s="84"/>
       <c r="K91" s="84"/>
       <c r="L91" s="84"/>
-      <c r="M91" s="84"/>
-      <c r="N91" s="82">
-        <v>2</v>
-      </c>
+      <c r="M91" s="82">
+        <v>5</v>
+      </c>
+      <c r="N91" s="84"/>
       <c r="O91" s="84"/>
       <c r="P91" s="84"/>
       <c r="Q91" s="84"/>
       <c r="R91" s="84"/>
-      <c r="T91" s="81"/>
+      <c r="T91" s="81">
+        <f t="shared" ref="T91" si="18">SUM(E91:R91)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="92" spans="2:20" s="80" customFormat="1">
       <c r="B92" s="83">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C92" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D92" s="84"/>
       <c r="E92" s="84"/>
@@ -8418,7 +8462,7 @@
       <c r="L92" s="84"/>
       <c r="M92" s="84"/>
       <c r="N92" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O92" s="84"/>
       <c r="P92" s="84"/>
@@ -8426,12 +8470,12 @@
       <c r="R92" s="84"/>
       <c r="T92" s="81"/>
     </row>
-    <row r="93" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
+    <row r="93" spans="2:20" s="80" customFormat="1">
       <c r="B93" s="83">
-        <v>14</v>
-      </c>
-      <c r="C93" s="97" t="s">
-        <v>194</v>
+        <v>13</v>
+      </c>
+      <c r="C93" s="42" t="s">
+        <v>193</v>
       </c>
       <c r="D93" s="84"/>
       <c r="E93" s="84"/>
@@ -8444,23 +8488,20 @@
       <c r="L93" s="84"/>
       <c r="M93" s="84"/>
       <c r="N93" s="82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O93" s="84"/>
       <c r="P93" s="84"/>
       <c r="Q93" s="84"/>
       <c r="R93" s="84"/>
-      <c r="T93" s="81">
-        <f t="shared" ref="T93" si="19">SUM(E93:R93)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="2:20" s="80" customFormat="1">
+      <c r="T93" s="81"/>
+    </row>
+    <row r="94" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="B94" s="83">
-        <v>15</v>
-      </c>
-      <c r="C94" s="42" t="s">
-        <v>207</v>
+        <v>14</v>
+      </c>
+      <c r="C94" s="97" t="s">
+        <v>194</v>
       </c>
       <c r="D94" s="84"/>
       <c r="E94" s="84"/>
@@ -8472,21 +8513,24 @@
       <c r="K94" s="84"/>
       <c r="L94" s="84"/>
       <c r="M94" s="84"/>
-      <c r="N94" s="84"/>
+      <c r="N94" s="82">
+        <v>2</v>
+      </c>
       <c r="O94" s="84"/>
       <c r="P94" s="84"/>
-      <c r="Q94" s="82">
+      <c r="Q94" s="84"/>
+      <c r="R94" s="84"/>
+      <c r="T94" s="81">
+        <f t="shared" ref="T94" si="19">SUM(E94:R94)</f>
         <v>2</v>
       </c>
-      <c r="R94" s="84"/>
-      <c r="T94" s="81"/>
     </row>
     <row r="95" spans="2:20" s="80" customFormat="1">
       <c r="B95" s="83">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C95" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D95" s="84"/>
       <c r="E95" s="84"/>
@@ -8507,12 +8551,12 @@
       <c r="R95" s="84"/>
       <c r="T95" s="81"/>
     </row>
-    <row r="96" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1">
+    <row r="96" spans="2:20" s="80" customFormat="1">
       <c r="B96" s="83">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C96" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D96" s="84"/>
       <c r="E96" s="84"/>
@@ -8528,11 +8572,37 @@
       <c r="O96" s="84"/>
       <c r="P96" s="84"/>
       <c r="Q96" s="82">
+        <v>2</v>
+      </c>
+      <c r="R96" s="84"/>
+      <c r="T96" s="81"/>
+    </row>
+    <row r="97" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1">
+      <c r="B97" s="83">
+        <v>17</v>
+      </c>
+      <c r="C97" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="D97" s="84"/>
+      <c r="E97" s="84"/>
+      <c r="F97" s="84"/>
+      <c r="G97" s="84"/>
+      <c r="H97" s="84"/>
+      <c r="I97" s="84"/>
+      <c r="J97" s="84"/>
+      <c r="K97" s="84"/>
+      <c r="L97" s="84"/>
+      <c r="M97" s="84"/>
+      <c r="N97" s="84"/>
+      <c r="O97" s="84"/>
+      <c r="P97" s="84"/>
+      <c r="Q97" s="82">
         <v>4</v>
       </c>
-      <c r="R96" s="84"/>
-      <c r="T96" s="81">
-        <f t="shared" ref="T96" si="20">SUM(E96:R96)</f>
+      <c r="R97" s="84"/>
+      <c r="T97" s="81">
+        <f t="shared" ref="T97" si="20">SUM(E97:R97)</f>
         <v>4</v>
       </c>
     </row>

--- a/docs/Listing_Tool_Status_Report_v1.0.xlsx
+++ b/docs/Listing_Tool_Status_Report_v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5352" yWindow="-360" windowWidth="16608" windowHeight="9432" activeTab="1"/>
+    <workbookView xWindow="5355" yWindow="-360" windowWidth="16605" windowHeight="9435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="215">
   <si>
     <t>Project Name:</t>
   </si>
@@ -631,9 +631,6 @@
     <t>4.2 Create Merchant account and Link adwords accounts</t>
   </si>
   <si>
-    <t>此处无官方例子，需要从学习所有API，测试</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.3 Create a new campaign </t>
   </si>
   <si>
@@ -2386,6 +2383,21 @@
       <t>交易异常的场景处理</t>
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>此处无官方例子，需要学习所有API，测试</t>
+  </si>
+  <si>
+    <t>6.选择remarketing方案</t>
+  </si>
+  <si>
+    <t>6.1 调查仅限广告网络类型为什么没有再营销选项</t>
+  </si>
+  <si>
+    <t>6.2 验证Feed上传数据可行性</t>
+  </si>
+  <si>
+    <t>6.3 验证自定议广告可行性</t>
   </si>
 </sst>
 </file>
@@ -2393,7 +2405,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -2405,7 +2417,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2468,7 +2480,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3046,7 +3058,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3090,7 +3102,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3312,6 +3324,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3321,6 +3336,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3339,21 +3372,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3387,15 +3405,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="1"/>
     <cellStyle name="Normal 3 2" xfId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3411,7 +3444,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3701,15 +3734,15 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13.8" thickBot="1"/>
+    <row r="1" spans="2:10" ht="13.5" thickBot="1"/>
     <row r="2" spans="2:10">
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -3721,7 +3754,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="2:10" ht="31.8">
+    <row r="3" spans="2:10" ht="33">
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
         <v>0</v>
@@ -3961,7 +3994,7 @@
       <c r="I20" s="11"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="2:10" ht="13.8" thickBot="1">
+    <row r="21" spans="2:10" ht="13.5" thickBot="1">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -3981,24 +4014,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43:C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="39" style="52" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" style="53" customWidth="1"/>
-    <col min="3" max="3" width="54.109375" style="52" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="68" customWidth="1"/>
-    <col min="7" max="8" width="11.5546875" style="52" customWidth="1"/>
-    <col min="9" max="9" width="38.44140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="33"/>
+    <col min="2" max="2" width="41.85546875" style="53" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="52" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="68" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" style="52" customWidth="1"/>
+    <col min="9" max="9" width="38.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4030,7 +4063,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.8" thickBot="1">
+    <row r="2" spans="1:9" ht="13.5" thickBot="1">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="34"/>
@@ -4041,8 +4074,8 @@
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
     </row>
-    <row r="3" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A3" s="110" t="s">
+    <row r="3" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A3" s="117" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="37" t="s">
@@ -4062,8 +4095,8 @@
       </c>
       <c r="I3" s="41"/>
     </row>
-    <row r="4" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A4" s="111"/>
+    <row r="4" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A4" s="118"/>
       <c r="B4" s="42" t="s">
         <v>41</v>
       </c>
@@ -4081,8 +4114,8 @@
       </c>
       <c r="I4" s="46"/>
     </row>
-    <row r="5" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A5" s="112"/>
+    <row r="5" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A5" s="119"/>
       <c r="B5" s="47" t="s">
         <v>42</v>
       </c>
@@ -4098,7 +4131,7 @@
       <c r="H5" s="48"/>
       <c r="I5" s="51"/>
     </row>
-    <row r="6" spans="1:9" ht="13.8" thickBot="1">
+    <row r="6" spans="1:9" ht="13.5" thickBot="1">
       <c r="D6" s="54" t="s">
         <v>43</v>
       </c>
@@ -4110,25 +4143,25 @@
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
     </row>
-    <row r="7" spans="1:9" ht="13.8" thickTop="1">
+    <row r="7" spans="1:9" ht="13.5" thickTop="1">
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
       <c r="F7" s="57"/>
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
     </row>
-    <row r="8" spans="1:9" ht="13.8" thickBot="1">
+    <row r="8" spans="1:9" ht="13.5" thickBot="1">
       <c r="D8" s="54"/>
       <c r="E8" s="54"/>
       <c r="F8" s="57"/>
       <c r="G8" s="56"/>
       <c r="H8" s="56"/>
     </row>
-    <row r="9" spans="1:9" ht="26.7" customHeight="1">
-      <c r="A9" s="110" t="s">
+    <row r="9" spans="1:9" ht="26.65" customHeight="1">
+      <c r="A9" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="120" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="58" t="s">
@@ -4149,9 +4182,9 @@
       </c>
       <c r="I9" s="41"/>
     </row>
-    <row r="10" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A10" s="111"/>
-      <c r="B10" s="114"/>
+    <row r="10" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A10" s="118"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="59" t="s">
         <v>47</v>
       </c>
@@ -4170,9 +4203,9 @@
       </c>
       <c r="I10" s="62"/>
     </row>
-    <row r="11" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A11" s="111"/>
-      <c r="B11" s="114"/>
+    <row r="11" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A11" s="118"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="43" t="s">
         <v>49</v>
       </c>
@@ -4191,9 +4224,9 @@
       </c>
       <c r="I11" s="46"/>
     </row>
-    <row r="12" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A12" s="111"/>
-      <c r="B12" s="114"/>
+    <row r="12" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A12" s="118"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="63" t="s">
         <v>50</v>
       </c>
@@ -4212,9 +4245,9 @@
       </c>
       <c r="I12" s="65"/>
     </row>
-    <row r="13" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A13" s="111"/>
-      <c r="B13" s="115"/>
+    <row r="13" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A13" s="118"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="63" t="s">
         <v>52</v>
       </c>
@@ -4231,9 +4264,9 @@
       </c>
       <c r="I13" s="65"/>
     </row>
-    <row r="14" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A14" s="111"/>
-      <c r="B14" s="116" t="s">
+    <row r="14" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A14" s="118"/>
+      <c r="B14" s="111" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="63" t="s">
@@ -4254,9 +4287,9 @@
       </c>
       <c r="I14" s="65"/>
     </row>
-    <row r="15" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A15" s="111"/>
-      <c r="B15" s="117"/>
+    <row r="15" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A15" s="118"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="63" t="s">
         <v>55</v>
       </c>
@@ -4275,9 +4308,9 @@
       </c>
       <c r="I15" s="65"/>
     </row>
-    <row r="16" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A16" s="111"/>
-      <c r="B16" s="117"/>
+    <row r="16" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A16" s="118"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="63" t="s">
         <v>57</v>
       </c>
@@ -4296,9 +4329,9 @@
       </c>
       <c r="I16" s="65"/>
     </row>
-    <row r="17" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A17" s="111"/>
-      <c r="B17" s="117"/>
+    <row r="17" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A17" s="118"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="63" t="s">
         <v>59</v>
       </c>
@@ -4317,9 +4350,9 @@
       </c>
       <c r="I17" s="65"/>
     </row>
-    <row r="18" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A18" s="111"/>
-      <c r="B18" s="117"/>
+    <row r="18" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A18" s="118"/>
+      <c r="B18" s="112"/>
       <c r="C18" s="63" t="s">
         <v>60</v>
       </c>
@@ -4338,9 +4371,9 @@
       </c>
       <c r="I18" s="65"/>
     </row>
-    <row r="19" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A19" s="111"/>
-      <c r="B19" s="117"/>
+    <row r="19" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A19" s="118"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="63" t="s">
         <v>61</v>
       </c>
@@ -4359,9 +4392,9 @@
       </c>
       <c r="I19" s="65"/>
     </row>
-    <row r="20" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A20" s="111"/>
-      <c r="B20" s="117"/>
+    <row r="20" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A20" s="118"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="63" t="s">
         <v>62</v>
       </c>
@@ -4380,11 +4413,11 @@
       </c>
       <c r="I20" s="65"/>
     </row>
-    <row r="21" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A21" s="111"/>
-      <c r="B21" s="117"/>
+    <row r="21" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A21" s="118"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D21" s="90" t="s">
         <v>40</v>
@@ -4399,11 +4432,11 @@
       </c>
       <c r="I21" s="65"/>
     </row>
-    <row r="22" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A22" s="112"/>
-      <c r="B22" s="118"/>
+    <row r="22" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A22" s="119"/>
+      <c r="B22" s="113"/>
       <c r="C22" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>40</v>
@@ -4418,7 +4451,7 @@
       </c>
       <c r="I22" s="51"/>
     </row>
-    <row r="23" spans="1:9" ht="13.8" thickBot="1">
+    <row r="23" spans="1:9" ht="13.5" thickBot="1">
       <c r="D23" s="54" t="s">
         <v>43</v>
       </c>
@@ -4430,22 +4463,22 @@
       <c r="G23" s="56"/>
       <c r="H23" s="56"/>
     </row>
-    <row r="24" spans="1:9" ht="13.8" thickTop="1">
+    <row r="24" spans="1:9" ht="13.5" thickTop="1">
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
       <c r="F24" s="57"/>
       <c r="G24" s="56"/>
       <c r="H24" s="56"/>
     </row>
-    <row r="25" spans="1:9" ht="13.8" thickBot="1">
+    <row r="25" spans="1:9" ht="13.5" thickBot="1">
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
       <c r="F25" s="57"/>
       <c r="G25" s="56"/>
       <c r="H25" s="56"/>
     </row>
-    <row r="26" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A26" s="125" t="s">
+    <row r="26" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A26" s="127" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="37" t="s">
@@ -4467,8 +4500,8 @@
       </c>
       <c r="I26" s="41"/>
     </row>
-    <row r="27" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A27" s="126"/>
+    <row r="27" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A27" s="128"/>
       <c r="B27" s="42" t="s">
         <v>66</v>
       </c>
@@ -4488,9 +4521,9 @@
       </c>
       <c r="I27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A28" s="126"/>
-      <c r="B28" s="119" t="s">
+    <row r="28" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A28" s="128"/>
+      <c r="B28" s="114" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="63" t="s">
@@ -4511,9 +4544,9 @@
       </c>
       <c r="I28" s="65"/>
     </row>
-    <row r="29" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A29" s="126"/>
-      <c r="B29" s="120"/>
+    <row r="29" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A29" s="128"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="63" t="s">
         <v>70</v>
       </c>
@@ -4532,9 +4565,9 @@
       </c>
       <c r="I29" s="65"/>
     </row>
-    <row r="30" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A30" s="126"/>
-      <c r="B30" s="121"/>
+    <row r="30" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A30" s="128"/>
+      <c r="B30" s="123"/>
       <c r="C30" s="63" t="s">
         <v>72</v>
       </c>
@@ -4553,10 +4586,10 @@
       </c>
       <c r="I30" s="65"/>
     </row>
-    <row r="31" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A31" s="126"/>
-      <c r="B31" s="119" t="s">
-        <v>127</v>
+    <row r="31" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A31" s="128"/>
+      <c r="B31" s="114" t="s">
+        <v>126</v>
       </c>
       <c r="C31" s="70" t="s">
         <v>118</v>
@@ -4576,9 +4609,9 @@
       </c>
       <c r="I31" s="65"/>
     </row>
-    <row r="32" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A32" s="126"/>
-      <c r="B32" s="120"/>
+    <row r="32" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A32" s="128"/>
+      <c r="B32" s="115"/>
       <c r="C32" s="70" t="s">
         <v>120</v>
       </c>
@@ -4594,14 +4627,14 @@
         <v>42083</v>
       </c>
       <c r="I32" s="72" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A33" s="128"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="70" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A33" s="126"/>
-      <c r="B33" s="120"/>
-      <c r="C33" s="70" t="s">
-        <v>122</v>
       </c>
       <c r="D33" s="70" t="s">
         <v>119</v>
@@ -4617,14 +4650,14 @@
         <v>42083</v>
       </c>
       <c r="I33" s="72" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A34" s="126"/>
-      <c r="B34" s="120"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A34" s="128"/>
+      <c r="B34" s="115"/>
       <c r="C34" s="70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D34" s="70" t="s">
         <v>119</v>
@@ -4638,14 +4671,14 @@
         <v>42083</v>
       </c>
       <c r="I34" s="72" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A35" s="126"/>
-      <c r="B35" s="120"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A35" s="128"/>
+      <c r="B35" s="115"/>
       <c r="C35" s="70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D35" s="70" t="s">
         <v>119</v>
@@ -4659,14 +4692,14 @@
         <v>42083</v>
       </c>
       <c r="I35" s="72" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A36" s="126"/>
-      <c r="B36" s="120"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A36" s="128"/>
+      <c r="B36" s="115"/>
       <c r="C36" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D36" s="70" t="s">
         <v>119</v>
@@ -4680,14 +4713,14 @@
         <v>42083</v>
       </c>
       <c r="I36" s="72" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A37" s="126"/>
-      <c r="B37" s="132"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A37" s="128"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D37" s="73" t="s">
         <v>119</v>
@@ -4702,13 +4735,13 @@
       </c>
       <c r="I37" s="51"/>
     </row>
-    <row r="38" spans="1:9" ht="13.65" customHeight="1">
-      <c r="A38" s="126"/>
-      <c r="B38" s="122" t="s">
-        <v>168</v>
+    <row r="38" spans="1:9" ht="13.7" customHeight="1">
+      <c r="A38" s="128"/>
+      <c r="B38" s="124" t="s">
+        <v>167</v>
       </c>
       <c r="C38" s="70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D38" s="70" t="s">
         <v>119</v>
@@ -4725,11 +4758,11 @@
       </c>
       <c r="I38" s="70"/>
     </row>
-    <row r="39" spans="1:9" ht="13.65" customHeight="1">
-      <c r="A39" s="126"/>
-      <c r="B39" s="123"/>
+    <row r="39" spans="1:9" ht="13.7" customHeight="1">
+      <c r="A39" s="128"/>
+      <c r="B39" s="125"/>
       <c r="C39" s="70" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D39" s="70" t="s">
         <v>119</v>
@@ -4746,11 +4779,11 @@
       </c>
       <c r="I39" s="70"/>
     </row>
-    <row r="40" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A40" s="126"/>
-      <c r="B40" s="123"/>
+    <row r="40" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A40" s="128"/>
+      <c r="B40" s="125"/>
       <c r="C40" s="73" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D40" s="73" t="s">
         <v>119</v>
@@ -4767,11 +4800,11 @@
       </c>
       <c r="I40" s="51"/>
     </row>
-    <row r="41" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A41" s="126"/>
-      <c r="B41" s="123"/>
+    <row r="41" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A41" s="128"/>
+      <c r="B41" s="125"/>
       <c r="C41" s="73" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D41" s="73" t="s">
         <v>119</v>
@@ -4788,18 +4821,18 @@
       </c>
       <c r="I41" s="51"/>
     </row>
-    <row r="42" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A42" s="127"/>
-      <c r="B42" s="124"/>
+    <row r="42" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A42" s="128"/>
+      <c r="B42" s="126"/>
       <c r="C42" s="73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D42" s="73" t="s">
         <v>119</v>
       </c>
       <c r="E42" s="76"/>
       <c r="F42" s="77">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G42" s="78">
         <v>42090</v>
@@ -4809,146 +4842,149 @@
       </c>
       <c r="I42" s="51"/>
     </row>
-    <row r="43" spans="1:9">
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-    </row>
-    <row r="44" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="110" t="s">
+    <row r="43" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A43" s="128"/>
+      <c r="B43" s="124" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="76"/>
+      <c r="F43" s="77">
+        <v>9</v>
+      </c>
+      <c r="G43" s="78">
+        <v>42094</v>
+      </c>
+      <c r="H43" s="138">
+        <v>42096</v>
+      </c>
+      <c r="I43" s="51"/>
+    </row>
+    <row r="44" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A44" s="128"/>
+      <c r="B44" s="125"/>
+      <c r="C44" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="76"/>
+      <c r="F44" s="77">
+        <v>4</v>
+      </c>
+      <c r="G44" s="78">
+        <v>42094</v>
+      </c>
+      <c r="H44" s="138">
+        <v>42096</v>
+      </c>
+      <c r="I44" s="51"/>
+    </row>
+    <row r="45" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A45" s="129"/>
+      <c r="B45" s="126"/>
+      <c r="C45" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" s="76"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="78">
+        <v>42094</v>
+      </c>
+      <c r="H45" s="138">
+        <v>42096</v>
+      </c>
+      <c r="I45" s="51"/>
+    </row>
+    <row r="46" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A46" s="107"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="135"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="134"/>
+      <c r="F46" s="136"/>
+      <c r="G46" s="137"/>
+      <c r="H46" s="139"/>
+      <c r="I46" s="134"/>
+    </row>
+    <row r="47" spans="1:9" ht="13.5" thickBot="1">
+      <c r="D47" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="54"/>
+      <c r="F47" s="55">
+        <f>SUM(F26:F42)</f>
+        <v>81</v>
+      </c>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+    </row>
+    <row r="48" spans="1:9" ht="14.25" thickTop="1" thickBot="1">
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B49" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38" t="s">
+      <c r="C49" s="38"/>
+      <c r="D49" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E45" s="38"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="40">
+      <c r="E49" s="38"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="40">
         <v>42079</v>
       </c>
-      <c r="H45" s="40">
+      <c r="H49" s="40">
         <v>42083</v>
       </c>
-      <c r="I45" s="41"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="111"/>
-      <c r="B46" s="116" t="s">
+      <c r="I49" s="41"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="118"/>
+      <c r="B50" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="69" t="s">
+      <c r="C50" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="43" t="s">
+      <c r="D50" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="43"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="67">
-        <v>42079</v>
-      </c>
-      <c r="H46" s="45">
-        <v>42083</v>
-      </c>
-      <c r="I46" s="46"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="111"/>
-      <c r="B47" s="117"/>
-      <c r="C47" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="E47" s="63"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="67">
-        <v>42079</v>
-      </c>
-      <c r="H47" s="45">
-        <v>42083</v>
-      </c>
-      <c r="I47" s="65"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="111"/>
-      <c r="B48" s="117"/>
-      <c r="C48" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" s="63"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="67">
-        <v>42079</v>
-      </c>
-      <c r="H48" s="45">
-        <v>42083</v>
-      </c>
-      <c r="I48" s="65"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="111"/>
-      <c r="B49" s="117"/>
-      <c r="C49" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="D49" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="E49" s="63"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="67">
-        <v>42079</v>
-      </c>
-      <c r="H49" s="45">
-        <v>42083</v>
-      </c>
-      <c r="I49" s="65"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="111"/>
-      <c r="B50" s="117"/>
-      <c r="C50" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="E50" s="63"/>
-      <c r="F50" s="64"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="44"/>
       <c r="G50" s="67">
         <v>42079</v>
       </c>
       <c r="H50" s="45">
         <v>42083</v>
       </c>
-      <c r="I50" s="65"/>
+      <c r="I50" s="46"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="111"/>
-      <c r="B51" s="128"/>
+      <c r="A51" s="118"/>
+      <c r="B51" s="112"/>
       <c r="C51" s="63" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D51" s="43" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E51" s="63"/>
       <c r="F51" s="64"/>
@@ -4961,21 +4997,16 @@
       <c r="I51" s="65"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="111"/>
-      <c r="B52" s="116" t="s">
-        <v>87</v>
-      </c>
+      <c r="A52" s="118"/>
+      <c r="B52" s="112"/>
       <c r="C52" s="63" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E52" s="63"/>
-      <c r="F52" s="64">
-        <f>'March 2015'!T41</f>
-        <v>9</v>
-      </c>
+      <c r="F52" s="64"/>
       <c r="G52" s="67">
         <v>42079</v>
       </c>
@@ -4985,19 +5016,16 @@
       <c r="I52" s="65"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="111"/>
-      <c r="B53" s="117"/>
-      <c r="C53" s="70" t="s">
-        <v>90</v>
+      <c r="A53" s="118"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="63" t="s">
+        <v>81</v>
       </c>
       <c r="D53" s="43" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E53" s="63"/>
-      <c r="F53" s="64">
-        <f>'March 2015'!T42</f>
-        <v>15</v>
-      </c>
+      <c r="F53" s="64"/>
       <c r="G53" s="67">
         <v>42079</v>
       </c>
@@ -5007,19 +5035,16 @@
       <c r="I53" s="65"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="111"/>
-      <c r="B54" s="117"/>
+      <c r="A54" s="118"/>
+      <c r="B54" s="112"/>
       <c r="C54" s="63" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D54" s="43" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E54" s="63"/>
-      <c r="F54" s="64">
-        <f>'March 2015'!T43</f>
-        <v>2</v>
-      </c>
+      <c r="F54" s="64"/>
       <c r="G54" s="67">
         <v>42079</v>
       </c>
@@ -5029,39 +5054,38 @@
       <c r="I54" s="65"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="111"/>
-      <c r="B55" s="117"/>
-      <c r="C55" s="70" t="s">
-        <v>93</v>
+      <c r="A55" s="118"/>
+      <c r="B55" s="130"/>
+      <c r="C55" s="63" t="s">
+        <v>85</v>
       </c>
       <c r="D55" s="43" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E55" s="63"/>
-      <c r="F55" s="64">
-        <f>'March 2015'!T44</f>
-        <v>25</v>
-      </c>
+      <c r="F55" s="64"/>
       <c r="G55" s="67">
         <v>42079</v>
       </c>
       <c r="H55" s="45">
         <v>42083</v>
       </c>
-      <c r="I55" s="71"/>
+      <c r="I55" s="65"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="111"/>
-      <c r="B56" s="117"/>
-      <c r="C56" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="D56" s="63" t="s">
-        <v>95</v>
+      <c r="A56" s="118"/>
+      <c r="B56" s="111" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="43" t="s">
+        <v>89</v>
       </c>
       <c r="E56" s="63"/>
       <c r="F56" s="64">
-        <f>'March 2015'!T45</f>
+        <f>'March 2015'!T43</f>
         <v>9</v>
       </c>
       <c r="G56" s="67">
@@ -5073,18 +5097,18 @@
       <c r="I56" s="65"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="111"/>
-      <c r="B57" s="117"/>
+      <c r="A57" s="118"/>
+      <c r="B57" s="112"/>
       <c r="C57" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" s="100" t="s">
-        <v>95</v>
-      </c>
-      <c r="E57" s="100"/>
+        <v>90</v>
+      </c>
+      <c r="D57" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="63"/>
       <c r="F57" s="64">
-        <f>'March 2015'!T46</f>
-        <v>2</v>
+        <f>'March 2015'!T44</f>
+        <v>15</v>
       </c>
       <c r="G57" s="67">
         <v>42079</v>
@@ -5092,270 +5116,272 @@
       <c r="H57" s="45">
         <v>42083</v>
       </c>
-      <c r="I57" s="71"/>
-    </row>
-    <row r="58" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A58" s="111"/>
-      <c r="B58" s="117"/>
-      <c r="C58" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="D58" s="100" t="s">
+      <c r="I57" s="65"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="118"/>
+      <c r="B58" s="112"/>
+      <c r="C58" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="63"/>
+      <c r="F58" s="64">
+        <f>'March 2015'!T45</f>
+        <v>2</v>
+      </c>
+      <c r="G58" s="67">
+        <v>42079</v>
+      </c>
+      <c r="H58" s="45">
+        <v>42083</v>
+      </c>
+      <c r="I58" s="65"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="118"/>
+      <c r="B59" s="112"/>
+      <c r="C59" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="63"/>
+      <c r="F59" s="64">
+        <f>'March 2015'!T46</f>
+        <v>25</v>
+      </c>
+      <c r="G59" s="67">
+        <v>42079</v>
+      </c>
+      <c r="H59" s="45">
+        <v>42083</v>
+      </c>
+      <c r="I59" s="71"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="118"/>
+      <c r="B60" s="112"/>
+      <c r="C60" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="E58" s="100"/>
-      <c r="F58" s="64">
+      <c r="E60" s="63"/>
+      <c r="F60" s="64">
         <f>'March 2015'!T47</f>
-        <v>5</v>
-      </c>
-      <c r="G58" s="78">
+        <v>9</v>
+      </c>
+      <c r="G60" s="67">
         <v>42079</v>
       </c>
-      <c r="H58" s="45">
-        <v>42084</v>
-      </c>
-      <c r="I58" s="71"/>
-    </row>
-    <row r="59" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A59" s="111"/>
-      <c r="B59" s="117"/>
-      <c r="C59" s="70" t="s">
-        <v>200</v>
-      </c>
-      <c r="D59" s="100" t="s">
-        <v>95</v>
-      </c>
-      <c r="E59" s="100"/>
-      <c r="F59" s="64">
-        <f>'March 2015'!T48</f>
-        <v>3</v>
-      </c>
-      <c r="G59" s="78">
-        <v>42080</v>
-      </c>
-      <c r="H59" s="45">
-        <v>42085</v>
-      </c>
-      <c r="I59" s="71"/>
-    </row>
-    <row r="60" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A60" s="111"/>
-      <c r="B60" s="117"/>
-      <c r="C60" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="D60" s="100" t="s">
-        <v>95</v>
-      </c>
-      <c r="E60" s="100"/>
-      <c r="F60" s="64">
-        <f>'March 2015'!T49</f>
-        <v>2</v>
-      </c>
-      <c r="G60" s="78">
-        <v>42081</v>
-      </c>
       <c r="H60" s="45">
-        <v>42086</v>
-      </c>
-      <c r="I60" s="71"/>
-    </row>
-    <row r="61" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A61" s="111"/>
-      <c r="B61" s="117"/>
+        <v>42083</v>
+      </c>
+      <c r="I60" s="65"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="118"/>
+      <c r="B61" s="112"/>
       <c r="C61" s="70" t="s">
-        <v>202</v>
+        <v>96</v>
       </c>
       <c r="D61" s="100" t="s">
         <v>95</v>
       </c>
       <c r="E61" s="100"/>
       <c r="F61" s="64">
+        <f>'March 2015'!T48</f>
+        <v>2</v>
+      </c>
+      <c r="G61" s="67">
+        <v>42079</v>
+      </c>
+      <c r="H61" s="45">
+        <v>42083</v>
+      </c>
+      <c r="I61" s="71"/>
+    </row>
+    <row r="62" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A62" s="118"/>
+      <c r="B62" s="112"/>
+      <c r="C62" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="D62" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="100"/>
+      <c r="F62" s="64">
+        <f>'March 2015'!T49</f>
+        <v>5</v>
+      </c>
+      <c r="G62" s="78">
+        <v>42079</v>
+      </c>
+      <c r="H62" s="45">
+        <v>42084</v>
+      </c>
+      <c r="I62" s="71"/>
+    </row>
+    <row r="63" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A63" s="118"/>
+      <c r="B63" s="112"/>
+      <c r="C63" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="D63" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" s="100"/>
+      <c r="F63" s="64">
         <f>'March 2015'!T50</f>
+        <v>3</v>
+      </c>
+      <c r="G63" s="78">
+        <v>42080</v>
+      </c>
+      <c r="H63" s="45">
+        <v>42085</v>
+      </c>
+      <c r="I63" s="71"/>
+    </row>
+    <row r="64" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A64" s="118"/>
+      <c r="B64" s="112"/>
+      <c r="C64" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" s="100"/>
+      <c r="F64" s="64">
+        <f>'March 2015'!T51</f>
         <v>2</v>
       </c>
-      <c r="G61" s="78">
+      <c r="G64" s="78">
+        <v>42081</v>
+      </c>
+      <c r="H64" s="45">
+        <v>42086</v>
+      </c>
+      <c r="I64" s="71"/>
+    </row>
+    <row r="65" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A65" s="118"/>
+      <c r="B65" s="112"/>
+      <c r="C65" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="D65" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" s="100"/>
+      <c r="F65" s="64">
+        <f>'March 2015'!T52</f>
+        <v>2</v>
+      </c>
+      <c r="G65" s="78">
         <v>42087</v>
       </c>
-      <c r="H61" s="45">
+      <c r="H65" s="45">
         <v>42090</v>
       </c>
-      <c r="I61" s="71"/>
-    </row>
-    <row r="62" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A62" s="111"/>
-      <c r="B62" s="117"/>
-      <c r="C62" s="70" t="s">
-        <v>210</v>
-      </c>
-      <c r="D62" s="102" t="s">
+      <c r="I65" s="71"/>
+    </row>
+    <row r="66" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A66" s="118"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="D66" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="E62" s="102"/>
-      <c r="F62" s="64">
-        <f>'March 2015'!T51</f>
+      <c r="E66" s="102"/>
+      <c r="F66" s="64">
+        <f>'March 2015'!T53</f>
         <v>6</v>
       </c>
-      <c r="G62" s="78">
+      <c r="G66" s="78">
         <v>42093</v>
       </c>
-      <c r="H62" s="45">
+      <c r="H66" s="45">
         <v>42093</v>
       </c>
-      <c r="I62" s="71"/>
-    </row>
-    <row r="63" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A63" s="112"/>
-      <c r="B63" s="118"/>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73" t="s">
+      <c r="I66" s="71"/>
+    </row>
+    <row r="67" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A67" s="119"/>
+      <c r="B67" s="113"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="E63" s="48"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="50">
+      <c r="E67" s="48"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="50">
         <v>42093</v>
       </c>
-      <c r="H63" s="50">
+      <c r="H67" s="50">
         <v>42095</v>
       </c>
-      <c r="I63" s="51"/>
-    </row>
-    <row r="64" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D64" s="54" t="s">
+      <c r="I67" s="51"/>
+    </row>
+    <row r="68" spans="1:9" ht="13.5" thickBot="1">
+      <c r="D68" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E64" s="54"/>
-      <c r="F64" s="55">
-        <f>SUM(F45:F63)</f>
+      <c r="E68" s="54"/>
+      <c r="F68" s="55">
+        <f>SUM(F49:F67)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="13.8" thickTop="1"/>
-    <row r="66" spans="1:9" ht="13.8" thickBot="1"/>
-    <row r="67" spans="1:9">
-      <c r="A67" s="129" t="s">
+    <row r="69" spans="1:9" ht="13.5" thickTop="1"/>
+    <row r="70" spans="1:9" ht="13.5" thickBot="1"/>
+    <row r="71" spans="1:9">
+      <c r="A71" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="B67" s="130" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" s="38" t="s">
+      <c r="B71" s="132" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D67" s="38" t="s">
+      <c r="D71" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="E67" s="38"/>
-      <c r="F67" s="39">
+      <c r="E71" s="38"/>
+      <c r="F71" s="39">
         <v>15</v>
       </c>
-      <c r="G67" s="40">
+      <c r="G71" s="40">
         <v>42079</v>
       </c>
-      <c r="H67" s="40">
+      <c r="H71" s="40">
         <v>42083</v>
       </c>
-      <c r="I67" s="41"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="111"/>
-      <c r="B68" s="131"/>
-      <c r="C68" s="59" t="s">
+      <c r="I71" s="41"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="118"/>
+      <c r="B72" s="133"/>
+      <c r="C72" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="D68" s="59" t="s">
+      <c r="D72" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="E68" s="59"/>
-      <c r="F68" s="60">
+      <c r="E72" s="59"/>
+      <c r="F72" s="60">
         <v>5</v>
-      </c>
-      <c r="G68" s="67">
-        <v>42079</v>
-      </c>
-      <c r="H68" s="45">
-        <v>42083</v>
-      </c>
-      <c r="I68" s="62"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="111"/>
-      <c r="B69" s="116" t="s">
-        <v>138</v>
-      </c>
-      <c r="C69" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="D69" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="E69" s="43"/>
-      <c r="F69" s="44">
-        <v>2</v>
-      </c>
-      <c r="G69" s="67">
-        <v>42079</v>
-      </c>
-      <c r="H69" s="45">
-        <v>42083</v>
-      </c>
-      <c r="I69" s="46"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="111"/>
-      <c r="B70" s="117"/>
-      <c r="C70" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="D70" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="E70" s="63"/>
-      <c r="F70" s="64">
-        <v>2</v>
-      </c>
-      <c r="G70" s="67">
-        <v>42079</v>
-      </c>
-      <c r="H70" s="45">
-        <v>42083</v>
-      </c>
-      <c r="I70" s="65"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="111"/>
-      <c r="B71" s="117"/>
-      <c r="C71" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="D71" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="E71" s="63"/>
-      <c r="F71" s="64">
-        <v>2</v>
-      </c>
-      <c r="G71" s="67">
-        <v>42079</v>
-      </c>
-      <c r="H71" s="45">
-        <v>42083</v>
-      </c>
-      <c r="I71" s="65"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="111"/>
-      <c r="B72" s="128"/>
-      <c r="C72" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="D72" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="E72" s="63"/>
-      <c r="F72" s="64">
-        <v>2</v>
       </c>
       <c r="G72" s="67">
         <v>42079</v>
@@ -5363,19 +5389,21 @@
       <c r="H72" s="45">
         <v>42083</v>
       </c>
-      <c r="I72" s="65"/>
+      <c r="I72" s="62"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="111"/>
-      <c r="B73" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C73" s="63"/>
+      <c r="A73" s="118"/>
+      <c r="B73" s="111" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" s="43" t="s">
+        <v>102</v>
+      </c>
       <c r="D73" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="E73" s="63"/>
-      <c r="F73" s="64">
+        <v>101</v>
+      </c>
+      <c r="E73" s="43"/>
+      <c r="F73" s="44">
         <v>2</v>
       </c>
       <c r="G73" s="67">
@@ -5384,22 +5412,20 @@
       <c r="H73" s="45">
         <v>42083</v>
       </c>
-      <c r="I73" s="65"/>
+      <c r="I73" s="46"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="111"/>
-      <c r="B74" s="116" t="s">
-        <v>142</v>
-      </c>
+      <c r="A74" s="118"/>
+      <c r="B74" s="112"/>
       <c r="C74" s="63" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D74" s="43" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E74" s="63"/>
       <c r="F74" s="64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G74" s="67">
         <v>42079</v>
@@ -5410,17 +5436,17 @@
       <c r="I74" s="65"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="111"/>
-      <c r="B75" s="117"/>
+      <c r="A75" s="118"/>
+      <c r="B75" s="112"/>
       <c r="C75" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="D75" s="63" t="s">
-        <v>101</v>
+        <v>105</v>
+      </c>
+      <c r="D75" s="43" t="s">
+        <v>106</v>
       </c>
       <c r="E75" s="63"/>
       <c r="F75" s="64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G75" s="67">
         <v>42079</v>
@@ -5431,17 +5457,17 @@
       <c r="I75" s="65"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="111"/>
-      <c r="B76" s="117"/>
+      <c r="A76" s="118"/>
+      <c r="B76" s="130"/>
       <c r="C76" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="D76" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" s="43" t="s">
         <v>101</v>
       </c>
       <c r="E76" s="63"/>
       <c r="F76" s="64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G76" s="67">
         <v>42079</v>
@@ -5452,17 +5478,17 @@
       <c r="I76" s="65"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="111"/>
-      <c r="B77" s="128"/>
-      <c r="C77" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="D77" s="63" t="s">
-        <v>101</v>
+      <c r="A77" s="118"/>
+      <c r="B77" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" s="63"/>
+      <c r="D77" s="43" t="s">
+        <v>108</v>
       </c>
       <c r="E77" s="63"/>
       <c r="F77" s="64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G77" s="67">
         <v>42079</v>
@@ -5470,117 +5496,127 @@
       <c r="H77" s="45">
         <v>42083</v>
       </c>
-      <c r="I77" s="71"/>
+      <c r="I77" s="65"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="111"/>
-      <c r="B78" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C78" s="42"/>
-      <c r="D78" s="75" t="s">
-        <v>153</v>
-      </c>
-      <c r="E78" s="75" t="s">
+      <c r="A78" s="118"/>
+      <c r="B78" s="111" t="s">
+        <v>141</v>
+      </c>
+      <c r="C78" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="D78" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="E78" s="63"/>
+      <c r="F78" s="64">
+        <v>3</v>
+      </c>
+      <c r="G78" s="67">
+        <v>42079</v>
+      </c>
+      <c r="H78" s="45">
+        <v>42083</v>
+      </c>
+      <c r="I78" s="65"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="118"/>
+      <c r="B79" s="112"/>
+      <c r="C79" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="E79" s="63"/>
+      <c r="F79" s="64">
+        <v>5</v>
+      </c>
+      <c r="G79" s="67">
+        <v>42079</v>
+      </c>
+      <c r="H79" s="45">
+        <v>42083</v>
+      </c>
+      <c r="I79" s="65"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="118"/>
+      <c r="B80" s="112"/>
+      <c r="C80" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="D80" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="E80" s="63"/>
+      <c r="F80" s="64">
+        <v>3</v>
+      </c>
+      <c r="G80" s="67">
+        <v>42079</v>
+      </c>
+      <c r="H80" s="45">
+        <v>42083</v>
+      </c>
+      <c r="I80" s="65"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="118"/>
+      <c r="B81" s="130"/>
+      <c r="C81" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D81" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="E81" s="63"/>
+      <c r="F81" s="64">
+        <v>3</v>
+      </c>
+      <c r="G81" s="67">
+        <v>42079</v>
+      </c>
+      <c r="H81" s="45">
+        <v>42083</v>
+      </c>
+      <c r="I81" s="71"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="118"/>
+      <c r="B82" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" s="42"/>
+      <c r="D82" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="E82" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="F78" s="64"/>
-      <c r="G78" s="67">
-        <v>42082</v>
-      </c>
-      <c r="H78" s="45">
-        <v>42088</v>
-      </c>
-      <c r="I78" s="71" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A79" s="112"/>
-      <c r="B79" s="116" t="s">
-        <v>145</v>
-      </c>
-      <c r="C79" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="D79" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="E79" s="75"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="67">
-        <v>42086</v>
-      </c>
-      <c r="H79" s="45">
-        <v>42086</v>
-      </c>
-      <c r="I79" s="71"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="91"/>
-      <c r="B80" s="117"/>
-      <c r="C80" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="D80" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="E80" s="75"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="67">
-        <v>42086</v>
-      </c>
-      <c r="H80" s="45">
-        <v>42086</v>
-      </c>
-      <c r="I80" s="71"/>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="92"/>
-      <c r="B81" s="117"/>
-      <c r="C81" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="D81" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="E81" s="75"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="67">
-        <v>42086</v>
-      </c>
-      <c r="H81" s="45">
-        <v>42086</v>
-      </c>
-      <c r="I81" s="71"/>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="92"/>
-      <c r="B82" s="117"/>
-      <c r="C82" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="D82" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="E82" s="75"/>
       <c r="F82" s="64"/>
       <c r="G82" s="67">
-        <v>42086</v>
+        <v>42082</v>
       </c>
       <c r="H82" s="45">
-        <v>42086</v>
-      </c>
-      <c r="I82" s="71"/>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="92"/>
-      <c r="B83" s="117"/>
+        <v>42088</v>
+      </c>
+      <c r="I82" s="71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A83" s="119"/>
+      <c r="B83" s="111" t="s">
+        <v>144</v>
+      </c>
       <c r="C83" s="42" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D83" s="75" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="E83" s="75"/>
       <c r="F83" s="64"/>
@@ -5592,111 +5628,111 @@
       </c>
       <c r="I83" s="71"/>
     </row>
-    <row r="84" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A84" s="92"/>
-      <c r="B84" s="118"/>
-      <c r="C84" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="D84" s="76" t="s">
-        <v>152</v>
-      </c>
-      <c r="E84" s="76"/>
-      <c r="F84" s="77"/>
-      <c r="G84" s="78">
+    <row r="84" spans="1:9">
+      <c r="A84" s="91"/>
+      <c r="B84" s="112"/>
+      <c r="C84" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D84" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="E84" s="75"/>
+      <c r="F84" s="64"/>
+      <c r="G84" s="67">
         <v>42086</v>
       </c>
-      <c r="H84" s="78">
+      <c r="H84" s="45">
         <v>42086</v>
       </c>
-      <c r="I84" s="79"/>
+      <c r="I84" s="71"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="92"/>
-      <c r="B85" s="107" t="s">
-        <v>163</v>
-      </c>
+      <c r="B85" s="112"/>
       <c r="C85" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="D85" s="89" t="s">
-        <v>158</v>
-      </c>
-      <c r="E85" s="89"/>
+        <v>149</v>
+      </c>
+      <c r="D85" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="E85" s="75"/>
       <c r="F85" s="64"/>
       <c r="G85" s="67">
-        <v>42087</v>
-      </c>
-      <c r="H85" s="67">
-        <v>42087</v>
+        <v>42086</v>
+      </c>
+      <c r="H85" s="45">
+        <v>42086</v>
       </c>
       <c r="I85" s="71"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="92"/>
-      <c r="B86" s="108"/>
+      <c r="B86" s="112"/>
       <c r="C86" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="D86" s="89" t="s">
-        <v>158</v>
-      </c>
-      <c r="E86" s="89"/>
+        <v>147</v>
+      </c>
+      <c r="D86" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="E86" s="75"/>
       <c r="F86" s="64"/>
       <c r="G86" s="67">
-        <v>42087</v>
-      </c>
-      <c r="H86" s="67">
-        <v>42087</v>
+        <v>42086</v>
+      </c>
+      <c r="H86" s="45">
+        <v>42086</v>
       </c>
       <c r="I86" s="71"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="92"/>
-      <c r="B87" s="108"/>
+      <c r="B87" s="112"/>
       <c r="C87" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="D87" s="89" t="s">
-        <v>158</v>
-      </c>
-      <c r="E87" s="89"/>
+        <v>150</v>
+      </c>
+      <c r="D87" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="E87" s="75"/>
       <c r="F87" s="64"/>
       <c r="G87" s="67">
-        <v>42087</v>
-      </c>
-      <c r="H87" s="67">
-        <v>42087</v>
+        <v>42086</v>
+      </c>
+      <c r="H87" s="45">
+        <v>42086</v>
       </c>
       <c r="I87" s="71"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" ht="13.5" thickBot="1">
       <c r="A88" s="92"/>
-      <c r="B88" s="108"/>
-      <c r="C88" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="D88" s="89" t="s">
-        <v>159</v>
-      </c>
-      <c r="E88" s="89"/>
-      <c r="F88" s="64"/>
-      <c r="G88" s="67">
-        <v>42087</v>
-      </c>
-      <c r="H88" s="67">
-        <v>42087</v>
-      </c>
-      <c r="I88" s="71"/>
+      <c r="B88" s="113"/>
+      <c r="C88" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D88" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="E88" s="76"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="78">
+        <v>42086</v>
+      </c>
+      <c r="H88" s="78">
+        <v>42086</v>
+      </c>
+      <c r="I88" s="79"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="92"/>
-      <c r="B89" s="108"/>
+      <c r="B89" s="108" t="s">
+        <v>162</v>
+      </c>
       <c r="C89" s="42" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D89" s="89" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E89" s="89"/>
       <c r="F89" s="64"/>
@@ -5708,111 +5744,111 @@
       </c>
       <c r="I89" s="71"/>
     </row>
-    <row r="90" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A90" s="93"/>
+    <row r="90" spans="1:9">
+      <c r="A90" s="92"/>
       <c r="B90" s="109"/>
-      <c r="C90" s="76" t="s">
-        <v>162</v>
-      </c>
-      <c r="D90" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="E90" s="76"/>
-      <c r="F90" s="77"/>
+      <c r="C90" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D90" s="89" t="s">
+        <v>157</v>
+      </c>
+      <c r="E90" s="89"/>
+      <c r="F90" s="64"/>
       <c r="G90" s="67">
         <v>42087</v>
       </c>
       <c r="H90" s="67">
         <v>42087</v>
       </c>
-      <c r="I90" s="79"/>
+      <c r="I90" s="71"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="92"/>
-      <c r="B91" s="107" t="s">
-        <v>172</v>
-      </c>
+      <c r="B91" s="109"/>
       <c r="C91" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="D91" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="E91" s="95"/>
+        <v>156</v>
+      </c>
+      <c r="D91" s="89" t="s">
+        <v>157</v>
+      </c>
+      <c r="E91" s="89"/>
       <c r="F91" s="64"/>
       <c r="G91" s="67">
-        <v>42088</v>
+        <v>42087</v>
       </c>
       <c r="H91" s="67">
-        <v>42088</v>
+        <v>42087</v>
       </c>
       <c r="I91" s="71"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="92"/>
-      <c r="B92" s="108"/>
+      <c r="B92" s="109"/>
       <c r="C92" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="D92" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="E92" s="95"/>
+        <v>159</v>
+      </c>
+      <c r="D92" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="E92" s="89"/>
       <c r="F92" s="64"/>
       <c r="G92" s="67">
-        <v>42088</v>
+        <v>42087</v>
       </c>
       <c r="H92" s="67">
-        <v>42088</v>
+        <v>42087</v>
       </c>
       <c r="I92" s="71"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="92"/>
-      <c r="B93" s="108"/>
+      <c r="B93" s="109"/>
       <c r="C93" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="D93" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="E93" s="95"/>
+        <v>160</v>
+      </c>
+      <c r="D93" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="E93" s="89"/>
       <c r="F93" s="64"/>
       <c r="G93" s="67">
-        <v>42088</v>
+        <v>42087</v>
       </c>
       <c r="H93" s="67">
-        <v>42088</v>
+        <v>42087</v>
       </c>
       <c r="I93" s="71"/>
     </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="92"/>
-      <c r="B94" s="108"/>
-      <c r="C94" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="D94" s="95" t="s">
-        <v>159</v>
-      </c>
-      <c r="E94" s="95"/>
-      <c r="F94" s="64"/>
+    <row r="94" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A94" s="93"/>
+      <c r="B94" s="110"/>
+      <c r="C94" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="D94" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="E94" s="76"/>
+      <c r="F94" s="77"/>
       <c r="G94" s="67">
-        <v>42088</v>
+        <v>42087</v>
       </c>
       <c r="H94" s="67">
-        <v>42088</v>
-      </c>
-      <c r="I94" s="71"/>
+        <v>42087</v>
+      </c>
+      <c r="I94" s="79"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="92"/>
-      <c r="B95" s="108"/>
+      <c r="B95" s="108" t="s">
+        <v>171</v>
+      </c>
       <c r="C95" s="42" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D95" s="95" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E95" s="95"/>
       <c r="F95" s="64"/>
@@ -5824,111 +5860,111 @@
       </c>
       <c r="I95" s="71"/>
     </row>
-    <row r="96" spans="1:9" ht="51" thickBot="1">
-      <c r="A96" s="93"/>
+    <row r="96" spans="1:9">
+      <c r="A96" s="92"/>
       <c r="B96" s="109"/>
-      <c r="C96" s="97" t="s">
-        <v>178</v>
-      </c>
-      <c r="D96" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="E96" s="76"/>
-      <c r="F96" s="77"/>
+      <c r="C96" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="D96" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="E96" s="95"/>
+      <c r="F96" s="64"/>
       <c r="G96" s="67">
         <v>42088</v>
       </c>
       <c r="H96" s="67">
         <v>42088</v>
       </c>
-      <c r="I96" s="79"/>
+      <c r="I96" s="71"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="92"/>
-      <c r="B97" s="107" t="s">
-        <v>180</v>
-      </c>
+      <c r="B97" s="109"/>
       <c r="C97" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="D97" s="98" t="s">
-        <v>153</v>
-      </c>
-      <c r="E97" s="98"/>
+        <v>174</v>
+      </c>
+      <c r="D97" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="E97" s="95"/>
       <c r="F97" s="64"/>
       <c r="G97" s="67">
-        <v>42089</v>
+        <v>42088</v>
       </c>
       <c r="H97" s="67">
-        <v>42089</v>
+        <v>42088</v>
       </c>
       <c r="I97" s="71"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="92"/>
-      <c r="B98" s="108"/>
+      <c r="B98" s="109"/>
       <c r="C98" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="D98" s="98" t="s">
-        <v>153</v>
-      </c>
-      <c r="E98" s="98"/>
+        <v>175</v>
+      </c>
+      <c r="D98" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="E98" s="95"/>
       <c r="F98" s="64"/>
       <c r="G98" s="67">
-        <v>42089</v>
+        <v>42088</v>
       </c>
       <c r="H98" s="67">
-        <v>42089</v>
+        <v>42088</v>
       </c>
       <c r="I98" s="71"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="92"/>
-      <c r="B99" s="108"/>
+      <c r="B99" s="109"/>
       <c r="C99" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D99" s="98" t="s">
-        <v>153</v>
-      </c>
-      <c r="E99" s="98"/>
+        <v>176</v>
+      </c>
+      <c r="D99" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="E99" s="95"/>
       <c r="F99" s="64"/>
       <c r="G99" s="67">
-        <v>42089</v>
+        <v>42088</v>
       </c>
       <c r="H99" s="67">
-        <v>42089</v>
+        <v>42088</v>
       </c>
       <c r="I99" s="71"/>
     </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="92"/>
-      <c r="B100" s="108"/>
-      <c r="C100" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="D100" s="98" t="s">
-        <v>159</v>
-      </c>
-      <c r="E100" s="98"/>
-      <c r="F100" s="64"/>
+    <row r="100" spans="1:9" ht="50.25" thickBot="1">
+      <c r="A100" s="93"/>
+      <c r="B100" s="110"/>
+      <c r="C100" s="97" t="s">
+        <v>177</v>
+      </c>
+      <c r="D100" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="E100" s="76"/>
+      <c r="F100" s="77"/>
       <c r="G100" s="67">
-        <v>42089</v>
+        <v>42088</v>
       </c>
       <c r="H100" s="67">
-        <v>42089</v>
-      </c>
-      <c r="I100" s="71"/>
+        <v>42088</v>
+      </c>
+      <c r="I100" s="79"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="92"/>
-      <c r="B101" s="108"/>
+      <c r="B101" s="108" t="s">
+        <v>179</v>
+      </c>
       <c r="C101" s="42" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D101" s="98" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E101" s="98"/>
       <c r="F101" s="64"/>
@@ -5940,111 +5976,111 @@
       </c>
       <c r="I101" s="71"/>
     </row>
-    <row r="102" spans="1:9" ht="16.95" customHeight="1" thickBot="1">
-      <c r="A102" s="93"/>
+    <row r="102" spans="1:9">
+      <c r="A102" s="92"/>
       <c r="B102" s="109"/>
-      <c r="C102" s="97" t="s">
-        <v>186</v>
-      </c>
-      <c r="D102" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="E102" s="76"/>
-      <c r="F102" s="77"/>
+      <c r="C102" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="D102" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="E102" s="98"/>
+      <c r="F102" s="64"/>
       <c r="G102" s="67">
         <v>42089</v>
       </c>
       <c r="H102" s="67">
         <v>42089</v>
       </c>
-      <c r="I102" s="79"/>
+      <c r="I102" s="71"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="92"/>
-      <c r="B103" s="107" t="s">
-        <v>188</v>
-      </c>
+      <c r="B103" s="109"/>
       <c r="C103" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="D103" s="99" t="s">
-        <v>153</v>
-      </c>
-      <c r="E103" s="99"/>
+        <v>182</v>
+      </c>
+      <c r="D103" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="E103" s="98"/>
       <c r="F103" s="64"/>
       <c r="G103" s="67">
-        <v>42090</v>
+        <v>42089</v>
       </c>
       <c r="H103" s="67">
-        <v>42090</v>
+        <v>42089</v>
       </c>
       <c r="I103" s="71"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="92"/>
-      <c r="B104" s="108"/>
+      <c r="B104" s="109"/>
       <c r="C104" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="D104" s="99" t="s">
-        <v>153</v>
-      </c>
-      <c r="E104" s="99"/>
+        <v>183</v>
+      </c>
+      <c r="D104" s="98" t="s">
+        <v>158</v>
+      </c>
+      <c r="E104" s="98"/>
       <c r="F104" s="64"/>
       <c r="G104" s="67">
-        <v>42090</v>
+        <v>42089</v>
       </c>
       <c r="H104" s="67">
-        <v>42090</v>
+        <v>42089</v>
       </c>
       <c r="I104" s="71"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="92"/>
-      <c r="B105" s="108"/>
+      <c r="B105" s="109"/>
       <c r="C105" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="D105" s="99" t="s">
-        <v>153</v>
-      </c>
-      <c r="E105" s="99"/>
+        <v>184</v>
+      </c>
+      <c r="D105" s="98" t="s">
+        <v>158</v>
+      </c>
+      <c r="E105" s="98"/>
       <c r="F105" s="64"/>
       <c r="G105" s="67">
-        <v>42090</v>
+        <v>42089</v>
       </c>
       <c r="H105" s="67">
-        <v>42090</v>
+        <v>42089</v>
       </c>
       <c r="I105" s="71"/>
     </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="92"/>
-      <c r="B106" s="108"/>
-      <c r="C106" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="D106" s="99" t="s">
-        <v>159</v>
-      </c>
-      <c r="E106" s="99"/>
-      <c r="F106" s="64"/>
+    <row r="106" spans="1:9" ht="16.899999999999999" customHeight="1" thickBot="1">
+      <c r="A106" s="93"/>
+      <c r="B106" s="110"/>
+      <c r="C106" s="97" t="s">
+        <v>185</v>
+      </c>
+      <c r="D106" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="E106" s="76"/>
+      <c r="F106" s="77"/>
       <c r="G106" s="67">
-        <v>42090</v>
+        <v>42089</v>
       </c>
       <c r="H106" s="67">
-        <v>42090</v>
-      </c>
-      <c r="I106" s="71"/>
+        <v>42089</v>
+      </c>
+      <c r="I106" s="79"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="92"/>
-      <c r="B107" s="108"/>
+      <c r="B107" s="108" t="s">
+        <v>187</v>
+      </c>
       <c r="C107" s="42" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D107" s="99" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E107" s="99"/>
       <c r="F107" s="64"/>
@@ -6056,145 +6092,222 @@
       </c>
       <c r="I107" s="71"/>
     </row>
-    <row r="108" spans="1:9" ht="16.95" customHeight="1" thickBot="1">
-      <c r="A108" s="93"/>
+    <row r="108" spans="1:9">
+      <c r="A108" s="92"/>
       <c r="B108" s="109"/>
-      <c r="C108" s="97" t="s">
-        <v>194</v>
-      </c>
-      <c r="D108" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="E108" s="76"/>
-      <c r="F108" s="77"/>
+      <c r="C108" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="D108" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="E108" s="99"/>
+      <c r="F108" s="64"/>
       <c r="G108" s="67">
         <v>42090</v>
       </c>
       <c r="H108" s="67">
         <v>42090</v>
       </c>
-      <c r="I108" s="79"/>
+      <c r="I108" s="71"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="103"/>
-      <c r="B109" s="107" t="s">
-        <v>203</v>
-      </c>
+      <c r="A109" s="92"/>
+      <c r="B109" s="109"/>
       <c r="C109" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="D109" s="101" t="s">
-        <v>205</v>
-      </c>
-      <c r="E109" s="101"/>
+        <v>190</v>
+      </c>
+      <c r="D109" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="E109" s="99"/>
       <c r="F109" s="64"/>
       <c r="G109" s="67">
-        <v>42093</v>
+        <v>42090</v>
       </c>
       <c r="H109" s="67">
-        <v>42093</v>
+        <v>42090</v>
       </c>
       <c r="I109" s="71"/>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="92"/>
-      <c r="B110" s="108"/>
+      <c r="B110" s="109"/>
       <c r="C110" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="D110" s="101" t="s">
-        <v>205</v>
-      </c>
-      <c r="E110" s="101"/>
+        <v>191</v>
+      </c>
+      <c r="D110" s="99" t="s">
+        <v>158</v>
+      </c>
+      <c r="E110" s="99"/>
       <c r="F110" s="64"/>
       <c r="G110" s="67">
-        <v>42093</v>
+        <v>42090</v>
       </c>
       <c r="H110" s="67">
-        <v>42093</v>
+        <v>42090</v>
       </c>
       <c r="I110" s="71"/>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="92"/>
-      <c r="B111" s="108"/>
+      <c r="B111" s="109"/>
       <c r="C111" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="D111" s="101" t="s">
-        <v>159</v>
-      </c>
-      <c r="E111" s="101"/>
+        <v>192</v>
+      </c>
+      <c r="D111" s="99" t="s">
+        <v>158</v>
+      </c>
+      <c r="E111" s="99"/>
       <c r="F111" s="64"/>
       <c r="G111" s="67">
-        <v>42093</v>
+        <v>42090</v>
       </c>
       <c r="H111" s="67">
-        <v>42093</v>
+        <v>42090</v>
       </c>
       <c r="I111" s="71"/>
     </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="92"/>
-      <c r="B112" s="108"/>
-      <c r="C112" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="D112" s="101" t="s">
-        <v>159</v>
-      </c>
-      <c r="E112" s="101"/>
-      <c r="F112" s="64"/>
+    <row r="112" spans="1:9" ht="16.899999999999999" customHeight="1" thickBot="1">
+      <c r="A112" s="93"/>
+      <c r="B112" s="110"/>
+      <c r="C112" s="97" t="s">
+        <v>193</v>
+      </c>
+      <c r="D112" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="E112" s="76"/>
+      <c r="F112" s="77"/>
       <c r="G112" s="67">
-        <v>42093</v>
+        <v>42090</v>
       </c>
       <c r="H112" s="67">
-        <v>42093</v>
-      </c>
-      <c r="I112" s="71"/>
+        <v>42090</v>
+      </c>
+      <c r="I112" s="79"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="93"/>
-      <c r="B113" s="109"/>
+      <c r="A113" s="103"/>
+      <c r="B113" s="108" t="s">
+        <v>202</v>
+      </c>
       <c r="C113" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="D113" s="104" t="s">
-        <v>159</v>
-      </c>
-      <c r="E113" s="104"/>
-      <c r="F113" s="105"/>
+        <v>203</v>
+      </c>
+      <c r="D113" s="101" t="s">
+        <v>204</v>
+      </c>
+      <c r="E113" s="101"/>
+      <c r="F113" s="64"/>
       <c r="G113" s="67">
         <v>42093</v>
       </c>
       <c r="H113" s="67">
         <v>42093</v>
       </c>
-      <c r="I113" s="106"/>
+      <c r="I113" s="71"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="92"/>
+      <c r="B114" s="109"/>
+      <c r="C114" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="D114" s="101" t="s">
+        <v>204</v>
+      </c>
+      <c r="E114" s="101"/>
+      <c r="F114" s="64"/>
+      <c r="G114" s="67">
+        <v>42093</v>
+      </c>
+      <c r="H114" s="67">
+        <v>42093</v>
+      </c>
+      <c r="I114" s="71"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="92"/>
+      <c r="B115" s="109"/>
+      <c r="C115" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D115" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="E115" s="101"/>
+      <c r="F115" s="64"/>
+      <c r="G115" s="67">
+        <v>42093</v>
+      </c>
+      <c r="H115" s="67">
+        <v>42093</v>
+      </c>
+      <c r="I115" s="71"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="92"/>
+      <c r="B116" s="109"/>
+      <c r="C116" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D116" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="E116" s="101"/>
+      <c r="F116" s="64"/>
+      <c r="G116" s="67">
+        <v>42093</v>
+      </c>
+      <c r="H116" s="67">
+        <v>42093</v>
+      </c>
+      <c r="I116" s="71"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="93"/>
+      <c r="B117" s="110"/>
+      <c r="C117" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="D117" s="104" t="s">
+        <v>158</v>
+      </c>
+      <c r="E117" s="104"/>
+      <c r="F117" s="105"/>
+      <c r="G117" s="67">
+        <v>42093</v>
+      </c>
+      <c r="H117" s="67">
+        <v>42093</v>
+      </c>
+      <c r="I117" s="106"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B97:B102"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="B85:B90"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B109:B113"/>
+  <mergeCells count="22">
+    <mergeCell ref="A26:A45"/>
+    <mergeCell ref="B113:B117"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A9:A22"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B22"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B38:B42"/>
-    <mergeCell ref="A26:A42"/>
-    <mergeCell ref="B103:B108"/>
-    <mergeCell ref="A45:A63"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="B52:B63"/>
-    <mergeCell ref="A67:A79"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="A49:A67"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B67"/>
+    <mergeCell ref="A71:A83"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="B43:B45"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6204,28 +6317,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T97"/>
+  <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="F47" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q51" sqref="Q51"/>
+      <selection pane="bottomRight" activeCell="V43" sqref="V43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="64.88671875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" style="23" customWidth="1"/>
-    <col min="5" max="18" width="4.44140625" style="23" customWidth="1"/>
-    <col min="19" max="19" width="2.88671875" style="23" customWidth="1"/>
-    <col min="20" max="20" width="7.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="23"/>
+    <col min="1" max="1" width="8.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.85546875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="23" customWidth="1"/>
+    <col min="5" max="18" width="4.42578125" style="23" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" style="23" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.6">
+    <row r="1" spans="1:20" ht="15.75">
       <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
@@ -6312,7 +6425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="13.8" thickBot="1">
+    <row r="9" spans="1:20" ht="13.5" thickBot="1">
       <c r="B9" s="20" t="s">
         <v>10</v>
       </c>
@@ -6320,7 +6433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" ht="25.5">
       <c r="B10" s="87">
         <v>1</v>
       </c>
@@ -6623,7 +6736,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D20" s="84"/>
       <c r="E20" s="84"/>
@@ -6654,7 +6767,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D21" s="84"/>
       <c r="E21" s="84"/>
@@ -6698,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="19">
@@ -6727,7 +6840,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="19">
@@ -6756,7 +6869,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -6785,7 +6898,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -6814,7 +6927,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -6843,7 +6956,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
@@ -6872,7 +6985,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -6901,7 +7014,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -6934,7 +7047,7 @@
         <v>9</v>
       </c>
       <c r="C33" s="84" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D33" s="84"/>
       <c r="E33" s="84"/>
@@ -6960,7 +7073,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D34" s="84"/>
       <c r="E34" s="84"/>
@@ -6991,7 +7104,7 @@
         <v>11</v>
       </c>
       <c r="C35" s="84" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D35" s="84"/>
       <c r="E35" s="84"/>
@@ -7020,7 +7133,7 @@
         <v>12</v>
       </c>
       <c r="C36" s="84" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D36" s="84"/>
       <c r="E36" s="84"/>
@@ -7046,7 +7159,7 @@
         <v>13</v>
       </c>
       <c r="C37" s="84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D37" s="84"/>
       <c r="E37" s="84"/>
@@ -7062,265 +7175,261 @@
         <v>9</v>
       </c>
       <c r="O37" s="84"/>
-      <c r="P37" s="84"/>
+      <c r="P37" s="82">
+        <v>4</v>
+      </c>
       <c r="Q37" s="84"/>
       <c r="R37" s="84"/>
       <c r="T37" s="81">
         <f t="shared" ref="T37" si="3">SUM(E37:R37)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" s="80" customFormat="1">
+      <c r="B38" s="83">
+        <v>14</v>
+      </c>
+      <c r="C38" s="84" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="84"/>
+      <c r="M38" s="84"/>
+      <c r="N38" s="84"/>
+      <c r="O38" s="84"/>
+      <c r="P38" s="84"/>
+      <c r="Q38" s="84">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="A39" s="24" t="s">
+      <c r="R38" s="84"/>
+      <c r="T38" s="81">
+        <f t="shared" ref="T38:T39" si="4">SUM(E38:R38)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="80" customFormat="1">
+      <c r="B39" s="83">
+        <v>15</v>
+      </c>
+      <c r="C39" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="84"/>
+      <c r="L39" s="84"/>
+      <c r="M39" s="84"/>
+      <c r="N39" s="84"/>
+      <c r="O39" s="84"/>
+      <c r="P39" s="84"/>
+      <c r="Q39" s="84"/>
+      <c r="R39" s="84">
+        <v>8</v>
+      </c>
+      <c r="T39" s="81">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
-      <c r="B40" s="20" t="s">
+    <row r="42" spans="1:20">
+      <c r="B42" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="B41" s="21">
-        <v>1</v>
-      </c>
-      <c r="C41" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="19">
-        <v>5</v>
-      </c>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="82">
-        <v>2</v>
-      </c>
-      <c r="M41" s="22">
-        <v>2</v>
-      </c>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="25"/>
-      <c r="T41" s="3">
-        <f>SUM(E41:R41)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="B42" s="21">
-        <v>2</v>
-      </c>
-      <c r="C42" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="19">
-        <v>3</v>
-      </c>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="22">
-        <v>4</v>
-      </c>
-      <c r="J42" s="25"/>
-      <c r="K42" s="82">
-        <v>5</v>
-      </c>
-      <c r="L42" s="82">
-        <v>1</v>
-      </c>
-      <c r="M42" s="22">
-        <v>2</v>
-      </c>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="25"/>
-      <c r="T42" s="3">
-        <f t="shared" ref="T42:T45" si="4">SUM(E42:R42)</f>
-        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:20">
       <c r="B43" s="21">
-        <v>3</v>
-      </c>
-      <c r="C43" s="63" t="s">
-        <v>91</v>
+        <v>1</v>
+      </c>
+      <c r="C43" s="70" t="s">
+        <v>88</v>
       </c>
       <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
+      <c r="E43" s="19">
+        <v>5</v>
+      </c>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="82">
+      <c r="L43" s="82">
         <v>2</v>
       </c>
+      <c r="M43" s="22">
+        <v>2</v>
+      </c>
+      <c r="N43" s="25"/>
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
       <c r="T43" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(E43:R43)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="B44" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="B44" s="87">
-        <v>4</v>
-      </c>
-      <c r="C44" s="88" t="s">
-        <v>115</v>
+      <c r="C44" s="70" t="s">
+        <v>90</v>
       </c>
       <c r="D44" s="25"/>
-      <c r="F44" s="19">
-        <v>8</v>
-      </c>
+      <c r="E44" s="19">
+        <v>3</v>
+      </c>
+      <c r="F44" s="25"/>
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="82">
-        <v>8</v>
-      </c>
+      <c r="I44" s="22">
+        <v>4</v>
+      </c>
+      <c r="J44" s="25"/>
       <c r="K44" s="82">
+        <v>5</v>
+      </c>
+      <c r="L44" s="82">
         <v>1</v>
       </c>
-      <c r="L44" s="82">
-        <v>5</v>
-      </c>
       <c r="M44" s="22">
-        <v>1</v>
-      </c>
-      <c r="N44" s="22">
         <v>2</v>
       </c>
+      <c r="N44" s="25"/>
       <c r="O44" s="25"/>
       <c r="P44" s="25"/>
       <c r="Q44" s="25"/>
       <c r="R44" s="25"/>
       <c r="T44" s="3">
-        <f>SUM(E44:R44)</f>
-        <v>25</v>
+        <f t="shared" ref="T44:T47" si="5">SUM(E44:R44)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:20">
       <c r="B45" s="21">
-        <v>5</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>116</v>
+        <v>3</v>
+      </c>
+      <c r="C45" s="63" t="s">
+        <v>91</v>
       </c>
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
       <c r="F45" s="25"/>
-      <c r="G45" s="19">
-        <v>8</v>
-      </c>
+      <c r="G45" s="25"/>
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
-      <c r="K45" s="82">
-        <v>1</v>
-      </c>
+      <c r="K45" s="25"/>
       <c r="L45" s="25"/>
       <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
+      <c r="N45" s="82">
+        <v>2</v>
+      </c>
       <c r="O45" s="25"/>
       <c r="P45" s="25"/>
       <c r="Q45" s="25"/>
       <c r="R45" s="25"/>
       <c r="T45" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="B46" s="87">
+        <v>4</v>
+      </c>
+      <c r="C46" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="25"/>
+      <c r="F46" s="19">
+        <v>8</v>
+      </c>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="82">
+        <v>8</v>
+      </c>
+      <c r="K46" s="82">
+        <v>1</v>
+      </c>
+      <c r="L46" s="82">
+        <v>5</v>
+      </c>
+      <c r="M46" s="22">
+        <v>1</v>
+      </c>
+      <c r="N46" s="22">
+        <v>2</v>
+      </c>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="T46" s="3">
+        <f>SUM(E46:R46)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="B47" s="21">
+        <v>5</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="19">
+        <v>8</v>
+      </c>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="82">
+        <v>1</v>
+      </c>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="T47" s="3">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="80" customFormat="1">
-      <c r="B46" s="83">
+    <row r="48" spans="1:20" s="80" customFormat="1">
+      <c r="B48" s="83">
         <v>6</v>
       </c>
-      <c r="C46" s="84" t="s">
+      <c r="C48" s="84" t="s">
         <v>96</v>
-      </c>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="82">
-        <v>1</v>
-      </c>
-      <c r="M46" s="82">
-        <v>1</v>
-      </c>
-      <c r="N46" s="84"/>
-      <c r="O46" s="84"/>
-      <c r="P46" s="84"/>
-      <c r="Q46" s="84"/>
-      <c r="R46" s="84"/>
-      <c r="T46" s="81">
-        <f t="shared" ref="T46:T50" si="5">SUM(E46:R46)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" s="80" customFormat="1">
-      <c r="B47" s="83">
-        <v>7</v>
-      </c>
-      <c r="C47" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="84"/>
-      <c r="K47" s="82">
-        <v>3</v>
-      </c>
-      <c r="L47" s="82">
-        <v>1</v>
-      </c>
-      <c r="M47" s="82">
-        <v>1</v>
-      </c>
-      <c r="N47" s="84"/>
-      <c r="O47" s="84"/>
-      <c r="P47" s="84"/>
-      <c r="Q47" s="84"/>
-      <c r="R47" s="84"/>
-      <c r="T47" s="81">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" s="80" customFormat="1" ht="13.8" thickBot="1">
-      <c r="B48" s="83">
-        <v>8</v>
-      </c>
-      <c r="C48" s="73" t="s">
-        <v>196</v>
       </c>
       <c r="D48" s="84"/>
       <c r="E48" s="84"/>
@@ -7330,28 +7439,28 @@
       <c r="I48" s="84"/>
       <c r="J48" s="84"/>
       <c r="K48" s="84"/>
-      <c r="L48" s="84"/>
+      <c r="L48" s="82">
+        <v>1</v>
+      </c>
       <c r="M48" s="82">
         <v>1</v>
       </c>
-      <c r="N48" s="82">
-        <v>2</v>
-      </c>
+      <c r="N48" s="84"/>
       <c r="O48" s="84"/>
       <c r="P48" s="84"/>
       <c r="Q48" s="84"/>
       <c r="R48" s="84"/>
       <c r="T48" s="81">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" ref="T48:T52" si="6">SUM(E48:R48)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="80" customFormat="1">
       <c r="B49" s="83">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C49" s="84" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="D49" s="84"/>
       <c r="E49" s="84"/>
@@ -7360,27 +7469,31 @@
       <c r="H49" s="84"/>
       <c r="I49" s="84"/>
       <c r="J49" s="84"/>
-      <c r="K49" s="84"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="82">
-        <v>2</v>
-      </c>
+      <c r="K49" s="82">
+        <v>3</v>
+      </c>
+      <c r="L49" s="82">
+        <v>1</v>
+      </c>
+      <c r="M49" s="82">
+        <v>1</v>
+      </c>
+      <c r="N49" s="84"/>
       <c r="O49" s="84"/>
       <c r="P49" s="84"/>
       <c r="Q49" s="84"/>
       <c r="R49" s="84"/>
       <c r="T49" s="81">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" s="80" customFormat="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" s="80" customFormat="1" ht="13.5" thickBot="1">
       <c r="B50" s="83">
-        <v>10</v>
-      </c>
-      <c r="C50" s="84" t="s">
-        <v>198</v>
+        <v>8</v>
+      </c>
+      <c r="C50" s="73" t="s">
+        <v>195</v>
       </c>
       <c r="D50" s="84"/>
       <c r="E50" s="84"/>
@@ -7391,25 +7504,27 @@
       <c r="J50" s="84"/>
       <c r="K50" s="84"/>
       <c r="L50" s="84"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="84"/>
+      <c r="M50" s="82">
+        <v>1</v>
+      </c>
+      <c r="N50" s="82">
+        <v>2</v>
+      </c>
       <c r="O50" s="84"/>
       <c r="P50" s="84"/>
-      <c r="Q50" s="82">
-        <v>2</v>
-      </c>
+      <c r="Q50" s="84"/>
       <c r="R50" s="84"/>
       <c r="T50" s="81">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="80" customFormat="1">
       <c r="B51" s="83">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C51" s="84" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D51" s="84"/>
       <c r="E51" s="84"/>
@@ -7421,184 +7536,184 @@
       <c r="K51" s="84"/>
       <c r="L51" s="84"/>
       <c r="M51" s="84"/>
-      <c r="N51" s="84"/>
+      <c r="N51" s="82">
+        <v>2</v>
+      </c>
       <c r="O51" s="84"/>
       <c r="P51" s="84"/>
-      <c r="Q51" s="82">
-        <v>6</v>
-      </c>
+      <c r="Q51" s="84"/>
       <c r="R51" s="84"/>
       <c r="T51" s="81">
-        <f t="shared" ref="T51" si="6">SUM(E51:R51)</f>
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" s="80" customFormat="1">
+      <c r="B52" s="83">
+        <v>10</v>
+      </c>
+      <c r="C52" s="84" t="s">
+        <v>197</v>
+      </c>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="84"/>
+      <c r="K52" s="84"/>
+      <c r="L52" s="84"/>
+      <c r="M52" s="84"/>
+      <c r="N52" s="84"/>
+      <c r="O52" s="84"/>
+      <c r="P52" s="84"/>
+      <c r="Q52" s="82">
+        <v>2</v>
+      </c>
+      <c r="R52" s="84"/>
+      <c r="T52" s="81">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" s="80" customFormat="1">
+      <c r="B53" s="83">
+        <v>11</v>
+      </c>
+      <c r="C53" s="84" t="s">
+        <v>209</v>
+      </c>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="84"/>
+      <c r="N53" s="84"/>
+      <c r="O53" s="84"/>
+      <c r="P53" s="84"/>
+      <c r="Q53" s="82">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" s="80" customFormat="1">
-      <c r="B52" s="27"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="28"/>
-      <c r="T52" s="28"/>
-    </row>
-    <row r="53" spans="1:20">
-      <c r="A53" s="24" t="s">
+      <c r="R53" s="84"/>
+      <c r="T53" s="81">
+        <f t="shared" ref="T53" si="7">SUM(E53:R53)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" s="80" customFormat="1">
+      <c r="B54" s="27"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="T54" s="28"/>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
-      <c r="B54" s="20" t="s">
+    <row r="56" spans="1:20">
+      <c r="B56" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
-      <c r="B55" s="21">
+    <row r="57" spans="1:20">
+      <c r="B57" s="21">
         <v>1</v>
       </c>
-      <c r="C55" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="19">
+      <c r="C57" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="25"/>
+      <c r="E57" s="19">
         <v>8</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F57" s="19">
         <v>8</v>
       </c>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="25"/>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="25"/>
-      <c r="R55" s="25"/>
-      <c r="T55" s="3">
-        <f>SUM(E55:R55)</f>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25"/>
+      <c r="T57" s="3">
+        <f>SUM(E57:R57)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
-      <c r="B56" s="83">
+    <row r="58" spans="1:20">
+      <c r="B58" s="83">
         <v>2</v>
       </c>
-      <c r="C56" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="19">
+      <c r="C58" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="19">
         <v>8</v>
       </c>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="25"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="25"/>
-      <c r="R56" s="25"/>
-      <c r="T56" s="3">
-        <f t="shared" ref="T56:T62" si="7">SUM(E56:R56)</f>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="25"/>
+      <c r="T58" s="3">
+        <f t="shared" ref="T58:T64" si="8">SUM(E58:R58)</f>
         <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" s="80" customFormat="1">
-      <c r="B57" s="83">
-        <v>3</v>
-      </c>
-      <c r="C57" s="84" t="s">
-        <v>144</v>
-      </c>
-      <c r="D57" s="84"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="84"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="82">
-        <v>8</v>
-      </c>
-      <c r="J57" s="84"/>
-      <c r="K57" s="84"/>
-      <c r="L57" s="84"/>
-      <c r="M57" s="84"/>
-      <c r="N57" s="84"/>
-      <c r="O57" s="84"/>
-      <c r="P57" s="84"/>
-      <c r="Q57" s="84"/>
-      <c r="R57" s="84"/>
-      <c r="T57" s="81">
-        <f t="shared" ref="T57:T58" si="8">SUM(E57:R57)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" s="80" customFormat="1">
-      <c r="B58" s="83">
-        <v>4</v>
-      </c>
-      <c r="C58" s="74">
-        <v>6.1</v>
-      </c>
-      <c r="D58" s="84"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="84"/>
-      <c r="H58" s="84"/>
-      <c r="I58" s="84"/>
-      <c r="J58" s="82">
-        <v>2</v>
-      </c>
-      <c r="K58" s="84"/>
-      <c r="L58" s="84"/>
-      <c r="M58" s="84"/>
-      <c r="N58" s="84"/>
-      <c r="O58" s="84"/>
-      <c r="P58" s="84"/>
-      <c r="Q58" s="84"/>
-      <c r="R58" s="84"/>
-      <c r="T58" s="81">
-        <f t="shared" si="8"/>
-        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:20" s="80" customFormat="1">
       <c r="B59" s="83">
-        <v>5</v>
-      </c>
-      <c r="C59" s="74">
-        <v>6.1</v>
+        <v>3</v>
+      </c>
+      <c r="C59" s="84" t="s">
+        <v>143</v>
       </c>
       <c r="D59" s="84"/>
       <c r="E59" s="84"/>
       <c r="F59" s="84"/>
       <c r="G59" s="84"/>
       <c r="H59" s="84"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="82">
-        <v>2</v>
-      </c>
+      <c r="I59" s="82">
+        <v>8</v>
+      </c>
+      <c r="J59" s="84"/>
       <c r="K59" s="84"/>
       <c r="L59" s="84"/>
       <c r="M59" s="84"/>
@@ -7608,45 +7723,45 @@
       <c r="Q59" s="84"/>
       <c r="R59" s="84"/>
       <c r="T59" s="81">
-        <f t="shared" ref="T59" si="9">SUM(E59:R59)</f>
+        <f t="shared" ref="T59:T60" si="9">SUM(E59:R59)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" s="80" customFormat="1">
+      <c r="B60" s="83">
+        <v>4</v>
+      </c>
+      <c r="C60" s="74">
+        <v>6.1</v>
+      </c>
+      <c r="D60" s="84"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="84"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="84"/>
+      <c r="J60" s="82">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:20">
-      <c r="B60" s="83">
-        <v>6</v>
-      </c>
-      <c r="C60" s="74">
-        <v>6.3</v>
-      </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="19">
-        <v>4</v>
-      </c>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="25"/>
-      <c r="R60" s="25"/>
-      <c r="T60" s="3">
-        <f t="shared" si="7"/>
-        <v>4</v>
+      <c r="K60" s="84"/>
+      <c r="L60" s="84"/>
+      <c r="M60" s="84"/>
+      <c r="N60" s="84"/>
+      <c r="O60" s="84"/>
+      <c r="P60" s="84"/>
+      <c r="Q60" s="84"/>
+      <c r="R60" s="84"/>
+      <c r="T60" s="81">
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:20" s="80" customFormat="1">
       <c r="B61" s="83">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C61" s="74">
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="D61" s="84"/>
       <c r="E61" s="84"/>
@@ -7654,10 +7769,10 @@
       <c r="G61" s="84"/>
       <c r="H61" s="84"/>
       <c r="I61" s="84"/>
-      <c r="J61" s="84"/>
-      <c r="K61" s="82">
+      <c r="J61" s="82">
         <v>2</v>
       </c>
+      <c r="K61" s="84"/>
       <c r="L61" s="84"/>
       <c r="M61" s="84"/>
       <c r="N61" s="84"/>
@@ -7666,45 +7781,45 @@
       <c r="Q61" s="84"/>
       <c r="R61" s="84"/>
       <c r="T61" s="81">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="T61" si="10">SUM(E61:R61)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:20" s="80" customFormat="1">
+    <row r="62" spans="1:20">
       <c r="B62" s="83">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C62" s="74">
-        <v>7.1</v>
-      </c>
-      <c r="D62" s="84"/>
-      <c r="E62" s="84"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="84"/>
-      <c r="H62" s="84"/>
-      <c r="I62" s="84"/>
-      <c r="J62" s="84"/>
-      <c r="K62" s="82">
+        <v>6.3</v>
+      </c>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="19">
         <v>4</v>
       </c>
-      <c r="L62" s="84"/>
-      <c r="M62" s="84"/>
-      <c r="N62" s="84"/>
-      <c r="O62" s="84"/>
-      <c r="P62" s="84"/>
-      <c r="Q62" s="84"/>
-      <c r="R62" s="84"/>
-      <c r="T62" s="81">
-        <f t="shared" si="7"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25"/>
+      <c r="R62" s="25"/>
+      <c r="T62" s="3">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="80" customFormat="1">
       <c r="B63" s="83">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C63" s="74">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="D63" s="84"/>
       <c r="E63" s="84"/>
@@ -7714,7 +7829,7 @@
       <c r="I63" s="84"/>
       <c r="J63" s="84"/>
       <c r="K63" s="82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L63" s="84"/>
       <c r="M63" s="84"/>
@@ -7724,16 +7839,16 @@
       <c r="Q63" s="84"/>
       <c r="R63" s="84"/>
       <c r="T63" s="81">
-        <f t="shared" ref="T63:T65" si="10">SUM(E63:R63)</f>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:20" s="80" customFormat="1">
       <c r="B64" s="83">
-        <v>10</v>
-      </c>
-      <c r="C64" s="42" t="s">
-        <v>173</v>
+        <v>8</v>
+      </c>
+      <c r="C64" s="74">
+        <v>7.1</v>
       </c>
       <c r="D64" s="84"/>
       <c r="E64" s="84"/>
@@ -7742,10 +7857,10 @@
       <c r="H64" s="84"/>
       <c r="I64" s="84"/>
       <c r="J64" s="84"/>
-      <c r="K64" s="84"/>
-      <c r="L64" s="82">
-        <v>2</v>
-      </c>
+      <c r="K64" s="82">
+        <v>4</v>
+      </c>
+      <c r="L64" s="84"/>
       <c r="M64" s="84"/>
       <c r="N64" s="84"/>
       <c r="O64" s="84"/>
@@ -7753,16 +7868,16 @@
       <c r="Q64" s="84"/>
       <c r="R64" s="84"/>
       <c r="T64" s="81">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:20" s="80" customFormat="1">
       <c r="B65" s="83">
-        <v>11</v>
-      </c>
-      <c r="C65" s="42" t="s">
-        <v>174</v>
+        <v>9</v>
+      </c>
+      <c r="C65" s="74">
+        <v>7.3</v>
       </c>
       <c r="D65" s="84"/>
       <c r="E65" s="84"/>
@@ -7771,10 +7886,10 @@
       <c r="H65" s="84"/>
       <c r="I65" s="84"/>
       <c r="J65" s="84"/>
-      <c r="K65" s="84"/>
-      <c r="L65" s="82">
-        <v>4</v>
-      </c>
+      <c r="K65" s="82">
+        <v>5</v>
+      </c>
+      <c r="L65" s="84"/>
       <c r="M65" s="84"/>
       <c r="N65" s="84"/>
       <c r="O65" s="84"/>
@@ -7782,16 +7897,16 @@
       <c r="Q65" s="84"/>
       <c r="R65" s="84"/>
       <c r="T65" s="81">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" ref="T65:T67" si="11">SUM(E65:R65)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:20" s="80" customFormat="1">
       <c r="B66" s="83">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D66" s="84"/>
       <c r="E66" s="84"/>
@@ -7802,7 +7917,7 @@
       <c r="J66" s="84"/>
       <c r="K66" s="84"/>
       <c r="L66" s="82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M66" s="84"/>
       <c r="N66" s="84"/>
@@ -7811,16 +7926,16 @@
       <c r="Q66" s="84"/>
       <c r="R66" s="84"/>
       <c r="T66" s="81">
-        <f t="shared" ref="T66:T68" si="11">SUM(E66:R66)</f>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:20" s="80" customFormat="1">
       <c r="B67" s="83">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C67" s="42" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D67" s="84"/>
       <c r="E67" s="84"/>
@@ -7830,10 +7945,10 @@
       <c r="I67" s="84"/>
       <c r="J67" s="84"/>
       <c r="K67" s="84"/>
-      <c r="L67" s="84"/>
-      <c r="M67" s="82">
-        <v>2</v>
-      </c>
+      <c r="L67" s="82">
+        <v>4</v>
+      </c>
+      <c r="M67" s="84"/>
       <c r="N67" s="84"/>
       <c r="O67" s="84"/>
       <c r="P67" s="84"/>
@@ -7841,15 +7956,15 @@
       <c r="R67" s="84"/>
       <c r="T67" s="81">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:20" s="80" customFormat="1">
       <c r="B68" s="83">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D68" s="84"/>
       <c r="E68" s="84"/>
@@ -7859,26 +7974,26 @@
       <c r="I68" s="84"/>
       <c r="J68" s="84"/>
       <c r="K68" s="84"/>
-      <c r="L68" s="84"/>
-      <c r="M68" s="82">
-        <v>4</v>
-      </c>
+      <c r="L68" s="82">
+        <v>5</v>
+      </c>
+      <c r="M68" s="84"/>
       <c r="N68" s="84"/>
       <c r="O68" s="84"/>
       <c r="P68" s="84"/>
       <c r="Q68" s="84"/>
       <c r="R68" s="84"/>
       <c r="T68" s="81">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f t="shared" ref="T68:T70" si="12">SUM(E68:R68)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:20" s="80" customFormat="1">
       <c r="B69" s="83">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D69" s="84"/>
       <c r="E69" s="84"/>
@@ -7890,7 +8005,7 @@
       <c r="K69" s="84"/>
       <c r="L69" s="84"/>
       <c r="M69" s="82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N69" s="84"/>
       <c r="O69" s="84"/>
@@ -7898,16 +8013,16 @@
       <c r="Q69" s="84"/>
       <c r="R69" s="84"/>
       <c r="T69" s="81">
-        <f t="shared" ref="T69:T71" si="12">SUM(E69:R69)</f>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:20" s="80" customFormat="1">
       <c r="B70" s="83">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D70" s="84"/>
       <c r="E70" s="84"/>
@@ -7918,25 +8033,25 @@
       <c r="J70" s="84"/>
       <c r="K70" s="84"/>
       <c r="L70" s="84"/>
-      <c r="M70" s="84"/>
-      <c r="N70" s="82">
-        <v>2</v>
-      </c>
+      <c r="M70" s="82">
+        <v>4</v>
+      </c>
+      <c r="N70" s="84"/>
       <c r="O70" s="84"/>
       <c r="P70" s="84"/>
       <c r="Q70" s="84"/>
       <c r="R70" s="84"/>
       <c r="T70" s="81">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:20" s="80" customFormat="1">
       <c r="B71" s="83">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D71" s="84"/>
       <c r="E71" s="84"/>
@@ -7947,25 +8062,25 @@
       <c r="J71" s="84"/>
       <c r="K71" s="84"/>
       <c r="L71" s="84"/>
-      <c r="M71" s="84"/>
-      <c r="N71" s="82">
-        <v>4</v>
-      </c>
+      <c r="M71" s="82">
+        <v>5</v>
+      </c>
+      <c r="N71" s="84"/>
       <c r="O71" s="84"/>
       <c r="P71" s="84"/>
       <c r="Q71" s="84"/>
       <c r="R71" s="84"/>
       <c r="T71" s="81">
-        <f t="shared" si="12"/>
-        <v>4</v>
+        <f t="shared" ref="T71:T73" si="13">SUM(E71:R71)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:20" s="80" customFormat="1">
       <c r="B72" s="83">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D72" s="84"/>
       <c r="E72" s="84"/>
@@ -7978,23 +8093,23 @@
       <c r="L72" s="84"/>
       <c r="M72" s="84"/>
       <c r="N72" s="82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O72" s="84"/>
       <c r="P72" s="84"/>
       <c r="Q72" s="84"/>
       <c r="R72" s="84"/>
       <c r="T72" s="81">
-        <f t="shared" ref="T72:T73" si="13">SUM(E72:R72)</f>
-        <v>4</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:20" s="80" customFormat="1">
       <c r="B73" s="83">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D73" s="84"/>
       <c r="E73" s="84"/>
@@ -8006,12 +8121,12 @@
       <c r="K73" s="84"/>
       <c r="L73" s="84"/>
       <c r="M73" s="84"/>
-      <c r="N73" s="84"/>
+      <c r="N73" s="82">
+        <v>4</v>
+      </c>
       <c r="O73" s="84"/>
       <c r="P73" s="84"/>
-      <c r="Q73" s="82">
-        <v>4</v>
-      </c>
+      <c r="Q73" s="84"/>
       <c r="R73" s="84"/>
       <c r="T73" s="81">
         <f t="shared" si="13"/>
@@ -8020,10 +8135,10 @@
     </row>
     <row r="74" spans="1:20" s="80" customFormat="1">
       <c r="B74" s="83">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D74" s="84"/>
       <c r="E74" s="84"/>
@@ -8035,178 +8150,181 @@
       <c r="K74" s="84"/>
       <c r="L74" s="84"/>
       <c r="M74" s="84"/>
-      <c r="N74" s="84"/>
+      <c r="N74" s="82">
+        <v>4</v>
+      </c>
       <c r="O74" s="84"/>
       <c r="P74" s="84"/>
-      <c r="Q74" s="82">
-        <v>4</v>
-      </c>
+      <c r="Q74" s="84"/>
       <c r="R74" s="84"/>
       <c r="T74" s="81">
-        <f t="shared" ref="T74" si="14">SUM(E74:R74)</f>
+        <f t="shared" ref="T74:T75" si="14">SUM(E74:R74)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
-      <c r="A76" s="24" t="s">
+    <row r="75" spans="1:20" s="80" customFormat="1">
+      <c r="B75" s="83">
+        <v>16</v>
+      </c>
+      <c r="C75" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="D75" s="84"/>
+      <c r="E75" s="84"/>
+      <c r="F75" s="84"/>
+      <c r="G75" s="84"/>
+      <c r="H75" s="84"/>
+      <c r="I75" s="84"/>
+      <c r="J75" s="84"/>
+      <c r="K75" s="84"/>
+      <c r="L75" s="84"/>
+      <c r="M75" s="84"/>
+      <c r="N75" s="84"/>
+      <c r="O75" s="84"/>
+      <c r="P75" s="84"/>
+      <c r="Q75" s="82">
+        <v>4</v>
+      </c>
+      <c r="R75" s="84"/>
+      <c r="T75" s="81">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" s="80" customFormat="1">
+      <c r="B76" s="83">
+        <v>17</v>
+      </c>
+      <c r="C76" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="D76" s="84"/>
+      <c r="E76" s="84"/>
+      <c r="F76" s="84"/>
+      <c r="G76" s="84"/>
+      <c r="H76" s="84"/>
+      <c r="I76" s="84"/>
+      <c r="J76" s="84"/>
+      <c r="K76" s="84"/>
+      <c r="L76" s="84"/>
+      <c r="M76" s="84"/>
+      <c r="N76" s="84"/>
+      <c r="O76" s="84"/>
+      <c r="P76" s="84"/>
+      <c r="Q76" s="82">
+        <v>4</v>
+      </c>
+      <c r="R76" s="84"/>
+      <c r="T76" s="81">
+        <f t="shared" ref="T76" si="15">SUM(E76:R76)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="A78" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
-      <c r="B77" s="20" t="s">
+    <row r="79" spans="1:20">
+      <c r="B79" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
-      <c r="B78" s="21">
+    <row r="80" spans="1:20">
+      <c r="B80" s="21">
         <v>1</v>
       </c>
-      <c r="C78" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="19">
+      <c r="C80" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D80" s="25"/>
+      <c r="E80" s="19">
         <v>8</v>
       </c>
-      <c r="F78" s="19">
+      <c r="F80" s="19">
         <v>8</v>
       </c>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="25"/>
-      <c r="L78" s="25"/>
-      <c r="M78" s="25"/>
-      <c r="N78" s="25"/>
-      <c r="O78" s="25"/>
-      <c r="P78" s="25"/>
-      <c r="Q78" s="25"/>
-      <c r="R78" s="25"/>
-      <c r="T78" s="3">
-        <f t="shared" ref="T78:T82" si="15">SUM(E78:R78)</f>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="25"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="25"/>
+      <c r="O80" s="25"/>
+      <c r="P80" s="25"/>
+      <c r="Q80" s="25"/>
+      <c r="R80" s="25"/>
+      <c r="T80" s="3">
+        <f t="shared" ref="T80:T84" si="16">SUM(E80:R80)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
-      <c r="B79" s="83">
+    <row r="81" spans="2:20">
+      <c r="B81" s="83">
         <v>2</v>
       </c>
-      <c r="C79" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="19">
+      <c r="C81" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="19">
         <v>8</v>
       </c>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="84"/>
-      <c r="K79" s="25"/>
-      <c r="L79" s="25"/>
-      <c r="M79" s="25"/>
-      <c r="N79" s="25"/>
-      <c r="O79" s="25"/>
-      <c r="P79" s="25"/>
-      <c r="Q79" s="25"/>
-      <c r="R79" s="25"/>
-      <c r="T79" s="3">
-        <f t="shared" si="15"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="84"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="25"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="25"/>
+      <c r="O81" s="25"/>
+      <c r="P81" s="25"/>
+      <c r="Q81" s="25"/>
+      <c r="R81" s="25"/>
+      <c r="T81" s="3">
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:20" s="80" customFormat="1">
-      <c r="B80" s="83">
+    <row r="82" spans="2:20" s="80" customFormat="1">
+      <c r="B82" s="83">
         <v>3</v>
       </c>
-      <c r="C80" s="74">
+      <c r="C82" s="74">
         <v>6.4</v>
       </c>
-      <c r="D80" s="84"/>
-      <c r="E80" s="84"/>
-      <c r="F80" s="84"/>
-      <c r="G80" s="84"/>
-      <c r="H80" s="84"/>
-      <c r="I80" s="84"/>
-      <c r="J80" s="82">
+      <c r="D82" s="84"/>
+      <c r="E82" s="84"/>
+      <c r="F82" s="84"/>
+      <c r="G82" s="84"/>
+      <c r="H82" s="84"/>
+      <c r="I82" s="84"/>
+      <c r="J82" s="82">
         <v>2</v>
       </c>
-      <c r="K80" s="84"/>
-      <c r="L80" s="84"/>
-      <c r="M80" s="84"/>
-      <c r="N80" s="84"/>
-      <c r="O80" s="84"/>
-      <c r="P80" s="84"/>
-      <c r="Q80" s="84"/>
-      <c r="R80" s="84"/>
-      <c r="T80" s="81"/>
-    </row>
-    <row r="81" spans="2:20" s="80" customFormat="1">
-      <c r="B81" s="83">
-        <v>4</v>
-      </c>
-      <c r="C81" s="74">
-        <v>6.5</v>
-      </c>
-      <c r="D81" s="84"/>
-      <c r="E81" s="84"/>
-      <c r="F81" s="84"/>
-      <c r="G81" s="84"/>
-      <c r="H81" s="84"/>
-      <c r="I81" s="84"/>
-      <c r="J81" s="82">
-        <v>3</v>
-      </c>
-      <c r="K81" s="84"/>
-      <c r="L81" s="84"/>
-      <c r="M81" s="84"/>
-      <c r="N81" s="84"/>
-      <c r="O81" s="84"/>
-      <c r="P81" s="84"/>
-      <c r="Q81" s="84"/>
-      <c r="R81" s="84"/>
-      <c r="T81" s="81"/>
-    </row>
-    <row r="82" spans="2:20">
-      <c r="B82" s="83">
-        <v>5</v>
-      </c>
-      <c r="C82" s="74">
-        <v>6.6</v>
-      </c>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="82">
-        <v>3</v>
-      </c>
-      <c r="K82" s="25"/>
-      <c r="L82" s="25"/>
-      <c r="M82" s="25"/>
-      <c r="N82" s="25"/>
-      <c r="O82" s="25"/>
-      <c r="P82" s="25"/>
-      <c r="Q82" s="25"/>
-      <c r="R82" s="25"/>
-      <c r="T82" s="3">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
+      <c r="K82" s="84"/>
+      <c r="L82" s="84"/>
+      <c r="M82" s="84"/>
+      <c r="N82" s="84"/>
+      <c r="O82" s="84"/>
+      <c r="P82" s="84"/>
+      <c r="Q82" s="84"/>
+      <c r="R82" s="84"/>
+      <c r="T82" s="81"/>
     </row>
     <row r="83" spans="2:20" s="80" customFormat="1">
       <c r="B83" s="83">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C83" s="74">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="D83" s="84"/>
       <c r="E83" s="84"/>
@@ -8214,10 +8332,10 @@
       <c r="G83" s="84"/>
       <c r="H83" s="84"/>
       <c r="I83" s="84"/>
-      <c r="J83" s="84"/>
-      <c r="K83" s="82">
-        <v>2</v>
-      </c>
+      <c r="J83" s="82">
+        <v>3</v>
+      </c>
+      <c r="K83" s="84"/>
       <c r="L83" s="84"/>
       <c r="M83" s="84"/>
       <c r="N83" s="84"/>
@@ -8227,38 +8345,41 @@
       <c r="R83" s="84"/>
       <c r="T83" s="81"/>
     </row>
-    <row r="84" spans="2:20" s="80" customFormat="1">
+    <row r="84" spans="2:20">
       <c r="B84" s="83">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" s="74">
-        <v>7.5</v>
-      </c>
-      <c r="D84" s="84"/>
-      <c r="E84" s="84"/>
-      <c r="F84" s="84"/>
-      <c r="G84" s="84"/>
-      <c r="H84" s="84"/>
-      <c r="I84" s="84"/>
-      <c r="J84" s="84"/>
-      <c r="K84" s="82">
-        <v>4</v>
-      </c>
-      <c r="L84" s="84"/>
-      <c r="M84" s="84"/>
-      <c r="N84" s="84"/>
-      <c r="O84" s="84"/>
-      <c r="P84" s="84"/>
-      <c r="Q84" s="84"/>
-      <c r="R84" s="84"/>
-      <c r="T84" s="81"/>
+        <v>6.6</v>
+      </c>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="82">
+        <v>3</v>
+      </c>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="25"/>
+      <c r="T84" s="3">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="85" spans="2:20" s="80" customFormat="1">
       <c r="B85" s="83">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C85" s="74">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="D85" s="84"/>
       <c r="E85" s="84"/>
@@ -8268,7 +8389,7 @@
       <c r="I85" s="84"/>
       <c r="J85" s="84"/>
       <c r="K85" s="82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L85" s="84"/>
       <c r="M85" s="84"/>
@@ -8277,17 +8398,14 @@
       <c r="P85" s="84"/>
       <c r="Q85" s="84"/>
       <c r="R85" s="84"/>
-      <c r="T85" s="81">
-        <f t="shared" ref="T85" si="16">SUM(E85:R85)</f>
-        <v>5</v>
-      </c>
+      <c r="T85" s="81"/>
     </row>
     <row r="86" spans="2:20" s="80" customFormat="1">
       <c r="B86" s="83">
-        <v>9</v>
-      </c>
-      <c r="C86" s="42" t="s">
-        <v>176</v>
+        <v>7</v>
+      </c>
+      <c r="C86" s="74">
+        <v>7.5</v>
       </c>
       <c r="D86" s="84"/>
       <c r="E86" s="84"/>
@@ -8296,10 +8414,10 @@
       <c r="H86" s="84"/>
       <c r="I86" s="84"/>
       <c r="J86" s="84"/>
-      <c r="K86" s="84"/>
-      <c r="L86" s="82">
-        <v>2</v>
-      </c>
+      <c r="K86" s="82">
+        <v>4</v>
+      </c>
+      <c r="L86" s="84"/>
       <c r="M86" s="84"/>
       <c r="N86" s="84"/>
       <c r="O86" s="84"/>
@@ -8310,10 +8428,10 @@
     </row>
     <row r="87" spans="2:20" s="80" customFormat="1">
       <c r="B87" s="83">
-        <v>10</v>
-      </c>
-      <c r="C87" s="42" t="s">
-        <v>177</v>
+        <v>8</v>
+      </c>
+      <c r="C87" s="74">
+        <v>7.6</v>
       </c>
       <c r="D87" s="84"/>
       <c r="E87" s="84"/>
@@ -8322,24 +8440,27 @@
       <c r="H87" s="84"/>
       <c r="I87" s="84"/>
       <c r="J87" s="84"/>
-      <c r="K87" s="84"/>
-      <c r="L87" s="82">
-        <v>4</v>
-      </c>
+      <c r="K87" s="82">
+        <v>5</v>
+      </c>
+      <c r="L87" s="84"/>
       <c r="M87" s="84"/>
       <c r="N87" s="84"/>
       <c r="O87" s="84"/>
       <c r="P87" s="84"/>
       <c r="Q87" s="84"/>
       <c r="R87" s="84"/>
-      <c r="T87" s="81"/>
-    </row>
-    <row r="88" spans="2:20" s="80" customFormat="1" ht="13.8" thickBot="1">
+      <c r="T87" s="81">
+        <f t="shared" ref="T87" si="17">SUM(E87:R87)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20" s="80" customFormat="1">
       <c r="B88" s="83">
-        <v>11</v>
-      </c>
-      <c r="C88" s="76" t="s">
-        <v>178</v>
+        <v>9</v>
+      </c>
+      <c r="C88" s="42" t="s">
+        <v>175</v>
       </c>
       <c r="D88" s="84"/>
       <c r="E88" s="84"/>
@@ -8350,7 +8471,7 @@
       <c r="J88" s="84"/>
       <c r="K88" s="84"/>
       <c r="L88" s="82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M88" s="84"/>
       <c r="N88" s="84"/>
@@ -8358,17 +8479,14 @@
       <c r="P88" s="84"/>
       <c r="Q88" s="84"/>
       <c r="R88" s="84"/>
-      <c r="T88" s="81">
-        <f t="shared" ref="T88" si="17">SUM(E88:R88)</f>
-        <v>5</v>
-      </c>
+      <c r="T88" s="81"/>
     </row>
     <row r="89" spans="2:20" s="80" customFormat="1">
       <c r="B89" s="83">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C89" s="42" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D89" s="84"/>
       <c r="E89" s="84"/>
@@ -8378,10 +8496,10 @@
       <c r="I89" s="84"/>
       <c r="J89" s="84"/>
       <c r="K89" s="84"/>
-      <c r="L89" s="84"/>
-      <c r="M89" s="82">
-        <v>2</v>
-      </c>
+      <c r="L89" s="82">
+        <v>4</v>
+      </c>
+      <c r="M89" s="84"/>
       <c r="N89" s="84"/>
       <c r="O89" s="84"/>
       <c r="P89" s="84"/>
@@ -8389,12 +8507,12 @@
       <c r="R89" s="84"/>
       <c r="T89" s="81"/>
     </row>
-    <row r="90" spans="2:20" s="80" customFormat="1">
+    <row r="90" spans="2:20" s="80" customFormat="1" ht="13.5" thickBot="1">
       <c r="B90" s="83">
-        <v>13</v>
-      </c>
-      <c r="C90" s="42" t="s">
-        <v>185</v>
+        <v>11</v>
+      </c>
+      <c r="C90" s="76" t="s">
+        <v>177</v>
       </c>
       <c r="D90" s="84"/>
       <c r="E90" s="84"/>
@@ -8404,23 +8522,26 @@
       <c r="I90" s="84"/>
       <c r="J90" s="84"/>
       <c r="K90" s="84"/>
-      <c r="L90" s="84"/>
-      <c r="M90" s="82">
-        <v>4</v>
-      </c>
+      <c r="L90" s="82">
+        <v>5</v>
+      </c>
+      <c r="M90" s="84"/>
       <c r="N90" s="84"/>
       <c r="O90" s="84"/>
       <c r="P90" s="84"/>
       <c r="Q90" s="84"/>
       <c r="R90" s="84"/>
-      <c r="T90" s="81"/>
-    </row>
-    <row r="91" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
+      <c r="T90" s="81">
+        <f t="shared" ref="T90" si="18">SUM(E90:R90)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20" s="80" customFormat="1">
       <c r="B91" s="83">
-        <v>14</v>
-      </c>
-      <c r="C91" s="97" t="s">
-        <v>186</v>
+        <v>12</v>
+      </c>
+      <c r="C91" s="42" t="s">
+        <v>183</v>
       </c>
       <c r="D91" s="84"/>
       <c r="E91" s="84"/>
@@ -8432,24 +8553,21 @@
       <c r="K91" s="84"/>
       <c r="L91" s="84"/>
       <c r="M91" s="82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N91" s="84"/>
       <c r="O91" s="84"/>
       <c r="P91" s="84"/>
       <c r="Q91" s="84"/>
       <c r="R91" s="84"/>
-      <c r="T91" s="81">
-        <f t="shared" ref="T91" si="18">SUM(E91:R91)</f>
-        <v>5</v>
-      </c>
+      <c r="T91" s="81"/>
     </row>
     <row r="92" spans="2:20" s="80" customFormat="1">
       <c r="B92" s="83">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C92" s="42" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D92" s="84"/>
       <c r="E92" s="84"/>
@@ -8460,22 +8578,22 @@
       <c r="J92" s="84"/>
       <c r="K92" s="84"/>
       <c r="L92" s="84"/>
-      <c r="M92" s="84"/>
-      <c r="N92" s="82">
-        <v>2</v>
-      </c>
+      <c r="M92" s="82">
+        <v>4</v>
+      </c>
+      <c r="N92" s="84"/>
       <c r="O92" s="84"/>
       <c r="P92" s="84"/>
       <c r="Q92" s="84"/>
       <c r="R92" s="84"/>
       <c r="T92" s="81"/>
     </row>
-    <row r="93" spans="2:20" s="80" customFormat="1">
+    <row r="93" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="B93" s="83">
-        <v>13</v>
-      </c>
-      <c r="C93" s="42" t="s">
-        <v>193</v>
+        <v>14</v>
+      </c>
+      <c r="C93" s="97" t="s">
+        <v>185</v>
       </c>
       <c r="D93" s="84"/>
       <c r="E93" s="84"/>
@@ -8486,22 +8604,25 @@
       <c r="J93" s="84"/>
       <c r="K93" s="84"/>
       <c r="L93" s="84"/>
-      <c r="M93" s="84"/>
-      <c r="N93" s="82">
-        <v>4</v>
-      </c>
+      <c r="M93" s="82">
+        <v>5</v>
+      </c>
+      <c r="N93" s="84"/>
       <c r="O93" s="84"/>
       <c r="P93" s="84"/>
       <c r="Q93" s="84"/>
       <c r="R93" s="84"/>
-      <c r="T93" s="81"/>
-    </row>
-    <row r="94" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
+      <c r="T93" s="81">
+        <f t="shared" ref="T93" si="19">SUM(E93:R93)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="2:20" s="80" customFormat="1">
       <c r="B94" s="83">
-        <v>14</v>
-      </c>
-      <c r="C94" s="97" t="s">
-        <v>194</v>
+        <v>12</v>
+      </c>
+      <c r="C94" s="42" t="s">
+        <v>191</v>
       </c>
       <c r="D94" s="84"/>
       <c r="E94" s="84"/>
@@ -8520,17 +8641,14 @@
       <c r="P94" s="84"/>
       <c r="Q94" s="84"/>
       <c r="R94" s="84"/>
-      <c r="T94" s="81">
-        <f t="shared" ref="T94" si="19">SUM(E94:R94)</f>
-        <v>2</v>
-      </c>
+      <c r="T94" s="81"/>
     </row>
     <row r="95" spans="2:20" s="80" customFormat="1">
       <c r="B95" s="83">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C95" s="42" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D95" s="84"/>
       <c r="E95" s="84"/>
@@ -8542,21 +8660,21 @@
       <c r="K95" s="84"/>
       <c r="L95" s="84"/>
       <c r="M95" s="84"/>
-      <c r="N95" s="84"/>
+      <c r="N95" s="82">
+        <v>4</v>
+      </c>
       <c r="O95" s="84"/>
       <c r="P95" s="84"/>
-      <c r="Q95" s="82">
-        <v>2</v>
-      </c>
+      <c r="Q95" s="84"/>
       <c r="R95" s="84"/>
       <c r="T95" s="81"/>
     </row>
-    <row r="96" spans="2:20" s="80" customFormat="1">
+    <row r="96" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="B96" s="83">
-        <v>16</v>
-      </c>
-      <c r="C96" s="42" t="s">
-        <v>208</v>
+        <v>14</v>
+      </c>
+      <c r="C96" s="97" t="s">
+        <v>193</v>
       </c>
       <c r="D96" s="84"/>
       <c r="E96" s="84"/>
@@ -8568,21 +8686,24 @@
       <c r="K96" s="84"/>
       <c r="L96" s="84"/>
       <c r="M96" s="84"/>
-      <c r="N96" s="84"/>
+      <c r="N96" s="82">
+        <v>2</v>
+      </c>
       <c r="O96" s="84"/>
       <c r="P96" s="84"/>
-      <c r="Q96" s="82">
+      <c r="Q96" s="84"/>
+      <c r="R96" s="84"/>
+      <c r="T96" s="81">
+        <f t="shared" ref="T96" si="20">SUM(E96:R96)</f>
         <v>2</v>
       </c>
-      <c r="R96" s="84"/>
-      <c r="T96" s="81"/>
-    </row>
-    <row r="97" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1">
+    </row>
+    <row r="97" spans="2:20" s="80" customFormat="1">
       <c r="B97" s="83">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C97" s="42" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D97" s="84"/>
       <c r="E97" s="84"/>
@@ -8598,11 +8719,63 @@
       <c r="O97" s="84"/>
       <c r="P97" s="84"/>
       <c r="Q97" s="82">
+        <v>2</v>
+      </c>
+      <c r="R97" s="84"/>
+      <c r="T97" s="81"/>
+    </row>
+    <row r="98" spans="2:20" s="80" customFormat="1">
+      <c r="B98" s="83">
+        <v>16</v>
+      </c>
+      <c r="C98" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D98" s="84"/>
+      <c r="E98" s="84"/>
+      <c r="F98" s="84"/>
+      <c r="G98" s="84"/>
+      <c r="H98" s="84"/>
+      <c r="I98" s="84"/>
+      <c r="J98" s="84"/>
+      <c r="K98" s="84"/>
+      <c r="L98" s="84"/>
+      <c r="M98" s="84"/>
+      <c r="N98" s="84"/>
+      <c r="O98" s="84"/>
+      <c r="P98" s="84"/>
+      <c r="Q98" s="82">
+        <v>2</v>
+      </c>
+      <c r="R98" s="84"/>
+      <c r="T98" s="81"/>
+    </row>
+    <row r="99" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1">
+      <c r="B99" s="83">
+        <v>17</v>
+      </c>
+      <c r="C99" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="D99" s="84"/>
+      <c r="E99" s="84"/>
+      <c r="F99" s="84"/>
+      <c r="G99" s="84"/>
+      <c r="H99" s="84"/>
+      <c r="I99" s="84"/>
+      <c r="J99" s="84"/>
+      <c r="K99" s="84"/>
+      <c r="L99" s="84"/>
+      <c r="M99" s="84"/>
+      <c r="N99" s="84"/>
+      <c r="O99" s="84"/>
+      <c r="P99" s="84"/>
+      <c r="Q99" s="82">
         <v>4</v>
       </c>
-      <c r="R97" s="84"/>
-      <c r="T97" s="81">
-        <f t="shared" ref="T97" si="20">SUM(E97:R97)</f>
+      <c r="R99" s="84"/>
+      <c r="T99" s="81">
+        <f t="shared" ref="T99" si="21">SUM(E99:R99)</f>
         <v>4</v>
       </c>
     </row>

--- a/docs/Listing_Tool_Status_Report_v1.0.xlsx
+++ b/docs/Listing_Tool_Status_Report_v1.0.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="-360" windowWidth="16605" windowHeight="9435" activeTab="2"/>
+    <workbookView xWindow="5352" yWindow="-360" windowWidth="16608" windowHeight="9432" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="WBS" sheetId="5" r:id="rId2"/>
     <sheet name="March 2015" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="221">
   <si>
     <t>Project Name:</t>
   </si>
@@ -2398,14 +2398,136 @@
   </si>
   <si>
     <t>6.3 验证自定议广告可行性</t>
+  </si>
+  <si>
+    <t>12.分析google adwors 关键字统计展示率和点击率;调研MCC创建google客户账号类型                              and                                                  翻译transaction表头;调整局部样式，测试表结构和表数据</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、分析广告组，关键字与广告关系，因为统计和关键字关联，未找到广告的统计</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、继续调研广告点击率和展示率</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、加入后头项目验证框架，调整</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SSO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过滤配置项</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、修改登录页面样式，修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>transaction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面中英翻译后的小三角对齐样式</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、修正国际化缓存异常情况</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -2417,7 +2539,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2480,7 +2602,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3058,7 +3180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3102,7 +3224,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3327,6 +3449,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3336,6 +3488,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3351,84 +3521,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="1"/>
     <cellStyle name="Normal 3 2" xfId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3444,7 +3569,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3518,6 +3643,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3552,6 +3678,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3727,22 +3854,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13.5" thickBot="1"/>
+    <row r="1" spans="2:10" ht="13.8" thickBot="1"/>
     <row r="2" spans="2:10">
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -3754,7 +3881,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="2:10" ht="33">
+    <row r="3" spans="2:10" ht="31.8">
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
         <v>0</v>
@@ -3994,7 +4121,7 @@
       <c r="I20" s="11"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="2:10" ht="13.5" thickBot="1">
+    <row r="21" spans="2:10" ht="13.8" thickBot="1">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -4013,25 +4140,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43:C44"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="39" style="52" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" style="53" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="68" customWidth="1"/>
-    <col min="7" max="8" width="11.5703125" style="52" customWidth="1"/>
-    <col min="9" max="9" width="38.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="33"/>
+    <col min="2" max="2" width="41.88671875" style="53" customWidth="1"/>
+    <col min="3" max="3" width="54.109375" style="52" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="52" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="68" customWidth="1"/>
+    <col min="7" max="8" width="11.5546875" style="52" customWidth="1"/>
+    <col min="9" max="9" width="38.44140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4063,7 +4190,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.5" thickBot="1">
+    <row r="2" spans="1:9" ht="13.8" thickBot="1">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="34"/>
@@ -4074,8 +4201,8 @@
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
     </row>
-    <row r="3" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A3" s="117" t="s">
+    <row r="3" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A3" s="121" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="37" t="s">
@@ -4095,8 +4222,8 @@
       </c>
       <c r="I3" s="41"/>
     </row>
-    <row r="4" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A4" s="118"/>
+    <row r="4" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A4" s="122"/>
       <c r="B4" s="42" t="s">
         <v>41</v>
       </c>
@@ -4114,8 +4241,8 @@
       </c>
       <c r="I4" s="46"/>
     </row>
-    <row r="5" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A5" s="119"/>
+    <row r="5" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A5" s="123"/>
       <c r="B5" s="47" t="s">
         <v>42</v>
       </c>
@@ -4131,7 +4258,7 @@
       <c r="H5" s="48"/>
       <c r="I5" s="51"/>
     </row>
-    <row r="6" spans="1:9" ht="13.5" thickBot="1">
+    <row r="6" spans="1:9" ht="13.8" thickBot="1">
       <c r="D6" s="54" t="s">
         <v>43</v>
       </c>
@@ -4143,25 +4270,25 @@
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
     </row>
-    <row r="7" spans="1:9" ht="13.5" thickTop="1">
+    <row r="7" spans="1:9" ht="13.8" thickTop="1">
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
       <c r="F7" s="57"/>
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
     </row>
-    <row r="8" spans="1:9" ht="13.5" thickBot="1">
+    <row r="8" spans="1:9" ht="13.8" thickBot="1">
       <c r="D8" s="54"/>
       <c r="E8" s="54"/>
       <c r="F8" s="57"/>
       <c r="G8" s="56"/>
       <c r="H8" s="56"/>
     </row>
-    <row r="9" spans="1:9" ht="26.65" customHeight="1">
-      <c r="A9" s="117" t="s">
+    <row r="9" spans="1:9" ht="26.7" customHeight="1">
+      <c r="A9" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="124" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="58" t="s">
@@ -4182,9 +4309,9 @@
       </c>
       <c r="I9" s="41"/>
     </row>
-    <row r="10" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A10" s="118"/>
-      <c r="B10" s="121"/>
+    <row r="10" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A10" s="122"/>
+      <c r="B10" s="125"/>
       <c r="C10" s="59" t="s">
         <v>47</v>
       </c>
@@ -4203,9 +4330,9 @@
       </c>
       <c r="I10" s="62"/>
     </row>
-    <row r="11" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A11" s="118"/>
-      <c r="B11" s="121"/>
+    <row r="11" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A11" s="122"/>
+      <c r="B11" s="125"/>
       <c r="C11" s="43" t="s">
         <v>49</v>
       </c>
@@ -4224,9 +4351,9 @@
       </c>
       <c r="I11" s="46"/>
     </row>
-    <row r="12" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A12" s="118"/>
-      <c r="B12" s="121"/>
+    <row r="12" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A12" s="122"/>
+      <c r="B12" s="125"/>
       <c r="C12" s="63" t="s">
         <v>50</v>
       </c>
@@ -4245,9 +4372,9 @@
       </c>
       <c r="I12" s="65"/>
     </row>
-    <row r="13" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A13" s="118"/>
-      <c r="B13" s="122"/>
+    <row r="13" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A13" s="122"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="63" t="s">
         <v>52</v>
       </c>
@@ -4264,9 +4391,9 @@
       </c>
       <c r="I13" s="65"/>
     </row>
-    <row r="14" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A14" s="118"/>
-      <c r="B14" s="111" t="s">
+    <row r="14" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A14" s="122"/>
+      <c r="B14" s="127" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="63" t="s">
@@ -4287,9 +4414,9 @@
       </c>
       <c r="I14" s="65"/>
     </row>
-    <row r="15" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A15" s="118"/>
-      <c r="B15" s="112"/>
+    <row r="15" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A15" s="122"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="63" t="s">
         <v>55</v>
       </c>
@@ -4308,9 +4435,9 @@
       </c>
       <c r="I15" s="65"/>
     </row>
-    <row r="16" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A16" s="118"/>
-      <c r="B16" s="112"/>
+    <row r="16" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A16" s="122"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="63" t="s">
         <v>57</v>
       </c>
@@ -4329,9 +4456,9 @@
       </c>
       <c r="I16" s="65"/>
     </row>
-    <row r="17" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A17" s="118"/>
-      <c r="B17" s="112"/>
+    <row r="17" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A17" s="122"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="63" t="s">
         <v>59</v>
       </c>
@@ -4350,9 +4477,9 @@
       </c>
       <c r="I17" s="65"/>
     </row>
-    <row r="18" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A18" s="118"/>
-      <c r="B18" s="112"/>
+    <row r="18" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A18" s="122"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="63" t="s">
         <v>60</v>
       </c>
@@ -4371,9 +4498,9 @@
       </c>
       <c r="I18" s="65"/>
     </row>
-    <row r="19" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A19" s="118"/>
-      <c r="B19" s="112"/>
+    <row r="19" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A19" s="122"/>
+      <c r="B19" s="128"/>
       <c r="C19" s="63" t="s">
         <v>61</v>
       </c>
@@ -4392,9 +4519,9 @@
       </c>
       <c r="I19" s="65"/>
     </row>
-    <row r="20" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A20" s="118"/>
-      <c r="B20" s="112"/>
+    <row r="20" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A20" s="122"/>
+      <c r="B20" s="128"/>
       <c r="C20" s="63" t="s">
         <v>62</v>
       </c>
@@ -4413,9 +4540,9 @@
       </c>
       <c r="I20" s="65"/>
     </row>
-    <row r="21" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A21" s="118"/>
-      <c r="B21" s="112"/>
+    <row r="21" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A21" s="122"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="90" t="s">
         <v>163</v>
       </c>
@@ -4432,9 +4559,9 @@
       </c>
       <c r="I21" s="65"/>
     </row>
-    <row r="22" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A22" s="119"/>
-      <c r="B22" s="113"/>
+    <row r="22" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A22" s="123"/>
+      <c r="B22" s="129"/>
       <c r="C22" s="66" t="s">
         <v>164</v>
       </c>
@@ -4451,7 +4578,7 @@
       </c>
       <c r="I22" s="51"/>
     </row>
-    <row r="23" spans="1:9" ht="13.5" thickBot="1">
+    <row r="23" spans="1:9" ht="13.8" thickBot="1">
       <c r="D23" s="54" t="s">
         <v>43</v>
       </c>
@@ -4463,22 +4590,22 @@
       <c r="G23" s="56"/>
       <c r="H23" s="56"/>
     </row>
-    <row r="24" spans="1:9" ht="13.5" thickTop="1">
+    <row r="24" spans="1:9" ht="13.8" thickTop="1">
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
       <c r="F24" s="57"/>
       <c r="G24" s="56"/>
       <c r="H24" s="56"/>
     </row>
-    <row r="25" spans="1:9" ht="13.5" thickBot="1">
+    <row r="25" spans="1:9" ht="13.8" thickBot="1">
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
       <c r="F25" s="57"/>
       <c r="G25" s="56"/>
       <c r="H25" s="56"/>
     </row>
-    <row r="26" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A26" s="127" t="s">
+    <row r="26" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A26" s="115" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="37" t="s">
@@ -4500,8 +4627,8 @@
       </c>
       <c r="I26" s="41"/>
     </row>
-    <row r="27" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A27" s="128"/>
+    <row r="27" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A27" s="116"/>
       <c r="B27" s="42" t="s">
         <v>66</v>
       </c>
@@ -4521,9 +4648,9 @@
       </c>
       <c r="I27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A28" s="128"/>
-      <c r="B28" s="114" t="s">
+    <row r="28" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A28" s="116"/>
+      <c r="B28" s="130" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="63" t="s">
@@ -4544,9 +4671,9 @@
       </c>
       <c r="I28" s="65"/>
     </row>
-    <row r="29" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A29" s="128"/>
-      <c r="B29" s="115"/>
+    <row r="29" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A29" s="116"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="63" t="s">
         <v>70</v>
       </c>
@@ -4565,9 +4692,9 @@
       </c>
       <c r="I29" s="65"/>
     </row>
-    <row r="30" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A30" s="128"/>
-      <c r="B30" s="123"/>
+    <row r="30" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A30" s="116"/>
+      <c r="B30" s="132"/>
       <c r="C30" s="63" t="s">
         <v>72</v>
       </c>
@@ -4586,9 +4713,9 @@
       </c>
       <c r="I30" s="65"/>
     </row>
-    <row r="31" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A31" s="128"/>
-      <c r="B31" s="114" t="s">
+    <row r="31" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A31" s="116"/>
+      <c r="B31" s="130" t="s">
         <v>126</v>
       </c>
       <c r="C31" s="70" t="s">
@@ -4609,9 +4736,9 @@
       </c>
       <c r="I31" s="65"/>
     </row>
-    <row r="32" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A32" s="128"/>
-      <c r="B32" s="115"/>
+    <row r="32" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A32" s="116"/>
+      <c r="B32" s="131"/>
       <c r="C32" s="70" t="s">
         <v>120</v>
       </c>
@@ -4630,9 +4757,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A33" s="128"/>
-      <c r="B33" s="115"/>
+    <row r="33" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A33" s="116"/>
+      <c r="B33" s="131"/>
       <c r="C33" s="70" t="s">
         <v>121</v>
       </c>
@@ -4653,9 +4780,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A34" s="128"/>
-      <c r="B34" s="115"/>
+    <row r="34" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A34" s="116"/>
+      <c r="B34" s="131"/>
       <c r="C34" s="70" t="s">
         <v>122</v>
       </c>
@@ -4674,9 +4801,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A35" s="128"/>
-      <c r="B35" s="115"/>
+    <row r="35" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A35" s="116"/>
+      <c r="B35" s="131"/>
       <c r="C35" s="70" t="s">
         <v>123</v>
       </c>
@@ -4695,9 +4822,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="12.95" customHeight="1">
-      <c r="A36" s="128"/>
-      <c r="B36" s="115"/>
+    <row r="36" spans="1:9" ht="12.9" customHeight="1">
+      <c r="A36" s="116"/>
+      <c r="B36" s="131"/>
       <c r="C36" s="70" t="s">
         <v>124</v>
       </c>
@@ -4716,9 +4843,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A37" s="128"/>
-      <c r="B37" s="116"/>
+    <row r="37" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A37" s="116"/>
+      <c r="B37" s="140"/>
       <c r="C37" s="73" t="s">
         <v>125</v>
       </c>
@@ -4735,9 +4862,9 @@
       </c>
       <c r="I37" s="51"/>
     </row>
-    <row r="38" spans="1:9" ht="13.7" customHeight="1">
-      <c r="A38" s="128"/>
-      <c r="B38" s="124" t="s">
+    <row r="38" spans="1:9" ht="13.65" customHeight="1">
+      <c r="A38" s="116"/>
+      <c r="B38" s="133" t="s">
         <v>167</v>
       </c>
       <c r="C38" s="70" t="s">
@@ -4758,9 +4885,9 @@
       </c>
       <c r="I38" s="70"/>
     </row>
-    <row r="39" spans="1:9" ht="13.7" customHeight="1">
-      <c r="A39" s="128"/>
-      <c r="B39" s="125"/>
+    <row r="39" spans="1:9" ht="13.65" customHeight="1">
+      <c r="A39" s="116"/>
+      <c r="B39" s="134"/>
       <c r="C39" s="70" t="s">
         <v>168</v>
       </c>
@@ -4779,9 +4906,9 @@
       </c>
       <c r="I39" s="70"/>
     </row>
-    <row r="40" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A40" s="128"/>
-      <c r="B40" s="125"/>
+    <row r="40" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A40" s="116"/>
+      <c r="B40" s="134"/>
       <c r="C40" s="73" t="s">
         <v>169</v>
       </c>
@@ -4800,9 +4927,9 @@
       </c>
       <c r="I40" s="51"/>
     </row>
-    <row r="41" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A41" s="128"/>
-      <c r="B41" s="125"/>
+    <row r="41" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A41" s="116"/>
+      <c r="B41" s="134"/>
       <c r="C41" s="73" t="s">
         <v>186</v>
       </c>
@@ -4821,9 +4948,9 @@
       </c>
       <c r="I41" s="51"/>
     </row>
-    <row r="42" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A42" s="128"/>
-      <c r="B42" s="126"/>
+    <row r="42" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A42" s="116"/>
+      <c r="B42" s="135"/>
       <c r="C42" s="73" t="s">
         <v>194</v>
       </c>
@@ -4842,9 +4969,9 @@
       </c>
       <c r="I42" s="51"/>
     </row>
-    <row r="43" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A43" s="128"/>
-      <c r="B43" s="124" t="s">
+    <row r="43" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A43" s="116"/>
+      <c r="B43" s="133" t="s">
         <v>211</v>
       </c>
       <c r="C43" s="73" t="s">
@@ -4860,14 +4987,14 @@
       <c r="G43" s="78">
         <v>42094</v>
       </c>
-      <c r="H43" s="138">
+      <c r="H43" s="113">
         <v>42096</v>
       </c>
       <c r="I43" s="51"/>
     </row>
-    <row r="44" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A44" s="128"/>
-      <c r="B44" s="125"/>
+    <row r="44" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A44" s="116"/>
+      <c r="B44" s="134"/>
       <c r="C44" s="73" t="s">
         <v>213</v>
       </c>
@@ -4881,14 +5008,14 @@
       <c r="G44" s="78">
         <v>42094</v>
       </c>
-      <c r="H44" s="138">
+      <c r="H44" s="113">
         <v>42096</v>
       </c>
       <c r="I44" s="51"/>
     </row>
-    <row r="45" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
-      <c r="A45" s="129"/>
-      <c r="B45" s="126"/>
+    <row r="45" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
+      <c r="A45" s="117"/>
+      <c r="B45" s="135"/>
       <c r="C45" s="73" t="s">
         <v>214</v>
       </c>
@@ -4900,23 +5027,23 @@
       <c r="G45" s="78">
         <v>42094</v>
       </c>
-      <c r="H45" s="138">
+      <c r="H45" s="113">
         <v>42096</v>
       </c>
       <c r="I45" s="51"/>
     </row>
-    <row r="46" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+    <row r="46" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
       <c r="A46" s="107"/>
-      <c r="B46" s="135"/>
-      <c r="C46" s="135"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="134"/>
-      <c r="F46" s="136"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="139"/>
-      <c r="I46" s="134"/>
-    </row>
-    <row r="47" spans="1:9" ht="13.5" thickBot="1">
+      <c r="B46" s="110"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="112"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="109"/>
+    </row>
+    <row r="47" spans="1:9" ht="13.8" thickBot="1">
       <c r="D47" s="54" t="s">
         <v>43</v>
       </c>
@@ -4928,7 +5055,7 @@
       <c r="G47" s="56"/>
       <c r="H47" s="56"/>
     </row>
-    <row r="48" spans="1:9" ht="14.25" thickTop="1" thickBot="1">
+    <row r="48" spans="1:9" ht="14.4" thickTop="1" thickBot="1">
       <c r="D48" s="54"/>
       <c r="E48" s="54"/>
       <c r="F48" s="57"/>
@@ -4936,7 +5063,7 @@
       <c r="H48" s="56"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="117" t="s">
+      <c r="A49" s="121" t="s">
         <v>74</v>
       </c>
       <c r="B49" s="37" t="s">
@@ -4957,8 +5084,8 @@
       <c r="I49" s="41"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="118"/>
-      <c r="B50" s="111" t="s">
+      <c r="A50" s="122"/>
+      <c r="B50" s="127" t="s">
         <v>77</v>
       </c>
       <c r="C50" s="69" t="s">
@@ -4978,8 +5105,8 @@
       <c r="I50" s="46"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="118"/>
-      <c r="B51" s="112"/>
+      <c r="A51" s="122"/>
+      <c r="B51" s="128"/>
       <c r="C51" s="63" t="s">
         <v>79</v>
       </c>
@@ -4997,8 +5124,8 @@
       <c r="I51" s="65"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="118"/>
-      <c r="B52" s="112"/>
+      <c r="A52" s="122"/>
+      <c r="B52" s="128"/>
       <c r="C52" s="63" t="s">
         <v>80</v>
       </c>
@@ -5016,8 +5143,8 @@
       <c r="I52" s="65"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="118"/>
-      <c r="B53" s="112"/>
+      <c r="A53" s="122"/>
+      <c r="B53" s="128"/>
       <c r="C53" s="63" t="s">
         <v>81</v>
       </c>
@@ -5035,8 +5162,8 @@
       <c r="I53" s="65"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="118"/>
-      <c r="B54" s="112"/>
+      <c r="A54" s="122"/>
+      <c r="B54" s="128"/>
       <c r="C54" s="63" t="s">
         <v>83</v>
       </c>
@@ -5054,8 +5181,8 @@
       <c r="I54" s="65"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="118"/>
-      <c r="B55" s="130"/>
+      <c r="A55" s="122"/>
+      <c r="B55" s="136"/>
       <c r="C55" s="63" t="s">
         <v>85</v>
       </c>
@@ -5073,8 +5200,8 @@
       <c r="I55" s="65"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="118"/>
-      <c r="B56" s="111" t="s">
+      <c r="A56" s="122"/>
+      <c r="B56" s="127" t="s">
         <v>87</v>
       </c>
       <c r="C56" s="63" t="s">
@@ -5097,8 +5224,8 @@
       <c r="I56" s="65"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="118"/>
-      <c r="B57" s="112"/>
+      <c r="A57" s="122"/>
+      <c r="B57" s="128"/>
       <c r="C57" s="70" t="s">
         <v>90</v>
       </c>
@@ -5119,8 +5246,8 @@
       <c r="I57" s="65"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="118"/>
-      <c r="B58" s="112"/>
+      <c r="A58" s="122"/>
+      <c r="B58" s="128"/>
       <c r="C58" s="63" t="s">
         <v>91</v>
       </c>
@@ -5141,8 +5268,8 @@
       <c r="I58" s="65"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="118"/>
-      <c r="B59" s="112"/>
+      <c r="A59" s="122"/>
+      <c r="B59" s="128"/>
       <c r="C59" s="70" t="s">
         <v>93</v>
       </c>
@@ -5163,8 +5290,8 @@
       <c r="I59" s="71"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="118"/>
-      <c r="B60" s="112"/>
+      <c r="A60" s="122"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="70" t="s">
         <v>94</v>
       </c>
@@ -5185,8 +5312,8 @@
       <c r="I60" s="65"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="118"/>
-      <c r="B61" s="112"/>
+      <c r="A61" s="122"/>
+      <c r="B61" s="128"/>
       <c r="C61" s="70" t="s">
         <v>96</v>
       </c>
@@ -5206,9 +5333,9 @@
       </c>
       <c r="I61" s="71"/>
     </row>
-    <row r="62" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A62" s="118"/>
-      <c r="B62" s="112"/>
+    <row r="62" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A62" s="122"/>
+      <c r="B62" s="128"/>
       <c r="C62" s="70" t="s">
         <v>198</v>
       </c>
@@ -5228,9 +5355,9 @@
       </c>
       <c r="I62" s="71"/>
     </row>
-    <row r="63" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A63" s="118"/>
-      <c r="B63" s="112"/>
+    <row r="63" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A63" s="122"/>
+      <c r="B63" s="128"/>
       <c r="C63" s="70" t="s">
         <v>199</v>
       </c>
@@ -5250,9 +5377,9 @@
       </c>
       <c r="I63" s="71"/>
     </row>
-    <row r="64" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A64" s="118"/>
-      <c r="B64" s="112"/>
+    <row r="64" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A64" s="122"/>
+      <c r="B64" s="128"/>
       <c r="C64" s="70" t="s">
         <v>200</v>
       </c>
@@ -5272,9 +5399,9 @@
       </c>
       <c r="I64" s="71"/>
     </row>
-    <row r="65" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A65" s="118"/>
-      <c r="B65" s="112"/>
+    <row r="65" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A65" s="122"/>
+      <c r="B65" s="128"/>
       <c r="C65" s="70" t="s">
         <v>201</v>
       </c>
@@ -5294,9 +5421,9 @@
       </c>
       <c r="I65" s="71"/>
     </row>
-    <row r="66" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A66" s="118"/>
-      <c r="B66" s="112"/>
+    <row r="66" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A66" s="122"/>
+      <c r="B66" s="128"/>
       <c r="C66" s="70" t="s">
         <v>209</v>
       </c>
@@ -5316,9 +5443,9 @@
       </c>
       <c r="I66" s="71"/>
     </row>
-    <row r="67" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A67" s="119"/>
-      <c r="B67" s="113"/>
+    <row r="67" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A67" s="123"/>
+      <c r="B67" s="129"/>
       <c r="C67" s="73"/>
       <c r="D67" s="73" t="s">
         <v>76</v>
@@ -5333,7 +5460,7 @@
       </c>
       <c r="I67" s="51"/>
     </row>
-    <row r="68" spans="1:9" ht="13.5" thickBot="1">
+    <row r="68" spans="1:9" ht="13.8" thickBot="1">
       <c r="D68" s="54" t="s">
         <v>43</v>
       </c>
@@ -5343,13 +5470,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="13.5" thickTop="1"/>
-    <row r="70" spans="1:9" ht="13.5" thickBot="1"/>
+    <row r="69" spans="1:9" ht="13.8" thickTop="1"/>
+    <row r="70" spans="1:9" ht="13.8" thickBot="1"/>
     <row r="71" spans="1:9">
-      <c r="A71" s="131" t="s">
+      <c r="A71" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="B71" s="132" t="s">
+      <c r="B71" s="138" t="s">
         <v>135</v>
       </c>
       <c r="C71" s="38" t="s">
@@ -5371,8 +5498,8 @@
       <c r="I71" s="41"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="118"/>
-      <c r="B72" s="133"/>
+      <c r="A72" s="122"/>
+      <c r="B72" s="139"/>
       <c r="C72" s="59" t="s">
         <v>100</v>
       </c>
@@ -5392,8 +5519,8 @@
       <c r="I72" s="62"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="118"/>
-      <c r="B73" s="111" t="s">
+      <c r="A73" s="122"/>
+      <c r="B73" s="127" t="s">
         <v>137</v>
       </c>
       <c r="C73" s="43" t="s">
@@ -5415,8 +5542,8 @@
       <c r="I73" s="46"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="118"/>
-      <c r="B74" s="112"/>
+      <c r="A74" s="122"/>
+      <c r="B74" s="128"/>
       <c r="C74" s="63" t="s">
         <v>103</v>
       </c>
@@ -5436,8 +5563,8 @@
       <c r="I74" s="65"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="118"/>
-      <c r="B75" s="112"/>
+      <c r="A75" s="122"/>
+      <c r="B75" s="128"/>
       <c r="C75" s="63" t="s">
         <v>105</v>
       </c>
@@ -5457,8 +5584,8 @@
       <c r="I75" s="65"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="118"/>
-      <c r="B76" s="130"/>
+      <c r="A76" s="122"/>
+      <c r="B76" s="136"/>
       <c r="C76" s="63" t="s">
         <v>107</v>
       </c>
@@ -5478,7 +5605,7 @@
       <c r="I76" s="65"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="118"/>
+      <c r="A77" s="122"/>
       <c r="B77" s="42" t="s">
         <v>139</v>
       </c>
@@ -5499,8 +5626,8 @@
       <c r="I77" s="65"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="118"/>
-      <c r="B78" s="111" t="s">
+      <c r="A78" s="122"/>
+      <c r="B78" s="127" t="s">
         <v>141</v>
       </c>
       <c r="C78" s="63" t="s">
@@ -5522,8 +5649,8 @@
       <c r="I78" s="65"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="118"/>
-      <c r="B79" s="112"/>
+      <c r="A79" s="122"/>
+      <c r="B79" s="128"/>
       <c r="C79" s="63" t="s">
         <v>111</v>
       </c>
@@ -5543,8 +5670,8 @@
       <c r="I79" s="65"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="118"/>
-      <c r="B80" s="112"/>
+      <c r="A80" s="122"/>
+      <c r="B80" s="128"/>
       <c r="C80" s="63" t="s">
         <v>112</v>
       </c>
@@ -5564,8 +5691,8 @@
       <c r="I80" s="65"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="118"/>
-      <c r="B81" s="130"/>
+      <c r="A81" s="122"/>
+      <c r="B81" s="136"/>
       <c r="C81" s="63" t="s">
         <v>113</v>
       </c>
@@ -5585,7 +5712,7 @@
       <c r="I81" s="71"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="118"/>
+      <c r="A82" s="122"/>
       <c r="B82" s="42" t="s">
         <v>143</v>
       </c>
@@ -5607,9 +5734,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A83" s="119"/>
-      <c r="B83" s="111" t="s">
+    <row r="83" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A83" s="123"/>
+      <c r="B83" s="127" t="s">
         <v>144</v>
       </c>
       <c r="C83" s="42" t="s">
@@ -5630,7 +5757,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="91"/>
-      <c r="B84" s="112"/>
+      <c r="B84" s="128"/>
       <c r="C84" s="42" t="s">
         <v>146</v>
       </c>
@@ -5649,7 +5776,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="92"/>
-      <c r="B85" s="112"/>
+      <c r="B85" s="128"/>
       <c r="C85" s="42" t="s">
         <v>149</v>
       </c>
@@ -5668,7 +5795,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="92"/>
-      <c r="B86" s="112"/>
+      <c r="B86" s="128"/>
       <c r="C86" s="42" t="s">
         <v>147</v>
       </c>
@@ -5687,7 +5814,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="92"/>
-      <c r="B87" s="112"/>
+      <c r="B87" s="128"/>
       <c r="C87" s="42" t="s">
         <v>150</v>
       </c>
@@ -5704,9 +5831,9 @@
       </c>
       <c r="I87" s="71"/>
     </row>
-    <row r="88" spans="1:9" ht="13.5" thickBot="1">
+    <row r="88" spans="1:9" ht="13.8" thickBot="1">
       <c r="A88" s="92"/>
-      <c r="B88" s="113"/>
+      <c r="B88" s="129"/>
       <c r="C88" s="76" t="s">
         <v>148</v>
       </c>
@@ -5725,7 +5852,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="92"/>
-      <c r="B89" s="108" t="s">
+      <c r="B89" s="118" t="s">
         <v>162</v>
       </c>
       <c r="C89" s="42" t="s">
@@ -5746,7 +5873,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="92"/>
-      <c r="B90" s="109"/>
+      <c r="B90" s="119"/>
       <c r="C90" s="42" t="s">
         <v>155</v>
       </c>
@@ -5765,7 +5892,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="92"/>
-      <c r="B91" s="109"/>
+      <c r="B91" s="119"/>
       <c r="C91" s="42" t="s">
         <v>156</v>
       </c>
@@ -5784,7 +5911,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="92"/>
-      <c r="B92" s="109"/>
+      <c r="B92" s="119"/>
       <c r="C92" s="42" t="s">
         <v>159</v>
       </c>
@@ -5803,7 +5930,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="92"/>
-      <c r="B93" s="109"/>
+      <c r="B93" s="119"/>
       <c r="C93" s="42" t="s">
         <v>160</v>
       </c>
@@ -5820,9 +5947,9 @@
       </c>
       <c r="I93" s="71"/>
     </row>
-    <row r="94" spans="1:9" ht="13.5" thickBot="1">
+    <row r="94" spans="1:9" ht="13.8" thickBot="1">
       <c r="A94" s="93"/>
-      <c r="B94" s="110"/>
+      <c r="B94" s="120"/>
       <c r="C94" s="76" t="s">
         <v>161</v>
       </c>
@@ -5841,7 +5968,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="92"/>
-      <c r="B95" s="108" t="s">
+      <c r="B95" s="118" t="s">
         <v>171</v>
       </c>
       <c r="C95" s="42" t="s">
@@ -5862,7 +5989,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="92"/>
-      <c r="B96" s="109"/>
+      <c r="B96" s="119"/>
       <c r="C96" s="42" t="s">
         <v>173</v>
       </c>
@@ -5881,7 +6008,7 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="92"/>
-      <c r="B97" s="109"/>
+      <c r="B97" s="119"/>
       <c r="C97" s="42" t="s">
         <v>174</v>
       </c>
@@ -5900,7 +6027,7 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="92"/>
-      <c r="B98" s="109"/>
+      <c r="B98" s="119"/>
       <c r="C98" s="42" t="s">
         <v>175</v>
       </c>
@@ -5919,7 +6046,7 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="92"/>
-      <c r="B99" s="109"/>
+      <c r="B99" s="119"/>
       <c r="C99" s="42" t="s">
         <v>176</v>
       </c>
@@ -5936,9 +6063,9 @@
       </c>
       <c r="I99" s="71"/>
     </row>
-    <row r="100" spans="1:9" ht="50.25" thickBot="1">
+    <row r="100" spans="1:9" ht="51" thickBot="1">
       <c r="A100" s="93"/>
-      <c r="B100" s="110"/>
+      <c r="B100" s="120"/>
       <c r="C100" s="97" t="s">
         <v>177</v>
       </c>
@@ -5957,7 +6084,7 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="92"/>
-      <c r="B101" s="108" t="s">
+      <c r="B101" s="118" t="s">
         <v>179</v>
       </c>
       <c r="C101" s="42" t="s">
@@ -5978,7 +6105,7 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="92"/>
-      <c r="B102" s="109"/>
+      <c r="B102" s="119"/>
       <c r="C102" s="42" t="s">
         <v>181</v>
       </c>
@@ -5997,7 +6124,7 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="92"/>
-      <c r="B103" s="109"/>
+      <c r="B103" s="119"/>
       <c r="C103" s="42" t="s">
         <v>182</v>
       </c>
@@ -6016,7 +6143,7 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="92"/>
-      <c r="B104" s="109"/>
+      <c r="B104" s="119"/>
       <c r="C104" s="42" t="s">
         <v>183</v>
       </c>
@@ -6035,7 +6162,7 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="92"/>
-      <c r="B105" s="109"/>
+      <c r="B105" s="119"/>
       <c r="C105" s="42" t="s">
         <v>184</v>
       </c>
@@ -6052,9 +6179,9 @@
       </c>
       <c r="I105" s="71"/>
     </row>
-    <row r="106" spans="1:9" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="106" spans="1:9" ht="16.95" customHeight="1" thickBot="1">
       <c r="A106" s="93"/>
-      <c r="B106" s="110"/>
+      <c r="B106" s="120"/>
       <c r="C106" s="97" t="s">
         <v>185</v>
       </c>
@@ -6073,7 +6200,7 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="92"/>
-      <c r="B107" s="108" t="s">
+      <c r="B107" s="118" t="s">
         <v>187</v>
       </c>
       <c r="C107" s="42" t="s">
@@ -6094,7 +6221,7 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="92"/>
-      <c r="B108" s="109"/>
+      <c r="B108" s="119"/>
       <c r="C108" s="42" t="s">
         <v>189</v>
       </c>
@@ -6113,7 +6240,7 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="92"/>
-      <c r="B109" s="109"/>
+      <c r="B109" s="119"/>
       <c r="C109" s="42" t="s">
         <v>190</v>
       </c>
@@ -6132,7 +6259,7 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="92"/>
-      <c r="B110" s="109"/>
+      <c r="B110" s="119"/>
       <c r="C110" s="42" t="s">
         <v>191</v>
       </c>
@@ -6151,7 +6278,7 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="92"/>
-      <c r="B111" s="109"/>
+      <c r="B111" s="119"/>
       <c r="C111" s="42" t="s">
         <v>192</v>
       </c>
@@ -6168,9 +6295,9 @@
       </c>
       <c r="I111" s="71"/>
     </row>
-    <row r="112" spans="1:9" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="112" spans="1:9" ht="16.95" customHeight="1" thickBot="1">
       <c r="A112" s="93"/>
-      <c r="B112" s="110"/>
+      <c r="B112" s="120"/>
       <c r="C112" s="97" t="s">
         <v>193</v>
       </c>
@@ -6189,7 +6316,7 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="103"/>
-      <c r="B113" s="108" t="s">
+      <c r="B113" s="118" t="s">
         <v>202</v>
       </c>
       <c r="C113" s="42" t="s">
@@ -6210,7 +6337,7 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="92"/>
-      <c r="B114" s="109"/>
+      <c r="B114" s="119"/>
       <c r="C114" s="42" t="s">
         <v>205</v>
       </c>
@@ -6229,7 +6356,7 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="92"/>
-      <c r="B115" s="109"/>
+      <c r="B115" s="119"/>
       <c r="C115" s="42" t="s">
         <v>206</v>
       </c>
@@ -6248,7 +6375,7 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="92"/>
-      <c r="B116" s="109"/>
+      <c r="B116" s="119"/>
       <c r="C116" s="42" t="s">
         <v>207</v>
       </c>
@@ -6265,9 +6392,9 @@
       </c>
       <c r="I116" s="71"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" ht="13.8" thickBot="1">
       <c r="A117" s="93"/>
-      <c r="B117" s="110"/>
+      <c r="B117" s="120"/>
       <c r="C117" s="42" t="s">
         <v>208</v>
       </c>
@@ -6284,8 +6411,112 @@
       </c>
       <c r="I117" s="106"/>
     </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="103"/>
+      <c r="B118" s="118" t="s">
+        <v>215</v>
+      </c>
+      <c r="C118" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="D118" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="E118" s="108"/>
+      <c r="F118" s="64"/>
+      <c r="G118" s="67">
+        <v>42094</v>
+      </c>
+      <c r="H118" s="67">
+        <v>42094</v>
+      </c>
+      <c r="I118" s="71"/>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="92"/>
+      <c r="B119" s="119"/>
+      <c r="C119" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="D119" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="E119" s="108"/>
+      <c r="F119" s="64"/>
+      <c r="G119" s="67">
+        <v>42094</v>
+      </c>
+      <c r="H119" s="67">
+        <v>42094</v>
+      </c>
+      <c r="I119" s="71"/>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="92"/>
+      <c r="B120" s="119"/>
+      <c r="C120" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="D120" s="108" t="s">
+        <v>158</v>
+      </c>
+      <c r="E120" s="108"/>
+      <c r="F120" s="64"/>
+      <c r="G120" s="67">
+        <v>42094</v>
+      </c>
+      <c r="H120" s="67">
+        <v>42094</v>
+      </c>
+      <c r="I120" s="71"/>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="92"/>
+      <c r="B121" s="119"/>
+      <c r="C121" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="D121" s="108" t="s">
+        <v>158</v>
+      </c>
+      <c r="E121" s="108"/>
+      <c r="F121" s="64"/>
+      <c r="G121" s="67">
+        <v>42094</v>
+      </c>
+      <c r="H121" s="67">
+        <v>42094</v>
+      </c>
+      <c r="I121" s="71"/>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="93"/>
+      <c r="B122" s="120"/>
+      <c r="C122" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D122" s="104" t="s">
+        <v>158</v>
+      </c>
+      <c r="E122" s="104"/>
+      <c r="F122" s="105"/>
+      <c r="G122" s="67">
+        <v>42094</v>
+      </c>
+      <c r="H122" s="67">
+        <v>42094</v>
+      </c>
+      <c r="I122" s="106"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="B118:B122"/>
+    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="B43:B45"/>
     <mergeCell ref="A26:A45"/>
     <mergeCell ref="B113:B117"/>
     <mergeCell ref="A3:A5"/>
@@ -6302,12 +6533,6 @@
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="B73:B76"/>
     <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B101:B106"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="B89:B94"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B43:B45"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6316,29 +6541,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V43" sqref="V43"/>
+      <selection pane="bottomRight" activeCell="O77" sqref="O77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="64.85546875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="23" customWidth="1"/>
-    <col min="5" max="18" width="4.42578125" style="23" customWidth="1"/>
-    <col min="19" max="19" width="2.85546875" style="23" customWidth="1"/>
-    <col min="20" max="20" width="7.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="8.109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="81.21875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="23" customWidth="1"/>
+    <col min="5" max="18" width="4.44140625" style="23" customWidth="1"/>
+    <col min="19" max="19" width="2.88671875" style="23" customWidth="1"/>
+    <col min="20" max="20" width="7.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75">
+    <row r="1" spans="1:20" ht="15.6">
       <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
@@ -6425,7 +6650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="13.5" thickBot="1">
+    <row r="9" spans="1:20" ht="13.8" thickBot="1">
       <c r="B9" s="20" t="s">
         <v>10</v>
       </c>
@@ -6433,7 +6658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="25.5">
+    <row r="10" spans="1:20">
       <c r="B10" s="87">
         <v>1</v>
       </c>
@@ -7488,7 +7713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="80" customFormat="1" ht="13.5" thickBot="1">
+    <row r="50" spans="1:20" s="80" customFormat="1" ht="13.8" thickBot="1">
       <c r="B50" s="83">
         <v>8</v>
       </c>
@@ -8216,170 +8441,173 @@
       </c>
       <c r="R76" s="84"/>
       <c r="T76" s="81">
-        <f t="shared" ref="T76" si="15">SUM(E76:R76)</f>
+        <f t="shared" ref="T76:T77" si="15">SUM(E76:R76)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
-      <c r="A78" s="24" t="s">
+    <row r="77" spans="1:20" s="80" customFormat="1">
+      <c r="B77" s="83">
+        <v>18</v>
+      </c>
+      <c r="C77" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" s="84"/>
+      <c r="E77" s="84"/>
+      <c r="F77" s="84"/>
+      <c r="G77" s="84"/>
+      <c r="H77" s="84"/>
+      <c r="I77" s="84"/>
+      <c r="J77" s="84"/>
+      <c r="K77" s="84"/>
+      <c r="L77" s="84"/>
+      <c r="M77" s="84"/>
+      <c r="N77" s="84"/>
+      <c r="O77" s="84"/>
+      <c r="P77" s="84"/>
+      <c r="Q77" s="84"/>
+      <c r="R77" s="82">
+        <v>4</v>
+      </c>
+      <c r="T77" s="81">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" s="80" customFormat="1">
+      <c r="B78" s="83">
+        <v>19</v>
+      </c>
+      <c r="C78" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="D78" s="84"/>
+      <c r="E78" s="84"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="84"/>
+      <c r="H78" s="84"/>
+      <c r="I78" s="84"/>
+      <c r="J78" s="84"/>
+      <c r="K78" s="84"/>
+      <c r="L78" s="84"/>
+      <c r="M78" s="84"/>
+      <c r="N78" s="84"/>
+      <c r="O78" s="84"/>
+      <c r="P78" s="84"/>
+      <c r="Q78" s="84"/>
+      <c r="R78" s="82">
+        <v>4</v>
+      </c>
+      <c r="T78" s="81">
+        <f t="shared" ref="T78" si="16">SUM(E78:R78)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="A80" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
-      <c r="B79" s="20" t="s">
+    <row r="81" spans="2:20">
+      <c r="B81" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
-      <c r="B80" s="21">
+    <row r="82" spans="2:20">
+      <c r="B82" s="21">
         <v>1</v>
       </c>
-      <c r="C80" s="25" t="s">
+      <c r="C82" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D80" s="25"/>
-      <c r="E80" s="19">
+      <c r="D82" s="25"/>
+      <c r="E82" s="19">
         <v>8</v>
       </c>
-      <c r="F80" s="19">
+      <c r="F82" s="19">
         <v>8</v>
       </c>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="25"/>
-      <c r="L80" s="25"/>
-      <c r="M80" s="25"/>
-      <c r="N80" s="25"/>
-      <c r="O80" s="25"/>
-      <c r="P80" s="25"/>
-      <c r="Q80" s="25"/>
-      <c r="R80" s="25"/>
-      <c r="T80" s="3">
-        <f t="shared" ref="T80:T84" si="16">SUM(E80:R80)</f>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="25"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="25"/>
+      <c r="Q82" s="25"/>
+      <c r="R82" s="25"/>
+      <c r="T82" s="3">
+        <f t="shared" ref="T82:T86" si="17">SUM(E82:R82)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="2:20">
-      <c r="B81" s="83">
+    <row r="83" spans="2:20">
+      <c r="B83" s="83">
         <v>2</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="C83" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="19">
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="19">
         <v>8</v>
       </c>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="84"/>
-      <c r="K81" s="25"/>
-      <c r="L81" s="25"/>
-      <c r="M81" s="25"/>
-      <c r="N81" s="25"/>
-      <c r="O81" s="25"/>
-      <c r="P81" s="25"/>
-      <c r="Q81" s="25"/>
-      <c r="R81" s="25"/>
-      <c r="T81" s="3">
-        <f t="shared" si="16"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="84"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="25"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="25"/>
+      <c r="R83" s="25"/>
+      <c r="T83" s="3">
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="2:20" s="80" customFormat="1">
-      <c r="B82" s="83">
+    <row r="84" spans="2:20" s="80" customFormat="1">
+      <c r="B84" s="83">
         <v>3</v>
       </c>
-      <c r="C82" s="74">
+      <c r="C84" s="74">
         <v>6.4</v>
       </c>
-      <c r="D82" s="84"/>
-      <c r="E82" s="84"/>
-      <c r="F82" s="84"/>
-      <c r="G82" s="84"/>
-      <c r="H82" s="84"/>
-      <c r="I82" s="84"/>
-      <c r="J82" s="82">
+      <c r="D84" s="84"/>
+      <c r="E84" s="84"/>
+      <c r="F84" s="84"/>
+      <c r="G84" s="84"/>
+      <c r="H84" s="84"/>
+      <c r="I84" s="84"/>
+      <c r="J84" s="82">
         <v>2</v>
       </c>
-      <c r="K82" s="84"/>
-      <c r="L82" s="84"/>
-      <c r="M82" s="84"/>
-      <c r="N82" s="84"/>
-      <c r="O82" s="84"/>
-      <c r="P82" s="84"/>
-      <c r="Q82" s="84"/>
-      <c r="R82" s="84"/>
-      <c r="T82" s="81"/>
-    </row>
-    <row r="83" spans="2:20" s="80" customFormat="1">
-      <c r="B83" s="83">
-        <v>4</v>
-      </c>
-      <c r="C83" s="74">
-        <v>6.5</v>
-      </c>
-      <c r="D83" s="84"/>
-      <c r="E83" s="84"/>
-      <c r="F83" s="84"/>
-      <c r="G83" s="84"/>
-      <c r="H83" s="84"/>
-      <c r="I83" s="84"/>
-      <c r="J83" s="82">
-        <v>3</v>
-      </c>
-      <c r="K83" s="84"/>
-      <c r="L83" s="84"/>
-      <c r="M83" s="84"/>
-      <c r="N83" s="84"/>
-      <c r="O83" s="84"/>
-      <c r="P83" s="84"/>
-      <c r="Q83" s="84"/>
-      <c r="R83" s="84"/>
-      <c r="T83" s="81"/>
-    </row>
-    <row r="84" spans="2:20">
-      <c r="B84" s="83">
-        <v>5</v>
-      </c>
-      <c r="C84" s="74">
-        <v>6.6</v>
-      </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="82">
-        <v>3</v>
-      </c>
-      <c r="K84" s="25"/>
-      <c r="L84" s="25"/>
-      <c r="M84" s="25"/>
-      <c r="N84" s="25"/>
-      <c r="O84" s="25"/>
-      <c r="P84" s="25"/>
-      <c r="Q84" s="25"/>
-      <c r="R84" s="25"/>
-      <c r="T84" s="3">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
+      <c r="K84" s="84"/>
+      <c r="L84" s="84"/>
+      <c r="M84" s="84"/>
+      <c r="N84" s="84"/>
+      <c r="O84" s="84"/>
+      <c r="P84" s="84"/>
+      <c r="Q84" s="84"/>
+      <c r="R84" s="84"/>
+      <c r="T84" s="81"/>
     </row>
     <row r="85" spans="2:20" s="80" customFormat="1">
       <c r="B85" s="83">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C85" s="74">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="D85" s="84"/>
       <c r="E85" s="84"/>
@@ -8387,10 +8615,10 @@
       <c r="G85" s="84"/>
       <c r="H85" s="84"/>
       <c r="I85" s="84"/>
-      <c r="J85" s="84"/>
-      <c r="K85" s="82">
-        <v>2</v>
-      </c>
+      <c r="J85" s="82">
+        <v>3</v>
+      </c>
+      <c r="K85" s="84"/>
       <c r="L85" s="84"/>
       <c r="M85" s="84"/>
       <c r="N85" s="84"/>
@@ -8400,38 +8628,41 @@
       <c r="R85" s="84"/>
       <c r="T85" s="81"/>
     </row>
-    <row r="86" spans="2:20" s="80" customFormat="1">
+    <row r="86" spans="2:20">
       <c r="B86" s="83">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C86" s="74">
-        <v>7.5</v>
-      </c>
-      <c r="D86" s="84"/>
-      <c r="E86" s="84"/>
-      <c r="F86" s="84"/>
-      <c r="G86" s="84"/>
-      <c r="H86" s="84"/>
-      <c r="I86" s="84"/>
-      <c r="J86" s="84"/>
-      <c r="K86" s="82">
-        <v>4</v>
-      </c>
-      <c r="L86" s="84"/>
-      <c r="M86" s="84"/>
-      <c r="N86" s="84"/>
-      <c r="O86" s="84"/>
-      <c r="P86" s="84"/>
-      <c r="Q86" s="84"/>
-      <c r="R86" s="84"/>
-      <c r="T86" s="81"/>
+        <v>6.6</v>
+      </c>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="82">
+        <v>3</v>
+      </c>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="25"/>
+      <c r="O86" s="25"/>
+      <c r="P86" s="25"/>
+      <c r="Q86" s="25"/>
+      <c r="R86" s="25"/>
+      <c r="T86" s="3">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="87" spans="2:20" s="80" customFormat="1">
       <c r="B87" s="83">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C87" s="74">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="D87" s="84"/>
       <c r="E87" s="84"/>
@@ -8441,7 +8672,7 @@
       <c r="I87" s="84"/>
       <c r="J87" s="84"/>
       <c r="K87" s="82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L87" s="84"/>
       <c r="M87" s="84"/>
@@ -8450,17 +8681,14 @@
       <c r="P87" s="84"/>
       <c r="Q87" s="84"/>
       <c r="R87" s="84"/>
-      <c r="T87" s="81">
-        <f t="shared" ref="T87" si="17">SUM(E87:R87)</f>
-        <v>5</v>
-      </c>
+      <c r="T87" s="81"/>
     </row>
     <row r="88" spans="2:20" s="80" customFormat="1">
       <c r="B88" s="83">
-        <v>9</v>
-      </c>
-      <c r="C88" s="42" t="s">
-        <v>175</v>
+        <v>7</v>
+      </c>
+      <c r="C88" s="74">
+        <v>7.5</v>
       </c>
       <c r="D88" s="84"/>
       <c r="E88" s="84"/>
@@ -8469,10 +8697,10 @@
       <c r="H88" s="84"/>
       <c r="I88" s="84"/>
       <c r="J88" s="84"/>
-      <c r="K88" s="84"/>
-      <c r="L88" s="82">
-        <v>2</v>
-      </c>
+      <c r="K88" s="82">
+        <v>4</v>
+      </c>
+      <c r="L88" s="84"/>
       <c r="M88" s="84"/>
       <c r="N88" s="84"/>
       <c r="O88" s="84"/>
@@ -8483,10 +8711,10 @@
     </row>
     <row r="89" spans="2:20" s="80" customFormat="1">
       <c r="B89" s="83">
-        <v>10</v>
-      </c>
-      <c r="C89" s="42" t="s">
-        <v>176</v>
+        <v>8</v>
+      </c>
+      <c r="C89" s="74">
+        <v>7.6</v>
       </c>
       <c r="D89" s="84"/>
       <c r="E89" s="84"/>
@@ -8495,24 +8723,27 @@
       <c r="H89" s="84"/>
       <c r="I89" s="84"/>
       <c r="J89" s="84"/>
-      <c r="K89" s="84"/>
-      <c r="L89" s="82">
-        <v>4</v>
-      </c>
+      <c r="K89" s="82">
+        <v>5</v>
+      </c>
+      <c r="L89" s="84"/>
       <c r="M89" s="84"/>
       <c r="N89" s="84"/>
       <c r="O89" s="84"/>
       <c r="P89" s="84"/>
       <c r="Q89" s="84"/>
       <c r="R89" s="84"/>
-      <c r="T89" s="81"/>
-    </row>
-    <row r="90" spans="2:20" s="80" customFormat="1" ht="13.5" thickBot="1">
+      <c r="T89" s="81">
+        <f t="shared" ref="T89" si="18">SUM(E89:R89)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:20" s="80" customFormat="1">
       <c r="B90" s="83">
-        <v>11</v>
-      </c>
-      <c r="C90" s="76" t="s">
-        <v>177</v>
+        <v>9</v>
+      </c>
+      <c r="C90" s="42" t="s">
+        <v>175</v>
       </c>
       <c r="D90" s="84"/>
       <c r="E90" s="84"/>
@@ -8523,7 +8754,7 @@
       <c r="J90" s="84"/>
       <c r="K90" s="84"/>
       <c r="L90" s="82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M90" s="84"/>
       <c r="N90" s="84"/>
@@ -8531,17 +8762,14 @@
       <c r="P90" s="84"/>
       <c r="Q90" s="84"/>
       <c r="R90" s="84"/>
-      <c r="T90" s="81">
-        <f t="shared" ref="T90" si="18">SUM(E90:R90)</f>
-        <v>5</v>
-      </c>
+      <c r="T90" s="81"/>
     </row>
     <row r="91" spans="2:20" s="80" customFormat="1">
       <c r="B91" s="83">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C91" s="42" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D91" s="84"/>
       <c r="E91" s="84"/>
@@ -8551,10 +8779,10 @@
       <c r="I91" s="84"/>
       <c r="J91" s="84"/>
       <c r="K91" s="84"/>
-      <c r="L91" s="84"/>
-      <c r="M91" s="82">
-        <v>2</v>
-      </c>
+      <c r="L91" s="82">
+        <v>4</v>
+      </c>
+      <c r="M91" s="84"/>
       <c r="N91" s="84"/>
       <c r="O91" s="84"/>
       <c r="P91" s="84"/>
@@ -8562,12 +8790,12 @@
       <c r="R91" s="84"/>
       <c r="T91" s="81"/>
     </row>
-    <row r="92" spans="2:20" s="80" customFormat="1">
+    <row r="92" spans="2:20" s="80" customFormat="1" ht="13.8" thickBot="1">
       <c r="B92" s="83">
-        <v>13</v>
-      </c>
-      <c r="C92" s="42" t="s">
-        <v>184</v>
+        <v>11</v>
+      </c>
+      <c r="C92" s="76" t="s">
+        <v>177</v>
       </c>
       <c r="D92" s="84"/>
       <c r="E92" s="84"/>
@@ -8577,23 +8805,26 @@
       <c r="I92" s="84"/>
       <c r="J92" s="84"/>
       <c r="K92" s="84"/>
-      <c r="L92" s="84"/>
-      <c r="M92" s="82">
-        <v>4</v>
-      </c>
+      <c r="L92" s="82">
+        <v>5</v>
+      </c>
+      <c r="M92" s="84"/>
       <c r="N92" s="84"/>
       <c r="O92" s="84"/>
       <c r="P92" s="84"/>
       <c r="Q92" s="84"/>
       <c r="R92" s="84"/>
-      <c r="T92" s="81"/>
-    </row>
-    <row r="93" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
+      <c r="T92" s="81">
+        <f t="shared" ref="T92" si="19">SUM(E92:R92)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="2:20" s="80" customFormat="1">
       <c r="B93" s="83">
-        <v>14</v>
-      </c>
-      <c r="C93" s="97" t="s">
-        <v>185</v>
+        <v>12</v>
+      </c>
+      <c r="C93" s="42" t="s">
+        <v>183</v>
       </c>
       <c r="D93" s="84"/>
       <c r="E93" s="84"/>
@@ -8605,24 +8836,21 @@
       <c r="K93" s="84"/>
       <c r="L93" s="84"/>
       <c r="M93" s="82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N93" s="84"/>
       <c r="O93" s="84"/>
       <c r="P93" s="84"/>
       <c r="Q93" s="84"/>
       <c r="R93" s="84"/>
-      <c r="T93" s="81">
-        <f t="shared" ref="T93" si="19">SUM(E93:R93)</f>
-        <v>5</v>
-      </c>
+      <c r="T93" s="81"/>
     </row>
     <row r="94" spans="2:20" s="80" customFormat="1">
       <c r="B94" s="83">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D94" s="84"/>
       <c r="E94" s="84"/>
@@ -8633,22 +8861,22 @@
       <c r="J94" s="84"/>
       <c r="K94" s="84"/>
       <c r="L94" s="84"/>
-      <c r="M94" s="84"/>
-      <c r="N94" s="82">
-        <v>2</v>
-      </c>
+      <c r="M94" s="82">
+        <v>4</v>
+      </c>
+      <c r="N94" s="84"/>
       <c r="O94" s="84"/>
       <c r="P94" s="84"/>
       <c r="Q94" s="84"/>
       <c r="R94" s="84"/>
       <c r="T94" s="81"/>
     </row>
-    <row r="95" spans="2:20" s="80" customFormat="1">
+    <row r="95" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="B95" s="83">
-        <v>13</v>
-      </c>
-      <c r="C95" s="42" t="s">
-        <v>192</v>
+        <v>14</v>
+      </c>
+      <c r="C95" s="97" t="s">
+        <v>185</v>
       </c>
       <c r="D95" s="84"/>
       <c r="E95" s="84"/>
@@ -8659,22 +8887,25 @@
       <c r="J95" s="84"/>
       <c r="K95" s="84"/>
       <c r="L95" s="84"/>
-      <c r="M95" s="84"/>
-      <c r="N95" s="82">
-        <v>4</v>
-      </c>
+      <c r="M95" s="82">
+        <v>5</v>
+      </c>
+      <c r="N95" s="84"/>
       <c r="O95" s="84"/>
       <c r="P95" s="84"/>
       <c r="Q95" s="84"/>
       <c r="R95" s="84"/>
-      <c r="T95" s="81"/>
-    </row>
-    <row r="96" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
+      <c r="T95" s="81">
+        <f t="shared" ref="T95" si="20">SUM(E95:R95)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="2:20" s="80" customFormat="1">
       <c r="B96" s="83">
-        <v>14</v>
-      </c>
-      <c r="C96" s="97" t="s">
-        <v>193</v>
+        <v>12</v>
+      </c>
+      <c r="C96" s="42" t="s">
+        <v>191</v>
       </c>
       <c r="D96" s="84"/>
       <c r="E96" s="84"/>
@@ -8693,17 +8924,14 @@
       <c r="P96" s="84"/>
       <c r="Q96" s="84"/>
       <c r="R96" s="84"/>
-      <c r="T96" s="81">
-        <f t="shared" ref="T96" si="20">SUM(E96:R96)</f>
-        <v>2</v>
-      </c>
+      <c r="T96" s="81"/>
     </row>
     <row r="97" spans="2:20" s="80" customFormat="1">
       <c r="B97" s="83">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C97" s="42" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D97" s="84"/>
       <c r="E97" s="84"/>
@@ -8715,21 +8943,21 @@
       <c r="K97" s="84"/>
       <c r="L97" s="84"/>
       <c r="M97" s="84"/>
-      <c r="N97" s="84"/>
+      <c r="N97" s="82">
+        <v>4</v>
+      </c>
       <c r="O97" s="84"/>
       <c r="P97" s="84"/>
-      <c r="Q97" s="82">
-        <v>2</v>
-      </c>
+      <c r="Q97" s="84"/>
       <c r="R97" s="84"/>
       <c r="T97" s="81"/>
     </row>
-    <row r="98" spans="2:20" s="80" customFormat="1">
+    <row r="98" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
       <c r="B98" s="83">
-        <v>16</v>
-      </c>
-      <c r="C98" s="42" t="s">
-        <v>207</v>
+        <v>14</v>
+      </c>
+      <c r="C98" s="97" t="s">
+        <v>193</v>
       </c>
       <c r="D98" s="84"/>
       <c r="E98" s="84"/>
@@ -8741,21 +8969,24 @@
       <c r="K98" s="84"/>
       <c r="L98" s="84"/>
       <c r="M98" s="84"/>
-      <c r="N98" s="84"/>
+      <c r="N98" s="82">
+        <v>2</v>
+      </c>
       <c r="O98" s="84"/>
       <c r="P98" s="84"/>
-      <c r="Q98" s="82">
+      <c r="Q98" s="84"/>
+      <c r="R98" s="84"/>
+      <c r="T98" s="81">
+        <f t="shared" ref="T98" si="21">SUM(E98:R98)</f>
         <v>2</v>
       </c>
-      <c r="R98" s="84"/>
-      <c r="T98" s="81"/>
-    </row>
-    <row r="99" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1">
+    </row>
+    <row r="99" spans="2:20" s="80" customFormat="1">
       <c r="B99" s="83">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C99" s="42" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D99" s="84"/>
       <c r="E99" s="84"/>
@@ -8771,11 +9002,144 @@
       <c r="O99" s="84"/>
       <c r="P99" s="84"/>
       <c r="Q99" s="82">
+        <v>2</v>
+      </c>
+      <c r="R99" s="84"/>
+      <c r="T99" s="81"/>
+    </row>
+    <row r="100" spans="2:20" s="80" customFormat="1">
+      <c r="B100" s="83">
+        <v>16</v>
+      </c>
+      <c r="C100" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D100" s="84"/>
+      <c r="E100" s="84"/>
+      <c r="F100" s="84"/>
+      <c r="G100" s="84"/>
+      <c r="H100" s="84"/>
+      <c r="I100" s="84"/>
+      <c r="J100" s="84"/>
+      <c r="K100" s="84"/>
+      <c r="L100" s="84"/>
+      <c r="M100" s="84"/>
+      <c r="N100" s="84"/>
+      <c r="O100" s="84"/>
+      <c r="P100" s="84"/>
+      <c r="Q100" s="82">
+        <v>2</v>
+      </c>
+      <c r="R100" s="84"/>
+      <c r="T100" s="81"/>
+    </row>
+    <row r="101" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1">
+      <c r="B101" s="83">
+        <v>17</v>
+      </c>
+      <c r="C101" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="D101" s="84"/>
+      <c r="E101" s="84"/>
+      <c r="F101" s="84"/>
+      <c r="G101" s="84"/>
+      <c r="H101" s="84"/>
+      <c r="I101" s="84"/>
+      <c r="J101" s="84"/>
+      <c r="K101" s="84"/>
+      <c r="L101" s="84"/>
+      <c r="M101" s="84"/>
+      <c r="N101" s="84"/>
+      <c r="O101" s="84"/>
+      <c r="P101" s="84"/>
+      <c r="Q101" s="82">
         <v>4</v>
       </c>
-      <c r="R99" s="84"/>
-      <c r="T99" s="81">
-        <f t="shared" ref="T99" si="21">SUM(E99:R99)</f>
+      <c r="R101" s="84"/>
+      <c r="T101" s="81">
+        <f t="shared" ref="T101" si="22">SUM(E101:R101)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="2:20" s="80" customFormat="1">
+      <c r="B102" s="83">
+        <v>18</v>
+      </c>
+      <c r="C102" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="D102" s="84"/>
+      <c r="E102" s="84"/>
+      <c r="F102" s="84"/>
+      <c r="G102" s="84"/>
+      <c r="H102" s="84"/>
+      <c r="I102" s="84"/>
+      <c r="J102" s="84"/>
+      <c r="K102" s="84"/>
+      <c r="L102" s="84"/>
+      <c r="M102" s="84"/>
+      <c r="N102" s="84"/>
+      <c r="O102" s="84"/>
+      <c r="P102" s="84"/>
+      <c r="Q102" s="84"/>
+      <c r="R102" s="82">
+        <v>2</v>
+      </c>
+      <c r="T102" s="81"/>
+    </row>
+    <row r="103" spans="2:20" s="80" customFormat="1">
+      <c r="B103" s="83">
+        <v>19</v>
+      </c>
+      <c r="C103" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="D103" s="84"/>
+      <c r="E103" s="84"/>
+      <c r="F103" s="84"/>
+      <c r="G103" s="84"/>
+      <c r="H103" s="84"/>
+      <c r="I103" s="84"/>
+      <c r="J103" s="84"/>
+      <c r="K103" s="84"/>
+      <c r="L103" s="84"/>
+      <c r="M103" s="84"/>
+      <c r="N103" s="84"/>
+      <c r="O103" s="84"/>
+      <c r="P103" s="84"/>
+      <c r="Q103" s="84"/>
+      <c r="R103" s="82">
+        <v>2</v>
+      </c>
+      <c r="T103" s="81"/>
+    </row>
+    <row r="104" spans="2:20" s="80" customFormat="1" ht="15.6" customHeight="1">
+      <c r="B104" s="83">
+        <v>20</v>
+      </c>
+      <c r="C104" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D104" s="84"/>
+      <c r="E104" s="84"/>
+      <c r="F104" s="84"/>
+      <c r="G104" s="84"/>
+      <c r="H104" s="84"/>
+      <c r="I104" s="84"/>
+      <c r="J104" s="84"/>
+      <c r="K104" s="84"/>
+      <c r="L104" s="84"/>
+      <c r="M104" s="84"/>
+      <c r="N104" s="84"/>
+      <c r="O104" s="84"/>
+      <c r="P104" s="84"/>
+      <c r="Q104" s="84"/>
+      <c r="R104" s="82">
+        <v>4</v>
+      </c>
+      <c r="T104" s="81">
+        <f t="shared" ref="T104" si="23">SUM(E104:R104)</f>
         <v>4</v>
       </c>
     </row>

--- a/docs/Listing_Tool_Status_Report_v1.0.xlsx
+++ b/docs/Listing_Tool_Status_Report_v1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5352" yWindow="-360" windowWidth="16608" windowHeight="9432" activeTab="2"/>
@@ -11,7 +11,7 @@
     <sheet name="WBS" sheetId="5" r:id="rId2"/>
     <sheet name="March 2015" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2525,7 +2525,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -3470,6 +3470,42 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3479,15 +3515,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3506,33 +3533,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3543,9 +3546,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3569,7 +3569,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3643,7 +3643,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3678,7 +3677,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3854,7 +3852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4140,12 +4138,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -4202,7 +4200,7 @@
       <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="130" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="37" t="s">
@@ -4223,7 +4221,7 @@
       <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="131"/>
       <c r="B4" s="42" t="s">
         <v>41</v>
       </c>
@@ -4242,7 +4240,7 @@
       <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A5" s="123"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="47" t="s">
         <v>42</v>
       </c>
@@ -4285,10 +4283,10 @@
       <c r="H8" s="56"/>
     </row>
     <row r="9" spans="1:9" ht="26.7" customHeight="1">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="133" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="58" t="s">
@@ -4310,8 +4308,8 @@
       <c r="I9" s="41"/>
     </row>
     <row r="10" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A10" s="122"/>
-      <c r="B10" s="125"/>
+      <c r="A10" s="131"/>
+      <c r="B10" s="134"/>
       <c r="C10" s="59" t="s">
         <v>47</v>
       </c>
@@ -4331,8 +4329,8 @@
       <c r="I10" s="62"/>
     </row>
     <row r="11" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A11" s="122"/>
-      <c r="B11" s="125"/>
+      <c r="A11" s="131"/>
+      <c r="B11" s="134"/>
       <c r="C11" s="43" t="s">
         <v>49</v>
       </c>
@@ -4352,8 +4350,8 @@
       <c r="I11" s="46"/>
     </row>
     <row r="12" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A12" s="122"/>
-      <c r="B12" s="125"/>
+      <c r="A12" s="131"/>
+      <c r="B12" s="134"/>
       <c r="C12" s="63" t="s">
         <v>50</v>
       </c>
@@ -4373,8 +4371,8 @@
       <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A13" s="122"/>
-      <c r="B13" s="126"/>
+      <c r="A13" s="131"/>
+      <c r="B13" s="135"/>
       <c r="C13" s="63" t="s">
         <v>52</v>
       </c>
@@ -4392,8 +4390,8 @@
       <c r="I13" s="65"/>
     </row>
     <row r="14" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A14" s="122"/>
-      <c r="B14" s="127" t="s">
+      <c r="A14" s="131"/>
+      <c r="B14" s="118" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="63" t="s">
@@ -4415,8 +4413,8 @@
       <c r="I14" s="65"/>
     </row>
     <row r="15" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A15" s="122"/>
-      <c r="B15" s="128"/>
+      <c r="A15" s="131"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="63" t="s">
         <v>55</v>
       </c>
@@ -4436,8 +4434,8 @@
       <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A16" s="122"/>
-      <c r="B16" s="128"/>
+      <c r="A16" s="131"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="63" t="s">
         <v>57</v>
       </c>
@@ -4457,8 +4455,8 @@
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A17" s="122"/>
-      <c r="B17" s="128"/>
+      <c r="A17" s="131"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="63" t="s">
         <v>59</v>
       </c>
@@ -4478,8 +4476,8 @@
       <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A18" s="122"/>
-      <c r="B18" s="128"/>
+      <c r="A18" s="131"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="63" t="s">
         <v>60</v>
       </c>
@@ -4499,8 +4497,8 @@
       <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A19" s="122"/>
-      <c r="B19" s="128"/>
+      <c r="A19" s="131"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="63" t="s">
         <v>61</v>
       </c>
@@ -4520,8 +4518,8 @@
       <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A20" s="122"/>
-      <c r="B20" s="128"/>
+      <c r="A20" s="131"/>
+      <c r="B20" s="119"/>
       <c r="C20" s="63" t="s">
         <v>62</v>
       </c>
@@ -4541,8 +4539,8 @@
       <c r="I20" s="65"/>
     </row>
     <row r="21" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A21" s="122"/>
-      <c r="B21" s="128"/>
+      <c r="A21" s="131"/>
+      <c r="B21" s="119"/>
       <c r="C21" s="90" t="s">
         <v>163</v>
       </c>
@@ -4560,8 +4558,8 @@
       <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A22" s="123"/>
-      <c r="B22" s="129"/>
+      <c r="A22" s="132"/>
+      <c r="B22" s="120"/>
       <c r="C22" s="66" t="s">
         <v>164</v>
       </c>
@@ -4605,7 +4603,7 @@
       <c r="H25" s="56"/>
     </row>
     <row r="26" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A26" s="115" t="s">
+      <c r="A26" s="127" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="37" t="s">
@@ -4628,7 +4626,7 @@
       <c r="I26" s="41"/>
     </row>
     <row r="27" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A27" s="116"/>
+      <c r="A27" s="128"/>
       <c r="B27" s="42" t="s">
         <v>66</v>
       </c>
@@ -4649,8 +4647,8 @@
       <c r="I27" s="46"/>
     </row>
     <row r="28" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A28" s="116"/>
-      <c r="B28" s="130" t="s">
+      <c r="A28" s="128"/>
+      <c r="B28" s="121" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="63" t="s">
@@ -4672,8 +4670,8 @@
       <c r="I28" s="65"/>
     </row>
     <row r="29" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A29" s="116"/>
-      <c r="B29" s="131"/>
+      <c r="A29" s="128"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="63" t="s">
         <v>70</v>
       </c>
@@ -4693,8 +4691,8 @@
       <c r="I29" s="65"/>
     </row>
     <row r="30" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A30" s="116"/>
-      <c r="B30" s="132"/>
+      <c r="A30" s="128"/>
+      <c r="B30" s="136"/>
       <c r="C30" s="63" t="s">
         <v>72</v>
       </c>
@@ -4714,8 +4712,8 @@
       <c r="I30" s="65"/>
     </row>
     <row r="31" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A31" s="116"/>
-      <c r="B31" s="130" t="s">
+      <c r="A31" s="128"/>
+      <c r="B31" s="121" t="s">
         <v>126</v>
       </c>
       <c r="C31" s="70" t="s">
@@ -4737,8 +4735,8 @@
       <c r="I31" s="65"/>
     </row>
     <row r="32" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A32" s="116"/>
-      <c r="B32" s="131"/>
+      <c r="A32" s="128"/>
+      <c r="B32" s="122"/>
       <c r="C32" s="70" t="s">
         <v>120</v>
       </c>
@@ -4758,8 +4756,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A33" s="116"/>
-      <c r="B33" s="131"/>
+      <c r="A33" s="128"/>
+      <c r="B33" s="122"/>
       <c r="C33" s="70" t="s">
         <v>121</v>
       </c>
@@ -4781,8 +4779,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A34" s="116"/>
-      <c r="B34" s="131"/>
+      <c r="A34" s="128"/>
+      <c r="B34" s="122"/>
       <c r="C34" s="70" t="s">
         <v>122</v>
       </c>
@@ -4802,8 +4800,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A35" s="116"/>
-      <c r="B35" s="131"/>
+      <c r="A35" s="128"/>
+      <c r="B35" s="122"/>
       <c r="C35" s="70" t="s">
         <v>123</v>
       </c>
@@ -4823,8 +4821,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A36" s="116"/>
-      <c r="B36" s="131"/>
+      <c r="A36" s="128"/>
+      <c r="B36" s="122"/>
       <c r="C36" s="70" t="s">
         <v>124</v>
       </c>
@@ -4844,8 +4842,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A37" s="116"/>
-      <c r="B37" s="140"/>
+      <c r="A37" s="128"/>
+      <c r="B37" s="123"/>
       <c r="C37" s="73" t="s">
         <v>125</v>
       </c>
@@ -4863,8 +4861,8 @@
       <c r="I37" s="51"/>
     </row>
     <row r="38" spans="1:9" ht="13.65" customHeight="1">
-      <c r="A38" s="116"/>
-      <c r="B38" s="133" t="s">
+      <c r="A38" s="128"/>
+      <c r="B38" s="124" t="s">
         <v>167</v>
       </c>
       <c r="C38" s="70" t="s">
@@ -4886,8 +4884,8 @@
       <c r="I38" s="70"/>
     </row>
     <row r="39" spans="1:9" ht="13.65" customHeight="1">
-      <c r="A39" s="116"/>
-      <c r="B39" s="134"/>
+      <c r="A39" s="128"/>
+      <c r="B39" s="125"/>
       <c r="C39" s="70" t="s">
         <v>168</v>
       </c>
@@ -4907,8 +4905,8 @@
       <c r="I39" s="70"/>
     </row>
     <row r="40" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A40" s="116"/>
-      <c r="B40" s="134"/>
+      <c r="A40" s="128"/>
+      <c r="B40" s="125"/>
       <c r="C40" s="73" t="s">
         <v>169</v>
       </c>
@@ -4928,8 +4926,8 @@
       <c r="I40" s="51"/>
     </row>
     <row r="41" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A41" s="116"/>
-      <c r="B41" s="134"/>
+      <c r="A41" s="128"/>
+      <c r="B41" s="125"/>
       <c r="C41" s="73" t="s">
         <v>186</v>
       </c>
@@ -4949,8 +4947,8 @@
       <c r="I41" s="51"/>
     </row>
     <row r="42" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A42" s="116"/>
-      <c r="B42" s="135"/>
+      <c r="A42" s="128"/>
+      <c r="B42" s="126"/>
       <c r="C42" s="73" t="s">
         <v>194</v>
       </c>
@@ -4970,8 +4968,8 @@
       <c r="I42" s="51"/>
     </row>
     <row r="43" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A43" s="116"/>
-      <c r="B43" s="133" t="s">
+      <c r="A43" s="128"/>
+      <c r="B43" s="124" t="s">
         <v>211</v>
       </c>
       <c r="C43" s="73" t="s">
@@ -4993,8 +4991,8 @@
       <c r="I43" s="51"/>
     </row>
     <row r="44" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A44" s="116"/>
-      <c r="B44" s="134"/>
+      <c r="A44" s="128"/>
+      <c r="B44" s="125"/>
       <c r="C44" s="73" t="s">
         <v>213</v>
       </c>
@@ -5014,8 +5012,8 @@
       <c r="I44" s="51"/>
     </row>
     <row r="45" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A45" s="117"/>
-      <c r="B45" s="135"/>
+      <c r="A45" s="129"/>
+      <c r="B45" s="126"/>
       <c r="C45" s="73" t="s">
         <v>214</v>
       </c>
@@ -5063,7 +5061,7 @@
       <c r="H48" s="56"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="121" t="s">
+      <c r="A49" s="130" t="s">
         <v>74</v>
       </c>
       <c r="B49" s="37" t="s">
@@ -5084,8 +5082,8 @@
       <c r="I49" s="41"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="122"/>
-      <c r="B50" s="127" t="s">
+      <c r="A50" s="131"/>
+      <c r="B50" s="118" t="s">
         <v>77</v>
       </c>
       <c r="C50" s="69" t="s">
@@ -5105,8 +5103,8 @@
       <c r="I50" s="46"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="122"/>
-      <c r="B51" s="128"/>
+      <c r="A51" s="131"/>
+      <c r="B51" s="119"/>
       <c r="C51" s="63" t="s">
         <v>79</v>
       </c>
@@ -5124,8 +5122,8 @@
       <c r="I51" s="65"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="122"/>
-      <c r="B52" s="128"/>
+      <c r="A52" s="131"/>
+      <c r="B52" s="119"/>
       <c r="C52" s="63" t="s">
         <v>80</v>
       </c>
@@ -5143,8 +5141,8 @@
       <c r="I52" s="65"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="122"/>
-      <c r="B53" s="128"/>
+      <c r="A53" s="131"/>
+      <c r="B53" s="119"/>
       <c r="C53" s="63" t="s">
         <v>81</v>
       </c>
@@ -5162,8 +5160,8 @@
       <c r="I53" s="65"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="122"/>
-      <c r="B54" s="128"/>
+      <c r="A54" s="131"/>
+      <c r="B54" s="119"/>
       <c r="C54" s="63" t="s">
         <v>83</v>
       </c>
@@ -5181,8 +5179,8 @@
       <c r="I54" s="65"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="122"/>
-      <c r="B55" s="136"/>
+      <c r="A55" s="131"/>
+      <c r="B55" s="137"/>
       <c r="C55" s="63" t="s">
         <v>85</v>
       </c>
@@ -5200,8 +5198,8 @@
       <c r="I55" s="65"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="122"/>
-      <c r="B56" s="127" t="s">
+      <c r="A56" s="131"/>
+      <c r="B56" s="118" t="s">
         <v>87</v>
       </c>
       <c r="C56" s="63" t="s">
@@ -5224,8 +5222,8 @@
       <c r="I56" s="65"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="122"/>
-      <c r="B57" s="128"/>
+      <c r="A57" s="131"/>
+      <c r="B57" s="119"/>
       <c r="C57" s="70" t="s">
         <v>90</v>
       </c>
@@ -5246,8 +5244,8 @@
       <c r="I57" s="65"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="122"/>
-      <c r="B58" s="128"/>
+      <c r="A58" s="131"/>
+      <c r="B58" s="119"/>
       <c r="C58" s="63" t="s">
         <v>91</v>
       </c>
@@ -5268,8 +5266,8 @@
       <c r="I58" s="65"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="122"/>
-      <c r="B59" s="128"/>
+      <c r="A59" s="131"/>
+      <c r="B59" s="119"/>
       <c r="C59" s="70" t="s">
         <v>93</v>
       </c>
@@ -5290,8 +5288,8 @@
       <c r="I59" s="71"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="122"/>
-      <c r="B60" s="128"/>
+      <c r="A60" s="131"/>
+      <c r="B60" s="119"/>
       <c r="C60" s="70" t="s">
         <v>94</v>
       </c>
@@ -5312,8 +5310,8 @@
       <c r="I60" s="65"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="122"/>
-      <c r="B61" s="128"/>
+      <c r="A61" s="131"/>
+      <c r="B61" s="119"/>
       <c r="C61" s="70" t="s">
         <v>96</v>
       </c>
@@ -5323,7 +5321,7 @@
       <c r="E61" s="100"/>
       <c r="F61" s="64">
         <f>'March 2015'!T48</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G61" s="67">
         <v>42079</v>
@@ -5334,8 +5332,8 @@
       <c r="I61" s="71"/>
     </row>
     <row r="62" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A62" s="122"/>
-      <c r="B62" s="128"/>
+      <c r="A62" s="131"/>
+      <c r="B62" s="119"/>
       <c r="C62" s="70" t="s">
         <v>198</v>
       </c>
@@ -5356,8 +5354,8 @@
       <c r="I62" s="71"/>
     </row>
     <row r="63" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A63" s="122"/>
-      <c r="B63" s="128"/>
+      <c r="A63" s="131"/>
+      <c r="B63" s="119"/>
       <c r="C63" s="70" t="s">
         <v>199</v>
       </c>
@@ -5378,8 +5376,8 @@
       <c r="I63" s="71"/>
     </row>
     <row r="64" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A64" s="122"/>
-      <c r="B64" s="128"/>
+      <c r="A64" s="131"/>
+      <c r="B64" s="119"/>
       <c r="C64" s="70" t="s">
         <v>200</v>
       </c>
@@ -5400,8 +5398,8 @@
       <c r="I64" s="71"/>
     </row>
     <row r="65" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A65" s="122"/>
-      <c r="B65" s="128"/>
+      <c r="A65" s="131"/>
+      <c r="B65" s="119"/>
       <c r="C65" s="70" t="s">
         <v>201</v>
       </c>
@@ -5422,8 +5420,8 @@
       <c r="I65" s="71"/>
     </row>
     <row r="66" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A66" s="122"/>
-      <c r="B66" s="128"/>
+      <c r="A66" s="131"/>
+      <c r="B66" s="119"/>
       <c r="C66" s="70" t="s">
         <v>209</v>
       </c>
@@ -5433,19 +5431,19 @@
       <c r="E66" s="102"/>
       <c r="F66" s="64">
         <f>'March 2015'!T53</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G66" s="78">
         <v>42093</v>
       </c>
       <c r="H66" s="45">
-        <v>42093</v>
+        <v>42094</v>
       </c>
       <c r="I66" s="71"/>
     </row>
     <row r="67" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A67" s="123"/>
-      <c r="B67" s="129"/>
+      <c r="A67" s="132"/>
+      <c r="B67" s="120"/>
       <c r="C67" s="73"/>
       <c r="D67" s="73" t="s">
         <v>76</v>
@@ -5467,16 +5465,16 @@
       <c r="E68" s="54"/>
       <c r="F68" s="55">
         <f>SUM(F49:F67)</f>
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="13.8" thickTop="1"/>
     <row r="70" spans="1:9" ht="13.8" thickBot="1"/>
     <row r="71" spans="1:9">
-      <c r="A71" s="137" t="s">
+      <c r="A71" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="B71" s="138" t="s">
+      <c r="B71" s="139" t="s">
         <v>135</v>
       </c>
       <c r="C71" s="38" t="s">
@@ -5498,8 +5496,8 @@
       <c r="I71" s="41"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="122"/>
-      <c r="B72" s="139"/>
+      <c r="A72" s="131"/>
+      <c r="B72" s="140"/>
       <c r="C72" s="59" t="s">
         <v>100</v>
       </c>
@@ -5519,8 +5517,8 @@
       <c r="I72" s="62"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="122"/>
-      <c r="B73" s="127" t="s">
+      <c r="A73" s="131"/>
+      <c r="B73" s="118" t="s">
         <v>137</v>
       </c>
       <c r="C73" s="43" t="s">
@@ -5542,8 +5540,8 @@
       <c r="I73" s="46"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="122"/>
-      <c r="B74" s="128"/>
+      <c r="A74" s="131"/>
+      <c r="B74" s="119"/>
       <c r="C74" s="63" t="s">
         <v>103</v>
       </c>
@@ -5563,8 +5561,8 @@
       <c r="I74" s="65"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="122"/>
-      <c r="B75" s="128"/>
+      <c r="A75" s="131"/>
+      <c r="B75" s="119"/>
       <c r="C75" s="63" t="s">
         <v>105</v>
       </c>
@@ -5584,8 +5582,8 @@
       <c r="I75" s="65"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="122"/>
-      <c r="B76" s="136"/>
+      <c r="A76" s="131"/>
+      <c r="B76" s="137"/>
       <c r="C76" s="63" t="s">
         <v>107</v>
       </c>
@@ -5605,7 +5603,7 @@
       <c r="I76" s="65"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="122"/>
+      <c r="A77" s="131"/>
       <c r="B77" s="42" t="s">
         <v>139</v>
       </c>
@@ -5626,8 +5624,8 @@
       <c r="I77" s="65"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="122"/>
-      <c r="B78" s="127" t="s">
+      <c r="A78" s="131"/>
+      <c r="B78" s="118" t="s">
         <v>141</v>
       </c>
       <c r="C78" s="63" t="s">
@@ -5649,8 +5647,8 @@
       <c r="I78" s="65"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="122"/>
-      <c r="B79" s="128"/>
+      <c r="A79" s="131"/>
+      <c r="B79" s="119"/>
       <c r="C79" s="63" t="s">
         <v>111</v>
       </c>
@@ -5670,8 +5668,8 @@
       <c r="I79" s="65"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="122"/>
-      <c r="B80" s="128"/>
+      <c r="A80" s="131"/>
+      <c r="B80" s="119"/>
       <c r="C80" s="63" t="s">
         <v>112</v>
       </c>
@@ -5691,8 +5689,8 @@
       <c r="I80" s="65"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="122"/>
-      <c r="B81" s="136"/>
+      <c r="A81" s="131"/>
+      <c r="B81" s="137"/>
       <c r="C81" s="63" t="s">
         <v>113</v>
       </c>
@@ -5712,7 +5710,7 @@
       <c r="I81" s="71"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="122"/>
+      <c r="A82" s="131"/>
       <c r="B82" s="42" t="s">
         <v>143</v>
       </c>
@@ -5735,8 +5733,8 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A83" s="123"/>
-      <c r="B83" s="127" t="s">
+      <c r="A83" s="132"/>
+      <c r="B83" s="118" t="s">
         <v>144</v>
       </c>
       <c r="C83" s="42" t="s">
@@ -5757,7 +5755,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="91"/>
-      <c r="B84" s="128"/>
+      <c r="B84" s="119"/>
       <c r="C84" s="42" t="s">
         <v>146</v>
       </c>
@@ -5776,7 +5774,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="92"/>
-      <c r="B85" s="128"/>
+      <c r="B85" s="119"/>
       <c r="C85" s="42" t="s">
         <v>149</v>
       </c>
@@ -5795,7 +5793,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="92"/>
-      <c r="B86" s="128"/>
+      <c r="B86" s="119"/>
       <c r="C86" s="42" t="s">
         <v>147</v>
       </c>
@@ -5814,7 +5812,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="92"/>
-      <c r="B87" s="128"/>
+      <c r="B87" s="119"/>
       <c r="C87" s="42" t="s">
         <v>150</v>
       </c>
@@ -5833,7 +5831,7 @@
     </row>
     <row r="88" spans="1:9" ht="13.8" thickBot="1">
       <c r="A88" s="92"/>
-      <c r="B88" s="129"/>
+      <c r="B88" s="120"/>
       <c r="C88" s="76" t="s">
         <v>148</v>
       </c>
@@ -5852,7 +5850,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="92"/>
-      <c r="B89" s="118" t="s">
+      <c r="B89" s="115" t="s">
         <v>162</v>
       </c>
       <c r="C89" s="42" t="s">
@@ -5873,7 +5871,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="92"/>
-      <c r="B90" s="119"/>
+      <c r="B90" s="116"/>
       <c r="C90" s="42" t="s">
         <v>155</v>
       </c>
@@ -5892,7 +5890,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="92"/>
-      <c r="B91" s="119"/>
+      <c r="B91" s="116"/>
       <c r="C91" s="42" t="s">
         <v>156</v>
       </c>
@@ -5911,7 +5909,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="92"/>
-      <c r="B92" s="119"/>
+      <c r="B92" s="116"/>
       <c r="C92" s="42" t="s">
         <v>159</v>
       </c>
@@ -5930,7 +5928,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="92"/>
-      <c r="B93" s="119"/>
+      <c r="B93" s="116"/>
       <c r="C93" s="42" t="s">
         <v>160</v>
       </c>
@@ -5949,7 +5947,7 @@
     </row>
     <row r="94" spans="1:9" ht="13.8" thickBot="1">
       <c r="A94" s="93"/>
-      <c r="B94" s="120"/>
+      <c r="B94" s="117"/>
       <c r="C94" s="76" t="s">
         <v>161</v>
       </c>
@@ -5968,7 +5966,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="92"/>
-      <c r="B95" s="118" t="s">
+      <c r="B95" s="115" t="s">
         <v>171</v>
       </c>
       <c r="C95" s="42" t="s">
@@ -5989,7 +5987,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="92"/>
-      <c r="B96" s="119"/>
+      <c r="B96" s="116"/>
       <c r="C96" s="42" t="s">
         <v>173</v>
       </c>
@@ -6008,7 +6006,7 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="92"/>
-      <c r="B97" s="119"/>
+      <c r="B97" s="116"/>
       <c r="C97" s="42" t="s">
         <v>174</v>
       </c>
@@ -6027,7 +6025,7 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="92"/>
-      <c r="B98" s="119"/>
+      <c r="B98" s="116"/>
       <c r="C98" s="42" t="s">
         <v>175</v>
       </c>
@@ -6046,7 +6044,7 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="92"/>
-      <c r="B99" s="119"/>
+      <c r="B99" s="116"/>
       <c r="C99" s="42" t="s">
         <v>176</v>
       </c>
@@ -6065,7 +6063,7 @@
     </row>
     <row r="100" spans="1:9" ht="51" thickBot="1">
       <c r="A100" s="93"/>
-      <c r="B100" s="120"/>
+      <c r="B100" s="117"/>
       <c r="C100" s="97" t="s">
         <v>177</v>
       </c>
@@ -6084,7 +6082,7 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="92"/>
-      <c r="B101" s="118" t="s">
+      <c r="B101" s="115" t="s">
         <v>179</v>
       </c>
       <c r="C101" s="42" t="s">
@@ -6105,7 +6103,7 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="92"/>
-      <c r="B102" s="119"/>
+      <c r="B102" s="116"/>
       <c r="C102" s="42" t="s">
         <v>181</v>
       </c>
@@ -6124,7 +6122,7 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="92"/>
-      <c r="B103" s="119"/>
+      <c r="B103" s="116"/>
       <c r="C103" s="42" t="s">
         <v>182</v>
       </c>
@@ -6143,7 +6141,7 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="92"/>
-      <c r="B104" s="119"/>
+      <c r="B104" s="116"/>
       <c r="C104" s="42" t="s">
         <v>183</v>
       </c>
@@ -6162,7 +6160,7 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="92"/>
-      <c r="B105" s="119"/>
+      <c r="B105" s="116"/>
       <c r="C105" s="42" t="s">
         <v>184</v>
       </c>
@@ -6181,7 +6179,7 @@
     </row>
     <row r="106" spans="1:9" ht="16.95" customHeight="1" thickBot="1">
       <c r="A106" s="93"/>
-      <c r="B106" s="120"/>
+      <c r="B106" s="117"/>
       <c r="C106" s="97" t="s">
         <v>185</v>
       </c>
@@ -6200,7 +6198,7 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="92"/>
-      <c r="B107" s="118" t="s">
+      <c r="B107" s="115" t="s">
         <v>187</v>
       </c>
       <c r="C107" s="42" t="s">
@@ -6221,7 +6219,7 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="92"/>
-      <c r="B108" s="119"/>
+      <c r="B108" s="116"/>
       <c r="C108" s="42" t="s">
         <v>189</v>
       </c>
@@ -6240,7 +6238,7 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="92"/>
-      <c r="B109" s="119"/>
+      <c r="B109" s="116"/>
       <c r="C109" s="42" t="s">
         <v>190</v>
       </c>
@@ -6259,7 +6257,7 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="92"/>
-      <c r="B110" s="119"/>
+      <c r="B110" s="116"/>
       <c r="C110" s="42" t="s">
         <v>191</v>
       </c>
@@ -6278,7 +6276,7 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="92"/>
-      <c r="B111" s="119"/>
+      <c r="B111" s="116"/>
       <c r="C111" s="42" t="s">
         <v>192</v>
       </c>
@@ -6297,7 +6295,7 @@
     </row>
     <row r="112" spans="1:9" ht="16.95" customHeight="1" thickBot="1">
       <c r="A112" s="93"/>
-      <c r="B112" s="120"/>
+      <c r="B112" s="117"/>
       <c r="C112" s="97" t="s">
         <v>193</v>
       </c>
@@ -6316,7 +6314,7 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="103"/>
-      <c r="B113" s="118" t="s">
+      <c r="B113" s="115" t="s">
         <v>202</v>
       </c>
       <c r="C113" s="42" t="s">
@@ -6337,7 +6335,7 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="92"/>
-      <c r="B114" s="119"/>
+      <c r="B114" s="116"/>
       <c r="C114" s="42" t="s">
         <v>205</v>
       </c>
@@ -6356,7 +6354,7 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="92"/>
-      <c r="B115" s="119"/>
+      <c r="B115" s="116"/>
       <c r="C115" s="42" t="s">
         <v>206</v>
       </c>
@@ -6375,7 +6373,7 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="92"/>
-      <c r="B116" s="119"/>
+      <c r="B116" s="116"/>
       <c r="C116" s="42" t="s">
         <v>207</v>
       </c>
@@ -6394,7 +6392,7 @@
     </row>
     <row r="117" spans="1:9" ht="13.8" thickBot="1">
       <c r="A117" s="93"/>
-      <c r="B117" s="120"/>
+      <c r="B117" s="117"/>
       <c r="C117" s="42" t="s">
         <v>208</v>
       </c>
@@ -6413,7 +6411,7 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="103"/>
-      <c r="B118" s="118" t="s">
+      <c r="B118" s="115" t="s">
         <v>215</v>
       </c>
       <c r="C118" s="42" t="s">
@@ -6434,7 +6432,7 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="92"/>
-      <c r="B119" s="119"/>
+      <c r="B119" s="116"/>
       <c r="C119" s="42" t="s">
         <v>217</v>
       </c>
@@ -6453,7 +6451,7 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="92"/>
-      <c r="B120" s="119"/>
+      <c r="B120" s="116"/>
       <c r="C120" s="42" t="s">
         <v>218</v>
       </c>
@@ -6472,7 +6470,7 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="92"/>
-      <c r="B121" s="119"/>
+      <c r="B121" s="116"/>
       <c r="C121" s="42" t="s">
         <v>219</v>
       </c>
@@ -6491,7 +6489,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="93"/>
-      <c r="B122" s="120"/>
+      <c r="B122" s="117"/>
       <c r="C122" s="42" t="s">
         <v>220</v>
       </c>
@@ -6510,11 +6508,8 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B118:B122"/>
-    <mergeCell ref="B101:B106"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B78:B81"/>
     <mergeCell ref="B31:B37"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="A26:A45"/>
@@ -6531,8 +6526,11 @@
     <mergeCell ref="B56:B67"/>
     <mergeCell ref="A71:A83"/>
     <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B118:B122"/>
+    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="B89:B94"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6541,14 +6539,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="J43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O77" sqref="O77"/>
+      <selection pane="bottomRight" activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -7674,10 +7672,12 @@
       <c r="O48" s="84"/>
       <c r="P48" s="84"/>
       <c r="Q48" s="84"/>
-      <c r="R48" s="84"/>
+      <c r="R48" s="82">
+        <v>4</v>
+      </c>
       <c r="T48" s="81">
         <f t="shared" ref="T48:T52" si="6">SUM(E48:R48)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="80" customFormat="1">
@@ -7825,10 +7825,12 @@
       <c r="Q53" s="82">
         <v>6</v>
       </c>
-      <c r="R53" s="84"/>
+      <c r="R53" s="82">
+        <v>4</v>
+      </c>
       <c r="T53" s="81">
         <f t="shared" ref="T53" si="7">SUM(E53:R53)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:20" s="80" customFormat="1">

--- a/docs/Listing_Tool_Status_Report_v1.0.xlsx
+++ b/docs/Listing_Tool_Status_Report_v1.0.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5352" yWindow="-360" windowWidth="16608" windowHeight="9432" activeTab="2"/>
+    <workbookView xWindow="5355" yWindow="-360" windowWidth="16605" windowHeight="9435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="WBS" sheetId="5" r:id="rId2"/>
     <sheet name="March 2015" sheetId="3" r:id="rId3"/>
+    <sheet name="April 2015" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="224">
   <si>
     <t>Project Name:</t>
   </si>
@@ -2397,9 +2398,6 @@
     <t>6.2 验证Feed上传数据可行性</t>
   </si>
   <si>
-    <t>6.3 验证自定议广告可行性</t>
-  </si>
-  <si>
     <t>12.分析google adwors 关键字统计展示率和点击率;调研MCC创建google客户账号类型                              and                                                  翻译transaction表头;调整局部样式，测试表结构和表数据</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -2520,6 +2518,18 @@
       <t>、修正国际化缓存异常情况</t>
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Timesheet (April 1 ~ April 31)</t>
+  </si>
+  <si>
+    <t>6.4 验证多帐号管理Merchant Account，使用其Feed发布广告</t>
+  </si>
+  <si>
+    <t>6.3 验证自定义广告可行性</t>
   </si>
 </sst>
 </file>
@@ -2527,7 +2537,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -2539,7 +2549,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2602,7 +2612,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3180,7 +3190,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3224,7 +3234,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3470,14 +3480,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3485,7 +3492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3515,6 +3522,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3533,11 +3549,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3550,10 +3566,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="1"/>
     <cellStyle name="Normal 3 2" xfId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3569,7 +3585,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3859,15 +3875,15 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13.8" thickBot="1"/>
+    <row r="1" spans="2:10" ht="13.5" thickBot="1"/>
     <row r="2" spans="2:10">
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -3879,7 +3895,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="2:10" ht="31.8">
+    <row r="3" spans="2:10" ht="33">
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
         <v>0</v>
@@ -4119,7 +4135,7 @@
       <c r="I20" s="11"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="2:10" ht="13.8" thickBot="1">
+    <row r="21" spans="2:10" ht="13.5" thickBot="1">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -4139,24 +4155,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H66" sqref="H66"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31:B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="39" style="52" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" style="53" customWidth="1"/>
-    <col min="3" max="3" width="54.109375" style="52" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="68" customWidth="1"/>
-    <col min="7" max="8" width="11.5546875" style="52" customWidth="1"/>
-    <col min="9" max="9" width="38.44140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="33"/>
+    <col min="2" max="2" width="41.85546875" style="53" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="52" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="68" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" style="52" customWidth="1"/>
+    <col min="9" max="9" width="38.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4188,7 +4204,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.8" thickBot="1">
+    <row r="2" spans="1:9" ht="13.5" thickBot="1">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="34"/>
@@ -4199,8 +4215,8 @@
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
     </row>
-    <row r="3" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A3" s="130" t="s">
+    <row r="3" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A3" s="132" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="37" t="s">
@@ -4220,8 +4236,8 @@
       </c>
       <c r="I3" s="41"/>
     </row>
-    <row r="4" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A4" s="131"/>
+    <row r="4" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A4" s="133"/>
       <c r="B4" s="42" t="s">
         <v>41</v>
       </c>
@@ -4239,8 +4255,8 @@
       </c>
       <c r="I4" s="46"/>
     </row>
-    <row r="5" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A5" s="132"/>
+    <row r="5" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A5" s="134"/>
       <c r="B5" s="47" t="s">
         <v>42</v>
       </c>
@@ -4256,7 +4272,7 @@
       <c r="H5" s="48"/>
       <c r="I5" s="51"/>
     </row>
-    <row r="6" spans="1:9" ht="13.8" thickBot="1">
+    <row r="6" spans="1:9" ht="13.5" thickBot="1">
       <c r="D6" s="54" t="s">
         <v>43</v>
       </c>
@@ -4268,25 +4284,25 @@
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
     </row>
-    <row r="7" spans="1:9" ht="13.8" thickTop="1">
+    <row r="7" spans="1:9" ht="13.5" thickTop="1">
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
       <c r="F7" s="57"/>
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
     </row>
-    <row r="8" spans="1:9" ht="13.8" thickBot="1">
+    <row r="8" spans="1:9" ht="13.5" thickBot="1">
       <c r="D8" s="54"/>
       <c r="E8" s="54"/>
       <c r="F8" s="57"/>
       <c r="G8" s="56"/>
       <c r="H8" s="56"/>
     </row>
-    <row r="9" spans="1:9" ht="26.7" customHeight="1">
-      <c r="A9" s="130" t="s">
+    <row r="9" spans="1:9" ht="26.65" customHeight="1">
+      <c r="A9" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="135" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="58" t="s">
@@ -4307,9 +4323,9 @@
       </c>
       <c r="I9" s="41"/>
     </row>
-    <row r="10" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A10" s="131"/>
-      <c r="B10" s="134"/>
+    <row r="10" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A10" s="133"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="59" t="s">
         <v>47</v>
       </c>
@@ -4328,9 +4344,9 @@
       </c>
       <c r="I10" s="62"/>
     </row>
-    <row r="11" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A11" s="131"/>
-      <c r="B11" s="134"/>
+    <row r="11" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A11" s="133"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="43" t="s">
         <v>49</v>
       </c>
@@ -4349,9 +4365,9 @@
       </c>
       <c r="I11" s="46"/>
     </row>
-    <row r="12" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A12" s="131"/>
-      <c r="B12" s="134"/>
+    <row r="12" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A12" s="133"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="63" t="s">
         <v>50</v>
       </c>
@@ -4370,9 +4386,9 @@
       </c>
       <c r="I12" s="65"/>
     </row>
-    <row r="13" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A13" s="131"/>
-      <c r="B13" s="135"/>
+    <row r="13" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A13" s="133"/>
+      <c r="B13" s="137"/>
       <c r="C13" s="63" t="s">
         <v>52</v>
       </c>
@@ -4389,9 +4405,9 @@
       </c>
       <c r="I13" s="65"/>
     </row>
-    <row r="14" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A14" s="131"/>
-      <c r="B14" s="118" t="s">
+    <row r="14" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A14" s="133"/>
+      <c r="B14" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="63" t="s">
@@ -4412,9 +4428,9 @@
       </c>
       <c r="I14" s="65"/>
     </row>
-    <row r="15" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A15" s="131"/>
-      <c r="B15" s="119"/>
+    <row r="15" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A15" s="133"/>
+      <c r="B15" s="118"/>
       <c r="C15" s="63" t="s">
         <v>55</v>
       </c>
@@ -4433,9 +4449,9 @@
       </c>
       <c r="I15" s="65"/>
     </row>
-    <row r="16" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A16" s="131"/>
-      <c r="B16" s="119"/>
+    <row r="16" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A16" s="133"/>
+      <c r="B16" s="118"/>
       <c r="C16" s="63" t="s">
         <v>57</v>
       </c>
@@ -4454,9 +4470,9 @@
       </c>
       <c r="I16" s="65"/>
     </row>
-    <row r="17" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A17" s="131"/>
-      <c r="B17" s="119"/>
+    <row r="17" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A17" s="133"/>
+      <c r="B17" s="118"/>
       <c r="C17" s="63" t="s">
         <v>59</v>
       </c>
@@ -4475,9 +4491,9 @@
       </c>
       <c r="I17" s="65"/>
     </row>
-    <row r="18" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A18" s="131"/>
-      <c r="B18" s="119"/>
+    <row r="18" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A18" s="133"/>
+      <c r="B18" s="118"/>
       <c r="C18" s="63" t="s">
         <v>60</v>
       </c>
@@ -4496,9 +4512,9 @@
       </c>
       <c r="I18" s="65"/>
     </row>
-    <row r="19" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A19" s="131"/>
-      <c r="B19" s="119"/>
+    <row r="19" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A19" s="133"/>
+      <c r="B19" s="118"/>
       <c r="C19" s="63" t="s">
         <v>61</v>
       </c>
@@ -4517,9 +4533,9 @@
       </c>
       <c r="I19" s="65"/>
     </row>
-    <row r="20" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A20" s="131"/>
-      <c r="B20" s="119"/>
+    <row r="20" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A20" s="133"/>
+      <c r="B20" s="118"/>
       <c r="C20" s="63" t="s">
         <v>62</v>
       </c>
@@ -4538,9 +4554,9 @@
       </c>
       <c r="I20" s="65"/>
     </row>
-    <row r="21" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A21" s="131"/>
-      <c r="B21" s="119"/>
+    <row r="21" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A21" s="133"/>
+      <c r="B21" s="118"/>
       <c r="C21" s="90" t="s">
         <v>163</v>
       </c>
@@ -4557,9 +4573,9 @@
       </c>
       <c r="I21" s="65"/>
     </row>
-    <row r="22" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A22" s="132"/>
-      <c r="B22" s="120"/>
+    <row r="22" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A22" s="134"/>
+      <c r="B22" s="138"/>
       <c r="C22" s="66" t="s">
         <v>164</v>
       </c>
@@ -4576,7 +4592,7 @@
       </c>
       <c r="I22" s="51"/>
     </row>
-    <row r="23" spans="1:9" ht="13.8" thickBot="1">
+    <row r="23" spans="1:9" ht="13.5" thickBot="1">
       <c r="D23" s="54" t="s">
         <v>43</v>
       </c>
@@ -4588,22 +4604,22 @@
       <c r="G23" s="56"/>
       <c r="H23" s="56"/>
     </row>
-    <row r="24" spans="1:9" ht="13.8" thickTop="1">
+    <row r="24" spans="1:9" ht="13.5" thickTop="1">
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
       <c r="F24" s="57"/>
       <c r="G24" s="56"/>
       <c r="H24" s="56"/>
     </row>
-    <row r="25" spans="1:9" ht="13.8" thickBot="1">
+    <row r="25" spans="1:9" ht="13.5" thickBot="1">
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
       <c r="F25" s="57"/>
       <c r="G25" s="56"/>
       <c r="H25" s="56"/>
     </row>
-    <row r="26" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A26" s="127" t="s">
+    <row r="26" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A26" s="126" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="37" t="s">
@@ -4625,8 +4641,8 @@
       </c>
       <c r="I26" s="41"/>
     </row>
-    <row r="27" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A27" s="128"/>
+    <row r="27" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A27" s="127"/>
       <c r="B27" s="42" t="s">
         <v>66</v>
       </c>
@@ -4646,9 +4662,9 @@
       </c>
       <c r="I27" s="46"/>
     </row>
-    <row r="28" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A28" s="128"/>
-      <c r="B28" s="121" t="s">
+    <row r="28" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A28" s="127"/>
+      <c r="B28" s="120" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="63" t="s">
@@ -4669,9 +4685,9 @@
       </c>
       <c r="I28" s="65"/>
     </row>
-    <row r="29" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A29" s="128"/>
-      <c r="B29" s="122"/>
+    <row r="29" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A29" s="127"/>
+      <c r="B29" s="121"/>
       <c r="C29" s="63" t="s">
         <v>70</v>
       </c>
@@ -4690,9 +4706,9 @@
       </c>
       <c r="I29" s="65"/>
     </row>
-    <row r="30" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A30" s="128"/>
-      <c r="B30" s="136"/>
+    <row r="30" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A30" s="127"/>
+      <c r="B30" s="139"/>
       <c r="C30" s="63" t="s">
         <v>72</v>
       </c>
@@ -4711,9 +4727,9 @@
       </c>
       <c r="I30" s="65"/>
     </row>
-    <row r="31" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A31" s="128"/>
-      <c r="B31" s="121" t="s">
+    <row r="31" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A31" s="127"/>
+      <c r="B31" s="120" t="s">
         <v>126</v>
       </c>
       <c r="C31" s="70" t="s">
@@ -4734,9 +4750,9 @@
       </c>
       <c r="I31" s="65"/>
     </row>
-    <row r="32" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A32" s="128"/>
-      <c r="B32" s="122"/>
+    <row r="32" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A32" s="127"/>
+      <c r="B32" s="121"/>
       <c r="C32" s="70" t="s">
         <v>120</v>
       </c>
@@ -4755,9 +4771,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A33" s="128"/>
-      <c r="B33" s="122"/>
+    <row r="33" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A33" s="127"/>
+      <c r="B33" s="121"/>
       <c r="C33" s="70" t="s">
         <v>121</v>
       </c>
@@ -4778,9 +4794,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A34" s="128"/>
-      <c r="B34" s="122"/>
+    <row r="34" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A34" s="127"/>
+      <c r="B34" s="121"/>
       <c r="C34" s="70" t="s">
         <v>122</v>
       </c>
@@ -4799,9 +4815,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A35" s="128"/>
-      <c r="B35" s="122"/>
+    <row r="35" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A35" s="127"/>
+      <c r="B35" s="121"/>
       <c r="C35" s="70" t="s">
         <v>123</v>
       </c>
@@ -4820,9 +4836,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="12.9" customHeight="1">
-      <c r="A36" s="128"/>
-      <c r="B36" s="122"/>
+    <row r="36" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A36" s="127"/>
+      <c r="B36" s="121"/>
       <c r="C36" s="70" t="s">
         <v>124</v>
       </c>
@@ -4841,9 +4857,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A37" s="128"/>
-      <c r="B37" s="123"/>
+    <row r="37" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A37" s="127"/>
+      <c r="B37" s="122"/>
       <c r="C37" s="73" t="s">
         <v>125</v>
       </c>
@@ -4860,9 +4876,9 @@
       </c>
       <c r="I37" s="51"/>
     </row>
-    <row r="38" spans="1:9" ht="13.65" customHeight="1">
-      <c r="A38" s="128"/>
-      <c r="B38" s="124" t="s">
+    <row r="38" spans="1:9" ht="13.7" customHeight="1">
+      <c r="A38" s="127"/>
+      <c r="B38" s="123" t="s">
         <v>167</v>
       </c>
       <c r="C38" s="70" t="s">
@@ -4883,9 +4899,9 @@
       </c>
       <c r="I38" s="70"/>
     </row>
-    <row r="39" spans="1:9" ht="13.65" customHeight="1">
-      <c r="A39" s="128"/>
-      <c r="B39" s="125"/>
+    <row r="39" spans="1:9" ht="13.7" customHeight="1">
+      <c r="A39" s="127"/>
+      <c r="B39" s="124"/>
       <c r="C39" s="70" t="s">
         <v>168</v>
       </c>
@@ -4904,9 +4920,9 @@
       </c>
       <c r="I39" s="70"/>
     </row>
-    <row r="40" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A40" s="128"/>
-      <c r="B40" s="125"/>
+    <row r="40" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A40" s="127"/>
+      <c r="B40" s="124"/>
       <c r="C40" s="73" t="s">
         <v>169</v>
       </c>
@@ -4925,9 +4941,9 @@
       </c>
       <c r="I40" s="51"/>
     </row>
-    <row r="41" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A41" s="128"/>
-      <c r="B41" s="125"/>
+    <row r="41" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A41" s="127"/>
+      <c r="B41" s="124"/>
       <c r="C41" s="73" t="s">
         <v>186</v>
       </c>
@@ -4946,9 +4962,9 @@
       </c>
       <c r="I41" s="51"/>
     </row>
-    <row r="42" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A42" s="128"/>
-      <c r="B42" s="126"/>
+    <row r="42" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A42" s="127"/>
+      <c r="B42" s="125"/>
       <c r="C42" s="73" t="s">
         <v>194</v>
       </c>
@@ -4967,9 +4983,9 @@
       </c>
       <c r="I42" s="51"/>
     </row>
-    <row r="43" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A43" s="128"/>
-      <c r="B43" s="124" t="s">
+    <row r="43" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A43" s="127"/>
+      <c r="B43" s="123" t="s">
         <v>211</v>
       </c>
       <c r="C43" s="73" t="s">
@@ -4990,9 +5006,9 @@
       </c>
       <c r="I43" s="51"/>
     </row>
-    <row r="44" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A44" s="128"/>
-      <c r="B44" s="125"/>
+    <row r="44" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A44" s="127"/>
+      <c r="B44" s="124"/>
       <c r="C44" s="73" t="s">
         <v>213</v>
       </c>
@@ -5001,7 +5017,7 @@
       </c>
       <c r="E44" s="76"/>
       <c r="F44" s="77">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G44" s="78">
         <v>42094</v>
@@ -5011,17 +5027,19 @@
       </c>
       <c r="I44" s="51"/>
     </row>
-    <row r="45" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A45" s="129"/>
-      <c r="B45" s="126"/>
+    <row r="45" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A45" s="127"/>
+      <c r="B45" s="124"/>
       <c r="C45" s="73" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D45" s="73" t="s">
         <v>119</v>
       </c>
       <c r="E45" s="76"/>
-      <c r="F45" s="77"/>
+      <c r="F45" s="77">
+        <v>8</v>
+      </c>
       <c r="G45" s="78">
         <v>42094</v>
       </c>
@@ -5030,102 +5048,104 @@
       </c>
       <c r="I45" s="51"/>
     </row>
-    <row r="46" spans="1:9" ht="13.65" customHeight="1" thickBot="1">
-      <c r="A46" s="107"/>
-      <c r="B46" s="110"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="111"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="109"/>
-    </row>
-    <row r="47" spans="1:9" ht="13.8" thickBot="1">
-      <c r="D47" s="54" t="s">
+    <row r="46" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A46" s="128"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="D46" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" s="76"/>
+      <c r="F46" s="77">
+        <v>13</v>
+      </c>
+      <c r="G46" s="78">
+        <v>42094</v>
+      </c>
+      <c r="H46" s="113">
+        <v>42097</v>
+      </c>
+      <c r="I46" s="51"/>
+    </row>
+    <row r="47" spans="1:9" ht="13.7" customHeight="1" thickBot="1">
+      <c r="A47" s="107"/>
+      <c r="B47" s="110"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="109"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="109"/>
+    </row>
+    <row r="48" spans="1:9" ht="13.5" thickBot="1">
+      <c r="D48" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="55">
+      <c r="E48" s="54"/>
+      <c r="F48" s="55">
         <f>SUM(F26:F42)</f>
         <v>81</v>
       </c>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-    </row>
-    <row r="48" spans="1:9" ht="14.4" thickTop="1" thickBot="1">
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="57"/>
       <c r="G48" s="56"/>
       <c r="H48" s="56"/>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="130" t="s">
+    <row r="49" spans="1:9" ht="14.25" thickTop="1" thickBot="1">
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="37" t="s">
+      <c r="B50" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38" t="s">
+      <c r="C50" s="38"/>
+      <c r="D50" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E49" s="38"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="40">
+      <c r="E50" s="38"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="40">
         <v>42079</v>
       </c>
-      <c r="H49" s="40">
+      <c r="H50" s="40">
         <v>42083</v>
       </c>
-      <c r="I49" s="41"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="131"/>
-      <c r="B50" s="118" t="s">
+      <c r="I50" s="41"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="133"/>
+      <c r="B51" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="69" t="s">
+      <c r="C51" s="69" t="s">
         <v>78</v>
-      </c>
-      <c r="D50" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" s="43"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="67">
-        <v>42079</v>
-      </c>
-      <c r="H50" s="45">
-        <v>42083</v>
-      </c>
-      <c r="I50" s="46"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="131"/>
-      <c r="B51" s="119"/>
-      <c r="C51" s="63" t="s">
-        <v>79</v>
       </c>
       <c r="